--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="242">
   <si>
     <t>Province_State</t>
   </si>
@@ -340,7 +340,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>05/06/20</t>
+    <t>05/08/20</t>
   </si>
   <si>
     <t>#636EFA</t>
@@ -349,157 +349,157 @@
     <t>#FECB52</t>
   </si>
   <si>
-    <t>05/06/20-AL</t>
-  </si>
-  <si>
-    <t>05/06/20-AK</t>
-  </si>
-  <si>
-    <t>05/06/20-AZ</t>
-  </si>
-  <si>
-    <t>05/06/20-AR</t>
-  </si>
-  <si>
-    <t>05/06/20-CA</t>
-  </si>
-  <si>
-    <t>05/06/20-CO</t>
-  </si>
-  <si>
-    <t>05/06/20-CT</t>
-  </si>
-  <si>
-    <t>05/06/20-DE</t>
-  </si>
-  <si>
-    <t>05/06/20-DC</t>
-  </si>
-  <si>
-    <t>05/06/20-FL</t>
-  </si>
-  <si>
-    <t>05/06/20-GA</t>
-  </si>
-  <si>
-    <t>05/06/20-HI</t>
-  </si>
-  <si>
-    <t>05/06/20-ID</t>
-  </si>
-  <si>
-    <t>05/06/20-IL</t>
-  </si>
-  <si>
-    <t>05/06/20-IN</t>
-  </si>
-  <si>
-    <t>05/06/20-IA</t>
-  </si>
-  <si>
-    <t>05/06/20-KS</t>
-  </si>
-  <si>
-    <t>05/06/20-KY</t>
-  </si>
-  <si>
-    <t>05/06/20-LA</t>
-  </si>
-  <si>
-    <t>05/06/20-ME</t>
-  </si>
-  <si>
-    <t>05/06/20-MD</t>
-  </si>
-  <si>
-    <t>05/06/20-MA</t>
-  </si>
-  <si>
-    <t>05/06/20-MI</t>
-  </si>
-  <si>
-    <t>05/06/20-MN</t>
-  </si>
-  <si>
-    <t>05/06/20-MS</t>
-  </si>
-  <si>
-    <t>05/06/20-MO</t>
-  </si>
-  <si>
-    <t>05/06/20-MT</t>
-  </si>
-  <si>
-    <t>05/06/20-NE</t>
-  </si>
-  <si>
-    <t>05/06/20-NV</t>
-  </si>
-  <si>
-    <t>05/06/20-NH</t>
-  </si>
-  <si>
-    <t>05/06/20-NJ</t>
-  </si>
-  <si>
-    <t>05/06/20-NM</t>
-  </si>
-  <si>
-    <t>05/06/20-NY</t>
-  </si>
-  <si>
-    <t>05/06/20-NC</t>
-  </si>
-  <si>
-    <t>05/06/20-ND</t>
-  </si>
-  <si>
-    <t>05/06/20-OH</t>
-  </si>
-  <si>
-    <t>05/06/20-OK</t>
-  </si>
-  <si>
-    <t>05/06/20-OR</t>
-  </si>
-  <si>
-    <t>05/06/20-PA</t>
-  </si>
-  <si>
-    <t>05/06/20-RI</t>
-  </si>
-  <si>
-    <t>05/06/20-SC</t>
-  </si>
-  <si>
-    <t>05/06/20-SD</t>
-  </si>
-  <si>
-    <t>05/06/20-TN</t>
-  </si>
-  <si>
-    <t>05/06/20-TX</t>
-  </si>
-  <si>
-    <t>05/06/20-UT</t>
-  </si>
-  <si>
-    <t>05/06/20-VT</t>
-  </si>
-  <si>
-    <t>05/06/20-VA</t>
-  </si>
-  <si>
-    <t>05/06/20-WA</t>
-  </si>
-  <si>
-    <t>05/06/20-WV</t>
-  </si>
-  <si>
-    <t>05/06/20-WI</t>
-  </si>
-  <si>
-    <t>05/06/20-WY</t>
+    <t>05/08/20-AL</t>
+  </si>
+  <si>
+    <t>05/08/20-AK</t>
+  </si>
+  <si>
+    <t>05/08/20-AZ</t>
+  </si>
+  <si>
+    <t>05/08/20-AR</t>
+  </si>
+  <si>
+    <t>05/08/20-CA</t>
+  </si>
+  <si>
+    <t>05/08/20-CO</t>
+  </si>
+  <si>
+    <t>05/08/20-CT</t>
+  </si>
+  <si>
+    <t>05/08/20-DE</t>
+  </si>
+  <si>
+    <t>05/08/20-DC</t>
+  </si>
+  <si>
+    <t>05/08/20-FL</t>
+  </si>
+  <si>
+    <t>05/08/20-GA</t>
+  </si>
+  <si>
+    <t>05/08/20-HI</t>
+  </si>
+  <si>
+    <t>05/08/20-ID</t>
+  </si>
+  <si>
+    <t>05/08/20-IL</t>
+  </si>
+  <si>
+    <t>05/08/20-IN</t>
+  </si>
+  <si>
+    <t>05/08/20-IA</t>
+  </si>
+  <si>
+    <t>05/08/20-KS</t>
+  </si>
+  <si>
+    <t>05/08/20-KY</t>
+  </si>
+  <si>
+    <t>05/08/20-LA</t>
+  </si>
+  <si>
+    <t>05/08/20-ME</t>
+  </si>
+  <si>
+    <t>05/08/20-MD</t>
+  </si>
+  <si>
+    <t>05/08/20-MA</t>
+  </si>
+  <si>
+    <t>05/08/20-MI</t>
+  </si>
+  <si>
+    <t>05/08/20-MN</t>
+  </si>
+  <si>
+    <t>05/08/20-MS</t>
+  </si>
+  <si>
+    <t>05/08/20-MO</t>
+  </si>
+  <si>
+    <t>05/08/20-MT</t>
+  </si>
+  <si>
+    <t>05/08/20-NE</t>
+  </si>
+  <si>
+    <t>05/08/20-NV</t>
+  </si>
+  <si>
+    <t>05/08/20-NH</t>
+  </si>
+  <si>
+    <t>05/08/20-NJ</t>
+  </si>
+  <si>
+    <t>05/08/20-NM</t>
+  </si>
+  <si>
+    <t>05/08/20-NY</t>
+  </si>
+  <si>
+    <t>05/08/20-NC</t>
+  </si>
+  <si>
+    <t>05/08/20-ND</t>
+  </si>
+  <si>
+    <t>05/08/20-OH</t>
+  </si>
+  <si>
+    <t>05/08/20-OK</t>
+  </si>
+  <si>
+    <t>05/08/20-OR</t>
+  </si>
+  <si>
+    <t>05/08/20-PA</t>
+  </si>
+  <si>
+    <t>05/08/20-RI</t>
+  </si>
+  <si>
+    <t>05/08/20-SC</t>
+  </si>
+  <si>
+    <t>05/08/20-SD</t>
+  </si>
+  <si>
+    <t>05/08/20-TN</t>
+  </si>
+  <si>
+    <t>05/08/20-TX</t>
+  </si>
+  <si>
+    <t>05/08/20-UT</t>
+  </si>
+  <si>
+    <t>05/08/20-VT</t>
+  </si>
+  <si>
+    <t>05/08/20-VA</t>
+  </si>
+  <si>
+    <t>05/08/20-WA</t>
+  </si>
+  <si>
+    <t>05/08/20-WV</t>
+  </si>
+  <si>
+    <t>05/08/20-WI</t>
+  </si>
+  <si>
+    <t>05/08/20-WY</t>
   </si>
   <si>
     <t>AL</t>
@@ -670,103 +670,76 @@
     <t>D</t>
   </si>
   <si>
-    <t>5/6/2020 00:00</t>
-  </si>
-  <si>
-    <t>5/6/2020 14:42</t>
-  </si>
-  <si>
-    <t>5/5/2020 14:00</t>
-  </si>
-  <si>
-    <t>5/5/2020 00:00</t>
-  </si>
-  <si>
-    <t>5/5/2020 20:30</t>
-  </si>
-  <si>
-    <t>5/5/2020 18:00</t>
-  </si>
-  <si>
-    <t>5/6/2020 09:45</t>
-  </si>
-  <si>
-    <t>5/6/2020 15:25</t>
-  </si>
-  <si>
-    <t>5/4/2020 19:00</t>
-  </si>
-  <si>
-    <t>5/5/2020 23:59</t>
-  </si>
-  <si>
-    <t>5/5/2020 12:00</t>
-  </si>
-  <si>
-    <t>5/6/2020 10:00</t>
-  </si>
-  <si>
-    <t>5/5/2020 17:00</t>
-  </si>
-  <si>
-    <t>5/6/2020 16:30</t>
-  </si>
-  <si>
-    <t>5/6/2020 12:30</t>
-  </si>
-  <si>
-    <t>5/6/2020 12:00</t>
-  </si>
-  <si>
-    <t>5/6/2020 11:00</t>
-  </si>
-  <si>
-    <t>5/5/2020 19:00</t>
-  </si>
-  <si>
-    <t>5/6/2020 15:00</t>
-  </si>
-  <si>
-    <t>5/5/2020 17:45</t>
-  </si>
-  <si>
-    <t>5/6/2020 12:40</t>
-  </si>
-  <si>
-    <t>5/5/2020 09:00</t>
-  </si>
-  <si>
-    <t>5/6/2020 13:00</t>
-  </si>
-  <si>
-    <t>5/5/2020 17:30</t>
-  </si>
-  <si>
-    <t>5/6/2020 10:45</t>
-  </si>
-  <si>
-    <t>5/6/2020 14:00</t>
-  </si>
-  <si>
-    <t>5/6/2020 16:20</t>
-  </si>
-  <si>
-    <t>5/6/2020 13:20</t>
-  </si>
-  <si>
-    <t>5/5/2020 05:00</t>
-  </si>
-  <si>
-    <t>5/4/2020 17:00</t>
-  </si>
-  <si>
-    <t>5/5/2020 02:59</t>
-  </si>
-  <si>
-    <t>5/5/2020 15:30</t>
-  </si>
-  <si>
-    <t>-inf</t>
+    <t>5/8/2020 00:00</t>
+  </si>
+  <si>
+    <t>5/8/2020 08:15</t>
+  </si>
+  <si>
+    <t>5/8/2020 14:00</t>
+  </si>
+  <si>
+    <t>5/7/2020 00:00</t>
+  </si>
+  <si>
+    <t>5/7/2020 20:30</t>
+  </si>
+  <si>
+    <t>5/7/2020 18:00</t>
+  </si>
+  <si>
+    <t>5/8/2020 10:10</t>
+  </si>
+  <si>
+    <t>5/8/2020 15:25</t>
+  </si>
+  <si>
+    <t>5/7/2020 19:00</t>
+  </si>
+  <si>
+    <t>5/7/2020 23:59</t>
+  </si>
+  <si>
+    <t>5/8/2020 10:00</t>
+  </si>
+  <si>
+    <t>5/7/2020 17:00</t>
+  </si>
+  <si>
+    <t>5/8/2020 13:00</t>
+  </si>
+  <si>
+    <t>5/8/2020 12:00</t>
+  </si>
+  <si>
+    <t>5/8/2020 11:00</t>
+  </si>
+  <si>
+    <t>5/8/2020 15:00</t>
+  </si>
+  <si>
+    <t>5/7/2020 17:45</t>
+  </si>
+  <si>
+    <t>5/8/2020 12:50</t>
+  </si>
+  <si>
+    <t>5/7/2020 09:00</t>
+  </si>
+  <si>
+    <t>5/7/2020 06:09</t>
+  </si>
+  <si>
+    <t>5/7/2020 16:13</t>
+  </si>
+  <si>
+    <t>5/7/2020 05:00</t>
+  </si>
+  <si>
+    <t>5/7/2020 02:59</t>
+  </si>
+  <si>
+    <t>5/7/2020 04:28</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1278,7 @@
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="1">
-        <v>1224</v>
+        <v>1326</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -1314,28 +1287,28 @@
         <v>108</v>
       </c>
       <c r="D2">
-        <v>8691</v>
+        <v>9385</v>
       </c>
       <c r="E2">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="G2">
-        <v>185.3527599347992</v>
+        <v>200.1536821986066</v>
       </c>
       <c r="H2">
-        <v>109516</v>
+        <v>120114</v>
       </c>
       <c r="I2">
-        <v>1158</v>
+        <v>1207</v>
       </c>
       <c r="J2">
-        <v>3.946611437118857</v>
+        <v>4.080980287693127</v>
       </c>
       <c r="K2">
-        <v>2335.645248765328</v>
+        <v>2561.668554459609</v>
       </c>
       <c r="L2">
-        <v>13.32412840869865</v>
+        <v>12.86094832179009</v>
       </c>
       <c r="M2">
         <v>4903185</v>
@@ -1359,28 +1332,28 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>76.54096311087874</v>
+        <v>78.40195280866459</v>
       </c>
       <c r="U2">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V2" t="s">
         <v>162</v>
       </c>
       <c r="W2">
-        <v>8581</v>
+        <v>9221</v>
       </c>
       <c r="X2">
-        <v>100935</v>
+        <v>110893</v>
       </c>
       <c r="AA2">
-        <v>1158</v>
+        <v>1207</v>
       </c>
       <c r="AC2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="AE2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG2" t="s">
         <v>213</v>
@@ -1389,31 +1362,31 @@
         <v>218</v>
       </c>
       <c r="AI2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="AJ2">
-        <v>1158</v>
+        <v>1207</v>
       </c>
       <c r="AK2">
-        <v>109516</v>
+        <v>120114</v>
       </c>
       <c r="AL2">
-        <v>109516</v>
+        <v>120114</v>
       </c>
       <c r="AM2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN2">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AO2">
-        <v>2454</v>
+        <v>4618</v>
       </c>
       <c r="AP2">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="AQ2">
-        <v>2750</v>
+        <v>4941</v>
       </c>
       <c r="AR2" t="s">
         <v>108</v>
@@ -1422,39 +1395,39 @@
         <v>2214.313663418081</v>
       </c>
       <c r="AT2">
-        <v>0.00175008693328928</v>
+        <v>0.001880614335375883</v>
       </c>
       <c r="AU2">
-        <v>0.0205855989525176</v>
+        <v>0.02261652374935883</v>
       </c>
       <c r="AV2">
-        <v>7.84</v>
+        <v>7.68</v>
       </c>
       <c r="AW2">
-        <v>0.02233568588580688</v>
+        <v>0.02449713808473472</v>
       </c>
       <c r="AX2">
         <v>6.690478279736778</v>
       </c>
       <c r="AY2">
-        <v>5.03947757309478</v>
+        <v>5.079593629954077</v>
       </c>
       <c r="AZ2">
-        <v>3.939069749923424</v>
+        <v>3.972434276957365</v>
       </c>
       <c r="BA2">
-        <v>2.53529412004277</v>
+        <v>2.583198773968623</v>
       </c>
       <c r="BB2">
-        <v>5.004041787358312</v>
+        <v>5.044904132647613</v>
       </c>
       <c r="BC2">
-        <v>3.933537901971705</v>
+        <v>3.964778022022376</v>
       </c>
     </row>
     <row r="3" spans="1:58">
       <c r="A3" s="1">
-        <v>1225</v>
+        <v>1327</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -1463,25 +1436,25 @@
         <v>108</v>
       </c>
       <c r="D3">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="G3">
-        <v>62.23347926972694</v>
+        <v>63.06995076528777</v>
       </c>
       <c r="H3">
-        <v>23655</v>
+        <v>25473</v>
       </c>
       <c r="J3">
-        <v>2.688172043010753</v>
+        <v>2.652519893899204</v>
       </c>
       <c r="K3">
-        <v>3957.346645498361</v>
+        <v>4261.487681284285</v>
       </c>
       <c r="M3">
         <v>731545</v>
@@ -1505,25 +1478,25 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>120.4623190848198</v>
+        <v>122.1512908712787</v>
       </c>
       <c r="U3">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V3" t="s">
         <v>163</v>
       </c>
       <c r="W3">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="X3">
-        <v>23283</v>
+        <v>25096</v>
       </c>
       <c r="Z3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AF3">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="AG3" t="s">
         <v>214</v>
@@ -1535,25 +1508,25 @@
         <v>10</v>
       </c>
       <c r="AK3">
-        <v>23655</v>
+        <v>25473</v>
       </c>
       <c r="AL3">
-        <v>23655</v>
+        <v>25473</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>962</v>
+        <v>1129</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ3">
-        <v>963</v>
+        <v>1132</v>
       </c>
       <c r="AR3" t="s">
         <v>108</v>
@@ -1562,42 +1535,42 @@
         <v>855.3040395087586</v>
       </c>
       <c r="AT3">
-        <v>0.0005085128050905959</v>
+        <v>0.0005153476546213836</v>
       </c>
       <c r="AU3">
-        <v>0.03182716032506545</v>
+        <v>0.03430547676492902</v>
       </c>
       <c r="AV3">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AW3">
-        <v>0.03233567313015604</v>
+        <v>0.0348208244195504</v>
       </c>
       <c r="AX3">
         <v>5.864241046319956</v>
       </c>
       <c r="AY3">
-        <v>4.373922952384584</v>
+        <v>4.406080095600492</v>
       </c>
       <c r="AZ3">
-        <v>2.570542939881897</v>
+        <v>2.576341350205793</v>
       </c>
       <c r="BA3">
         <v>1</v>
       </c>
       <c r="BB3">
-        <v>4.367038938155869</v>
+        <v>4.399604505689688</v>
       </c>
       <c r="BC3">
-        <v>2.570542939881897</v>
+        <v>2.576341350205793</v>
       </c>
       <c r="BD3">
-        <v>0.9030899869919435</v>
+        <v>1.204119982655925</v>
       </c>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="1">
-        <v>1226</v>
+        <v>1328</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -1606,31 +1579,31 @@
         <v>108</v>
       </c>
       <c r="D4">
-        <v>9707</v>
+        <v>10526</v>
       </c>
       <c r="E4">
-        <v>426</v>
+        <v>517</v>
       </c>
       <c r="F4">
-        <v>1693</v>
+        <v>1747</v>
       </c>
       <c r="G4">
-        <v>133.3614152054545</v>
+        <v>144.6133982128993</v>
       </c>
       <c r="H4">
-        <v>91737</v>
+        <v>119907</v>
       </c>
       <c r="I4">
-        <v>1430</v>
+        <v>1482</v>
       </c>
       <c r="J4">
-        <v>4.38858555681467</v>
+        <v>4.911647349420481</v>
       </c>
       <c r="K4">
-        <v>1260.345744998741</v>
+        <v>1647.364501188877</v>
       </c>
       <c r="L4">
-        <v>14.73163696301638</v>
+        <v>14.07942238267148</v>
       </c>
       <c r="M4">
         <v>7278717</v>
@@ -1654,34 +1627,34 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>27.0280304360219</v>
+        <v>32.60188270765806</v>
       </c>
       <c r="U4">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V4" t="s">
         <v>164</v>
       </c>
       <c r="W4">
-        <v>9707</v>
+        <v>10526</v>
       </c>
       <c r="X4">
-        <v>82030</v>
+        <v>109381</v>
       </c>
       <c r="Z4">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="AA4">
-        <v>1430</v>
+        <v>1482</v>
       </c>
       <c r="AB4">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AD4">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AF4">
-        <v>1693</v>
+        <v>1747</v>
       </c>
       <c r="AG4" t="s">
         <v>215</v>
@@ -1690,31 +1663,31 @@
         <v>218</v>
       </c>
       <c r="AI4">
-        <v>426</v>
+        <v>517</v>
       </c>
       <c r="AJ4">
-        <v>1430</v>
+        <v>1482</v>
       </c>
       <c r="AK4">
-        <v>91737</v>
+        <v>119907</v>
       </c>
       <c r="AL4">
-        <v>91737</v>
+        <v>119907</v>
       </c>
       <c r="AM4">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="AN4">
         <v>33</v>
       </c>
       <c r="AO4">
-        <v>3075</v>
+        <v>8240</v>
       </c>
       <c r="AP4">
-        <v>402</v>
+        <v>581</v>
       </c>
       <c r="AQ4">
-        <v>3477</v>
+        <v>8821</v>
       </c>
       <c r="AR4" t="s">
         <v>108</v>
@@ -1723,48 +1696,48 @@
         <v>2697.909746451871</v>
       </c>
       <c r="AT4">
-        <v>0.001333614152054545</v>
+        <v>0.001446133982128993</v>
       </c>
       <c r="AU4">
-        <v>0.01126984329793286</v>
+        <v>0.01502751102975978</v>
       </c>
       <c r="AV4">
-        <v>10.58</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AW4">
-        <v>0.01260345744998741</v>
+        <v>0.01647364501188877</v>
       </c>
       <c r="AX4">
         <v>6.862054834130968</v>
       </c>
       <c r="AY4">
-        <v>4.962544533651326</v>
+        <v>5.078844537332663</v>
       </c>
       <c r="AZ4">
-        <v>3.987085029624122</v>
+        <v>4.022263365681258</v>
       </c>
       <c r="BA4">
-        <v>2.629409599102719</v>
+        <v>2.713490543093942</v>
       </c>
       <c r="BB4">
-        <v>4.913972711550971</v>
+        <v>5.038941889531367</v>
       </c>
       <c r="BC4">
-        <v>3.987085029624122</v>
+        <v>4.022263365681258</v>
       </c>
       <c r="BD4">
-        <v>2.877371345869774</v>
+        <v>2.863322860120456</v>
       </c>
       <c r="BE4">
-        <v>2.456366033129043</v>
+        <v>2.469822015978163</v>
       </c>
       <c r="BF4">
-        <v>2.285557309007774</v>
+        <v>2.294466226161593</v>
       </c>
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="1">
-        <v>1227</v>
+        <v>1329</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -1773,31 +1746,31 @@
         <v>108</v>
       </c>
       <c r="D5">
-        <v>3611</v>
+        <v>3747</v>
       </c>
       <c r="E5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5">
-        <v>2109</v>
+        <v>2159</v>
       </c>
       <c r="G5">
-        <v>139.4732461268268</v>
+        <v>144.7261847790695</v>
       </c>
       <c r="H5">
-        <v>59003</v>
+        <v>63994</v>
       </c>
       <c r="I5">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="J5">
-        <v>2.409304901689284</v>
+        <v>2.348545503069122</v>
       </c>
       <c r="K5">
-        <v>2278.964259546154</v>
+        <v>2471.739383173679</v>
       </c>
       <c r="L5">
-        <v>12.54500138465799</v>
+        <v>12.43661595943422</v>
       </c>
       <c r="M5">
         <v>3017804</v>
@@ -1821,34 +1794,34 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>66.66537720064781</v>
+        <v>68.19546111693711</v>
       </c>
       <c r="U5">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V5" t="s">
         <v>165</v>
       </c>
       <c r="W5">
-        <v>3568</v>
+        <v>3694</v>
       </c>
       <c r="X5">
-        <v>55435</v>
+        <v>60300</v>
       </c>
       <c r="Z5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="AD5">
         <v>14</v>
       </c>
       <c r="AE5">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AF5">
-        <v>2109</v>
+        <v>2159</v>
       </c>
       <c r="AG5" t="s">
         <v>213</v>
@@ -1857,31 +1830,31 @@
         <v>219</v>
       </c>
       <c r="AI5">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ5">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="AK5">
-        <v>59003</v>
+        <v>63994</v>
       </c>
       <c r="AL5">
-        <v>59003</v>
+        <v>63994</v>
       </c>
       <c r="AM5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO5">
-        <v>4296</v>
+        <v>3916</v>
       </c>
       <c r="AP5">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AQ5">
-        <v>4368</v>
+        <v>3999</v>
       </c>
       <c r="AR5" t="s">
         <v>108</v>
@@ -1890,37 +1863,37 @@
         <v>1737.182776796961</v>
       </c>
       <c r="AT5">
-        <v>0.001182316677955228</v>
+        <v>0.001224068892479432</v>
       </c>
       <c r="AU5">
-        <v>0.01836931755673993</v>
+        <v>0.01998141695086891</v>
       </c>
       <c r="AV5">
-        <v>6.05</v>
+        <v>5.77</v>
       </c>
       <c r="AW5">
-        <v>0.01955163423469516</v>
+        <v>0.02120548584334834</v>
       </c>
       <c r="AX5">
         <v>6.479691029845591</v>
       </c>
       <c r="AY5">
-        <v>4.770874093851003</v>
+        <v>4.806139256967569</v>
       </c>
       <c r="AZ5">
-        <v>3.557627488426827</v>
+        <v>3.573683693093798</v>
       </c>
       <c r="BA5">
-        <v>1.939519252618618</v>
+        <v>1.944482672150169</v>
       </c>
       <c r="BB5">
-        <v>4.743784051864657</v>
+        <v>4.780317312140151</v>
       </c>
       <c r="BC5">
-        <v>3.552424845704086</v>
+        <v>3.567496891104223</v>
       </c>
       <c r="BD5">
-        <v>1.838849090737255</v>
+        <v>1.845098040014257</v>
       </c>
       <c r="BF5">
         <v>1.146128035678238</v>
@@ -1928,7 +1901,7 @@
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="1">
-        <v>1228</v>
+        <v>1330</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -1937,22 +1910,22 @@
         <v>108</v>
       </c>
       <c r="D6">
-        <v>60616</v>
+        <v>63779</v>
       </c>
       <c r="E6">
-        <v>2464</v>
+        <v>2613</v>
       </c>
       <c r="G6">
-        <v>154.5986571320286</v>
+        <v>162.6657607434284</v>
       </c>
       <c r="H6">
-        <v>809036</v>
+        <v>875272</v>
       </c>
       <c r="J6">
-        <v>4.064933350930447</v>
+        <v>4.096959814358958</v>
       </c>
       <c r="K6">
-        <v>2063.413606497755</v>
+        <v>2232.345846398062</v>
       </c>
       <c r="M6">
         <v>39512223</v>
@@ -1976,25 +1949,25 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>70.74116315802596</v>
+        <v>71.46093423817067</v>
       </c>
       <c r="U6">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V6" t="s">
         <v>166</v>
       </c>
       <c r="W6">
-        <v>58815</v>
+        <v>62512</v>
       </c>
       <c r="X6">
-        <v>750221</v>
+        <v>812760</v>
       </c>
       <c r="Z6">
-        <v>4681</v>
+        <v>4514</v>
       </c>
       <c r="AB6">
-        <v>1415</v>
+        <v>1342</v>
       </c>
       <c r="AG6" t="s">
         <v>213</v>
@@ -2003,28 +1976,28 @@
         <v>220</v>
       </c>
       <c r="AI6">
-        <v>2412</v>
+        <v>2585</v>
       </c>
       <c r="AK6">
-        <v>809036</v>
+        <v>875272</v>
       </c>
       <c r="AL6">
-        <v>809036</v>
+        <v>875272</v>
       </c>
       <c r="AM6">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>26531</v>
+        <v>30500</v>
       </c>
       <c r="AP6">
-        <v>2603</v>
+        <v>1898</v>
       </c>
       <c r="AQ6">
-        <v>29134</v>
+        <v>32398</v>
       </c>
       <c r="AR6" t="s">
         <v>108</v>
@@ -2033,45 +2006,45 @@
         <v>6285.874879442002</v>
       </c>
       <c r="AT6">
-        <v>0.001488526727539475</v>
+        <v>0.001582092710906192</v>
       </c>
       <c r="AU6">
-        <v>0.01898706129493144</v>
+        <v>0.02056983733868884</v>
       </c>
       <c r="AV6">
-        <v>7.27</v>
+        <v>7.14</v>
       </c>
       <c r="AW6">
-        <v>0.02047558802247092</v>
+        <v>0.02215193004959503</v>
       </c>
       <c r="AX6">
         <v>7.596731464241672</v>
       </c>
       <c r="AY6">
-        <v>5.907967847018321</v>
+        <v>5.942143035585056</v>
       </c>
       <c r="AZ6">
-        <v>4.782587274241372</v>
+        <v>4.804677705595455</v>
       </c>
       <c r="BA6">
-        <v>3.391640703492388</v>
+        <v>3.417139409727326</v>
       </c>
       <c r="BB6">
-        <v>5.87518921664818</v>
+        <v>5.909962321653986</v>
       </c>
       <c r="BC6">
-        <v>4.769488101355888</v>
+        <v>4.795963393880709</v>
       </c>
       <c r="BD6">
-        <v>3.670338641127442</v>
+        <v>3.654561554741743</v>
       </c>
       <c r="BE6">
-        <v>3.150756439860309</v>
+        <v>3.127752515832973</v>
       </c>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="1">
-        <v>1229</v>
+        <v>1331</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -2080,31 +2053,31 @@
         <v>108</v>
       </c>
       <c r="D7">
-        <v>17832</v>
+        <v>18827</v>
       </c>
       <c r="E7">
-        <v>919</v>
+        <v>960</v>
       </c>
       <c r="F7">
-        <v>2801</v>
+        <v>2869</v>
       </c>
       <c r="G7">
-        <v>314.6742269420218</v>
+        <v>332.2325970523467</v>
       </c>
       <c r="H7">
-        <v>85976</v>
+        <v>94536</v>
       </c>
       <c r="I7">
-        <v>2919</v>
+        <v>3557</v>
       </c>
       <c r="J7">
-        <v>5.153656348138179</v>
+        <v>5.099059860838159</v>
       </c>
       <c r="K7">
-        <v>1517.18435035707</v>
+        <v>1668.239273115241</v>
       </c>
       <c r="L7">
-        <v>16.36944818304172</v>
+        <v>18.89307908854305</v>
       </c>
       <c r="M7">
         <v>5758736</v>
@@ -2128,28 +2101,28 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>39.28569591206544</v>
+        <v>40.70602704274426</v>
       </c>
       <c r="U7">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V7" t="s">
         <v>167</v>
       </c>
       <c r="W7">
-        <v>17364</v>
+        <v>18801</v>
       </c>
       <c r="X7">
-        <v>68612</v>
+        <v>75735</v>
       </c>
       <c r="Z7">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="AA7">
-        <v>2919</v>
+        <v>3557</v>
       </c>
       <c r="AF7">
-        <v>2801</v>
+        <v>2869</v>
       </c>
       <c r="AG7" t="s">
         <v>213</v>
@@ -2158,31 +2131,31 @@
         <v>221</v>
       </c>
       <c r="AI7">
-        <v>903</v>
+        <v>961</v>
       </c>
       <c r="AJ7">
-        <v>2919</v>
+        <v>3557</v>
       </c>
       <c r="AK7">
-        <v>85976</v>
+        <v>94536</v>
       </c>
       <c r="AL7">
-        <v>85976</v>
+        <v>94536</v>
       </c>
       <c r="AM7">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AN7">
-        <v>81</v>
+        <v>571</v>
       </c>
       <c r="AO7">
-        <v>515</v>
+        <v>2218</v>
       </c>
       <c r="AP7">
-        <v>457</v>
+        <v>971</v>
       </c>
       <c r="AQ7">
-        <v>972</v>
+        <v>3189</v>
       </c>
       <c r="AR7" t="s">
         <v>108</v>
@@ -2191,42 +2164,42 @@
         <v>2399.736652218322</v>
       </c>
       <c r="AT7">
-        <v>0.003015245012099878</v>
+        <v>0.003264778937600196</v>
       </c>
       <c r="AU7">
-        <v>0.01191442010885722</v>
+        <v>0.01315132348487585</v>
       </c>
       <c r="AV7">
-        <v>20.2</v>
+        <v>19.89</v>
       </c>
       <c r="AW7">
-        <v>0.0149296651209571</v>
+        <v>0.01641610242247604</v>
       </c>
       <c r="AX7">
         <v>6.760327169453462</v>
       </c>
       <c r="AY7">
-        <v>4.934377235868942</v>
+        <v>4.975597222520748</v>
       </c>
       <c r="AZ7">
-        <v>4.251200055472181</v>
+        <v>4.274781122605907</v>
       </c>
       <c r="BA7">
-        <v>2.963315511386111</v>
+        <v>2.982271233039568</v>
       </c>
       <c r="BB7">
-        <v>4.836400078943146</v>
+        <v>4.879296629751168</v>
       </c>
       <c r="BC7">
-        <v>4.239649777166663</v>
+        <v>4.274180949419634</v>
       </c>
       <c r="BD7">
-        <v>2.898725181589493</v>
+        <v>2.914343157119441</v>
       </c>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="1">
-        <v>1230</v>
+        <v>1332</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -2235,31 +2208,31 @@
         <v>108</v>
       </c>
       <c r="D8">
-        <v>30995</v>
+        <v>32411</v>
       </c>
       <c r="E8">
-        <v>2718</v>
+        <v>2874</v>
       </c>
       <c r="F8">
-        <v>4346</v>
+        <v>5413</v>
       </c>
       <c r="G8">
-        <v>869.3549775936693</v>
+        <v>909.0712753279048</v>
       </c>
       <c r="H8">
-        <v>111447</v>
+        <v>120541</v>
       </c>
       <c r="I8">
-        <v>7758</v>
+        <v>9389</v>
       </c>
       <c r="J8">
-        <v>8.769156315534762</v>
+        <v>8.867359846965536</v>
       </c>
       <c r="K8">
-        <v>3125.891407900682</v>
+        <v>3380.962037558267</v>
       </c>
       <c r="L8">
-        <v>25.02984352314889</v>
+        <v>28.96856005677085</v>
       </c>
       <c r="M8">
         <v>3565287</v>
@@ -2283,28 +2256,28 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>84.2367830895558</v>
+        <v>85.13196898355658</v>
       </c>
       <c r="U8">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V8" t="s">
         <v>168</v>
       </c>
       <c r="W8">
-        <v>30995</v>
+        <v>32411</v>
       </c>
       <c r="X8">
-        <v>80452</v>
+        <v>88130</v>
       </c>
       <c r="Z8">
-        <v>1445</v>
+        <v>1327</v>
       </c>
       <c r="AA8">
-        <v>7758</v>
+        <v>9389</v>
       </c>
       <c r="AF8">
-        <v>4346</v>
+        <v>5413</v>
       </c>
       <c r="AG8" t="s">
         <v>213</v>
@@ -2313,31 +2286,31 @@
         <v>222</v>
       </c>
       <c r="AI8">
-        <v>2718</v>
+        <v>2874</v>
       </c>
       <c r="AJ8">
-        <v>7758</v>
+        <v>9389</v>
       </c>
       <c r="AK8">
-        <v>111447</v>
+        <v>120541</v>
       </c>
       <c r="AL8">
-        <v>111447</v>
+        <v>120541</v>
       </c>
       <c r="AM8">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AN8">
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>2430</v>
+        <v>3740</v>
       </c>
       <c r="AP8">
-        <v>374</v>
+        <v>627</v>
       </c>
       <c r="AQ8">
-        <v>2804</v>
+        <v>4367</v>
       </c>
       <c r="AR8" t="s">
         <v>108</v>
@@ -2346,42 +2319,42 @@
         <v>1888.19675881514</v>
       </c>
       <c r="AT8">
-        <v>0.008693549775936692</v>
+        <v>0.009090712753279049</v>
       </c>
       <c r="AU8">
-        <v>0.02256536430307013</v>
+        <v>0.02471890762230362</v>
       </c>
       <c r="AV8">
-        <v>27.81</v>
+        <v>26.89</v>
       </c>
       <c r="AW8">
-        <v>0.03125891407900682</v>
+        <v>0.03380962037558267</v>
       </c>
       <c r="AX8">
         <v>6.552094495618293</v>
       </c>
       <c r="AY8">
-        <v>5.047068382363305</v>
+        <v>5.081134790024547</v>
       </c>
       <c r="AZ8">
-        <v>4.491291640687592</v>
+        <v>4.510692430840357</v>
       </c>
       <c r="BA8">
-        <v>3.434249452396476</v>
+        <v>3.458486763798207</v>
       </c>
       <c r="BB8">
-        <v>4.905536844931846</v>
+        <v>4.94512377012212</v>
       </c>
       <c r="BC8">
-        <v>4.491291640687592</v>
+        <v>4.510692430840357</v>
       </c>
       <c r="BD8">
-        <v>3.159867847092567</v>
+        <v>3.122870922864435</v>
       </c>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="1">
-        <v>1231</v>
+        <v>1333</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -2390,25 +2363,25 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>5778</v>
+        <v>6111</v>
       </c>
       <c r="E9">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F9">
-        <v>2008</v>
+        <v>2288</v>
       </c>
       <c r="G9">
-        <v>593.367592147584</v>
+        <v>627.5647898258717</v>
       </c>
       <c r="H9">
-        <v>26468</v>
+        <v>28264</v>
       </c>
       <c r="J9">
-        <v>3.340256143994462</v>
+        <v>3.485517918507609</v>
       </c>
       <c r="K9">
-        <v>2718.112396843588</v>
+        <v>2902.551336874232</v>
       </c>
       <c r="M9">
         <v>973764</v>
@@ -2432,25 +2405,25 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>62.94306660599888</v>
+        <v>65.11074865671625</v>
       </c>
       <c r="U9">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V9" t="s">
         <v>169</v>
       </c>
       <c r="W9">
-        <v>5778</v>
+        <v>6111</v>
       </c>
       <c r="X9">
-        <v>20690</v>
+        <v>22153</v>
       </c>
       <c r="Z9">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AF9">
-        <v>2008</v>
+        <v>2288</v>
       </c>
       <c r="AG9" t="s">
         <v>213</v>
@@ -2459,28 +2432,28 @@
         <v>223</v>
       </c>
       <c r="AI9">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AK9">
-        <v>26468</v>
+        <v>28264</v>
       </c>
       <c r="AL9">
-        <v>26468</v>
+        <v>28264</v>
       </c>
       <c r="AM9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AN9">
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>1381</v>
+        <v>766</v>
       </c>
       <c r="AP9">
-        <v>407</v>
+        <v>172</v>
       </c>
       <c r="AQ9">
-        <v>1788</v>
+        <v>938</v>
       </c>
       <c r="AR9" t="s">
         <v>108</v>
@@ -2489,42 +2462,42 @@
         <v>986.7948114983175</v>
       </c>
       <c r="AT9">
-        <v>0.00593367592147584</v>
+        <v>0.006275647898258715</v>
       </c>
       <c r="AU9">
-        <v>0.02124744804696004</v>
+        <v>0.02274986547048361</v>
       </c>
       <c r="AV9">
-        <v>21.83</v>
+        <v>21.62</v>
       </c>
       <c r="AW9">
-        <v>0.02718112396843589</v>
+        <v>0.02902551336874232</v>
       </c>
       <c r="AX9">
         <v>5.98845371466423</v>
       </c>
       <c r="AY9">
-        <v>4.422721125971558</v>
+        <v>4.451233624426789</v>
       </c>
       <c r="AZ9">
-        <v>3.761777537508178</v>
+        <v>3.786112283719826</v>
       </c>
       <c r="BA9">
-        <v>2.285557309007774</v>
+        <v>2.328379603438738</v>
       </c>
       <c r="BB9">
-        <v>4.315760490665735</v>
+        <v>4.345432547499147</v>
       </c>
       <c r="BC9">
-        <v>3.761777537508178</v>
+        <v>3.786112283719826</v>
       </c>
       <c r="BD9">
-        <v>2.47567118832443</v>
+        <v>2.460897842756548</v>
       </c>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="1">
-        <v>1232</v>
+        <v>1334</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -2533,25 +2506,25 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>5461</v>
+        <v>5899</v>
       </c>
       <c r="E10">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="F10">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="G10">
-        <v>773.7878480876344</v>
+        <v>835.8495725817537</v>
       </c>
       <c r="H10">
-        <v>24984</v>
+        <v>27115</v>
       </c>
       <c r="J10">
-        <v>5.072331074894708</v>
+        <v>5.153415833192066</v>
       </c>
       <c r="K10">
-        <v>3540.068777993309</v>
+        <v>3842.017487803738</v>
       </c>
       <c r="M10">
         <v>705749</v>
@@ -2575,19 +2548,19 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>86.02437323133414</v>
+        <v>88.86513975318897</v>
       </c>
       <c r="U10">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V10" t="s">
         <v>170</v>
       </c>
       <c r="W10">
-        <v>5461</v>
+        <v>5899</v>
       </c>
       <c r="X10">
-        <v>19523</v>
+        <v>21216</v>
       </c>
       <c r="Z10">
         <v>447</v>
@@ -2599,7 +2572,7 @@
         <v>91</v>
       </c>
       <c r="AF10">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="AG10" t="s">
         <v>215</v>
@@ -2608,28 +2581,28 @@
         <v>221</v>
       </c>
       <c r="AI10">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="AK10">
-        <v>24984</v>
+        <v>27115</v>
       </c>
       <c r="AL10">
-        <v>24984</v>
+        <v>27115</v>
       </c>
       <c r="AM10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AN10">
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>516</v>
+        <v>1014</v>
       </c>
       <c r="AP10">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="AQ10">
-        <v>655</v>
+        <v>1259</v>
       </c>
       <c r="AR10" t="s">
         <v>108</v>
@@ -2638,34 +2611,34 @@
         <v>840.0886857945416</v>
       </c>
       <c r="AT10">
-        <v>0.007737878480876346</v>
+        <v>0.008358495725817535</v>
       </c>
       <c r="AU10">
-        <v>0.02766280929905675</v>
+        <v>0.03006167915221984</v>
       </c>
       <c r="AV10">
-        <v>21.86</v>
+        <v>21.76</v>
       </c>
       <c r="AW10">
-        <v>0.03540068777993309</v>
+        <v>0.03842017487803737</v>
       </c>
       <c r="AX10">
         <v>5.848650271452624</v>
       </c>
       <c r="AY10">
-        <v>4.397661971222142</v>
+        <v>4.433209608771474</v>
       </c>
       <c r="AZ10">
-        <v>3.737272176535543</v>
+        <v>3.770778396169148</v>
       </c>
       <c r="BA10">
-        <v>2.442479769064449</v>
+        <v>2.482873583608754</v>
       </c>
       <c r="BB10">
-        <v>4.290546554280307</v>
+        <v>4.326663506724679</v>
       </c>
       <c r="BC10">
-        <v>3.737272176535543</v>
+        <v>3.770778396169148</v>
       </c>
       <c r="BD10">
         <v>2.650307523131937</v>
@@ -2679,7 +2652,7 @@
     </row>
     <row r="11" spans="1:58">
       <c r="A11" s="1">
-        <v>1233</v>
+        <v>1335</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -2688,28 +2661,28 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>38002</v>
+        <v>39199</v>
       </c>
       <c r="E11">
-        <v>1539</v>
+        <v>1669</v>
       </c>
       <c r="G11">
-        <v>178.9794432204883</v>
+        <v>184.6169989684733</v>
       </c>
       <c r="H11">
-        <v>480051</v>
+        <v>513341</v>
       </c>
       <c r="I11">
-        <v>6776</v>
+        <v>7157</v>
       </c>
       <c r="J11">
-        <v>4.049786853323509</v>
+        <v>4.257761677593817</v>
       </c>
       <c r="K11">
-        <v>2260.914180765187</v>
+        <v>2417.701341041227</v>
       </c>
       <c r="L11">
-        <v>17.83064049260565</v>
+        <v>18.25811882956198</v>
       </c>
       <c r="M11">
         <v>21477737</v>
@@ -2733,25 +2706,25 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>57.29777479650548</v>
+        <v>58.68636227796307</v>
       </c>
       <c r="U11">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V11" t="s">
         <v>171</v>
       </c>
       <c r="W11">
-        <v>38002</v>
+        <v>39199</v>
       </c>
       <c r="X11">
-        <v>442049</v>
+        <v>474142</v>
       </c>
       <c r="Y11">
-        <v>1351</v>
+        <v>1433</v>
       </c>
       <c r="AA11">
-        <v>6776</v>
+        <v>7157</v>
       </c>
       <c r="AG11" t="s">
         <v>214</v>
@@ -2760,31 +2733,31 @@
         <v>224</v>
       </c>
       <c r="AI11">
-        <v>1605</v>
+        <v>1738</v>
       </c>
       <c r="AJ11">
-        <v>6776</v>
+        <v>7157</v>
       </c>
       <c r="AK11">
-        <v>481402</v>
+        <v>514774</v>
       </c>
       <c r="AL11">
-        <v>480051</v>
+        <v>513341</v>
       </c>
       <c r="AM11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN11">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="AO11">
-        <v>13797</v>
+        <v>20020</v>
       </c>
       <c r="AP11">
-        <v>563</v>
+        <v>371</v>
       </c>
       <c r="AQ11">
-        <v>14360</v>
+        <v>20391</v>
       </c>
       <c r="AR11" t="s">
         <v>108</v>
@@ -2793,39 +2766,39 @@
         <v>4634.40794492673</v>
       </c>
       <c r="AT11">
-        <v>0.001769367042719631</v>
+        <v>0.001825099171295374</v>
       </c>
       <c r="AU11">
-        <v>0.02058173074751777</v>
+        <v>0.02207597569520476</v>
       </c>
       <c r="AV11">
-        <v>7.92</v>
+        <v>7.64</v>
       </c>
       <c r="AW11">
-        <v>0.0223510977902374</v>
+        <v>0.02390107486650013</v>
       </c>
       <c r="AX11">
         <v>7.331988520035549</v>
       </c>
       <c r="AY11">
-        <v>5.681287378713074</v>
+        <v>5.710405952284654</v>
       </c>
       <c r="AZ11">
-        <v>4.579806453619626</v>
+        <v>4.593274987938277</v>
       </c>
       <c r="BA11">
-        <v>3.187238619831479</v>
+        <v>3.222456336679247</v>
       </c>
       <c r="BB11">
-        <v>5.645470412448931</v>
+        <v>5.675908427287614</v>
       </c>
       <c r="BC11">
-        <v>4.579806453619626</v>
+        <v>4.593274987938277</v>
       </c>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="1">
-        <v>1234</v>
+        <v>1336</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -2834,28 +2807,28 @@
         <v>108</v>
       </c>
       <c r="D12">
-        <v>30743</v>
+        <v>32181</v>
       </c>
       <c r="E12">
-        <v>1327</v>
+        <v>1400</v>
       </c>
       <c r="G12">
-        <v>303.2035546901081</v>
+        <v>317.3858632365863</v>
       </c>
       <c r="H12">
-        <v>204137</v>
+        <v>227567</v>
       </c>
       <c r="I12">
-        <v>5765</v>
+        <v>5935</v>
       </c>
       <c r="J12">
-        <v>4.316429756367303</v>
+        <v>4.350393089089836</v>
       </c>
       <c r="K12">
-        <v>2013.305924723502</v>
+        <v>2244.384846311806</v>
       </c>
       <c r="L12">
-        <v>18.75223628142993</v>
+        <v>18.44255927410584</v>
       </c>
       <c r="M12">
         <v>10617423</v>
@@ -2879,25 +2852,25 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>63.04328231332111</v>
+        <v>65.99468950421037</v>
       </c>
       <c r="U12">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V12" t="s">
         <v>172</v>
       </c>
       <c r="W12">
-        <v>30696</v>
+        <v>32106</v>
       </c>
       <c r="X12">
-        <v>173441</v>
+        <v>195461</v>
       </c>
       <c r="AA12">
-        <v>5765</v>
+        <v>5935</v>
       </c>
       <c r="AC12">
-        <v>1343</v>
+        <v>1399</v>
       </c>
       <c r="AG12" t="s">
         <v>216</v>
@@ -2906,31 +2879,31 @@
         <v>225</v>
       </c>
       <c r="AI12">
-        <v>1311</v>
+        <v>1377</v>
       </c>
       <c r="AJ12">
-        <v>5765</v>
+        <v>5935</v>
       </c>
       <c r="AK12">
-        <v>204137</v>
+        <v>227567</v>
       </c>
       <c r="AL12">
-        <v>204137</v>
+        <v>227567</v>
       </c>
       <c r="AM12">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN12">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AO12">
-        <v>2269</v>
+        <v>9597</v>
       </c>
       <c r="AP12">
-        <v>985</v>
+        <v>667</v>
       </c>
       <c r="AQ12">
-        <v>3254</v>
+        <v>10264</v>
       </c>
       <c r="AR12" t="s">
         <v>108</v>
@@ -2939,39 +2912,39 @@
         <v>3258.438736573084</v>
       </c>
       <c r="AT12">
-        <v>0.002891097020435185</v>
+        <v>0.003023897606792157</v>
       </c>
       <c r="AU12">
-        <v>0.01633550815485076</v>
+        <v>0.01840945773753198</v>
       </c>
       <c r="AV12">
-        <v>15.04</v>
+        <v>14.11</v>
       </c>
       <c r="AW12">
-        <v>0.01922660517528594</v>
+        <v>0.02143335534432414</v>
       </c>
       <c r="AX12">
         <v>7.026019120070406</v>
       </c>
       <c r="AY12">
-        <v>5.309921728084479</v>
+        <v>5.357109284274045</v>
       </c>
       <c r="AZ12">
-        <v>4.487746245072441</v>
+        <v>4.507599535342071</v>
       </c>
       <c r="BA12">
-        <v>3.122870922864435</v>
+        <v>3.146128035678238</v>
       </c>
       <c r="BB12">
-        <v>5.239151768855237</v>
+        <v>5.291060116338353</v>
       </c>
       <c r="BC12">
-        <v>4.48708178619026</v>
+        <v>4.506586201357899</v>
       </c>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="1">
-        <v>1235</v>
+        <v>1337</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -2980,31 +2953,31 @@
         <v>108</v>
       </c>
       <c r="D13">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E13">
         <v>17</v>
       </c>
       <c r="F13">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="G13">
-        <v>44.21572186757038</v>
+        <v>44.42761829824564</v>
       </c>
       <c r="H13">
-        <v>35199</v>
+        <v>36618</v>
       </c>
       <c r="I13">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13">
-        <v>2.715654952076677</v>
+        <v>2.702702702702702</v>
       </c>
       <c r="K13">
-        <v>2486.180821112795</v>
+        <v>2586.407832822192</v>
       </c>
       <c r="L13">
-        <v>11.66134185303514</v>
+        <v>11.76470588235295</v>
       </c>
       <c r="M13">
         <v>1415872</v>
@@ -3028,43 +3001,43 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>49.59946685033753</v>
+        <v>49.52710383067416</v>
       </c>
       <c r="U13">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V13" t="s">
         <v>173</v>
       </c>
       <c r="W13">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="X13">
-        <v>34574</v>
+        <v>35989</v>
       </c>
       <c r="AA13">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF13">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="AG13" t="s">
         <v>213</v>
       </c>
       <c r="AH13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AI13">
         <v>17</v>
       </c>
       <c r="AJ13">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK13">
-        <v>35199</v>
+        <v>36618</v>
       </c>
       <c r="AL13">
-        <v>35199</v>
+        <v>36618</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -3073,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>1196</v>
+        <v>1074</v>
       </c>
       <c r="AP13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
-        <v>1200</v>
+        <v>1077</v>
       </c>
       <c r="AR13" t="s">
         <v>108</v>
@@ -3088,39 +3061,39 @@
         <v>1189.904197824346</v>
       </c>
       <c r="AT13">
-        <v>0.0004414240835329747</v>
+        <v>0.0004442491976675858</v>
       </c>
       <c r="AU13">
-        <v>0.02441887402251051</v>
+        <v>0.02541825814762916</v>
       </c>
       <c r="AV13">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AW13">
-        <v>0.02486029810604348</v>
+        <v>0.02586250734529675</v>
       </c>
       <c r="AX13">
         <v>6.151023993321008</v>
       </c>
       <c r="AY13">
-        <v>4.546530325391456</v>
+        <v>4.563694620340237</v>
       </c>
       <c r="AZ13">
-        <v>2.79657433321043</v>
+        <v>2.798650645445269</v>
       </c>
       <c r="BA13">
         <v>1.230448921378274</v>
       </c>
       <c r="BB13">
-        <v>4.538749627660235</v>
+        <v>4.556169779397686</v>
       </c>
       <c r="BC13">
-        <v>2.795880017344075</v>
+        <v>2.798650645445269</v>
       </c>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="1">
-        <v>1236</v>
+        <v>1338</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -3129,31 +3102,31 @@
         <v>108</v>
       </c>
       <c r="D14">
-        <v>2158</v>
+        <v>2178</v>
       </c>
       <c r="E14">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14">
-        <v>1379</v>
+        <v>1420</v>
       </c>
       <c r="G14">
-        <v>133.9959031280406</v>
+        <v>135.2377557983654</v>
       </c>
       <c r="H14">
-        <v>30545</v>
+        <v>31270</v>
       </c>
       <c r="I14">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J14">
-        <v>3.058387395736793</v>
+        <v>3.076216712580349</v>
       </c>
       <c r="K14">
-        <v>1896.619490753476</v>
+        <v>1941.636650052748</v>
       </c>
       <c r="L14">
-        <v>9.406858202038926</v>
+        <v>9.458218549127643</v>
       </c>
       <c r="M14">
         <v>1787065</v>
@@ -3177,61 +3150,61 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>47.47024819450952</v>
+        <v>47.02201595395449</v>
       </c>
       <c r="U14">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V14" t="s">
         <v>174</v>
       </c>
       <c r="W14">
-        <v>2127</v>
+        <v>2178</v>
       </c>
       <c r="X14">
-        <v>28418</v>
+        <v>29092</v>
       </c>
       <c r="AA14">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AC14">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF14">
-        <v>1379</v>
+        <v>1420</v>
       </c>
       <c r="AG14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH14" t="s">
         <v>226</v>
       </c>
       <c r="AI14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ14">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AK14">
-        <v>30545</v>
+        <v>31270</v>
       </c>
       <c r="AL14">
-        <v>30545</v>
+        <v>31270</v>
       </c>
       <c r="AM14">
         <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="AP14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ14">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="AR14" t="s">
         <v>108</v>
@@ -3240,39 +3213,39 @@
         <v>1336.811505037266</v>
       </c>
       <c r="AT14">
-        <v>0.001190219717805452</v>
+        <v>0.001218758131349447</v>
       </c>
       <c r="AU14">
-        <v>0.01590205168810312</v>
+        <v>0.01627920640827278</v>
       </c>
       <c r="AV14">
-        <v>6.96</v>
+        <v>6.97</v>
       </c>
       <c r="AW14">
-        <v>0.01709227140590857</v>
+        <v>0.01749796453962223</v>
       </c>
       <c r="AX14">
         <v>6.252140349163694</v>
       </c>
       <c r="AY14">
-        <v>4.484940129468028</v>
+        <v>4.495127881242933</v>
       </c>
       <c r="AZ14">
-        <v>3.334051440346892</v>
+        <v>3.338057875419756</v>
       </c>
       <c r="BA14">
-        <v>1.819543935541869</v>
+        <v>1.826074802700826</v>
       </c>
       <c r="BB14">
-        <v>4.453593509920521</v>
+        <v>4.463773578899397</v>
       </c>
       <c r="BC14">
-        <v>3.327767489902729</v>
+        <v>3.338057875419756</v>
       </c>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="1">
-        <v>1237</v>
+        <v>1339</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -3281,22 +3254,22 @@
         <v>108</v>
       </c>
       <c r="D15">
-        <v>68232</v>
+        <v>73760</v>
       </c>
       <c r="E15">
-        <v>2974</v>
+        <v>3241</v>
       </c>
       <c r="G15">
-        <v>581.4077836145973</v>
+        <v>628.5121075069277</v>
       </c>
       <c r="H15">
-        <v>361260</v>
+        <v>399714</v>
       </c>
       <c r="J15">
-        <v>4.35865869386798</v>
+        <v>4.393980477223427</v>
       </c>
       <c r="K15">
-        <v>3078.311875785693</v>
+        <v>3405.980050705317</v>
       </c>
       <c r="M15">
         <v>12671821</v>
@@ -3320,28 +3293,28 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>94.40756824872172</v>
+        <v>98.79969506008784</v>
       </c>
       <c r="U15">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V15" t="s">
         <v>175</v>
       </c>
       <c r="W15">
-        <v>68232</v>
+        <v>73760</v>
       </c>
       <c r="X15">
-        <v>293028</v>
+        <v>325954</v>
       </c>
       <c r="Z15">
-        <v>4832</v>
+        <v>4750</v>
       </c>
       <c r="AB15">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="AD15">
-        <v>780</v>
+        <v>727</v>
       </c>
       <c r="AG15" t="s">
         <v>216</v>
@@ -3350,28 +3323,28 @@
         <v>218</v>
       </c>
       <c r="AI15">
-        <v>2974</v>
+        <v>3241</v>
       </c>
       <c r="AK15">
-        <v>361260</v>
+        <v>399714</v>
       </c>
       <c r="AL15">
-        <v>361260</v>
+        <v>399714</v>
       </c>
       <c r="AM15">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AN15">
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>12704</v>
+        <v>17784</v>
       </c>
       <c r="AP15">
-        <v>2270</v>
+        <v>2887</v>
       </c>
       <c r="AQ15">
-        <v>14974</v>
+        <v>20671</v>
       </c>
       <c r="AR15" t="s">
         <v>108</v>
@@ -3380,48 +3353,48 @@
         <v>3559.750131680593</v>
       </c>
       <c r="AT15">
-        <v>0.00538454575707785</v>
+        <v>0.005820789293030575</v>
       </c>
       <c r="AU15">
-        <v>0.02312437967676469</v>
+        <v>0.02572274340049469</v>
       </c>
       <c r="AV15">
-        <v>18.89</v>
+        <v>18.45</v>
       </c>
       <c r="AW15">
-        <v>0.02850892543384254</v>
+        <v>0.03154353269352526</v>
       </c>
       <c r="AX15">
         <v>7.102839029518357</v>
       </c>
       <c r="AY15">
-        <v>5.557819877590791</v>
+        <v>5.60174935970936</v>
       </c>
       <c r="AZ15">
-        <v>4.833988101402048</v>
+        <v>4.867820908045573</v>
       </c>
       <c r="BA15">
-        <v>3.473340964185935</v>
+        <v>3.51067903103221</v>
       </c>
       <c r="BB15">
-        <v>5.466909120915525</v>
+        <v>5.513156314927574</v>
       </c>
       <c r="BC15">
-        <v>4.833988101402048</v>
+        <v>4.867820908045573</v>
       </c>
       <c r="BD15">
-        <v>3.684126925613076</v>
+        <v>3.676693609624866</v>
       </c>
       <c r="BE15">
-        <v>3.090258052931316</v>
+        <v>3.087071205906535</v>
       </c>
       <c r="BF15">
-        <v>2.89209460269048</v>
+        <v>2.861534410859038</v>
       </c>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="1">
-        <v>1238</v>
+        <v>1340</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -3430,22 +3403,28 @@
         <v>108</v>
       </c>
       <c r="D16">
-        <v>21870</v>
+        <v>23146</v>
       </c>
       <c r="E16">
-        <v>1377</v>
+        <v>1447</v>
       </c>
       <c r="G16">
-        <v>334.1995729213688</v>
+        <v>353.6983683053499</v>
       </c>
       <c r="H16">
-        <v>120496</v>
+        <v>130128</v>
+      </c>
+      <c r="I16">
+        <v>4389</v>
       </c>
       <c r="J16">
-        <v>6.296296296296298</v>
+        <v>6.251620150349952</v>
       </c>
       <c r="K16">
-        <v>1841.321981652184</v>
+        <v>1988.510380663552</v>
+      </c>
+      <c r="L16">
+        <v>18.96223969584377</v>
       </c>
       <c r="M16">
         <v>6732219</v>
@@ -3469,28 +3448,34 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>49.72599537660654</v>
+        <v>51.15241344880124</v>
       </c>
       <c r="U16">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V16" t="s">
         <v>176</v>
       </c>
       <c r="W16">
-        <v>21870</v>
+        <v>23146</v>
       </c>
       <c r="X16">
-        <v>98626</v>
+        <v>106982</v>
       </c>
       <c r="Z16">
-        <v>1558</v>
+        <v>1379</v>
+      </c>
+      <c r="AA16">
+        <v>4389</v>
       </c>
       <c r="AB16">
-        <v>526</v>
+        <v>481</v>
+      </c>
+      <c r="AC16">
+        <v>990</v>
       </c>
       <c r="AD16">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="AG16" t="s">
         <v>215</v>
@@ -3499,28 +3484,31 @@
         <v>227</v>
       </c>
       <c r="AI16">
-        <v>1377</v>
+        <v>1447</v>
+      </c>
+      <c r="AJ16">
+        <v>4389</v>
       </c>
       <c r="AK16">
-        <v>120496</v>
+        <v>130128</v>
       </c>
       <c r="AL16">
-        <v>120496</v>
+        <v>130128</v>
       </c>
       <c r="AM16">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>4389</v>
       </c>
       <c r="AO16">
-        <v>3825</v>
+        <v>4703</v>
       </c>
       <c r="AP16">
-        <v>837</v>
+        <v>643</v>
       </c>
       <c r="AQ16">
-        <v>4662</v>
+        <v>5346</v>
       </c>
       <c r="AR16" t="s">
         <v>108</v>
@@ -3529,48 +3517,48 @@
         <v>2594.651999787255</v>
       </c>
       <c r="AT16">
-        <v>0.003248557422151597</v>
+        <v>0.003438093739968946</v>
       </c>
       <c r="AU16">
-        <v>0.0146498502202617</v>
+        <v>0.01589104573098409</v>
       </c>
       <c r="AV16">
-        <v>18.15</v>
+        <v>17.79</v>
       </c>
       <c r="AW16">
-        <v>0.0178984076424133</v>
+        <v>0.01932913947095304</v>
       </c>
       <c r="AX16">
         <v>6.828158235192161</v>
       </c>
       <c r="AY16">
-        <v>5.080972630257269</v>
+        <v>5.114370754956073</v>
       </c>
       <c r="AZ16">
-        <v>4.339848783037637</v>
+        <v>4.364475948787014</v>
       </c>
       <c r="BA16">
-        <v>3.138933940256924</v>
+        <v>3.160468531119037</v>
       </c>
       <c r="BB16">
-        <v>4.993991419687998</v>
+        <v>5.029310712654574</v>
       </c>
       <c r="BC16">
-        <v>4.339848783037637</v>
+        <v>4.364475948787014</v>
       </c>
       <c r="BD16">
-        <v>3.192567453336546</v>
+        <v>3.13956426617585</v>
       </c>
       <c r="BE16">
-        <v>2.720985744153739</v>
+        <v>2.682145076373832</v>
       </c>
       <c r="BF16">
-        <v>2.44870631990508</v>
+        <v>2.340444114840118</v>
       </c>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="1">
-        <v>1239</v>
+        <v>1341</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -3579,25 +3567,25 @@
         <v>108</v>
       </c>
       <c r="D17">
-        <v>10404</v>
+        <v>11457</v>
       </c>
       <c r="E17">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F17">
-        <v>3803</v>
+        <v>4685</v>
       </c>
       <c r="G17">
-        <v>396.9912004862799</v>
+        <v>437.1711057258082</v>
       </c>
       <c r="H17">
-        <v>63171</v>
+        <v>70261</v>
       </c>
       <c r="J17">
-        <v>2.104959630911188</v>
+        <v>2.120974076983503</v>
       </c>
       <c r="K17">
-        <v>2410.4508963782</v>
+        <v>2680.987960146724</v>
       </c>
       <c r="M17">
         <v>3155070</v>
@@ -3621,46 +3609,46 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>69.6465779766597</v>
+        <v>74.93976043797605</v>
       </c>
       <c r="U17">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V17" t="s">
         <v>177</v>
       </c>
       <c r="W17">
-        <v>10404</v>
+        <v>11457</v>
       </c>
       <c r="X17">
-        <v>52767</v>
+        <v>58804</v>
       </c>
       <c r="Z17">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AB17">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AD17">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AF17">
-        <v>3803</v>
+        <v>4685</v>
       </c>
       <c r="AG17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AI17">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="AK17">
-        <v>63171</v>
+        <v>70261</v>
       </c>
       <c r="AL17">
-        <v>63171</v>
+        <v>70261</v>
       </c>
       <c r="AM17">
         <v>12</v>
@@ -3669,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>2309</v>
+        <v>3436</v>
       </c>
       <c r="AP17">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="AQ17">
-        <v>2602</v>
+        <v>3834</v>
       </c>
       <c r="AR17" t="s">
         <v>108</v>
@@ -3684,48 +3672,48 @@
         <v>1776.251671357412</v>
       </c>
       <c r="AT17">
-        <v>0.003297549658169233</v>
+        <v>0.003631298196236534</v>
       </c>
       <c r="AU17">
-        <v>0.01672451007426143</v>
+        <v>0.01863793830247823</v>
       </c>
       <c r="AV17">
-        <v>16.47</v>
+        <v>16.31</v>
       </c>
       <c r="AW17">
-        <v>0.02002205973243066</v>
+        <v>0.02226923649871477</v>
       </c>
       <c r="AX17">
         <v>6.499008999166996</v>
       </c>
       <c r="AY17">
-        <v>4.800517751851538</v>
+        <v>4.846714326659982</v>
       </c>
       <c r="AZ17">
-        <v>4.017200343523835</v>
+        <v>4.05907091309298</v>
       </c>
       <c r="BA17">
-        <v>2.340444114840118</v>
+        <v>2.385606273598312</v>
       </c>
       <c r="BB17">
-        <v>4.722362403624122</v>
+        <v>4.769406868913598</v>
       </c>
       <c r="BC17">
-        <v>4.017200343523835</v>
+        <v>4.05907091309298</v>
       </c>
       <c r="BD17">
-        <v>2.617000341120899</v>
+        <v>2.60959440922522</v>
       </c>
       <c r="BE17">
-        <v>2.178976947293169</v>
+        <v>2.214843848047698</v>
       </c>
       <c r="BF17">
-        <v>2.012837224705172</v>
+        <v>2.037426497940624</v>
       </c>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="1">
-        <v>1240</v>
+        <v>1342</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -3734,31 +3722,31 @@
         <v>108</v>
       </c>
       <c r="D18">
-        <v>5993</v>
+        <v>6667</v>
       </c>
       <c r="E18">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F18">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="G18">
-        <v>245.7670490894357</v>
+        <v>273.4071276955228</v>
       </c>
       <c r="H18">
-        <v>42114</v>
+        <v>47708</v>
       </c>
       <c r="I18">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="J18">
-        <v>2.736525946938094</v>
+        <v>2.519874006299685</v>
       </c>
       <c r="K18">
-        <v>1727.053813674703</v>
+        <v>1956.458264301485</v>
       </c>
       <c r="L18">
-        <v>9.52778241281495</v>
+        <v>9.119544022798859</v>
       </c>
       <c r="M18">
         <v>2913314</v>
@@ -3782,64 +3770,64 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>49.20022318976232</v>
+        <v>52.49229502106128</v>
       </c>
       <c r="U18">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V18" t="s">
         <v>178</v>
       </c>
       <c r="W18">
-        <v>5734</v>
+        <v>6501</v>
       </c>
       <c r="X18">
-        <v>36380</v>
+        <v>41207</v>
       </c>
       <c r="AA18">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="AC18">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AE18">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AF18">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AG18" t="s">
         <v>216</v>
       </c>
       <c r="AH18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI18">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AJ18">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="AK18">
-        <v>42114</v>
+        <v>47708</v>
       </c>
       <c r="AL18">
-        <v>42114</v>
+        <v>47708</v>
       </c>
       <c r="AM18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN18">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AO18">
-        <v>1746</v>
+        <v>2529</v>
       </c>
       <c r="AP18">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="AQ18">
-        <v>2022</v>
+        <v>2886</v>
       </c>
       <c r="AR18" t="s">
         <v>108</v>
@@ -3848,39 +3836,39 @@
         <v>1706.843285131942</v>
       </c>
       <c r="AT18">
-        <v>0.001968205280996144</v>
+        <v>0.002231479339336577</v>
       </c>
       <c r="AU18">
-        <v>0.01248749705661662</v>
+        <v>0.01414437304046182</v>
       </c>
       <c r="AV18">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="AW18">
-        <v>0.01445570233761277</v>
+        <v>0.0163758523797984</v>
       </c>
       <c r="AX18">
         <v>6.464387295859416</v>
       </c>
       <c r="AY18">
-        <v>4.624426492795857</v>
+        <v>4.678591210581774</v>
       </c>
       <c r="AZ18">
-        <v>3.777644277696485</v>
+        <v>3.823930455125564</v>
       </c>
       <c r="BA18">
-        <v>2.214843848047698</v>
+        <v>2.225309281725863</v>
       </c>
       <c r="BB18">
-        <v>4.560862694727465</v>
+        <v>4.614970997662866</v>
       </c>
       <c r="BC18">
-        <v>3.758457688610465</v>
+        <v>3.81298016603948</v>
       </c>
     </row>
     <row r="19" spans="1:58">
       <c r="A19" s="1">
-        <v>1241</v>
+        <v>1343</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -3889,31 +3877,31 @@
         <v>108</v>
       </c>
       <c r="D19">
-        <v>5934</v>
+        <v>6288</v>
       </c>
       <c r="E19">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="F19">
-        <v>2058</v>
+        <v>2177</v>
       </c>
       <c r="G19">
-        <v>173.341360668337</v>
+        <v>183.6822507385411</v>
       </c>
       <c r="H19">
-        <v>61014</v>
+        <v>81401</v>
       </c>
       <c r="I19">
-        <v>1603</v>
+        <v>1684</v>
       </c>
       <c r="J19">
-        <v>4.769127064374789</v>
+        <v>4.739185750636132</v>
       </c>
       <c r="K19">
-        <v>1782.313747862809</v>
+        <v>2377.849696623407</v>
       </c>
       <c r="L19">
-        <v>27.01381867205933</v>
+        <v>26.78117048346056</v>
       </c>
       <c r="M19">
         <v>4467673</v>
@@ -3937,67 +3925,67 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>49.70491948917516</v>
+        <v>56.37853080856946</v>
       </c>
       <c r="U19">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V19" t="s">
         <v>179</v>
       </c>
       <c r="W19">
-        <v>5822</v>
+        <v>6129</v>
       </c>
       <c r="X19">
-        <v>55192</v>
+        <v>75272</v>
       </c>
       <c r="Z19">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AA19">
-        <v>1603</v>
+        <v>1684</v>
       </c>
       <c r="AB19">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AC19">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="AF19">
-        <v>2058</v>
+        <v>2177</v>
       </c>
       <c r="AG19" t="s">
         <v>216</v>
       </c>
       <c r="AH19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI19">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="AJ19">
-        <v>1603</v>
+        <v>1684</v>
       </c>
       <c r="AK19">
-        <v>61014</v>
+        <v>81401</v>
       </c>
       <c r="AL19">
-        <v>61014</v>
+        <v>81401</v>
       </c>
       <c r="AM19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AN19">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AO19">
-        <v>390</v>
+        <v>2600</v>
       </c>
       <c r="AP19">
-        <v>577</v>
+        <v>195</v>
       </c>
       <c r="AQ19">
-        <v>967</v>
+        <v>2795</v>
       </c>
       <c r="AR19" t="s">
         <v>108</v>
@@ -4006,45 +3994,45 @@
         <v>2113.687062930556</v>
       </c>
       <c r="AT19">
-        <v>0.001303139240494996</v>
+        <v>0.001371855102197497</v>
       </c>
       <c r="AU19">
-        <v>0.01235363465499825</v>
+        <v>0.01684814443671236</v>
       </c>
       <c r="AV19">
-        <v>9.539999999999999</v>
+        <v>7.53</v>
       </c>
       <c r="AW19">
-        <v>0.01365677389549325</v>
+        <v>0.01821999953890985</v>
       </c>
       <c r="AX19">
         <v>6.650081378523105</v>
       </c>
       <c r="AY19">
-        <v>4.785429497717888</v>
+        <v>4.910629740169475</v>
       </c>
       <c r="AZ19">
-        <v>3.773347541980823</v>
+        <v>3.798512533031352</v>
       </c>
       <c r="BA19">
-        <v>2.45178643552429</v>
+        <v>2.474216264076255</v>
       </c>
       <c r="BB19">
-        <v>4.741876131938538</v>
+        <v>4.876633455524433</v>
       </c>
       <c r="BC19">
-        <v>3.765072201102792</v>
+        <v>3.78738962135211</v>
       </c>
       <c r="BD19">
-        <v>2.540329474790874</v>
+        <v>2.551449997972875</v>
       </c>
       <c r="BE19">
-        <v>2.276461804173244</v>
+        <v>2.298853076409707</v>
       </c>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="1">
-        <v>1242</v>
+        <v>1344</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -4053,25 +4041,25 @@
         <v>108</v>
       </c>
       <c r="D20">
-        <v>30399</v>
+        <v>30855</v>
       </c>
       <c r="E20">
-        <v>2167</v>
+        <v>2227</v>
       </c>
       <c r="F20">
         <v>20316</v>
       </c>
       <c r="G20">
-        <v>661.2408331386523</v>
+        <v>671.1597719166132</v>
       </c>
       <c r="H20">
-        <v>194672</v>
+        <v>202416</v>
       </c>
       <c r="J20">
-        <v>7.128523964604099</v>
+        <v>7.21763085399449</v>
       </c>
       <c r="K20">
-        <v>4234.516775840249</v>
+        <v>4402.964718595791</v>
       </c>
       <c r="M20">
         <v>4648794</v>
@@ -4095,25 +4083,25 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>66.38142690124135</v>
+        <v>70.69805522872079</v>
       </c>
       <c r="U20">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V20" t="s">
         <v>180</v>
       </c>
       <c r="W20">
-        <v>30399</v>
+        <v>30855</v>
       </c>
       <c r="X20">
-        <v>164273</v>
+        <v>171561</v>
       </c>
       <c r="Z20">
-        <v>1465</v>
+        <v>1359</v>
       </c>
       <c r="AD20">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF20">
         <v>20316</v>
@@ -4122,31 +4110,31 @@
         <v>213</v>
       </c>
       <c r="AH20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AI20">
-        <v>2115</v>
+        <v>2227</v>
       </c>
       <c r="AK20">
-        <v>194672</v>
+        <v>202416</v>
       </c>
       <c r="AL20">
-        <v>194672</v>
+        <v>202416</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AN20">
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>6038</v>
+        <v>1446</v>
       </c>
       <c r="AP20">
-        <v>403</v>
+        <v>203</v>
       </c>
       <c r="AQ20">
-        <v>6441</v>
+        <v>1649</v>
       </c>
       <c r="AR20" t="s">
         <v>108</v>
@@ -4155,45 +4143,45 @@
         <v>2156.106212597144</v>
       </c>
       <c r="AT20">
-        <v>0.00653911530603421</v>
+        <v>0.006637205262268021</v>
       </c>
       <c r="AU20">
-        <v>0.03533669162367702</v>
+        <v>0.03690441004699283</v>
       </c>
       <c r="AV20">
-        <v>15.62</v>
+        <v>15.24</v>
       </c>
       <c r="AW20">
-        <v>0.04187580692971123</v>
+        <v>0.04354161530926085</v>
       </c>
       <c r="AX20">
         <v>6.667340301905727</v>
       </c>
       <c r="AY20">
-        <v>5.289303490708703</v>
+        <v>5.306244838390451</v>
       </c>
       <c r="AZ20">
-        <v>4.482859297371087</v>
+        <v>4.489325550750405</v>
       </c>
       <c r="BA20">
-        <v>3.335858911319818</v>
+        <v>3.347720217034038</v>
       </c>
       <c r="BB20">
-        <v>5.215566188422278</v>
+        <v>5.234418569003362</v>
       </c>
       <c r="BC20">
-        <v>4.482859297371087</v>
+        <v>4.489325550750405</v>
       </c>
       <c r="BD20">
-        <v>3.165837624690128</v>
+        <v>3.133219456732494</v>
       </c>
       <c r="BF20">
-        <v>2.271841606536499</v>
+        <v>2.267171728403014</v>
       </c>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="1">
-        <v>1243</v>
+        <v>1345</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -4202,31 +4190,31 @@
         <v>108</v>
       </c>
       <c r="D21">
-        <v>1254</v>
+        <v>1374</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21">
-        <v>766</v>
+        <v>836</v>
       </c>
       <c r="G21">
-        <v>106.8137641545273</v>
+        <v>117.0351769922811</v>
       </c>
       <c r="H21">
-        <v>23346</v>
+        <v>23466</v>
       </c>
       <c r="I21">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J21">
-        <v>4.944178628389155</v>
+        <v>4.585152838427947</v>
       </c>
       <c r="K21">
-        <v>1988.575867585004</v>
+        <v>1998.797280422757</v>
       </c>
       <c r="L21">
-        <v>15.23125996810207</v>
+        <v>14.1193595342067</v>
       </c>
       <c r="M21">
         <v>1344212</v>
@@ -4250,67 +4238,67 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>39.28324832543824</v>
+        <v>39.38176826768373</v>
       </c>
       <c r="U21">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V21" t="s">
         <v>181</v>
       </c>
       <c r="W21">
-        <v>1254</v>
+        <v>1374</v>
       </c>
       <c r="X21">
         <v>22092</v>
       </c>
       <c r="Z21">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AA21">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AB21">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AD21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF21">
-        <v>766</v>
+        <v>836</v>
       </c>
       <c r="AG21" t="s">
         <v>213</v>
       </c>
       <c r="AH21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AI21">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AJ21">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AK21">
-        <v>23346</v>
+        <v>23466</v>
       </c>
       <c r="AL21">
-        <v>23346</v>
+        <v>23466</v>
       </c>
       <c r="AM21">
         <v>1</v>
       </c>
       <c r="AN21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO21">
-        <v>2546</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AQ21">
-        <v>2574</v>
+        <v>44</v>
       </c>
       <c r="AR21" t="s">
         <v>108</v>
@@ -4319,48 +4307,48 @@
         <v>1159.401569776408</v>
       </c>
       <c r="AT21">
-        <v>0.0009328885622208402</v>
+        <v>0.001022160194969246</v>
       </c>
       <c r="AU21">
         <v>0.0164349075889815</v>
       </c>
       <c r="AV21">
-        <v>5.37</v>
+        <v>5.86</v>
       </c>
       <c r="AW21">
-        <v>0.01736779615120234</v>
+        <v>0.01745706778395074</v>
       </c>
       <c r="AX21">
         <v>6.128467768099815</v>
       </c>
       <c r="AY21">
-        <v>4.368212481187387</v>
+        <v>4.370439066335774</v>
       </c>
       <c r="AZ21">
-        <v>3.098297536494698</v>
+        <v>3.137986732723532</v>
       </c>
       <c r="BA21">
-        <v>1.792391689498254</v>
+        <v>1.799340549453582</v>
       </c>
       <c r="BB21">
         <v>4.344235034551639</v>
       </c>
       <c r="BC21">
-        <v>3.098297536494698</v>
+        <v>3.137986732723532</v>
       </c>
       <c r="BD21">
-        <v>1.568201724066995</v>
+        <v>1.643452676486187</v>
       </c>
       <c r="BE21">
-        <v>1.255272505103306</v>
+        <v>1.361727836017593</v>
       </c>
       <c r="BF21">
-        <v>1.079181246047625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="1">
-        <v>1244</v>
+        <v>1346</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -4369,31 +4357,31 @@
         <v>108</v>
       </c>
       <c r="D22">
-        <v>28163</v>
+        <v>30485</v>
       </c>
       <c r="E22">
-        <v>1437</v>
+        <v>1560</v>
       </c>
       <c r="F22">
-        <v>1903</v>
+        <v>2041</v>
       </c>
       <c r="G22">
-        <v>473.8585322886898</v>
+        <v>512.9275061897066</v>
       </c>
       <c r="H22">
-        <v>144012</v>
+        <v>152187</v>
       </c>
       <c r="I22">
-        <v>5497</v>
+        <v>5811</v>
       </c>
       <c r="J22">
-        <v>5.102439370805668</v>
+        <v>5.11727078891258</v>
       </c>
       <c r="K22">
-        <v>2423.084009230508</v>
+        <v>2560.633045251529</v>
       </c>
       <c r="L22">
-        <v>19.51851720342293</v>
+        <v>19.06183368869936</v>
       </c>
       <c r="M22">
         <v>6045680</v>
@@ -4417,64 +4405,64 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>69.54125924237907</v>
+        <v>70.45450702074143</v>
       </c>
       <c r="U22">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V22" t="s">
         <v>182</v>
       </c>
       <c r="W22">
-        <v>28163</v>
+        <v>30485</v>
       </c>
       <c r="X22">
-        <v>115849</v>
+        <v>121702</v>
       </c>
       <c r="Z22">
-        <v>1707</v>
+        <v>1674</v>
       </c>
       <c r="AA22">
-        <v>5497</v>
+        <v>5811</v>
       </c>
       <c r="AB22">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="AF22">
-        <v>1903</v>
+        <v>2041</v>
       </c>
       <c r="AG22" t="s">
         <v>216</v>
       </c>
       <c r="AH22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI22">
-        <v>1437</v>
+        <v>1560</v>
       </c>
       <c r="AJ22">
-        <v>5497</v>
+        <v>5811</v>
       </c>
       <c r="AK22">
-        <v>144012</v>
+        <v>152187</v>
       </c>
       <c r="AL22">
-        <v>144012</v>
+        <v>152187</v>
       </c>
       <c r="AM22">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AN22">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="AO22">
-        <v>2863</v>
+        <v>2476</v>
       </c>
       <c r="AP22">
-        <v>1046</v>
+        <v>1111</v>
       </c>
       <c r="AQ22">
-        <v>3909</v>
+        <v>3587</v>
       </c>
       <c r="AR22" t="s">
         <v>108</v>
@@ -4483,45 +4471,45 @@
         <v>2458.796453552022</v>
       </c>
       <c r="AT22">
-        <v>0.00465836762779373</v>
+        <v>0.005042443529925501</v>
       </c>
       <c r="AU22">
-        <v>0.01916227785790846</v>
+        <v>0.02013040716677032</v>
       </c>
       <c r="AV22">
-        <v>19.56</v>
+        <v>20.03</v>
       </c>
       <c r="AW22">
-        <v>0.02382064548570219</v>
+        <v>0.02517285069669582</v>
       </c>
       <c r="AX22">
         <v>6.781445156088222</v>
       </c>
       <c r="AY22">
-        <v>5.158398681794192</v>
+        <v>5.182377556052198</v>
       </c>
       <c r="AZ22">
-        <v>4.449678915173551</v>
+        <v>4.484086199357939</v>
       </c>
       <c r="BA22">
-        <v>3.157456768134226</v>
+        <v>3.193124598354462</v>
       </c>
       <c r="BB22">
-        <v>5.063892289344325</v>
+        <v>5.085297715303415</v>
       </c>
       <c r="BC22">
-        <v>4.449678915173551</v>
+        <v>4.484086199357939</v>
       </c>
       <c r="BD22">
-        <v>3.232233521114733</v>
+        <v>3.223755453657241</v>
       </c>
       <c r="BE22">
-        <v>2.7664128471124</v>
+        <v>2.756636108245848</v>
       </c>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="1">
-        <v>1245</v>
+        <v>1347</v>
       </c>
       <c r="B23" t="s">
         <v>78</v>
@@ -4530,28 +4518,28 @@
         <v>108</v>
       </c>
       <c r="D23">
-        <v>72025</v>
+        <v>75333</v>
       </c>
       <c r="E23">
-        <v>4420</v>
+        <v>4702</v>
       </c>
       <c r="G23">
-        <v>1049.350124100859</v>
+        <v>1097.54519817966</v>
       </c>
       <c r="H23">
-        <v>339639</v>
+        <v>366023</v>
       </c>
       <c r="I23">
-        <v>7080</v>
+        <v>7434</v>
       </c>
       <c r="J23">
-        <v>6.136758070114543</v>
+        <v>6.241620538143972</v>
       </c>
       <c r="K23">
-        <v>4948.284995480619</v>
+        <v>5332.68004823004</v>
       </c>
       <c r="L23">
-        <v>9.829920166608817</v>
+        <v>9.868185257456895</v>
       </c>
       <c r="M23">
         <v>6892503</v>
@@ -4575,61 +4563,61 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>143.7038275321566</v>
+        <v>145.5326236458054</v>
       </c>
       <c r="U23">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V23" t="s">
         <v>183</v>
       </c>
       <c r="W23">
-        <v>72025</v>
+        <v>75333</v>
       </c>
       <c r="X23">
-        <v>267614</v>
+        <v>290690</v>
       </c>
       <c r="Z23">
-        <v>3564</v>
+        <v>3349</v>
       </c>
       <c r="AA23">
-        <v>7080</v>
+        <v>7434</v>
       </c>
       <c r="AB23">
-        <v>922</v>
+        <v>826</v>
       </c>
       <c r="AG23" t="s">
         <v>216</v>
       </c>
       <c r="AH23" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AI23">
-        <v>4420</v>
+        <v>4702</v>
       </c>
       <c r="AJ23">
-        <v>7080</v>
+        <v>7434</v>
       </c>
       <c r="AK23">
-        <v>339639</v>
+        <v>366023</v>
       </c>
       <c r="AL23">
-        <v>339639</v>
+        <v>366023</v>
       </c>
       <c r="AM23">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="AN23">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="AO23">
-        <v>4536</v>
+        <v>12779</v>
       </c>
       <c r="AP23">
-        <v>1754</v>
+        <v>1612</v>
       </c>
       <c r="AQ23">
-        <v>6290</v>
+        <v>14391</v>
       </c>
       <c r="AR23" t="s">
         <v>108</v>
@@ -4638,45 +4626,45 @@
         <v>2625.357689915795</v>
       </c>
       <c r="AT23">
-        <v>0.01044975968817134</v>
+        <v>0.01092970144517891</v>
       </c>
       <c r="AU23">
-        <v>0.03882682386935486</v>
+        <v>0.04217480935445368</v>
       </c>
       <c r="AV23">
-        <v>21.21</v>
+        <v>20.58</v>
       </c>
       <c r="AW23">
-        <v>0.0492765835575262</v>
+        <v>0.05310451079963258</v>
       </c>
       <c r="AX23">
         <v>6.838376963806924</v>
       </c>
       <c r="AY23">
-        <v>5.531017553516291</v>
+        <v>5.563508376266657</v>
       </c>
       <c r="AZ23">
-        <v>4.857483266952451</v>
+        <v>4.876985262766487</v>
       </c>
       <c r="BA23">
-        <v>3.645422269349092</v>
+        <v>3.672282624788921</v>
       </c>
       <c r="BB23">
-        <v>5.427508829438482</v>
+        <v>5.463430091902802</v>
       </c>
       <c r="BC23">
-        <v>4.857483266952451</v>
+        <v>4.876985262766487</v>
       </c>
       <c r="BD23">
-        <v>3.551937695364837</v>
+        <v>3.524915147539867</v>
       </c>
       <c r="BE23">
-        <v>2.964730921053629</v>
+        <v>2.916980047320382</v>
       </c>
     </row>
     <row r="24" spans="1:58">
       <c r="A24" s="1">
-        <v>1246</v>
+        <v>1348</v>
       </c>
       <c r="B24" t="s">
         <v>79</v>
@@ -4685,25 +4673,25 @@
         <v>108</v>
       </c>
       <c r="D24">
-        <v>45179</v>
+        <v>46386</v>
       </c>
       <c r="E24">
-        <v>4256</v>
+        <v>4399</v>
       </c>
       <c r="F24">
         <v>15659</v>
       </c>
       <c r="G24">
-        <v>567.058256798229</v>
+        <v>582.2077580256898</v>
       </c>
       <c r="H24">
-        <v>233231</v>
+        <v>260253</v>
       </c>
       <c r="J24">
-        <v>9.420305894331435</v>
+        <v>9.483464838528867</v>
       </c>
       <c r="K24">
-        <v>2927.368119951918</v>
+        <v>3266.531187200015</v>
       </c>
       <c r="M24">
         <v>9986857</v>
@@ -4727,28 +4715,28 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>83.44136923258871</v>
+        <v>86.89258457489262</v>
       </c>
       <c r="U24">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V24" t="s">
         <v>184</v>
       </c>
       <c r="W24">
-        <v>45054</v>
+        <v>46326</v>
       </c>
       <c r="X24">
-        <v>188177</v>
+        <v>213927</v>
       </c>
       <c r="Z24">
-        <v>1818</v>
+        <v>1637</v>
       </c>
       <c r="AB24">
-        <v>794</v>
+        <v>725</v>
       </c>
       <c r="AD24">
-        <v>617</v>
+        <v>570</v>
       </c>
       <c r="AF24">
         <v>15659</v>
@@ -4757,31 +4745,31 @@
         <v>215</v>
       </c>
       <c r="AH24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AI24">
-        <v>4250</v>
+        <v>4393</v>
       </c>
       <c r="AK24">
-        <v>233231</v>
+        <v>260253</v>
       </c>
       <c r="AL24">
-        <v>233231</v>
+        <v>260253</v>
       </c>
       <c r="AM24">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="AN24">
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>9738</v>
+        <v>12511</v>
       </c>
       <c r="AP24">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="AQ24">
-        <v>10395</v>
+        <v>13191</v>
       </c>
       <c r="AR24" t="s">
         <v>108</v>
@@ -4790,48 +4778,48 @@
         <v>3160.19888614625</v>
       </c>
       <c r="AT24">
-        <v>0.004511329240020159</v>
+        <v>0.004638696638992628</v>
       </c>
       <c r="AU24">
-        <v>0.01884246465129119</v>
+        <v>0.02142085342765997</v>
       </c>
       <c r="AV24">
-        <v>19.32</v>
+        <v>17.8</v>
       </c>
       <c r="AW24">
-        <v>0.02335379389131135</v>
+        <v>0.0260595500666526</v>
       </c>
       <c r="AX24">
         <v>6.999428831336674</v>
       </c>
       <c r="AY24">
-        <v>5.367786274363866</v>
+        <v>5.415395744430167</v>
       </c>
       <c r="AZ24">
-        <v>4.654936613939629</v>
+        <v>4.666386923654211</v>
       </c>
       <c r="BA24">
-        <v>3.629001619286992</v>
+        <v>3.643353961976863</v>
       </c>
       <c r="BB24">
-        <v>5.274566540539168</v>
+        <v>5.33026560089227</v>
       </c>
       <c r="BC24">
-        <v>4.653733354711529</v>
+        <v>4.665824802838091</v>
       </c>
       <c r="BD24">
-        <v>3.259593878885949</v>
+        <v>3.214048679411941</v>
       </c>
       <c r="BE24">
-        <v>2.899820502427096</v>
+        <v>2.860338006570994</v>
       </c>
       <c r="BF24">
-        <v>2.790285164033242</v>
+        <v>2.755874855672491</v>
       </c>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="1">
-        <v>1247</v>
+        <v>1349</v>
       </c>
       <c r="B25" t="s">
         <v>80</v>
@@ -4840,31 +4828,31 @@
         <v>108</v>
       </c>
       <c r="D25">
-        <v>8579</v>
+        <v>10088</v>
       </c>
       <c r="E25">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="F25">
-        <v>5005</v>
+        <v>5697</v>
       </c>
       <c r="G25">
-        <v>173.4376560463816</v>
+        <v>203.9444077626644</v>
       </c>
       <c r="H25">
-        <v>93232</v>
+        <v>101270</v>
       </c>
       <c r="I25">
-        <v>1405</v>
+        <v>1549</v>
       </c>
       <c r="J25">
-        <v>5.653339550064111</v>
+        <v>5.293417922283902</v>
       </c>
       <c r="K25">
-        <v>1884.828015912839</v>
+        <v>2047.328526380355</v>
       </c>
       <c r="L25">
-        <v>16.37720013987644</v>
+        <v>15.35487708168121</v>
       </c>
       <c r="M25">
         <v>5639632</v>
@@ -4888,67 +4876,67 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>46.37340394695024</v>
+        <v>49.41604977236012</v>
       </c>
       <c r="U25">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V25" t="s">
         <v>185</v>
       </c>
       <c r="W25">
-        <v>8579</v>
+        <v>10088</v>
       </c>
       <c r="X25">
-        <v>84653</v>
+        <v>91182</v>
       </c>
       <c r="Z25">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="AA25">
-        <v>1405</v>
+        <v>1549</v>
       </c>
       <c r="AB25">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AC25">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="AF25">
-        <v>5005</v>
+        <v>5697</v>
       </c>
       <c r="AG25" t="s">
         <v>216</v>
       </c>
       <c r="AH25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI25">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="AJ25">
-        <v>1405</v>
+        <v>1549</v>
       </c>
       <c r="AK25">
-        <v>93232</v>
+        <v>101270</v>
       </c>
       <c r="AL25">
-        <v>93232</v>
+        <v>101270</v>
       </c>
       <c r="AM25">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AN25">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AO25">
-        <v>4495</v>
+        <v>3126</v>
       </c>
       <c r="AP25">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AQ25">
-        <v>5223</v>
+        <v>3849</v>
       </c>
       <c r="AR25" t="s">
         <v>108</v>
@@ -4957,45 +4945,45 @@
         <v>2374.790938166979</v>
       </c>
       <c r="AT25">
-        <v>0.001521198546288127</v>
+        <v>0.001788769196287985</v>
       </c>
       <c r="AU25">
-        <v>0.0150103765635772</v>
+        <v>0.01616807621490196</v>
       </c>
       <c r="AV25">
-        <v>9.199999999999999</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AW25">
-        <v>0.01653157510986532</v>
+        <v>0.01795684541118995</v>
       </c>
       <c r="AX25">
         <v>6.751250766113916</v>
       </c>
       <c r="AY25">
-        <v>4.969565000746075</v>
+        <v>5.005480809979401</v>
       </c>
       <c r="AZ25">
-        <v>3.93343666782628</v>
+        <v>4.003805073565025</v>
       </c>
       <c r="BA25">
-        <v>2.685741738602264</v>
+        <v>2.727541257028556</v>
       </c>
       <c r="BB25">
-        <v>4.927642353589185</v>
+        <v>4.95990911385232</v>
       </c>
       <c r="BC25">
-        <v>3.93343666782628</v>
+        <v>4.003805073565025</v>
       </c>
       <c r="BD25">
-        <v>2.64640372622307</v>
+        <v>2.674861140737812</v>
       </c>
       <c r="BE25">
-        <v>2.255272505103306</v>
+        <v>2.296665190261531</v>
       </c>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="1">
-        <v>1248</v>
+        <v>1350</v>
       </c>
       <c r="B26" t="s">
         <v>81</v>
@@ -5004,31 +4992,31 @@
         <v>108</v>
       </c>
       <c r="D26">
-        <v>8424</v>
+        <v>9090</v>
       </c>
       <c r="E26">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="F26">
         <v>4421</v>
       </c>
       <c r="G26">
-        <v>290.9637518021171</v>
+        <v>313.9672962821988</v>
       </c>
       <c r="H26">
-        <v>80525</v>
+        <v>81191</v>
       </c>
       <c r="I26">
-        <v>1392</v>
+        <v>1478</v>
       </c>
       <c r="J26">
-        <v>4.439696106362773</v>
+        <v>4.499449944994501</v>
       </c>
       <c r="K26">
-        <v>2781.321950838731</v>
+        <v>2804.325495318813</v>
       </c>
       <c r="L26">
-        <v>16.52421652421653</v>
+        <v>16.25962596259626</v>
       </c>
       <c r="M26">
         <v>2976149</v>
@@ -5052,67 +5040,67 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>78.30926764693911</v>
+        <v>75.4094898026222</v>
       </c>
       <c r="U26">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V26" t="s">
         <v>186</v>
       </c>
       <c r="W26">
-        <v>8424</v>
+        <v>9090</v>
       </c>
       <c r="X26">
         <v>72101</v>
       </c>
       <c r="Z26">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="AA26">
-        <v>1392</v>
+        <v>1478</v>
       </c>
       <c r="AB26">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="AD26">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AF26">
         <v>4421</v>
       </c>
       <c r="AG26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AH26" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AI26">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="AJ26">
-        <v>1392</v>
+        <v>1478</v>
       </c>
       <c r="AK26">
-        <v>80525</v>
+        <v>81191</v>
       </c>
       <c r="AL26">
-        <v>80525</v>
+        <v>81191</v>
       </c>
       <c r="AM26">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AN26">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO26">
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>217</v>
+        <v>404</v>
       </c>
       <c r="AQ26">
-        <v>217</v>
+        <v>404</v>
       </c>
       <c r="AR26" t="s">
         <v>108</v>
@@ -5121,48 +5109,48 @@
         <v>1725.151877371961</v>
       </c>
       <c r="AT26">
-        <v>0.002830503445896022</v>
+        <v>0.003054282564481819</v>
       </c>
       <c r="AU26">
         <v>0.02422627361734913</v>
       </c>
       <c r="AV26">
-        <v>10.46</v>
+        <v>11.2</v>
       </c>
       <c r="AW26">
-        <v>0.02705677706324515</v>
+        <v>0.02728055618183095</v>
       </c>
       <c r="AX26">
         <v>6.473654670240083</v>
       </c>
       <c r="AY26">
-        <v>4.905930733491729</v>
+        <v>4.909507890485442</v>
       </c>
       <c r="AZ26">
-        <v>3.92551835817743</v>
+        <v>3.958563883221967</v>
       </c>
       <c r="BA26">
-        <v>2.57287160220048</v>
+        <v>2.611723308007342</v>
       </c>
       <c r="BB26">
         <v>4.857941288179487</v>
       </c>
       <c r="BC26">
-        <v>3.92551835817743</v>
+        <v>3.958563883221967</v>
       </c>
       <c r="BD26">
-        <v>2.790988475088816</v>
+        <v>2.800717078282385</v>
       </c>
       <c r="BE26">
-        <v>2.15836249209525</v>
+        <v>2.089905111439398</v>
       </c>
       <c r="BF26">
-        <v>1.897627091290441</v>
+        <v>1.763427993562937</v>
       </c>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="1">
-        <v>1249</v>
+        <v>1351</v>
       </c>
       <c r="B27" t="s">
         <v>82</v>
@@ -5171,22 +5159,22 @@
         <v>108</v>
       </c>
       <c r="D27">
-        <v>9323</v>
+        <v>9733</v>
       </c>
       <c r="E27">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="G27">
-        <v>159.110333792079</v>
+        <v>166.1075703956135</v>
       </c>
       <c r="H27">
-        <v>100747</v>
+        <v>108721</v>
       </c>
       <c r="J27">
-        <v>4.590796953770246</v>
+        <v>4.962498715709441</v>
       </c>
       <c r="K27">
-        <v>1719.391697795837</v>
+        <v>1855.479416519213</v>
       </c>
       <c r="M27">
         <v>6137428</v>
@@ -5210,55 +5198,55 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>37.35447848282939</v>
+        <v>39.9258623907254</v>
       </c>
       <c r="U27">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V27" t="s">
         <v>187</v>
       </c>
       <c r="W27">
-        <v>9102</v>
+        <v>9489</v>
       </c>
       <c r="X27">
-        <v>91645</v>
+        <v>99232</v>
       </c>
       <c r="Z27">
-        <v>953</v>
+        <v>832</v>
       </c>
       <c r="AD27">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AG27" t="s">
         <v>213</v>
       </c>
       <c r="AH27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AI27">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="AK27">
-        <v>100747</v>
+        <v>108721</v>
       </c>
       <c r="AL27">
-        <v>100747</v>
+        <v>108721</v>
       </c>
       <c r="AM27">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AN27">
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>5495</v>
+        <v>4951</v>
       </c>
       <c r="AP27">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="AQ27">
-        <v>5681</v>
+        <v>5099</v>
       </c>
       <c r="AR27" t="s">
         <v>108</v>
@@ -5267,45 +5255,45 @@
         <v>2477.383296948617</v>
       </c>
       <c r="AT27">
-        <v>0.001483031654302095</v>
+        <v>0.001546087383835705</v>
       </c>
       <c r="AU27">
-        <v>0.01493215073154422</v>
+        <v>0.01616833631286591</v>
       </c>
       <c r="AV27">
-        <v>9.029999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="AW27">
-        <v>0.01641518238584632</v>
+        <v>0.01771442369670162</v>
       </c>
       <c r="AX27">
         <v>6.787986410322698</v>
       </c>
       <c r="AY27">
-        <v>5.003232122774994</v>
+        <v>5.036313438320507</v>
       </c>
       <c r="AZ27">
-        <v>3.969555684220844</v>
+        <v>3.988246723375378</v>
       </c>
       <c r="BA27">
-        <v>2.631443769013172</v>
+        <v>2.683947130751512</v>
       </c>
       <c r="BB27">
-        <v>4.962108775554161</v>
+        <v>4.996651744557233</v>
       </c>
       <c r="BC27">
-        <v>3.959136831170374</v>
+        <v>3.977220446635385</v>
       </c>
       <c r="BD27">
-        <v>2.979092900638326</v>
+        <v>2.920123326290724</v>
       </c>
       <c r="BF27">
-        <v>2.127104798364808</v>
+        <v>2.155336037465062</v>
       </c>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="1">
-        <v>1250</v>
+        <v>1352</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
@@ -5314,31 +5302,31 @@
         <v>108</v>
       </c>
       <c r="D28">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E28">
         <v>16</v>
       </c>
       <c r="F28">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G28">
-        <v>52.65667960373539</v>
+        <v>52.88762995287458</v>
       </c>
       <c r="H28">
-        <v>19704</v>
+        <v>20945</v>
       </c>
       <c r="I28">
         <v>62</v>
       </c>
       <c r="J28">
-        <v>3.508771929824561</v>
+        <v>3.493449781659388</v>
       </c>
       <c r="K28">
-        <v>2275.322839719303</v>
+        <v>2418.62753136017</v>
       </c>
       <c r="L28">
-        <v>13.59649122807018</v>
+        <v>13.53711790393013</v>
       </c>
       <c r="M28">
         <v>1068778</v>
@@ -5362,19 +5350,19 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>37.34316139507966</v>
+        <v>44.15734016690813</v>
       </c>
       <c r="U28">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V28" t="s">
         <v>188</v>
       </c>
       <c r="W28">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="X28">
-        <v>19248</v>
+        <v>20487</v>
       </c>
       <c r="Z28">
         <v>6</v>
@@ -5383,7 +5371,7 @@
         <v>62</v>
       </c>
       <c r="AF28">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AG28" t="s">
         <v>214</v>
@@ -5398,10 +5386,10 @@
         <v>62</v>
       </c>
       <c r="AK28">
-        <v>19704</v>
+        <v>20945</v>
       </c>
       <c r="AL28">
-        <v>19704</v>
+        <v>20945</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -5410,13 +5398,13 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>4432</v>
+        <v>696</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
-        <v>4432</v>
+        <v>698</v>
       </c>
       <c r="AR28" t="s">
         <v>108</v>
@@ -5425,34 +5413,34 @@
         <v>1033.817198541406</v>
       </c>
       <c r="AT28">
-        <v>0.0004266554887918726</v>
+        <v>0.0004285267847953457</v>
       </c>
       <c r="AU28">
-        <v>0.01800935273742536</v>
+        <v>0.01916862061157696</v>
       </c>
       <c r="AV28">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AW28">
-        <v>0.01843600822621723</v>
+        <v>0.01959714739637231</v>
       </c>
       <c r="AX28">
         <v>6.028887505594666</v>
       </c>
       <c r="AY28">
-        <v>4.294554398831047</v>
+        <v>4.321080364697238</v>
       </c>
       <c r="AZ28">
-        <v>2.658964842664435</v>
+        <v>2.660865478003869</v>
       </c>
       <c r="BA28">
         <v>1.204119982655925</v>
       </c>
       <c r="BB28">
-        <v>4.28438560999577</v>
+        <v>4.311478367438068</v>
       </c>
       <c r="BC28">
-        <v>2.658964842664435</v>
+        <v>2.660865478003869</v>
       </c>
       <c r="BD28">
         <v>0.7781512503836436</v>
@@ -5460,7 +5448,7 @@
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="1">
-        <v>1251</v>
+        <v>1353</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
@@ -5469,22 +5457,22 @@
         <v>108</v>
       </c>
       <c r="D29">
-        <v>6689</v>
+        <v>7818</v>
       </c>
       <c r="E29">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G29">
-        <v>438.5447316937569</v>
+        <v>512.5643163973376</v>
       </c>
       <c r="H29">
-        <v>36128</v>
+        <v>40412</v>
       </c>
       <c r="J29">
-        <v>1.166093586485274</v>
+        <v>1.151189562547966</v>
       </c>
       <c r="K29">
-        <v>2368.626710514583</v>
+        <v>2649.494647512051</v>
       </c>
       <c r="M29">
         <v>1934408</v>
@@ -5508,34 +5496,34 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>69.4930276246038</v>
+        <v>73.78043121846544</v>
       </c>
       <c r="U29">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V29" t="s">
         <v>189</v>
       </c>
       <c r="W29">
-        <v>6438</v>
+        <v>7190</v>
       </c>
       <c r="X29">
-        <v>29690</v>
+        <v>33222</v>
       </c>
       <c r="AG29" t="s">
         <v>217</v>
       </c>
       <c r="AH29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AI29">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AK29">
-        <v>36128</v>
+        <v>40412</v>
       </c>
       <c r="AL29">
-        <v>36128</v>
+        <v>40412</v>
       </c>
       <c r="AM29">
         <v>4</v>
@@ -5544,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>1164</v>
+        <v>2235</v>
       </c>
       <c r="AP29">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="AQ29">
-        <v>1519</v>
+        <v>2654</v>
       </c>
       <c r="AR29" t="s">
         <v>108</v>
@@ -5559,39 +5547,39 @@
         <v>1390.829968040666</v>
       </c>
       <c r="AT29">
-        <v>0.00332815000765092</v>
+        <v>0.003716899433831953</v>
       </c>
       <c r="AU29">
-        <v>0.01534836497781233</v>
+        <v>0.01717424659120517</v>
       </c>
       <c r="AV29">
-        <v>17.82</v>
+        <v>17.79</v>
       </c>
       <c r="AW29">
-        <v>0.01867651498546325</v>
+        <v>0.02089114602503712</v>
       </c>
       <c r="AX29">
         <v>6.286548079602651</v>
       </c>
       <c r="AY29">
-        <v>4.557843920244874</v>
+        <v>4.606510344317186</v>
       </c>
       <c r="AZ29">
-        <v>3.825361195952633</v>
+        <v>3.893095666096228</v>
       </c>
       <c r="BA29">
-        <v>1.89209460269048</v>
+        <v>1.954242509439325</v>
       </c>
       <c r="BB29">
-        <v>4.472610197596045</v>
+        <v>4.521425773895577</v>
       </c>
       <c r="BC29">
-        <v>3.808750972349595</v>
+        <v>3.856728890382882</v>
       </c>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="1">
-        <v>1252</v>
+        <v>1354</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
@@ -5600,25 +5588,25 @@
         <v>108</v>
       </c>
       <c r="D30">
-        <v>5741</v>
+        <v>5920</v>
       </c>
       <c r="E30">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F30">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30">
-        <v>190.3074786761813</v>
+        <v>196.2411206693944</v>
       </c>
       <c r="H30">
-        <v>49275</v>
+        <v>53344</v>
       </c>
       <c r="J30">
-        <v>5.033966207977704</v>
+        <v>4.966216216216216</v>
       </c>
       <c r="K30">
-        <v>1633.40899003115</v>
+        <v>1768.291611653408</v>
       </c>
       <c r="M30">
         <v>3080156</v>
@@ -5642,52 +5630,52 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>33.00757290319036</v>
+        <v>34.30471647877099</v>
       </c>
       <c r="U30">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V30" t="s">
         <v>190</v>
       </c>
       <c r="W30">
-        <v>5663</v>
+        <v>5884</v>
       </c>
       <c r="X30">
-        <v>43612</v>
+        <v>47460</v>
       </c>
       <c r="AF30">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG30" t="s">
         <v>217</v>
       </c>
       <c r="AH30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AI30">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="AK30">
-        <v>49275</v>
+        <v>53344</v>
       </c>
       <c r="AL30">
-        <v>49275</v>
+        <v>53344</v>
       </c>
       <c r="AM30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN30">
         <v>0</v>
       </c>
       <c r="AO30">
-        <v>1322</v>
+        <v>1869</v>
       </c>
       <c r="AP30">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="AQ30">
-        <v>1391</v>
+        <v>1987</v>
       </c>
       <c r="AR30" t="s">
         <v>108</v>
@@ -5696,39 +5684,39 @@
         <v>1755.037321540485</v>
       </c>
       <c r="AT30">
-        <v>0.001838543242614985</v>
+        <v>0.001910292855296939</v>
       </c>
       <c r="AU30">
-        <v>0.01415902311441368</v>
+        <v>0.01540831048817008</v>
       </c>
       <c r="AV30">
-        <v>11.49</v>
+        <v>11.03</v>
       </c>
       <c r="AW30">
-        <v>0.01599756635702867</v>
+        <v>0.01731860334346702</v>
       </c>
       <c r="AX30">
         <v>6.488572712676902</v>
       </c>
       <c r="AY30">
-        <v>4.692626632951481</v>
+        <v>4.727085578147912</v>
       </c>
       <c r="AZ30">
-        <v>3.758987546867619</v>
+        <v>3.77232170672292</v>
       </c>
       <c r="BA30">
-        <v>2.460897842756548</v>
+        <v>2.468347330412157</v>
       </c>
       <c r="BB30">
-        <v>4.639606003413789</v>
+        <v>4.67632773388132</v>
       </c>
       <c r="BC30">
-        <v>3.753046561626529</v>
+        <v>3.769672664055492</v>
       </c>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="1">
-        <v>1253</v>
+        <v>1355</v>
       </c>
       <c r="B31" t="s">
         <v>86</v>
@@ -5737,31 +5725,31 @@
         <v>108</v>
       </c>
       <c r="D31">
-        <v>2741</v>
+        <v>2947</v>
       </c>
       <c r="E31">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F31">
-        <v>1105</v>
+        <v>1165</v>
       </c>
       <c r="G31">
-        <v>206.3776024961074</v>
+        <v>221.8879221291603</v>
       </c>
       <c r="H31">
-        <v>27733</v>
+        <v>30672</v>
       </c>
       <c r="I31">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="J31">
-        <v>3.356439255746078</v>
+        <v>4.105870376654225</v>
       </c>
       <c r="K31">
-        <v>2088.09560380319</v>
+        <v>2309.381183422329</v>
       </c>
       <c r="L31">
-        <v>10.76249543962058</v>
+        <v>10.45130641330166</v>
       </c>
       <c r="M31">
         <v>1359711</v>
@@ -5785,67 +5773,67 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>56.52202569659752</v>
+        <v>58.41122719680475</v>
       </c>
       <c r="U31">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V31" t="s">
         <v>191</v>
       </c>
       <c r="W31">
-        <v>2636</v>
+        <v>2843</v>
       </c>
       <c r="X31">
-        <v>25097</v>
+        <v>27829</v>
       </c>
       <c r="Y31">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="Z31">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AA31">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AC31">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="AF31">
-        <v>1105</v>
+        <v>1165</v>
       </c>
       <c r="AG31" t="s">
         <v>213</v>
       </c>
       <c r="AH31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AI31">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="AJ31">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AK31">
-        <v>27812</v>
+        <v>31204</v>
       </c>
       <c r="AL31">
-        <v>27733</v>
+        <v>30672</v>
       </c>
       <c r="AM31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>815</v>
+        <v>1763</v>
       </c>
       <c r="AP31">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="AQ31">
-        <v>863</v>
+        <v>1866</v>
       </c>
       <c r="AR31" t="s">
         <v>108</v>
@@ -5854,42 +5842,42 @@
         <v>1166.066464657997</v>
       </c>
       <c r="AT31">
-        <v>0.001938647256659687</v>
+        <v>0.002090885489637136</v>
       </c>
       <c r="AU31">
-        <v>0.01845759871031418</v>
+        <v>0.02046684920545616</v>
       </c>
       <c r="AV31">
-        <v>9.5</v>
+        <v>9.27</v>
       </c>
       <c r="AW31">
-        <v>0.02039624596697387</v>
+        <v>0.02255773469509329</v>
       </c>
       <c r="AX31">
         <v>6.133446610985868</v>
       </c>
       <c r="AY31">
-        <v>4.442996851654092</v>
+        <v>4.486742095533987</v>
       </c>
       <c r="AZ31">
-        <v>3.437909035539498</v>
+        <v>3.469380135849925</v>
       </c>
       <c r="BA31">
-        <v>1.963787827345555</v>
+        <v>2.08278537031645</v>
       </c>
       <c r="BB31">
-        <v>4.399621810671737</v>
+        <v>4.444497600790215</v>
       </c>
       <c r="BC31">
-        <v>3.420945405921972</v>
+        <v>3.453776859690442</v>
       </c>
       <c r="BD31">
-        <v>2.060697840353612</v>
+        <v>2.05307844348342</v>
       </c>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="1">
-        <v>1254</v>
+        <v>1356</v>
       </c>
       <c r="B32" t="s">
         <v>87</v>
@@ -5898,25 +5886,25 @@
         <v>108</v>
       </c>
       <c r="D32">
-        <v>131890</v>
+        <v>135840</v>
       </c>
       <c r="E32">
-        <v>8549</v>
+        <v>8960</v>
       </c>
       <c r="F32">
         <v>15642</v>
       </c>
       <c r="G32">
-        <v>1484.881543853487</v>
+        <v>1529.352558321765</v>
       </c>
       <c r="H32">
-        <v>288920</v>
+        <v>298759</v>
       </c>
       <c r="J32">
-        <v>6.481916748805822</v>
+        <v>6.595995288574795</v>
       </c>
       <c r="K32">
-        <v>3252.801392449385</v>
+        <v>3363.573623171763</v>
       </c>
       <c r="M32">
         <v>8882190</v>
@@ -5940,31 +5928,31 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>78.9246796151854</v>
+        <v>77.87486289712206</v>
       </c>
       <c r="U32">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V32" t="s">
         <v>192</v>
       </c>
       <c r="W32">
-        <v>131890</v>
+        <v>135454</v>
       </c>
       <c r="X32">
-        <v>157030</v>
+        <v>163305</v>
       </c>
       <c r="Y32">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="Z32">
-        <v>5221</v>
+        <v>4605</v>
       </c>
       <c r="AB32">
-        <v>1549</v>
+        <v>1439</v>
       </c>
       <c r="AD32">
-        <v>1146</v>
+        <v>1089</v>
       </c>
       <c r="AF32">
         <v>15642</v>
@@ -5973,31 +5961,31 @@
         <v>215</v>
       </c>
       <c r="AH32" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AI32">
-        <v>8549</v>
+        <v>8952</v>
       </c>
       <c r="AK32">
-        <v>289514</v>
+        <v>299312</v>
       </c>
       <c r="AL32">
-        <v>288920</v>
+        <v>298759</v>
       </c>
       <c r="AM32">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="AN32">
         <v>0</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>4282</v>
       </c>
       <c r="AP32">
-        <v>1297</v>
+        <v>1819</v>
       </c>
       <c r="AQ32">
-        <v>1297</v>
+        <v>6101</v>
       </c>
       <c r="AR32" t="s">
         <v>108</v>
@@ -6006,48 +5994,48 @@
         <v>2980.300320437523</v>
       </c>
       <c r="AT32">
-        <v>0.01484881543853487</v>
+        <v>0.01525006783237017</v>
       </c>
       <c r="AU32">
-        <v>0.01767919848595898</v>
+        <v>0.01838566839934746</v>
       </c>
       <c r="AV32">
-        <v>45.65</v>
+        <v>45.34</v>
       </c>
       <c r="AW32">
-        <v>0.03252801392449384</v>
+        <v>0.03363573623171763</v>
       </c>
       <c r="AX32">
         <v>6.948520058982782</v>
       </c>
       <c r="AY32">
-        <v>5.460777606188254</v>
+        <v>5.475320997107535</v>
       </c>
       <c r="AZ32">
-        <v>5.120211868257074</v>
+        <v>5.133027672899877</v>
       </c>
       <c r="BA32">
-        <v>3.931915317081246</v>
+        <v>3.952308009662125</v>
       </c>
       <c r="BB32">
-        <v>5.195982630688358</v>
+        <v>5.2129994819759</v>
       </c>
       <c r="BC32">
-        <v>5.120211868257074</v>
+        <v>5.131791834413688</v>
       </c>
       <c r="BD32">
-        <v>3.717753693210716</v>
+        <v>3.663229634532868</v>
       </c>
       <c r="BE32">
-        <v>3.190051417759206</v>
+        <v>3.158060793936605</v>
       </c>
       <c r="BF32">
-        <v>3.059184617631371</v>
+        <v>3.037027879755775</v>
       </c>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="1">
-        <v>1255</v>
+        <v>1357</v>
       </c>
       <c r="B33" t="s">
         <v>88</v>
@@ -6056,31 +6044,31 @@
         <v>108</v>
       </c>
       <c r="D33">
-        <v>4291</v>
+        <v>4673</v>
       </c>
       <c r="E33">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F33">
-        <v>964</v>
+        <v>1125</v>
       </c>
       <c r="G33">
-        <v>257.3262418195023</v>
+        <v>280.2343341930865</v>
       </c>
       <c r="H33">
-        <v>83251</v>
+        <v>89032</v>
       </c>
       <c r="I33">
-        <v>687</v>
+        <v>760</v>
       </c>
       <c r="J33">
-        <v>3.938475879748311</v>
+        <v>3.873314787074683</v>
       </c>
       <c r="K33">
-        <v>4992.46491673628</v>
+        <v>5339.144712578403</v>
       </c>
       <c r="L33">
-        <v>16.01025402004195</v>
+        <v>16.2636421998716</v>
       </c>
       <c r="M33">
         <v>2096829</v>
@@ -6104,61 +6092,61 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>141.6811080017286</v>
+        <v>145.676475166514</v>
       </c>
       <c r="U33">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V33" t="s">
         <v>193</v>
       </c>
       <c r="W33">
-        <v>4138</v>
+        <v>4493</v>
       </c>
       <c r="X33">
-        <v>79113</v>
+        <v>84539</v>
       </c>
       <c r="Z33">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AA33">
-        <v>687</v>
+        <v>760</v>
       </c>
       <c r="AF33">
-        <v>964</v>
+        <v>1125</v>
       </c>
       <c r="AG33" t="s">
         <v>214</v>
       </c>
       <c r="AH33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AI33">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AJ33">
-        <v>687</v>
+        <v>760</v>
       </c>
       <c r="AK33">
-        <v>83251</v>
+        <v>89032</v>
       </c>
       <c r="AL33">
-        <v>83251</v>
+        <v>89032</v>
       </c>
       <c r="AM33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN33">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AO33">
-        <v>1424</v>
+        <v>3146</v>
       </c>
       <c r="AP33">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="AQ33">
-        <v>1531</v>
+        <v>3348</v>
       </c>
       <c r="AR33" t="s">
         <v>108</v>
@@ -6167,42 +6155,42 @@
         <v>1448.043162340129</v>
       </c>
       <c r="AT33">
-        <v>0.001973456109201084</v>
+        <v>0.002142759376181844</v>
       </c>
       <c r="AU33">
-        <v>0.03772982918492638</v>
+        <v>0.04031754616137034</v>
       </c>
       <c r="AV33">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="AW33">
-        <v>0.03970328529412746</v>
+        <v>0.04246030553755218</v>
       </c>
       <c r="AX33">
         <v>6.321563014449838</v>
       </c>
       <c r="AY33">
-        <v>4.920389458897559</v>
+        <v>4.949546129404536</v>
       </c>
       <c r="AZ33">
-        <v>3.632558514532672</v>
+        <v>3.669595781024313</v>
       </c>
       <c r="BA33">
-        <v>2.227886704613673</v>
+        <v>2.257678574869185</v>
       </c>
       <c r="BB33">
-        <v>4.898247853464461</v>
+        <v>4.927057106314735</v>
       </c>
       <c r="BC33">
-        <v>3.616790486329716</v>
+        <v>3.652536418593026</v>
       </c>
       <c r="BD33">
-        <v>2.250420002308894</v>
+        <v>2.294466226161593</v>
       </c>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="1">
-        <v>1256</v>
+        <v>1358</v>
       </c>
       <c r="B34" t="s">
         <v>89</v>
@@ -6211,31 +6199,31 @@
         <v>108</v>
       </c>
       <c r="D34">
-        <v>323978</v>
+        <v>330407</v>
       </c>
       <c r="E34">
-        <v>25623</v>
+        <v>26243</v>
       </c>
       <c r="F34">
-        <v>54597</v>
+        <v>56378</v>
       </c>
       <c r="G34">
-        <v>1921.460883902372</v>
+        <v>1959.590238434496</v>
       </c>
       <c r="H34">
-        <v>1028899</v>
+        <v>1121543</v>
       </c>
       <c r="I34">
-        <v>70539</v>
+        <v>71679</v>
       </c>
       <c r="J34">
-        <v>7.908870355394503</v>
+        <v>7.942628334145462</v>
       </c>
       <c r="K34">
-        <v>6102.232812062138</v>
+        <v>6651.689324937242</v>
       </c>
       <c r="L34">
-        <v>21.77277469457802</v>
+        <v>21.69415296891409</v>
       </c>
       <c r="M34">
         <v>19453561</v>
@@ -6259,28 +6247,34 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>149.7159094659567</v>
+        <v>151.5333516995682</v>
       </c>
       <c r="U34">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V34" t="s">
         <v>194</v>
       </c>
       <c r="W34">
-        <v>323978</v>
+        <v>330407</v>
       </c>
       <c r="X34">
-        <v>731943</v>
+        <v>791136</v>
       </c>
       <c r="Z34">
-        <v>9179</v>
+        <v>8196</v>
       </c>
       <c r="AA34">
-        <v>70539</v>
+        <v>71679</v>
+      </c>
+      <c r="AB34">
+        <v>2811</v>
+      </c>
+      <c r="AD34">
+        <v>2295</v>
       </c>
       <c r="AF34">
-        <v>54597</v>
+        <v>56378</v>
       </c>
       <c r="AG34" t="s">
         <v>213</v>
@@ -6289,31 +6283,31 @@
         <v>218</v>
       </c>
       <c r="AI34">
-        <v>19877</v>
+        <v>21045</v>
       </c>
       <c r="AJ34">
-        <v>70539</v>
+        <v>71679</v>
       </c>
       <c r="AK34">
-        <v>1055921</v>
+        <v>1121543</v>
       </c>
       <c r="AL34">
-        <v>1055921</v>
+        <v>1121543</v>
       </c>
       <c r="AM34">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="AN34">
-        <v>672</v>
+        <v>527</v>
       </c>
       <c r="AO34">
-        <v>24236</v>
+        <v>28869</v>
       </c>
       <c r="AP34">
-        <v>2786</v>
+        <v>2758</v>
       </c>
       <c r="AQ34">
-        <v>27022</v>
+        <v>31627</v>
       </c>
       <c r="AR34" t="s">
         <v>108</v>
@@ -6322,42 +6316,48 @@
         <v>4410.619117538942</v>
       </c>
       <c r="AT34">
-        <v>0.01665391750127393</v>
+        <v>0.01698439684127754</v>
       </c>
       <c r="AU34">
-        <v>0.03762514225544619</v>
+        <v>0.04066792707001047</v>
       </c>
       <c r="AV34">
-        <v>30.68</v>
+        <v>29.46</v>
       </c>
       <c r="AW34">
-        <v>0.05289000815840349</v>
+        <v>0.05765232391128802</v>
       </c>
       <c r="AX34">
         <v>7.288999111116478</v>
       </c>
       <c r="AY34">
-        <v>6.012372745126375</v>
+        <v>6.049815929104652</v>
       </c>
       <c r="AZ34">
-        <v>5.510515520073906</v>
+        <v>5.519049239705153</v>
       </c>
       <c r="BA34">
-        <v>4.40862997658628</v>
+        <v>4.419013480435807</v>
       </c>
       <c r="BB34">
-        <v>5.864477261728704</v>
+        <v>5.898251147179793</v>
       </c>
       <c r="BC34">
-        <v>5.510515520073906</v>
+        <v>5.519049239705153</v>
       </c>
       <c r="BD34">
-        <v>3.962795369857233</v>
+        <v>3.913601949729157</v>
+      </c>
+      <c r="BE34">
+        <v>3.448860845607441</v>
+      </c>
+      <c r="BF34">
+        <v>3.36078268987328</v>
       </c>
     </row>
     <row r="35" spans="1:58">
       <c r="A35" s="1">
-        <v>1257</v>
+        <v>1359</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
@@ -6366,22 +6366,22 @@
         <v>108</v>
       </c>
       <c r="D35">
-        <v>13053</v>
+        <v>14006</v>
       </c>
       <c r="E35">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="G35">
-        <v>131.6108541396216</v>
+        <v>141.2197673392737</v>
       </c>
       <c r="H35">
-        <v>164482</v>
+        <v>178613</v>
       </c>
       <c r="J35">
-        <v>3.769248448632498</v>
+        <v>3.784092531772098</v>
       </c>
       <c r="K35">
-        <v>1658.439937990749</v>
+        <v>1800.920055959568</v>
       </c>
       <c r="M35">
         <v>10488084</v>
@@ -6405,52 +6405,52 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>42.18851936843637</v>
+        <v>44.61553204038288</v>
       </c>
       <c r="U35">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V35" t="s">
         <v>195</v>
       </c>
       <c r="W35">
-        <v>12758</v>
+        <v>13868</v>
       </c>
       <c r="X35">
-        <v>151724</v>
+        <v>164745</v>
       </c>
       <c r="Z35">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG35" t="s">
         <v>213</v>
       </c>
       <c r="AH35" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AI35">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="AK35">
-        <v>164482</v>
+        <v>178613</v>
       </c>
       <c r="AL35">
-        <v>164482</v>
+        <v>178613</v>
       </c>
       <c r="AM35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AN35">
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>12180</v>
+        <v>6814</v>
       </c>
       <c r="AP35">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="AQ35">
-        <v>12682</v>
+        <v>7285</v>
       </c>
       <c r="AR35" t="s">
         <v>108</v>
@@ -6459,42 +6459,42 @@
         <v>3238.531148530148</v>
       </c>
       <c r="AT35">
-        <v>0.001216428091155639</v>
+        <v>0.001322262483786362</v>
       </c>
       <c r="AU35">
-        <v>0.01446632197072411</v>
+        <v>0.01570782613869225</v>
       </c>
       <c r="AV35">
         <v>7.76</v>
       </c>
       <c r="AW35">
-        <v>0.01568275006187975</v>
+        <v>0.01703008862247862</v>
       </c>
       <c r="AX35">
         <v>7.02069615699919</v>
       </c>
       <c r="AY35">
-        <v>5.216118378101192</v>
+        <v>5.251913064982536</v>
       </c>
       <c r="AZ35">
-        <v>4.115710338012379</v>
+        <v>4.146314122011972</v>
       </c>
       <c r="BA35">
-        <v>2.69196510276736</v>
+        <v>2.724275869600789</v>
       </c>
       <c r="BB35">
-        <v>5.181054283773887</v>
+        <v>5.216812242656875</v>
       </c>
       <c r="BC35">
-        <v>4.105782597814442</v>
+        <v>4.142013832984359</v>
       </c>
       <c r="BD35">
-        <v>2.712649701627211</v>
+        <v>2.711807229041191</v>
       </c>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="1">
-        <v>1258</v>
+        <v>1360</v>
       </c>
       <c r="B36" t="s">
         <v>91</v>
@@ -6503,31 +6503,31 @@
         <v>108</v>
       </c>
       <c r="D36">
-        <v>1323</v>
+        <v>1425</v>
       </c>
       <c r="E36">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36">
-        <v>582</v>
+        <v>714</v>
       </c>
       <c r="G36">
-        <v>218.1663473049942</v>
+        <v>234.9864285031117</v>
       </c>
       <c r="H36">
-        <v>38632</v>
+        <v>42501</v>
       </c>
       <c r="I36">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J36">
-        <v>2.343159486016629</v>
+        <v>2.315789473684211</v>
       </c>
       <c r="K36">
-        <v>6370.523302408571</v>
+        <v>7008.532068639123</v>
       </c>
       <c r="L36">
-        <v>7.331821617535902</v>
+        <v>7.298245614035088</v>
       </c>
       <c r="M36">
         <v>762062</v>
@@ -6551,61 +6551,61 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>197.2726606206351</v>
+        <v>209.5559669715727</v>
       </c>
       <c r="U36">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V36" t="s">
         <v>196</v>
       </c>
       <c r="W36">
-        <v>1323</v>
+        <v>1425</v>
       </c>
       <c r="X36">
-        <v>37309</v>
+        <v>41076</v>
       </c>
       <c r="Z36">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA36">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AF36">
-        <v>582</v>
+        <v>714</v>
       </c>
       <c r="AG36" t="s">
         <v>214</v>
       </c>
       <c r="AH36" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AI36">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AJ36">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AK36">
-        <v>38632</v>
+        <v>42501</v>
       </c>
       <c r="AL36">
-        <v>38632</v>
+        <v>42501</v>
       </c>
       <c r="AM36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN36">
         <v>2</v>
       </c>
       <c r="AO36">
-        <v>2154</v>
+        <v>1580</v>
       </c>
       <c r="AP36">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AQ36">
-        <v>2211</v>
+        <v>1634</v>
       </c>
       <c r="AR36" t="s">
         <v>108</v>
@@ -6614,42 +6614,42 @@
         <v>872.9616257316241</v>
       </c>
       <c r="AT36">
-        <v>0.001736079216651664</v>
+        <v>0.001869926593899184</v>
       </c>
       <c r="AU36">
-        <v>0.04895795880125239</v>
+        <v>0.05390112615508974</v>
       </c>
       <c r="AV36">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="AW36">
-        <v>0.05069403801790406</v>
+        <v>0.05577105274898893</v>
       </c>
       <c r="AX36">
         <v>5.88199030619854</v>
       </c>
       <c r="AY36">
-        <v>4.58694719239229</v>
+        <v>4.628399148623785</v>
       </c>
       <c r="AZ36">
-        <v>3.121559844187501</v>
+        <v>3.153814864344529</v>
       </c>
       <c r="BA36">
-        <v>1.491361693834273</v>
+        <v>1.518513939877888</v>
       </c>
       <c r="BB36">
-        <v>4.571813608721824</v>
+        <v>4.613588145185502</v>
       </c>
       <c r="BC36">
-        <v>3.121559844187501</v>
+        <v>3.153814864344529</v>
       </c>
       <c r="BD36">
-        <v>1.505149978319906</v>
+        <v>1.518513939877888</v>
       </c>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="1">
-        <v>1259</v>
+        <v>1361</v>
       </c>
       <c r="B37" t="s">
         <v>92</v>
@@ -6658,28 +6658,28 @@
         <v>108</v>
       </c>
       <c r="D37">
-        <v>21576</v>
+        <v>23016</v>
       </c>
       <c r="E37">
-        <v>1225</v>
+        <v>1306</v>
       </c>
       <c r="G37">
-        <v>193.0935236346259</v>
+        <v>205.9807443443895</v>
       </c>
       <c r="H37">
-        <v>168929</v>
+        <v>184316</v>
       </c>
       <c r="I37">
-        <v>4052</v>
+        <v>4218</v>
       </c>
       <c r="J37">
-        <v>5.677604746014088</v>
+        <v>5.674313521028849</v>
       </c>
       <c r="K37">
-        <v>1511.823130055326</v>
+        <v>1649.528453014446</v>
       </c>
       <c r="L37">
-        <v>18.78012606599927</v>
+        <v>18.32638164754953</v>
       </c>
       <c r="M37">
         <v>11689100</v>
@@ -6703,67 +6703,67 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>39.22343342842291</v>
+        <v>40.84023796119701</v>
       </c>
       <c r="U37">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V37" t="s">
         <v>197</v>
       </c>
       <c r="W37">
-        <v>21576</v>
+        <v>23016</v>
       </c>
       <c r="X37">
-        <v>147353</v>
+        <v>161300</v>
       </c>
       <c r="Z37">
-        <v>1045</v>
+        <v>1060</v>
       </c>
       <c r="AA37">
-        <v>4052</v>
+        <v>4218</v>
       </c>
       <c r="AB37">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AC37">
-        <v>1151</v>
+        <v>1188</v>
       </c>
       <c r="AD37">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG37" t="s">
         <v>213</v>
       </c>
       <c r="AH37" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="AI37">
-        <v>1225</v>
+        <v>1306</v>
       </c>
       <c r="AJ37">
-        <v>4052</v>
+        <v>4218</v>
       </c>
       <c r="AK37">
-        <v>168929</v>
+        <v>184316</v>
       </c>
       <c r="AL37">
-        <v>168929</v>
+        <v>184316</v>
       </c>
       <c r="AM37">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="AN37">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AO37">
-        <v>7587</v>
+        <v>7372</v>
       </c>
       <c r="AP37">
-        <v>607</v>
+        <v>885</v>
       </c>
       <c r="AQ37">
-        <v>8194</v>
+        <v>8257</v>
       </c>
       <c r="AR37" t="s">
         <v>108</v>
@@ -6772,48 +6772,48 @@
         <v>3418.932581961803</v>
       </c>
       <c r="AT37">
-        <v>0.001845822176215448</v>
+        <v>0.001969013867620262</v>
       </c>
       <c r="AU37">
-        <v>0.01260601757192598</v>
+        <v>0.01379918043305301</v>
       </c>
       <c r="AV37">
-        <v>12.77</v>
+        <v>12.49</v>
       </c>
       <c r="AW37">
-        <v>0.01445183974814143</v>
+        <v>0.01576819430067328</v>
       </c>
       <c r="AX37">
         <v>7.067781074029195</v>
       </c>
       <c r="AY37">
-        <v>5.227704211198377</v>
+        <v>5.265563036847407</v>
       </c>
       <c r="AZ37">
-        <v>4.333970933444835</v>
+        <v>4.36202984888227</v>
       </c>
       <c r="BA37">
-        <v>3.088136088700551</v>
+        <v>3.115943176939055</v>
       </c>
       <c r="BB37">
-        <v>5.168358982196007</v>
+        <v>5.207634367388962</v>
       </c>
       <c r="BC37">
-        <v>4.333970933444835</v>
+        <v>4.36202984888227</v>
       </c>
       <c r="BD37">
-        <v>3.019116290447073</v>
+        <v>3.02530586526477</v>
       </c>
       <c r="BE37">
-        <v>2.60959440922522</v>
+        <v>2.594392550375427</v>
       </c>
       <c r="BF37">
-        <v>2.439332693830263</v>
+        <v>2.437750562820388</v>
       </c>
     </row>
     <row r="38" spans="1:58">
       <c r="A38" s="1">
-        <v>1260</v>
+        <v>1362</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -6822,31 +6822,31 @@
         <v>108</v>
       </c>
       <c r="D38">
-        <v>4202</v>
+        <v>4424</v>
       </c>
       <c r="E38">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F38">
-        <v>2909</v>
+        <v>3064</v>
       </c>
       <c r="G38">
-        <v>114.8830090708912</v>
+        <v>120.9525064563595</v>
       </c>
       <c r="H38">
-        <v>82890</v>
+        <v>89857</v>
       </c>
       <c r="I38">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="J38">
-        <v>6.020942408376963</v>
+        <v>6.012658227848103</v>
       </c>
       <c r="K38">
-        <v>2266.219091357965</v>
+        <v>2456.697416964081</v>
       </c>
       <c r="L38">
-        <v>18.39600190385531</v>
+        <v>18.19620253164557</v>
       </c>
       <c r="M38">
         <v>3956971</v>
@@ -6870,49 +6870,49 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>61.45422886049641</v>
+        <v>65.23369391298398</v>
       </c>
       <c r="U38">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V38" t="s">
         <v>198</v>
       </c>
       <c r="W38">
-        <v>4201</v>
+        <v>4424</v>
       </c>
       <c r="X38">
-        <v>78689</v>
+        <v>85433</v>
       </c>
       <c r="Z38">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AA38">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="AB38">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AF38">
-        <v>2909</v>
+        <v>3064</v>
       </c>
       <c r="AG38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH38" t="s">
         <v>218</v>
       </c>
       <c r="AI38">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="AJ38">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="AK38">
-        <v>82890</v>
+        <v>89857</v>
       </c>
       <c r="AL38">
-        <v>82890</v>
+        <v>89857</v>
       </c>
       <c r="AM38">
         <v>6</v>
@@ -6921,13 +6921,13 @@
         <v>0</v>
       </c>
       <c r="AO38">
-        <v>3399</v>
+        <v>2876</v>
       </c>
       <c r="AP38">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AQ38">
-        <v>3473</v>
+        <v>2970</v>
       </c>
       <c r="AR38" t="s">
         <v>108</v>
@@ -6936,45 +6936,45 @@
         <v>1989.213663737508</v>
       </c>
       <c r="AT38">
-        <v>0.001061670656671479</v>
+        <v>0.001118026894814241</v>
       </c>
       <c r="AU38">
-        <v>0.01988617050769389</v>
+        <v>0.0215905044540382</v>
       </c>
       <c r="AV38">
-        <v>5.07</v>
+        <v>4.92</v>
       </c>
       <c r="AW38">
-        <v>0.02094784116436537</v>
+        <v>0.02270853134885244</v>
       </c>
       <c r="AX38">
         <v>6.597362867403726</v>
       </c>
       <c r="AY38">
-        <v>4.918502139636174</v>
+        <v>4.953551914978187</v>
       </c>
       <c r="AZ38">
-        <v>3.623456048069934</v>
+        <v>3.645815118296642</v>
       </c>
       <c r="BA38">
-        <v>2.403120521175818</v>
+        <v>2.424881636631067</v>
       </c>
       <c r="BB38">
-        <v>4.895914026219389</v>
+        <v>4.931625656984171</v>
       </c>
       <c r="BC38">
-        <v>3.623352681537992</v>
+        <v>3.645815118296642</v>
       </c>
       <c r="BD38">
-        <v>2.361727836017593</v>
+        <v>2.357934847000454</v>
       </c>
       <c r="BE38">
-        <v>2.008600171761918</v>
+        <v>1.982271233039568</v>
       </c>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="1">
-        <v>1261</v>
+        <v>1363</v>
       </c>
       <c r="B39" t="s">
         <v>94</v>
@@ -6983,31 +6983,31 @@
         <v>108</v>
       </c>
       <c r="D39">
-        <v>2916</v>
+        <v>3068</v>
       </c>
       <c r="E39">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F39">
         <v>1125</v>
       </c>
       <c r="G39">
-        <v>72.77130394896625</v>
+        <v>76.56459551283555</v>
       </c>
       <c r="H39">
-        <v>67976</v>
+        <v>72693</v>
       </c>
       <c r="I39">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="J39">
-        <v>3.943758573388204</v>
+        <v>4.041720990873533</v>
       </c>
       <c r="K39">
-        <v>1696.399916747232</v>
+        <v>1814.11673455494</v>
       </c>
       <c r="L39">
-        <v>21.98216735253772</v>
+        <v>21.47979139504564</v>
       </c>
       <c r="M39">
         <v>4217737</v>
@@ -7031,31 +7031,31 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>39.18896354826817</v>
+        <v>40.5140042187868</v>
       </c>
       <c r="U39">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V39" t="s">
         <v>199</v>
       </c>
       <c r="W39">
-        <v>2916</v>
+        <v>3068</v>
       </c>
       <c r="X39">
-        <v>65060</v>
+        <v>69625</v>
       </c>
       <c r="Z39">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="AA39">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="AB39">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AD39">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF39">
         <v>1125</v>
@@ -7064,34 +7064,34 @@
         <v>215</v>
       </c>
       <c r="AH39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AI39">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AJ39">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="AK39">
-        <v>67976</v>
+        <v>72693</v>
       </c>
       <c r="AL39">
-        <v>67976</v>
+        <v>72693</v>
       </c>
       <c r="AM39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN39">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AO39">
-        <v>2475</v>
+        <v>2156</v>
       </c>
       <c r="AP39">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ39">
-        <v>2552</v>
+        <v>2235</v>
       </c>
       <c r="AR39" t="s">
         <v>108</v>
@@ -7100,48 +7100,48 @@
         <v>2053.712978972475</v>
       </c>
       <c r="AT39">
-        <v>0.000691366009782023</v>
+        <v>0.0007274042928707978</v>
       </c>
       <c r="AU39">
-        <v>0.0154253335378664</v>
+        <v>0.01650766750036809</v>
       </c>
       <c r="AV39">
-        <v>4.29</v>
+        <v>4.22</v>
       </c>
       <c r="AW39">
-        <v>0.01611669954764842</v>
+        <v>0.01723507179323889</v>
       </c>
       <c r="AX39">
         <v>6.625079495505463</v>
       </c>
       <c r="AY39">
-        <v>4.832355605245009</v>
+        <v>4.861492592320653</v>
       </c>
       <c r="AZ39">
-        <v>3.464787519645937</v>
+        <v>3.486855355276943</v>
       </c>
       <c r="BA39">
-        <v>2.060697840353612</v>
+        <v>2.093421685162235</v>
       </c>
       <c r="BB39">
-        <v>4.813314058945835</v>
+        <v>4.842765208181786</v>
       </c>
       <c r="BC39">
-        <v>3.464787519645937</v>
+        <v>3.486855355276943</v>
       </c>
       <c r="BD39">
-        <v>2.281033367247728</v>
+        <v>2.201397124320451</v>
       </c>
       <c r="BE39">
-        <v>1.672097857935718</v>
+        <v>1.623249290397901</v>
       </c>
       <c r="BF39">
-        <v>1.301029995663981</v>
+        <v>1.255272505103306</v>
       </c>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="1">
-        <v>1262</v>
+        <v>1364</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
@@ -7150,22 +7150,22 @@
         <v>108</v>
       </c>
       <c r="D40">
-        <v>54800</v>
+        <v>57371</v>
       </c>
       <c r="E40">
-        <v>3345</v>
+        <v>3715</v>
       </c>
       <c r="G40">
-        <v>435.3526360324058</v>
+        <v>455.7776657265539</v>
       </c>
       <c r="H40">
-        <v>256340</v>
+        <v>270559</v>
       </c>
       <c r="J40">
-        <v>6.104014598540147</v>
+        <v>6.475396977567064</v>
       </c>
       <c r="K40">
-        <v>2036.465232126769</v>
+        <v>2149.426530151309</v>
       </c>
       <c r="M40">
         <v>12801989</v>
@@ -7189,25 +7189,25 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>44.70765407648061</v>
+        <v>45.08843087894125</v>
       </c>
       <c r="U40">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V40" t="s">
         <v>200</v>
       </c>
       <c r="W40">
-        <v>51845</v>
+        <v>54238</v>
       </c>
       <c r="X40">
-        <v>204495</v>
+        <v>216321</v>
       </c>
       <c r="Z40">
-        <v>2545</v>
+        <v>2342</v>
       </c>
       <c r="AD40">
-        <v>560</v>
+        <v>517</v>
       </c>
       <c r="AG40" t="s">
         <v>214</v>
@@ -7216,28 +7216,28 @@
         <v>218</v>
       </c>
       <c r="AI40">
-        <v>3106</v>
+        <v>3616</v>
       </c>
       <c r="AK40">
-        <v>256340</v>
+        <v>270559</v>
       </c>
       <c r="AL40">
-        <v>256340</v>
+        <v>270559</v>
       </c>
       <c r="AM40">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="AN40">
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>4570</v>
+        <v>6448</v>
       </c>
       <c r="AP40">
-        <v>888</v>
+        <v>1323</v>
       </c>
       <c r="AQ40">
-        <v>5458</v>
+        <v>7771</v>
       </c>
       <c r="AR40" t="s">
         <v>108</v>
@@ -7246,45 +7246,45 @@
         <v>3577.986724402426</v>
       </c>
       <c r="AT40">
-        <v>0.004049761330055822</v>
+        <v>0.004236685408806397</v>
       </c>
       <c r="AU40">
-        <v>0.01597368971337188</v>
+        <v>0.01689745241930765</v>
       </c>
       <c r="AV40">
-        <v>20.23</v>
+        <v>20.05</v>
       </c>
       <c r="AW40">
-        <v>0.0200234510434277</v>
+        <v>0.02113413782811405</v>
       </c>
       <c r="AX40">
         <v>7.107277449696098</v>
       </c>
       <c r="AY40">
-        <v>5.408816379979934</v>
+        <v>5.432261985081858</v>
       </c>
       <c r="AZ40">
-        <v>4.738780558484369</v>
+        <v>4.758692419878901</v>
       </c>
       <c r="BA40">
-        <v>3.524396122103842</v>
+        <v>3.569958818096594</v>
       </c>
       <c r="BB40">
-        <v>5.310682693766559</v>
+        <v>5.335098681905209</v>
       </c>
       <c r="BC40">
-        <v>4.714706878813469</v>
+        <v>4.73430366675543</v>
       </c>
       <c r="BD40">
-        <v>3.405687786672777</v>
+        <v>3.369586890736344</v>
       </c>
       <c r="BF40">
-        <v>2.7481880270062</v>
+        <v>2.713490543093942</v>
       </c>
     </row>
     <row r="41" spans="1:58">
       <c r="A41" s="1">
-        <v>1263</v>
+        <v>1365</v>
       </c>
       <c r="B41" t="s">
         <v>96</v>
@@ -7293,31 +7293,31 @@
         <v>108</v>
       </c>
       <c r="D41">
-        <v>10205</v>
+        <v>10779</v>
       </c>
       <c r="E41">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="F41">
-        <v>665</v>
+        <v>730</v>
       </c>
       <c r="G41">
-        <v>963.3165653634596</v>
+        <v>1017.500172273663</v>
       </c>
       <c r="H41">
-        <v>79373</v>
+        <v>85266</v>
       </c>
       <c r="I41">
-        <v>1123</v>
+        <v>1187</v>
       </c>
       <c r="J41">
-        <v>3.625673689367957</v>
+        <v>3.701642081825773</v>
       </c>
       <c r="K41">
-        <v>7492.535594570691</v>
+        <v>8048.814332413596</v>
       </c>
       <c r="L41">
-        <v>11.00440960313572</v>
+        <v>11.01215326097041</v>
       </c>
       <c r="M41">
         <v>1059361</v>
@@ -7341,67 +7341,67 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>240.283965085564</v>
+        <v>241.9978890688336</v>
       </c>
       <c r="U41">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V41" t="s">
         <v>201</v>
       </c>
       <c r="W41">
-        <v>10205</v>
+        <v>10779</v>
       </c>
       <c r="X41">
-        <v>69168</v>
+        <v>74487</v>
       </c>
       <c r="Z41">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AA41">
-        <v>1123</v>
+        <v>1187</v>
       </c>
       <c r="AB41">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AD41">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AF41">
-        <v>665</v>
+        <v>730</v>
       </c>
       <c r="AG41" t="s">
         <v>215</v>
       </c>
       <c r="AH41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AI41">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="AJ41">
-        <v>1123</v>
+        <v>1187</v>
       </c>
       <c r="AK41">
-        <v>79373</v>
+        <v>85266</v>
       </c>
       <c r="AL41">
-        <v>79373</v>
+        <v>85266</v>
       </c>
       <c r="AM41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AN41">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AO41">
-        <v>2666</v>
+        <v>2699</v>
       </c>
       <c r="AP41">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="AQ41">
-        <v>2938</v>
+        <v>2948</v>
       </c>
       <c r="AR41" t="s">
         <v>108</v>
@@ -7410,48 +7410,48 @@
         <v>1029.25264148313</v>
       </c>
       <c r="AT41">
-        <v>0.009633165653634597</v>
+        <v>0.01017500172273663</v>
       </c>
       <c r="AU41">
-        <v>0.0652921902920723</v>
+        <v>0.07031314160139933</v>
       </c>
       <c r="AV41">
-        <v>12.86</v>
+        <v>12.64</v>
       </c>
       <c r="AW41">
-        <v>0.07492535594570689</v>
+        <v>0.08048814332413597</v>
       </c>
       <c r="AX41">
         <v>6.025043980496346</v>
       </c>
       <c r="AY41">
-        <v>4.89967279530908</v>
+        <v>4.930775889831263</v>
       </c>
       <c r="AZ41">
-        <v>4.00881300905209</v>
+        <v>4.032578471924312</v>
       </c>
       <c r="BA41">
-        <v>2.568201724066995</v>
+        <v>2.600972895686748</v>
       </c>
       <c r="BB41">
-        <v>4.839905218189577</v>
+        <v>4.872080483205862</v>
       </c>
       <c r="BC41">
-        <v>4.00881300905209</v>
+        <v>4.032578471924312</v>
       </c>
       <c r="BD41">
-        <v>2.510545010206612</v>
+        <v>2.494154594018443</v>
       </c>
       <c r="BE41">
-        <v>1.934498451243568</v>
+        <v>1.851258348719075</v>
       </c>
       <c r="BF41">
-        <v>1.778151250383644</v>
+        <v>1.716003343634799</v>
       </c>
     </row>
     <row r="42" spans="1:58">
       <c r="A42" s="1">
-        <v>1264</v>
+        <v>1366</v>
       </c>
       <c r="B42" t="s">
         <v>97</v>
@@ -7460,31 +7460,31 @@
         <v>108</v>
       </c>
       <c r="D42">
-        <v>6936</v>
+        <v>7367</v>
       </c>
       <c r="E42">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F42">
         <v>3816</v>
       </c>
       <c r="G42">
-        <v>137.6197302565985</v>
+        <v>146.171359976984</v>
       </c>
       <c r="H42">
-        <v>77482</v>
+        <v>73442</v>
       </c>
       <c r="I42">
         <v>1152</v>
       </c>
       <c r="J42">
-        <v>4.397347174163783</v>
+        <v>4.343694855436405</v>
       </c>
       <c r="K42">
-        <v>1537.348895579839</v>
+        <v>1457.189767806388</v>
       </c>
       <c r="L42">
-        <v>16.60899653979239</v>
+        <v>15.63730147957106</v>
       </c>
       <c r="M42">
         <v>5148714</v>
@@ -7508,19 +7508,19 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>33.07702609957661</v>
+        <v>34.46898699369738</v>
       </c>
       <c r="U42">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V42" t="s">
         <v>202</v>
       </c>
       <c r="W42">
-        <v>6936</v>
+        <v>7142</v>
       </c>
       <c r="X42">
-        <v>70546</v>
+        <v>66300</v>
       </c>
       <c r="AA42">
         <v>1152</v>
@@ -7532,34 +7532,34 @@
         <v>213</v>
       </c>
       <c r="AH42" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AI42">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="AJ42">
         <v>1152</v>
       </c>
       <c r="AK42">
-        <v>77482</v>
+        <v>73442</v>
       </c>
       <c r="AL42">
-        <v>77482</v>
+        <v>73442</v>
       </c>
       <c r="AM42">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AN42">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>9532</v>
+        <v>-4246</v>
       </c>
       <c r="AP42">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="AQ42">
-        <v>9711</v>
+        <v>-4040</v>
       </c>
       <c r="AR42" t="s">
         <v>108</v>
@@ -7568,39 +7568,39 @@
         <v>2269.077786238277</v>
       </c>
       <c r="AT42">
-        <v>0.001347132507262979</v>
+        <v>0.001387142498107294</v>
       </c>
       <c r="AU42">
-        <v>0.01370167385486939</v>
+        <v>0.01287700190766083</v>
       </c>
       <c r="AV42">
-        <v>8.949999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AW42">
-        <v>0.01504880636213237</v>
+        <v>0.01426414440576812</v>
       </c>
       <c r="AX42">
         <v>6.711698768371901</v>
       </c>
       <c r="AY42">
-        <v>4.88920082239495</v>
+        <v>4.865944495223916</v>
       </c>
       <c r="AZ42">
-        <v>3.841109084468154</v>
+        <v>3.867290669854884</v>
       </c>
       <c r="BA42">
-        <v>2.484299839346786</v>
+        <v>2.505149978319906</v>
       </c>
       <c r="BB42">
-        <v>4.848472394034006</v>
+        <v>4.821513528404773</v>
       </c>
       <c r="BC42">
-        <v>3.841109084468154</v>
+        <v>3.853819845856763</v>
       </c>
     </row>
     <row r="43" spans="1:58">
       <c r="A43" s="1">
-        <v>1265</v>
+        <v>1367</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
@@ -7609,31 +7609,31 @@
         <v>108</v>
       </c>
       <c r="D43">
-        <v>2780</v>
+        <v>3145</v>
       </c>
       <c r="E43">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F43">
-        <v>1977</v>
+        <v>2069</v>
       </c>
       <c r="G43">
-        <v>377.7728253602431</v>
+        <v>427.3724948769656</v>
       </c>
       <c r="H43">
-        <v>19416</v>
+        <v>21293</v>
       </c>
       <c r="I43">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="J43">
-        <v>1.043165467625899</v>
+        <v>0.985691573926868</v>
       </c>
       <c r="K43">
-        <v>2638.430639278589</v>
+        <v>2893.495241149516</v>
       </c>
       <c r="L43">
-        <v>8.273381294964029</v>
+        <v>7.853736089030208</v>
       </c>
       <c r="M43">
         <v>884659</v>
@@ -7657,28 +7657,28 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>63.47890095968303</v>
+        <v>63.56393394216563</v>
       </c>
       <c r="U43">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V43" t="s">
         <v>203</v>
       </c>
       <c r="W43">
-        <v>2779</v>
+        <v>3144</v>
       </c>
       <c r="X43">
-        <v>16637</v>
+        <v>18149</v>
       </c>
       <c r="Z43">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AA43">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="AF43">
-        <v>1977</v>
+        <v>2069</v>
       </c>
       <c r="AG43" t="s">
         <v>214</v>
@@ -7687,31 +7687,31 @@
         <v>223</v>
       </c>
       <c r="AI43">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AJ43">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="AK43">
-        <v>19416</v>
+        <v>21293</v>
       </c>
       <c r="AL43">
-        <v>19416</v>
+        <v>21293</v>
       </c>
       <c r="AM43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO43">
-        <v>336</v>
+        <v>940</v>
       </c>
       <c r="AP43">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="AQ43">
-        <v>394</v>
+        <v>1179</v>
       </c>
       <c r="AR43" t="s">
         <v>108</v>
@@ -7720,42 +7720,42 @@
         <v>940.5631291944204</v>
       </c>
       <c r="AT43">
-        <v>0.003141323379969005</v>
+        <v>0.003553911733221501</v>
       </c>
       <c r="AU43">
-        <v>0.01880611625496378</v>
+        <v>0.02051524937857412</v>
       </c>
       <c r="AV43">
-        <v>14.31</v>
+        <v>14.77</v>
       </c>
       <c r="AW43">
-        <v>0.02194743963493278</v>
+        <v>0.02406916111179562</v>
       </c>
       <c r="AX43">
         <v>5.94677590012512</v>
       </c>
       <c r="AY43">
-        <v>4.288159763323878</v>
+        <v>4.328236854094916</v>
       </c>
       <c r="AZ43">
-        <v>3.444044795918076</v>
+        <v>3.497620649781288</v>
       </c>
       <c r="BA43">
-        <v>1.462397997898956</v>
+        <v>1.491361693834273</v>
       </c>
       <c r="BB43">
-        <v>4.221075016611721</v>
+        <v>4.258852700642303</v>
       </c>
       <c r="BC43">
-        <v>3.443888546777372</v>
+        <v>3.49748253736737</v>
       </c>
       <c r="BD43">
-        <v>1.857332496431269</v>
+        <v>1.880813592280791</v>
       </c>
     </row>
     <row r="44" spans="1:58">
       <c r="A44" s="1">
-        <v>1266</v>
+        <v>1368</v>
       </c>
       <c r="B44" t="s">
         <v>99</v>
@@ -7764,31 +7764,31 @@
         <v>108</v>
       </c>
       <c r="D44">
-        <v>13938</v>
+        <v>14441</v>
       </c>
       <c r="E44">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F44">
-        <v>6564</v>
+        <v>7011</v>
       </c>
       <c r="G44">
-        <v>212.3099884248558</v>
+        <v>219.9719143954184</v>
       </c>
       <c r="H44">
-        <v>227101</v>
+        <v>243578</v>
       </c>
       <c r="I44">
-        <v>1221</v>
+        <v>1299</v>
       </c>
       <c r="J44">
-        <v>1.71473669106041</v>
+        <v>1.67578422546915</v>
       </c>
       <c r="K44">
-        <v>3459.306262108852</v>
+        <v>3710.291459359272</v>
       </c>
       <c r="L44">
-        <v>8.760223848471803</v>
+        <v>8.995221937538952</v>
       </c>
       <c r="M44">
         <v>6829174</v>
@@ -7812,58 +7812,58 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>102.6575048733798</v>
+        <v>105.3745679218503</v>
       </c>
       <c r="U44">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V44" t="s">
         <v>204</v>
       </c>
       <c r="W44">
-        <v>13938</v>
+        <v>14441</v>
       </c>
       <c r="X44">
-        <v>213163</v>
+        <v>229137</v>
       </c>
       <c r="AA44">
-        <v>1221</v>
+        <v>1299</v>
       </c>
       <c r="AF44">
-        <v>6564</v>
+        <v>7011</v>
       </c>
       <c r="AG44" t="s">
         <v>213</v>
       </c>
       <c r="AH44" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="AI44">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AJ44">
-        <v>1221</v>
+        <v>1299</v>
       </c>
       <c r="AK44">
-        <v>227101</v>
+        <v>243578</v>
       </c>
       <c r="AL44">
-        <v>227101</v>
+        <v>243578</v>
       </c>
       <c r="AM44">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AN44">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="AO44">
-        <v>7991</v>
+        <v>6905</v>
       </c>
       <c r="AP44">
-        <v>248</v>
+        <v>345</v>
       </c>
       <c r="AQ44">
-        <v>8239</v>
+        <v>7250</v>
       </c>
       <c r="AR44" t="s">
         <v>108</v>
@@ -7872,39 +7872,39 @@
         <v>2613.26883423807</v>
       </c>
       <c r="AT44">
-        <v>0.002040949608254234</v>
+        <v>0.002114604196642229</v>
       </c>
       <c r="AU44">
-        <v>0.03121358454184943</v>
+        <v>0.03355266683789284</v>
       </c>
       <c r="AV44">
-        <v>6.14</v>
+        <v>5.93</v>
       </c>
       <c r="AW44">
-        <v>0.03325453415010366</v>
+        <v>0.03566727103453507</v>
       </c>
       <c r="AX44">
         <v>6.834368178215133</v>
       </c>
       <c r="AY44">
-        <v>5.356219046564631</v>
+        <v>5.386638060192078</v>
       </c>
       <c r="AZ44">
-        <v>4.144200460183879</v>
+        <v>4.159597267987408</v>
       </c>
       <c r="BA44">
-        <v>2.378397900948138</v>
+        <v>2.383815365980431</v>
       </c>
       <c r="BB44">
-        <v>5.328711823758203</v>
+        <v>5.360095222748518</v>
       </c>
       <c r="BC44">
-        <v>4.144200460183879</v>
+        <v>4.159597267987408</v>
       </c>
     </row>
     <row r="45" spans="1:58">
       <c r="A45" s="1">
-        <v>1267</v>
+        <v>1369</v>
       </c>
       <c r="B45" t="s">
         <v>100</v>
@@ -7913,25 +7913,25 @@
         <v>108</v>
       </c>
       <c r="D45">
-        <v>34928</v>
+        <v>37246</v>
       </c>
       <c r="E45">
-        <v>954</v>
+        <v>1025</v>
       </c>
       <c r="F45">
-        <v>17622</v>
+        <v>19197</v>
       </c>
       <c r="G45">
-        <v>151.9628762977026</v>
+        <v>162.0479068536484</v>
       </c>
       <c r="H45">
-        <v>438938</v>
+        <v>477118</v>
       </c>
       <c r="J45">
-        <v>2.731333027943197</v>
+        <v>2.751973366267519</v>
       </c>
       <c r="K45">
-        <v>1909.707999208686</v>
+        <v>2075.819503361408</v>
       </c>
       <c r="M45">
         <v>28995881</v>
@@ -7955,55 +7955,55 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>57.43139090985375</v>
+        <v>59.35348237693893</v>
       </c>
       <c r="U45">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V45" t="s">
         <v>205</v>
       </c>
       <c r="W45">
-        <v>34422</v>
+        <v>36609</v>
       </c>
       <c r="X45">
-        <v>404516</v>
+        <v>440509</v>
       </c>
       <c r="Z45">
-        <v>1812</v>
+        <v>1734</v>
       </c>
       <c r="AF45">
-        <v>17622</v>
+        <v>19197</v>
       </c>
       <c r="AG45" t="s">
         <v>213</v>
       </c>
       <c r="AH45" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AI45">
-        <v>948</v>
+        <v>1004</v>
       </c>
       <c r="AK45">
-        <v>438938</v>
+        <v>477118</v>
       </c>
       <c r="AL45">
-        <v>438938</v>
+        <v>477118</v>
       </c>
       <c r="AM45">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AN45">
         <v>0</v>
       </c>
       <c r="AO45">
-        <v>10675</v>
+        <v>20737</v>
       </c>
       <c r="AP45">
-        <v>1053</v>
+        <v>1219</v>
       </c>
       <c r="AQ45">
-        <v>11728</v>
+        <v>21956</v>
       </c>
       <c r="AR45" t="s">
         <v>108</v>
@@ -8012,42 +8012,42 @@
         <v>5384.782354004663</v>
       </c>
       <c r="AT45">
-        <v>0.001187134131223673</v>
+        <v>0.001262558637207816</v>
       </c>
       <c r="AU45">
-        <v>0.01395080908215895</v>
+        <v>0.01519212332261951</v>
       </c>
       <c r="AV45">
-        <v>7.84</v>
+        <v>7.67</v>
       </c>
       <c r="AW45">
-        <v>0.01513794321338262</v>
+        <v>0.01645468195982733</v>
       </c>
       <c r="AX45">
         <v>7.462336308725756</v>
       </c>
       <c r="AY45">
-        <v>5.642403180471152</v>
+        <v>5.678625801285844</v>
       </c>
       <c r="AZ45">
-        <v>4.543173718365064</v>
+        <v>4.571079638931142</v>
       </c>
       <c r="BA45">
-        <v>2.979548374704095</v>
+        <v>3.010723865391773</v>
       </c>
       <c r="BB45">
-        <v>5.606935704129468</v>
+        <v>5.643954785870446</v>
       </c>
       <c r="BC45">
-        <v>4.536836100266084</v>
+        <v>4.563587865991245</v>
       </c>
       <c r="BD45">
-        <v>3.258158193340794</v>
+        <v>3.239049093140192</v>
       </c>
     </row>
     <row r="46" spans="1:58">
       <c r="A46" s="1">
-        <v>1268</v>
+        <v>1370</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
@@ -8056,31 +8056,31 @@
         <v>108</v>
       </c>
       <c r="D46">
-        <v>5595</v>
+        <v>5919</v>
       </c>
       <c r="E46">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F46">
-        <v>2509</v>
+        <v>2769</v>
       </c>
       <c r="G46">
-        <v>195.2278565551548</v>
+        <v>206.5332766666597</v>
       </c>
       <c r="H46">
-        <v>131002</v>
+        <v>138688</v>
       </c>
       <c r="I46">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="J46">
-        <v>1.036639857015192</v>
+        <v>1.030579489778679</v>
       </c>
       <c r="K46">
-        <v>4571.088411874599</v>
+        <v>4839.278100075299</v>
       </c>
       <c r="L46">
-        <v>8.293118856121538</v>
+        <v>8.244635918229429</v>
       </c>
       <c r="M46">
         <v>3205958</v>
@@ -8104,58 +8104,67 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>136.8011125952348</v>
+        <v>135.930617911748</v>
       </c>
       <c r="U46">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V46" t="s">
         <v>206</v>
       </c>
       <c r="W46">
-        <v>5595</v>
+        <v>5919</v>
       </c>
       <c r="X46">
-        <v>125407</v>
+        <v>132769</v>
+      </c>
+      <c r="Z46">
+        <v>216</v>
       </c>
       <c r="AA46">
-        <v>464</v>
+        <v>488</v>
+      </c>
+      <c r="AC46">
+        <v>162</v>
+      </c>
+      <c r="AE46">
+        <v>73</v>
       </c>
       <c r="AF46">
-        <v>2509</v>
+        <v>2769</v>
       </c>
       <c r="AG46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AI46">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AJ46">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="AK46">
-        <v>131002</v>
+        <v>138688</v>
       </c>
       <c r="AL46">
-        <v>131002</v>
+        <v>138688</v>
       </c>
       <c r="AM46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN46">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO46">
-        <v>4141</v>
+        <v>3950</v>
       </c>
       <c r="AP46">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="AQ46">
-        <v>4287</v>
+        <v>4145</v>
       </c>
       <c r="AR46" t="s">
         <v>108</v>
@@ -8164,39 +8173,42 @@
         <v>1790.518919196332</v>
       </c>
       <c r="AT46">
-        <v>0.00174518817776153</v>
+        <v>0.001846250013256568</v>
       </c>
       <c r="AU46">
-        <v>0.03911685680224133</v>
+        <v>0.04141320628654524</v>
       </c>
       <c r="AV46">
         <v>4.27</v>
       </c>
       <c r="AW46">
-        <v>0.04086204498000286</v>
+        <v>0.0432594562998018</v>
       </c>
       <c r="AX46">
         <v>6.505957828533497</v>
       </c>
       <c r="AY46">
-        <v>5.117277926055256</v>
+        <v>5.142038885303705</v>
       </c>
       <c r="AZ46">
-        <v>3.747800090864369</v>
+        <v>3.772248339971854</v>
       </c>
       <c r="BA46">
-        <v>1.763427993562937</v>
+        <v>1.785329835010767</v>
       </c>
       <c r="BB46">
-        <v>5.09832177873175</v>
+        <v>5.123096684214545</v>
       </c>
       <c r="BC46">
-        <v>3.747800090864369</v>
+        <v>3.772248339971854</v>
+      </c>
+      <c r="BD46">
+        <v>2.334453751150931</v>
       </c>
     </row>
     <row r="47" spans="1:58">
       <c r="A47" s="1">
-        <v>1269</v>
+        <v>1371</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
@@ -8205,25 +8217,25 @@
         <v>108</v>
       </c>
       <c r="D47">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="E47">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="G47">
-        <v>148.7083825342987</v>
+        <v>150.5099158028861</v>
       </c>
       <c r="H47">
-        <v>17876</v>
+        <v>19008</v>
       </c>
       <c r="J47">
-        <v>5.726872246696034</v>
+        <v>5.767138193688793</v>
       </c>
       <c r="K47">
-        <v>2927.655337206084</v>
+        <v>3113.049488118888</v>
       </c>
       <c r="M47">
         <v>623989</v>
@@ -8247,46 +8259,40 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>52.3153922883467</v>
+        <v>53.18442562087461</v>
       </c>
       <c r="U47">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V47" t="s">
         <v>207</v>
       </c>
       <c r="W47">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="X47">
-        <v>16968</v>
+        <v>18089</v>
       </c>
       <c r="Z47">
-        <v>26</v>
-      </c>
-      <c r="AB47">
-        <v>2</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF47">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="AG47" t="s">
         <v>213</v>
       </c>
       <c r="AH47" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AI47">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK47">
-        <v>17876</v>
+        <v>19008</v>
       </c>
       <c r="AL47">
-        <v>17876</v>
+        <v>19008</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -8295,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>357</v>
+        <v>554</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ47">
-        <v>358</v>
+        <v>557</v>
       </c>
       <c r="AR47" t="s">
         <v>108</v>
@@ -8310,48 +8316,42 @@
         <v>789.9297437114266</v>
       </c>
       <c r="AT47">
-        <v>0.001455153856878887</v>
+        <v>0.001472782372766187</v>
       </c>
       <c r="AU47">
-        <v>0.02719278705233586</v>
+        <v>0.02898929308048699</v>
       </c>
       <c r="AV47">
-        <v>5.08</v>
+        <v>4.83</v>
       </c>
       <c r="AW47">
-        <v>0.02864794090921475</v>
+        <v>0.03046207545325318</v>
       </c>
       <c r="AX47">
         <v>5.795176933782731</v>
       </c>
       <c r="AY47">
-        <v>4.252270345988322</v>
+        <v>4.2789364233011</v>
       </c>
       <c r="AZ47">
-        <v>2.958085848521085</v>
+        <v>2.963315511386111</v>
       </c>
       <c r="BA47">
-        <v>1.716003343634799</v>
+        <v>1.724275869600789</v>
       </c>
       <c r="BB47">
-        <v>4.229630655508505</v>
+        <v>4.257414558762187</v>
       </c>
       <c r="BC47">
-        <v>2.958085848521085</v>
+        <v>2.963315511386111</v>
       </c>
       <c r="BD47">
-        <v>1.414973347970818</v>
-      </c>
-      <c r="BE47">
-        <v>0.3010299956639812</v>
-      </c>
-      <c r="BF47" t="s">
-        <v>250</v>
+        <v>1.176091259055681</v>
       </c>
     </row>
     <row r="48" spans="1:58">
       <c r="A48" s="1">
-        <v>1270</v>
+        <v>1372</v>
       </c>
       <c r="B48" t="s">
         <v>103</v>
@@ -8360,31 +8360,31 @@
         <v>108</v>
       </c>
       <c r="D48">
-        <v>20257</v>
+        <v>22342</v>
       </c>
       <c r="E48">
-        <v>713</v>
+        <v>812</v>
       </c>
       <c r="F48">
-        <v>2617</v>
+        <v>2997</v>
       </c>
       <c r="G48">
-        <v>256.1832651889473</v>
+        <v>282.5515382757299</v>
       </c>
       <c r="H48">
-        <v>113708</v>
+        <v>129945</v>
       </c>
       <c r="I48">
-        <v>4113</v>
+        <v>4622</v>
       </c>
       <c r="J48">
-        <v>3.519770943377598</v>
+        <v>3.634410527258078</v>
       </c>
       <c r="K48">
-        <v>1438.02570558843</v>
+        <v>1643.369422667609</v>
       </c>
       <c r="L48">
-        <v>20.30409241249939</v>
+        <v>20.68749440515621</v>
       </c>
       <c r="M48">
         <v>8535519</v>
@@ -8408,70 +8408,70 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>43.66217324595141</v>
+        <v>44.94855457853617</v>
       </c>
       <c r="U48">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V48" t="s">
         <v>208</v>
       </c>
       <c r="W48">
-        <v>20256</v>
+        <v>22342</v>
       </c>
       <c r="X48">
-        <v>93452</v>
+        <v>107603</v>
       </c>
       <c r="Y48">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="Z48">
-        <v>1496</v>
+        <v>1625</v>
       </c>
       <c r="AA48">
-        <v>4113</v>
+        <v>4622</v>
       </c>
       <c r="AB48">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="AD48">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AF48">
-        <v>2617</v>
+        <v>2997</v>
       </c>
       <c r="AG48" t="s">
         <v>215</v>
       </c>
       <c r="AH48" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="AI48">
-        <v>713</v>
+        <v>812</v>
       </c>
       <c r="AJ48">
-        <v>4113</v>
+        <v>4622</v>
       </c>
       <c r="AK48">
-        <v>114177</v>
+        <v>130494</v>
       </c>
       <c r="AL48">
-        <v>113708</v>
+        <v>129945</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>6021</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>6793</v>
       </c>
       <c r="AR48" t="s">
         <v>108</v>
@@ -8480,48 +8480,48 @@
         <v>2921.561055326416</v>
       </c>
       <c r="AT48">
-        <v>0.002373142160423988</v>
+        <v>0.002617532688990558</v>
       </c>
       <c r="AU48">
-        <v>0.01094860195378863</v>
+        <v>0.01260649762480758</v>
       </c>
       <c r="AV48">
-        <v>17.81</v>
+        <v>17.19</v>
       </c>
       <c r="AW48">
-        <v>0.01332174411421262</v>
+        <v>0.01522403031379814</v>
       </c>
       <c r="AX48">
         <v>6.931229933415991</v>
       </c>
       <c r="AY48">
-        <v>5.055791020832256</v>
+        <v>5.113759573454686</v>
       </c>
       <c r="AZ48">
-        <v>4.306575128096449</v>
+        <v>4.349122047476354</v>
       </c>
       <c r="BA48">
-        <v>2.853089529851866</v>
+        <v>2.909556029241176</v>
       </c>
       <c r="BB48">
-        <v>4.970588600307353</v>
+        <v>5.031824379743782</v>
       </c>
       <c r="BC48">
-        <v>4.306553688337261</v>
+        <v>4.349122047476354</v>
       </c>
       <c r="BD48">
-        <v>3.174931593528442</v>
+        <v>3.210853365314893</v>
       </c>
       <c r="BE48">
-        <v>2.557507201905658</v>
+        <v>2.577491799837226</v>
       </c>
       <c r="BF48">
-        <v>2.276461804173244</v>
+        <v>2.298853076409707</v>
       </c>
     </row>
     <row r="49" spans="1:58">
       <c r="A49" s="1">
-        <v>1271</v>
+        <v>1373</v>
       </c>
       <c r="B49" t="s">
         <v>104</v>
@@ -8530,22 +8530,22 @@
         <v>108</v>
       </c>
       <c r="D49">
-        <v>15905</v>
+        <v>16388</v>
       </c>
       <c r="E49">
-        <v>870</v>
+        <v>905</v>
       </c>
       <c r="G49">
-        <v>210.6789106370398</v>
+        <v>217.0767675271806</v>
       </c>
       <c r="H49">
-        <v>219453</v>
+        <v>230680</v>
       </c>
       <c r="J49">
-        <v>5.469977994341402</v>
+        <v>5.522333414693676</v>
       </c>
       <c r="K49">
-        <v>2906.892107892505</v>
+        <v>3055.605853866855</v>
       </c>
       <c r="M49">
         <v>7614893</v>
@@ -8569,40 +8569,40 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.79692239022232</v>
+        <v>68.62905913058393</v>
       </c>
       <c r="U49">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V49" t="s">
         <v>209</v>
       </c>
       <c r="W49">
-        <v>15594</v>
+        <v>16231</v>
       </c>
       <c r="X49">
-        <v>203859</v>
+        <v>214449</v>
       </c>
       <c r="Z49">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AB49">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AG49" t="s">
         <v>213</v>
       </c>
       <c r="AH49" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AI49">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="AK49">
-        <v>219453</v>
+        <v>230680</v>
       </c>
       <c r="AL49">
-        <v>219453</v>
+        <v>230680</v>
       </c>
       <c r="AM49">
         <v>21</v>
@@ -8611,13 +8611,13 @@
         <v>0</v>
       </c>
       <c r="AO49">
-        <v>3001</v>
+        <v>5541</v>
       </c>
       <c r="AP49">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="AQ49">
-        <v>3133</v>
+        <v>5867</v>
       </c>
       <c r="AR49" t="s">
         <v>108</v>
@@ -8626,45 +8626,45 @@
         <v>2759.50955787437</v>
       </c>
       <c r="AT49">
-        <v>0.002047829168446622</v>
+        <v>0.002131481033285694</v>
       </c>
       <c r="AU49">
-        <v>0.02677109185907143</v>
+        <v>0.0281617876968199</v>
       </c>
       <c r="AV49">
-        <v>7.11</v>
+        <v>7.04</v>
       </c>
       <c r="AW49">
-        <v>0.02881892102751805</v>
+        <v>0.0302932687301056</v>
       </c>
       <c r="AX49">
         <v>6.881663805264177</v>
       </c>
       <c r="AY49">
-        <v>5.341341522180492</v>
+        <v>5.363009942738859</v>
       </c>
       <c r="AZ49">
-        <v>4.201533673443382</v>
+        <v>4.214525955281105</v>
       </c>
       <c r="BA49">
-        <v>2.939519252618619</v>
+        <v>2.956648579205203</v>
       </c>
       <c r="BB49">
-        <v>5.309329889514229</v>
+        <v>5.331324025415407</v>
       </c>
       <c r="BC49">
-        <v>4.192957529884656</v>
+        <v>4.21034527775002</v>
       </c>
       <c r="BD49">
-        <v>2.591064607026499</v>
+        <v>2.594392550375427</v>
       </c>
       <c r="BE49">
-        <v>2.103803720955957</v>
+        <v>2.086359830674748</v>
       </c>
     </row>
     <row r="50" spans="1:58">
       <c r="A50" s="1">
-        <v>1272</v>
+        <v>1374</v>
       </c>
       <c r="B50" t="s">
         <v>105</v>
@@ -8673,25 +8673,25 @@
         <v>108</v>
       </c>
       <c r="D50">
-        <v>1242</v>
+        <v>1323</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F50">
-        <v>716</v>
+        <v>761</v>
       </c>
       <c r="G50">
-        <v>93.8776929367996</v>
+        <v>100.0001511718083</v>
       </c>
       <c r="H50">
-        <v>55784</v>
+        <v>59436</v>
       </c>
       <c r="J50">
-        <v>4.025764895330113</v>
+        <v>3.930461073318216</v>
       </c>
       <c r="K50">
-        <v>4216.484076317575</v>
+        <v>4492.523798221917</v>
       </c>
       <c r="M50">
         <v>1792147</v>
@@ -8715,46 +8715,46 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>142.3125588702325</v>
+        <v>142.1645803135348</v>
       </c>
       <c r="U50">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V50" t="s">
         <v>210</v>
       </c>
       <c r="W50">
-        <v>1248</v>
+        <v>1310</v>
       </c>
       <c r="X50">
-        <v>54536</v>
+        <v>58126</v>
       </c>
       <c r="Z50">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AB50">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AD50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF50">
-        <v>716</v>
+        <v>761</v>
       </c>
       <c r="AG50" t="s">
         <v>214</v>
       </c>
       <c r="AH50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI50">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK50">
-        <v>55784</v>
+        <v>59436</v>
       </c>
       <c r="AL50">
-        <v>55784</v>
+        <v>59436</v>
       </c>
       <c r="AM50">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="AO50">
-        <v>951</v>
+        <v>1892</v>
       </c>
       <c r="AP50">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AQ50">
-        <v>961</v>
+        <v>1915</v>
       </c>
       <c r="AR50" t="s">
         <v>108</v>
@@ -8778,48 +8778,48 @@
         <v>1338.71094714281</v>
       </c>
       <c r="AT50">
-        <v>0.0006963714472082926</v>
+        <v>0.0007309668235920379</v>
       </c>
       <c r="AU50">
-        <v>0.03043053945909571</v>
+        <v>0.0324337233497029</v>
       </c>
       <c r="AV50">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="AW50">
-        <v>0.031126910906304</v>
+        <v>0.03316469017329494</v>
       </c>
       <c r="AX50">
         <v>6.253373629584194</v>
       </c>
       <c r="AY50">
-        <v>4.746509652196861</v>
+        <v>4.774049574030081</v>
       </c>
       <c r="AZ50">
-        <v>3.094121595840561</v>
+        <v>3.121559844187501</v>
       </c>
       <c r="BA50">
-        <v>1.698970004336019</v>
+        <v>1.716003343634799</v>
       </c>
       <c r="BB50">
-        <v>4.7366832809904</v>
+        <v>4.76437043756676</v>
       </c>
       <c r="BC50">
-        <v>3.096214585346405</v>
+        <v>3.117271295655764</v>
       </c>
       <c r="BD50">
-        <v>1.880813592280791</v>
+        <v>1.812913356642855</v>
       </c>
       <c r="BE50">
-        <v>1.342422680822206</v>
+        <v>1.278753600952829</v>
       </c>
       <c r="BF50">
-        <v>1.079181246047625</v>
+        <v>1.041392685158225</v>
       </c>
     </row>
     <row r="51" spans="1:58">
       <c r="A51" s="1">
-        <v>1273</v>
+        <v>1375</v>
       </c>
       <c r="B51" t="s">
         <v>106</v>
@@ -8828,31 +8828,31 @@
         <v>108</v>
       </c>
       <c r="D51">
-        <v>8901</v>
+        <v>9590</v>
       </c>
       <c r="E51">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="F51">
-        <v>4348</v>
+        <v>4694</v>
       </c>
       <c r="G51">
-        <v>172.0142597328358</v>
+        <v>185.3293731982806</v>
       </c>
       <c r="H51">
-        <v>96727</v>
+        <v>106855</v>
       </c>
       <c r="I51">
-        <v>1694</v>
+        <v>1767</v>
       </c>
       <c r="J51">
-        <v>4.066958768677677</v>
+        <v>4.004171011470281</v>
       </c>
       <c r="K51">
-        <v>1869.275733196047</v>
+        <v>2065.002103556024</v>
       </c>
       <c r="L51">
-        <v>19.03156948657455</v>
+        <v>18.42544316996872</v>
       </c>
       <c r="M51">
         <v>5822434</v>
@@ -8876,37 +8876,37 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>46.0526173976491</v>
+        <v>48.90238051569887</v>
       </c>
       <c r="U51">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V51" t="s">
         <v>211</v>
       </c>
       <c r="W51">
-        <v>8901</v>
+        <v>9590</v>
       </c>
       <c r="X51">
-        <v>87826</v>
+        <v>97265</v>
       </c>
       <c r="Y51">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Z51">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="AA51">
-        <v>1694</v>
+        <v>1767</v>
       </c>
       <c r="AB51">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AC51">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="AF51">
-        <v>4348</v>
+        <v>4694</v>
       </c>
       <c r="AG51" t="s">
         <v>215</v>
@@ -8915,31 +8915,31 @@
         <v>218</v>
       </c>
       <c r="AI51">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="AJ51">
-        <v>1694</v>
+        <v>1767</v>
       </c>
       <c r="AK51">
-        <v>96939</v>
+        <v>107059</v>
       </c>
       <c r="AL51">
-        <v>96727</v>
+        <v>106855</v>
       </c>
       <c r="AM51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN51">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AO51">
-        <v>3859</v>
+        <v>4230</v>
       </c>
       <c r="AP51">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="AQ51">
-        <v>4194</v>
+        <v>4605</v>
       </c>
       <c r="AR51" t="s">
         <v>108</v>
@@ -8948,45 +8948,45 @@
         <v>2412.972026360853</v>
       </c>
       <c r="AT51">
-        <v>0.001528742103388377</v>
+        <v>0.001647077493707958</v>
       </c>
       <c r="AU51">
-        <v>0.01508406965197029</v>
+        <v>0.01670521297450516</v>
       </c>
       <c r="AV51">
-        <v>9.199999999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AW51">
-        <v>0.01661281175535867</v>
+        <v>0.01835229046821312</v>
       </c>
       <c r="AX51">
         <v>6.765104574304484</v>
       </c>
       <c r="AY51">
-        <v>4.985547718284561</v>
+        <v>5.028794848648937</v>
       </c>
       <c r="AZ51">
-        <v>3.949438801036504</v>
+        <v>3.981818607170664</v>
       </c>
       <c r="BA51">
-        <v>2.558708570533166</v>
+        <v>2.584331224367531</v>
       </c>
       <c r="BB51">
-        <v>4.943623103434281</v>
+        <v>4.987956591127648</v>
       </c>
       <c r="BC51">
-        <v>3.949438801036504</v>
+        <v>3.981818607170664</v>
       </c>
       <c r="BD51">
-        <v>2.708420900134713</v>
+        <v>2.741939077729199</v>
       </c>
       <c r="BE51">
-        <v>2.02938377768521</v>
+        <v>2.041392685158225</v>
       </c>
     </row>
     <row r="52" spans="1:58">
       <c r="A52" s="1">
-        <v>1274</v>
+        <v>1376</v>
       </c>
       <c r="B52" t="s">
         <v>107</v>
@@ -8995,31 +8995,31 @@
         <v>108</v>
       </c>
       <c r="D52">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="E52">
         <v>7</v>
       </c>
       <c r="F52">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="G52">
-        <v>126.9004907087121</v>
+        <v>129.5149223714906</v>
       </c>
       <c r="H52">
-        <v>12007</v>
+        <v>12038</v>
       </c>
       <c r="I52">
         <v>60</v>
       </c>
       <c r="J52">
-        <v>1.109350237717908</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="K52">
-        <v>2414.729305767838</v>
+        <v>2420.963719732925</v>
       </c>
       <c r="L52">
-        <v>9.508716323296355</v>
+        <v>9.316770186335404</v>
       </c>
       <c r="M52">
         <v>578759</v>
@@ -9043,34 +9043,34 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>46.42054912438097</v>
+        <v>48.77792324574818</v>
       </c>
       <c r="U52">
-        <v>20200506</v>
+        <v>20200508</v>
       </c>
       <c r="V52" t="s">
         <v>212</v>
       </c>
       <c r="W52">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="X52">
         <v>11403</v>
       </c>
       <c r="Z52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA52">
         <v>60</v>
       </c>
       <c r="AF52">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="AG52" t="s">
         <v>214</v>
       </c>
       <c r="AH52" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AI52">
         <v>7</v>
@@ -9079,25 +9079,25 @@
         <v>60</v>
       </c>
       <c r="AK52">
-        <v>12007</v>
+        <v>12038</v>
       </c>
       <c r="AL52">
-        <v>12007</v>
+        <v>12038</v>
       </c>
       <c r="AM52">
         <v>0</v>
       </c>
       <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>0</v>
       </c>
-      <c r="AO52">
-        <v>1084</v>
-      </c>
       <c r="AP52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AQ52">
-        <v>1092</v>
+        <v>4</v>
       </c>
       <c r="AR52" t="s">
         <v>108</v>
@@ -9106,25 +9106,25 @@
         <v>760.7621178791699</v>
       </c>
       <c r="AT52">
-        <v>0.001043612280759349</v>
+        <v>0.001097175162718852</v>
       </c>
       <c r="AU52">
         <v>0.01970250138658751</v>
       </c>
       <c r="AV52">
-        <v>5.03</v>
+        <v>5.27</v>
       </c>
       <c r="AW52">
-        <v>0.02074611366734686</v>
+        <v>0.02079967654930636</v>
       </c>
       <c r="AX52">
         <v>5.762497757580992</v>
       </c>
       <c r="AY52">
-        <v>4.079434510633743</v>
+        <v>4.080554338988772</v>
       </c>
       <c r="AZ52">
-        <v>2.800029359244134</v>
+        <v>2.808885867359812</v>
       </c>
       <c r="BA52">
         <v>0.8450980400142568</v>
@@ -9133,10 +9133,10 @@
         <v>4.057019124322766</v>
       </c>
       <c r="BC52">
-        <v>2.781036938621132</v>
+        <v>2.802773725291976</v>
       </c>
       <c r="BD52">
-        <v>1.041392685158225</v>
+        <v>0.9542425094393249</v>
       </c>
     </row>
   </sheetData>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>78.40195280866459</v>
+        <v>79.42851574123137</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1478,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>122.1512908712787</v>
+        <v>123.2952574732174</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1627,7 +1627,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>32.60188270765806</v>
+        <v>35.57619318654503</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1794,7 +1794,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>68.19546111693711</v>
+        <v>68.98063261057932</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1949,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>71.46093423817067</v>
+        <v>71.93161907612469</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2101,7 +2101,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>40.70602704274426</v>
+        <v>41.25751180954379</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2256,7 +2256,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>85.13196898355658</v>
+        <v>85.5818596394662</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2405,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>65.11074865671625</v>
+        <v>66.29500823011963</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2548,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>88.86513975318897</v>
+        <v>90.65587845786484</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2706,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>58.68636227796307</v>
+        <v>59.38041122973839</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2852,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>65.99468950421037</v>
+        <v>67.24773137727452</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3001,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>49.52710383067416</v>
+        <v>49.04403004832292</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>47.02201595395449</v>
+        <v>46.67766993614866</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3293,7 +3293,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>98.79969506008784</v>
+        <v>100.9536687017665</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3448,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>51.15241344880124</v>
+        <v>52.01816211634516</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3609,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>74.93976043797605</v>
+        <v>76.86563734451821</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>52.49229502106128</v>
+        <v>54.18419287058687</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3925,7 +3925,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>56.37853080856946</v>
+        <v>59.51531127249995</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4083,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>70.69805522872079</v>
+        <v>73.15315572356192</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4238,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>39.38176826768373</v>
+        <v>39.02044398478295</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4405,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>70.45450702074143</v>
+        <v>70.70041955415016</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>145.5326236458054</v>
+        <v>146.4679487280519</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4715,7 +4715,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>86.89258457489262</v>
+        <v>88.98555492173882</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4876,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>49.41604977236012</v>
+        <v>50.98030365658955</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5040,7 +5040,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>75.4094898026222</v>
+        <v>73.67547077190636</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5198,7 +5198,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>39.9258623907254</v>
+        <v>40.73555247053601</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5350,7 +5350,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>44.15734016690813</v>
+        <v>46.71267873852356</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5496,7 +5496,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>73.78043121846544</v>
+        <v>76.35929319148482</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5630,7 +5630,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>34.30471647877099</v>
+        <v>35.30276851946299</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5773,7 +5773,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>58.41122719680475</v>
+        <v>59.84841139159953</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5928,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>77.87486289712206</v>
+        <v>77.4295813193125</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6092,7 +6092,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>145.676475166514</v>
+        <v>148.0919216512835</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6247,7 +6247,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>151.5333516995682</v>
+        <v>152.6006981941599</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6405,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>44.61553204038288</v>
+        <v>45.8292545256063</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6551,7 +6551,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>209.5559669715727</v>
+        <v>214.3355849597693</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6703,7 +6703,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>40.84023796119701</v>
+        <v>42.0482411963317</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6870,7 +6870,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>65.23369391298398</v>
+        <v>67.36765891228413</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7031,7 +7031,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>40.5140042187868</v>
+        <v>41.09569937623688</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7189,7 +7189,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>45.08843087894125</v>
+        <v>45.3343464284967</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7341,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>241.9978890688336</v>
+        <v>242.7265399639927</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7508,7 +7508,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>34.46898699369738</v>
+        <v>35.40435868230194</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7657,7 +7657,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>63.56393394216563</v>
+        <v>65.13417548341353</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7812,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>105.3745679218503</v>
+        <v>106.6127349756764</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7955,7 +7955,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>59.35348237693893</v>
+        <v>60.1188685680356</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8104,7 +8104,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>135.930617911748</v>
+        <v>135.8350386123793</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8259,7 +8259,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>53.18442562087461</v>
+        <v>53.86402500069548</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8408,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>44.94855457853617</v>
+        <v>45.89301057888606</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8569,7 +8569,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.62905913058393</v>
+        <v>68.59910919115021</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8715,7 +8715,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>142.1645803135348</v>
+        <v>141.9424880444684</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8876,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>48.90238051569887</v>
+        <v>50.41423878759534</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9043,7 +9043,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>48.77792324574818</v>
+        <v>49.09888572951384</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9926646112554521</v>
+        <v>0.9950521350056657</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.42851574123137</v>
+        <v>80.47117677870924</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9744069022334625</v>
+        <v>0.9761632127141099</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>123.2952574732174</v>
+        <v>129.1529160129467</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9961093472757901</v>
+        <v>0.9973365051305251</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1627,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>35.57619318654503</v>
+        <v>42.29274886549002</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1639,7 +1639,7 @@
         <v>10526</v>
       </c>
       <c r="X4">
-        <v>109381</v>
+        <v>90599</v>
       </c>
       <c r="Z4">
         <v>730</v>
@@ -1669,10 +1669,10 @@
         <v>1482</v>
       </c>
       <c r="AK4">
-        <v>119907</v>
+        <v>101125</v>
       </c>
       <c r="AL4">
-        <v>119907</v>
+        <v>101125</v>
       </c>
       <c r="AM4">
         <v>67</v>
@@ -1681,13 +1681,13 @@
         <v>33</v>
       </c>
       <c r="AO4">
-        <v>8240</v>
+        <v>4110</v>
       </c>
       <c r="AP4">
         <v>581</v>
       </c>
       <c r="AQ4">
-        <v>8821</v>
+        <v>4691</v>
       </c>
       <c r="AR4" t="s">
         <v>108</v>
@@ -1699,10 +1699,10 @@
         <v>0.001446133982128993</v>
       </c>
       <c r="AU4">
-        <v>0.01502751102975978</v>
+        <v>0.01244711121479239</v>
       </c>
       <c r="AV4">
-        <v>8.779999999999999</v>
+        <v>10.41</v>
       </c>
       <c r="AW4">
         <v>0.01647364501188877</v>
@@ -1720,7 +1720,7 @@
         <v>2.713490543093942</v>
       </c>
       <c r="BB4">
-        <v>5.038941889531367</v>
+        <v>4.95712340411303</v>
       </c>
       <c r="BC4">
         <v>4.022263365681258</v>
@@ -1779,7 +1779,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9896808194655923</v>
+        <v>0.9869084338650946</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1794,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>68.98063261057932</v>
+        <v>70.56552881977188</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1934,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9969288709270548</v>
+        <v>0.9974270504989505</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>71.93161907612469</v>
+        <v>74.5986662831036</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.996491293342356</v>
+        <v>0.9956974312858593</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2101,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>41.25751180954379</v>
+        <v>44.31534259756233</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9849745945636682</v>
+        <v>0.9799208161350925</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2256,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>85.5818596394662</v>
+        <v>89.50760707470037</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2390,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9959514866852781</v>
+        <v>0.9944696639294097</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>66.29500823011963</v>
+        <v>73.13809595530569</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2533,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9970613404175291</v>
+        <v>0.997535289078238</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>90.65587845786484</v>
+        <v>97.45269837805075</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2691,7 +2691,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9791916274324272</v>
+        <v>0.9798855750839377</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>59.38041122973839</v>
+        <v>62.00225735226772</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2837,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9898934868148941</v>
+        <v>0.9890097319244419</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>67.24773137727452</v>
+        <v>71.40330231751048</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2986,7 +2986,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9546560166851534</v>
+        <v>0.9559780779250964</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>49.04403004832292</v>
+        <v>47.57348024706087</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3135,7 +3135,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9633054362411911</v>
+        <v>0.968407066042452</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>46.67766993614866</v>
+        <v>44.33154554999565</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3278,7 +3278,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9992287236160313</v>
+        <v>0.9993168153736824</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3293,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>100.9536687017665</v>
+        <v>108.4374459212621</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3433,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9968225140419856</v>
+        <v>0.9964838899334874</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>52.01816211634516</v>
+        <v>55.27004739106454</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9807693202346051</v>
+        <v>0.989229767636453</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>76.86563734451821</v>
+        <v>84.14788495059071</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3755,7 +3755,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.988276021817263</v>
+        <v>0.992171521397643</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.18419287058687</v>
+        <v>59.40171391802873</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.997136856287237</v>
+        <v>0.99692735272266</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3925,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>59.51531127249995</v>
+        <v>70.76179289977357</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4068,7 +4068,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9507004263199893</v>
+        <v>0.9551045116691791</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>73.15315572356192</v>
+        <v>81.48053682644873</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4223,7 +4223,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9920653749658619</v>
+        <v>0.9941629799062046</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>39.02044398478295</v>
+        <v>36.19531052823477</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4390,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9984580377372869</v>
+        <v>0.998603721945862</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>70.70041955415016</v>
+        <v>71.44526888606346</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4548,7 +4548,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9946524143126327</v>
+        <v>0.9890287176580009</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>146.4679487280519</v>
+        <v>147.7375125392505</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4700,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9783052080463942</v>
+        <v>0.9776127194821512</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4715,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>88.98555492173882</v>
+        <v>96.34036959011952</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4861,7 +4861,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9611159926283952</v>
+        <v>0.9602928521329162</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>50.98030365658955</v>
+        <v>56.80414362779699</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5025,7 +5025,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9990579285040792</v>
+        <v>0.9985951101331082</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5040,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>73.67547077190636</v>
+        <v>74.69723845812781</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5183,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9872496953339317</v>
+        <v>0.9881971768922355</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5198,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>40.73555247053601</v>
+        <v>44.20546514957228</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5335,7 +5335,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9572942728362014</v>
+        <v>0.9600669189463641</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5350,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>46.71267873852356</v>
+        <v>53.97829466940053</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5481,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9623534442152931</v>
+        <v>0.9773296529216949</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5496,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>76.35929319148482</v>
+        <v>84.57702574253535</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5615,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9882455864424117</v>
+        <v>0.9876996924807712</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5630,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>35.30276851946299</v>
+        <v>40.27729627048615</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5758,7 +5758,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9972867443097357</v>
+        <v>0.9979125624418065</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5773,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>59.84841139159953</v>
+        <v>64.89050985275904</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5913,7 +5913,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9850505028280239</v>
+        <v>0.9807110701946093</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>77.4295813193125</v>
+        <v>95.71069554511313</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6077,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9987209665708087</v>
+        <v>0.9988937202922878</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6092,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>148.0919216512835</v>
+        <v>159.8961198650264</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9790077813370821</v>
+        <v>0.9762869310303162</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6247,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>152.6006981941599</v>
+        <v>155.1328935716494</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6390,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9986738293912852</v>
+        <v>0.9989839436047471</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>45.8292545256063</v>
+        <v>49.28079625137077</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9940425779211732</v>
+        <v>0.995135069018822</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6551,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>214.3355849597693</v>
+        <v>225.7575562534473</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6688,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9924004826858552</v>
+        <v>0.9921911593193328</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6703,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>42.0482411963317</v>
+        <v>46.15019561561042</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6855,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9866823162424269</v>
+        <v>0.9881151683947569</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6870,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>67.36765891228413</v>
+        <v>71.03589746364452</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7016,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9903245986031014</v>
+        <v>0.9929271208786947</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7031,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>41.09569937623688</v>
+        <v>42.50292192538636</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7174,7 +7174,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.987221427902933</v>
+        <v>0.9854175349824613</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7189,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>45.3343464284967</v>
+        <v>46.20198575260257</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7326,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9926140122668374</v>
+        <v>0.9878380977900609</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>242.7265399639927</v>
+        <v>244.7677741739058</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7493,7 +7493,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9891923624293419</v>
+        <v>0.9903057965098626</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7508,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>35.40435868230194</v>
+        <v>39.08677906075495</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7642,7 +7642,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9759676789466865</v>
+        <v>0.9828032736903247</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7657,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>65.13417548341353</v>
+        <v>70.97790814462813</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9943040222741955</v>
+        <v>0.9957217290400806</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>106.6127349756764</v>
+        <v>112.0964817097872</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7940,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9939744359733207</v>
+        <v>0.9954666326757718</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7955,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>60.1188685680356</v>
+        <v>63.06207562085417</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8089,7 +8089,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9966202016120344</v>
+        <v>0.9971075804940802</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8104,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>135.8350386123793</v>
+        <v>134.7236520731717</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8244,7 +8244,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9527662016269449</v>
+        <v>0.9563092396720609</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8259,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>53.86402500069548</v>
+        <v>57.62357969536881</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8393,7 +8393,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9990667079604288</v>
+        <v>0.9994282071616678</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>45.89301057888606</v>
+        <v>49.87123305106087</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8554,7 +8554,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9831893633175837</v>
+        <v>0.9866286055850844</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8569,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.59910919115021</v>
+        <v>68.85748928783747</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8700,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.983676706813113</v>
+        <v>0.9847749490281809</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8715,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>141.9424880444684</v>
+        <v>139.4361684511103</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8861,7 +8861,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.996275675453875</v>
+        <v>0.9971401725104412</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>50.41423878759534</v>
+        <v>55.25716974274665</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9028,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9878051306969708</v>
+        <v>0.9864365313524831</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9043,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>49.09888572951384</v>
+        <v>53.95501644201536</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9950521350056657</v>
+        <v>0.9953185820598942</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>80.47117677870924</v>
+        <v>80.03597866163973</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9761632127141099</v>
+        <v>0.9765067934842704</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>129.1529160129467</v>
+        <v>125.4243253574091</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9973365051305251</v>
+        <v>0.9975149228665363</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1627,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>42.29274886549002</v>
+        <v>42.78085537633994</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1779,7 +1779,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9869084338650946</v>
+        <v>0.9869367191348163</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1794,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>70.56552881977188</v>
+        <v>68.92281568437814</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1934,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9974270504989505</v>
+        <v>0.9974545147253464</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>74.5986662831036</v>
+        <v>75.15303055607043</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9956974312858593</v>
+        <v>0.9952588416562576</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2101,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>44.31534259756233</v>
+        <v>44.69097852620389</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9799208161350925</v>
+        <v>0.9792229500609063</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2256,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>89.50760707470037</v>
+        <v>90.92757124123365</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2390,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9944696639294097</v>
+        <v>0.9943426842041768</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>73.13809595530569</v>
+        <v>75.43578430831818</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2533,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.997535289078238</v>
+        <v>0.9972665563796708</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>97.45269837805075</v>
+        <v>98.9778368198679</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2691,7 +2691,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9798855750839377</v>
+        <v>0.980104981064566</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>62.00225735226772</v>
+        <v>62.40146501813144</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2837,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9890097319244419</v>
+        <v>0.9889069591042039</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>71.40330231751048</v>
+        <v>71.87680000684722</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2986,7 +2986,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9559780779250964</v>
+        <v>0.9564484862050878</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>47.57348024706087</v>
+        <v>47.12443979933992</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3135,7 +3135,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.968407066042452</v>
+        <v>0.9691760759042921</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>44.33154554999565</v>
+        <v>42.68940919935523</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3278,7 +3278,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9993168153736824</v>
+        <v>0.9992654897152375</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3293,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>108.4374459212621</v>
+        <v>108.8236377252874</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3433,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9964838899334874</v>
+        <v>0.996096249736048</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>55.27004739106454</v>
+        <v>55.66943523059697</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.989229767636453</v>
+        <v>0.99009659431591</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>84.14788495059071</v>
+        <v>82.9718965422454</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3755,7 +3755,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.992171521397643</v>
+        <v>0.9927639113452559</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>59.40171391802873</v>
+        <v>58.00950696060444</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.99692735272266</v>
+        <v>0.9963423216294858</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3925,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>70.76179289977357</v>
+        <v>70.33394382598047</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4068,7 +4068,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9551045116691791</v>
+        <v>0.9560450744014276</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>81.48053682644873</v>
+        <v>83.86201697456136</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4223,7 +4223,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9941629799062046</v>
+        <v>0.9944699600157346</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>36.19531052823477</v>
+        <v>33.9720567604885</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4390,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.998603721945862</v>
+        <v>0.9983883424316464</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>71.44526888606346</v>
+        <v>71.36512343516621</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4548,7 +4548,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9890287176580009</v>
+        <v>0.9878156154585672</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>147.7375125392505</v>
+        <v>146.7270375537531</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4700,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9776127194821512</v>
+        <v>0.9774566391882724</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4715,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>96.34036959011952</v>
+        <v>94.01158748162399</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4861,7 +4861,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9602928521329162</v>
+        <v>0.9630201160303113</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>56.80414362779699</v>
+        <v>56.43816493135377</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -4903,7 +4903,7 @@
         <v>540</v>
       </c>
       <c r="AF25">
-        <v>5697</v>
+        <v>5163</v>
       </c>
       <c r="AG25" t="s">
         <v>216</v>
@@ -5025,7 +5025,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9985951101331082</v>
+        <v>0.9983018947566338</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5040,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>74.69723845812781</v>
+        <v>75.4019014077648</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5183,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9881971768922355</v>
+        <v>0.987984843690894</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5198,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>44.20546514957228</v>
+        <v>44.34119035793549</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5335,7 +5335,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9600669189463641</v>
+        <v>0.9606265645509807</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5350,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>53.97829466940053</v>
+        <v>52.56442966051087</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5481,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9773296529216949</v>
+        <v>0.9794865013652526</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5496,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>84.57702574253535</v>
+        <v>82.8356946895001</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5615,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9876996924807712</v>
+        <v>0.987832855122932</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5630,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>40.27729627048615</v>
+        <v>41.47707647334932</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5758,7 +5758,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9979125624418065</v>
+        <v>0.9978297257264109</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5773,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>64.89050985275904</v>
+        <v>65.98499327353768</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5913,7 +5913,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9807110701946093</v>
+        <v>0.9797662162651174</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>95.71069554511313</v>
+        <v>99.99486941424712</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6077,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9988937202922878</v>
+        <v>0.9988441971135091</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6092,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>159.8961198650264</v>
+        <v>155.4521116681554</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9762869310303162</v>
+        <v>0.9759294335446684</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6247,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>155.1328935716494</v>
+        <v>150.5232479091179</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6390,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9989839436047471</v>
+        <v>0.9990493724217221</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>49.28079625137077</v>
+        <v>49.53030300744724</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.995135069018822</v>
+        <v>0.9953456572426925</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6551,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>225.7575562534473</v>
+        <v>218.154807922109</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6688,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9921911593193328</v>
+        <v>0.9920026772661671</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6703,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>46.15019561561042</v>
+        <v>46.5507191450684</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6855,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9881151683947569</v>
+        <v>0.9883975160157953</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6870,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>71.03589746364452</v>
+        <v>71.27352141552643</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7016,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9929271208786947</v>
+        <v>0.9932588953013612</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7031,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>42.50292192538636</v>
+        <v>42.29762623680862</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7174,7 +7174,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9854175349824613</v>
+        <v>0.9849556542428116</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7189,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>46.20198575260257</v>
+        <v>46.26581859877967</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7326,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9878380977900609</v>
+        <v>0.9867888699935576</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>244.7677741739058</v>
+        <v>245.4440967171846</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7493,7 +7493,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9903057965098626</v>
+        <v>0.9903393682199577</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7508,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>39.08677906075495</v>
+        <v>40.34163944160544</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7642,7 +7642,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9828032736903247</v>
+        <v>0.9836387888140428</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7657,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>70.97790814462813</v>
+        <v>68.83786709950314</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9957217290400806</v>
+        <v>0.9958793422902663</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>112.0964817097872</v>
+        <v>112.4460728722364</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7940,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9954666326757718</v>
+        <v>0.9957177804402281</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7955,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>63.06207562085417</v>
+        <v>61.69209687061467</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8089,7 +8089,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9971075804940802</v>
+        <v>0.997096380921458</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8104,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>134.7236520731717</v>
+        <v>131.1352466047664</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8244,7 +8244,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9563092396720609</v>
+        <v>0.9568796686343308</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8259,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>57.62357969536881</v>
+        <v>58.34130893348112</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8393,7 +8393,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9994282071616678</v>
+        <v>0.9994604571911022</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>49.87123305106087</v>
+        <v>49.93307468440761</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8554,7 +8554,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9866286055850844</v>
+        <v>0.9870967378001176</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8569,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.85748928783747</v>
+        <v>68.60183323578192</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8700,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9847749490281809</v>
+        <v>0.9848959247574407</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8715,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>139.4361684511103</v>
+        <v>131.6505740265976</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8861,7 +8861,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9971401725104412</v>
+        <v>0.9973415444180954</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>55.25716974274665</v>
+        <v>55.00607079814284</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9028,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9864365313524831</v>
+        <v>0.9861318348360936</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9043,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>53.95501644201536</v>
+        <v>53.56880225837396</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9953185820598942</v>
+        <v>0.9956167868251209</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>80.03597866163973</v>
+        <v>79.6889956112192</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9765067934842704</v>
+        <v>0.9768289232329689</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>125.4243253574091</v>
+        <v>122.1358644100359</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9975149228665363</v>
+        <v>0.9976589818645665</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1627,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>42.78085537633994</v>
+        <v>43.50286696038276</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1779,7 +1779,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9869367191348163</v>
+        <v>0.9871784439327956</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1794,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>68.92281568437814</v>
+        <v>68.16008718906072</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1934,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9974545147253464</v>
+        <v>0.9975091299982602</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>75.15303055607043</v>
+        <v>75.60954606413907</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9952588416562576</v>
+        <v>0.9948351240211475</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2101,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>44.69097852620389</v>
+        <v>45.08618391407911</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9792229500609063</v>
+        <v>0.9786874230590064</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2256,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>90.92757124123365</v>
+        <v>92.55026329186501</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2390,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9943426842041768</v>
+        <v>0.9944144552714317</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>75.43578430831818</v>
+        <v>77.70659408482862</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2533,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9972665563796708</v>
+        <v>0.9969998043703318</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>98.9778368198679</v>
+        <v>100.7074885258383</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2691,7 +2691,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.980104981064566</v>
+        <v>0.9804300051340665</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>62.40146501813144</v>
+        <v>62.41962066050792</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2837,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9889069591042039</v>
+        <v>0.9887691959205327</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>71.87680000684722</v>
+        <v>72.66858785268751</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2986,7 +2986,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9564484862050878</v>
+        <v>0.9569000257463386</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>47.12443979933992</v>
+        <v>46.47512021063795</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3135,7 +3135,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9691760759042921</v>
+        <v>0.9700721471892919</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>42.68940919935523</v>
+        <v>41.38486181472279</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3278,7 +3278,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9992654897152375</v>
+        <v>0.9992678951251014</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3293,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>108.8236377252874</v>
+        <v>109.6538820201513</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3433,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.996096249736048</v>
+        <v>0.99575233956245</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>55.66943523059697</v>
+        <v>56.11180604785568</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.99009659431591</v>
+        <v>0.9907887085295513</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>82.9718965422454</v>
+        <v>82.25592580061443</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3755,7 +3755,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9927639113452559</v>
+        <v>0.9932060808392745</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>58.00950696060444</v>
+        <v>57.24250150978161</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9963423216294858</v>
+        <v>0.9963043351414402</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3925,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>70.33394382598047</v>
+        <v>70.06087624800377</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4068,7 +4068,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9560450744014276</v>
+        <v>0.9572127595833803</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>83.86201697456136</v>
+        <v>86.0318937555506</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4223,7 +4223,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9944699600157346</v>
+        <v>0.9947254321229813</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>33.9720567604885</v>
+        <v>31.96168830003048</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4390,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9983883424316464</v>
+        <v>0.9982277732500558</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>71.36512343516621</v>
+        <v>71.30310794999545</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4548,7 +4548,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9878156154585672</v>
+        <v>0.9868457680641668</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>146.7270375537531</v>
+        <v>147.0210260161025</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4700,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9774566391882724</v>
+        <v>0.9776527032458378</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4715,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>94.01158748162399</v>
+        <v>92.68744061139066</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4861,7 +4861,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9630201160303113</v>
+        <v>0.9658404169780447</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>56.43816493135377</v>
+        <v>56.37751728681854</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5025,7 +5025,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9983018947566338</v>
+        <v>0.9982127896051615</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5040,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>75.4019014077648</v>
+        <v>75.86275320899992</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5183,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.987984843690894</v>
+        <v>0.9878486871646538</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5198,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>44.34119035793549</v>
+        <v>44.83441622106736</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5335,7 +5335,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9606265645509807</v>
+        <v>0.9611684775161248</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5350,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>52.56442966051087</v>
+        <v>51.53073739271579</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5481,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9794865013652526</v>
+        <v>0.9813730327585477</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5496,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>82.8356946895001</v>
+        <v>81.97619331223024</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5615,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.987832855122932</v>
+        <v>0.987782916520629</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5630,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>41.47707647334932</v>
+        <v>42.70385350443818</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5758,7 +5758,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9978297257264109</v>
+        <v>0.9977466696715517</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5773,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>65.98499327353768</v>
+        <v>67.83916420666286</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5913,7 +5913,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9797662162651174</v>
+        <v>0.9788642806756274</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>99.99486941424712</v>
+        <v>103.7021259696269</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6077,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9988441971135091</v>
+        <v>0.9987547279066713</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6092,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>155.4521116681554</v>
+        <v>152.067441938724</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9759294335446684</v>
+        <v>0.9756519490025021</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6247,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>150.5232479091179</v>
+        <v>146.93999735658</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6390,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9990493724217221</v>
+        <v>0.9991180894361738</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>49.53030300744724</v>
+        <v>50.07886032858352</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9953456572426925</v>
+        <v>0.9956115633837918</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6551,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>218.154807922109</v>
+        <v>211.6890462537904</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6688,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9920026772661671</v>
+        <v>0.9918749721323202</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6703,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>46.5507191450684</v>
+        <v>47.20330509183603</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6855,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9883975160157953</v>
+        <v>0.9887068102021873</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6870,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>71.27352141552643</v>
+        <v>71.87791916013001</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7016,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9932588953013612</v>
+        <v>0.9935617980310273</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7031,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>42.29762623680862</v>
+        <v>42.56545122179832</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7174,7 +7174,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9849556542428116</v>
+        <v>0.9845462819579816</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7189,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>46.26581859877967</v>
+        <v>46.42592258637463</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7326,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9867888699935576</v>
+        <v>0.9856819410526972</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>245.4440967171846</v>
+        <v>246.377634387146</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7493,7 +7493,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9903393682199577</v>
+        <v>0.9904135041217081</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7508,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>40.34163944160544</v>
+        <v>41.87773069272272</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7642,7 +7642,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9836387888140428</v>
+        <v>0.9842057809700892</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7657,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>68.83786709950314</v>
+        <v>67.24313104258957</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9958793422902663</v>
+        <v>0.9959811528177563</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>112.4460728722364</v>
+        <v>112.719767246757</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7940,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9957177804402281</v>
+        <v>0.9959815573755116</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7955,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>61.69209687061467</v>
+        <v>60.63387496171716</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8089,7 +8089,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.997096380921458</v>
+        <v>0.9970522177100352</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8104,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>131.1352466047664</v>
+        <v>127.9700978152929</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8244,7 +8244,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9568796686343308</v>
+        <v>0.9574684533867159</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8259,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>58.34130893348112</v>
+        <v>59.21108064695227</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8393,7 +8393,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9994604571911022</v>
+        <v>0.9995004001412868</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>49.93307468440761</v>
+        <v>50.39351341323889</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8554,7 +8554,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9870967378001176</v>
+        <v>0.9875535425810718</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8569,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.60183323578192</v>
+        <v>68.49644567468567</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8700,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9848959247574407</v>
+        <v>0.9851686405425311</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8715,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>131.6505740265976</v>
+        <v>125.1220310609906</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8861,7 +8861,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9973415444180954</v>
+        <v>0.9975303083716212</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>55.00607079814284</v>
+        <v>55.0796017611236</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9028,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9861318348360936</v>
+        <v>0.985965649935109</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9043,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>53.56880225837396</v>
+        <v>53.49249105958347</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9956167868251209</v>
+        <v>0.9958828741975279</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.6889956112192</v>
+        <v>79.74040769827282</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9768289232329689</v>
+        <v>0.97724511329579</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>122.1358644100359</v>
+        <v>119.3599811326724</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9976589818645665</v>
+        <v>0.9977562613616637</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1627,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>43.50286696038276</v>
+        <v>44.21400151696369</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1779,7 +1779,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9871784439327956</v>
+        <v>0.9874404976626741</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1794,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>68.16008718906072</v>
+        <v>67.21442250157197</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1934,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9975091299982602</v>
+        <v>0.9975555087014257</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>75.60954606413907</v>
+        <v>76.17708311947506</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9948351240211475</v>
+        <v>0.9944580809031157</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2101,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>45.08618391407911</v>
+        <v>45.51775684839794</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9786874230590064</v>
+        <v>0.9783015259470268</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2256,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>92.55026329186501</v>
+        <v>94.65115021452998</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2390,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9944144552714317</v>
+        <v>0.9943901150318213</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>77.70659408482862</v>
+        <v>79.9634677601517</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2533,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9969998043703318</v>
+        <v>0.9966989129654142</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>100.7074885258383</v>
+        <v>102.4824955714679</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2691,7 +2691,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9804300051340665</v>
+        <v>0.9808750429964495</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>62.41962066050792</v>
+        <v>62.60785491387652</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2837,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9887691959205327</v>
+        <v>0.9887361315203089</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>72.66858785268751</v>
+        <v>73.8470346222371</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2986,7 +2986,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9569000257463386</v>
+        <v>0.9573781273566884</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>46.47512021063795</v>
+        <v>46.41825125453533</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3135,7 +3135,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9700721471892919</v>
+        <v>0.9708587745656185</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>41.38486181472279</v>
+        <v>40.34573269429207</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3278,7 +3278,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9992678951251014</v>
+        <v>0.9992519970571494</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3293,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>109.6538820201513</v>
+        <v>110.6936206139906</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3433,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.99575233956245</v>
+        <v>0.995462150411704</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>56.11180604785568</v>
+        <v>56.633388254042</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9907887085295513</v>
+        <v>0.9913131536125881</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>82.25592580061443</v>
+        <v>81.67681819348097</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3755,7 +3755,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9932060808392745</v>
+        <v>0.993497064925871</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>57.24250150978161</v>
+        <v>56.32709455333115</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9963043351414402</v>
+        <v>0.9963227421178817</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3925,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>70.06087624800377</v>
+        <v>70.18651428017009</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4068,7 +4068,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9572127595833803</v>
+        <v>0.9583437482952816</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>86.0318937555506</v>
+        <v>88.11202570733167</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4223,7 +4223,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9947254321229813</v>
+        <v>0.994956718811594</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>31.96168830003048</v>
+        <v>30.14055091378011</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4390,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9982277732500558</v>
+        <v>0.9981046083826205</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>71.30310794999545</v>
+        <v>71.49044147089498</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4548,7 +4548,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9868457680641668</v>
+        <v>0.9859349380611215</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>147.0210260161025</v>
+        <v>147.4247005152571</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4700,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9776527032458378</v>
+        <v>0.9778516789006877</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4715,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>92.68744061139066</v>
+        <v>91.15657538926484</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4861,7 +4861,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9658404169780447</v>
+        <v>0.9682174222372261</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>56.37751728681854</v>
+        <v>56.78539107951575</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5025,7 +5025,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9982127896051615</v>
+        <v>0.9981780363414664</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5040,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>75.86275320899992</v>
+        <v>76.15222338917017</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5183,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9878486871646538</v>
+        <v>0.9877456150626008</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5198,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>44.83441622106736</v>
+        <v>45.41307363549326</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5335,7 +5335,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9611684775161248</v>
+        <v>0.9617224865278948</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5350,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>51.53073739271579</v>
+        <v>50.7188732688692</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5481,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9813730327585477</v>
+        <v>0.9830242866449501</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5496,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>81.97619331223024</v>
+        <v>81.54565027017473</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5615,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.987782916520629</v>
+        <v>0.9880654013843799</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5630,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>42.70385350443818</v>
+        <v>43.76333980010446</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5758,7 +5758,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9977466696715517</v>
+        <v>0.9976229775858731</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5773,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>67.83916420666286</v>
+        <v>69.09250612375264</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5913,7 +5913,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9788642806756274</v>
+        <v>0.9780440728051429</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>103.7021259696269</v>
+        <v>106.9721925506822</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6077,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9987547279066713</v>
+        <v>0.9986667975999779</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6092,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>152.067441938724</v>
+        <v>149.6096617937131</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9756519490025021</v>
+        <v>0.975473832876232</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6247,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>146.93999735658</v>
+        <v>144.232686622967</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6390,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9991180894361738</v>
+        <v>0.9991809838303787</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>50.07886032858352</v>
+        <v>50.61972455966556</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9956115633837918</v>
+        <v>0.9958313351495367</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6551,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>211.6890462537904</v>
+        <v>206.3693505983618</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6688,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9918749721323202</v>
+        <v>0.9917698859527712</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6703,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>47.20330509183603</v>
+        <v>47.54664037943387</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6855,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9887068102021873</v>
+        <v>0.9890773467709769</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6870,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>71.87791916013001</v>
+        <v>72.66880790470459</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7016,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9935617980310273</v>
+        <v>0.9938372219405129</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7031,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>42.56545122179832</v>
+        <v>42.89126622958461</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7174,7 +7174,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9845462819579816</v>
+        <v>0.9841998384821075</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7189,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>46.42592258637463</v>
+        <v>46.6367507481364</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7326,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9856819410526972</v>
+        <v>0.9846036822463791</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>246.377634387146</v>
+        <v>247.5609755090267</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7493,7 +7493,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9904135041217081</v>
+        <v>0.9906157135020951</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7508,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>41.87773069272272</v>
+        <v>42.96570369036044</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7642,7 +7642,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9842057809700892</v>
+        <v>0.9847148648782916</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7657,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>67.24313104258957</v>
+        <v>65.99655107378548</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9959811528177563</v>
+        <v>0.9959896271931804</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>112.719767246757</v>
+        <v>113.1407062814413</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7940,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9959815573755116</v>
+        <v>0.9962258216640011</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7955,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>60.63387496171716</v>
+        <v>59.99164415423365</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8089,7 +8089,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9970522177100352</v>
+        <v>0.9970363818710245</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8104,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>127.9700978152929</v>
+        <v>125.2362035242721</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8244,7 +8244,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9574684533867159</v>
+        <v>0.9580458929191898</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8259,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>59.21108064695227</v>
+        <v>58.94911831978069</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8393,7 +8393,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9995004001412868</v>
+        <v>0.9995283408275862</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>50.39351341323889</v>
+        <v>50.96086804376299</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8554,7 +8554,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9875535425810718</v>
+        <v>0.9879801748761607</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8569,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.49644567468567</v>
+        <v>68.41788049300932</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8700,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9851686405425311</v>
+        <v>0.9854575088762542</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8715,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>125.1220310609906</v>
+        <v>119.7075193260444</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8861,7 +8861,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9975303083716212</v>
+        <v>0.9976992117027358</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>55.0796017611236</v>
+        <v>55.37382774608358</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9028,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.985965649935109</v>
+        <v>0.9859663832044467</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9043,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>53.49249105958347</v>
+        <v>53.47988247055819</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9958828741975279</v>
+        <v>0.9962561032637089</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.74040769827282</v>
+        <v>79.68690096747055</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.97724511329579</v>
+        <v>0.9779959739321178</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>119.3599811326724</v>
+        <v>117.3276600657533</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9977562613616637</v>
+        <v>0.9979341944543674</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1627,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>44.21400151696369</v>
+        <v>44.92161701706635</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1779,7 +1779,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9874404976626741</v>
+        <v>0.9883291979869279</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1794,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>67.21442250157197</v>
+        <v>66.6436263683392</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1934,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9975555087014257</v>
+        <v>0.9976237781006467</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>76.17708311947506</v>
+        <v>76.95175317440783</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9944580809031157</v>
+        <v>0.9937694431627402</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2101,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>45.51775684839794</v>
+        <v>45.96629518941617</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9783015259470268</v>
+        <v>0.9779532903028914</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2256,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>94.65115021452998</v>
+        <v>96.73382121921031</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2390,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9943901150318213</v>
+        <v>0.9941496144409031</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>79.9634677601517</v>
+        <v>82.01641589344413</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2533,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9966989129654142</v>
+        <v>0.9960555823470385</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>102.4824955714679</v>
+        <v>104.1504554645754</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2691,7 +2691,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9808750429964495</v>
+        <v>0.9818005139458686</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>62.60785491387652</v>
+        <v>62.94045096216473</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2837,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9887361315203089</v>
+        <v>0.9883828681641461</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>73.8470346222371</v>
+        <v>75.78431079052058</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2986,7 +2986,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9573781273566884</v>
+        <v>0.9583888533238005</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>46.41825125453533</v>
+        <v>46.41290839852728</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3135,7 +3135,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9708587745656185</v>
+        <v>0.9725151762850611</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>40.34573269429207</v>
+        <v>39.53672130971096</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3278,7 +3278,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9992519970571494</v>
+        <v>0.9990509527578527</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3293,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>110.6936206139906</v>
+        <v>111.7922512841441</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3433,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.995462150411704</v>
+        <v>0.9949736993735776</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>56.633388254042</v>
+        <v>57.21139699830854</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9913131536125881</v>
+        <v>0.9916962838824492</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>81.67681819348097</v>
+        <v>81.38375569194662</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3755,7 +3755,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.993497064925871</v>
+        <v>0.9927681481358888</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>56.32709455333115</v>
+        <v>55.30228286229706</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9963227421178817</v>
+        <v>0.9961731664044314</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3925,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>70.18651428017009</v>
+        <v>70.17289744950396</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4068,7 +4068,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9583437482952816</v>
+        <v>0.960448863320882</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>88.11202570733167</v>
+        <v>89.99326045833379</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4223,7 +4223,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.994956718811594</v>
+        <v>0.9953138455445472</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>30.14055091378011</v>
+        <v>28.48383058009419</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4390,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9981046083826205</v>
+        <v>0.9978040150717808</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>71.49044147089498</v>
+        <v>71.68019807527314</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4548,7 +4548,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9859349380611215</v>
+        <v>0.9844189351259622</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>147.4247005152571</v>
+        <v>147.9330672607322</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4700,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9778516789006877</v>
+        <v>0.9782872776587437</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4715,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>91.15657538926484</v>
+        <v>91.21718514859243</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4861,7 +4861,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9682174222372261</v>
+        <v>0.9724431830258595</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>56.78539107951575</v>
+        <v>57.45655776727388</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5025,7 +5025,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9981780363414664</v>
+        <v>0.9980947474701434</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5040,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>76.15222338917017</v>
+        <v>76.75682193733979</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5183,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9877456150626008</v>
+        <v>0.9876585997361665</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5198,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>45.41307363549326</v>
+        <v>46.99530543117213</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5335,7 +5335,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9617224865278948</v>
+        <v>0.9627410271018897</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5350,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>50.7188732688692</v>
+        <v>50.14118402071473</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5481,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9830242866449501</v>
+        <v>0.9856742923042739</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5496,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>81.54565027017473</v>
+        <v>82.13412851050992</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5615,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9880654013843799</v>
+        <v>0.988563564566162</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5630,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>43.76333980010446</v>
+        <v>45.4784084269094</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5758,7 +5758,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9976229775858731</v>
+        <v>0.9973703655328113</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5773,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>69.09250612375264</v>
+        <v>70.5247670948788</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5913,7 +5913,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9780440728051429</v>
+        <v>0.9766248088304881</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>106.9721925506822</v>
+        <v>109.8707115483722</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6077,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9986667975999779</v>
+        <v>0.9984459427958846</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6092,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>149.6096617937131</v>
+        <v>147.751818412073</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.975473832876232</v>
+        <v>0.9752919743497678</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6247,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>144.232686622967</v>
+        <v>142.1055054021775</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6390,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9991809838303787</v>
+        <v>0.999283289818193</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>50.61972455966556</v>
+        <v>51.2921641265488</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9958313351495367</v>
+        <v>0.9964019020707312</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6551,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>206.3693505983618</v>
+        <v>201.9837114233946</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6688,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9917698859527712</v>
+        <v>0.9914320378604361</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6703,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>47.54664037943387</v>
+        <v>48.30607045961691</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6855,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9890773467709769</v>
+        <v>0.9899040288045265</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6870,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>72.66880790470459</v>
+        <v>73.0159801245001</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7016,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9938372219405129</v>
+        <v>0.9942417090063096</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7031,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>42.89126622958461</v>
+        <v>43.20287572984153</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7174,7 +7174,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9841998384821075</v>
+        <v>0.9835148281753474</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7189,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>46.6367507481364</v>
+        <v>46.78258729750421</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7326,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9846036822463791</v>
+        <v>0.9827249627723272</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>247.5609755090267</v>
+        <v>249.1732173202674</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7493,7 +7493,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9906157135020951</v>
+        <v>0.9912409047483769</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7508,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>42.96570369036044</v>
+        <v>44.62604362835724</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7642,7 +7642,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9847148648782916</v>
+        <v>0.9850537308469972</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7657,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>65.99655107378548</v>
+        <v>64.84423806646618</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9959896271931804</v>
+        <v>0.9956823553308761</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>113.1407062814413</v>
+        <v>113.3206476845912</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7940,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9962258216640011</v>
+        <v>0.9966905193188345</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7955,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>59.99164415423365</v>
+        <v>59.41042870882634</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8089,7 +8089,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9970363818710245</v>
+        <v>0.9970466451835267</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8104,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>125.2362035242721</v>
+        <v>122.9281271272319</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8244,7 +8244,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9580458929191898</v>
+        <v>0.9592231132220336</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8259,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>58.94911831978069</v>
+        <v>58.46725112118231</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8393,7 +8393,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9995283408275862</v>
+        <v>0.9995516106426531</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>50.96086804376299</v>
+        <v>51.46216549348521</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8554,7 +8554,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9879801748761607</v>
+        <v>0.9888003123824991</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8569,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.41788049300932</v>
+        <v>68.4984063837351</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8700,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9854575088762542</v>
+        <v>0.9861383875439578</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8715,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>119.7075193260444</v>
+        <v>115.1344980513053</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8861,7 +8861,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9976992117027358</v>
+        <v>0.9979269115073641</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>55.37382774608358</v>
+        <v>55.82280669837947</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9028,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9859663832044467</v>
+        <v>0.9866545823798558</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9043,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>53.47988247055819</v>
+        <v>53.76616942147869</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9962561032637089</v>
+        <v>0.99639981270121</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.68690096747055</v>
+        <v>79.36883351458302</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9779959739321178</v>
+        <v>0.9783408356404736</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>117.3276600657533</v>
+        <v>115.6668824241589</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9979341944543674</v>
+        <v>0.9980738756618225</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1627,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>44.92161701706635</v>
+        <v>45.60508276747816</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1779,7 +1779,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9883291979869279</v>
+        <v>0.9887259536014282</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1794,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>66.6436263683392</v>
+        <v>65.88375946007307</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1934,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9976237781006467</v>
+        <v>0.9975698272714156</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>76.95175317440783</v>
+        <v>77.89927538708936</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9937694431627402</v>
+        <v>0.9933532639145159</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2101,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>45.96629518941617</v>
+        <v>46.36815109339954</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9779532903028914</v>
+        <v>0.9779908504764631</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2256,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>96.73382121921031</v>
+        <v>98.93020684161714</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2390,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9941496144409031</v>
+        <v>0.9940204095559445</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>82.01641589344413</v>
+        <v>84.10209283617726</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2533,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9960555823470385</v>
+        <v>0.9956865611113125</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>104.1504554645754</v>
+        <v>105.903178204093</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2691,7 +2691,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9818005139458686</v>
+        <v>0.9823194274294949</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>62.94045096216473</v>
+        <v>63.44253385644036</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2837,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9883828681641461</v>
+        <v>0.9882419897318684</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>75.78431079052058</v>
+        <v>77.62765115913646</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2986,7 +2986,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9583888533238005</v>
+        <v>0.9588950955033096</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>46.41290839852728</v>
+        <v>46.3221417929443</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3135,7 +3135,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9725151762850611</v>
+        <v>0.9732902790303636</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>39.53672130971096</v>
+        <v>38.68327616354468</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3278,7 +3278,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9990509527578527</v>
+        <v>0.998898035054505</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3293,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>111.7922512841441</v>
+        <v>112.9622455343652</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3433,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9949736993735776</v>
+        <v>0.9946891951859207</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>57.21139699830854</v>
+        <v>57.87919764909059</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9916962838824492</v>
+        <v>0.9916302015940975</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>81.38375569194662</v>
+        <v>81.18160604083641</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3755,7 +3755,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9927681481358888</v>
+        <v>0.9925967876006205</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>55.30228286229706</v>
+        <v>54.98961146486194</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9961731664044314</v>
+        <v>0.9960874556094305</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3925,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>70.17289744950396</v>
+        <v>69.86191493656678</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4068,7 +4068,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.960448863320882</v>
+        <v>0.9614335135315667</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>89.99326045833379</v>
+        <v>91.62169055187526</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4223,7 +4223,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9953138455445472</v>
+        <v>0.9955157140195968</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>28.48383058009419</v>
+        <v>26.96832925128228</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4390,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9978040150717808</v>
+        <v>0.9976295254841545</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>71.68019807527314</v>
+        <v>71.99937122520309</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4548,7 +4548,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9844189351259622</v>
+        <v>0.9836675198712669</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>147.9330672607322</v>
+        <v>147.7320416729307</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4700,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9782872776587437</v>
+        <v>0.9786214328661353</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4715,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>91.21718514859243</v>
+        <v>91.44411713823168</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4861,7 +4861,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9724431830258595</v>
+        <v>0.9743840237716306</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>57.45655776727388</v>
+        <v>58.23502343087345</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5025,7 +5025,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9980947474701434</v>
+        <v>0.9978778459852863</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5040,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>76.75682193733979</v>
+        <v>77.31966998903565</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5183,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9876585997361665</v>
+        <v>0.9875786720704272</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5198,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>46.99530543117213</v>
+        <v>47.73716941392148</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5335,7 +5335,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9627410271018897</v>
+        <v>0.9631916468239647</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5350,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>50.14118402071473</v>
+        <v>49.95014784255513</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5481,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9856742923042739</v>
+        <v>0.9867339174585535</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5496,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>82.13412851050992</v>
+        <v>82.69224742824233</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5615,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.988563564566162</v>
+        <v>0.9888394504655751</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5630,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>45.4784084269094</v>
+        <v>46.9014821345564</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5758,7 +5758,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9973703655328113</v>
+        <v>0.9970923724841875</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5773,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>70.5247670948788</v>
+        <v>71.47557933056561</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5913,7 +5913,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9766248088304881</v>
+        <v>0.9761363512446583</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>109.8707115483722</v>
+        <v>112.7200713538832</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6077,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9984459427958846</v>
+        <v>0.99828597397342</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6092,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>147.751818412073</v>
+        <v>146.4990964004295</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9752919743497678</v>
+        <v>0.9752228442308207</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6247,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>142.1055054021775</v>
+        <v>140.2725727737599</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6390,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.999283289818193</v>
+        <v>0.9993302725209955</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>51.2921641265488</v>
+        <v>51.91954128732564</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9964019020707312</v>
+        <v>0.9965543045978469</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6551,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>201.9837114233946</v>
+        <v>198.1602543686041</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6688,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9914320378604361</v>
+        <v>0.9912328621190282</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6703,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>48.30607045961691</v>
+        <v>49.01237140757555</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6855,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9899040288045265</v>
+        <v>0.9902367991820611</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6870,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>73.0159801245001</v>
+        <v>73.0077173937769</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7016,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9942417090063096</v>
+        <v>0.9943839396650878</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7031,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>43.20287572984153</v>
+        <v>43.58163439354158</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7174,7 +7174,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9835148281753474</v>
+        <v>0.9831771374509746</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7189,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>46.78258729750421</v>
+        <v>46.96321726262431</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7326,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9827249627723272</v>
+        <v>0.9817035868639626</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>249.1732173202674</v>
+        <v>250.6160672553839</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7493,7 +7493,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9912409047483769</v>
+        <v>0.9914818211195379</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7508,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>44.62604362835724</v>
+        <v>46.77148566179189</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7642,7 +7642,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9850537308469972</v>
+        <v>0.9847924136760873</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7657,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>64.84423806646618</v>
+        <v>63.82667094262068</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9956823553308761</v>
+        <v>0.9956845164247459</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>113.3206476845912</v>
+        <v>113.7484639658705</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7940,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9966905193188345</v>
+        <v>0.996845343850439</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7955,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>59.41042870882634</v>
+        <v>59.10262410175568</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8089,7 +8089,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9970466451835267</v>
+        <v>0.9970537390398714</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8104,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>122.9281271272319</v>
+        <v>120.8853148115458</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8244,7 +8244,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9592231132220336</v>
+        <v>0.9598058274045673</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8259,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>58.46725112118231</v>
+        <v>58.86515619067742</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8393,7 +8393,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9995516106426531</v>
+        <v>0.9995107634333782</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>51.46216549348521</v>
+        <v>51.96006605321919</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8554,7 +8554,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9888003123824991</v>
+        <v>0.9891713282371933</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8569,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.4984063837351</v>
+        <v>68.51242165701765</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8700,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9861383875439578</v>
+        <v>0.9864097368721714</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8715,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>115.1344980513053</v>
+        <v>110.9024642004374</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8861,7 +8861,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9979269115073641</v>
+        <v>0.9980659919229932</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>55.82280669837947</v>
+        <v>56.32900239945652</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9028,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9866545823798558</v>
+        <v>0.9869766975837116</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9043,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>53.76616942147869</v>
+        <v>53.77903176505374</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="241">
   <si>
     <t>Province_State</t>
   </si>
@@ -734,9 +734,6 @@
   </si>
   <si>
     <t>5/7/2020 05:00</t>
-  </si>
-  <si>
-    <t>5/7/2020 02:59</t>
   </si>
   <si>
     <t>5/7/2020 04:28</t>
@@ -1317,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.99639981270121</v>
+        <v>0.9965382893633011</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.36883351458302</v>
+        <v>78.81365920281061</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9783408356404736</v>
+        <v>0.9787549023921814</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>115.6668824241589</v>
+        <v>114.2121852525984</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9980738756618225</v>
+        <v>0.9982033017635362</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>45.60508276747816</v>
+        <v>46.28509305453065</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1779,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9887259536014282</v>
+        <v>0.9891267789285254</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>65.88375946007307</v>
+        <v>66.10621598104497</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9975698272714156</v>
+        <v>0.997577519438941</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>77.89927538708936</v>
+        <v>78.86741277824379</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9933532639145159</v>
+        <v>0.9929116252161938</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>46.36815109339954</v>
+        <v>46.72160549283394</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9779908504764631</v>
+        <v>0.9779134728649944</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>98.93020684161714</v>
+        <v>101.2874415288392</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9940204095559445</v>
+        <v>0.9938741607775684</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>84.10209283617726</v>
+        <v>86.23083899858663</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9956865611113125</v>
+        <v>0.9953850240448125</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>105.903178204093</v>
+        <v>107.8531851991648</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2691,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9823194274294949</v>
+        <v>0.9827780379083321</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>63.44253385644036</v>
+        <v>64.35605956967487</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2837,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9882419897318684</v>
+        <v>0.9881136527166992</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>77.62765115913646</v>
+        <v>79.40935118530578</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2986,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9588950955033096</v>
+        <v>0.9594070419149622</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>46.3221417929443</v>
+        <v>46.90897020734278</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3135,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9732902790303636</v>
+        <v>0.973994686283121</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>38.68327616354468</v>
+        <v>38.11755192541769</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3278,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.998898035054505</v>
+        <v>0.9986448898150312</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>112.9622455343652</v>
+        <v>114.0888850238982</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9946891951859207</v>
+        <v>0.9943699447717806</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>57.87919764909059</v>
+        <v>58.53845920524645</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3594,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9916302015940975</v>
+        <v>0.9914689477913133</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>81.18160604083641</v>
+        <v>81.25850704325208</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3755,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9925967876006205</v>
+        <v>0.9920361933217235</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.98961146486194</v>
+        <v>54.50114747730632</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3910,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9960874556094305</v>
+        <v>0.9959273066376639</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>69.86191493656678</v>
+        <v>71.51681959083707</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4068,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9614335135315667</v>
+        <v>0.9623908573425649</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>91.62169055187526</v>
+        <v>93.36026274654928</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4223,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9955157140195968</v>
+        <v>0.9957248677729627</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>26.96832925128228</v>
+        <v>25.57909603857924</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4390,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9976295254841545</v>
+        <v>0.9976666338893627</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>71.99937122520309</v>
+        <v>72.45818230979189</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4548,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9836675198712669</v>
+        <v>0.982884724421444</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>147.7320416729307</v>
+        <v>147.9095430290518</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4700,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9786214328661353</v>
+        <v>0.9789325709344342</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>91.44411713823168</v>
+        <v>91.78273688973069</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4861,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9743840237716306</v>
+        <v>0.9762634345097025</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>58.23502343087345</v>
+        <v>59.03648732407513</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5025,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9978778459852863</v>
+        <v>0.9977005811003945</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>77.31966998903565</v>
+        <v>77.75628599754394</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5183,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9875786720704272</v>
+        <v>0.9875060855542689</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>47.73716941392148</v>
+        <v>48.35749235423435</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5335,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9631916468239647</v>
+        <v>0.9636010286711643</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>49.95014784255513</v>
+        <v>49.88210530522682</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9867339174585535</v>
+        <v>0.9875233720699205</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>82.69224742824233</v>
+        <v>83.35164989584834</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5615,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9888394504655751</v>
+        <v>0.9889851093320923</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>46.9014821345564</v>
+        <v>48.67373425608793</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5758,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9970923724841875</v>
+        <v>0.9968042380397916</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>71.47557933056561</v>
+        <v>73.36306108926054</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5913,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9761363512446583</v>
+        <v>0.9756919216245379</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>112.7200713538832</v>
+        <v>115.3523212501047</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6077,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.99828597397342</v>
+        <v>0.9980103495332504</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>146.4990964004295</v>
+        <v>145.6841010363457</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6232,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9752228442308207</v>
+        <v>0.9751772533515783</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>140.2725727737599</v>
+        <v>138.7328142865252</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9993302725209955</v>
+        <v>0.9993046808457805</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>51.91954128732564</v>
+        <v>52.59992020861302</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6536,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9965543045978469</v>
+        <v>0.9967213388920206</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>198.1602543686041</v>
+        <v>194.7288559038405</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6688,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9912328621190282</v>
+        <v>0.991019788415649</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>49.01237140757555</v>
+        <v>49.61369780180905</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9902367991820611</v>
+        <v>0.990539582258081</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>73.0077173937769</v>
+        <v>74.2999016993367</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9943839396650878</v>
+        <v>0.9944684275010597</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>43.58163439354158</v>
+        <v>43.95806671828955</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7174,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9831771374509746</v>
+        <v>0.9827928272391471</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>46.96321726262431</v>
+        <v>47.21415442153497</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9817035868639626</v>
+        <v>0.9806574147886857</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>250.6160672553839</v>
+        <v>251.5397464202834</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7493,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9914818211195379</v>
+        <v>0.9916590039061325</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>46.77148566179189</v>
+        <v>48.68171712108794</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7642,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9847924136760873</v>
+        <v>0.9844351206680514</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>63.82667094262068</v>
+        <v>63.00700050525339</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9956845164247459</v>
+        <v>0.9957035195182986</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>113.7484639658705</v>
+        <v>114.1671455687235</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.996845343850439</v>
+        <v>0.9970036273686185</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>59.10262410175568</v>
+        <v>58.9077623517381</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8089,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9970537390398714</v>
+        <v>0.9970368073055993</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>120.8853148115458</v>
+        <v>118.6590965884461</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8244,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9598058274045673</v>
+        <v>0.9603957128707291</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>58.86515619067742</v>
+        <v>59.46213385332126</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8393,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9995107634333782</v>
+        <v>0.9994855556215584</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>51.96006605321919</v>
+        <v>52.48431509601517</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8554,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9891713282371933</v>
+        <v>0.9895239318029423</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.51242165701765</v>
+        <v>68.45388382664406</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8578,10 +8575,10 @@
         <v>209</v>
       </c>
       <c r="W49">
-        <v>16231</v>
+        <v>17246</v>
       </c>
       <c r="X49">
-        <v>214449</v>
+        <v>239042</v>
       </c>
       <c r="Z49">
         <v>393</v>
@@ -8593,16 +8590,16 @@
         <v>213</v>
       </c>
       <c r="AH49" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AI49">
         <v>891</v>
       </c>
       <c r="AK49">
-        <v>230680</v>
+        <v>256288</v>
       </c>
       <c r="AL49">
-        <v>230680</v>
+        <v>256288</v>
       </c>
       <c r="AM49">
         <v>21</v>
@@ -8611,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="AO49">
-        <v>5541</v>
+        <v>5773</v>
       </c>
       <c r="AP49">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="AQ49">
-        <v>5867</v>
+        <v>6016</v>
       </c>
       <c r="AR49" t="s">
         <v>108</v>
@@ -8626,13 +8623,13 @@
         <v>2759.50955787437</v>
       </c>
       <c r="AT49">
-        <v>0.002131481033285694</v>
+        <v>0.00226477246627103</v>
       </c>
       <c r="AU49">
-        <v>0.0281617876968199</v>
+        <v>0.0313913800233306</v>
       </c>
       <c r="AV49">
-        <v>7.04</v>
+        <v>6.73</v>
       </c>
       <c r="AW49">
         <v>0.0302932687301056</v>
@@ -8650,10 +8647,10 @@
         <v>2.956648579205203</v>
       </c>
       <c r="BB49">
-        <v>5.331324025415407</v>
+        <v>5.378474213775408</v>
       </c>
       <c r="BC49">
-        <v>4.21034527775002</v>
+        <v>4.236688381764615</v>
       </c>
       <c r="BD49">
         <v>2.594392550375427</v>
@@ -8700,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9864097368721714</v>
+        <v>0.9865237143489075</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>110.9024642004374</v>
+        <v>107.3672858518564</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8861,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9980659919229932</v>
+        <v>0.9981656989982993</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>56.32900239945652</v>
+        <v>56.80479658776148</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9869766975837116</v>
+        <v>0.9872465388972257</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>53.77903176505374</v>
+        <v>54.10737763704782</v>
       </c>
       <c r="U52">
         <v>20200508</v>
@@ -9070,7 +9067,7 @@
         <v>214</v>
       </c>
       <c r="AH52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI52">
         <v>7</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="242">
   <si>
     <t>Province_State</t>
   </si>
@@ -679,13 +679,16 @@
     <t>5/8/2020 14:00</t>
   </si>
   <si>
+    <t>5/6/2020 00:00</t>
+  </si>
+  <si>
+    <t>5/7/2020 20:30</t>
+  </si>
+  <si>
+    <t>5/7/2020 18:00</t>
+  </si>
+  <si>
     <t>5/7/2020 00:00</t>
-  </si>
-  <si>
-    <t>5/7/2020 20:30</t>
-  </si>
-  <si>
-    <t>5/7/2020 18:00</t>
   </si>
   <si>
     <t>5/8/2020 10:10</t>
@@ -1314,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9965382893633011</v>
+        <v>0.996747395294044</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1329,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>78.81365920281061</v>
+        <v>78.57649066609184</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1460,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9787549023921814</v>
+        <v>0.9791431800372605</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1475,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>114.2121852525984</v>
+        <v>112.8804488734462</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1609,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9982033017635362</v>
+        <v>0.9983181246497185</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1624,7 +1627,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>46.28509305453065</v>
+        <v>46.89187562943636</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1776,7 +1779,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9891267789285254</v>
+        <v>0.9894563687652957</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1791,7 +1794,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>66.10621598104497</v>
+        <v>66.36779143418461</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1931,7 +1934,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.997577519438941</v>
+        <v>0.99762062557299</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1946,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>78.86741277824379</v>
+        <v>79.7879066163663</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2083,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9929116252161938</v>
+        <v>0.9924860863331473</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2098,7 +2101,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>46.72160549283394</v>
+        <v>46.87736392261064</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2238,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9779134728649944</v>
+        <v>0.9779049831295314</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2253,7 +2256,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>101.2874415288392</v>
+        <v>103.4713391190591</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2387,7 +2390,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9938741607775684</v>
+        <v>0.9936942877238659</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2402,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>86.23083899858663</v>
+        <v>88.22237552485085</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2530,7 +2533,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9953850240448125</v>
+        <v>0.995037533984339</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2545,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>107.8531851991648</v>
+        <v>109.672869842227</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2575,7 +2578,7 @@
         <v>215</v>
       </c>
       <c r="AH10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AI10">
         <v>304</v>
@@ -2688,7 +2691,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9827780379083321</v>
+        <v>0.9831926160624163</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2703,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>64.35605956967487</v>
+        <v>65.88229483630663</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2727,7 +2730,7 @@
         <v>214</v>
       </c>
       <c r="AH11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AI11">
         <v>1738</v>
@@ -2834,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9881136527166992</v>
+        <v>0.988161318544211</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2849,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>79.40935118530578</v>
+        <v>81.52302693611693</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2873,7 +2876,7 @@
         <v>216</v>
       </c>
       <c r="AH12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AI12">
         <v>1377</v>
@@ -2983,7 +2986,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9594070419149622</v>
+        <v>0.959926510271452</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2998,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>46.90897020734278</v>
+        <v>47.57759027638139</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3022,7 +3025,7 @@
         <v>213</v>
       </c>
       <c r="AH13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AI13">
         <v>17</v>
@@ -3132,7 +3135,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.973994686283121</v>
+        <v>0.9747048553208648</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3147,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>38.11755192541769</v>
+        <v>37.59508495876769</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3174,7 +3177,7 @@
         <v>213</v>
       </c>
       <c r="AH14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI14">
         <v>67</v>
@@ -3275,7 +3278,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9986448898150312</v>
+        <v>0.9984126827285815</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3290,7 +3293,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>114.0888850238982</v>
+        <v>115.2503310769496</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3430,7 +3433,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9943699447717806</v>
+        <v>0.9940966837718677</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3445,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>58.53845920524645</v>
+        <v>59.24231180365145</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3478,7 +3481,7 @@
         <v>215</v>
       </c>
       <c r="AH16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AI16">
         <v>1447</v>
@@ -3591,7 +3594,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9914689477913133</v>
+        <v>0.9912094283872851</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3606,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>81.25850704325208</v>
+        <v>81.38953808501924</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3636,7 +3639,7 @@
         <v>215</v>
       </c>
       <c r="AH17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AI17">
         <v>243</v>
@@ -3752,7 +3755,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9920361933217235</v>
+        <v>0.9914187241560302</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3767,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.50114747730632</v>
+        <v>54.43065436551554</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3797,7 +3800,7 @@
         <v>216</v>
       </c>
       <c r="AH18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI18">
         <v>152</v>
@@ -3907,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9959273066376639</v>
+        <v>0.9956361886319702</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3922,7 +3925,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>71.51681959083707</v>
+        <v>72.65478887413386</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -3955,7 +3958,7 @@
         <v>216</v>
       </c>
       <c r="AH19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI19">
         <v>294</v>
@@ -4065,7 +4068,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9623908573425649</v>
+        <v>0.9633077555741539</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4080,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>93.36026274654928</v>
+        <v>95.13901189496913</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4107,7 +4110,7 @@
         <v>213</v>
       </c>
       <c r="AH20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI20">
         <v>2227</v>
@@ -4220,7 +4223,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9957248677729627</v>
+        <v>0.9957770998433091</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4235,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>25.57909603857924</v>
+        <v>28.13892621324975</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4268,7 +4271,7 @@
         <v>213</v>
       </c>
       <c r="AH21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AI21">
         <v>63</v>
@@ -4387,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9976666338893627</v>
+        <v>0.9976293467092112</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4402,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>72.45818230979189</v>
+        <v>72.99571181967589</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4432,7 +4435,7 @@
         <v>216</v>
       </c>
       <c r="AH22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI22">
         <v>1560</v>
@@ -4545,7 +4548,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.982884724421444</v>
+        <v>0.9821418962449538</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4560,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>147.9095430290518</v>
+        <v>148.2183703194861</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4587,7 +4590,7 @@
         <v>216</v>
       </c>
       <c r="AH23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI23">
         <v>4702</v>
@@ -4697,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9789325709344342</v>
+        <v>0.9792872029897546</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4712,7 +4715,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>91.78273688973069</v>
+        <v>92.26449574751905</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4742,7 +4745,7 @@
         <v>215</v>
       </c>
       <c r="AH24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI24">
         <v>4393</v>
@@ -4858,7 +4861,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9762634345097025</v>
+        <v>0.9780719915131844</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4873,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>59.03648732407513</v>
+        <v>59.86904803829663</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -4906,7 +4909,7 @@
         <v>216</v>
       </c>
       <c r="AH25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI25">
         <v>534</v>
@@ -5022,7 +5025,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9977005811003945</v>
+        <v>0.9975461719600778</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5037,7 +5040,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>77.75628599754394</v>
+        <v>78.20738536369466</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5070,7 +5073,7 @@
         <v>216</v>
       </c>
       <c r="AH26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI26">
         <v>409</v>
@@ -5180,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9875060855542689</v>
+        <v>0.9874204283182488</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5195,7 +5198,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>48.35749235423435</v>
+        <v>49.19460383294352</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5219,7 +5222,7 @@
         <v>213</v>
       </c>
       <c r="AH27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI27">
         <v>449</v>
@@ -5332,7 +5335,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9636010286711643</v>
+        <v>0.9639126259446099</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5347,7 +5350,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>49.88210530522682</v>
+        <v>49.91140813731393</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5478,7 +5481,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9875233720699205</v>
+        <v>0.9881174783878346</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5493,7 +5496,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>83.35164989584834</v>
+        <v>84.0217749285912</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5511,7 +5514,7 @@
         <v>217</v>
       </c>
       <c r="AH29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AI29">
         <v>90</v>
@@ -5612,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9889851093320923</v>
+        <v>0.9893945100150933</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5627,7 +5630,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>48.67373425608793</v>
+        <v>50.45128382555852</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5648,7 +5651,7 @@
         <v>217</v>
       </c>
       <c r="AH30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AI30">
         <v>293</v>
@@ -5755,7 +5758,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9968042380397916</v>
+        <v>0.9967753580672489</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5770,7 +5773,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>73.36306108926054</v>
+        <v>75.09248638165371</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5803,7 +5806,7 @@
         <v>213</v>
       </c>
       <c r="AH31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI31">
         <v>114</v>
@@ -5910,7 +5913,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9756919216245379</v>
+        <v>0.9753430127518338</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5925,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>115.3523212501047</v>
+        <v>117.639487031545</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -5958,7 +5961,7 @@
         <v>215</v>
       </c>
       <c r="AH32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI32">
         <v>8952</v>
@@ -6074,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9980103495332504</v>
+        <v>0.9976997150429021</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6089,7 +6092,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>145.6841010363457</v>
+        <v>145.2764309474395</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6116,7 +6119,7 @@
         <v>214</v>
       </c>
       <c r="AH33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI33">
         <v>172</v>
@@ -6229,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9751772533515783</v>
+        <v>0.9751612917544077</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6244,7 +6247,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>138.7328142865252</v>
+        <v>137.6377235646518</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6387,7 +6390,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9993046808457805</v>
+        <v>0.9993495890176426</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6402,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>52.59992020861302</v>
+        <v>53.44043122687519</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6423,7 +6426,7 @@
         <v>213</v>
       </c>
       <c r="AH35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI35">
         <v>527</v>
@@ -6533,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9967213388920206</v>
+        <v>0.9969585227355735</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6548,7 +6551,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>194.7288559038405</v>
+        <v>191.791421875913</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6575,7 +6578,7 @@
         <v>214</v>
       </c>
       <c r="AH36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI36">
         <v>33</v>
@@ -6685,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.991019788415649</v>
+        <v>0.9907912759349491</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6700,7 +6703,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>49.61369780180905</v>
+        <v>50.32872640235216</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6852,7 +6855,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.990539582258081</v>
+        <v>0.9907231252518585</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6867,7 +6870,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>74.2999016993367</v>
+        <v>75.62522934607472</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7013,7 +7016,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9944684275010597</v>
+        <v>0.9945913729046817</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7028,7 +7031,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>43.95806671828955</v>
+        <v>44.3319130033953</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7061,7 +7064,7 @@
         <v>215</v>
       </c>
       <c r="AH39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI39">
         <v>124</v>
@@ -7171,7 +7174,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9827928272391471</v>
+        <v>0.9824381703446213</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7186,7 +7189,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>47.21415442153497</v>
+        <v>47.24682324790665</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7323,7 +7326,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9806574147886857</v>
+        <v>0.9801450778009165</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7338,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>251.5397464202834</v>
+        <v>252.5525403901232</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7371,7 +7374,7 @@
         <v>215</v>
       </c>
       <c r="AH41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AI41">
         <v>399</v>
@@ -7490,7 +7493,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9916590039061325</v>
+        <v>0.9917882085602399</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7505,7 +7508,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>48.68171712108794</v>
+        <v>50.12552353202113</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7529,7 +7532,7 @@
         <v>213</v>
       </c>
       <c r="AH42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI42">
         <v>316</v>
@@ -7639,7 +7642,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9844351206680514</v>
+        <v>0.984205217134659</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7654,7 +7657,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>63.00700050525339</v>
+        <v>62.36043103525211</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7794,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9957035195182986</v>
+        <v>0.9954549211676879</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7809,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>114.1671455687235</v>
+        <v>114.5298913699258</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7937,7 +7940,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9970036273686185</v>
+        <v>0.9971373643566488</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7952,7 +7955,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>58.9077623517381</v>
+        <v>58.85045656928408</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -7976,7 +7979,7 @@
         <v>213</v>
       </c>
       <c r="AH45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI45">
         <v>1004</v>
@@ -8086,7 +8089,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9970368073055993</v>
+        <v>0.997069159156024</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8101,7 +8104,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>118.6590965884461</v>
+        <v>116.9787323427259</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8134,7 +8137,7 @@
         <v>213</v>
       </c>
       <c r="AH46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI46">
         <v>61</v>
@@ -8241,7 +8244,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9603957128707291</v>
+        <v>0.9609589799898817</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8256,7 +8259,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>59.46213385332126</v>
+        <v>60.03101066161728</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8280,7 +8283,7 @@
         <v>213</v>
       </c>
       <c r="AH47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI47">
         <v>53</v>
@@ -8390,7 +8393,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9994855556215584</v>
+        <v>0.9994248895407913</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8405,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>52.48431509601517</v>
+        <v>53.17334123988111</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8441,7 +8444,7 @@
         <v>215</v>
       </c>
       <c r="AH48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI48">
         <v>812</v>
@@ -8551,7 +8554,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9895239318029423</v>
+        <v>0.9898538418145243</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8566,7 +8569,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.45388382664406</v>
+        <v>68.34189297648315</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8697,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9865237143489075</v>
+        <v>0.9869889098357457</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8712,7 +8715,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>107.3672858518564</v>
+        <v>104.438027263836</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8742,7 +8745,7 @@
         <v>214</v>
       </c>
       <c r="AH50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI50">
         <v>51</v>
@@ -8858,7 +8861,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9981656989982993</v>
+        <v>0.9982862539164582</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8873,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>56.80479658776148</v>
+        <v>57.42795656523956</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9025,7 +9028,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9872465388972257</v>
+        <v>0.9874914322888096</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9040,7 +9043,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>54.10737763704782</v>
+        <v>54.83753556487734</v>
       </c>
       <c r="U52">
         <v>20200508</v>
@@ -9067,7 +9070,7 @@
         <v>214</v>
       </c>
       <c r="AH52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI52">
         <v>7</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="241">
   <si>
     <t>Province_State</t>
   </si>
@@ -734,9 +734,6 @@
   </si>
   <si>
     <t>5/7/2020 16:13</t>
-  </si>
-  <si>
-    <t>5/7/2020 05:00</t>
   </si>
   <si>
     <t>5/7/2020 04:28</t>
@@ -1317,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.996747395294044</v>
+        <v>0.9969439201813907</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>78.57649066609184</v>
+        <v>78.55494401860213</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9791431800372605</v>
+        <v>0.9795101956266401</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>112.8804488734462</v>
+        <v>112.5760286398533</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9983181246497185</v>
+        <v>0.9984267364247749</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>46.89187562943636</v>
+        <v>47.55175652658153</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1779,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9894563687652957</v>
+        <v>0.9900257363848901</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>66.36779143418461</v>
+        <v>66.7151129629912</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.99762062557299</v>
+        <v>0.99767044804316</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>79.7879066163663</v>
+        <v>80.66484890066059</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9924860863331473</v>
+        <v>0.9921443052979018</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>46.87736392261064</v>
+        <v>47.07915871331983</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9779049831295314</v>
+        <v>0.9777383956382268</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>103.4713391190591</v>
+        <v>106.1994398116205</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9936942877238659</v>
+        <v>0.9935585124105226</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>88.22237552485085</v>
+        <v>90.4072530216532</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.995037533984339</v>
+        <v>0.9949038610431208</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>109.672869842227</v>
+        <v>111.5247626007665</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2691,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9831926160624163</v>
+        <v>0.9837207748890701</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>65.88229483630663</v>
+        <v>67.6750580961444</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2837,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.988161318544211</v>
+        <v>0.9883052595269493</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>81.52302693611693</v>
+        <v>83.20194986753678</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2986,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.959926510271452</v>
+        <v>0.960458361470738</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>47.57759027638139</v>
+        <v>48.19508874709599</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3135,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9747048553208648</v>
+        <v>0.9753617300694224</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>37.59508495876769</v>
+        <v>37.07533826030506</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3278,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9984126827285815</v>
+        <v>0.9981841089132986</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>115.2503310769496</v>
+        <v>116.6705462057178</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9940966837718677</v>
+        <v>0.9939132801535112</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>59.24231180365145</v>
+        <v>60.02336868546372</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3594,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9912094283872851</v>
+        <v>0.9911534790469498</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>81.38953808501924</v>
+        <v>81.87863072500046</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3755,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9914187241560302</v>
+        <v>0.9906619958299679</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.43065436551554</v>
+        <v>54.17108287687474</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3910,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9956361886319702</v>
+        <v>0.995274269117399</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>72.65478887413386</v>
+        <v>73.74831142326667</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4068,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9633077555741539</v>
+        <v>0.964362607355097</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>95.13901189496913</v>
+        <v>97.84351320774903</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4223,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9957770998433091</v>
+        <v>0.995742453599241</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>28.13892621324975</v>
+        <v>30.24635087288649</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4390,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9976293467092112</v>
+        <v>0.9976233742572819</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>72.99571181967589</v>
+        <v>73.4861920679065</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4548,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9821418962449538</v>
+        <v>0.9814655654022825</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>148.2183703194861</v>
+        <v>148.5530418673152</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4700,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9792872029897546</v>
+        <v>0.9796375580771496</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>92.26449574751905</v>
+        <v>92.9872037208635</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4861,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9780719915131844</v>
+        <v>0.9798433003397634</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>59.86904803829663</v>
+        <v>60.76715694164552</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5025,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9975461719600778</v>
+        <v>0.9974032080127264</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>78.20738536369466</v>
+        <v>78.95828796069173</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5183,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9874204283182488</v>
+        <v>0.9873668398485479</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>49.19460383294352</v>
+        <v>49.73873144558591</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5335,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9639126259446099</v>
+        <v>0.9641799121786734</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>49.91140813731393</v>
+        <v>50.02709081799808</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9881174783878346</v>
+        <v>0.9885932945642837</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>84.0217749285912</v>
+        <v>84.95178679402349</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5615,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9893945100150933</v>
+        <v>0.9896632957440652</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>50.45128382555852</v>
+        <v>52.1720245521993</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5758,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9967753580672489</v>
+        <v>0.9966983864266883</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>75.09248638165371</v>
+        <v>76.82295214378408</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5913,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9753430127518338</v>
+        <v>0.9749924752441643</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>117.639487031545</v>
+        <v>119.7025473721244</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6077,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9976997150429021</v>
+        <v>0.9974311043978202</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>145.2764309474395</v>
+        <v>145.2849257321302</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6232,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9751612917544077</v>
+        <v>0.975202512658032</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>137.6377235646518</v>
+        <v>137.1209687353343</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9993495890176426</v>
+        <v>0.999372187731391</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>53.44043122687519</v>
+        <v>54.42044328082161</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6536,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9969585227355735</v>
+        <v>0.9970751290975569</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>191.791421875913</v>
+        <v>189.5695279219279</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6688,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9907912759349491</v>
+        <v>0.990701714983802</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>50.32872640235216</v>
+        <v>51.05650574747278</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9907231252518585</v>
+        <v>0.9910061476318883</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>75.62522934607472</v>
+        <v>76.96777833347647</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9945913729046817</v>
+        <v>0.9946029685883744</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>44.3319130033953</v>
+        <v>44.7569585943862</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7174,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9824381703446213</v>
+        <v>0.9822146164682938</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>47.24682324790665</v>
+        <v>47.65084325208962</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9801450778009165</v>
+        <v>0.9796773149926447</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>252.5525403901232</v>
+        <v>253.4773108367114</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7493,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9917882085602399</v>
+        <v>0.9919809496557419</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>50.12552353202113</v>
+        <v>51.40554424925384</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7642,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.984205217134659</v>
+        <v>0.9835501383400997</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>62.36043103525211</v>
+        <v>61.95512869081947</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9954549211676879</v>
+        <v>0.9953872632032557</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>114.5298913699258</v>
+        <v>114.7738368862253</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9971373643566488</v>
+        <v>0.9972734555485617</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>58.85045656928408</v>
+        <v>58.58602079517063</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8089,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.997069159156024</v>
+        <v>0.9971072990346809</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>116.9787323427259</v>
+        <v>115.4764713323692</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8244,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9609589799898817</v>
+        <v>0.9615303090998716</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>60.03101066161728</v>
+        <v>60.67609289236892</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8268,10 +8265,10 @@
         <v>207</v>
       </c>
       <c r="W47">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="X47">
-        <v>18089</v>
+        <v>17222</v>
       </c>
       <c r="Z47">
         <v>15</v>
@@ -8283,16 +8280,16 @@
         <v>213</v>
       </c>
       <c r="AH47" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AI47">
         <v>53</v>
       </c>
       <c r="AK47">
-        <v>19008</v>
+        <v>18140</v>
       </c>
       <c r="AL47">
-        <v>19008</v>
+        <v>18140</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -8301,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="AR47" t="s">
         <v>108</v>
@@ -8316,13 +8313,13 @@
         <v>789.9297437114266</v>
       </c>
       <c r="AT47">
-        <v>0.001472782372766187</v>
+        <v>0.001471179780412796</v>
       </c>
       <c r="AU47">
-        <v>0.02898929308048699</v>
+        <v>0.02759984551009713</v>
       </c>
       <c r="AV47">
-        <v>4.83</v>
+        <v>5.06</v>
       </c>
       <c r="AW47">
         <v>0.03046207545325318</v>
@@ -8340,10 +8337,10 @@
         <v>1.724275869600789</v>
       </c>
       <c r="BB47">
-        <v>4.257414558762187</v>
+        <v>4.236083584895046</v>
       </c>
       <c r="BC47">
-        <v>2.963315511386111</v>
+        <v>2.962842681201242</v>
       </c>
       <c r="BD47">
         <v>1.176091259055681</v>
@@ -8393,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9994248895407913</v>
+        <v>0.99941950538928</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>53.17334123988111</v>
+        <v>53.82553619787085</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8554,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9898538418145243</v>
+        <v>0.9901606969488141</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.34189297648315</v>
+        <v>68.22752052864598</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8700,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9869889098357457</v>
+        <v>0.987452306829412</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>104.438027263836</v>
+        <v>102.0549901749155</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8861,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9982862539164582</v>
+        <v>0.9983901801015431</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>57.42795656523956</v>
+        <v>58.34337896862187</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9874914322888096</v>
+        <v>0.9877664553185315</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>54.83753556487734</v>
+        <v>55.2628872924011</v>
       </c>
       <c r="U52">
         <v>20200508</v>
@@ -9070,7 +9067,7 @@
         <v>214</v>
       </c>
       <c r="AH52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI52">
         <v>7</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9969439201813907</v>
+        <v>0.9971270905458719</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1329,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>78.55494401860213</v>
+        <v>78.76218733697966</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9795101956266401</v>
+        <v>0.9798529722423434</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1475,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>112.5760286398533</v>
+        <v>112.8272242942897</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1609,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9984267364247749</v>
+        <v>0.9985094855107104</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1624,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>47.55175652658153</v>
+        <v>48.16346144152198</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1776,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9900257363848901</v>
+        <v>0.9905503226363873</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1791,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>66.7151129629912</v>
+        <v>67.21696563937131</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1931,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.99767044804316</v>
+        <v>0.9977367040740087</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>80.66484890066059</v>
+        <v>81.54102883436127</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2083,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9921443052979018</v>
+        <v>0.9918006823168981</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2098,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>47.07915871331983</v>
+        <v>47.48896967856243</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2238,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9777383956382268</v>
+        <v>0.9775826933650446</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2253,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>106.1994398116205</v>
+        <v>108.1363360544127</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2387,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9935585124105226</v>
+        <v>0.9933668308666213</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>90.4072530216532</v>
+        <v>92.48930194005656</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2530,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9949038610431208</v>
+        <v>0.9946875492540402</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2545,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>111.5247626007665</v>
+        <v>113.3406773316103</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2688,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9837207748890701</v>
+        <v>0.9842427835607158</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2703,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>67.6750580961444</v>
+        <v>69.33203744870292</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2834,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9883052595269493</v>
+        <v>0.988505651930552</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2849,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>83.20194986753678</v>
+        <v>84.99749666978033</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2983,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.960458361470738</v>
+        <v>0.9609349905830111</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2998,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>48.19508874709599</v>
+        <v>48.76432888275025</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3132,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9753617300694224</v>
+        <v>0.9759860928303306</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>37.07533826030506</v>
+        <v>36.63669471488942</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3275,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9981841089132986</v>
+        <v>0.9980163505253264</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3290,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>116.6705462057178</v>
+        <v>118.1768266006632</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3430,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9939132801535112</v>
+        <v>0.9937067710895416</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3445,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>60.02336868546372</v>
+        <v>60.7745001492307</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3591,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9911534790469498</v>
+        <v>0.9909907357399135</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3606,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>81.87863072500046</v>
+        <v>82.42122094160322</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3752,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9906619958299679</v>
+        <v>0.9902436868731238</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3767,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.17108287687474</v>
+        <v>54.38456624526239</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3907,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.995274269117399</v>
+        <v>0.9948999753899825</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3922,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>73.74831142326667</v>
+        <v>75.02268922698369</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4065,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.964362607355097</v>
+        <v>0.9653768815704488</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4080,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>97.84351320774903</v>
+        <v>100.3118728622952</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4220,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.995742453599241</v>
+        <v>0.9955371463564474</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4235,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>30.24635087288649</v>
+        <v>31.97307367774714</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4387,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9976233742572819</v>
+        <v>0.9975737472389472</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4402,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>73.4861920679065</v>
+        <v>74.09425247787972</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4545,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9814655654022825</v>
+        <v>0.9807704535629497</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4560,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>148.5530418673152</v>
+        <v>148.8369734026128</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4697,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9796375580771496</v>
+        <v>0.9799625391060517</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4712,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>92.9872037208635</v>
+        <v>93.87983776194393</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4858,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9798433003397634</v>
+        <v>0.9814192814744191</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4873,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>60.76715694164552</v>
+        <v>61.78648081705241</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5022,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9974032080127264</v>
+        <v>0.9973945568536813</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5037,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>78.95828796069173</v>
+        <v>80.73466800938809</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5180,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9873668398485479</v>
+        <v>0.9873238430463093</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5195,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>49.73873144558591</v>
+        <v>50.64991651190694</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5332,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9641799121786734</v>
+        <v>0.9644151385915563</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>50.02709081799808</v>
+        <v>50.38691106170012</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5478,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9885932945642837</v>
+        <v>0.988867227694876</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5493,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>84.95178679402349</v>
+        <v>85.95674382289636</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5612,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9896632957440652</v>
+        <v>0.98994447241926</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5627,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>52.1720245521993</v>
+        <v>54.09999948888243</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5755,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9966983864266883</v>
+        <v>0.9966162373647365</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5770,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>76.82295214378408</v>
+        <v>78.62625992112555</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9749924752441643</v>
+        <v>0.9746783031170475</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5925,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>119.7025473721244</v>
+        <v>121.4940701162661</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6074,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9974311043978202</v>
+        <v>0.9971932619547852</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6089,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>145.2849257321302</v>
+        <v>145.6871623542469</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6229,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.975202512658032</v>
+        <v>0.9752783688316475</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6244,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>137.1209687353343</v>
+        <v>137.0176738050134</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6387,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.999372187731391</v>
+        <v>0.9992345030424284</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6402,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>54.42044328082161</v>
+        <v>55.49214587453398</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6533,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9970751290975569</v>
+        <v>0.9971408639677695</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6548,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>189.5695279219279</v>
+        <v>187.7059370251031</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6685,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.990701714983802</v>
+        <v>0.9906627178686785</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6700,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>51.05650574747278</v>
+        <v>51.76494308399865</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6852,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9910061476318883</v>
+        <v>0.9913698595620228</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6867,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>76.96777833347647</v>
+        <v>78.16956540666759</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7013,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9946029685883744</v>
+        <v>0.9945984085116132</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7028,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>44.7569585943862</v>
+        <v>45.18284491818801</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7171,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9822146164682938</v>
+        <v>0.9820523909470076</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7186,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>47.65084325208962</v>
+        <v>48.10727890353071</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7323,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9796773149926447</v>
+        <v>0.9791613126959935</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7338,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>253.4773108367114</v>
+        <v>254.6306372897542</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7490,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9919809496557419</v>
+        <v>0.9922581919646934</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7505,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>51.40554424925384</v>
+        <v>53.12558494863671</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7639,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9835501383400997</v>
+        <v>0.9835600528703479</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7654,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>61.95512869081947</v>
+        <v>61.80123923838054</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9953872632032557</v>
+        <v>0.9953732422931861</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7809,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>114.7738368862253</v>
+        <v>114.60596632987</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7937,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9972734555485617</v>
+        <v>0.9973092244518645</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7952,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>58.58602079517063</v>
+        <v>57.5617328500575</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8086,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9971072990346809</v>
+        <v>0.9971664248421167</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8101,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>115.4764713323692</v>
+        <v>114.2116109848782</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8241,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9615303090998716</v>
+        <v>0.9620812273792321</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8256,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>60.67609289236892</v>
+        <v>61.03772185973524</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8390,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.99941950538928</v>
+        <v>0.9993866910588332</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>53.82553619787085</v>
+        <v>54.46772917781874</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8551,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9901606969488141</v>
+        <v>0.9904469812328881</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8566,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.22752052864598</v>
+        <v>68.11945888010442</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8575,10 +8575,10 @@
         <v>209</v>
       </c>
       <c r="W49">
-        <v>17246</v>
+        <v>17273</v>
       </c>
       <c r="X49">
-        <v>239042</v>
+        <v>238978</v>
       </c>
       <c r="Z49">
         <v>393</v>
@@ -8596,10 +8596,10 @@
         <v>891</v>
       </c>
       <c r="AK49">
-        <v>256288</v>
+        <v>256251</v>
       </c>
       <c r="AL49">
-        <v>256288</v>
+        <v>256251</v>
       </c>
       <c r="AM49">
         <v>21</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="AO49">
-        <v>5773</v>
+        <v>5769</v>
       </c>
       <c r="AP49">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AQ49">
-        <v>6016</v>
+        <v>6014</v>
       </c>
       <c r="AR49" t="s">
         <v>108</v>
@@ -8623,13 +8623,13 @@
         <v>2759.50955787437</v>
       </c>
       <c r="AT49">
-        <v>0.00226477246627103</v>
+        <v>0.002268318149710048</v>
       </c>
       <c r="AU49">
-        <v>0.0313913800233306</v>
+        <v>0.03138297544036404</v>
       </c>
       <c r="AV49">
-        <v>6.73</v>
+        <v>6.74</v>
       </c>
       <c r="AW49">
         <v>0.0302932687301056</v>
@@ -8647,10 +8647,10 @@
         <v>2.956648579205203</v>
       </c>
       <c r="BB49">
-        <v>5.378474213775408</v>
+        <v>5.378357922210168</v>
       </c>
       <c r="BC49">
-        <v>4.236688381764615</v>
+        <v>4.237367773021761</v>
       </c>
       <c r="BD49">
         <v>2.594392550375427</v>
@@ -8697,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.987452306829412</v>
+        <v>0.9878194415249567</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8712,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>102.0549901749155</v>
+        <v>99.97667502166173</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8858,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9983901801015431</v>
+        <v>0.9984594032222058</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8873,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>58.34337896862187</v>
+        <v>59.52492333756665</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9025,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9877664553185315</v>
+        <v>0.987863921303342</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9040,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>55.2628872924011</v>
+        <v>55.78799024598322</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9971270905458719</v>
+        <v>0.9972879940343897</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1329,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>78.76218733697966</v>
+        <v>79.01208526693432</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9798529722423434</v>
+        <v>0.9801572426268101</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1475,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>112.8272242942897</v>
+        <v>113.080361910125</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1609,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9985094855107104</v>
+        <v>0.9985908796642422</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1624,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>48.16346144152198</v>
+        <v>48.73430736531623</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1776,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9905503226363873</v>
+        <v>0.9910279978934132</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1791,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>67.21696563937131</v>
+        <v>67.42714746734299</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1931,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9977367040740087</v>
+        <v>0.9978162086313059</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>81.54102883436127</v>
+        <v>82.43503580898899</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2083,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9918006823168981</v>
+        <v>0.9915929696811128</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2098,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>47.48896967856243</v>
+        <v>47.84251128284088</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2238,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9775826933650446</v>
+        <v>0.9774165170517037</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2253,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>108.1363360544127</v>
+        <v>110.0128807897356</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2387,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9933668308666213</v>
+        <v>0.9928198501744709</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>92.48930194005656</v>
+        <v>94.50861813148369</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2530,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9946875492540402</v>
+        <v>0.9943355161338123</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2545,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>113.3406773316103</v>
+        <v>118.7684337438384</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2688,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9842427835607158</v>
+        <v>0.9847397015106313</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2703,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>69.33203744870292</v>
+        <v>70.85689975876274</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2834,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.988505651930552</v>
+        <v>0.9887299193187479</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2849,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>84.99749666978033</v>
+        <v>87.08865184711661</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2983,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9609349905830111</v>
+        <v>0.9614003457278212</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2998,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>48.76432888275025</v>
+        <v>49.29018599836733</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3132,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9759860928303306</v>
+        <v>0.9766018717612128</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>36.63669471488942</v>
+        <v>36.32459193921944</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3275,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9980163505253264</v>
+        <v>0.9978523401393673</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3290,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>118.1768266006632</v>
+        <v>119.7437496915604</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3430,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9937067710895416</v>
+        <v>0.9934944589795376</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3445,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>60.7745001492307</v>
+        <v>61.53585897910322</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3591,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9909907357399135</v>
+        <v>0.9908392318232011</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3606,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>82.42122094160322</v>
+        <v>83.00473770670918</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3752,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9902436868731238</v>
+        <v>0.9894668662371858</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3767,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.38456624526239</v>
+        <v>54.38829086165948</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3907,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9948999753899825</v>
+        <v>0.9945304892775949</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3922,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>75.02268922698369</v>
+        <v>76.2623320995209</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4065,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9653768815704488</v>
+        <v>0.9663012928655836</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4080,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>100.3118728622952</v>
+        <v>102.2993447838716</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4220,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9955371463564474</v>
+        <v>0.9952333886270786</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4235,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>31.97307367774714</v>
+        <v>33.3744371407368</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4387,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9975737472389472</v>
+        <v>0.9975261339234222</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4402,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>74.09425247787972</v>
+        <v>74.61649238898383</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4545,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9807704535629497</v>
+        <v>0.9800639554533623</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4560,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>148.8369734026128</v>
+        <v>149.0380491359195</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4697,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9799625391060517</v>
+        <v>0.98027974425824</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4712,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>93.87983776194393</v>
+        <v>93.64485573593259</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4858,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9814192814744191</v>
+        <v>0.98281745635074</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4873,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>61.78648081705241</v>
+        <v>62.96371296712893</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5022,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9973945568536813</v>
+        <v>0.9974516442997128</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5037,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>80.73466800938809</v>
+        <v>81.58191580768187</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5180,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9873238430463093</v>
+        <v>0.9872707398039895</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5195,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>50.64991651190694</v>
+        <v>49.93481521276109</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5332,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9644151385915563</v>
+        <v>0.9646160930763816</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>50.38691106170012</v>
+        <v>50.77744384721131</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5478,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.988867227694876</v>
+        <v>0.9890672307982737</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5493,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>85.95674382289636</v>
+        <v>86.80768069220829</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5612,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.98994447241926</v>
+        <v>0.9900698773900375</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5627,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>54.09999948888243</v>
+        <v>56.35207950491603</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5755,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9966162373647365</v>
+        <v>0.9965191380989181</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5770,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>78.62625992112555</v>
+        <v>81.00732369231554</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9746783031170475</v>
+        <v>0.9743436801716738</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5925,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>121.4940701162661</v>
+        <v>123.5139598602719</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6074,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9971932619547852</v>
+        <v>0.996614541100506</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6089,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>145.6871623542469</v>
+        <v>146.4404093929631</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6229,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9752783688316475</v>
+        <v>0.9753905143489959</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6244,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>137.0176738050134</v>
+        <v>137.3487903598319</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6387,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9992345030424284</v>
+        <v>0.9990852486643594</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6402,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>55.49214587453398</v>
+        <v>57.06843924713798</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6533,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9971408639677695</v>
+        <v>0.9972945781590645</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6548,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>187.7059370251031</v>
+        <v>186.0471736924495</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6685,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9906627178686785</v>
+        <v>0.9906580293017441</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6700,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>51.76494308399865</v>
+        <v>52.45200537003981</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6852,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9913698595620228</v>
+        <v>0.9917185590361305</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6867,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>78.16956540666759</v>
+        <v>79.5974662341809</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7013,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9945984085116132</v>
+        <v>0.9945143483573559</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7028,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>45.18284491818801</v>
+        <v>45.58713545247078</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7171,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9820523909470076</v>
+        <v>0.9819007681131765</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7186,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>48.10727890353071</v>
+        <v>48.58698141629238</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7323,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9791613126959935</v>
+        <v>0.9787121003010679</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7338,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>254.6306372897542</v>
+        <v>255.7195510703581</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7490,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9922581919646934</v>
+        <v>0.9925783449475492</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7505,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>53.12558494863671</v>
+        <v>55.0082799817443</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7639,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9835600528703479</v>
+        <v>0.9837034740021143</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7654,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>61.80123923838054</v>
+        <v>61.90763253621544</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9953732422931861</v>
+        <v>0.9953760072632427</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7809,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>114.60596632987</v>
+        <v>114.7000844391539</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7937,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9973092244518645</v>
+        <v>0.9973509735239035</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7952,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>57.5617328500575</v>
+        <v>56.96441037522091</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8086,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9971664248421167</v>
+        <v>0.9972539195433919</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8101,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>114.2116109848782</v>
+        <v>113.1484111209582</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8241,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9620812273792321</v>
+        <v>0.9626102194887854</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8256,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>61.03772185973524</v>
+        <v>62.04763606775483</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8390,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9993866910588332</v>
+        <v>0.9993237723055955</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>54.46772917781874</v>
+        <v>55.12543295227609</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8551,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9904469812328881</v>
+        <v>0.9906794528268678</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8566,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.11945888010442</v>
+        <v>68.03675216338316</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8697,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9878194415249567</v>
+        <v>0.9882811477059119</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8712,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>99.97667502166173</v>
+        <v>97.64816829894013</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8858,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9984594032222058</v>
+        <v>0.9985009743743669</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8873,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>59.52492333756665</v>
+        <v>60.75329199729938</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9025,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.987863921303342</v>
+        <v>0.9879530456121026</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9040,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>55.78799024598322</v>
+        <v>56.40638462041002</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9972879940343897</v>
+        <v>0.9974378529151829</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1329,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.01208526693432</v>
+        <v>79.18011901584853</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9801572426268101</v>
+        <v>0.9804491521542874</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1475,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>113.080361910125</v>
+        <v>113.4423036888882</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1609,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9985908796642422</v>
+        <v>0.9986496401867511</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1624,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>48.73430736531623</v>
+        <v>49.21407960996394</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1776,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9910279978934132</v>
+        <v>0.9914812807888423</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1791,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>67.42714746734299</v>
+        <v>67.97704470614676</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1931,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9978162086313059</v>
+        <v>0.9978567651779131</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>82.43503580898899</v>
+        <v>83.48981075861842</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2083,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9915929696811128</v>
+        <v>0.9913137461353644</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2098,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>47.84251128284088</v>
+        <v>48.27803748751248</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2238,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9774165170517037</v>
+        <v>0.9772833744491959</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2253,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>110.0128807897356</v>
+        <v>111.8037463359917</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2387,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9928198501744709</v>
+        <v>0.9925875913539891</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>94.50861813148369</v>
+        <v>96.39436033673009</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2530,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9943355161338123</v>
+        <v>0.9940202869165033</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2545,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>118.7684337438384</v>
+        <v>123.0966102309373</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2688,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9847397015106313</v>
+        <v>0.985223633000934</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2703,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>70.85689975876274</v>
+        <v>72.17245382749833</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2834,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9887299193187479</v>
+        <v>0.9889436114686755</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2849,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>87.08865184711661</v>
+        <v>89.47386985910794</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2983,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9614003457278212</v>
+        <v>0.9618445959739514</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2998,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>49.29018599836733</v>
+        <v>49.75789934978683</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3132,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9766018717612128</v>
+        <v>0.9771844095450725</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>36.32459193921944</v>
+        <v>36.08029674444992</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3275,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9978523401393673</v>
+        <v>0.9977085460855253</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3290,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>119.7437496915604</v>
+        <v>121.3647505069066</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3430,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9934944589795376</v>
+        <v>0.9932724272915764</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3445,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>61.53585897910322</v>
+        <v>62.27708042013683</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3591,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9908392318232011</v>
+        <v>0.99063919637114</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3606,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>83.00473770670918</v>
+        <v>83.63076203406234</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3752,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9894668662371858</v>
+        <v>0.9884332099739619</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3767,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.38829086165948</v>
+        <v>54.21904066383776</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3907,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9945304892775949</v>
+        <v>0.993853030893894</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3922,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>76.2623320995209</v>
+        <v>76.98123297815997</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4065,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9663012928655836</v>
+        <v>0.9671746476084682</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4080,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>102.2993447838716</v>
+        <v>103.8060801594793</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4220,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9952333886270786</v>
+        <v>0.9950520412192753</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4235,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>33.3744371407368</v>
+        <v>34.49321964567115</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4387,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9975261339234222</v>
+        <v>0.9974228288785854</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4402,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>74.61649238898383</v>
+        <v>75.25402061720324</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4545,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9800639554533623</v>
+        <v>0.979426022703978</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4560,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>149.0380491359195</v>
+        <v>149.2636235738338</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4697,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.98027974425824</v>
+        <v>0.9805612557066797</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4712,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>93.64485573593259</v>
+        <v>93.15417134741493</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4858,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.98281745635074</v>
+        <v>0.9841169660742226</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4873,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>62.96371296712893</v>
+        <v>64.260809935778</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5022,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9974516442997128</v>
+        <v>0.997485223967155</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5037,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>81.58191580768187</v>
+        <v>82.44993718139754</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5180,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9872707398039895</v>
+        <v>0.9872816382821965</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5195,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>49.93481521276109</v>
+        <v>49.32789243246545</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5332,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9646160930763816</v>
+        <v>0.9647847484893145</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>50.77744384721131</v>
+        <v>51.17123958775822</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5478,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9890672307982737</v>
+        <v>0.9890028723528987</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5493,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>86.80768069220829</v>
+        <v>87.79836572047026</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5612,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9900698773900375</v>
+        <v>0.9904587374732086</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5627,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>56.35207950491603</v>
+        <v>58.45845732827265</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5755,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9965191380989181</v>
+        <v>0.9963660425734885</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5770,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>81.00732369231554</v>
+        <v>82.8143536302636</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9743436801716738</v>
+        <v>0.9740647822502659</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5925,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>123.5139598602719</v>
+        <v>125.7682789869711</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6074,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.996614541100506</v>
+        <v>0.9965008217783502</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6089,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>146.4404093929631</v>
+        <v>148.2526451648072</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6229,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9753905143489959</v>
+        <v>0.9755293269845081</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6244,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>137.3487903598319</v>
+        <v>137.9788850342794</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6387,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9990852486643594</v>
+        <v>0.9990333852864455</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6402,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>57.06843924713798</v>
+        <v>58.4676984067023</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6533,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9972945781590645</v>
+        <v>0.9974717737236658</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6548,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>186.0471736924495</v>
+        <v>184.5769714514395</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6685,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9906580293017441</v>
+        <v>0.9906284150817279</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6700,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>52.45200537003981</v>
+        <v>53.09985819807912</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6852,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9917185590361305</v>
+        <v>0.9920173685804314</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6867,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>79.5974662341809</v>
+        <v>80.58892931929503</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7013,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9945143483573559</v>
+        <v>0.994408935146661</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7028,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>45.58713545247078</v>
+        <v>45.94248394516036</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7171,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9819007681131765</v>
+        <v>0.9816965395550037</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7186,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>48.58698141629238</v>
+        <v>49.03803860178997</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7323,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9787121003010679</v>
+        <v>0.9781394731144122</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7338,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>255.7195510703581</v>
+        <v>256.621522197216</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7490,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9925783449475492</v>
+        <v>0.9928917014289133</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7505,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>55.0082799817443</v>
+        <v>56.77601343855103</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7639,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9837034740021143</v>
+        <v>0.9839102569827486</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7654,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>61.90763253621544</v>
+        <v>62.29714542434845</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9953760072632427</v>
+        <v>0.9953566402426209</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7809,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>114.7000844391539</v>
+        <v>114.8738405338218</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7937,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9973509735239035</v>
+        <v>0.9973755760646119</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7952,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>56.96441037522091</v>
+        <v>56.27759157443078</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8086,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9972539195433919</v>
+        <v>0.9973097731903385</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8101,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>113.1484111209582</v>
+        <v>112.2294436315087</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8241,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9626102194887854</v>
+        <v>0.9631160104860921</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8256,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>62.04763606775483</v>
+        <v>63.31885546266918</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8390,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9993237723055955</v>
+        <v>0.9991563573072301</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>55.12543295227609</v>
+        <v>55.95225755851016</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8551,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9906794528268678</v>
+        <v>0.9909636284072594</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8566,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.03675216338316</v>
+        <v>68.07904770827403</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8697,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9882811477059119</v>
+        <v>0.9886441214455481</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8712,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>97.64816829894013</v>
+        <v>95.66519165871856</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8858,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9985009743743669</v>
+        <v>0.9985495661044642</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8873,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>60.75329199729938</v>
+        <v>62.02173672281702</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9025,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9879530456121026</v>
+        <v>0.9882642949969954</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9040,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>56.40638462041002</v>
+        <v>56.76353497259678</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9974378529151829</v>
+        <v>0.9975451695671919</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1329,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.18011901584853</v>
+        <v>79.36541890984823</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9804491521542874</v>
+        <v>0.9807204910069746</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1475,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>113.4423036888882</v>
+        <v>113.8130539396772</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1609,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9986496401867511</v>
+        <v>0.9986404015670054</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1624,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>49.21407960996394</v>
+        <v>49.65460218314796</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1776,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9914812807888423</v>
+        <v>0.991939535997698</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1791,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>67.97704470614676</v>
+        <v>68.55465713407989</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1931,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9978567651779131</v>
+        <v>0.997918958554435</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>83.48981075861842</v>
+        <v>84.62470992464858</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2083,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9913137461353644</v>
+        <v>0.9908819116281754</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2098,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>48.27803748751248</v>
+        <v>48.52403981521594</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2238,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9772833744491959</v>
+        <v>0.9771633768290267</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2253,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>111.8037463359917</v>
+        <v>113.6675667992369</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2387,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9925875913539891</v>
+        <v>0.9923542875730288</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>96.39436033673009</v>
+        <v>98.37276118122622</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2530,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9940202869165033</v>
+        <v>0.9936803807550686</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2545,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>123.0966102309373</v>
+        <v>121.6839553573099</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2688,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.985223633000934</v>
+        <v>0.9857126964372996</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2703,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>72.17245382749833</v>
+        <v>73.61991737960606</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2834,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9889436114686755</v>
+        <v>0.9891027602067494</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2849,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>89.47386985910794</v>
+        <v>92.17878786635383</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2983,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9618445959739514</v>
+        <v>0.9622678820882365</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2998,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>49.75789934978683</v>
+        <v>50.1848917356852</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3132,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9771844095450725</v>
+        <v>0.9777490284155421</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>36.08029674444992</v>
+        <v>35.75849972128842</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3275,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9977085460855253</v>
+        <v>0.9974971304648753</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3290,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>121.3647505069066</v>
+        <v>122.9243225443778</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3430,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9932724272915764</v>
+        <v>0.9929763840753761</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3445,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>62.27708042013683</v>
+        <v>62.97831516165424</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3591,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.99063919637114</v>
+        <v>0.9903487293757214</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3606,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>83.63076203406234</v>
+        <v>84.39807662037977</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3752,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9884332099739619</v>
+        <v>0.9873756742551673</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3767,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.21904066383776</v>
+        <v>54.42398195015819</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3907,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.993853030893894</v>
+        <v>0.9928846988389799</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3922,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>76.98123297815997</v>
+        <v>77.3731824302547</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4065,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9671746476084682</v>
+        <v>0.9680497704034431</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4080,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>103.8060801594793</v>
+        <v>105.7706946762158</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4220,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9950520412192753</v>
+        <v>0.9950998102822417</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4235,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>34.49321964567115</v>
+        <v>35.36597972684996</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4387,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9974228288785854</v>
+        <v>0.9972756942770427</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4402,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>75.25402061720324</v>
+        <v>76.04232203528841</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4545,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.979426022703978</v>
+        <v>0.9787466342357493</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4560,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>149.2636235738338</v>
+        <v>149.3674780614979</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4697,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9805612557066797</v>
+        <v>0.9807895496606429</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4712,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>93.15417134741493</v>
+        <v>93.10139571117973</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4858,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9841169660742226</v>
+        <v>0.9853192495230986</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4873,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>64.260809935778</v>
+        <v>65.52165977704408</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5022,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.997485223967155</v>
+        <v>0.9974620412697036</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5037,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>82.44993718139754</v>
+        <v>83.56744934392964</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5180,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9872816382821965</v>
+        <v>0.9874975087169812</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5195,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>49.32789243246545</v>
+        <v>48.93526642818276</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5332,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9647847484893145</v>
+        <v>0.9649195430653057</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>51.17123958775822</v>
+        <v>51.44400062655055</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5478,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9890028723528987</v>
+        <v>0.9888048090046438</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5493,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>87.79836572047026</v>
+        <v>88.78976729410732</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5612,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9904587374732086</v>
+        <v>0.9907978949505365</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5627,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>58.45845732827265</v>
+        <v>60.55101847973241</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5755,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9963660425734885</v>
+        <v>0.9961262711246845</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5770,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>82.8143536302636</v>
+        <v>84.54659886541256</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9740647822502659</v>
+        <v>0.9738310021064208</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5925,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>125.7682789869711</v>
+        <v>128.0297287416354</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6074,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9965008217783502</v>
+        <v>0.99626275539516</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6089,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>148.2526451648072</v>
+        <v>150.009879801067</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6229,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9755293269845081</v>
+        <v>0.9756813480326775</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6244,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>137.9788850342794</v>
+        <v>138.725970547843</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6387,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9990333852864455</v>
+        <v>0.99899025767469</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6402,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>58.4676984067023</v>
+        <v>59.73957991440224</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6533,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9974717737236658</v>
+        <v>0.9976425354144981</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6548,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>184.5769714514395</v>
+        <v>183.0817870315752</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6685,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9906284150817279</v>
+        <v>0.9906102855795904</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6700,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>53.09985819807912</v>
+        <v>53.65225284826422</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6852,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9920173685804314</v>
+        <v>0.9922390659196496</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6867,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>80.58892931929503</v>
+        <v>81.21105169644336</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7013,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.994408935146661</v>
+        <v>0.9942327720926885</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7028,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>45.94248394516036</v>
+        <v>46.23179079450427</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7171,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9816965395550037</v>
+        <v>0.9814005779121983</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7186,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>49.03803860178997</v>
+        <v>49.44786524260602</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7323,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9781394731144122</v>
+        <v>0.97725564633665</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7338,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>256.621522197216</v>
+        <v>256.6283227766433</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7490,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9928917014289133</v>
+        <v>0.9931342729654143</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7505,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>56.77601343855103</v>
+        <v>58.26336486201397</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7639,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9839102569827486</v>
+        <v>0.9838560198858742</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7654,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>62.29714542434845</v>
+        <v>62.57660415634869</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9953566402426209</v>
+        <v>0.9953719429776999</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7809,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>114.8738405338218</v>
+        <v>115.2378597993966</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7937,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9973755760646119</v>
+        <v>0.9972984755544191</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7952,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>56.27759157443078</v>
+        <v>55.94749251527954</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8086,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9973097731903385</v>
+        <v>0.9973338447207799</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8101,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>112.2294436315087</v>
+        <v>111.2824813688611</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8241,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9631160104860921</v>
+        <v>0.9636003012609831</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8256,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>63.31885546266918</v>
+        <v>64.75655493481648</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8390,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9991563573072301</v>
+        <v>0.9991276053471898</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>55.95225755851016</v>
+        <v>57.02243291192726</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8551,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9909636284072594</v>
+        <v>0.9912351546585142</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8566,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.07904770827403</v>
+        <v>68.32009097351215</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8697,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9886441214455481</v>
+        <v>0.9890466566760814</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8712,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>95.66519165871856</v>
+        <v>93.7574028039224</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8858,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9985495661044642</v>
+        <v>0.9986251463626523</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8873,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>62.02173672281702</v>
+        <v>63.3262534168183</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9025,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9882642949969954</v>
+        <v>0.9884692431298919</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9040,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>56.76353497259678</v>
+        <v>57.0880099881215</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9975451695671919</v>
+        <v>0.997536999013395</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1329,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.36541890984823</v>
+        <v>79.51351706419696</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9807204910069746</v>
+        <v>0.9811860175730837</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1475,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>113.8130539396772</v>
+        <v>114.3808916466667</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1609,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9986404015670054</v>
+        <v>0.9985862770639508</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1624,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>49.65460218314796</v>
+        <v>50.39785327235814</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1776,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.991939535997698</v>
+        <v>0.9927874700751119</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1791,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>68.55465713407989</v>
+        <v>69.31463352662821</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1931,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.997918958554435</v>
+        <v>0.998089826195516</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>84.62470992464858</v>
+        <v>86.78721973204053</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2083,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9908819116281754</v>
+        <v>0.9900583349451499</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2098,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>48.52403981521594</v>
+        <v>49.22962768255079</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2238,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9771633768290267</v>
+        <v>0.9767941527145232</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2253,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>113.6675667992369</v>
+        <v>116.333347065589</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2387,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9923542875730288</v>
+        <v>0.9914408095960948</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>98.37276118122622</v>
+        <v>101.5095505449412</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2530,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9936803807550686</v>
+        <v>0.9928459735479503</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2545,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>121.6839553573099</v>
+        <v>119.5934447723671</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2688,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9857126964372996</v>
+        <v>0.986534084877519</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2703,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>73.61991737960606</v>
+        <v>75.89301349114884</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2834,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9891027602067494</v>
+        <v>0.9893832209119763</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2849,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>92.17878786635383</v>
+        <v>93.97371844712819</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2983,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9622678820882365</v>
+        <v>0.9630392724297467</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2998,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>50.1848917356852</v>
+        <v>50.63365598443173</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3132,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9777490284155421</v>
+        <v>0.9787736133862747</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>35.75849972128842</v>
+        <v>35.18970610650799</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3275,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9974971304648753</v>
+        <v>0.9966977014518694</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3290,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>122.9243225443778</v>
+        <v>125.5778556532945</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3430,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9929763840753761</v>
+        <v>0.9922541003552595</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3445,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>62.97831516165424</v>
+        <v>64.15881523290309</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3591,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9903487293757214</v>
+        <v>0.9896238358828998</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3606,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>84.39807662037977</v>
+        <v>85.75075590461225</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3752,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9873756742551673</v>
+        <v>0.984909782302857</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3767,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.42398195015819</v>
+        <v>54.60661935558579</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3907,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9928846988389799</v>
+        <v>0.9922539511663268</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3922,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>77.3731824302547</v>
+        <v>78.13944365003803</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4065,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9680497704034431</v>
+        <v>0.9696833660977756</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4080,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>105.7706946762158</v>
+        <v>109.6900427234498</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4220,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9950998102822417</v>
+        <v>0.9953845889286235</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4235,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>35.36597972684996</v>
+        <v>38.1793488219099</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4387,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9972756942770427</v>
+        <v>0.9966908348169232</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4402,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>76.04232203528841</v>
+        <v>77.49449186574968</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4545,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9787466342357493</v>
+        <v>0.9772306944369016</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4560,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>149.3674780614979</v>
+        <v>148.6993701860184</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4697,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9807895496606429</v>
+        <v>0.9812032425663659</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4712,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>93.10139571117973</v>
+        <v>93.14920908614481</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4858,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9853192495230986</v>
+        <v>0.9875194876392167</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4873,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>65.52165977704408</v>
+        <v>67.93223833238642</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5022,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9974620412697036</v>
+        <v>0.9974383420455454</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5037,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>83.56744934392964</v>
+        <v>85.44824172023003</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5180,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9874975087169812</v>
+        <v>0.987873291976519</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5195,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>48.93526642818276</v>
+        <v>48.3862686507663</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5332,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9649195430653057</v>
+        <v>0.9650514019302625</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>51.44400062655055</v>
+        <v>52.01452221998006</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5478,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9888048090046438</v>
+        <v>0.9884187863149539</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5493,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>88.78976729410732</v>
+        <v>90.67037774996147</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5612,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9907978949505365</v>
+        <v>0.991387468128768</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5627,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>60.55101847973241</v>
+        <v>65.46207863741141</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5755,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9961262711246845</v>
+        <v>0.9953633121518665</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5770,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>84.54659886541256</v>
+        <v>87.58609533951415</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9738310021064208</v>
+        <v>0.9734298102002974</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5925,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>128.0297287416354</v>
+        <v>132.1761945419189</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6074,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.99626275539516</v>
+        <v>0.9956379267604937</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6089,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>150.009879801067</v>
+        <v>153.0889969180106</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6229,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9756813480326775</v>
+        <v>0.97601411044696</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6244,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>138.725970547843</v>
+        <v>140.3097318806356</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6387,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.99899025767469</v>
+        <v>0.9990783518784273</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6402,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>59.73957991440224</v>
+        <v>62.03554104206539</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6533,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9976425354144981</v>
+        <v>0.997211353672802</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6548,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>183.0817870315752</v>
+        <v>179.67355524279</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6685,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9906102855795904</v>
+        <v>0.9905154583603117</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6700,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>53.65225284826422</v>
+        <v>54.78060111382486</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6852,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9922390659196496</v>
+        <v>0.9925129408212375</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6867,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>81.21105169644336</v>
+        <v>82.72274076540145</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7013,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9942327720926885</v>
+        <v>0.993852897857794</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7028,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>46.23179079450427</v>
+        <v>46.63702265997834</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7171,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9814005779121983</v>
+        <v>0.9809859915649997</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7186,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>49.44786524260602</v>
+        <v>50.17593883676927</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7323,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.97725564633665</v>
+        <v>0.9755748197615287</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7338,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>256.6283227766433</v>
+        <v>256.6893778449509</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7490,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9931342729654143</v>
+        <v>0.9936671403195644</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7505,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>58.26336486201397</v>
+        <v>61.08178658348977</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7639,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9838560198858742</v>
+        <v>0.9836216898177923</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7654,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>62.57660415634869</v>
+        <v>63.90013913819039</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9953719429776999</v>
+        <v>0.9954036235576912</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7809,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>115.2378597993966</v>
+        <v>115.7151667119078</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7937,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9972984755544191</v>
+        <v>0.9971024231022834</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7952,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>55.94749251527954</v>
+        <v>55.57058620283092</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8086,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9973338447207799</v>
+        <v>0.9971953379631662</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8101,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>111.2824813688611</v>
+        <v>109.3584255820245</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8241,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9636003012609831</v>
+        <v>0.9644765463176461</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8256,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>64.75655493481648</v>
+        <v>67.485916758752</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8390,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9991276053471898</v>
+        <v>0.9992004542801751</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>57.02243291192726</v>
+        <v>59.15974433611961</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8551,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9912351546585142</v>
+        <v>0.9917395335531803</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8566,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.32009097351215</v>
+        <v>68.51882227104601</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8697,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9890466566760814</v>
+        <v>0.9894950134223128</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8712,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>93.7574028039224</v>
+        <v>90.42256454859745</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8858,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9986251463626523</v>
+        <v>0.9987650483927512</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8873,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>63.3262534168183</v>
+        <v>66.15480777122553</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9025,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9884692431298919</v>
+        <v>0.9887391077291161</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9040,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>57.0880099881215</v>
+        <v>58.1934737590841</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.997536999013395</v>
+        <v>0.997519312370999</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1329,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.51351706419696</v>
+        <v>79.56758129399937</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9811860175730837</v>
+        <v>0.9811894112792316</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1475,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>114.3808916466667</v>
+        <v>114.9938375252339</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1609,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9985862770639508</v>
+        <v>0.9986321867003789</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1624,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>50.39785327235814</v>
+        <v>50.84497947439834</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1776,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9927874700751119</v>
+        <v>0.9931243847625998</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1791,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>69.31463352662821</v>
+        <v>69.80801973142097</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1931,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.998089826195516</v>
+        <v>0.998179025039162</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>86.78721973204053</v>
+        <v>87.82514056096723</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2083,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9900583349451499</v>
+        <v>0.989719191966956</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2098,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>49.22962768255079</v>
+        <v>49.57212047702673</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2238,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9767941527145232</v>
+        <v>0.9765038768153776</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2253,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>116.333347065589</v>
+        <v>117.7242680578899</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2387,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9914408095960948</v>
+        <v>0.9907573539058571</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>101.5095505449412</v>
+        <v>102.8389119444017</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2530,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9928459735479503</v>
+        <v>0.9923310579010569</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2545,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>119.5934447723671</v>
+        <v>118.6884702563754</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2688,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.986534084877519</v>
+        <v>0.9868998503367385</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2703,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>75.89301349114884</v>
+        <v>76.81101107034134</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2834,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9893832209119763</v>
+        <v>0.9895214819142573</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2849,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>93.97371844712819</v>
+        <v>93.52629432257389</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2983,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9630392724297467</v>
+        <v>0.9633786545203172</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2998,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>50.63365598443173</v>
+        <v>50.81321649307706</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3132,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9787736133862747</v>
+        <v>0.9791559545497212</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>35.18970610650799</v>
+        <v>35.06197586087227</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3275,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9966977014518694</v>
+        <v>0.996188129849563</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3290,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>125.5778556532945</v>
+        <v>126.8909193400247</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3430,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9922541003552595</v>
+        <v>0.9919898321016124</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3445,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>64.15881523290309</v>
+        <v>64.75226711287561</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3591,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9896238358828998</v>
+        <v>0.9892831753139903</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3606,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>85.75075590461225</v>
+        <v>86.43966946401447</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3752,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.984909782302857</v>
+        <v>0.9835780151242876</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3767,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.60661935558579</v>
+        <v>54.6032049322402</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3907,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9922539511663268</v>
+        <v>0.9918873967099309</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3922,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>78.13944365003803</v>
+        <v>78.50084931561376</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4065,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9696833660977756</v>
+        <v>0.970452345403045</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4080,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>109.6900427234498</v>
+        <v>113.6907260272414</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4220,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9953845889286235</v>
+        <v>0.995532412388195</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4235,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>38.1793488219099</v>
+        <v>39.97232663581499</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4387,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9966908348169232</v>
+        <v>0.9964918627055173</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4402,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>77.49449186574968</v>
+        <v>78.50933906498949</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4545,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9772306944369016</v>
+        <v>0.9764988187731287</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4560,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>148.6993701860184</v>
+        <v>148.4862619818798</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4697,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9812032425663659</v>
+        <v>0.9814344613977893</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4712,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>93.14920908614481</v>
+        <v>93.20161031118076</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4858,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9875194876392167</v>
+        <v>0.9884769205526629</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4873,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>67.93223833238642</v>
+        <v>69.21421357067894</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5022,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9974383420455454</v>
+        <v>0.9974634077604499</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5037,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>85.44824172023003</v>
+        <v>86.64255097265738</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5180,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.987873291976519</v>
+        <v>0.9880924954318195</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5195,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>48.3862686507663</v>
+        <v>48.32046697297414</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5332,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9650514019302625</v>
+        <v>0.9649728501837025</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>52.01452221998006</v>
+        <v>52.54890908061652</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5478,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9884187863149539</v>
+        <v>0.9882404457459508</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5493,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>90.67037774996147</v>
+        <v>91.59454568251937</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5612,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.991387468128768</v>
+        <v>0.9916421509727147</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5627,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>65.46207863741141</v>
+        <v>67.66384211168595</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5755,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9953633121518665</v>
+        <v>0.9951169157013524</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5770,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>87.58609533951415</v>
+        <v>88.86698240511511</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9734298102002974</v>
+        <v>0.9732563131415712</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5925,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>132.1761945419189</v>
+        <v>134.4759833978646</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6074,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9956379267604937</v>
+        <v>0.9952867558863884</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6089,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>153.0889969180106</v>
+        <v>153.8096812468605</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6229,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.97601411044696</v>
+        <v>0.9762188011483585</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6244,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>140.3097318806356</v>
+        <v>141.5459122832338</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6387,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9990783518784273</v>
+        <v>0.9991066113151672</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6402,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>62.03554104206539</v>
+        <v>63.15820115048948</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6533,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.997211353672802</v>
+        <v>0.9968584270887064</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6548,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>179.67355524279</v>
+        <v>177.9658202718868</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6685,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9905154583603117</v>
+        <v>0.990427700445362</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6700,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>54.78060111382486</v>
+        <v>55.37546820425177</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6852,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9925129408212375</v>
+        <v>0.9925672741146573</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6867,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>82.72274076540145</v>
+        <v>83.88316362756237</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7013,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.993852897857794</v>
+        <v>0.9937502345888659</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7028,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>46.63702265997834</v>
+        <v>46.8308111414778</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7171,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9809859915649997</v>
+        <v>0.9808112378997729</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7186,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>50.17593883676927</v>
+        <v>50.56231684922396</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7323,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9755748197615287</v>
+        <v>0.9747875613059039</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7338,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>256.6893778449509</v>
+        <v>256.5662584885001</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7490,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9936671403195644</v>
+        <v>0.9939116482953401</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7505,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>61.08178658348977</v>
+        <v>62.40969830565484</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7639,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9836216898177923</v>
+        <v>0.9835338542231197</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7654,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>63.90013913819039</v>
+        <v>64.63898194801622</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9954036235576912</v>
+        <v>0.9954348213476366</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7809,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>115.7151667119078</v>
+        <v>115.817018559764</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7937,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9971024231022834</v>
+        <v>0.9971436147771544</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7952,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>55.57058620283092</v>
+        <v>55.51132552959839</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8086,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9971953379631662</v>
+        <v>0.9971727405462828</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8101,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>109.3584255820245</v>
+        <v>108.4575821186449</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8241,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9644765463176461</v>
+        <v>0.9648653316608252</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8256,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>67.485916758752</v>
+        <v>68.52354979709378</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8390,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9992004542801751</v>
+        <v>0.9992325111878068</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>59.15974433611961</v>
+        <v>60.2714381161049</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8551,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9917395335531803</v>
+        <v>0.9919703663061823</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8566,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.51882227104601</v>
+        <v>68.47156925734852</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8697,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9894950134223128</v>
+        <v>0.9895551391317098</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8712,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>90.42256454859745</v>
+        <v>89.01878324743849</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8858,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9987650483927512</v>
+        <v>0.998800331259732</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8873,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>66.15480777122553</v>
+        <v>67.76928058789454</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9025,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9887391077291161</v>
+        <v>0.9889421823193046</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9040,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>58.1934737590841</v>
+        <v>59.17837568626042</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.997519312370999</v>
+        <v>0.9974794247726023</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1329,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.56758129399937</v>
+        <v>79.84932257726375</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9811894112792316</v>
+        <v>0.9811083932998179</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1475,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>114.9938375252339</v>
+        <v>115.7522058155273</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1609,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9986321867003789</v>
+        <v>0.9987052697833996</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1624,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>50.84497947439834</v>
+        <v>51.35058342332902</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1776,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9931243847625998</v>
+        <v>0.9933669947275642</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1791,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>69.80801973142097</v>
+        <v>70.1373732626401</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1931,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.998179025039162</v>
+        <v>0.998273415690154</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>87.82514056096723</v>
+        <v>88.8045827908075</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2083,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.989719191966956</v>
+        <v>0.9895455536626727</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2098,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>49.57212047702673</v>
+        <v>50.00561429572827</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2238,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9765038768153776</v>
+        <v>0.9761781456666738</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2253,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>117.7242680578899</v>
+        <v>119.0679683250505</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2387,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9907573539058571</v>
+        <v>0.9899647924713609</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>102.8389119444017</v>
+        <v>103.9383073249867</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2530,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9923310579010569</v>
+        <v>0.991688812320013</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2545,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>118.6884702563754</v>
+        <v>117.7135668465241</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2688,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9868998503367385</v>
+        <v>0.9873194093834948</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2703,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>76.81101107034134</v>
+        <v>77.79859866226994</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2834,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9895214819142573</v>
+        <v>0.9896538121618168</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2849,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>93.52629432257389</v>
+        <v>93.02907835326126</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2983,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9633786545203172</v>
+        <v>0.9636797642929161</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2998,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>50.81321649307706</v>
+        <v>51.01909300979734</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3132,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9791559545497212</v>
+        <v>0.9795826139924885</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>35.06197586087227</v>
+        <v>34.98659215734752</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3275,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.996188129849563</v>
+        <v>0.9956567310459871</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3290,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>126.8909193400247</v>
+        <v>128.1616329748943</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3430,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9919898321016124</v>
+        <v>0.9917534296094678</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3445,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>64.75226711287561</v>
+        <v>65.35287954089301</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3591,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9892831753139903</v>
+        <v>0.9889663426478231</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3606,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>86.43966946401447</v>
+        <v>87.18018362697926</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3752,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9835780151242876</v>
+        <v>0.9828071955097321</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3767,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.6032049322402</v>
+        <v>55.37691520887221</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3907,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9918873967099309</v>
+        <v>0.991789677346634</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3922,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>78.50084931561376</v>
+        <v>80.85542590752334</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4065,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.970452345403045</v>
+        <v>0.9711616607006391</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4080,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>113.6907260272414</v>
+        <v>114.792452878441</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4220,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.995532412388195</v>
+        <v>0.9956995593242496</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4235,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>39.97232663581499</v>
+        <v>41.45538163880272</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4387,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9964918627055173</v>
+        <v>0.9963788618844615</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4402,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>78.50933906498949</v>
+        <v>79.6098402372168</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4545,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9764988187731287</v>
+        <v>0.975793960433989</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4560,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>148.4862619818798</v>
+        <v>148.2686361118195</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4697,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9814344613977893</v>
+        <v>0.9817106166017631</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4712,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>93.20161031118076</v>
+        <v>93.44801974549767</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4858,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9884769205526629</v>
+        <v>0.9893235737635561</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4873,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>69.21421357067894</v>
+        <v>70.55786668410384</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5022,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9974634077604499</v>
+        <v>0.9975436352316964</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5037,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>86.64255097265738</v>
+        <v>88.31359264402379</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5180,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9880924954318195</v>
+        <v>0.9882560743734909</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5195,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>48.32046697297414</v>
+        <v>48.42122350947736</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5332,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9649728501837025</v>
+        <v>0.9646798831083763</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>52.54890908061652</v>
+        <v>53.29952910852577</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5478,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9882404457459508</v>
+        <v>0.988217169264649</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5493,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>91.59454568251937</v>
+        <v>92.41465820715565</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5612,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9916421509727147</v>
+        <v>0.991897468395573</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5627,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>67.66384211168595</v>
+        <v>69.69618780427736</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5755,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9951169157013524</v>
+        <v>0.9949836804029981</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5770,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>88.86698240511511</v>
+        <v>90.00511270097158</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9732563131415712</v>
+        <v>0.9732189668475912</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5925,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>134.4759833978646</v>
+        <v>137.0345112363317</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6074,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9952867558863884</v>
+        <v>0.9949499327771718</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6089,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>153.8096812468605</v>
+        <v>154.538350501332</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6229,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9762188011483585</v>
+        <v>0.9764450073653038</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6244,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>141.5459122832338</v>
+        <v>143.1558591468217</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6262,7 +6262,7 @@
         <v>8196</v>
       </c>
       <c r="AA34">
-        <v>71679</v>
+        <v>82730</v>
       </c>
       <c r="AB34">
         <v>2811</v>
@@ -6283,7 +6283,7 @@
         <v>21045</v>
       </c>
       <c r="AJ34">
-        <v>71679</v>
+        <v>82730</v>
       </c>
       <c r="AK34">
         <v>1121543</v>
@@ -6295,7 +6295,7 @@
         <v>217</v>
       </c>
       <c r="AN34">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AO34">
         <v>28869</v>
@@ -6387,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9991066113151672</v>
+        <v>0.9990546977575009</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6402,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>63.15820115048948</v>
+        <v>64.37525591143908</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6533,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9968584270887064</v>
+        <v>0.9964583293177526</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6548,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>177.9658202718868</v>
+        <v>176.410212859876</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6685,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.990427700445362</v>
+        <v>0.9904044197737482</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6700,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>55.37546820425177</v>
+        <v>55.97332472543877</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6852,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9925672741146573</v>
+        <v>0.9925872247774764</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6867,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>83.88316362756237</v>
+        <v>85.01229584011239</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7013,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9937502345888659</v>
+        <v>0.993663508426692</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7028,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>46.8308111414778</v>
+        <v>47.06540431691857</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7171,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.9808112378997729</v>
+        <v>0.980676921001216</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7186,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>50.56231684922396</v>
+        <v>50.98187701491654</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7323,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9747875613059039</v>
+        <v>0.9740437728885312</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7338,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>256.5662584885001</v>
+        <v>257.2458318674989</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7490,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9939116482953401</v>
+        <v>0.9941836194178025</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7505,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>62.40969830565484</v>
+        <v>63.7168645769865</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7639,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9835338542231197</v>
+        <v>0.9834592376828378</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7654,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>64.63898194801622</v>
+        <v>65.60187112690153</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9954348213476366</v>
+        <v>0.9954695353404203</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7809,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>115.817018559764</v>
+        <v>115.8345136556201</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7937,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9971436147771544</v>
+        <v>0.9970884249425522</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7952,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>55.51132552959839</v>
+        <v>55.49401847848832</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8086,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9971727405462828</v>
+        <v>0.9972811452937365</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8101,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>108.4575821186449</v>
+        <v>107.5749037049325</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8241,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9648653316608252</v>
+        <v>0.9652258247052055</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8256,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>68.52354979709378</v>
+        <v>69.56163619488555</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8390,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9992325111878068</v>
+        <v>0.9992646326372605</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>60.2714381161049</v>
+        <v>61.42771584375142</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8551,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9919703663061823</v>
+        <v>0.9921809831549668</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8566,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.47156925734852</v>
+        <v>68.49952740497744</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8697,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9895551391317098</v>
+        <v>0.9897613062113686</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8712,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>89.01878324743849</v>
+        <v>87.99208219640043</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8858,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.998800331259732</v>
+        <v>0.9987325633363948</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8873,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>67.76928058789454</v>
+        <v>69.61325375395133</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9025,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9889421823193046</v>
+        <v>0.9891859819475552</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9040,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>59.17837568626042</v>
+        <v>59.94226902712902</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9974794247726023</v>
+        <v>0.9974841290226607</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1329,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.84932257726375</v>
+        <v>80.33012521633128</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9811083932998179</v>
+        <v>0.9798918042591797</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1475,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>115.7522058155273</v>
+        <v>117.6275812534228</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1609,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9987052697833996</v>
+        <v>0.9987856083235922</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1624,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>51.35058342332902</v>
+        <v>52.55479192030903</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1776,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9933669947275642</v>
+        <v>0.9935896931632612</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1791,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>70.1373732626401</v>
+        <v>71.45930173322162</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1931,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.998273415690154</v>
+        <v>0.9984508601347684</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>88.8045827908075</v>
+        <v>90.76788253955371</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2083,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9895455536626727</v>
+        <v>0.9894392370339299</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2098,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>50.00561429572827</v>
+        <v>51.12003560714199</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2238,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9761781456666738</v>
+        <v>0.9755130673651049</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2253,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>119.0679683250505</v>
+        <v>121.3928003169146</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2387,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9899647924713609</v>
+        <v>0.9887015359185206</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>103.9383073249867</v>
+        <v>106.2152984237501</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2530,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.991688812320013</v>
+        <v>0.9907633786297898</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2545,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>117.7135668465241</v>
+        <v>116.7160700187831</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2688,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9873194093834948</v>
+        <v>0.9881446812890905</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2703,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>77.79859866226994</v>
+        <v>79.43812052843383</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2834,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9896538121618168</v>
+        <v>0.9898588265143267</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2849,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>93.02907835326126</v>
+        <v>91.99054594492893</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2983,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9636797642929161</v>
+        <v>0.9641583077806466</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2998,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>51.01909300979734</v>
+        <v>51.4939867157395</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3132,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9795826139924885</v>
+        <v>0.9803376984484365</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>34.98659215734752</v>
+        <v>34.95640425253467</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3275,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9956567310459871</v>
+        <v>0.9944744605437555</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3290,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>128.1616329748943</v>
+        <v>130.6947677751264</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3430,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9917534296094678</v>
+        <v>0.9914374446619288</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3445,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>65.35287954089301</v>
+        <v>66.60155687037381</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3591,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9889663426478231</v>
+        <v>0.9881749797396219</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3606,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>87.18018362697926</v>
+        <v>88.69458468025307</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3752,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9828071955097321</v>
+        <v>0.980513889554975</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3767,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>55.37691520887221</v>
+        <v>56.27653264867863</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3907,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.991789677346634</v>
+        <v>0.9916242687385747</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3922,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>80.85542590752334</v>
+        <v>83.1467850655433</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4065,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9711616607006391</v>
+        <v>0.9725623425886601</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4080,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>114.792452878441</v>
+        <v>117.5092410798174</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4220,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9956995593242496</v>
+        <v>0.9959787728924558</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4235,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>41.45538163880272</v>
+        <v>44.96148654285715</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4387,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9963788618844615</v>
+        <v>0.9961231831092113</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4402,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>79.6098402372168</v>
+        <v>81.91126728779936</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4545,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.975793960433989</v>
+        <v>0.9745825354692984</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4560,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>148.2686361118195</v>
+        <v>147.9481449346404</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4697,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9817106166017631</v>
+        <v>0.9822522993131115</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4712,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>93.44801974549767</v>
+        <v>94.37351262407817</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4858,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9893235737635561</v>
+        <v>0.9907482853460023</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4873,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>70.55786668410384</v>
+        <v>73.29683925194578</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5022,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9975436352316964</v>
+        <v>0.9977524393936141</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5037,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>88.31359264402379</v>
+        <v>90.88302782039446</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5180,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9882560743734909</v>
+        <v>0.9886519645151198</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5195,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>48.42122350947736</v>
+        <v>49.13250097213012</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5332,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9646798831083763</v>
+        <v>0.9630675024510874</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>53.29952910852577</v>
+        <v>54.61406049188527</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5478,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.988217169264649</v>
+        <v>0.9878849033820153</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5493,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>92.41465820715565</v>
+        <v>94.39512344169883</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5612,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.991897468395573</v>
+        <v>0.9924057787098854</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5627,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>69.69618780427736</v>
+        <v>73.51050969564595</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5755,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9949836804029981</v>
+        <v>0.9945658444805988</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5770,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>90.00511270097158</v>
+        <v>92.20866201568738</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9732189668475912</v>
+        <v>0.9732173761499854</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5925,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>137.0345112363317</v>
+        <v>141.8522126784031</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6074,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9949499327771718</v>
+        <v>0.9941945494579901</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6089,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>154.538350501332</v>
+        <v>156.403893498615</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6229,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9764450073653038</v>
+        <v>0.9769319829012427</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6244,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>143.1558591468217</v>
+        <v>146.9916810163828</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6387,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9990546977575009</v>
+        <v>0.9988262183310321</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6402,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>64.37525591143908</v>
+        <v>66.78896360785541</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6533,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9964583293177526</v>
+        <v>0.9953833564523249</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6548,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>176.410212859876</v>
+        <v>173.8492075079122</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6685,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9904044197737482</v>
+        <v>0.9903012469655706</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6700,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>55.97332472543877</v>
+        <v>57.23255477759036</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6852,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9925872247774764</v>
+        <v>0.9924744990086561</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6867,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>85.01229584011239</v>
+        <v>86.96756173334364</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7013,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.993663508426692</v>
+        <v>0.993612028548839</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7028,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>47.06540431691857</v>
+        <v>47.71124552311682</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7171,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.980676921001216</v>
+        <v>0.9804238976748005</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7186,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>50.98187701491654</v>
+        <v>51.80949804743138</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7323,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9740437728885312</v>
+        <v>0.9727886467518656</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7338,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>257.2458318674989</v>
+        <v>259.2351168568856</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7490,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9941836194178025</v>
+        <v>0.9946303169581356</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7505,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>63.7168645769865</v>
+        <v>66.04636633686546</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7639,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9834592376828378</v>
+        <v>0.9833503957367665</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7654,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>65.60187112690153</v>
+        <v>68.23661440260942</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9954695353404203</v>
+        <v>0.9954657892986609</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7809,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>115.8345136556201</v>
+        <v>115.7075983273788</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7937,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9970884249425522</v>
+        <v>0.9972307216188042</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7952,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>55.49401847848832</v>
+        <v>55.55431993158961</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8086,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9972811452937365</v>
+        <v>0.9975385653670585</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8101,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>107.5749037049325</v>
+        <v>106.2503430553941</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8241,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9652258247052055</v>
+        <v>0.9658460610774219</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8256,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>69.56163619488555</v>
+        <v>71.87069262409199</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8390,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9992646326372605</v>
+        <v>0.999308336704852</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>61.42771584375142</v>
+        <v>63.57835278851473</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8551,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9921809831549668</v>
+        <v>0.9925349043222731</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8566,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.49952740497744</v>
+        <v>68.56943700849827</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8697,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9897613062113686</v>
+        <v>0.9902241988407736</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8712,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>87.99208219640043</v>
+        <v>86.54778208143705</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8858,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9987325633363948</v>
+        <v>0.9987091786288461</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8873,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>69.61325375395133</v>
+        <v>73.26860034653487</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9025,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9891859819475552</v>
+        <v>0.9894875885429002</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9040,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>59.94226902712902</v>
+        <v>61.56817748868811</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="295">
   <si>
     <t>Province_State</t>
   </si>
@@ -115,31 +115,55 @@
     <t>lastUpdateEt</t>
   </si>
   <si>
+    <t>dateModified</t>
+  </si>
+  <si>
+    <t>checkTimeEt</t>
+  </si>
+  <si>
     <t>death</t>
   </si>
   <si>
     <t>hospitalized</t>
   </si>
   <si>
+    <t>positiveIncrease</t>
+  </si>
+  <si>
+    <t>negativeIncrease</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
     <t>totalTestResults</t>
   </si>
   <si>
+    <t>totalTestResultsIncrease</t>
+  </si>
+  <si>
     <t>deathIncrease</t>
   </si>
   <si>
     <t>hospitalizedIncrease</t>
   </si>
   <si>
-    <t>negativeIncrease</t>
-  </si>
-  <si>
-    <t>positiveIncrease</t>
-  </si>
-  <si>
-    <t>totalTestResultsIncrease</t>
+    <t>commercialScore</t>
+  </si>
+  <si>
+    <t>negativeRegularScore</t>
+  </si>
+  <si>
+    <t>negativeScore</t>
+  </si>
+  <si>
+    <t>positiveScore</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>grade</t>
   </si>
   <si>
     <t>formatted_dates</t>
@@ -737,6 +761,144 @@
   </si>
   <si>
     <t>5/7/2020 04:28</t>
+  </si>
+  <si>
+    <t>2020-05-08T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T08:15:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T14:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-06T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T20:30:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T18:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T10:10:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T15:25:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T19:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T23:59:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T10:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T17:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T13:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T11:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T17:45:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T12:50:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T06:09:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T16:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T04:28:00Z</t>
+  </si>
+  <si>
+    <t>05/07 20:00</t>
+  </si>
+  <si>
+    <t>05/08 04:15</t>
+  </si>
+  <si>
+    <t>05/08 10:00</t>
+  </si>
+  <si>
+    <t>05/05 20:00</t>
+  </si>
+  <si>
+    <t>05/07 16:30</t>
+  </si>
+  <si>
+    <t>05/07 14:00</t>
+  </si>
+  <si>
+    <t>05/06 20:00</t>
+  </si>
+  <si>
+    <t>05/08 06:10</t>
+  </si>
+  <si>
+    <t>05/08 11:25</t>
+  </si>
+  <si>
+    <t>05/07 15:00</t>
+  </si>
+  <si>
+    <t>05/07 19:59</t>
+  </si>
+  <si>
+    <t>05/08 06:00</t>
+  </si>
+  <si>
+    <t>05/07 13:00</t>
+  </si>
+  <si>
+    <t>05/08 09:00</t>
+  </si>
+  <si>
+    <t>05/08 08:00</t>
+  </si>
+  <si>
+    <t>05/08 07:00</t>
+  </si>
+  <si>
+    <t>05/08 11:00</t>
+  </si>
+  <si>
+    <t>05/07 13:45</t>
+  </si>
+  <si>
+    <t>05/08 08:50</t>
+  </si>
+  <si>
+    <t>05/07 05:00</t>
+  </si>
+  <si>
+    <t>05/07 02:09</t>
+  </si>
+  <si>
+    <t>05/07 12:13</t>
+  </si>
+  <si>
+    <t>05/07 00:28</t>
   </si>
 </sst>
 </file>
@@ -1094,13 +1256,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF52"/>
+  <dimension ref="A1:BN52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:66">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,16 +1434,40 @@
       <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:66">
       <c r="A2" s="1">
         <v>1326</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <v>9385</v>
@@ -1311,10 +1497,10 @@
         <v>4903185</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O2">
-        <v>0.9974841290226607</v>
+        <v>0.9974118314810448</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1326,16 +1512,16 @@
         <v>15.6</v>
       </c>
       <c r="S2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="T2">
-        <v>80.33012521633128</v>
+        <v>80.78290266831732</v>
       </c>
       <c r="U2">
         <v>20200508</v>
       </c>
       <c r="V2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="W2">
         <v>9221</v>
@@ -1353,84 +1539,105 @@
         <v>266</v>
       </c>
       <c r="AG2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI2">
+        <v>226</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK2">
         <v>375</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>1207</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
+        <v>323</v>
+      </c>
+      <c r="AN2">
+        <v>4618</v>
+      </c>
+      <c r="AO2">
         <v>120114</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <v>120114</v>
-      </c>
-      <c r="AM2">
-        <v>26</v>
-      </c>
-      <c r="AN2">
-        <v>29</v>
-      </c>
-      <c r="AO2">
-        <v>4618</v>
-      </c>
-      <c r="AP2">
-        <v>323</v>
       </c>
       <c r="AQ2">
         <v>4941</v>
       </c>
-      <c r="AR2" t="s">
-        <v>108</v>
+      <c r="AR2">
+        <v>26</v>
       </c>
       <c r="AS2">
+        <v>29</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA2">
         <v>2214.313663418081</v>
       </c>
-      <c r="AT2">
+      <c r="BB2">
         <v>0.001880614335375883</v>
       </c>
-      <c r="AU2">
+      <c r="BC2">
         <v>0.02261652374935883</v>
       </c>
-      <c r="AV2">
+      <c r="BD2">
         <v>7.68</v>
       </c>
-      <c r="AW2">
+      <c r="BE2">
         <v>0.02449713808473472</v>
       </c>
-      <c r="AX2">
+      <c r="BF2">
         <v>6.690478279736778</v>
       </c>
-      <c r="AY2">
+      <c r="BG2">
         <v>5.079593629954077</v>
       </c>
-      <c r="AZ2">
+      <c r="BH2">
         <v>3.972434276957365</v>
       </c>
-      <c r="BA2">
+      <c r="BI2">
         <v>2.583198773968623</v>
       </c>
-      <c r="BB2">
+      <c r="BJ2">
         <v>5.044904132647613</v>
       </c>
-      <c r="BC2">
+      <c r="BK2">
         <v>3.964778022022376</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:66">
       <c r="A3" s="1">
         <v>1327</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D3">
         <v>377</v>
@@ -1457,10 +1664,10 @@
         <v>731545</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O3">
-        <v>0.9798918042591797</v>
+        <v>0.9768005811292281</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1472,16 +1679,16 @@
         <v>12.6</v>
       </c>
       <c r="S3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="T3">
-        <v>117.6275812534228</v>
+        <v>120.1532374953471</v>
       </c>
       <c r="U3">
         <v>20200508</v>
       </c>
       <c r="V3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="W3">
         <v>377</v>
@@ -1496,84 +1703,105 @@
         <v>305</v>
       </c>
       <c r="AG3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AH3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI3">
+        <v>226</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK3">
         <v>10</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
+        <v>3</v>
+      </c>
+      <c r="AN3">
+        <v>1129</v>
+      </c>
+      <c r="AO3">
         <v>25473</v>
       </c>
-      <c r="AL3">
+      <c r="AP3">
         <v>25473</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>1129</v>
-      </c>
-      <c r="AP3">
-        <v>3</v>
       </c>
       <c r="AQ3">
         <v>1132</v>
       </c>
-      <c r="AR3" t="s">
-        <v>108</v>
+      <c r="AR3">
+        <v>0</v>
       </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA3">
         <v>855.3040395087586</v>
       </c>
-      <c r="AT3">
+      <c r="BB3">
         <v>0.0005153476546213836</v>
       </c>
-      <c r="AU3">
+      <c r="BC3">
         <v>0.03430547676492902</v>
       </c>
-      <c r="AV3">
+      <c r="BD3">
         <v>1.48</v>
       </c>
-      <c r="AW3">
+      <c r="BE3">
         <v>0.0348208244195504</v>
       </c>
-      <c r="AX3">
+      <c r="BF3">
         <v>5.864241046319956</v>
       </c>
-      <c r="AY3">
+      <c r="BG3">
         <v>4.406080095600492</v>
       </c>
-      <c r="AZ3">
+      <c r="BH3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BA3">
+      <c r="BI3">
         <v>1</v>
       </c>
-      <c r="BB3">
+      <c r="BJ3">
         <v>4.399604505689688</v>
       </c>
-      <c r="BC3">
+      <c r="BK3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BD3">
+      <c r="BL3">
         <v>1.204119982655925</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:66">
       <c r="A4" s="1">
         <v>1328</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>10526</v>
@@ -1606,10 +1834,10 @@
         <v>7278717</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O4">
-        <v>0.9987856083235922</v>
+        <v>0.9987657534875234</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1621,16 +1849,16 @@
         <v>13.2</v>
       </c>
       <c r="S4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="T4">
-        <v>52.55479192030903</v>
+        <v>53.74762940074164</v>
       </c>
       <c r="U4">
         <v>20200508</v>
       </c>
       <c r="V4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="W4">
         <v>10526</v>
@@ -1654,93 +1882,114 @@
         <v>1747</v>
       </c>
       <c r="AG4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI4">
+        <v>226</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK4">
         <v>517</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>1482</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
+        <v>581</v>
+      </c>
+      <c r="AN4">
+        <v>4110</v>
+      </c>
+      <c r="AO4">
         <v>101125</v>
       </c>
-      <c r="AL4">
+      <c r="AP4">
         <v>101125</v>
-      </c>
-      <c r="AM4">
-        <v>67</v>
-      </c>
-      <c r="AN4">
-        <v>33</v>
-      </c>
-      <c r="AO4">
-        <v>4110</v>
-      </c>
-      <c r="AP4">
-        <v>581</v>
       </c>
       <c r="AQ4">
         <v>4691</v>
       </c>
-      <c r="AR4" t="s">
-        <v>108</v>
+      <c r="AR4">
+        <v>67</v>
       </c>
       <c r="AS4">
+        <v>33</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA4">
         <v>2697.909746451871</v>
       </c>
-      <c r="AT4">
+      <c r="BB4">
         <v>0.001446133982128993</v>
       </c>
-      <c r="AU4">
+      <c r="BC4">
         <v>0.01244711121479239</v>
       </c>
-      <c r="AV4">
+      <c r="BD4">
         <v>10.41</v>
       </c>
-      <c r="AW4">
+      <c r="BE4">
         <v>0.01647364501188877</v>
       </c>
-      <c r="AX4">
+      <c r="BF4">
         <v>6.862054834130968</v>
       </c>
-      <c r="AY4">
+      <c r="BG4">
         <v>5.078844537332663</v>
       </c>
-      <c r="AZ4">
+      <c r="BH4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BA4">
+      <c r="BI4">
         <v>2.713490543093942</v>
       </c>
-      <c r="BB4">
+      <c r="BJ4">
         <v>4.95712340411303</v>
       </c>
-      <c r="BC4">
+      <c r="BK4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BD4">
+      <c r="BL4">
         <v>2.863322860120456</v>
       </c>
-      <c r="BE4">
+      <c r="BM4">
         <v>2.469822015978163</v>
       </c>
-      <c r="BF4">
+      <c r="BN4">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:66">
       <c r="A5" s="1">
         <v>1329</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>3747</v>
@@ -1773,10 +2022,10 @@
         <v>3017804</v>
       </c>
       <c r="N5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O5">
-        <v>0.9935896931632612</v>
+        <v>0.9934403667167572</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1788,16 +2037,16 @@
         <v>15.4</v>
       </c>
       <c r="S5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="T5">
-        <v>71.45930173322162</v>
+        <v>72.62440998883179</v>
       </c>
       <c r="U5">
         <v>20200508</v>
       </c>
       <c r="V5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="W5">
         <v>3694</v>
@@ -1821,90 +2070,111 @@
         <v>2159</v>
       </c>
       <c r="AG5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI5">
+        <v>227</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK5">
         <v>88</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>466</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
+        <v>83</v>
+      </c>
+      <c r="AN5">
+        <v>3916</v>
+      </c>
+      <c r="AO5">
         <v>63994</v>
       </c>
-      <c r="AL5">
+      <c r="AP5">
         <v>63994</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5">
-        <v>4</v>
-      </c>
-      <c r="AO5">
-        <v>3916</v>
-      </c>
-      <c r="AP5">
-        <v>83</v>
       </c>
       <c r="AQ5">
         <v>3999</v>
       </c>
-      <c r="AR5" t="s">
-        <v>108</v>
+      <c r="AR5">
+        <v>1</v>
       </c>
       <c r="AS5">
+        <v>4</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA5">
         <v>1737.182776796961</v>
       </c>
-      <c r="AT5">
+      <c r="BB5">
         <v>0.001224068892479432</v>
       </c>
-      <c r="AU5">
+      <c r="BC5">
         <v>0.01998141695086891</v>
       </c>
-      <c r="AV5">
+      <c r="BD5">
         <v>5.77</v>
       </c>
-      <c r="AW5">
+      <c r="BE5">
         <v>0.02120548584334834</v>
       </c>
-      <c r="AX5">
+      <c r="BF5">
         <v>6.479691029845591</v>
       </c>
-      <c r="AY5">
+      <c r="BG5">
         <v>4.806139256967569</v>
       </c>
-      <c r="AZ5">
+      <c r="BH5">
         <v>3.573683693093798</v>
       </c>
-      <c r="BA5">
+      <c r="BI5">
         <v>1.944482672150169</v>
       </c>
-      <c r="BB5">
+      <c r="BJ5">
         <v>4.780317312140151</v>
       </c>
-      <c r="BC5">
+      <c r="BK5">
         <v>3.567496891104223</v>
       </c>
-      <c r="BD5">
+      <c r="BL5">
         <v>1.845098040014257</v>
       </c>
-      <c r="BF5">
+      <c r="BN5">
         <v>1.146128035678238</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:66">
       <c r="A6" s="1">
         <v>1330</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D6">
         <v>63779</v>
@@ -1928,10 +2198,10 @@
         <v>39512223</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O6">
-        <v>0.9984508601347684</v>
+        <v>0.9986064889115503</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1943,16 +2213,16 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="T6">
-        <v>90.76788253955371</v>
+        <v>92.89174123324548</v>
       </c>
       <c r="U6">
         <v>20200508</v>
       </c>
       <c r="V6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="W6">
         <v>62512</v>
@@ -1967,87 +2237,108 @@
         <v>1342</v>
       </c>
       <c r="AG6" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI6">
+        <v>228</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK6">
         <v>2585</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
+        <v>1898</v>
+      </c>
+      <c r="AN6">
+        <v>30500</v>
+      </c>
+      <c r="AO6">
         <v>875272</v>
       </c>
-      <c r="AL6">
+      <c r="AP6">
         <v>875272</v>
-      </c>
-      <c r="AM6">
-        <v>81</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>30500</v>
-      </c>
-      <c r="AP6">
-        <v>1898</v>
       </c>
       <c r="AQ6">
         <v>32398</v>
       </c>
-      <c r="AR6" t="s">
-        <v>108</v>
+      <c r="AR6">
+        <v>81</v>
       </c>
       <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA6">
         <v>6285.874879442002</v>
       </c>
-      <c r="AT6">
+      <c r="BB6">
         <v>0.001582092710906192</v>
       </c>
-      <c r="AU6">
+      <c r="BC6">
         <v>0.02056983733868884</v>
       </c>
-      <c r="AV6">
+      <c r="BD6">
         <v>7.14</v>
       </c>
-      <c r="AW6">
+      <c r="BE6">
         <v>0.02215193004959503</v>
       </c>
-      <c r="AX6">
+      <c r="BF6">
         <v>7.596731464241672</v>
       </c>
-      <c r="AY6">
+      <c r="BG6">
         <v>5.942143035585056</v>
       </c>
-      <c r="AZ6">
+      <c r="BH6">
         <v>4.804677705595455</v>
       </c>
-      <c r="BA6">
+      <c r="BI6">
         <v>3.417139409727326</v>
       </c>
-      <c r="BB6">
+      <c r="BJ6">
         <v>5.909962321653986</v>
       </c>
-      <c r="BC6">
+      <c r="BK6">
         <v>4.795963393880709</v>
       </c>
-      <c r="BD6">
+      <c r="BL6">
         <v>3.654561554741743</v>
       </c>
-      <c r="BE6">
+      <c r="BM6">
         <v>3.127752515832973</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:66">
       <c r="A7" s="1">
         <v>1331</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D7">
         <v>18827</v>
@@ -2080,10 +2371,10 @@
         <v>5758736</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O7">
-        <v>0.9894392370339299</v>
+        <v>0.9891953058558266</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2095,16 +2386,16 @@
         <v>9</v>
       </c>
       <c r="S7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="T7">
-        <v>51.12003560714199</v>
+        <v>52.32099255310399</v>
       </c>
       <c r="U7">
         <v>20200508</v>
       </c>
       <c r="V7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="W7">
         <v>18801</v>
@@ -2122,87 +2413,108 @@
         <v>2869</v>
       </c>
       <c r="AG7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI7">
+        <v>229</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK7">
         <v>961</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>3557</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
+        <v>971</v>
+      </c>
+      <c r="AN7">
+        <v>2218</v>
+      </c>
+      <c r="AO7">
         <v>94536</v>
       </c>
-      <c r="AL7">
+      <c r="AP7">
         <v>94536</v>
-      </c>
-      <c r="AM7">
-        <v>40</v>
-      </c>
-      <c r="AN7">
-        <v>571</v>
-      </c>
-      <c r="AO7">
-        <v>2218</v>
-      </c>
-      <c r="AP7">
-        <v>971</v>
       </c>
       <c r="AQ7">
         <v>3189</v>
       </c>
-      <c r="AR7" t="s">
-        <v>108</v>
+      <c r="AR7">
+        <v>40</v>
       </c>
       <c r="AS7">
+        <v>571</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA7">
         <v>2399.736652218322</v>
       </c>
-      <c r="AT7">
+      <c r="BB7">
         <v>0.003264778937600196</v>
       </c>
-      <c r="AU7">
+      <c r="BC7">
         <v>0.01315132348487585</v>
       </c>
-      <c r="AV7">
+      <c r="BD7">
         <v>19.89</v>
       </c>
-      <c r="AW7">
+      <c r="BE7">
         <v>0.01641610242247604</v>
       </c>
-      <c r="AX7">
+      <c r="BF7">
         <v>6.760327169453462</v>
       </c>
-      <c r="AY7">
+      <c r="BG7">
         <v>4.975597222520748</v>
       </c>
-      <c r="AZ7">
+      <c r="BH7">
         <v>4.274781122605907</v>
       </c>
-      <c r="BA7">
+      <c r="BI7">
         <v>2.982271233039568</v>
       </c>
-      <c r="BB7">
+      <c r="BJ7">
         <v>4.879296629751168</v>
       </c>
-      <c r="BC7">
+      <c r="BK7">
         <v>4.274180949419634</v>
       </c>
-      <c r="BD7">
+      <c r="BL7">
         <v>2.914343157119441</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:66">
       <c r="A8" s="1">
         <v>1332</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>32411</v>
@@ -2235,10 +2547,10 @@
         <v>3565287</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O8">
-        <v>0.9755130673651049</v>
+        <v>0.9751291047406612</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2250,16 +2562,16 @@
         <v>10.4</v>
       </c>
       <c r="S8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="T8">
-        <v>121.3928003169146</v>
+        <v>124.2885804134327</v>
       </c>
       <c r="U8">
         <v>20200508</v>
       </c>
       <c r="V8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="W8">
         <v>32411</v>
@@ -2277,87 +2589,108 @@
         <v>5413</v>
       </c>
       <c r="AG8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH8" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI8">
+        <v>230</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK8">
         <v>2874</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>9389</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
+        <v>627</v>
+      </c>
+      <c r="AN8">
+        <v>3740</v>
+      </c>
+      <c r="AO8">
         <v>120541</v>
       </c>
-      <c r="AL8">
+      <c r="AP8">
         <v>120541</v>
-      </c>
-      <c r="AM8">
-        <v>77</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>3740</v>
-      </c>
-      <c r="AP8">
-        <v>627</v>
       </c>
       <c r="AQ8">
         <v>4367</v>
       </c>
-      <c r="AR8" t="s">
-        <v>108</v>
+      <c r="AR8">
+        <v>77</v>
       </c>
       <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA8">
         <v>1888.19675881514</v>
       </c>
-      <c r="AT8">
+      <c r="BB8">
         <v>0.009090712753279049</v>
       </c>
-      <c r="AU8">
+      <c r="BC8">
         <v>0.02471890762230362</v>
       </c>
-      <c r="AV8">
+      <c r="BD8">
         <v>26.89</v>
       </c>
-      <c r="AW8">
+      <c r="BE8">
         <v>0.03380962037558267</v>
       </c>
-      <c r="AX8">
+      <c r="BF8">
         <v>6.552094495618293</v>
       </c>
-      <c r="AY8">
+      <c r="BG8">
         <v>5.081134790024547</v>
       </c>
-      <c r="AZ8">
+      <c r="BH8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BA8">
+      <c r="BI8">
         <v>3.458486763798207</v>
       </c>
-      <c r="BB8">
+      <c r="BJ8">
         <v>4.94512377012212</v>
       </c>
-      <c r="BC8">
+      <c r="BK8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BD8">
+      <c r="BL8">
         <v>3.122870922864435</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:66">
       <c r="A9" s="1">
         <v>1333</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>6111</v>
@@ -2384,10 +2717,10 @@
         <v>973764</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O9">
-        <v>0.9887015359185206</v>
+        <v>0.9873546342444912</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2399,16 +2732,16 @@
         <v>8.1</v>
       </c>
       <c r="S9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="T9">
-        <v>106.2152984237501</v>
+        <v>108.5271790550277</v>
       </c>
       <c r="U9">
         <v>20200508</v>
       </c>
       <c r="V9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="W9">
         <v>6111</v>
@@ -2423,84 +2756,105 @@
         <v>2288</v>
       </c>
       <c r="AG9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK9">
         <v>213</v>
       </c>
-      <c r="AH9" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI9">
-        <v>213</v>
-      </c>
-      <c r="AK9">
+      <c r="AM9">
+        <v>172</v>
+      </c>
+      <c r="AN9">
+        <v>766</v>
+      </c>
+      <c r="AO9">
         <v>28264</v>
       </c>
-      <c r="AL9">
+      <c r="AP9">
         <v>28264</v>
-      </c>
-      <c r="AM9">
-        <v>11</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>766</v>
-      </c>
-      <c r="AP9">
-        <v>172</v>
       </c>
       <c r="AQ9">
         <v>938</v>
       </c>
-      <c r="AR9" t="s">
-        <v>108</v>
+      <c r="AR9">
+        <v>11</v>
       </c>
       <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA9">
         <v>986.7948114983175</v>
       </c>
-      <c r="AT9">
+      <c r="BB9">
         <v>0.006275647898258715</v>
       </c>
-      <c r="AU9">
+      <c r="BC9">
         <v>0.02274986547048361</v>
       </c>
-      <c r="AV9">
+      <c r="BD9">
         <v>21.62</v>
       </c>
-      <c r="AW9">
+      <c r="BE9">
         <v>0.02902551336874232</v>
       </c>
-      <c r="AX9">
+      <c r="BF9">
         <v>5.98845371466423</v>
       </c>
-      <c r="AY9">
+      <c r="BG9">
         <v>4.451233624426789</v>
       </c>
-      <c r="AZ9">
+      <c r="BH9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BA9">
+      <c r="BI9">
         <v>2.328379603438738</v>
       </c>
-      <c r="BB9">
+      <c r="BJ9">
         <v>4.345432547499147</v>
       </c>
-      <c r="BC9">
+      <c r="BK9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BD9">
+      <c r="BL9">
         <v>2.460897842756548</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:66">
       <c r="A10" s="1">
         <v>1334</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D10">
         <v>5899</v>
@@ -2527,10 +2881,10 @@
         <v>705749</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O10">
-        <v>0.9907633786297898</v>
+        <v>0.9895088165220434</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2542,16 +2896,16 @@
         <v>14.3</v>
       </c>
       <c r="S10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="T10">
-        <v>116.7160700187831</v>
+        <v>115.7951037331318</v>
       </c>
       <c r="U10">
         <v>20200508</v>
       </c>
       <c r="V10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="W10">
         <v>5899</v>
@@ -2572,90 +2926,111 @@
         <v>825</v>
       </c>
       <c r="AG10" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI10">
+        <v>232</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK10">
         <v>304</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
+        <v>245</v>
+      </c>
+      <c r="AN10">
+        <v>1014</v>
+      </c>
+      <c r="AO10">
         <v>27115</v>
       </c>
-      <c r="AL10">
+      <c r="AP10">
         <v>27115</v>
-      </c>
-      <c r="AM10">
-        <v>19</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>1014</v>
-      </c>
-      <c r="AP10">
-        <v>245</v>
       </c>
       <c r="AQ10">
         <v>1259</v>
       </c>
-      <c r="AR10" t="s">
-        <v>108</v>
+      <c r="AR10">
+        <v>19</v>
       </c>
       <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA10">
         <v>840.0886857945416</v>
       </c>
-      <c r="AT10">
+      <c r="BB10">
         <v>0.008358495725817535</v>
       </c>
-      <c r="AU10">
+      <c r="BC10">
         <v>0.03006167915221984</v>
       </c>
-      <c r="AV10">
+      <c r="BD10">
         <v>21.76</v>
       </c>
-      <c r="AW10">
+      <c r="BE10">
         <v>0.03842017487803737</v>
       </c>
-      <c r="AX10">
+      <c r="BF10">
         <v>5.848650271452624</v>
       </c>
-      <c r="AY10">
+      <c r="BG10">
         <v>4.433209608771474</v>
       </c>
-      <c r="AZ10">
+      <c r="BH10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BA10">
+      <c r="BI10">
         <v>2.482873583608754</v>
       </c>
-      <c r="BB10">
+      <c r="BJ10">
         <v>4.326663506724679</v>
       </c>
-      <c r="BC10">
+      <c r="BK10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BD10">
+      <c r="BL10">
         <v>2.650307523131937</v>
       </c>
-      <c r="BE10">
+      <c r="BM10">
         <v>2.113943352306837</v>
       </c>
-      <c r="BF10">
+      <c r="BN10">
         <v>1.959041392321094</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:66">
       <c r="A11" s="1">
         <v>1335</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D11">
         <v>39199</v>
@@ -2685,10 +3060,10 @@
         <v>21477737</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O11">
-        <v>0.9881446812890905</v>
+        <v>0.9888857171817753</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2700,16 +3075,16 @@
         <v>13.5</v>
       </c>
       <c r="S11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="T11">
-        <v>79.43812052843383</v>
+        <v>80.77972255039118</v>
       </c>
       <c r="U11">
         <v>20200508</v>
       </c>
       <c r="V11" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="W11">
         <v>39199</v>
@@ -2724,84 +3099,105 @@
         <v>7157</v>
       </c>
       <c r="AG11" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AH11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI11">
+        <v>233</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK11">
         <v>1738</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>7157</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
+        <v>371</v>
+      </c>
+      <c r="AN11">
+        <v>20020</v>
+      </c>
+      <c r="AO11">
         <v>514774</v>
       </c>
-      <c r="AL11">
+      <c r="AP11">
         <v>513341</v>
-      </c>
-      <c r="AM11">
-        <v>71</v>
-      </c>
-      <c r="AN11">
-        <v>167</v>
-      </c>
-      <c r="AO11">
-        <v>20020</v>
-      </c>
-      <c r="AP11">
-        <v>371</v>
       </c>
       <c r="AQ11">
         <v>20391</v>
       </c>
-      <c r="AR11" t="s">
-        <v>108</v>
+      <c r="AR11">
+        <v>71</v>
       </c>
       <c r="AS11">
+        <v>167</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA11">
         <v>4634.40794492673</v>
       </c>
-      <c r="AT11">
+      <c r="BB11">
         <v>0.001825099171295374</v>
       </c>
-      <c r="AU11">
+      <c r="BC11">
         <v>0.02207597569520476</v>
       </c>
-      <c r="AV11">
+      <c r="BD11">
         <v>7.64</v>
       </c>
-      <c r="AW11">
+      <c r="BE11">
         <v>0.02390107486650013</v>
       </c>
-      <c r="AX11">
+      <c r="BF11">
         <v>7.331988520035549</v>
       </c>
-      <c r="AY11">
+      <c r="BG11">
         <v>5.710405952284654</v>
       </c>
-      <c r="AZ11">
+      <c r="BH11">
         <v>4.593274987938277</v>
       </c>
-      <c r="BA11">
+      <c r="BI11">
         <v>3.222456336679247</v>
       </c>
-      <c r="BB11">
+      <c r="BJ11">
         <v>5.675908427287614</v>
       </c>
-      <c r="BC11">
+      <c r="BK11">
         <v>4.593274987938277</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:66">
       <c r="A12" s="1">
         <v>1336</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D12">
         <v>32181</v>
@@ -2831,10 +3227,10 @@
         <v>10617423</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O12">
-        <v>0.9898588265143267</v>
+        <v>0.9901188982448967</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2846,16 +3242,16 @@
         <v>14</v>
       </c>
       <c r="S12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="T12">
-        <v>91.99054594492893</v>
+        <v>90.89888686442362</v>
       </c>
       <c r="U12">
         <v>20200508</v>
       </c>
       <c r="V12" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="W12">
         <v>32106</v>
@@ -2870,84 +3266,105 @@
         <v>1399</v>
       </c>
       <c r="AG12" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AH12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI12">
+        <v>234</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK12">
         <v>1377</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>5935</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
+        <v>667</v>
+      </c>
+      <c r="AN12">
+        <v>9597</v>
+      </c>
+      <c r="AO12">
         <v>227567</v>
       </c>
-      <c r="AL12">
+      <c r="AP12">
         <v>227567</v>
-      </c>
-      <c r="AM12">
-        <v>41</v>
-      </c>
-      <c r="AN12">
-        <v>100</v>
-      </c>
-      <c r="AO12">
-        <v>9597</v>
-      </c>
-      <c r="AP12">
-        <v>667</v>
       </c>
       <c r="AQ12">
         <v>10264</v>
       </c>
-      <c r="AR12" t="s">
-        <v>108</v>
+      <c r="AR12">
+        <v>41</v>
       </c>
       <c r="AS12">
+        <v>100</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA12">
         <v>3258.438736573084</v>
       </c>
-      <c r="AT12">
+      <c r="BB12">
         <v>0.003023897606792157</v>
       </c>
-      <c r="AU12">
+      <c r="BC12">
         <v>0.01840945773753198</v>
       </c>
-      <c r="AV12">
+      <c r="BD12">
         <v>14.11</v>
       </c>
-      <c r="AW12">
+      <c r="BE12">
         <v>0.02143335534432414</v>
       </c>
-      <c r="AX12">
+      <c r="BF12">
         <v>7.026019120070406</v>
       </c>
-      <c r="AY12">
+      <c r="BG12">
         <v>5.357109284274045</v>
       </c>
-      <c r="AZ12">
+      <c r="BH12">
         <v>4.507599535342071</v>
       </c>
-      <c r="BA12">
+      <c r="BI12">
         <v>3.146128035678238</v>
       </c>
-      <c r="BB12">
+      <c r="BJ12">
         <v>5.291060116338353</v>
       </c>
-      <c r="BC12">
+      <c r="BK12">
         <v>4.506586201357899</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:66">
       <c r="A13" s="1">
         <v>1337</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>629</v>
@@ -2980,10 +3397,10 @@
         <v>1415872</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O13">
-        <v>0.9641583077806466</v>
+        <v>0.9644910218614252</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2995,16 +3412,16 @@
         <v>9.9</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="T13">
-        <v>51.4939867157395</v>
+        <v>49.7350471703806</v>
       </c>
       <c r="U13">
         <v>20200508</v>
       </c>
       <c r="V13" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="W13">
         <v>629</v>
@@ -3019,84 +3436,105 @@
         <v>565</v>
       </c>
       <c r="AG13" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI13">
+        <v>232</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK13">
         <v>17</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>74</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
+        <v>3</v>
+      </c>
+      <c r="AN13">
+        <v>1074</v>
+      </c>
+      <c r="AO13">
         <v>36618</v>
       </c>
-      <c r="AL13">
+      <c r="AP13">
         <v>36618</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>1074</v>
-      </c>
-      <c r="AP13">
-        <v>3</v>
       </c>
       <c r="AQ13">
         <v>1077</v>
       </c>
-      <c r="AR13" t="s">
-        <v>108</v>
+      <c r="AR13">
+        <v>0</v>
       </c>
       <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA13">
         <v>1189.904197824346</v>
       </c>
-      <c r="AT13">
+      <c r="BB13">
         <v>0.0004442491976675858</v>
       </c>
-      <c r="AU13">
+      <c r="BC13">
         <v>0.02541825814762916</v>
       </c>
-      <c r="AV13">
+      <c r="BD13">
         <v>1.72</v>
       </c>
-      <c r="AW13">
+      <c r="BE13">
         <v>0.02586250734529675</v>
       </c>
-      <c r="AX13">
+      <c r="BF13">
         <v>6.151023993321008</v>
       </c>
-      <c r="AY13">
+      <c r="BG13">
         <v>4.563694620340237</v>
       </c>
-      <c r="AZ13">
+      <c r="BH13">
         <v>2.798650645445269</v>
       </c>
-      <c r="BA13">
+      <c r="BI13">
         <v>1.230448921378274</v>
       </c>
-      <c r="BB13">
+      <c r="BJ13">
         <v>4.556169779397686</v>
       </c>
-      <c r="BC13">
+      <c r="BK13">
         <v>2.798650645445269</v>
       </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:66">
       <c r="A14" s="1">
         <v>1338</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D14">
         <v>2178</v>
@@ -3129,10 +3567,10 @@
         <v>1787065</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O14">
-        <v>0.9803376984484365</v>
+        <v>0.9809491127878112</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3144,16 +3582,16 @@
         <v>11.5</v>
       </c>
       <c r="S14" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="T14">
-        <v>34.95640425253467</v>
+        <v>34.95815978840352</v>
       </c>
       <c r="U14">
         <v>20200508</v>
       </c>
       <c r="V14" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="W14">
         <v>2178</v>
@@ -3171,84 +3609,105 @@
         <v>1420</v>
       </c>
       <c r="AG14" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH14" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI14">
+        <v>235</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK14">
         <v>67</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>206</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
+        <v>20</v>
+      </c>
+      <c r="AN14">
+        <v>360</v>
+      </c>
+      <c r="AO14">
         <v>31270</v>
       </c>
-      <c r="AL14">
+      <c r="AP14">
         <v>31270</v>
-      </c>
-      <c r="AM14">
-        <v>1</v>
-      </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <v>360</v>
-      </c>
-      <c r="AP14">
-        <v>20</v>
       </c>
       <c r="AQ14">
         <v>380</v>
       </c>
-      <c r="AR14" t="s">
-        <v>108</v>
+      <c r="AR14">
+        <v>1</v>
       </c>
       <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA14">
         <v>1336.811505037266</v>
       </c>
-      <c r="AT14">
+      <c r="BB14">
         <v>0.001218758131349447</v>
       </c>
-      <c r="AU14">
+      <c r="BC14">
         <v>0.01627920640827278</v>
       </c>
-      <c r="AV14">
+      <c r="BD14">
         <v>6.97</v>
       </c>
-      <c r="AW14">
+      <c r="BE14">
         <v>0.01749796453962223</v>
       </c>
-      <c r="AX14">
+      <c r="BF14">
         <v>6.252140349163694</v>
       </c>
-      <c r="AY14">
+      <c r="BG14">
         <v>4.495127881242933</v>
       </c>
-      <c r="AZ14">
+      <c r="BH14">
         <v>3.338057875419756</v>
       </c>
-      <c r="BA14">
+      <c r="BI14">
         <v>1.826074802700826</v>
       </c>
-      <c r="BB14">
+      <c r="BJ14">
         <v>4.463773578899397</v>
       </c>
-      <c r="BC14">
+      <c r="BK14">
         <v>3.338057875419756</v>
       </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:66">
       <c r="A15" s="1">
         <v>1339</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D15">
         <v>73760</v>
@@ -3272,10 +3731,10 @@
         <v>12671821</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O15">
-        <v>0.9944744605437555</v>
+        <v>0.9930945240606024</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3287,16 +3746,16 @@
         <v>10.9</v>
       </c>
       <c r="S15" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="T15">
-        <v>130.6947677751264</v>
+        <v>132.8768944379669</v>
       </c>
       <c r="U15">
         <v>20200508</v>
       </c>
       <c r="V15" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="W15">
         <v>73760</v>
@@ -3314,90 +3773,111 @@
         <v>727</v>
       </c>
       <c r="AG15" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AH15" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI15">
+        <v>226</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK15">
         <v>3241</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
+        <v>2887</v>
+      </c>
+      <c r="AN15">
+        <v>17784</v>
+      </c>
+      <c r="AO15">
         <v>399714</v>
       </c>
-      <c r="AL15">
+      <c r="AP15">
         <v>399714</v>
-      </c>
-      <c r="AM15">
-        <v>130</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>17784</v>
-      </c>
-      <c r="AP15">
-        <v>2887</v>
       </c>
       <c r="AQ15">
         <v>20671</v>
       </c>
-      <c r="AR15" t="s">
-        <v>108</v>
+      <c r="AR15">
+        <v>130</v>
       </c>
       <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA15">
         <v>3559.750131680593</v>
       </c>
-      <c r="AT15">
+      <c r="BB15">
         <v>0.005820789293030575</v>
       </c>
-      <c r="AU15">
+      <c r="BC15">
         <v>0.02572274340049469</v>
       </c>
-      <c r="AV15">
+      <c r="BD15">
         <v>18.45</v>
       </c>
-      <c r="AW15">
+      <c r="BE15">
         <v>0.03154353269352526</v>
       </c>
-      <c r="AX15">
+      <c r="BF15">
         <v>7.102839029518357</v>
       </c>
-      <c r="AY15">
+      <c r="BG15">
         <v>5.60174935970936</v>
       </c>
-      <c r="AZ15">
+      <c r="BH15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BA15">
+      <c r="BI15">
         <v>3.51067903103221</v>
       </c>
-      <c r="BB15">
+      <c r="BJ15">
         <v>5.513156314927574</v>
       </c>
-      <c r="BC15">
+      <c r="BK15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BD15">
+      <c r="BL15">
         <v>3.676693609624866</v>
       </c>
-      <c r="BE15">
+      <c r="BM15">
         <v>3.087071205906535</v>
       </c>
-      <c r="BF15">
+      <c r="BN15">
         <v>2.861534410859038</v>
       </c>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:66">
       <c r="A16" s="1">
         <v>1340</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D16">
         <v>23146</v>
@@ -3427,10 +3907,10 @@
         <v>6732219</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O16">
-        <v>0.9914374446619288</v>
+        <v>0.9909218779308179</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3442,16 +3922,16 @@
         <v>11.6</v>
       </c>
       <c r="S16" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="T16">
-        <v>66.60155687037381</v>
+        <v>67.64563763286434</v>
       </c>
       <c r="U16">
         <v>20200508</v>
       </c>
       <c r="V16" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="W16">
         <v>23146</v>
@@ -3475,93 +3955,114 @@
         <v>219</v>
       </c>
       <c r="AG16" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI16">
+        <v>236</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK16">
         <v>1447</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <v>4389</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
+        <v>643</v>
+      </c>
+      <c r="AN16">
+        <v>4703</v>
+      </c>
+      <c r="AO16">
         <v>130128</v>
       </c>
-      <c r="AL16">
+      <c r="AP16">
         <v>130128</v>
-      </c>
-      <c r="AM16">
-        <v>33</v>
-      </c>
-      <c r="AN16">
-        <v>4389</v>
-      </c>
-      <c r="AO16">
-        <v>4703</v>
-      </c>
-      <c r="AP16">
-        <v>643</v>
       </c>
       <c r="AQ16">
         <v>5346</v>
       </c>
-      <c r="AR16" t="s">
-        <v>108</v>
+      <c r="AR16">
+        <v>33</v>
       </c>
       <c r="AS16">
+        <v>4389</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA16">
         <v>2594.651999787255</v>
       </c>
-      <c r="AT16">
+      <c r="BB16">
         <v>0.003438093739968946</v>
       </c>
-      <c r="AU16">
+      <c r="BC16">
         <v>0.01589104573098409</v>
       </c>
-      <c r="AV16">
+      <c r="BD16">
         <v>17.79</v>
       </c>
-      <c r="AW16">
+      <c r="BE16">
         <v>0.01932913947095304</v>
       </c>
-      <c r="AX16">
+      <c r="BF16">
         <v>6.828158235192161</v>
       </c>
-      <c r="AY16">
+      <c r="BG16">
         <v>5.114370754956073</v>
       </c>
-      <c r="AZ16">
+      <c r="BH16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BA16">
+      <c r="BI16">
         <v>3.160468531119037</v>
       </c>
-      <c r="BB16">
+      <c r="BJ16">
         <v>5.029310712654574</v>
       </c>
-      <c r="BC16">
+      <c r="BK16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BD16">
+      <c r="BL16">
         <v>3.13956426617585</v>
       </c>
-      <c r="BE16">
+      <c r="BM16">
         <v>2.682145076373832</v>
       </c>
-      <c r="BF16">
+      <c r="BN16">
         <v>2.340444114840118</v>
       </c>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:66">
       <c r="A17" s="1">
         <v>1341</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D17">
         <v>11457</v>
@@ -3588,10 +4089,10 @@
         <v>3155070</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O17">
-        <v>0.9881749797396219</v>
+        <v>0.9870005753524689</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3603,16 +4104,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="T17">
-        <v>88.69458468025307</v>
+        <v>90.21258890211942</v>
       </c>
       <c r="U17">
         <v>20200508</v>
       </c>
       <c r="V17" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="W17">
         <v>11457</v>
@@ -3633,90 +4134,111 @@
         <v>4685</v>
       </c>
       <c r="AG17" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH17" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI17">
+        <v>232</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK17">
         <v>243</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
+        <v>398</v>
+      </c>
+      <c r="AN17">
+        <v>3436</v>
+      </c>
+      <c r="AO17">
         <v>70261</v>
       </c>
-      <c r="AL17">
+      <c r="AP17">
         <v>70261</v>
-      </c>
-      <c r="AM17">
-        <v>12</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>3436</v>
-      </c>
-      <c r="AP17">
-        <v>398</v>
       </c>
       <c r="AQ17">
         <v>3834</v>
       </c>
-      <c r="AR17" t="s">
-        <v>108</v>
+      <c r="AR17">
+        <v>12</v>
       </c>
       <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA17">
         <v>1776.251671357412</v>
       </c>
-      <c r="AT17">
+      <c r="BB17">
         <v>0.003631298196236534</v>
       </c>
-      <c r="AU17">
+      <c r="BC17">
         <v>0.01863793830247823</v>
       </c>
-      <c r="AV17">
+      <c r="BD17">
         <v>16.31</v>
       </c>
-      <c r="AW17">
+      <c r="BE17">
         <v>0.02226923649871477</v>
       </c>
-      <c r="AX17">
+      <c r="BF17">
         <v>6.499008999166996</v>
       </c>
-      <c r="AY17">
+      <c r="BG17">
         <v>4.846714326659982</v>
       </c>
-      <c r="AZ17">
+      <c r="BH17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BA17">
+      <c r="BI17">
         <v>2.385606273598312</v>
       </c>
-      <c r="BB17">
+      <c r="BJ17">
         <v>4.769406868913598</v>
       </c>
-      <c r="BC17">
+      <c r="BK17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BD17">
+      <c r="BL17">
         <v>2.60959440922522</v>
       </c>
-      <c r="BE17">
+      <c r="BM17">
         <v>2.214843848047698</v>
       </c>
-      <c r="BF17">
+      <c r="BN17">
         <v>2.037426497940624</v>
       </c>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:66">
       <c r="A18" s="1">
         <v>1342</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>6667</v>
@@ -3749,10 +4271,10 @@
         <v>2913314</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O18">
-        <v>0.980513889554975</v>
+        <v>0.9785797134780528</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3764,16 +4286,16 @@
         <v>10.9</v>
       </c>
       <c r="S18" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="T18">
-        <v>56.27653264867863</v>
+        <v>57.14951571027837</v>
       </c>
       <c r="U18">
         <v>20200508</v>
       </c>
       <c r="V18" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="W18">
         <v>6501</v>
@@ -3794,84 +4316,105 @@
         <v>332</v>
       </c>
       <c r="AG18" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AH18" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI18">
+        <v>237</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK18">
         <v>152</v>
       </c>
-      <c r="AJ18">
+      <c r="AL18">
         <v>608</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
+        <v>357</v>
+      </c>
+      <c r="AN18">
+        <v>2529</v>
+      </c>
+      <c r="AO18">
         <v>47708</v>
       </c>
-      <c r="AL18">
+      <c r="AP18">
         <v>47708</v>
-      </c>
-      <c r="AM18">
-        <v>5</v>
-      </c>
-      <c r="AN18">
-        <v>21</v>
-      </c>
-      <c r="AO18">
-        <v>2529</v>
-      </c>
-      <c r="AP18">
-        <v>357</v>
       </c>
       <c r="AQ18">
         <v>2886</v>
       </c>
-      <c r="AR18" t="s">
-        <v>108</v>
+      <c r="AR18">
+        <v>5</v>
       </c>
       <c r="AS18">
+        <v>21</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA18">
         <v>1706.843285131942</v>
       </c>
-      <c r="AT18">
+      <c r="BB18">
         <v>0.002231479339336577</v>
       </c>
-      <c r="AU18">
+      <c r="BC18">
         <v>0.01414437304046182</v>
       </c>
-      <c r="AV18">
+      <c r="BD18">
         <v>13.63</v>
       </c>
-      <c r="AW18">
+      <c r="BE18">
         <v>0.0163758523797984</v>
       </c>
-      <c r="AX18">
+      <c r="BF18">
         <v>6.464387295859416</v>
       </c>
-      <c r="AY18">
+      <c r="BG18">
         <v>4.678591210581774</v>
       </c>
-      <c r="AZ18">
+      <c r="BH18">
         <v>3.823930455125564</v>
       </c>
-      <c r="BA18">
+      <c r="BI18">
         <v>2.225309281725863</v>
       </c>
-      <c r="BB18">
+      <c r="BJ18">
         <v>4.614970997662866</v>
       </c>
-      <c r="BC18">
+      <c r="BK18">
         <v>3.81298016603948</v>
       </c>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:66">
       <c r="A19" s="1">
         <v>1343</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>6288</v>
@@ -3904,10 +4447,10 @@
         <v>4467673</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O19">
-        <v>0.9916242687385747</v>
+        <v>0.9917643435294039</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3919,16 +4462,16 @@
         <v>14.6</v>
       </c>
       <c r="S19" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="T19">
-        <v>83.1467850655433</v>
+        <v>85.2653124716167</v>
       </c>
       <c r="U19">
         <v>20200508</v>
       </c>
       <c r="V19" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="W19">
         <v>6129</v>
@@ -3952,90 +4495,111 @@
         <v>2177</v>
       </c>
       <c r="AG19" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AH19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI19">
+        <v>238</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK19">
         <v>294</v>
       </c>
-      <c r="AJ19">
+      <c r="AL19">
         <v>1684</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
+        <v>195</v>
+      </c>
+      <c r="AN19">
+        <v>2600</v>
+      </c>
+      <c r="AO19">
         <v>81401</v>
       </c>
-      <c r="AL19">
+      <c r="AP19">
         <v>81401</v>
-      </c>
-      <c r="AM19">
-        <v>11</v>
-      </c>
-      <c r="AN19">
-        <v>68</v>
-      </c>
-      <c r="AO19">
-        <v>2600</v>
-      </c>
-      <c r="AP19">
-        <v>195</v>
       </c>
       <c r="AQ19">
         <v>2795</v>
       </c>
-      <c r="AR19" t="s">
-        <v>108</v>
+      <c r="AR19">
+        <v>11</v>
       </c>
       <c r="AS19">
+        <v>68</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA19">
         <v>2113.687062930556</v>
       </c>
-      <c r="AT19">
+      <c r="BB19">
         <v>0.001371855102197497</v>
       </c>
-      <c r="AU19">
+      <c r="BC19">
         <v>0.01684814443671236</v>
       </c>
-      <c r="AV19">
+      <c r="BD19">
         <v>7.53</v>
       </c>
-      <c r="AW19">
+      <c r="BE19">
         <v>0.01821999953890985</v>
       </c>
-      <c r="AX19">
+      <c r="BF19">
         <v>6.650081378523105</v>
       </c>
-      <c r="AY19">
+      <c r="BG19">
         <v>4.910629740169475</v>
       </c>
-      <c r="AZ19">
+      <c r="BH19">
         <v>3.798512533031352</v>
       </c>
-      <c r="BA19">
+      <c r="BI19">
         <v>2.474216264076255</v>
       </c>
-      <c r="BB19">
+      <c r="BJ19">
         <v>4.876633455524433</v>
       </c>
-      <c r="BC19">
+      <c r="BK19">
         <v>3.78738962135211</v>
       </c>
-      <c r="BD19">
+      <c r="BL19">
         <v>2.551449997972875</v>
       </c>
-      <c r="BE19">
+      <c r="BM19">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:66">
       <c r="A20" s="1">
         <v>1344</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D20">
         <v>30855</v>
@@ -4062,10 +4626,10 @@
         <v>4648794</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O20">
-        <v>0.9725623425886601</v>
+        <v>0.9738591705265933</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4077,16 +4641,16 @@
         <v>19.8</v>
       </c>
       <c r="S20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="T20">
-        <v>117.5092410798174</v>
+        <v>120.3214617262791</v>
       </c>
       <c r="U20">
         <v>20200508</v>
       </c>
       <c r="V20" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="W20">
         <v>30855</v>
@@ -4104,87 +4668,108 @@
         <v>20316</v>
       </c>
       <c r="AG20" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI20">
+        <v>239</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK20">
         <v>2227</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
+        <v>203</v>
+      </c>
+      <c r="AN20">
+        <v>1446</v>
+      </c>
+      <c r="AO20">
         <v>202416</v>
       </c>
-      <c r="AL20">
+      <c r="AP20">
         <v>202416</v>
-      </c>
-      <c r="AM20">
-        <v>19</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>1446</v>
-      </c>
-      <c r="AP20">
-        <v>203</v>
       </c>
       <c r="AQ20">
         <v>1649</v>
       </c>
-      <c r="AR20" t="s">
-        <v>108</v>
+      <c r="AR20">
+        <v>19</v>
       </c>
       <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA20">
         <v>2156.106212597144</v>
       </c>
-      <c r="AT20">
+      <c r="BB20">
         <v>0.006637205262268021</v>
       </c>
-      <c r="AU20">
+      <c r="BC20">
         <v>0.03690441004699283</v>
       </c>
-      <c r="AV20">
+      <c r="BD20">
         <v>15.24</v>
       </c>
-      <c r="AW20">
+      <c r="BE20">
         <v>0.04354161530926085</v>
       </c>
-      <c r="AX20">
+      <c r="BF20">
         <v>6.667340301905727</v>
       </c>
-      <c r="AY20">
+      <c r="BG20">
         <v>5.306244838390451</v>
       </c>
-      <c r="AZ20">
+      <c r="BH20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BA20">
+      <c r="BI20">
         <v>3.347720217034038</v>
       </c>
-      <c r="BB20">
+      <c r="BJ20">
         <v>5.234418569003362</v>
       </c>
-      <c r="BC20">
+      <c r="BK20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BD20">
+      <c r="BL20">
         <v>3.133219456732494</v>
       </c>
-      <c r="BF20">
+      <c r="BN20">
         <v>2.267171728403014</v>
       </c>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:66">
       <c r="A21" s="1">
         <v>1345</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D21">
         <v>1374</v>
@@ -4217,10 +4802,10 @@
         <v>1344212</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O21">
-        <v>0.9959787728924558</v>
+        <v>0.9963339869132833</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4232,16 +4817,16 @@
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="T21">
-        <v>44.96148654285715</v>
+        <v>47.88954113452461</v>
       </c>
       <c r="U21">
         <v>20200508</v>
       </c>
       <c r="V21" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="W21">
         <v>1374</v>
@@ -4265,93 +4850,114 @@
         <v>836</v>
       </c>
       <c r="AG21" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI21">
+        <v>240</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK21">
         <v>63</v>
       </c>
-      <c r="AJ21">
+      <c r="AL21">
         <v>194</v>
       </c>
-      <c r="AK21">
+      <c r="AM21">
+        <v>44</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>23466</v>
       </c>
-      <c r="AL21">
+      <c r="AP21">
         <v>23466</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>2</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>44</v>
       </c>
       <c r="AQ21">
         <v>44</v>
       </c>
-      <c r="AR21" t="s">
-        <v>108</v>
+      <c r="AR21">
+        <v>1</v>
       </c>
       <c r="AS21">
+        <v>2</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA21">
         <v>1159.401569776408</v>
       </c>
-      <c r="AT21">
+      <c r="BB21">
         <v>0.001022160194969246</v>
       </c>
-      <c r="AU21">
+      <c r="BC21">
         <v>0.0164349075889815</v>
       </c>
-      <c r="AV21">
+      <c r="BD21">
         <v>5.86</v>
       </c>
-      <c r="AW21">
+      <c r="BE21">
         <v>0.01745706778395074</v>
       </c>
-      <c r="AX21">
+      <c r="BF21">
         <v>6.128467768099815</v>
       </c>
-      <c r="AY21">
+      <c r="BG21">
         <v>4.370439066335774</v>
       </c>
-      <c r="AZ21">
+      <c r="BH21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BA21">
+      <c r="BI21">
         <v>1.799340549453582</v>
       </c>
-      <c r="BB21">
+      <c r="BJ21">
         <v>4.344235034551639</v>
       </c>
-      <c r="BC21">
+      <c r="BK21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BD21">
+      <c r="BL21">
         <v>1.643452676486187</v>
       </c>
-      <c r="BE21">
+      <c r="BM21">
         <v>1.361727836017593</v>
       </c>
-      <c r="BF21">
+      <c r="BN21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:66">
       <c r="A22" s="1">
         <v>1346</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D22">
         <v>30485</v>
@@ -4384,10 +4990,10 @@
         <v>6045680</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O22">
-        <v>0.9961231831092113</v>
+        <v>0.9956182154068755</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4399,16 +5005,16 @@
         <v>7.8</v>
       </c>
       <c r="S22" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="T22">
-        <v>81.91126728779936</v>
+        <v>84.0352330725637</v>
       </c>
       <c r="U22">
         <v>20200508</v>
       </c>
       <c r="V22" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="W22">
         <v>30485</v>
@@ -4429,90 +5035,111 @@
         <v>2041</v>
       </c>
       <c r="AG22" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AH22" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI22">
+        <v>237</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK22">
         <v>1560</v>
       </c>
-      <c r="AJ22">
+      <c r="AL22">
         <v>5811</v>
       </c>
-      <c r="AK22">
+      <c r="AM22">
+        <v>1111</v>
+      </c>
+      <c r="AN22">
+        <v>2476</v>
+      </c>
+      <c r="AO22">
         <v>152187</v>
       </c>
-      <c r="AL22">
+      <c r="AP22">
         <v>152187</v>
-      </c>
-      <c r="AM22">
-        <v>57</v>
-      </c>
-      <c r="AN22">
-        <v>148</v>
-      </c>
-      <c r="AO22">
-        <v>2476</v>
-      </c>
-      <c r="AP22">
-        <v>1111</v>
       </c>
       <c r="AQ22">
         <v>3587</v>
       </c>
-      <c r="AR22" t="s">
-        <v>108</v>
+      <c r="AR22">
+        <v>57</v>
       </c>
       <c r="AS22">
+        <v>148</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA22">
         <v>2458.796453552022</v>
       </c>
-      <c r="AT22">
+      <c r="BB22">
         <v>0.005042443529925501</v>
       </c>
-      <c r="AU22">
+      <c r="BC22">
         <v>0.02013040716677032</v>
       </c>
-      <c r="AV22">
+      <c r="BD22">
         <v>20.03</v>
       </c>
-      <c r="AW22">
+      <c r="BE22">
         <v>0.02517285069669582</v>
       </c>
-      <c r="AX22">
+      <c r="BF22">
         <v>6.781445156088222</v>
       </c>
-      <c r="AY22">
+      <c r="BG22">
         <v>5.182377556052198</v>
       </c>
-      <c r="AZ22">
+      <c r="BH22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BA22">
+      <c r="BI22">
         <v>3.193124598354462</v>
       </c>
-      <c r="BB22">
+      <c r="BJ22">
         <v>5.085297715303415</v>
       </c>
-      <c r="BC22">
+      <c r="BK22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BD22">
+      <c r="BL22">
         <v>3.223755453657241</v>
       </c>
-      <c r="BE22">
+      <c r="BM22">
         <v>2.756636108245848</v>
       </c>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" spans="1:66">
       <c r="A23" s="1">
         <v>1347</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D23">
         <v>75333</v>
@@ -4542,10 +5169,10 @@
         <v>6892503</v>
       </c>
       <c r="N23" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O23">
-        <v>0.9745825354692984</v>
+        <v>0.9747116344270659</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4557,16 +5184,16 @@
         <v>10</v>
       </c>
       <c r="S23" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="T23">
-        <v>147.9481449346404</v>
+        <v>147.2690813378092</v>
       </c>
       <c r="U23">
         <v>20200508</v>
       </c>
       <c r="V23" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="W23">
         <v>75333</v>
@@ -4584,90 +5211,111 @@
         <v>826</v>
       </c>
       <c r="AG23" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AH23" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI23">
+        <v>237</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK23">
         <v>4702</v>
       </c>
-      <c r="AJ23">
+      <c r="AL23">
         <v>7434</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
+        <v>1612</v>
+      </c>
+      <c r="AN23">
+        <v>12779</v>
+      </c>
+      <c r="AO23">
         <v>366023</v>
       </c>
-      <c r="AL23">
+      <c r="AP23">
         <v>366023</v>
-      </c>
-      <c r="AM23">
-        <v>150</v>
-      </c>
-      <c r="AN23">
-        <v>197</v>
-      </c>
-      <c r="AO23">
-        <v>12779</v>
-      </c>
-      <c r="AP23">
-        <v>1612</v>
       </c>
       <c r="AQ23">
         <v>14391</v>
       </c>
-      <c r="AR23" t="s">
-        <v>108</v>
+      <c r="AR23">
+        <v>150</v>
       </c>
       <c r="AS23">
+        <v>197</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA23">
         <v>2625.357689915795</v>
       </c>
-      <c r="AT23">
+      <c r="BB23">
         <v>0.01092970144517891</v>
       </c>
-      <c r="AU23">
+      <c r="BC23">
         <v>0.04217480935445368</v>
       </c>
-      <c r="AV23">
+      <c r="BD23">
         <v>20.58</v>
       </c>
-      <c r="AW23">
+      <c r="BE23">
         <v>0.05310451079963258</v>
       </c>
-      <c r="AX23">
+      <c r="BF23">
         <v>6.838376963806924</v>
       </c>
-      <c r="AY23">
+      <c r="BG23">
         <v>5.563508376266657</v>
       </c>
-      <c r="AZ23">
+      <c r="BH23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BA23">
+      <c r="BI23">
         <v>3.672282624788921</v>
       </c>
-      <c r="BB23">
+      <c r="BJ23">
         <v>5.463430091902802</v>
       </c>
-      <c r="BC23">
+      <c r="BK23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BD23">
+      <c r="BL23">
         <v>3.524915147539867</v>
       </c>
-      <c r="BE23">
+      <c r="BM23">
         <v>2.916980047320382</v>
       </c>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" spans="1:66">
       <c r="A24" s="1">
         <v>1348</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D24">
         <v>46386</v>
@@ -4694,10 +5342,10 @@
         <v>9986857</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O24">
-        <v>0.9822522993131115</v>
+        <v>0.9826968779976759</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4709,16 +5357,16 @@
         <v>11</v>
       </c>
       <c r="S24" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="T24">
-        <v>94.37351262407817</v>
+        <v>95.4009769448493</v>
       </c>
       <c r="U24">
         <v>20200508</v>
       </c>
       <c r="V24" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="W24">
         <v>46326</v>
@@ -4739,90 +5387,111 @@
         <v>15659</v>
       </c>
       <c r="AG24" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH24" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI24">
+        <v>241</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK24">
         <v>4393</v>
       </c>
-      <c r="AK24">
+      <c r="AM24">
+        <v>680</v>
+      </c>
+      <c r="AN24">
+        <v>12511</v>
+      </c>
+      <c r="AO24">
         <v>260253</v>
       </c>
-      <c r="AL24">
+      <c r="AP24">
         <v>260253</v>
-      </c>
-      <c r="AM24">
-        <v>50</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>12511</v>
-      </c>
-      <c r="AP24">
-        <v>680</v>
       </c>
       <c r="AQ24">
         <v>13191</v>
       </c>
-      <c r="AR24" t="s">
-        <v>108</v>
+      <c r="AR24">
+        <v>50</v>
       </c>
       <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA24">
         <v>3160.19888614625</v>
       </c>
-      <c r="AT24">
+      <c r="BB24">
         <v>0.004638696638992628</v>
       </c>
-      <c r="AU24">
+      <c r="BC24">
         <v>0.02142085342765997</v>
       </c>
-      <c r="AV24">
+      <c r="BD24">
         <v>17.8</v>
       </c>
-      <c r="AW24">
+      <c r="BE24">
         <v>0.0260595500666526</v>
       </c>
-      <c r="AX24">
+      <c r="BF24">
         <v>6.999428831336674</v>
       </c>
-      <c r="AY24">
+      <c r="BG24">
         <v>5.415395744430167</v>
       </c>
-      <c r="AZ24">
+      <c r="BH24">
         <v>4.666386923654211</v>
       </c>
-      <c r="BA24">
+      <c r="BI24">
         <v>3.643353961976863</v>
       </c>
-      <c r="BB24">
+      <c r="BJ24">
         <v>5.33026560089227</v>
       </c>
-      <c r="BC24">
+      <c r="BK24">
         <v>4.665824802838091</v>
       </c>
-      <c r="BD24">
+      <c r="BL24">
         <v>3.214048679411941</v>
       </c>
-      <c r="BE24">
+      <c r="BM24">
         <v>2.860338006570994</v>
       </c>
-      <c r="BF24">
+      <c r="BN24">
         <v>2.755874855672491</v>
       </c>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" spans="1:66">
       <c r="A25" s="1">
         <v>1349</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D25">
         <v>10088</v>
@@ -4855,10 +5524,10 @@
         <v>5639632</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O25">
-        <v>0.9907482853460023</v>
+        <v>0.9915592187607826</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4870,16 +5539,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S25" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="T25">
-        <v>73.29683925194578</v>
+        <v>75.66670700706159</v>
       </c>
       <c r="U25">
         <v>20200508</v>
       </c>
       <c r="V25" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="W25">
         <v>10088</v>
@@ -4903,90 +5572,111 @@
         <v>5163</v>
       </c>
       <c r="AG25" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AH25" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI25">
+        <v>238</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK25">
         <v>534</v>
       </c>
-      <c r="AJ25">
+      <c r="AL25">
         <v>1549</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
+        <v>723</v>
+      </c>
+      <c r="AN25">
+        <v>3126</v>
+      </c>
+      <c r="AO25">
         <v>101270</v>
       </c>
-      <c r="AL25">
+      <c r="AP25">
         <v>101270</v>
-      </c>
-      <c r="AM25">
-        <v>26</v>
-      </c>
-      <c r="AN25">
-        <v>90</v>
-      </c>
-      <c r="AO25">
-        <v>3126</v>
-      </c>
-      <c r="AP25">
-        <v>723</v>
       </c>
       <c r="AQ25">
         <v>3849</v>
       </c>
-      <c r="AR25" t="s">
-        <v>108</v>
+      <c r="AR25">
+        <v>26</v>
       </c>
       <c r="AS25">
+        <v>90</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA25">
         <v>2374.790938166979</v>
       </c>
-      <c r="AT25">
+      <c r="BB25">
         <v>0.001788769196287985</v>
       </c>
-      <c r="AU25">
+      <c r="BC25">
         <v>0.01616807621490196</v>
       </c>
-      <c r="AV25">
+      <c r="BD25">
         <v>9.960000000000001</v>
       </c>
-      <c r="AW25">
+      <c r="BE25">
         <v>0.01795684541118995</v>
       </c>
-      <c r="AX25">
+      <c r="BF25">
         <v>6.751250766113916</v>
       </c>
-      <c r="AY25">
+      <c r="BG25">
         <v>5.005480809979401</v>
       </c>
-      <c r="AZ25">
+      <c r="BH25">
         <v>4.003805073565025</v>
       </c>
-      <c r="BA25">
+      <c r="BI25">
         <v>2.727541257028556</v>
       </c>
-      <c r="BB25">
+      <c r="BJ25">
         <v>4.95990911385232</v>
       </c>
-      <c r="BC25">
+      <c r="BK25">
         <v>4.003805073565025</v>
       </c>
-      <c r="BD25">
+      <c r="BL25">
         <v>2.674861140737812</v>
       </c>
-      <c r="BE25">
+      <c r="BM25">
         <v>2.296665190261531</v>
       </c>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" spans="1:66">
       <c r="A26" s="1">
         <v>1350</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D26">
         <v>9090</v>
@@ -5019,10 +5709,10 @@
         <v>2976149</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O26">
-        <v>0.9977524393936141</v>
+        <v>0.9978713784331079</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5034,16 +5724,16 @@
         <v>19</v>
       </c>
       <c r="S26" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="T26">
-        <v>90.88302782039446</v>
+        <v>93.41376795152398</v>
       </c>
       <c r="U26">
         <v>20200508</v>
       </c>
       <c r="V26" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="W26">
         <v>9090</v>
@@ -5067,93 +5757,114 @@
         <v>4421</v>
       </c>
       <c r="AG26" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AH26" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI26">
+        <v>235</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK26">
         <v>409</v>
       </c>
-      <c r="AJ26">
+      <c r="AL26">
         <v>1478</v>
       </c>
-      <c r="AK26">
+      <c r="AM26">
+        <v>404</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
         <v>81191</v>
       </c>
-      <c r="AL26">
+      <c r="AP26">
         <v>81191</v>
-      </c>
-      <c r="AM26">
-        <v>13</v>
-      </c>
-      <c r="AN26">
-        <v>36</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>404</v>
       </c>
       <c r="AQ26">
         <v>404</v>
       </c>
-      <c r="AR26" t="s">
-        <v>108</v>
+      <c r="AR26">
+        <v>13</v>
       </c>
       <c r="AS26">
+        <v>36</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA26">
         <v>1725.151877371961</v>
       </c>
-      <c r="AT26">
+      <c r="BB26">
         <v>0.003054282564481819</v>
       </c>
-      <c r="AU26">
+      <c r="BC26">
         <v>0.02422627361734913</v>
       </c>
-      <c r="AV26">
+      <c r="BD26">
         <v>11.2</v>
       </c>
-      <c r="AW26">
+      <c r="BE26">
         <v>0.02728055618183095</v>
       </c>
-      <c r="AX26">
+      <c r="BF26">
         <v>6.473654670240083</v>
       </c>
-      <c r="AY26">
+      <c r="BG26">
         <v>4.909507890485442</v>
       </c>
-      <c r="AZ26">
+      <c r="BH26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BA26">
+      <c r="BI26">
         <v>2.611723308007342</v>
       </c>
-      <c r="BB26">
+      <c r="BJ26">
         <v>4.857941288179487</v>
       </c>
-      <c r="BC26">
+      <c r="BK26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BD26">
+      <c r="BL26">
         <v>2.800717078282385</v>
       </c>
-      <c r="BE26">
+      <c r="BM26">
         <v>2.089905111439398</v>
       </c>
-      <c r="BF26">
+      <c r="BN26">
         <v>1.763427993562937</v>
       </c>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" spans="1:66">
       <c r="A27" s="1">
         <v>1351</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D27">
         <v>9733</v>
@@ -5177,10 +5888,10 @@
         <v>6137428</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O27">
-        <v>0.9886519645151198</v>
+        <v>0.989243700521065</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5192,16 +5903,16 @@
         <v>11.9</v>
       </c>
       <c r="S27" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="T27">
-        <v>49.13250097213012</v>
+        <v>50.18005894303459</v>
       </c>
       <c r="U27">
         <v>20200508</v>
       </c>
       <c r="V27" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="W27">
         <v>9489</v>
@@ -5216,87 +5927,108 @@
         <v>143</v>
       </c>
       <c r="AG27" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH27" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI27">
+        <v>242</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK27">
         <v>449</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
+        <v>148</v>
+      </c>
+      <c r="AN27">
+        <v>4951</v>
+      </c>
+      <c r="AO27">
         <v>108721</v>
       </c>
-      <c r="AL27">
+      <c r="AP27">
         <v>108721</v>
-      </c>
-      <c r="AM27">
-        <v>31</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>4951</v>
-      </c>
-      <c r="AP27">
-        <v>148</v>
       </c>
       <c r="AQ27">
         <v>5099</v>
       </c>
-      <c r="AR27" t="s">
-        <v>108</v>
+      <c r="AR27">
+        <v>31</v>
       </c>
       <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA27">
         <v>2477.383296948617</v>
       </c>
-      <c r="AT27">
+      <c r="BB27">
         <v>0.001546087383835705</v>
       </c>
-      <c r="AU27">
+      <c r="BC27">
         <v>0.01616833631286591</v>
       </c>
-      <c r="AV27">
+      <c r="BD27">
         <v>8.73</v>
       </c>
-      <c r="AW27">
+      <c r="BE27">
         <v>0.01771442369670162</v>
       </c>
-      <c r="AX27">
+      <c r="BF27">
         <v>6.787986410322698</v>
       </c>
-      <c r="AY27">
+      <c r="BG27">
         <v>5.036313438320507</v>
       </c>
-      <c r="AZ27">
+      <c r="BH27">
         <v>3.988246723375378</v>
       </c>
-      <c r="BA27">
+      <c r="BI27">
         <v>2.683947130751512</v>
       </c>
-      <c r="BB27">
+      <c r="BJ27">
         <v>4.996651744557233</v>
       </c>
-      <c r="BC27">
+      <c r="BK27">
         <v>3.977220446635385</v>
       </c>
-      <c r="BD27">
+      <c r="BL27">
         <v>2.920123326290724</v>
       </c>
-      <c r="BF27">
+      <c r="BN27">
         <v>2.155336037465062</v>
       </c>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:66">
       <c r="A28" s="1">
         <v>1352</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D28">
         <v>458</v>
@@ -5329,10 +6061,10 @@
         <v>1068778</v>
       </c>
       <c r="N28" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O28">
-        <v>0.9630675024510874</v>
+        <v>0.9610362272012402</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5344,16 +6076,16 @@
         <v>10.3</v>
       </c>
       <c r="S28" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="T28">
-        <v>54.61406049188527</v>
+        <v>55.94207252887411</v>
       </c>
       <c r="U28">
         <v>20200508</v>
       </c>
       <c r="V28" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="W28">
         <v>458</v>
@@ -5371,87 +6103,108 @@
         <v>420</v>
       </c>
       <c r="AG28" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AH28" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI28">
+        <v>226</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK28">
         <v>16</v>
       </c>
-      <c r="AJ28">
+      <c r="AL28">
         <v>62</v>
       </c>
-      <c r="AK28">
+      <c r="AM28">
+        <v>2</v>
+      </c>
+      <c r="AN28">
+        <v>696</v>
+      </c>
+      <c r="AO28">
         <v>20945</v>
       </c>
-      <c r="AL28">
+      <c r="AP28">
         <v>20945</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>696</v>
-      </c>
-      <c r="AP28">
-        <v>2</v>
       </c>
       <c r="AQ28">
         <v>698</v>
       </c>
-      <c r="AR28" t="s">
-        <v>108</v>
+      <c r="AR28">
+        <v>0</v>
       </c>
       <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA28">
         <v>1033.817198541406</v>
       </c>
-      <c r="AT28">
+      <c r="BB28">
         <v>0.0004285267847953457</v>
       </c>
-      <c r="AU28">
+      <c r="BC28">
         <v>0.01916862061157696</v>
       </c>
-      <c r="AV28">
+      <c r="BD28">
         <v>2.19</v>
       </c>
-      <c r="AW28">
+      <c r="BE28">
         <v>0.01959714739637231</v>
       </c>
-      <c r="AX28">
+      <c r="BF28">
         <v>6.028887505594666</v>
       </c>
-      <c r="AY28">
+      <c r="BG28">
         <v>4.321080364697238</v>
       </c>
-      <c r="AZ28">
+      <c r="BH28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BA28">
+      <c r="BI28">
         <v>1.204119982655925</v>
       </c>
-      <c r="BB28">
+      <c r="BJ28">
         <v>4.311478367438068</v>
       </c>
-      <c r="BC28">
+      <c r="BK28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BD28">
+      <c r="BL28">
         <v>0.7781512503836436</v>
       </c>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:66">
       <c r="A29" s="1">
         <v>1353</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D29">
         <v>7818</v>
@@ -5475,10 +6228,10 @@
         <v>1934408</v>
       </c>
       <c r="N29" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O29">
-        <v>0.9878849033820153</v>
+        <v>0.9873079430020002</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5490,16 +6243,16 @@
         <v>11</v>
       </c>
       <c r="S29" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="T29">
-        <v>94.39512344169883</v>
+        <v>96.24416245210294</v>
       </c>
       <c r="U29">
         <v>20200508</v>
       </c>
       <c r="V29" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="W29">
         <v>7190</v>
@@ -5508,81 +6261,102 @@
         <v>33222</v>
       </c>
       <c r="AG29" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AH29" t="s">
-        <v>235</v>
-      </c>
-      <c r="AI29">
+        <v>243</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK29">
         <v>90</v>
       </c>
-      <c r="AK29">
+      <c r="AM29">
+        <v>419</v>
+      </c>
+      <c r="AN29">
+        <v>2235</v>
+      </c>
+      <c r="AO29">
         <v>40412</v>
       </c>
-      <c r="AL29">
+      <c r="AP29">
         <v>40412</v>
-      </c>
-      <c r="AM29">
-        <v>4</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>2235</v>
-      </c>
-      <c r="AP29">
-        <v>419</v>
       </c>
       <c r="AQ29">
         <v>2654</v>
       </c>
-      <c r="AR29" t="s">
-        <v>108</v>
+      <c r="AR29">
+        <v>4</v>
       </c>
       <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA29">
         <v>1390.829968040666</v>
       </c>
-      <c r="AT29">
+      <c r="BB29">
         <v>0.003716899433831953</v>
       </c>
-      <c r="AU29">
+      <c r="BC29">
         <v>0.01717424659120517</v>
       </c>
-      <c r="AV29">
+      <c r="BD29">
         <v>17.79</v>
       </c>
-      <c r="AW29">
+      <c r="BE29">
         <v>0.02089114602503712</v>
       </c>
-      <c r="AX29">
+      <c r="BF29">
         <v>6.286548079602651</v>
       </c>
-      <c r="AY29">
+      <c r="BG29">
         <v>4.606510344317186</v>
       </c>
-      <c r="AZ29">
+      <c r="BH29">
         <v>3.893095666096228</v>
       </c>
-      <c r="BA29">
+      <c r="BI29">
         <v>1.954242509439325</v>
       </c>
-      <c r="BB29">
+      <c r="BJ29">
         <v>4.521425773895577</v>
       </c>
-      <c r="BC29">
+      <c r="BK29">
         <v>3.856728890382882</v>
       </c>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:66">
       <c r="A30" s="1">
         <v>1354</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D30">
         <v>5920</v>
@@ -5609,10 +6383,10 @@
         <v>3080156</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O30">
-        <v>0.9924057787098854</v>
+        <v>0.992845388683794</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5624,16 +6398,16 @@
         <v>13.1</v>
       </c>
       <c r="S30" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="T30">
-        <v>73.51050969564595</v>
+        <v>77.11675668728985</v>
       </c>
       <c r="U30">
         <v>20200508</v>
       </c>
       <c r="V30" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="W30">
         <v>5884</v>
@@ -5645,81 +6419,102 @@
         <v>205</v>
       </c>
       <c r="AG30" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AH30" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI30">
+        <v>244</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK30">
         <v>293</v>
       </c>
-      <c r="AK30">
+      <c r="AM30">
+        <v>118</v>
+      </c>
+      <c r="AN30">
+        <v>1869</v>
+      </c>
+      <c r="AO30">
         <v>53344</v>
       </c>
-      <c r="AL30">
+      <c r="AP30">
         <v>53344</v>
-      </c>
-      <c r="AM30">
-        <v>7</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>1869</v>
-      </c>
-      <c r="AP30">
-        <v>118</v>
       </c>
       <c r="AQ30">
         <v>1987</v>
       </c>
-      <c r="AR30" t="s">
-        <v>108</v>
+      <c r="AR30">
+        <v>7</v>
       </c>
       <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA30">
         <v>1755.037321540485</v>
       </c>
-      <c r="AT30">
+      <c r="BB30">
         <v>0.001910292855296939</v>
       </c>
-      <c r="AU30">
+      <c r="BC30">
         <v>0.01540831048817008</v>
       </c>
-      <c r="AV30">
+      <c r="BD30">
         <v>11.03</v>
       </c>
-      <c r="AW30">
+      <c r="BE30">
         <v>0.01731860334346702</v>
       </c>
-      <c r="AX30">
+      <c r="BF30">
         <v>6.488572712676902</v>
       </c>
-      <c r="AY30">
+      <c r="BG30">
         <v>4.727085578147912</v>
       </c>
-      <c r="AZ30">
+      <c r="BH30">
         <v>3.77232170672292</v>
       </c>
-      <c r="BA30">
+      <c r="BI30">
         <v>2.468347330412157</v>
       </c>
-      <c r="BB30">
+      <c r="BJ30">
         <v>4.67632773388132</v>
       </c>
-      <c r="BC30">
+      <c r="BK30">
         <v>3.769672664055492</v>
       </c>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:66">
       <c r="A31" s="1">
         <v>1355</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D31">
         <v>2947</v>
@@ -5752,10 +6547,10 @@
         <v>1359711</v>
       </c>
       <c r="N31" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O31">
-        <v>0.9945658444805988</v>
+        <v>0.9942279885122856</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5767,16 +6562,16 @@
         <v>6.6</v>
       </c>
       <c r="S31" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="T31">
-        <v>92.20866201568738</v>
+        <v>94.34296829530656</v>
       </c>
       <c r="U31">
         <v>20200508</v>
       </c>
       <c r="V31" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="W31">
         <v>2843</v>
@@ -5800,87 +6595,108 @@
         <v>1165</v>
       </c>
       <c r="AG31" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH31" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI31">
+        <v>245</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK31">
         <v>114</v>
       </c>
-      <c r="AJ31">
+      <c r="AL31">
         <v>308</v>
       </c>
-      <c r="AK31">
+      <c r="AM31">
+        <v>103</v>
+      </c>
+      <c r="AN31">
+        <v>1763</v>
+      </c>
+      <c r="AO31">
         <v>31204</v>
       </c>
-      <c r="AL31">
+      <c r="AP31">
         <v>30672</v>
-      </c>
-      <c r="AM31">
-        <v>3</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>1763</v>
-      </c>
-      <c r="AP31">
-        <v>103</v>
       </c>
       <c r="AQ31">
         <v>1866</v>
       </c>
-      <c r="AR31" t="s">
-        <v>108</v>
+      <c r="AR31">
+        <v>3</v>
       </c>
       <c r="AS31">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA31">
         <v>1166.066464657997</v>
       </c>
-      <c r="AT31">
+      <c r="BB31">
         <v>0.002090885489637136</v>
       </c>
-      <c r="AU31">
+      <c r="BC31">
         <v>0.02046684920545616</v>
       </c>
-      <c r="AV31">
+      <c r="BD31">
         <v>9.27</v>
       </c>
-      <c r="AW31">
+      <c r="BE31">
         <v>0.02255773469509329</v>
       </c>
-      <c r="AX31">
+      <c r="BF31">
         <v>6.133446610985868</v>
       </c>
-      <c r="AY31">
+      <c r="BG31">
         <v>4.486742095533987</v>
       </c>
-      <c r="AZ31">
+      <c r="BH31">
         <v>3.469380135849925</v>
       </c>
-      <c r="BA31">
+      <c r="BI31">
         <v>2.08278537031645</v>
       </c>
-      <c r="BB31">
+      <c r="BJ31">
         <v>4.444497600790215</v>
       </c>
-      <c r="BC31">
+      <c r="BK31">
         <v>3.453776859690442</v>
       </c>
-      <c r="BD31">
+      <c r="BL31">
         <v>2.05307844348342</v>
       </c>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:66">
       <c r="A32" s="1">
         <v>1356</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D32">
         <v>135840</v>
@@ -5907,10 +6723,10 @@
         <v>8882190</v>
       </c>
       <c r="N32" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O32">
-        <v>0.9732173761499854</v>
+        <v>0.9732506469739388</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5922,16 +6738,16 @@
         <v>9.1</v>
       </c>
       <c r="S32" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="T32">
-        <v>141.8522126784031</v>
+        <v>147.3677808890681</v>
       </c>
       <c r="U32">
         <v>20200508</v>
       </c>
       <c r="V32" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="W32">
         <v>135454</v>
@@ -5955,90 +6771,111 @@
         <v>15642</v>
       </c>
       <c r="AG32" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH32" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI32">
+        <v>239</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK32">
         <v>8952</v>
       </c>
-      <c r="AK32">
+      <c r="AM32">
+        <v>1819</v>
+      </c>
+      <c r="AN32">
+        <v>4282</v>
+      </c>
+      <c r="AO32">
         <v>299312</v>
       </c>
-      <c r="AL32">
+      <c r="AP32">
         <v>298759</v>
-      </c>
-      <c r="AM32">
-        <v>151</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>4282</v>
-      </c>
-      <c r="AP32">
-        <v>1819</v>
       </c>
       <c r="AQ32">
         <v>6101</v>
       </c>
-      <c r="AR32" t="s">
-        <v>108</v>
+      <c r="AR32">
+        <v>151</v>
       </c>
       <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA32">
         <v>2980.300320437523</v>
       </c>
-      <c r="AT32">
+      <c r="BB32">
         <v>0.01525006783237017</v>
       </c>
-      <c r="AU32">
+      <c r="BC32">
         <v>0.01838566839934746</v>
       </c>
-      <c r="AV32">
+      <c r="BD32">
         <v>45.34</v>
       </c>
-      <c r="AW32">
+      <c r="BE32">
         <v>0.03363573623171763</v>
       </c>
-      <c r="AX32">
+      <c r="BF32">
         <v>6.948520058982782</v>
       </c>
-      <c r="AY32">
+      <c r="BG32">
         <v>5.475320997107535</v>
       </c>
-      <c r="AZ32">
+      <c r="BH32">
         <v>5.133027672899877</v>
       </c>
-      <c r="BA32">
+      <c r="BI32">
         <v>3.952308009662125</v>
       </c>
-      <c r="BB32">
+      <c r="BJ32">
         <v>5.2129994819759</v>
       </c>
-      <c r="BC32">
+      <c r="BK32">
         <v>5.131791834413688</v>
       </c>
-      <c r="BD32">
+      <c r="BL32">
         <v>3.663229634532868</v>
       </c>
-      <c r="BE32">
+      <c r="BM32">
         <v>3.158060793936605</v>
       </c>
-      <c r="BF32">
+      <c r="BN32">
         <v>3.037027879755775</v>
       </c>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:66">
       <c r="A33" s="1">
         <v>1357</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D33">
         <v>4673</v>
@@ -6071,10 +6908,10 @@
         <v>2096829</v>
       </c>
       <c r="N33" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O33">
-        <v>0.9941945494579901</v>
+        <v>0.9935527786737034</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6086,16 +6923,16 @@
         <v>18.2</v>
       </c>
       <c r="S33" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="T33">
-        <v>156.403893498615</v>
+        <v>158.567289003553</v>
       </c>
       <c r="U33">
         <v>20200508</v>
       </c>
       <c r="V33" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="W33">
         <v>4493</v>
@@ -6113,87 +6950,108 @@
         <v>1125</v>
       </c>
       <c r="AG33" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AH33" t="s">
-        <v>238</v>
-      </c>
-      <c r="AI33">
+        <v>246</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK33">
         <v>172</v>
       </c>
-      <c r="AJ33">
+      <c r="AL33">
         <v>760</v>
       </c>
-      <c r="AK33">
+      <c r="AM33">
+        <v>202</v>
+      </c>
+      <c r="AN33">
+        <v>3146</v>
+      </c>
+      <c r="AO33">
         <v>89032</v>
       </c>
-      <c r="AL33">
+      <c r="AP33">
         <v>89032</v>
-      </c>
-      <c r="AM33">
-        <v>3</v>
-      </c>
-      <c r="AN33">
-        <v>73</v>
-      </c>
-      <c r="AO33">
-        <v>3146</v>
-      </c>
-      <c r="AP33">
-        <v>202</v>
       </c>
       <c r="AQ33">
         <v>3348</v>
       </c>
-      <c r="AR33" t="s">
-        <v>108</v>
+      <c r="AR33">
+        <v>3</v>
       </c>
       <c r="AS33">
+        <v>73</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA33">
         <v>1448.043162340129</v>
       </c>
-      <c r="AT33">
+      <c r="BB33">
         <v>0.002142759376181844</v>
       </c>
-      <c r="AU33">
+      <c r="BC33">
         <v>0.04031754616137034</v>
       </c>
-      <c r="AV33">
+      <c r="BD33">
         <v>5.05</v>
       </c>
-      <c r="AW33">
+      <c r="BE33">
         <v>0.04246030553755218</v>
       </c>
-      <c r="AX33">
+      <c r="BF33">
         <v>6.321563014449838</v>
       </c>
-      <c r="AY33">
+      <c r="BG33">
         <v>4.949546129404536</v>
       </c>
-      <c r="AZ33">
+      <c r="BH33">
         <v>3.669595781024313</v>
       </c>
-      <c r="BA33">
+      <c r="BI33">
         <v>2.257678574869185</v>
       </c>
-      <c r="BB33">
+      <c r="BJ33">
         <v>4.927057106314735</v>
       </c>
-      <c r="BC33">
+      <c r="BK33">
         <v>3.652536418593026</v>
       </c>
-      <c r="BD33">
+      <c r="BL33">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="34" spans="1:58">
+    <row r="34" spans="1:66">
       <c r="A34" s="1">
         <v>1358</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D34">
         <v>330407</v>
@@ -6226,10 +7084,10 @@
         <v>19453561</v>
       </c>
       <c r="N34" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O34">
-        <v>0.9769319829012427</v>
+        <v>0.9774404460478638</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6241,16 +7099,16 @@
         <v>11.9</v>
       </c>
       <c r="S34" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="T34">
-        <v>146.9916810163828</v>
+        <v>151.0829616846925</v>
       </c>
       <c r="U34">
         <v>20200508</v>
       </c>
       <c r="V34" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="W34">
         <v>330407</v>
@@ -6274,93 +7132,114 @@
         <v>56378</v>
       </c>
       <c r="AG34" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH34" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI34">
+        <v>226</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK34">
         <v>21045</v>
       </c>
-      <c r="AJ34">
+      <c r="AL34">
         <v>82730</v>
       </c>
-      <c r="AK34">
+      <c r="AM34">
+        <v>2758</v>
+      </c>
+      <c r="AN34">
+        <v>28869</v>
+      </c>
+      <c r="AO34">
         <v>1121543</v>
       </c>
-      <c r="AL34">
+      <c r="AP34">
         <v>1121543</v>
-      </c>
-      <c r="AM34">
-        <v>217</v>
-      </c>
-      <c r="AN34">
-        <v>533</v>
-      </c>
-      <c r="AO34">
-        <v>28869</v>
-      </c>
-      <c r="AP34">
-        <v>2758</v>
       </c>
       <c r="AQ34">
         <v>31627</v>
       </c>
-      <c r="AR34" t="s">
-        <v>108</v>
+      <c r="AR34">
+        <v>217</v>
       </c>
       <c r="AS34">
+        <v>533</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA34">
         <v>4410.619117538942</v>
       </c>
-      <c r="AT34">
+      <c r="BB34">
         <v>0.01698439684127754</v>
       </c>
-      <c r="AU34">
+      <c r="BC34">
         <v>0.04066792707001047</v>
       </c>
-      <c r="AV34">
+      <c r="BD34">
         <v>29.46</v>
       </c>
-      <c r="AW34">
+      <c r="BE34">
         <v>0.05765232391128802</v>
       </c>
-      <c r="AX34">
+      <c r="BF34">
         <v>7.288999111116478</v>
       </c>
-      <c r="AY34">
+      <c r="BG34">
         <v>6.049815929104652</v>
       </c>
-      <c r="AZ34">
+      <c r="BH34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BA34">
+      <c r="BI34">
         <v>4.419013480435807</v>
       </c>
-      <c r="BB34">
+      <c r="BJ34">
         <v>5.898251147179793</v>
       </c>
-      <c r="BC34">
+      <c r="BK34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BD34">
+      <c r="BL34">
         <v>3.913601949729157</v>
       </c>
-      <c r="BE34">
+      <c r="BM34">
         <v>3.448860845607441</v>
       </c>
-      <c r="BF34">
+      <c r="BN34">
         <v>3.36078268987328</v>
       </c>
     </row>
-    <row r="35" spans="1:58">
+    <row r="35" spans="1:66">
       <c r="A35" s="1">
         <v>1359</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D35">
         <v>14006</v>
@@ -6384,10 +7263,10 @@
         <v>10488084</v>
       </c>
       <c r="N35" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O35">
-        <v>0.9988262183310321</v>
+        <v>0.9987095496064582</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6399,16 +7278,16 @@
         <v>14.1</v>
       </c>
       <c r="S35" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="T35">
-        <v>66.78896360785541</v>
+        <v>68.85784775325727</v>
       </c>
       <c r="U35">
         <v>20200508</v>
       </c>
       <c r="V35" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="W35">
         <v>13868</v>
@@ -6420,84 +7299,105 @@
         <v>515</v>
       </c>
       <c r="AG35" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH35" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI35">
+        <v>241</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK35">
         <v>527</v>
       </c>
-      <c r="AK35">
+      <c r="AM35">
+        <v>471</v>
+      </c>
+      <c r="AN35">
+        <v>6814</v>
+      </c>
+      <c r="AO35">
         <v>178613</v>
       </c>
-      <c r="AL35">
+      <c r="AP35">
         <v>178613</v>
-      </c>
-      <c r="AM35">
-        <v>20</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35">
-        <v>6814</v>
-      </c>
-      <c r="AP35">
-        <v>471</v>
       </c>
       <c r="AQ35">
         <v>7285</v>
       </c>
-      <c r="AR35" t="s">
-        <v>108</v>
+      <c r="AR35">
+        <v>20</v>
       </c>
       <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA35">
         <v>3238.531148530148</v>
       </c>
-      <c r="AT35">
+      <c r="BB35">
         <v>0.001322262483786362</v>
       </c>
-      <c r="AU35">
+      <c r="BC35">
         <v>0.01570782613869225</v>
       </c>
-      <c r="AV35">
+      <c r="BD35">
         <v>7.76</v>
       </c>
-      <c r="AW35">
+      <c r="BE35">
         <v>0.01703008862247862</v>
       </c>
-      <c r="AX35">
+      <c r="BF35">
         <v>7.02069615699919</v>
       </c>
-      <c r="AY35">
+      <c r="BG35">
         <v>5.251913064982536</v>
       </c>
-      <c r="AZ35">
+      <c r="BH35">
         <v>4.146314122011972</v>
       </c>
-      <c r="BA35">
+      <c r="BI35">
         <v>2.724275869600789</v>
       </c>
-      <c r="BB35">
+      <c r="BJ35">
         <v>5.216812242656875</v>
       </c>
-      <c r="BC35">
+      <c r="BK35">
         <v>4.142013832984359</v>
       </c>
-      <c r="BD35">
+      <c r="BL35">
         <v>2.711807229041191</v>
       </c>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:66">
       <c r="A36" s="1">
         <v>1360</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D36">
         <v>1425</v>
@@ -6530,10 +7430,10 @@
         <v>762062</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O36">
-        <v>0.9953833564523249</v>
+        <v>0.9941761901885868</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6545,16 +7445,16 @@
         <v>11.1</v>
       </c>
       <c r="S36" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="T36">
-        <v>173.8492075079122</v>
+        <v>171.4458171282588</v>
       </c>
       <c r="U36">
         <v>20200508</v>
       </c>
       <c r="V36" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="W36">
         <v>1425</v>
@@ -6572,87 +7472,108 @@
         <v>714</v>
       </c>
       <c r="AG36" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AH36" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI36">
+        <v>239</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK36">
         <v>33</v>
       </c>
-      <c r="AJ36">
+      <c r="AL36">
         <v>104</v>
       </c>
-      <c r="AK36">
+      <c r="AM36">
+        <v>54</v>
+      </c>
+      <c r="AN36">
+        <v>1580</v>
+      </c>
+      <c r="AO36">
         <v>42501</v>
       </c>
-      <c r="AL36">
+      <c r="AP36">
         <v>42501</v>
-      </c>
-      <c r="AM36">
-        <v>2</v>
-      </c>
-      <c r="AN36">
-        <v>2</v>
-      </c>
-      <c r="AO36">
-        <v>1580</v>
-      </c>
-      <c r="AP36">
-        <v>54</v>
       </c>
       <c r="AQ36">
         <v>1634</v>
       </c>
-      <c r="AR36" t="s">
-        <v>108</v>
+      <c r="AR36">
+        <v>2</v>
       </c>
       <c r="AS36">
+        <v>2</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA36">
         <v>872.9616257316241</v>
       </c>
-      <c r="AT36">
+      <c r="BB36">
         <v>0.001869926593899184</v>
       </c>
-      <c r="AU36">
+      <c r="BC36">
         <v>0.05390112615508974</v>
       </c>
-      <c r="AV36">
+      <c r="BD36">
         <v>3.35</v>
       </c>
-      <c r="AW36">
+      <c r="BE36">
         <v>0.05577105274898893</v>
       </c>
-      <c r="AX36">
+      <c r="BF36">
         <v>5.88199030619854</v>
       </c>
-      <c r="AY36">
+      <c r="BG36">
         <v>4.628399148623785</v>
       </c>
-      <c r="AZ36">
+      <c r="BH36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BA36">
+      <c r="BI36">
         <v>1.518513939877888</v>
       </c>
-      <c r="BB36">
+      <c r="BJ36">
         <v>4.613588145185502</v>
       </c>
-      <c r="BC36">
+      <c r="BK36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BD36">
+      <c r="BL36">
         <v>1.518513939877888</v>
       </c>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:66">
       <c r="A37" s="1">
         <v>1361</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D37">
         <v>23016</v>
@@ -6682,10 +7603,10 @@
         <v>11689100</v>
       </c>
       <c r="N37" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O37">
-        <v>0.9903012469655706</v>
+        <v>0.9901150304439618</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6697,16 +7618,16 @@
         <v>12.4</v>
       </c>
       <c r="S37" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="T37">
-        <v>57.23255477759036</v>
+        <v>58.37659580201557</v>
       </c>
       <c r="U37">
         <v>20200508</v>
       </c>
       <c r="V37" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="W37">
         <v>23016</v>
@@ -6730,93 +7651,114 @@
         <v>274</v>
       </c>
       <c r="AG37" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI37">
+        <v>228</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK37">
         <v>1306</v>
       </c>
-      <c r="AJ37">
+      <c r="AL37">
         <v>4218</v>
       </c>
-      <c r="AK37">
+      <c r="AM37">
+        <v>885</v>
+      </c>
+      <c r="AN37">
+        <v>7372</v>
+      </c>
+      <c r="AO37">
         <v>184316</v>
       </c>
-      <c r="AL37">
+      <c r="AP37">
         <v>184316</v>
-      </c>
-      <c r="AM37">
-        <v>35</v>
-      </c>
-      <c r="AN37">
-        <v>78</v>
-      </c>
-      <c r="AO37">
-        <v>7372</v>
-      </c>
-      <c r="AP37">
-        <v>885</v>
       </c>
       <c r="AQ37">
         <v>8257</v>
       </c>
-      <c r="AR37" t="s">
-        <v>108</v>
+      <c r="AR37">
+        <v>35</v>
       </c>
       <c r="AS37">
+        <v>78</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA37">
         <v>3418.932581961803</v>
       </c>
-      <c r="AT37">
+      <c r="BB37">
         <v>0.001969013867620262</v>
       </c>
-      <c r="AU37">
+      <c r="BC37">
         <v>0.01379918043305301</v>
       </c>
-      <c r="AV37">
+      <c r="BD37">
         <v>12.49</v>
       </c>
-      <c r="AW37">
+      <c r="BE37">
         <v>0.01576819430067328</v>
       </c>
-      <c r="AX37">
+      <c r="BF37">
         <v>7.067781074029195</v>
       </c>
-      <c r="AY37">
+      <c r="BG37">
         <v>5.265563036847407</v>
       </c>
-      <c r="AZ37">
+      <c r="BH37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BA37">
+      <c r="BI37">
         <v>3.115943176939055</v>
       </c>
-      <c r="BB37">
+      <c r="BJ37">
         <v>5.207634367388962</v>
       </c>
-      <c r="BC37">
+      <c r="BK37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BD37">
+      <c r="BL37">
         <v>3.02530586526477</v>
       </c>
-      <c r="BE37">
+      <c r="BM37">
         <v>2.594392550375427</v>
       </c>
-      <c r="BF37">
+      <c r="BN37">
         <v>2.437750562820388</v>
       </c>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:66">
       <c r="A38" s="1">
         <v>1362</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D38">
         <v>4424</v>
@@ -6849,10 +7791,10 @@
         <v>3956971</v>
       </c>
       <c r="N38" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O38">
-        <v>0.9924744990086561</v>
+        <v>0.9925921194317167</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6864,16 +7806,16 @@
         <v>13.1</v>
       </c>
       <c r="S38" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="T38">
-        <v>86.96756173334364</v>
+        <v>88.40105593623012</v>
       </c>
       <c r="U38">
         <v>20200508</v>
       </c>
       <c r="V38" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="W38">
         <v>4424</v>
@@ -6894,90 +7836,111 @@
         <v>3064</v>
       </c>
       <c r="AG38" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH38" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI38">
+        <v>226</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK38">
         <v>266</v>
       </c>
-      <c r="AJ38">
+      <c r="AL38">
         <v>805</v>
       </c>
-      <c r="AK38">
+      <c r="AM38">
+        <v>94</v>
+      </c>
+      <c r="AN38">
+        <v>2876</v>
+      </c>
+      <c r="AO38">
         <v>89857</v>
       </c>
-      <c r="AL38">
+      <c r="AP38">
         <v>89857</v>
-      </c>
-      <c r="AM38">
-        <v>6</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>2876</v>
-      </c>
-      <c r="AP38">
-        <v>94</v>
       </c>
       <c r="AQ38">
         <v>2970</v>
       </c>
-      <c r="AR38" t="s">
-        <v>108</v>
+      <c r="AR38">
+        <v>6</v>
       </c>
       <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA38">
         <v>1989.213663737508</v>
       </c>
-      <c r="AT38">
+      <c r="BB38">
         <v>0.001118026894814241</v>
       </c>
-      <c r="AU38">
+      <c r="BC38">
         <v>0.0215905044540382</v>
       </c>
-      <c r="AV38">
+      <c r="BD38">
         <v>4.92</v>
       </c>
-      <c r="AW38">
+      <c r="BE38">
         <v>0.02270853134885244</v>
       </c>
-      <c r="AX38">
+      <c r="BF38">
         <v>6.597362867403726</v>
       </c>
-      <c r="AY38">
+      <c r="BG38">
         <v>4.953551914978187</v>
       </c>
-      <c r="AZ38">
+      <c r="BH38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BA38">
+      <c r="BI38">
         <v>2.424881636631067</v>
       </c>
-      <c r="BB38">
+      <c r="BJ38">
         <v>4.931625656984171</v>
       </c>
-      <c r="BC38">
+      <c r="BK38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BD38">
+      <c r="BL38">
         <v>2.357934847000454</v>
       </c>
-      <c r="BE38">
+      <c r="BM38">
         <v>1.982271233039568</v>
       </c>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:66">
       <c r="A39" s="1">
         <v>1363</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D39">
         <v>3068</v>
@@ -7010,10 +7973,10 @@
         <v>4217737</v>
       </c>
       <c r="N39" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O39">
-        <v>0.993612028548839</v>
+        <v>0.9936518138000354</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7025,16 +7988,16 @@
         <v>10.6</v>
       </c>
       <c r="S39" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="T39">
-        <v>47.71124552311682</v>
+        <v>48.30953244783909</v>
       </c>
       <c r="U39">
         <v>20200508</v>
       </c>
       <c r="V39" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="W39">
         <v>3068</v>
@@ -7058,93 +8021,114 @@
         <v>1125</v>
       </c>
       <c r="AG39" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH39" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI39">
+        <v>241</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK39">
         <v>124</v>
       </c>
-      <c r="AJ39">
+      <c r="AL39">
         <v>659</v>
       </c>
-      <c r="AK39">
+      <c r="AM39">
+        <v>79</v>
+      </c>
+      <c r="AN39">
+        <v>2156</v>
+      </c>
+      <c r="AO39">
         <v>72693</v>
       </c>
-      <c r="AL39">
+      <c r="AP39">
         <v>72693</v>
-      </c>
-      <c r="AM39">
-        <v>3</v>
-      </c>
-      <c r="AN39">
-        <v>14</v>
-      </c>
-      <c r="AO39">
-        <v>2156</v>
-      </c>
-      <c r="AP39">
-        <v>79</v>
       </c>
       <c r="AQ39">
         <v>2235</v>
       </c>
-      <c r="AR39" t="s">
-        <v>108</v>
+      <c r="AR39">
+        <v>3</v>
       </c>
       <c r="AS39">
+        <v>14</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA39">
         <v>2053.712978972475</v>
       </c>
-      <c r="AT39">
+      <c r="BB39">
         <v>0.0007274042928707978</v>
       </c>
-      <c r="AU39">
+      <c r="BC39">
         <v>0.01650766750036809</v>
       </c>
-      <c r="AV39">
+      <c r="BD39">
         <v>4.22</v>
       </c>
-      <c r="AW39">
+      <c r="BE39">
         <v>0.01723507179323889</v>
       </c>
-      <c r="AX39">
+      <c r="BF39">
         <v>6.625079495505463</v>
       </c>
-      <c r="AY39">
+      <c r="BG39">
         <v>4.861492592320653</v>
       </c>
-      <c r="AZ39">
+      <c r="BH39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BA39">
+      <c r="BI39">
         <v>2.093421685162235</v>
       </c>
-      <c r="BB39">
+      <c r="BJ39">
         <v>4.842765208181786</v>
       </c>
-      <c r="BC39">
+      <c r="BK39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BD39">
+      <c r="BL39">
         <v>2.201397124320451</v>
       </c>
-      <c r="BE39">
+      <c r="BM39">
         <v>1.623249290397901</v>
       </c>
-      <c r="BF39">
+      <c r="BN39">
         <v>1.255272505103306</v>
       </c>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:66">
       <c r="A40" s="1">
         <v>1364</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D40">
         <v>57371</v>
@@ -7168,10 +8152,10 @@
         <v>12801989</v>
       </c>
       <c r="N40" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O40">
-        <v>0.9804238976748005</v>
+        <v>0.9801323582869814</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7183,16 +8167,16 @@
         <v>11.4</v>
       </c>
       <c r="S40" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="T40">
-        <v>51.80949804743138</v>
+        <v>52.54865810774831</v>
       </c>
       <c r="U40">
         <v>20200508</v>
       </c>
       <c r="V40" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="W40">
         <v>54238</v>
@@ -7207,87 +8191,108 @@
         <v>517</v>
       </c>
       <c r="AG40" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AH40" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI40">
+        <v>226</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK40">
         <v>3616</v>
       </c>
-      <c r="AK40">
+      <c r="AM40">
+        <v>1323</v>
+      </c>
+      <c r="AN40">
+        <v>6448</v>
+      </c>
+      <c r="AO40">
         <v>270559</v>
       </c>
-      <c r="AL40">
+      <c r="AP40">
         <v>270559</v>
-      </c>
-      <c r="AM40">
-        <v>200</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>6448</v>
-      </c>
-      <c r="AP40">
-        <v>1323</v>
       </c>
       <c r="AQ40">
         <v>7771</v>
       </c>
-      <c r="AR40" t="s">
-        <v>108</v>
+      <c r="AR40">
+        <v>200</v>
       </c>
       <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA40">
         <v>3577.986724402426</v>
       </c>
-      <c r="AT40">
+      <c r="BB40">
         <v>0.004236685408806397</v>
       </c>
-      <c r="AU40">
+      <c r="BC40">
         <v>0.01689745241930765</v>
       </c>
-      <c r="AV40">
+      <c r="BD40">
         <v>20.05</v>
       </c>
-      <c r="AW40">
+      <c r="BE40">
         <v>0.02113413782811405</v>
       </c>
-      <c r="AX40">
+      <c r="BF40">
         <v>7.107277449696098</v>
       </c>
-      <c r="AY40">
+      <c r="BG40">
         <v>5.432261985081858</v>
       </c>
-      <c r="AZ40">
+      <c r="BH40">
         <v>4.758692419878901</v>
       </c>
-      <c r="BA40">
+      <c r="BI40">
         <v>3.569958818096594</v>
       </c>
-      <c r="BB40">
+      <c r="BJ40">
         <v>5.335098681905209</v>
       </c>
-      <c r="BC40">
+      <c r="BK40">
         <v>4.73430366675543</v>
       </c>
-      <c r="BD40">
+      <c r="BL40">
         <v>3.369586890736344</v>
       </c>
-      <c r="BF40">
+      <c r="BN40">
         <v>2.713490543093942</v>
       </c>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" spans="1:66">
       <c r="A41" s="1">
         <v>1365</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D41">
         <v>10779</v>
@@ -7320,10 +8325,10 @@
         <v>1059361</v>
       </c>
       <c r="N41" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O41">
-        <v>0.9727886467518656</v>
+        <v>0.9714046468769366</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7335,16 +8340,16 @@
         <v>10.1</v>
       </c>
       <c r="S41" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="T41">
-        <v>259.2351168568856</v>
+        <v>260.9146943601762</v>
       </c>
       <c r="U41">
         <v>20200508</v>
       </c>
       <c r="V41" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="W41">
         <v>10779</v>
@@ -7368,93 +8373,114 @@
         <v>730</v>
       </c>
       <c r="AG41" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH41" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI41">
+        <v>240</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK41">
         <v>399</v>
       </c>
-      <c r="AJ41">
+      <c r="AL41">
         <v>1187</v>
       </c>
-      <c r="AK41">
+      <c r="AM41">
+        <v>249</v>
+      </c>
+      <c r="AN41">
+        <v>2699</v>
+      </c>
+      <c r="AO41">
         <v>85266</v>
       </c>
-      <c r="AL41">
+      <c r="AP41">
         <v>85266</v>
-      </c>
-      <c r="AM41">
-        <v>11</v>
-      </c>
-      <c r="AN41">
-        <v>34</v>
-      </c>
-      <c r="AO41">
-        <v>2699</v>
-      </c>
-      <c r="AP41">
-        <v>249</v>
       </c>
       <c r="AQ41">
         <v>2948</v>
       </c>
-      <c r="AR41" t="s">
-        <v>108</v>
+      <c r="AR41">
+        <v>11</v>
       </c>
       <c r="AS41">
+        <v>34</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA41">
         <v>1029.25264148313</v>
       </c>
-      <c r="AT41">
+      <c r="BB41">
         <v>0.01017500172273663</v>
       </c>
-      <c r="AU41">
+      <c r="BC41">
         <v>0.07031314160139933</v>
       </c>
-      <c r="AV41">
+      <c r="BD41">
         <v>12.64</v>
       </c>
-      <c r="AW41">
+      <c r="BE41">
         <v>0.08048814332413597</v>
       </c>
-      <c r="AX41">
+      <c r="BF41">
         <v>6.025043980496346</v>
       </c>
-      <c r="AY41">
+      <c r="BG41">
         <v>4.930775889831263</v>
       </c>
-      <c r="AZ41">
+      <c r="BH41">
         <v>4.032578471924312</v>
       </c>
-      <c r="BA41">
+      <c r="BI41">
         <v>2.600972895686748</v>
       </c>
-      <c r="BB41">
+      <c r="BJ41">
         <v>4.872080483205862</v>
       </c>
-      <c r="BC41">
+      <c r="BK41">
         <v>4.032578471924312</v>
       </c>
-      <c r="BD41">
+      <c r="BL41">
         <v>2.494154594018443</v>
       </c>
-      <c r="BE41">
+      <c r="BM41">
         <v>1.851258348719075</v>
       </c>
-      <c r="BF41">
+      <c r="BN41">
         <v>1.716003343634799</v>
       </c>
     </row>
-    <row r="42" spans="1:58">
+    <row r="42" spans="1:66">
       <c r="A42" s="1">
         <v>1366</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D42">
         <v>7367</v>
@@ -7487,10 +8513,10 @@
         <v>5148714</v>
       </c>
       <c r="N42" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O42">
-        <v>0.9946303169581356</v>
+        <v>0.9949293271811167</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7502,16 +8528,16 @@
         <v>14</v>
       </c>
       <c r="S42" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="T42">
-        <v>66.04636633686546</v>
+        <v>68.71566967069656</v>
       </c>
       <c r="U42">
         <v>20200508</v>
       </c>
       <c r="V42" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="W42">
         <v>7142</v>
@@ -7526,84 +8552,105 @@
         <v>3816</v>
       </c>
       <c r="AG42" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI42">
+        <v>247</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK42">
         <v>316</v>
       </c>
-      <c r="AJ42">
+      <c r="AL42">
         <v>1152</v>
       </c>
-      <c r="AK42">
+      <c r="AM42">
+        <v>206</v>
+      </c>
+      <c r="AN42">
+        <v>-4246</v>
+      </c>
+      <c r="AO42">
         <v>73442</v>
       </c>
-      <c r="AL42">
+      <c r="AP42">
         <v>73442</v>
-      </c>
-      <c r="AM42">
-        <v>11</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>-4246</v>
-      </c>
-      <c r="AP42">
-        <v>206</v>
       </c>
       <c r="AQ42">
         <v>-4040</v>
       </c>
-      <c r="AR42" t="s">
-        <v>108</v>
+      <c r="AR42">
+        <v>11</v>
       </c>
       <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA42">
         <v>2269.077786238277</v>
       </c>
-      <c r="AT42">
+      <c r="BB42">
         <v>0.001387142498107294</v>
       </c>
-      <c r="AU42">
+      <c r="BC42">
         <v>0.01287700190766083</v>
       </c>
-      <c r="AV42">
+      <c r="BD42">
         <v>9.720000000000001</v>
       </c>
-      <c r="AW42">
+      <c r="BE42">
         <v>0.01426414440576812</v>
       </c>
-      <c r="AX42">
+      <c r="BF42">
         <v>6.711698768371901</v>
       </c>
-      <c r="AY42">
+      <c r="BG42">
         <v>4.865944495223916</v>
       </c>
-      <c r="AZ42">
+      <c r="BH42">
         <v>3.867290669854884</v>
       </c>
-      <c r="BA42">
+      <c r="BI42">
         <v>2.505149978319906</v>
       </c>
-      <c r="BB42">
+      <c r="BJ42">
         <v>4.821513528404773</v>
       </c>
-      <c r="BC42">
+      <c r="BK42">
         <v>3.853819845856763</v>
       </c>
     </row>
-    <row r="43" spans="1:58">
+    <row r="43" spans="1:66">
       <c r="A43" s="1">
         <v>1367</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D43">
         <v>3145</v>
@@ -7636,10 +8683,10 @@
         <v>884659</v>
       </c>
       <c r="N43" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O43">
-        <v>0.9833503957367665</v>
+        <v>0.9828026516091452</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7651,16 +8698,16 @@
         <v>10.7</v>
       </c>
       <c r="S43" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="T43">
-        <v>68.23661440260942</v>
+        <v>71.03891031727825</v>
       </c>
       <c r="U43">
         <v>20200508</v>
       </c>
       <c r="V43" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="W43">
         <v>3144</v>
@@ -7678,87 +8725,108 @@
         <v>2069</v>
       </c>
       <c r="AG43" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AH43" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI43">
+        <v>231</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK43">
         <v>31</v>
       </c>
-      <c r="AJ43">
+      <c r="AL43">
         <v>247</v>
       </c>
-      <c r="AK43">
+      <c r="AM43">
+        <v>239</v>
+      </c>
+      <c r="AN43">
+        <v>940</v>
+      </c>
+      <c r="AO43">
         <v>21293</v>
       </c>
-      <c r="AL43">
+      <c r="AP43">
         <v>21293</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43">
-        <v>11</v>
-      </c>
-      <c r="AO43">
-        <v>940</v>
-      </c>
-      <c r="AP43">
-        <v>239</v>
       </c>
       <c r="AQ43">
         <v>1179</v>
       </c>
-      <c r="AR43" t="s">
-        <v>108</v>
+      <c r="AR43">
+        <v>0</v>
       </c>
       <c r="AS43">
+        <v>11</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA43">
         <v>940.5631291944204</v>
       </c>
-      <c r="AT43">
+      <c r="BB43">
         <v>0.003553911733221501</v>
       </c>
-      <c r="AU43">
+      <c r="BC43">
         <v>0.02051524937857412</v>
       </c>
-      <c r="AV43">
+      <c r="BD43">
         <v>14.77</v>
       </c>
-      <c r="AW43">
+      <c r="BE43">
         <v>0.02406916111179562</v>
       </c>
-      <c r="AX43">
+      <c r="BF43">
         <v>5.94677590012512</v>
       </c>
-      <c r="AY43">
+      <c r="BG43">
         <v>4.328236854094916</v>
       </c>
-      <c r="AZ43">
+      <c r="BH43">
         <v>3.497620649781288</v>
       </c>
-      <c r="BA43">
+      <c r="BI43">
         <v>1.491361693834273</v>
       </c>
-      <c r="BB43">
+      <c r="BJ43">
         <v>4.258852700642303</v>
       </c>
-      <c r="BC43">
+      <c r="BK43">
         <v>3.49748253736737</v>
       </c>
-      <c r="BD43">
+      <c r="BL43">
         <v>1.880813592280791</v>
       </c>
     </row>
-    <row r="44" spans="1:58">
+    <row r="44" spans="1:66">
       <c r="A44" s="1">
         <v>1368</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D44">
         <v>14441</v>
@@ -7791,10 +8859,10 @@
         <v>6829174</v>
       </c>
       <c r="N44" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O44">
-        <v>0.9954657892986609</v>
+        <v>0.9954220232517401</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7806,16 +8874,16 @@
         <v>11.7</v>
       </c>
       <c r="S44" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="T44">
-        <v>115.7075983273788</v>
+        <v>116.1107428900826</v>
       </c>
       <c r="U44">
         <v>20200508</v>
       </c>
       <c r="V44" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="W44">
         <v>14441</v>
@@ -7830,84 +8898,105 @@
         <v>7011</v>
       </c>
       <c r="AG44" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH44" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI44">
+        <v>226</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK44">
         <v>241</v>
       </c>
-      <c r="AJ44">
+      <c r="AL44">
         <v>1299</v>
       </c>
-      <c r="AK44">
+      <c r="AM44">
+        <v>345</v>
+      </c>
+      <c r="AN44">
+        <v>6905</v>
+      </c>
+      <c r="AO44">
         <v>243578</v>
       </c>
-      <c r="AL44">
+      <c r="AP44">
         <v>243578</v>
-      </c>
-      <c r="AM44">
-        <v>4</v>
-      </c>
-      <c r="AN44">
-        <v>33</v>
-      </c>
-      <c r="AO44">
-        <v>6905</v>
-      </c>
-      <c r="AP44">
-        <v>345</v>
       </c>
       <c r="AQ44">
         <v>7250</v>
       </c>
-      <c r="AR44" t="s">
-        <v>108</v>
+      <c r="AR44">
+        <v>4</v>
       </c>
       <c r="AS44">
+        <v>33</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA44">
         <v>2613.26883423807</v>
       </c>
-      <c r="AT44">
+      <c r="BB44">
         <v>0.002114604196642229</v>
       </c>
-      <c r="AU44">
+      <c r="BC44">
         <v>0.03355266683789284</v>
       </c>
-      <c r="AV44">
+      <c r="BD44">
         <v>5.93</v>
       </c>
-      <c r="AW44">
+      <c r="BE44">
         <v>0.03566727103453507</v>
       </c>
-      <c r="AX44">
+      <c r="BF44">
         <v>6.834368178215133</v>
       </c>
-      <c r="AY44">
+      <c r="BG44">
         <v>5.386638060192078</v>
       </c>
-      <c r="AZ44">
+      <c r="BH44">
         <v>4.159597267987408</v>
       </c>
-      <c r="BA44">
+      <c r="BI44">
         <v>2.383815365980431</v>
       </c>
-      <c r="BB44">
+      <c r="BJ44">
         <v>5.360095222748518</v>
       </c>
-      <c r="BC44">
+      <c r="BK44">
         <v>4.159597267987408</v>
       </c>
     </row>
-    <row r="45" spans="1:58">
+    <row r="45" spans="1:66">
       <c r="A45" s="1">
         <v>1369</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D45">
         <v>37246</v>
@@ -7934,10 +9023,10 @@
         <v>28995881</v>
       </c>
       <c r="N45" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O45">
-        <v>0.9972307216188042</v>
+        <v>0.9974036491766954</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7949,16 +9038,16 @@
         <v>13.4</v>
       </c>
       <c r="S45" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="T45">
-        <v>55.55431993158961</v>
+        <v>55.93912283159646</v>
       </c>
       <c r="U45">
         <v>20200508</v>
       </c>
       <c r="V45" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="W45">
         <v>36609</v>
@@ -7973,84 +9062,105 @@
         <v>19197</v>
       </c>
       <c r="AG45" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH45" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI45">
+        <v>239</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK45">
         <v>1004</v>
       </c>
-      <c r="AK45">
+      <c r="AM45">
+        <v>1219</v>
+      </c>
+      <c r="AN45">
+        <v>20737</v>
+      </c>
+      <c r="AO45">
         <v>477118</v>
       </c>
-      <c r="AL45">
+      <c r="AP45">
         <v>477118</v>
-      </c>
-      <c r="AM45">
-        <v>31</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <v>20737</v>
-      </c>
-      <c r="AP45">
-        <v>1219</v>
       </c>
       <c r="AQ45">
         <v>21956</v>
       </c>
-      <c r="AR45" t="s">
-        <v>108</v>
+      <c r="AR45">
+        <v>31</v>
       </c>
       <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA45">
         <v>5384.782354004663</v>
       </c>
-      <c r="AT45">
+      <c r="BB45">
         <v>0.001262558637207816</v>
       </c>
-      <c r="AU45">
+      <c r="BC45">
         <v>0.01519212332261951</v>
       </c>
-      <c r="AV45">
+      <c r="BD45">
         <v>7.67</v>
       </c>
-      <c r="AW45">
+      <c r="BE45">
         <v>0.01645468195982733</v>
       </c>
-      <c r="AX45">
+      <c r="BF45">
         <v>7.462336308725756</v>
       </c>
-      <c r="AY45">
+      <c r="BG45">
         <v>5.678625801285844</v>
       </c>
-      <c r="AZ45">
+      <c r="BH45">
         <v>4.571079638931142</v>
       </c>
-      <c r="BA45">
+      <c r="BI45">
         <v>3.010723865391773</v>
       </c>
-      <c r="BB45">
+      <c r="BJ45">
         <v>5.643954785870446</v>
       </c>
-      <c r="BC45">
+      <c r="BK45">
         <v>4.563587865991245</v>
       </c>
-      <c r="BD45">
+      <c r="BL45">
         <v>3.239049093140192</v>
       </c>
     </row>
-    <row r="46" spans="1:58">
+    <row r="46" spans="1:66">
       <c r="A46" s="1">
         <v>1370</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D46">
         <v>5919</v>
@@ -8083,10 +9193,10 @@
         <v>3205958</v>
       </c>
       <c r="N46" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O46">
-        <v>0.9975385653670585</v>
+        <v>0.9977721473271072</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8098,16 +9208,16 @@
         <v>7.8</v>
       </c>
       <c r="S46" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="T46">
-        <v>106.2503430553941</v>
+        <v>105.3588036332877</v>
       </c>
       <c r="U46">
         <v>20200508</v>
       </c>
       <c r="V46" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="W46">
         <v>5919</v>
@@ -8131,87 +9241,108 @@
         <v>2769</v>
       </c>
       <c r="AG46" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH46" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI46">
+        <v>242</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK46">
         <v>61</v>
       </c>
-      <c r="AJ46">
+      <c r="AL46">
         <v>488</v>
       </c>
-      <c r="AK46">
+      <c r="AM46">
+        <v>195</v>
+      </c>
+      <c r="AN46">
+        <v>3950</v>
+      </c>
+      <c r="AO46">
         <v>138688</v>
       </c>
-      <c r="AL46">
+      <c r="AP46">
         <v>138688</v>
-      </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AN46">
-        <v>12</v>
-      </c>
-      <c r="AO46">
-        <v>3950</v>
-      </c>
-      <c r="AP46">
-        <v>195</v>
       </c>
       <c r="AQ46">
         <v>4145</v>
       </c>
-      <c r="AR46" t="s">
-        <v>108</v>
+      <c r="AR46">
+        <v>0</v>
       </c>
       <c r="AS46">
+        <v>12</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA46">
         <v>1790.518919196332</v>
       </c>
-      <c r="AT46">
+      <c r="BB46">
         <v>0.001846250013256568</v>
       </c>
-      <c r="AU46">
+      <c r="BC46">
         <v>0.04141320628654524</v>
       </c>
-      <c r="AV46">
+      <c r="BD46">
         <v>4.27</v>
       </c>
-      <c r="AW46">
+      <c r="BE46">
         <v>0.0432594562998018</v>
       </c>
-      <c r="AX46">
+      <c r="BF46">
         <v>6.505957828533497</v>
       </c>
-      <c r="AY46">
+      <c r="BG46">
         <v>5.142038885303705</v>
       </c>
-      <c r="AZ46">
+      <c r="BH46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BA46">
+      <c r="BI46">
         <v>1.785329835010767</v>
       </c>
-      <c r="BB46">
+      <c r="BJ46">
         <v>5.123096684214545</v>
       </c>
-      <c r="BC46">
+      <c r="BK46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BD46">
+      <c r="BL46">
         <v>2.334453751150931</v>
       </c>
     </row>
-    <row r="47" spans="1:58">
+    <row r="47" spans="1:66">
       <c r="A47" s="1">
         <v>1371</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D47">
         <v>919</v>
@@ -8238,10 +9369,10 @@
         <v>623989</v>
       </c>
       <c r="N47" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O47">
-        <v>0.9658460610774219</v>
+        <v>0.9663185185465103</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8253,16 +9384,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S47" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="T47">
-        <v>71.87069262409199</v>
+        <v>74.88866904317851</v>
       </c>
       <c r="U47">
         <v>20200508</v>
       </c>
       <c r="V47" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="W47">
         <v>918</v>
@@ -8277,84 +9408,105 @@
         <v>737</v>
       </c>
       <c r="AG47" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH47" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI47">
+        <v>226</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK47">
         <v>53</v>
       </c>
-      <c r="AK47">
+      <c r="AM47">
+        <v>2</v>
+      </c>
+      <c r="AN47">
+        <v>532</v>
+      </c>
+      <c r="AO47">
         <v>18140</v>
       </c>
-      <c r="AL47">
+      <c r="AP47">
         <v>18140</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>532</v>
-      </c>
-      <c r="AP47">
-        <v>2</v>
       </c>
       <c r="AQ47">
         <v>534</v>
       </c>
-      <c r="AR47" t="s">
-        <v>108</v>
+      <c r="AR47">
+        <v>0</v>
       </c>
       <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA47">
         <v>789.9297437114266</v>
       </c>
-      <c r="AT47">
+      <c r="BB47">
         <v>0.001471179780412796</v>
       </c>
-      <c r="AU47">
+      <c r="BC47">
         <v>0.02759984551009713</v>
       </c>
-      <c r="AV47">
+      <c r="BD47">
         <v>5.06</v>
       </c>
-      <c r="AW47">
+      <c r="BE47">
         <v>0.03046207545325318</v>
       </c>
-      <c r="AX47">
+      <c r="BF47">
         <v>5.795176933782731</v>
       </c>
-      <c r="AY47">
+      <c r="BG47">
         <v>4.2789364233011</v>
       </c>
-      <c r="AZ47">
+      <c r="BH47">
         <v>2.963315511386111</v>
       </c>
-      <c r="BA47">
+      <c r="BI47">
         <v>1.724275869600789</v>
       </c>
-      <c r="BB47">
+      <c r="BJ47">
         <v>4.236083584895046</v>
       </c>
-      <c r="BC47">
+      <c r="BK47">
         <v>2.962842681201242</v>
       </c>
-      <c r="BD47">
+      <c r="BL47">
         <v>1.176091259055681</v>
       </c>
     </row>
-    <row r="48" spans="1:58">
+    <row r="48" spans="1:66">
       <c r="A48" s="1">
         <v>1372</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D48">
         <v>22342</v>
@@ -8387,10 +9539,10 @@
         <v>8535519</v>
       </c>
       <c r="N48" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O48">
-        <v>0.999308336704852</v>
+        <v>0.9992486852435774</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8402,16 +9554,16 @@
         <v>10.1</v>
       </c>
       <c r="S48" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="T48">
-        <v>63.57835278851473</v>
+        <v>65.54193847107344</v>
       </c>
       <c r="U48">
         <v>20200508</v>
       </c>
       <c r="V48" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="W48">
         <v>22342</v>
@@ -8438,93 +9590,114 @@
         <v>2997</v>
       </c>
       <c r="AG48" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI48">
+        <v>238</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK48">
         <v>812</v>
       </c>
-      <c r="AJ48">
+      <c r="AL48">
         <v>4622</v>
       </c>
-      <c r="AK48">
+      <c r="AM48">
+        <v>772</v>
+      </c>
+      <c r="AN48">
+        <v>6021</v>
+      </c>
+      <c r="AO48">
         <v>130494</v>
       </c>
-      <c r="AL48">
+      <c r="AP48">
         <v>129945</v>
-      </c>
-      <c r="AM48">
-        <v>43</v>
-      </c>
-      <c r="AN48">
-        <v>184</v>
-      </c>
-      <c r="AO48">
-        <v>6021</v>
-      </c>
-      <c r="AP48">
-        <v>772</v>
       </c>
       <c r="AQ48">
         <v>6793</v>
       </c>
-      <c r="AR48" t="s">
-        <v>108</v>
+      <c r="AR48">
+        <v>43</v>
       </c>
       <c r="AS48">
+        <v>184</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA48">
         <v>2921.561055326416</v>
       </c>
-      <c r="AT48">
+      <c r="BB48">
         <v>0.002617532688990558</v>
       </c>
-      <c r="AU48">
+      <c r="BC48">
         <v>0.01260649762480758</v>
       </c>
-      <c r="AV48">
+      <c r="BD48">
         <v>17.19</v>
       </c>
-      <c r="AW48">
+      <c r="BE48">
         <v>0.01522403031379814</v>
       </c>
-      <c r="AX48">
+      <c r="BF48">
         <v>6.931229933415991</v>
       </c>
-      <c r="AY48">
+      <c r="BG48">
         <v>5.113759573454686</v>
       </c>
-      <c r="AZ48">
+      <c r="BH48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BA48">
+      <c r="BI48">
         <v>2.909556029241176</v>
       </c>
-      <c r="BB48">
+      <c r="BJ48">
         <v>5.031824379743782</v>
       </c>
-      <c r="BC48">
+      <c r="BK48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BD48">
+      <c r="BL48">
         <v>3.210853365314893</v>
       </c>
-      <c r="BE48">
+      <c r="BM48">
         <v>2.577491799837226</v>
       </c>
-      <c r="BF48">
+      <c r="BN48">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="49" spans="1:58">
+    <row r="49" spans="1:66">
       <c r="A49" s="1">
         <v>1373</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D49">
         <v>16388</v>
@@ -8548,10 +9721,10 @@
         <v>7614893</v>
       </c>
       <c r="N49" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O49">
-        <v>0.9925349043222731</v>
+        <v>0.9928350873717562</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8563,16 +9736,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S49" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="T49">
-        <v>68.56943700849827</v>
+        <v>68.69906290417973</v>
       </c>
       <c r="U49">
         <v>20200508</v>
       </c>
       <c r="V49" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="W49">
         <v>17273</v>
@@ -8587,87 +9760,108 @@
         <v>122</v>
       </c>
       <c r="AG49" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AH49" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI49">
+        <v>226</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK49">
         <v>891</v>
       </c>
-      <c r="AK49">
+      <c r="AM49">
+        <v>245</v>
+      </c>
+      <c r="AN49">
+        <v>5769</v>
+      </c>
+      <c r="AO49">
         <v>256251</v>
       </c>
-      <c r="AL49">
+      <c r="AP49">
         <v>256251</v>
-      </c>
-      <c r="AM49">
-        <v>21</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>5769</v>
-      </c>
-      <c r="AP49">
-        <v>245</v>
       </c>
       <c r="AQ49">
         <v>6014</v>
       </c>
-      <c r="AR49" t="s">
-        <v>108</v>
+      <c r="AR49">
+        <v>21</v>
       </c>
       <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA49">
         <v>2759.50955787437</v>
       </c>
-      <c r="AT49">
+      <c r="BB49">
         <v>0.002268318149710048</v>
       </c>
-      <c r="AU49">
+      <c r="BC49">
         <v>0.03138297544036404</v>
       </c>
-      <c r="AV49">
+      <c r="BD49">
         <v>6.74</v>
       </c>
-      <c r="AW49">
+      <c r="BE49">
         <v>0.0302932687301056</v>
       </c>
-      <c r="AX49">
+      <c r="BF49">
         <v>6.881663805264177</v>
       </c>
-      <c r="AY49">
+      <c r="BG49">
         <v>5.363009942738859</v>
       </c>
-      <c r="AZ49">
+      <c r="BH49">
         <v>4.214525955281105</v>
       </c>
-      <c r="BA49">
+      <c r="BI49">
         <v>2.956648579205203</v>
       </c>
-      <c r="BB49">
+      <c r="BJ49">
         <v>5.378357922210168</v>
       </c>
-      <c r="BC49">
+      <c r="BK49">
         <v>4.237367773021761</v>
       </c>
-      <c r="BD49">
+      <c r="BL49">
         <v>2.594392550375427</v>
       </c>
-      <c r="BE49">
+      <c r="BM49">
         <v>2.086359830674748</v>
       </c>
     </row>
-    <row r="50" spans="1:58">
+    <row r="50" spans="1:66">
       <c r="A50" s="1">
         <v>1374</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D50">
         <v>1323</v>
@@ -8694,10 +9888,10 @@
         <v>1792147</v>
       </c>
       <c r="N50" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O50">
-        <v>0.9902241988407736</v>
+        <v>0.9908502365195534</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8709,16 +9903,16 @@
         <v>16.5</v>
       </c>
       <c r="S50" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="T50">
-        <v>86.54778208143705</v>
+        <v>85.28516330531383</v>
       </c>
       <c r="U50">
         <v>20200508</v>
       </c>
       <c r="V50" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="W50">
         <v>1310</v>
@@ -8739,90 +9933,111 @@
         <v>761</v>
       </c>
       <c r="AG50" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AH50" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI50">
+        <v>237</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK50">
         <v>51</v>
       </c>
-      <c r="AK50">
+      <c r="AM50">
+        <v>23</v>
+      </c>
+      <c r="AN50">
+        <v>1892</v>
+      </c>
+      <c r="AO50">
         <v>59436</v>
       </c>
-      <c r="AL50">
+      <c r="AP50">
         <v>59436</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <v>1892</v>
-      </c>
-      <c r="AP50">
-        <v>23</v>
       </c>
       <c r="AQ50">
         <v>1915</v>
       </c>
-      <c r="AR50" t="s">
-        <v>108</v>
+      <c r="AR50">
+        <v>0</v>
       </c>
       <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA50">
         <v>1338.71094714281</v>
       </c>
-      <c r="AT50">
+      <c r="BB50">
         <v>0.0007309668235920379</v>
       </c>
-      <c r="AU50">
+      <c r="BC50">
         <v>0.0324337233497029</v>
       </c>
-      <c r="AV50">
+      <c r="BD50">
         <v>2.2</v>
       </c>
-      <c r="AW50">
+      <c r="BE50">
         <v>0.03316469017329494</v>
       </c>
-      <c r="AX50">
+      <c r="BF50">
         <v>6.253373629584194</v>
       </c>
-      <c r="AY50">
+      <c r="BG50">
         <v>4.774049574030081</v>
       </c>
-      <c r="AZ50">
+      <c r="BH50">
         <v>3.121559844187501</v>
       </c>
-      <c r="BA50">
+      <c r="BI50">
         <v>1.716003343634799</v>
       </c>
-      <c r="BB50">
+      <c r="BJ50">
         <v>4.76437043756676</v>
       </c>
-      <c r="BC50">
+      <c r="BK50">
         <v>3.117271295655764</v>
       </c>
-      <c r="BD50">
+      <c r="BL50">
         <v>1.812913356642855</v>
       </c>
-      <c r="BE50">
+      <c r="BM50">
         <v>1.278753600952829</v>
       </c>
-      <c r="BF50">
+      <c r="BN50">
         <v>1.041392685158225</v>
       </c>
     </row>
-    <row r="51" spans="1:58">
+    <row r="51" spans="1:66">
       <c r="A51" s="1">
         <v>1375</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D51">
         <v>9590</v>
@@ -8855,10 +10070,10 @@
         <v>5822434</v>
       </c>
       <c r="N51" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O51">
-        <v>0.9987091786288461</v>
+        <v>0.9988492827265395</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8870,16 +10085,16 @@
         <v>8.9</v>
       </c>
       <c r="S51" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="T51">
-        <v>73.26860034653487</v>
+        <v>76.44231703661301</v>
       </c>
       <c r="U51">
         <v>20200508</v>
       </c>
       <c r="V51" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="W51">
         <v>9590</v>
@@ -8906,90 +10121,111 @@
         <v>4694</v>
       </c>
       <c r="AG51" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AH51" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI51">
+        <v>226</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK51">
         <v>384</v>
       </c>
-      <c r="AJ51">
+      <c r="AL51">
         <v>1767</v>
       </c>
-      <c r="AK51">
+      <c r="AM51">
+        <v>375</v>
+      </c>
+      <c r="AN51">
+        <v>4230</v>
+      </c>
+      <c r="AO51">
         <v>107059</v>
       </c>
-      <c r="AL51">
+      <c r="AP51">
         <v>106855</v>
-      </c>
-      <c r="AM51">
-        <v>10</v>
-      </c>
-      <c r="AN51">
-        <v>35</v>
-      </c>
-      <c r="AO51">
-        <v>4230</v>
-      </c>
-      <c r="AP51">
-        <v>375</v>
       </c>
       <c r="AQ51">
         <v>4605</v>
       </c>
-      <c r="AR51" t="s">
-        <v>108</v>
+      <c r="AR51">
+        <v>10</v>
       </c>
       <c r="AS51">
+        <v>35</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA51">
         <v>2412.972026360853</v>
       </c>
-      <c r="AT51">
+      <c r="BB51">
         <v>0.001647077493707958</v>
       </c>
-      <c r="AU51">
+      <c r="BC51">
         <v>0.01670521297450516</v>
       </c>
-      <c r="AV51">
+      <c r="BD51">
         <v>8.970000000000001</v>
       </c>
-      <c r="AW51">
+      <c r="BE51">
         <v>0.01835229046821312</v>
       </c>
-      <c r="AX51">
+      <c r="BF51">
         <v>6.765104574304484</v>
       </c>
-      <c r="AY51">
+      <c r="BG51">
         <v>5.028794848648937</v>
       </c>
-      <c r="AZ51">
+      <c r="BH51">
         <v>3.981818607170664</v>
       </c>
-      <c r="BA51">
+      <c r="BI51">
         <v>2.584331224367531</v>
       </c>
-      <c r="BB51">
+      <c r="BJ51">
         <v>4.987956591127648</v>
       </c>
-      <c r="BC51">
+      <c r="BK51">
         <v>3.981818607170664</v>
       </c>
-      <c r="BD51">
+      <c r="BL51">
         <v>2.741939077729199</v>
       </c>
-      <c r="BE51">
+      <c r="BM51">
         <v>2.041392685158225</v>
       </c>
     </row>
-    <row r="52" spans="1:58">
+    <row r="52" spans="1:66">
       <c r="A52" s="1">
         <v>1376</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D52">
         <v>644</v>
@@ -9022,10 +10258,10 @@
         <v>578759</v>
       </c>
       <c r="N52" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O52">
-        <v>0.9894875885429002</v>
+        <v>0.9895378388954608</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9037,16 +10273,16 @@
         <v>11.2</v>
       </c>
       <c r="S52" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="T52">
-        <v>61.56817748868811</v>
+        <v>63.21325873962253</v>
       </c>
       <c r="U52">
         <v>20200508</v>
       </c>
       <c r="V52" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="W52">
         <v>635</v>
@@ -9064,75 +10300,96 @@
         <v>428</v>
       </c>
       <c r="AG52" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AH52" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI52">
+        <v>248</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK52">
         <v>7</v>
       </c>
-      <c r="AJ52">
+      <c r="AL52">
         <v>60</v>
       </c>
-      <c r="AK52">
+      <c r="AM52">
+        <v>4</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
         <v>12038</v>
       </c>
-      <c r="AL52">
+      <c r="AP52">
         <v>12038</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>4</v>
       </c>
       <c r="AQ52">
         <v>4</v>
       </c>
-      <c r="AR52" t="s">
-        <v>108</v>
+      <c r="AR52">
+        <v>0</v>
       </c>
       <c r="AS52">
+        <v>1</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA52">
         <v>760.7621178791699</v>
       </c>
-      <c r="AT52">
+      <c r="BB52">
         <v>0.001097175162718852</v>
       </c>
-      <c r="AU52">
+      <c r="BC52">
         <v>0.01970250138658751</v>
       </c>
-      <c r="AV52">
+      <c r="BD52">
         <v>5.27</v>
       </c>
-      <c r="AW52">
+      <c r="BE52">
         <v>0.02079967654930636</v>
       </c>
-      <c r="AX52">
+      <c r="BF52">
         <v>5.762497757580992</v>
       </c>
-      <c r="AY52">
+      <c r="BG52">
         <v>4.080554338988772</v>
       </c>
-      <c r="AZ52">
+      <c r="BH52">
         <v>2.808885867359812</v>
       </c>
-      <c r="BA52">
+      <c r="BI52">
         <v>0.8450980400142568</v>
       </c>
-      <c r="BB52">
+      <c r="BJ52">
         <v>4.057019124322766</v>
       </c>
-      <c r="BC52">
+      <c r="BK52">
         <v>2.802773725291976</v>
       </c>
-      <c r="BD52">
+      <c r="BL52">
         <v>0.9542425094393249</v>
       </c>
     </row>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1500,7 +1500,7 @@
         <v>117</v>
       </c>
       <c r="O2">
-        <v>0.9974118314810448</v>
+        <v>0.9975493995027498</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1515,7 +1515,7 @@
         <v>119</v>
       </c>
       <c r="T2">
-        <v>80.78290266831732</v>
+        <v>81.05957819044879</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1667,7 +1667,7 @@
         <v>117</v>
       </c>
       <c r="O3">
-        <v>0.9768005811292281</v>
+        <v>0.9741993069028571</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1682,7 +1682,7 @@
         <v>120</v>
       </c>
       <c r="T3">
-        <v>120.1532374953471</v>
+        <v>121.6880945828017</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1837,7 +1837,7 @@
         <v>117</v>
       </c>
       <c r="O4">
-        <v>0.9987657534875234</v>
+        <v>0.9984201738064112</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1852,7 +1852,7 @@
         <v>121</v>
       </c>
       <c r="T4">
-        <v>53.74762940074164</v>
+        <v>54.41107708958951</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2025,7 +2025,7 @@
         <v>117</v>
       </c>
       <c r="O5">
-        <v>0.9934403667167572</v>
+        <v>0.9931914557214817</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2040,7 +2040,7 @@
         <v>122</v>
       </c>
       <c r="T5">
-        <v>72.62440998883179</v>
+        <v>73.52876821754627</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2201,7 +2201,7 @@
         <v>117</v>
       </c>
       <c r="O6">
-        <v>0.9986064889115503</v>
+        <v>0.9986777554657852</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2216,7 +2216,7 @@
         <v>123</v>
       </c>
       <c r="T6">
-        <v>92.89174123324548</v>
+        <v>93.96338175828215</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2374,7 +2374,7 @@
         <v>117</v>
       </c>
       <c r="O7">
-        <v>0.9891953058558266</v>
+        <v>0.9890664104551193</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2389,7 +2389,7 @@
         <v>124</v>
       </c>
       <c r="T7">
-        <v>52.32099255310399</v>
+        <v>52.86846204873289</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2550,7 +2550,7 @@
         <v>117</v>
       </c>
       <c r="O8">
-        <v>0.9751291047406612</v>
+        <v>0.9748881239799717</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2565,7 +2565,7 @@
         <v>125</v>
       </c>
       <c r="T8">
-        <v>124.2885804134327</v>
+        <v>125.72430181094</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2720,7 +2720,7 @@
         <v>117</v>
       </c>
       <c r="O9">
-        <v>0.9873546342444912</v>
+        <v>0.9865157645612561</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2735,7 +2735,7 @@
         <v>126</v>
       </c>
       <c r="T9">
-        <v>108.5271790550277</v>
+        <v>109.5138189722679</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2884,7 +2884,7 @@
         <v>117</v>
       </c>
       <c r="O10">
-        <v>0.9895088165220434</v>
+        <v>0.9889396887366</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2899,7 +2899,7 @@
         <v>127</v>
       </c>
       <c r="T10">
-        <v>115.7951037331318</v>
+        <v>115.6633043890676</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3063,7 +3063,7 @@
         <v>117</v>
       </c>
       <c r="O11">
-        <v>0.9888857171817753</v>
+        <v>0.9892627638895316</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3078,7 +3078,7 @@
         <v>128</v>
       </c>
       <c r="T11">
-        <v>80.77972255039118</v>
+        <v>81.43944554334701</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3230,7 +3230,7 @@
         <v>117</v>
       </c>
       <c r="O12">
-        <v>0.9901188982448967</v>
+        <v>0.9902310738508564</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3245,7 +3245,7 @@
         <v>129</v>
       </c>
       <c r="T12">
-        <v>90.89888686442362</v>
+        <v>90.34867591668248</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3400,7 +3400,7 @@
         <v>117</v>
       </c>
       <c r="O13">
-        <v>0.9644910218614252</v>
+        <v>0.9646033686663283</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3415,7 +3415,7 @@
         <v>130</v>
       </c>
       <c r="T13">
-        <v>49.7350471703806</v>
+        <v>48.95969073099828</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3570,7 +3570,7 @@
         <v>117</v>
       </c>
       <c r="O14">
-        <v>0.9809491127878112</v>
+        <v>0.9812465537701962</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3585,7 +3585,7 @@
         <v>131</v>
       </c>
       <c r="T14">
-        <v>34.95815978840352</v>
+        <v>35.02718525364123</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3734,7 +3734,7 @@
         <v>118</v>
       </c>
       <c r="O15">
-        <v>0.9930945240606024</v>
+        <v>0.9923511281742348</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3749,7 +3749,7 @@
         <v>132</v>
       </c>
       <c r="T15">
-        <v>132.8768944379669</v>
+        <v>133.9159128234128</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>117</v>
       </c>
       <c r="O16">
-        <v>0.9909218779308179</v>
+        <v>0.990700933128476</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3925,7 +3925,7 @@
         <v>133</v>
       </c>
       <c r="T16">
-        <v>67.64563763286434</v>
+        <v>68.14815413895151</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4092,7 +4092,7 @@
         <v>117</v>
       </c>
       <c r="O17">
-        <v>0.9870005753524689</v>
+        <v>0.9864205071399141</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4107,7 +4107,7 @@
         <v>134</v>
       </c>
       <c r="T17">
-        <v>90.21258890211942</v>
+        <v>90.76831335475009</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4274,7 +4274,7 @@
         <v>117</v>
       </c>
       <c r="O18">
-        <v>0.9785797134780528</v>
+        <v>0.9776507653918658</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4289,7 +4289,7 @@
         <v>135</v>
       </c>
       <c r="T18">
-        <v>57.14951571027837</v>
+        <v>57.96339984727085</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4450,7 +4450,7 @@
         <v>117</v>
       </c>
       <c r="O19">
-        <v>0.9917643435294039</v>
+        <v>0.9918858416830285</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4465,7 +4465,7 @@
         <v>136</v>
       </c>
       <c r="T19">
-        <v>85.2653124716167</v>
+        <v>86.37778409094962</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4629,7 +4629,7 @@
         <v>117</v>
       </c>
       <c r="O20">
-        <v>0.9738591705265933</v>
+        <v>0.9744702040743737</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4644,7 +4644,7 @@
         <v>137</v>
       </c>
       <c r="T20">
-        <v>120.3214617262791</v>
+        <v>121.6573019852777</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4805,7 +4805,7 @@
         <v>117</v>
       </c>
       <c r="O21">
-        <v>0.9963339869132833</v>
+        <v>0.9965035159111246</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4820,7 +4820,7 @@
         <v>138</v>
       </c>
       <c r="T21">
-        <v>47.88954113452461</v>
+        <v>49.23053871375914</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4993,7 +4993,7 @@
         <v>117</v>
       </c>
       <c r="O22">
-        <v>0.9956182154068755</v>
+        <v>0.9953485980426113</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5008,7 +5008,7 @@
         <v>139</v>
       </c>
       <c r="T22">
-        <v>84.0352330725637</v>
+        <v>85.19429748968702</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5172,7 +5172,7 @@
         <v>117</v>
       </c>
       <c r="O23">
-        <v>0.9747116344270659</v>
+        <v>0.9746608521365666</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5187,7 +5187,7 @@
         <v>140</v>
       </c>
       <c r="T23">
-        <v>147.2690813378092</v>
+        <v>147.025070823002</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5345,7 +5345,7 @@
         <v>117</v>
       </c>
       <c r="O24">
-        <v>0.9826968779976759</v>
+        <v>0.9829060753688934</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5360,7 +5360,7 @@
         <v>141</v>
       </c>
       <c r="T24">
-        <v>95.4009769448493</v>
+        <v>95.97115658115101</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5527,7 +5527,7 @@
         <v>117</v>
       </c>
       <c r="O25">
-        <v>0.9915592187607826</v>
+        <v>0.9916919137414579</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5542,7 +5542,7 @@
         <v>142</v>
       </c>
       <c r="T25">
-        <v>75.66670700706159</v>
+        <v>76.74178427533376</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5712,7 +5712,7 @@
         <v>117</v>
       </c>
       <c r="O26">
-        <v>0.9978713784331079</v>
+        <v>0.9979112517519348</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5727,7 +5727,7 @@
         <v>143</v>
       </c>
       <c r="T26">
-        <v>93.41376795152398</v>
+        <v>94.66608383379288</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5891,7 +5891,7 @@
         <v>117</v>
       </c>
       <c r="O27">
-        <v>0.989243700521065</v>
+        <v>0.9895497802133978</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5906,7 +5906,7 @@
         <v>144</v>
       </c>
       <c r="T27">
-        <v>50.18005894303459</v>
+        <v>50.76119355703081</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6064,7 +6064,7 @@
         <v>117</v>
       </c>
       <c r="O28">
-        <v>0.9610362272012402</v>
+        <v>0.9600564419702031</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6079,7 +6079,7 @@
         <v>145</v>
       </c>
       <c r="T28">
-        <v>55.94207252887411</v>
+        <v>56.71678990469277</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6231,7 +6231,7 @@
         <v>117</v>
       </c>
       <c r="O29">
-        <v>0.9873079430020002</v>
+        <v>0.9870197923732577</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6246,7 +6246,7 @@
         <v>146</v>
       </c>
       <c r="T29">
-        <v>96.24416245210294</v>
+        <v>97.25048747480385</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6386,7 +6386,7 @@
         <v>117</v>
       </c>
       <c r="O30">
-        <v>0.992845388683794</v>
+        <v>0.9930524433969606</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6401,7 +6401,7 @@
         <v>147</v>
       </c>
       <c r="T30">
-        <v>77.11675668728985</v>
+        <v>78.85025369545785</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6550,7 +6550,7 @@
         <v>117</v>
       </c>
       <c r="O31">
-        <v>0.9942279885122856</v>
+        <v>0.9939983321220454</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6565,7 +6565,7 @@
         <v>148</v>
       </c>
       <c r="T31">
-        <v>94.34296829530656</v>
+        <v>95.30199078004102</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6726,7 +6726,7 @@
         <v>117</v>
       </c>
       <c r="O32">
-        <v>0.9732506469739388</v>
+        <v>0.9732821782690431</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6741,7 +6741,7 @@
         <v>149</v>
       </c>
       <c r="T32">
-        <v>147.3677808890681</v>
+        <v>149.9442335816017</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6911,7 +6911,7 @@
         <v>117</v>
       </c>
       <c r="O33">
-        <v>0.9935527786737034</v>
+        <v>0.9933332593082957</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6926,7 +6926,7 @@
         <v>150</v>
       </c>
       <c r="T33">
-        <v>158.567289003553</v>
+        <v>159.5242924739119</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7087,7 +7087,7 @@
         <v>117</v>
       </c>
       <c r="O34">
-        <v>0.9774404460478638</v>
+        <v>0.9777035831345142</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7102,7 +7102,7 @@
         <v>151</v>
       </c>
       <c r="T34">
-        <v>151.0829616846925</v>
+        <v>153.2783378771862</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7266,7 +7266,7 @@
         <v>117</v>
       </c>
       <c r="O35">
-        <v>0.9987095496064582</v>
+        <v>0.9986024702168569</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7281,7 +7281,7 @@
         <v>152</v>
       </c>
       <c r="T35">
-        <v>68.85784775325727</v>
+        <v>69.92543515859649</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7433,7 +7433,7 @@
         <v>117</v>
       </c>
       <c r="O36">
-        <v>0.9941761901885868</v>
+        <v>0.9934878840849707</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7448,7 +7448,7 @@
         <v>153</v>
       </c>
       <c r="T36">
-        <v>171.4458171282588</v>
+        <v>170.1835219279938</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7606,7 +7606,7 @@
         <v>117</v>
       </c>
       <c r="O37">
-        <v>0.9901150304439618</v>
+        <v>0.9899884575025363</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7621,7 +7621,7 @@
         <v>154</v>
       </c>
       <c r="T37">
-        <v>58.37659580201557</v>
+        <v>59.0691000673111</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>117</v>
       </c>
       <c r="O38">
-        <v>0.9925921194317167</v>
+        <v>0.9927162298166894</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7809,7 +7809,7 @@
         <v>155</v>
       </c>
       <c r="T38">
-        <v>88.40105593623012</v>
+        <v>89.20225281892461</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7976,7 +7976,7 @@
         <v>117</v>
       </c>
       <c r="O39">
-        <v>0.9936518138000354</v>
+        <v>0.9937036321833848</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7991,7 +7991,7 @@
         <v>156</v>
       </c>
       <c r="T39">
-        <v>48.30953244783909</v>
+        <v>48.5951250411399</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8155,7 +8155,7 @@
         <v>117</v>
       </c>
       <c r="O40">
-        <v>0.9801323582869814</v>
+        <v>0.9800042439780089</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8170,7 +8170,7 @@
         <v>157</v>
       </c>
       <c r="T40">
-        <v>52.54865810774831</v>
+        <v>52.82068728996326</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8328,7 +8328,7 @@
         <v>117</v>
       </c>
       <c r="O41">
-        <v>0.9714046468769366</v>
+        <v>0.9707553468621464</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8343,7 +8343,7 @@
         <v>158</v>
       </c>
       <c r="T41">
-        <v>260.9146943601762</v>
+        <v>261.6587185738156</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8516,7 +8516,7 @@
         <v>117</v>
       </c>
       <c r="O42">
-        <v>0.9949293271811167</v>
+        <v>0.995144127095911</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8531,7 +8531,7 @@
         <v>159</v>
       </c>
       <c r="T42">
-        <v>68.71566967069656</v>
+        <v>70.07173416610199</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8686,7 +8686,7 @@
         <v>117</v>
       </c>
       <c r="O43">
-        <v>0.9828026516091452</v>
+        <v>0.9826297811349602</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8701,7 +8701,7 @@
         <v>160</v>
       </c>
       <c r="T43">
-        <v>71.03891031727825</v>
+        <v>72.56138689368861</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -8862,7 +8862,7 @@
         <v>117</v>
       </c>
       <c r="O44">
-        <v>0.9954220232517401</v>
+        <v>0.9956380843687915</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -8877,7 +8877,7 @@
         <v>161</v>
       </c>
       <c r="T44">
-        <v>116.1107428900826</v>
+        <v>116.387897674866</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9026,7 +9026,7 @@
         <v>117</v>
       </c>
       <c r="O45">
-        <v>0.9974036491766954</v>
+        <v>0.9975114089002114</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9041,7 +9041,7 @@
         <v>162</v>
       </c>
       <c r="T45">
-        <v>55.93912283159646</v>
+        <v>56.13182653678362</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9196,7 +9196,7 @@
         <v>117</v>
       </c>
       <c r="O46">
-        <v>0.9977721473271072</v>
+        <v>0.9978681494544382</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9211,7 +9211,7 @@
         <v>163</v>
       </c>
       <c r="T46">
-        <v>105.3588036332877</v>
+        <v>104.916533421071</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9372,7 +9372,7 @@
         <v>117</v>
       </c>
       <c r="O47">
-        <v>0.9663185185465103</v>
+        <v>0.9665018471428836</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9387,7 +9387,7 @@
         <v>164</v>
       </c>
       <c r="T47">
-        <v>74.88866904317851</v>
+        <v>76.32814975627925</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9542,7 +9542,7 @@
         <v>117</v>
       </c>
       <c r="O48">
-        <v>0.9992486852435774</v>
+        <v>0.9991487796840013</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9557,7 +9557,7 @@
         <v>165</v>
       </c>
       <c r="T48">
-        <v>65.54193847107344</v>
+        <v>66.54320308120334</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9724,7 +9724,7 @@
         <v>117</v>
       </c>
       <c r="O49">
-        <v>0.9928350873717562</v>
+        <v>0.9929632147618297</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9739,7 +9739,7 @@
         <v>166</v>
       </c>
       <c r="T49">
-        <v>68.69906290417973</v>
+        <v>68.69496800244065</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -9891,7 +9891,7 @@
         <v>117</v>
       </c>
       <c r="O50">
-        <v>0.9908502365195534</v>
+        <v>0.9911728498701144</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -9906,7 +9906,7 @@
         <v>167</v>
       </c>
       <c r="T50">
-        <v>85.28516330531383</v>
+        <v>85.00634011434535</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10073,7 +10073,7 @@
         <v>117</v>
       </c>
       <c r="O51">
-        <v>0.9988492827265395</v>
+        <v>0.9989131328482158</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10088,7 +10088,7 @@
         <v>168</v>
       </c>
       <c r="T51">
-        <v>76.44231703661301</v>
+        <v>78.31389485978734</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10261,7 +10261,7 @@
         <v>117</v>
       </c>
       <c r="O52">
-        <v>0.9895378388954608</v>
+        <v>0.9894379176476569</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10276,7 +10276,7 @@
         <v>169</v>
       </c>
       <c r="T52">
-        <v>63.21325873962253</v>
+        <v>64.13296602224204</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1500,7 +1500,7 @@
         <v>117</v>
       </c>
       <c r="O2">
-        <v>0.9975493995027498</v>
+        <v>0.9980136940986589</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1515,7 +1515,7 @@
         <v>119</v>
       </c>
       <c r="T2">
-        <v>81.05957819044879</v>
+        <v>82.41128915903082</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1667,7 +1667,7 @@
         <v>117</v>
       </c>
       <c r="O3">
-        <v>0.9741993069028571</v>
+        <v>0.9647170920475265</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1682,7 +1682,7 @@
         <v>120</v>
       </c>
       <c r="T3">
-        <v>121.6880945828017</v>
+        <v>128.3264167398121</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1837,7 +1837,7 @@
         <v>117</v>
       </c>
       <c r="O4">
-        <v>0.9984201738064112</v>
+        <v>0.9946335163145911</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1852,7 +1852,7 @@
         <v>121</v>
       </c>
       <c r="T4">
-        <v>54.41107708958951</v>
+        <v>57.61487191749041</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2025,7 +2025,7 @@
         <v>117</v>
       </c>
       <c r="O5">
-        <v>0.9931914557214817</v>
+        <v>0.9907310558510836</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2040,7 +2040,7 @@
         <v>122</v>
       </c>
       <c r="T5">
-        <v>73.52876821754627</v>
+        <v>77.17286824350296</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2201,7 +2201,7 @@
         <v>117</v>
       </c>
       <c r="O6">
-        <v>0.9986777554657852</v>
+        <v>0.9988985505807511</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2216,7 +2216,7 @@
         <v>123</v>
       </c>
       <c r="T6">
-        <v>93.96338175828215</v>
+        <v>98.08580238750567</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2374,7 +2374,7 @@
         <v>117</v>
       </c>
       <c r="O7">
-        <v>0.9890664104551193</v>
+        <v>0.9886011854671339</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2389,7 +2389,7 @@
         <v>124</v>
       </c>
       <c r="T7">
-        <v>52.86846204873289</v>
+        <v>54.98361176409583</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2550,7 +2550,7 @@
         <v>117</v>
       </c>
       <c r="O8">
-        <v>0.9748881239799717</v>
+        <v>0.9740522006716804</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2565,7 +2565,7 @@
         <v>125</v>
       </c>
       <c r="T8">
-        <v>125.72430181094</v>
+        <v>130.8905183265134</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2720,7 +2720,7 @@
         <v>117</v>
       </c>
       <c r="O9">
-        <v>0.9865157645612561</v>
+        <v>0.9826069122893336</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2735,7 +2735,7 @@
         <v>126</v>
       </c>
       <c r="T9">
-        <v>109.5138189722679</v>
+        <v>112.3189612745549</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2884,7 +2884,7 @@
         <v>117</v>
       </c>
       <c r="O10">
-        <v>0.9889396887366</v>
+        <v>0.986828943936036</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2899,7 +2899,7 @@
         <v>127</v>
       </c>
       <c r="T10">
-        <v>115.6633043890676</v>
+        <v>116.442641698501</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3063,7 +3063,7 @@
         <v>117</v>
       </c>
       <c r="O11">
-        <v>0.9892627638895316</v>
+        <v>0.9905904119744122</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3078,7 +3078,7 @@
         <v>128</v>
       </c>
       <c r="T11">
-        <v>81.43944554334701</v>
+        <v>84.54155935989225</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3230,7 +3230,7 @@
         <v>117</v>
       </c>
       <c r="O12">
-        <v>0.9902310738508564</v>
+        <v>0.9909988222391545</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3245,7 +3245,7 @@
         <v>129</v>
       </c>
       <c r="T12">
-        <v>90.34867591668248</v>
+        <v>89.3414711000932</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3400,7 +3400,7 @@
         <v>117</v>
       </c>
       <c r="O13">
-        <v>0.9646033686663283</v>
+        <v>0.9640468966055477</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3415,7 +3415,7 @@
         <v>130</v>
       </c>
       <c r="T13">
-        <v>48.95969073099828</v>
+        <v>47.26040788453397</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3570,7 +3570,7 @@
         <v>117</v>
       </c>
       <c r="O14">
-        <v>0.9812465537701962</v>
+        <v>0.9813456604349409</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3585,7 +3585,7 @@
         <v>131</v>
       </c>
       <c r="T14">
-        <v>35.02718525364123</v>
+        <v>36.48119444615325</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3734,7 +3734,7 @@
         <v>118</v>
       </c>
       <c r="O15">
-        <v>0.9923511281742348</v>
+        <v>0.9890121047910821</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3749,7 +3749,7 @@
         <v>132</v>
       </c>
       <c r="T15">
-        <v>133.9159128234128</v>
+        <v>137.6408479022975</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>117</v>
       </c>
       <c r="O16">
-        <v>0.990700933128476</v>
+        <v>0.9899418997482049</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3925,7 +3925,7 @@
         <v>133</v>
       </c>
       <c r="T16">
-        <v>68.14815413895151</v>
+        <v>70.23165436162222</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4092,7 +4092,7 @@
         <v>117</v>
       </c>
       <c r="O17">
-        <v>0.9864205071399141</v>
+        <v>0.985089358990609</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4107,7 +4107,7 @@
         <v>134</v>
       </c>
       <c r="T17">
-        <v>90.76831335475009</v>
+        <v>94.7627511126211</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4274,7 +4274,7 @@
         <v>117</v>
       </c>
       <c r="O18">
-        <v>0.9776507653918658</v>
+        <v>0.9740259782004004</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4289,7 +4289,7 @@
         <v>135</v>
       </c>
       <c r="T18">
-        <v>57.96339984727085</v>
+        <v>60.42981668692704</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4450,7 +4450,7 @@
         <v>117</v>
       </c>
       <c r="O19">
-        <v>0.9918858416830285</v>
+        <v>0.992899823631603</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4465,7 +4465,7 @@
         <v>136</v>
       </c>
       <c r="T19">
-        <v>86.37778409094962</v>
+        <v>90.11063427606673</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4629,7 +4629,7 @@
         <v>117</v>
       </c>
       <c r="O20">
-        <v>0.9744702040743737</v>
+        <v>0.9766745460819762</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4644,7 +4644,7 @@
         <v>137</v>
       </c>
       <c r="T20">
-        <v>121.6573019852777</v>
+        <v>126.8064716474165</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4805,7 +4805,7 @@
         <v>117</v>
       </c>
       <c r="O21">
-        <v>0.9965035159111246</v>
+        <v>0.997073571024842</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4820,7 +4820,7 @@
         <v>138</v>
       </c>
       <c r="T21">
-        <v>49.23053871375914</v>
+        <v>54.96782456652802</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4993,7 +4993,7 @@
         <v>117</v>
       </c>
       <c r="O22">
-        <v>0.9953485980426113</v>
+        <v>0.9942156407234305</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5008,7 +5008,7 @@
         <v>139</v>
       </c>
       <c r="T22">
-        <v>85.19429748968702</v>
+        <v>90.01256677003181</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5047,7 +5047,7 @@
         <v>283</v>
       </c>
       <c r="AK22">
-        <v>1560</v>
+        <v>1643</v>
       </c>
       <c r="AL22">
         <v>5811</v>
@@ -5068,7 +5068,7 @@
         <v>3587</v>
       </c>
       <c r="AR22">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AS22">
         <v>148</v>
@@ -5172,7 +5172,7 @@
         <v>117</v>
       </c>
       <c r="O23">
-        <v>0.9746608521365666</v>
+        <v>0.9741269815519661</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5187,7 +5187,7 @@
         <v>140</v>
       </c>
       <c r="T23">
-        <v>147.025070823002</v>
+        <v>145.8924489631157</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5345,7 +5345,7 @@
         <v>117</v>
       </c>
       <c r="O24">
-        <v>0.9829060753688934</v>
+        <v>0.9836966555295561</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5360,7 +5360,7 @@
         <v>141</v>
       </c>
       <c r="T24">
-        <v>95.97115658115101</v>
+        <v>100.8393055139155</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5527,7 +5527,7 @@
         <v>117</v>
       </c>
       <c r="O25">
-        <v>0.9916919137414579</v>
+        <v>0.9915914119521164</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5542,7 +5542,7 @@
         <v>142</v>
       </c>
       <c r="T25">
-        <v>76.74178427533376</v>
+        <v>85.268725775113</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5712,7 +5712,7 @@
         <v>117</v>
       </c>
       <c r="O26">
-        <v>0.9979112517519348</v>
+        <v>0.9977973637810592</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5727,7 +5727,7 @@
         <v>143</v>
       </c>
       <c r="T26">
-        <v>94.66608383379288</v>
+        <v>98.91990549572047</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5891,7 +5891,7 @@
         <v>117</v>
       </c>
       <c r="O27">
-        <v>0.9895497802133978</v>
+        <v>0.9907798151703404</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5906,7 +5906,7 @@
         <v>144</v>
       </c>
       <c r="T27">
-        <v>50.76119355703081</v>
+        <v>53.48050543503879</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6064,7 +6064,7 @@
         <v>117</v>
       </c>
       <c r="O28">
-        <v>0.9600564419702031</v>
+        <v>0.955117081968589</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6079,7 +6079,7 @@
         <v>145</v>
       </c>
       <c r="T28">
-        <v>56.71678990469277</v>
+        <v>59.85133989367376</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6231,7 +6231,7 @@
         <v>117</v>
       </c>
       <c r="O29">
-        <v>0.9870197923732577</v>
+        <v>0.9853770889773074</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6246,7 +6246,7 @@
         <v>146</v>
       </c>
       <c r="T29">
-        <v>97.25048747480385</v>
+        <v>100.82494755701</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6386,7 +6386,7 @@
         <v>117</v>
       </c>
       <c r="O30">
-        <v>0.9930524433969606</v>
+        <v>0.9939685964641889</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6401,7 +6401,7 @@
         <v>147</v>
       </c>
       <c r="T30">
-        <v>78.85025369545785</v>
+        <v>85.57268550529957</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6550,7 +6550,7 @@
         <v>117</v>
       </c>
       <c r="O31">
-        <v>0.9939983321220454</v>
+        <v>0.9932999462484878</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6565,7 +6565,7 @@
         <v>148</v>
       </c>
       <c r="T31">
-        <v>95.30199078004102</v>
+        <v>99.24070451608316</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6726,7 +6726,7 @@
         <v>117</v>
       </c>
       <c r="O32">
-        <v>0.9732821782690431</v>
+        <v>0.9735619593041647</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6741,7 +6741,7 @@
         <v>149</v>
       </c>
       <c r="T32">
-        <v>149.9442335816017</v>
+        <v>161.1901544165586</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6911,7 +6911,7 @@
         <v>117</v>
       </c>
       <c r="O33">
-        <v>0.9933332593082957</v>
+        <v>0.9936571624467152</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6926,7 +6926,7 @@
         <v>150</v>
       </c>
       <c r="T33">
-        <v>159.5242924739119</v>
+        <v>164.4092732781108</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7087,7 +7087,7 @@
         <v>117</v>
       </c>
       <c r="O34">
-        <v>0.9777035831345142</v>
+        <v>0.978777773205047</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7102,7 +7102,7 @@
         <v>151</v>
       </c>
       <c r="T34">
-        <v>153.2783378771862</v>
+        <v>163.2930640451283</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7266,7 +7266,7 @@
         <v>117</v>
       </c>
       <c r="O35">
-        <v>0.9986024702168569</v>
+        <v>0.9977953495435129</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7281,7 +7281,7 @@
         <v>152</v>
       </c>
       <c r="T35">
-        <v>69.92543515859649</v>
+        <v>74.64091715343059</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7433,7 +7433,7 @@
         <v>117</v>
       </c>
       <c r="O36">
-        <v>0.9934878840849707</v>
+        <v>0.9912448847415928</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7448,7 +7448,7 @@
         <v>153</v>
       </c>
       <c r="T36">
-        <v>170.1835219279938</v>
+        <v>166.455324928303</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7606,7 +7606,7 @@
         <v>117</v>
       </c>
       <c r="O37">
-        <v>0.9899884575025363</v>
+        <v>0.9894701924922915</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7621,7 +7621,7 @@
         <v>154</v>
       </c>
       <c r="T37">
-        <v>59.0691000673111</v>
+        <v>61.73428949798058</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>117</v>
       </c>
       <c r="O38">
-        <v>0.9927162298166894</v>
+        <v>0.9932095602346639</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7809,7 +7809,7 @@
         <v>155</v>
       </c>
       <c r="T38">
-        <v>89.20225281892461</v>
+        <v>91.81050391193419</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7976,7 +7976,7 @@
         <v>117</v>
       </c>
       <c r="O39">
-        <v>0.9937036321833848</v>
+        <v>0.9942014069709622</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7991,7 +7991,7 @@
         <v>156</v>
       </c>
       <c r="T39">
-        <v>48.5951250411399</v>
+        <v>49.87501894482602</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8155,7 +8155,7 @@
         <v>117</v>
       </c>
       <c r="O40">
-        <v>0.9800042439780089</v>
+        <v>0.9796336907539687</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8170,7 +8170,7 @@
         <v>157</v>
       </c>
       <c r="T40">
-        <v>52.82068728996326</v>
+        <v>54.36211365222238</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8328,7 +8328,7 @@
         <v>117</v>
       </c>
       <c r="O41">
-        <v>0.9707553468621464</v>
+        <v>0.9680566223328588</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8343,7 +8343,7 @@
         <v>158</v>
       </c>
       <c r="T41">
-        <v>261.6587185738156</v>
+        <v>263.919885437045</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8516,7 +8516,7 @@
         <v>117</v>
       </c>
       <c r="O42">
-        <v>0.995144127095911</v>
+        <v>0.9949699833178786</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8531,7 +8531,7 @@
         <v>159</v>
       </c>
       <c r="T42">
-        <v>70.07173416610199</v>
+        <v>74.29814323234542</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8686,7 +8686,7 @@
         <v>117</v>
       </c>
       <c r="O43">
-        <v>0.9826297811349602</v>
+        <v>0.9822369648253843</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8701,7 +8701,7 @@
         <v>160</v>
       </c>
       <c r="T43">
-        <v>72.56138689368861</v>
+        <v>80.60313942585287</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -8862,7 +8862,7 @@
         <v>117</v>
       </c>
       <c r="O44">
-        <v>0.9956380843687915</v>
+        <v>0.9963550635738624</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -8877,7 +8877,7 @@
         <v>161</v>
       </c>
       <c r="T44">
-        <v>116.387897674866</v>
+        <v>116.8738056663829</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9026,7 +9026,7 @@
         <v>117</v>
       </c>
       <c r="O45">
-        <v>0.9975114089002114</v>
+        <v>0.9979555042488725</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9041,7 +9041,7 @@
         <v>162</v>
       </c>
       <c r="T45">
-        <v>56.13182653678362</v>
+        <v>57.33934630993051</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9196,7 +9196,7 @@
         <v>117</v>
       </c>
       <c r="O46">
-        <v>0.9978681494544382</v>
+        <v>0.9972484249799884</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9211,7 +9211,7 @@
         <v>163</v>
       </c>
       <c r="T46">
-        <v>104.916533421071</v>
+        <v>103.7479098568346</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9372,7 +9372,7 @@
         <v>117</v>
       </c>
       <c r="O47">
-        <v>0.9665018471428836</v>
+        <v>0.9653983639399311</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9387,7 +9387,7 @@
         <v>164</v>
       </c>
       <c r="T47">
-        <v>76.32814975627925</v>
+        <v>82.02890041542132</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9542,7 +9542,7 @@
         <v>117</v>
       </c>
       <c r="O48">
-        <v>0.9991487796840013</v>
+        <v>0.9983250880392438</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9557,7 +9557,7 @@
         <v>165</v>
       </c>
       <c r="T48">
-        <v>66.54320308120334</v>
+        <v>70.43936822127272</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9724,7 +9724,7 @@
         <v>117</v>
       </c>
       <c r="O49">
-        <v>0.9929632147618297</v>
+        <v>0.9933087645170103</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9739,7 +9739,7 @@
         <v>166</v>
       </c>
       <c r="T49">
-        <v>68.69496800244065</v>
+        <v>69.25378745828574</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -9748,10 +9748,10 @@
         <v>217</v>
       </c>
       <c r="W49">
-        <v>17273</v>
+        <v>17758</v>
       </c>
       <c r="X49">
-        <v>238978</v>
+        <v>244000</v>
       </c>
       <c r="Z49">
         <v>393</v>
@@ -9775,19 +9775,19 @@
         <v>891</v>
       </c>
       <c r="AM49">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="AN49">
-        <v>5769</v>
+        <v>6101</v>
       </c>
       <c r="AO49">
-        <v>256251</v>
+        <v>261758</v>
       </c>
       <c r="AP49">
-        <v>256251</v>
+        <v>261758</v>
       </c>
       <c r="AQ49">
-        <v>6014</v>
+        <v>6306</v>
       </c>
       <c r="AR49">
         <v>21</v>
@@ -9817,13 +9817,13 @@
         <v>2759.50955787437</v>
       </c>
       <c r="BB49">
-        <v>0.002268318149710048</v>
+        <v>0.002332009130003534</v>
       </c>
       <c r="BC49">
-        <v>0.03138297544036404</v>
+        <v>0.03204247256002152</v>
       </c>
       <c r="BD49">
-        <v>6.74</v>
+        <v>6.78</v>
       </c>
       <c r="BE49">
         <v>0.0302932687301056</v>
@@ -9841,10 +9841,10 @@
         <v>2.956648579205203</v>
       </c>
       <c r="BJ49">
-        <v>5.378357922210168</v>
+        <v>5.38738982633873</v>
       </c>
       <c r="BK49">
-        <v>4.237367773021761</v>
+        <v>4.249394051652351</v>
       </c>
       <c r="BL49">
         <v>2.594392550375427</v>
@@ -9891,7 +9891,7 @@
         <v>117</v>
       </c>
       <c r="O50">
-        <v>0.9911728498701144</v>
+        <v>0.9923651200877069</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -9906,7 +9906,7 @@
         <v>167</v>
       </c>
       <c r="T50">
-        <v>85.00634011434535</v>
+        <v>84.72046546566999</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10073,7 +10073,7 @@
         <v>117</v>
       </c>
       <c r="O51">
-        <v>0.9989131328482158</v>
+        <v>0.9990669288237817</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10088,7 +10088,7 @@
         <v>168</v>
       </c>
       <c r="T51">
-        <v>78.31389485978734</v>
+        <v>86.24671030366527</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10261,7 +10261,7 @@
         <v>117</v>
       </c>
       <c r="O52">
-        <v>0.9894379176476569</v>
+        <v>0.989165996579592</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10276,7 +10276,7 @@
         <v>169</v>
       </c>
       <c r="T52">
-        <v>64.13296602224204</v>
+        <v>67.42539020842629</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1500,7 +1500,7 @@
         <v>117</v>
       </c>
       <c r="O2">
-        <v>0.9980136940986589</v>
+        <v>0.9982104697902952</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1515,7 +1515,7 @@
         <v>119</v>
       </c>
       <c r="T2">
-        <v>82.41128915903082</v>
+        <v>83.35031787820805</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1667,7 +1667,7 @@
         <v>117</v>
       </c>
       <c r="O3">
-        <v>0.9647170920475265</v>
+        <v>0.9597080686411497</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1682,7 +1682,7 @@
         <v>120</v>
       </c>
       <c r="T3">
-        <v>128.3264167398121</v>
+        <v>131.2228233701786</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1837,7 +1837,7 @@
         <v>117</v>
       </c>
       <c r="O4">
-        <v>0.9946335163145911</v>
+        <v>0.9926367941012092</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1852,7 +1852,7 @@
         <v>121</v>
       </c>
       <c r="T4">
-        <v>57.61487191749041</v>
+        <v>59.28325198329023</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2025,7 +2025,7 @@
         <v>117</v>
       </c>
       <c r="O5">
-        <v>0.9907310558510836</v>
+        <v>0.9892696571177825</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2040,7 +2040,7 @@
         <v>122</v>
       </c>
       <c r="T5">
-        <v>77.17286824350296</v>
+        <v>78.96493336538261</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2201,7 +2201,7 @@
         <v>117</v>
       </c>
       <c r="O6">
-        <v>0.9988985505807511</v>
+        <v>0.9989867627607394</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2216,7 +2216,7 @@
         <v>123</v>
       </c>
       <c r="T6">
-        <v>98.08580238750567</v>
+        <v>100.1591691399331</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2374,7 +2374,7 @@
         <v>117</v>
       </c>
       <c r="O7">
-        <v>0.9886011854671339</v>
+        <v>0.9882373001636058</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2389,7 +2389,7 @@
         <v>124</v>
       </c>
       <c r="T7">
-        <v>54.98361176409583</v>
+        <v>56.0179113574218</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2550,7 +2550,7 @@
         <v>117</v>
       </c>
       <c r="O8">
-        <v>0.9740522006716804</v>
+        <v>0.9736610146961752</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2565,7 +2565,7 @@
         <v>125</v>
       </c>
       <c r="T8">
-        <v>130.8905183265134</v>
+        <v>133.1881402695684</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2720,7 +2720,7 @@
         <v>117</v>
       </c>
       <c r="O9">
-        <v>0.9826069122893336</v>
+        <v>0.9806555118103385</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2735,7 +2735,7 @@
         <v>126</v>
       </c>
       <c r="T9">
-        <v>112.3189612745549</v>
+        <v>113.2508159111833</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2884,7 +2884,7 @@
         <v>117</v>
       </c>
       <c r="O10">
-        <v>0.986828943936036</v>
+        <v>0.9857328611195968</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2899,7 +2899,7 @@
         <v>127</v>
       </c>
       <c r="T10">
-        <v>116.442641698501</v>
+        <v>117.2847987830297</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3063,7 +3063,7 @@
         <v>117</v>
       </c>
       <c r="O11">
-        <v>0.9905904119744122</v>
+        <v>0.9911300705483945</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3078,7 +3078,7 @@
         <v>128</v>
       </c>
       <c r="T11">
-        <v>84.54155935989225</v>
+        <v>86.17940374919583</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3230,7 +3230,7 @@
         <v>117</v>
       </c>
       <c r="O12">
-        <v>0.9909988222391545</v>
+        <v>0.9913494808376677</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3245,7 +3245,7 @@
         <v>129</v>
       </c>
       <c r="T12">
-        <v>89.3414711000932</v>
+        <v>89.2233389507679</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3400,7 +3400,7 @@
         <v>117</v>
       </c>
       <c r="O13">
-        <v>0.9640468966055477</v>
+        <v>0.9633248744260036</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3415,7 +3415,7 @@
         <v>130</v>
       </c>
       <c r="T13">
-        <v>47.26040788453397</v>
+        <v>46.81135204275203</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3570,7 +3570,7 @@
         <v>117</v>
       </c>
       <c r="O14">
-        <v>0.9813456604349409</v>
+        <v>0.9814840548843419</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3585,7 +3585,7 @@
         <v>131</v>
       </c>
       <c r="T14">
-        <v>36.48119444615325</v>
+        <v>37.22701123549763</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3734,7 +3734,7 @@
         <v>118</v>
       </c>
       <c r="O15">
-        <v>0.9890121047910821</v>
+        <v>0.9871207547714308</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3749,7 +3749,7 @@
         <v>132</v>
       </c>
       <c r="T15">
-        <v>137.6408479022975</v>
+        <v>139.1322458608324</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>117</v>
       </c>
       <c r="O16">
-        <v>0.9899418997482049</v>
+        <v>0.9895027531113635</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3925,7 +3925,7 @@
         <v>133</v>
       </c>
       <c r="T16">
-        <v>70.23165436162222</v>
+        <v>71.16178734819091</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4092,7 +4092,7 @@
         <v>117</v>
       </c>
       <c r="O17">
-        <v>0.985089358990609</v>
+        <v>0.9843074541621964</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4107,7 +4107,7 @@
         <v>134</v>
       </c>
       <c r="T17">
-        <v>94.7627511126211</v>
+        <v>96.68827322557833</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4274,7 +4274,7 @@
         <v>117</v>
       </c>
       <c r="O18">
-        <v>0.9740259782004004</v>
+        <v>0.9724194975161156</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4289,7 +4289,7 @@
         <v>135</v>
       </c>
       <c r="T18">
-        <v>60.42981668692704</v>
+        <v>61.54811370833372</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4450,7 +4450,7 @@
         <v>117</v>
       </c>
       <c r="O19">
-        <v>0.992899823631603</v>
+        <v>0.993289017464963</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4465,7 +4465,7 @@
         <v>136</v>
       </c>
       <c r="T19">
-        <v>90.11063427606673</v>
+        <v>91.47876566827026</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4629,7 +4629,7 @@
         <v>117</v>
       </c>
       <c r="O20">
-        <v>0.9766745460819762</v>
+        <v>0.9776545552130242</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4644,7 +4644,7 @@
         <v>137</v>
       </c>
       <c r="T20">
-        <v>126.8064716474165</v>
+        <v>129.1667015217672</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4805,7 +4805,7 @@
         <v>117</v>
       </c>
       <c r="O21">
-        <v>0.997073571024842</v>
+        <v>0.9972317376450358</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4820,7 +4820,7 @@
         <v>138</v>
       </c>
       <c r="T21">
-        <v>54.96782456652802</v>
+        <v>57.5179604791108</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4993,7 +4993,7 @@
         <v>117</v>
       </c>
       <c r="O22">
-        <v>0.9942156407234305</v>
+        <v>0.9932796242132901</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5008,7 +5008,7 @@
         <v>139</v>
       </c>
       <c r="T22">
-        <v>90.01256677003181</v>
+        <v>92.12121123635559</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5172,7 +5172,7 @@
         <v>117</v>
       </c>
       <c r="O23">
-        <v>0.9741269815519661</v>
+        <v>0.9736250949090968</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5187,7 +5187,7 @@
         <v>140</v>
       </c>
       <c r="T23">
-        <v>145.8924489631157</v>
+        <v>145.0104102682211</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5345,7 +5345,7 @@
         <v>117</v>
       </c>
       <c r="O24">
-        <v>0.9836966555295561</v>
+        <v>0.9843184365216643</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5360,7 +5360,7 @@
         <v>141</v>
       </c>
       <c r="T24">
-        <v>100.8393055139155</v>
+        <v>103.8026843098617</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5527,7 +5527,7 @@
         <v>117</v>
       </c>
       <c r="O25">
-        <v>0.9915914119521164</v>
+        <v>0.990895294908518</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5542,7 +5542,7 @@
         <v>142</v>
       </c>
       <c r="T25">
-        <v>85.268725775113</v>
+        <v>89.74997356855827</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5712,7 +5712,7 @@
         <v>117</v>
       </c>
       <c r="O26">
-        <v>0.9977973637810592</v>
+        <v>0.9978622709428334</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5727,7 +5727,7 @@
         <v>143</v>
       </c>
       <c r="T26">
-        <v>98.91990549572047</v>
+        <v>101.0912624108253</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5891,7 +5891,7 @@
         <v>117</v>
       </c>
       <c r="O27">
-        <v>0.9907798151703404</v>
+        <v>0.9912917610563617</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5906,7 +5906,7 @@
         <v>144</v>
       </c>
       <c r="T27">
-        <v>53.48050543503879</v>
+        <v>54.79650222223759</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6064,7 +6064,7 @@
         <v>117</v>
       </c>
       <c r="O28">
-        <v>0.955117081968589</v>
+        <v>0.9529163452471159</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6079,7 +6079,7 @@
         <v>145</v>
       </c>
       <c r="T28">
-        <v>59.85133989367376</v>
+        <v>62.32769822850587</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6231,7 +6231,7 @@
         <v>117</v>
       </c>
       <c r="O29">
-        <v>0.9853770889773074</v>
+        <v>0.9837659193988697</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6246,7 +6246,7 @@
         <v>146</v>
       </c>
       <c r="T29">
-        <v>100.82494755701</v>
+        <v>102.1322916378305</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6386,7 +6386,7 @@
         <v>117</v>
       </c>
       <c r="O30">
-        <v>0.9939685964641889</v>
+        <v>0.994368604957158</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6401,7 +6401,7 @@
         <v>147</v>
       </c>
       <c r="T30">
-        <v>85.57268550529957</v>
+        <v>88.55526679047672</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6550,7 +6550,7 @@
         <v>117</v>
       </c>
       <c r="O31">
-        <v>0.9932999462484878</v>
+        <v>0.9925238701604046</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6565,7 +6565,7 @@
         <v>148</v>
       </c>
       <c r="T31">
-        <v>99.24070451608316</v>
+        <v>100.9839882858451</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6726,7 +6726,7 @@
         <v>117</v>
       </c>
       <c r="O32">
-        <v>0.9735619593041647</v>
+        <v>0.9737299905787091</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6741,7 +6741,7 @@
         <v>149</v>
       </c>
       <c r="T32">
-        <v>161.1901544165586</v>
+        <v>166.1845452558043</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6911,7 +6911,7 @@
         <v>117</v>
       </c>
       <c r="O33">
-        <v>0.9936571624467152</v>
+        <v>0.9936539885055362</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6926,7 +6926,7 @@
         <v>150</v>
       </c>
       <c r="T33">
-        <v>164.4092732781108</v>
+        <v>166.9785116831082</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7087,7 +7087,7 @@
         <v>117</v>
       </c>
       <c r="O34">
-        <v>0.978777773205047</v>
+        <v>0.9793009284553048</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7102,7 +7102,7 @@
         <v>151</v>
       </c>
       <c r="T34">
-        <v>163.2930640451283</v>
+        <v>168.4150546551692</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7266,7 +7266,7 @@
         <v>117</v>
       </c>
       <c r="O35">
-        <v>0.9977953495435129</v>
+        <v>0.997550981298067</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7281,7 +7281,7 @@
         <v>152</v>
       </c>
       <c r="T35">
-        <v>74.64091715343059</v>
+        <v>76.80890177715415</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7433,7 +7433,7 @@
         <v>117</v>
       </c>
       <c r="O36">
-        <v>0.9912448847415928</v>
+        <v>0.9901750025648772</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7448,7 +7448,7 @@
         <v>153</v>
       </c>
       <c r="T36">
-        <v>166.455324928303</v>
+        <v>164.5572942279932</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7606,7 +7606,7 @@
         <v>117</v>
       </c>
       <c r="O37">
-        <v>0.9894701924922915</v>
+        <v>0.9890771811123032</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7621,7 +7621,7 @@
         <v>154</v>
       </c>
       <c r="T37">
-        <v>61.73428949798058</v>
+        <v>62.95974263609615</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7794,7 +7794,7 @@
         <v>117</v>
       </c>
       <c r="O38">
-        <v>0.9932095602346639</v>
+        <v>0.9934250819759625</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7809,7 +7809,7 @@
         <v>155</v>
       </c>
       <c r="T38">
-        <v>91.81050391193419</v>
+        <v>92.68996161533292</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7976,7 +7976,7 @@
         <v>117</v>
       </c>
       <c r="O39">
-        <v>0.9942014069709622</v>
+        <v>0.9945118635223885</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7991,7 +7991,7 @@
         <v>156</v>
       </c>
       <c r="T39">
-        <v>49.87501894482602</v>
+        <v>50.42830485346379</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8155,7 +8155,7 @@
         <v>117</v>
       </c>
       <c r="O40">
-        <v>0.9796336907539687</v>
+        <v>0.979498446466621</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8170,7 +8170,7 @@
         <v>157</v>
       </c>
       <c r="T40">
-        <v>54.36211365222238</v>
+        <v>55.06791125254009</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8328,7 +8328,7 @@
         <v>117</v>
       </c>
       <c r="O41">
-        <v>0.9680566223328588</v>
+        <v>0.9668833330442788</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8343,7 +8343,7 @@
         <v>158</v>
       </c>
       <c r="T41">
-        <v>263.919885437045</v>
+        <v>265.4171279305548</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8516,7 +8516,7 @@
         <v>117</v>
       </c>
       <c r="O42">
-        <v>0.9949699833178786</v>
+        <v>0.9938860635946761</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8531,7 +8531,7 @@
         <v>159</v>
       </c>
       <c r="T42">
-        <v>74.29814323234542</v>
+        <v>75.9650710016145</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8686,7 +8686,7 @@
         <v>117</v>
       </c>
       <c r="O43">
-        <v>0.9822369648253843</v>
+        <v>0.9819720089583696</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8701,7 +8701,7 @@
         <v>160</v>
       </c>
       <c r="T43">
-        <v>80.60313942585287</v>
+        <v>84.15526111760886</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -8862,7 +8862,7 @@
         <v>117</v>
       </c>
       <c r="O44">
-        <v>0.9963550635738624</v>
+        <v>0.9966574390188033</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -8877,7 +8877,7 @@
         <v>161</v>
       </c>
       <c r="T44">
-        <v>116.8738056663829</v>
+        <v>117.3390084459877</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9026,7 +9026,7 @@
         <v>117</v>
       </c>
       <c r="O45">
-        <v>0.9979555042488725</v>
+        <v>0.9981323588615729</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9041,7 +9041,7 @@
         <v>162</v>
       </c>
       <c r="T45">
-        <v>57.33934630993051</v>
+        <v>57.78387227306862</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9196,7 +9196,7 @@
         <v>117</v>
       </c>
       <c r="O46">
-        <v>0.9972484249799884</v>
+        <v>0.9969092795240717</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9211,7 +9211,7 @@
         <v>163</v>
       </c>
       <c r="T46">
-        <v>103.7479098568346</v>
+        <v>103.5011574841242</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9372,7 +9372,7 @@
         <v>117</v>
       </c>
       <c r="O47">
-        <v>0.9653983639399311</v>
+        <v>0.9641904615455158</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9387,7 +9387,7 @@
         <v>164</v>
       </c>
       <c r="T47">
-        <v>82.02890041542132</v>
+        <v>85.37425297605083</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9542,7 +9542,7 @@
         <v>117</v>
       </c>
       <c r="O48">
-        <v>0.9983250880392438</v>
+        <v>0.9981582413922573</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9557,7 +9557,7 @@
         <v>165</v>
       </c>
       <c r="T48">
-        <v>70.43936822127272</v>
+        <v>71.92976581815665</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9724,7 +9724,7 @@
         <v>117</v>
       </c>
       <c r="O49">
-        <v>0.9933087645170103</v>
+        <v>0.9933735903262308</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9739,7 +9739,7 @@
         <v>166</v>
       </c>
       <c r="T49">
-        <v>69.25378745828574</v>
+        <v>69.61616722710592</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -9891,7 +9891,7 @@
         <v>117</v>
       </c>
       <c r="O50">
-        <v>0.9923651200877069</v>
+        <v>0.9928003642581614</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -9906,7 +9906,7 @@
         <v>167</v>
       </c>
       <c r="T50">
-        <v>84.72046546566999</v>
+        <v>84.68581586192369</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10073,7 +10073,7 @@
         <v>117</v>
       </c>
       <c r="O51">
-        <v>0.9990669288237817</v>
+        <v>0.9989194054111807</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10088,7 +10088,7 @@
         <v>168</v>
       </c>
       <c r="T51">
-        <v>86.24671030366527</v>
+        <v>90.08831446086577</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10261,7 +10261,7 @@
         <v>117</v>
       </c>
       <c r="O52">
-        <v>0.989165996579592</v>
+        <v>0.9892477223674615</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10276,7 +10276,7 @@
         <v>169</v>
       </c>
       <c r="T52">
-        <v>67.42539020842629</v>
+        <v>69.19945399811641</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="299">
   <si>
     <t>Province_State</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>hospitalized</t>
+  </si>
+  <si>
+    <t>totalTestsViral</t>
+  </si>
+  <si>
+    <t>positiveTestsViral</t>
+  </si>
+  <si>
+    <t>negativeTestsViral</t>
+  </si>
+  <si>
+    <t>positiveCasesViral</t>
   </si>
   <si>
     <t>positiveIncrease</t>
@@ -1256,13 +1268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN52"/>
+  <dimension ref="A1:BR52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:70">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,16 +1470,28 @@
       <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:70">
       <c r="A2" s="1">
         <v>1326</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>9385</v>
@@ -1497,10 +1521,10 @@
         <v>4903185</v>
       </c>
       <c r="N2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9982104697902952</v>
+        <v>0.998303585830739</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1512,16 +1536,16 @@
         <v>15.6</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="T2">
-        <v>83.35031787820805</v>
+        <v>84.36372153111347</v>
       </c>
       <c r="U2">
         <v>20200508</v>
       </c>
       <c r="V2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="W2">
         <v>9221</v>
@@ -1539,16 +1563,16 @@
         <v>266</v>
       </c>
       <c r="AG2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK2">
         <v>375</v>
@@ -1556,88 +1580,91 @@
       <c r="AL2">
         <v>1207</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
+        <v>9221</v>
+      </c>
+      <c r="AQ2">
         <v>323</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <v>4618</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <v>120114</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <v>120114</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <v>4941</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <v>26</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <v>29</v>
       </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
       <c r="AX2">
         <v>0</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>116</v>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
       </c>
       <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE2">
         <v>2214.313663418081</v>
       </c>
-      <c r="BB2">
+      <c r="BF2">
         <v>0.001880614335375883</v>
       </c>
-      <c r="BC2">
+      <c r="BG2">
         <v>0.02261652374935883</v>
       </c>
-      <c r="BD2">
+      <c r="BH2">
         <v>7.68</v>
       </c>
-      <c r="BE2">
+      <c r="BI2">
         <v>0.02449713808473472</v>
       </c>
-      <c r="BF2">
+      <c r="BJ2">
         <v>6.690478279736778</v>
       </c>
-      <c r="BG2">
+      <c r="BK2">
         <v>5.079593629954077</v>
       </c>
-      <c r="BH2">
+      <c r="BL2">
         <v>3.972434276957365</v>
       </c>
-      <c r="BI2">
+      <c r="BM2">
         <v>2.583198773968623</v>
       </c>
-      <c r="BJ2">
+      <c r="BN2">
         <v>5.044904132647613</v>
       </c>
-      <c r="BK2">
+      <c r="BO2">
         <v>3.964778022022376</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:70">
       <c r="A3" s="1">
         <v>1327</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>377</v>
@@ -1664,10 +1691,10 @@
         <v>731545</v>
       </c>
       <c r="N3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9597080686411497</v>
+        <v>0.9541148427892502</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1679,16 +1706,16 @@
         <v>12.6</v>
       </c>
       <c r="S3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="T3">
-        <v>131.2228233701786</v>
+        <v>133.6060488836877</v>
       </c>
       <c r="U3">
         <v>20200508</v>
       </c>
       <c r="V3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="W3">
         <v>377</v>
@@ -1703,47 +1730,38 @@
         <v>305</v>
       </c>
       <c r="AG3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK3">
         <v>10</v>
       </c>
       <c r="AM3">
+        <v>25473</v>
+      </c>
+      <c r="AQ3">
         <v>3</v>
       </c>
-      <c r="AN3">
+      <c r="AR3">
         <v>1129</v>
       </c>
-      <c r="AO3">
+      <c r="AS3">
         <v>25473</v>
       </c>
-      <c r="AP3">
+      <c r="AT3">
         <v>25473</v>
       </c>
-      <c r="AQ3">
+      <c r="AU3">
         <v>1132</v>
       </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
       <c r="AV3">
         <v>0</v>
       </c>
@@ -1753,55 +1771,67 @@
       <c r="AX3">
         <v>0</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>116</v>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
       </c>
       <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE3">
         <v>855.3040395087586</v>
       </c>
-      <c r="BB3">
+      <c r="BF3">
         <v>0.0005153476546213836</v>
       </c>
-      <c r="BC3">
+      <c r="BG3">
         <v>0.03430547676492902</v>
       </c>
-      <c r="BD3">
+      <c r="BH3">
         <v>1.48</v>
       </c>
-      <c r="BE3">
+      <c r="BI3">
         <v>0.0348208244195504</v>
       </c>
-      <c r="BF3">
+      <c r="BJ3">
         <v>5.864241046319956</v>
       </c>
-      <c r="BG3">
+      <c r="BK3">
         <v>4.406080095600492</v>
       </c>
-      <c r="BH3">
+      <c r="BL3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BI3">
+      <c r="BM3">
         <v>1</v>
       </c>
-      <c r="BJ3">
+      <c r="BN3">
         <v>4.399604505689688</v>
       </c>
-      <c r="BK3">
+      <c r="BO3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BL3">
+      <c r="BP3">
         <v>1.204119982655925</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:70">
       <c r="A4" s="1">
         <v>1328</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>10526</v>
@@ -1834,10 +1864,10 @@
         <v>7278717</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9926367941012092</v>
+        <v>0.9898360551492718</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1849,16 +1879,16 @@
         <v>13.2</v>
       </c>
       <c r="S4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="T4">
-        <v>59.28325198329023</v>
+        <v>60.87580005952693</v>
       </c>
       <c r="U4">
         <v>20200508</v>
       </c>
       <c r="V4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="W4">
         <v>10526</v>
@@ -1882,16 +1912,16 @@
         <v>1747</v>
       </c>
       <c r="AG4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK4">
         <v>517</v>
@@ -1900,96 +1930,99 @@
         <v>1482</v>
       </c>
       <c r="AM4">
+        <v>101125</v>
+      </c>
+      <c r="AQ4">
         <v>581</v>
       </c>
-      <c r="AN4">
+      <c r="AR4">
         <v>4110</v>
       </c>
-      <c r="AO4">
+      <c r="AS4">
         <v>101125</v>
       </c>
-      <c r="AP4">
+      <c r="AT4">
         <v>101125</v>
       </c>
-      <c r="AQ4">
+      <c r="AU4">
         <v>4691</v>
       </c>
-      <c r="AR4">
+      <c r="AV4">
         <v>67</v>
       </c>
-      <c r="AS4">
+      <c r="AW4">
         <v>33</v>
       </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
       <c r="AX4">
         <v>0</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>116</v>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
       </c>
       <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE4">
         <v>2697.909746451871</v>
       </c>
-      <c r="BB4">
+      <c r="BF4">
         <v>0.001446133982128993</v>
       </c>
-      <c r="BC4">
+      <c r="BG4">
         <v>0.01244711121479239</v>
       </c>
-      <c r="BD4">
+      <c r="BH4">
         <v>10.41</v>
       </c>
-      <c r="BE4">
+      <c r="BI4">
         <v>0.01647364501188877</v>
       </c>
-      <c r="BF4">
+      <c r="BJ4">
         <v>6.862054834130968</v>
       </c>
-      <c r="BG4">
+      <c r="BK4">
         <v>5.078844537332663</v>
       </c>
-      <c r="BH4">
+      <c r="BL4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BI4">
+      <c r="BM4">
         <v>2.713490543093942</v>
       </c>
-      <c r="BJ4">
+      <c r="BN4">
         <v>4.95712340411303</v>
       </c>
-      <c r="BK4">
+      <c r="BO4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BL4">
+      <c r="BP4">
         <v>2.863322860120456</v>
       </c>
-      <c r="BM4">
+      <c r="BQ4">
         <v>2.469822015978163</v>
       </c>
-      <c r="BN4">
+      <c r="BR4">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:70">
       <c r="A5" s="1">
         <v>1329</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>3747</v>
@@ -2022,10 +2055,10 @@
         <v>3017804</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9892696571177825</v>
+        <v>0.9879494475936377</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2037,16 +2070,16 @@
         <v>15.4</v>
       </c>
       <c r="S5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="T5">
-        <v>78.96493336538261</v>
+        <v>81.30072230520268</v>
       </c>
       <c r="U5">
         <v>20200508</v>
       </c>
       <c r="V5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="W5">
         <v>3694</v>
@@ -2070,16 +2103,16 @@
         <v>2159</v>
       </c>
       <c r="AG5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AI5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AJ5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AK5">
         <v>88</v>
@@ -2087,94 +2120,97 @@
       <c r="AL5">
         <v>466</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
+        <v>3694</v>
+      </c>
+      <c r="AQ5">
         <v>83</v>
       </c>
-      <c r="AN5">
+      <c r="AR5">
         <v>3916</v>
       </c>
-      <c r="AO5">
+      <c r="AS5">
         <v>63994</v>
       </c>
-      <c r="AP5">
+      <c r="AT5">
         <v>63994</v>
       </c>
-      <c r="AQ5">
+      <c r="AU5">
         <v>3999</v>
       </c>
-      <c r="AR5">
+      <c r="AV5">
         <v>1</v>
       </c>
-      <c r="AS5">
+      <c r="AW5">
         <v>4</v>
       </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
       <c r="AX5">
         <v>0</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>116</v>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
       </c>
       <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE5">
         <v>1737.182776796961</v>
       </c>
-      <c r="BB5">
+      <c r="BF5">
         <v>0.001224068892479432</v>
       </c>
-      <c r="BC5">
+      <c r="BG5">
         <v>0.01998141695086891</v>
       </c>
-      <c r="BD5">
+      <c r="BH5">
         <v>5.77</v>
       </c>
-      <c r="BE5">
+      <c r="BI5">
         <v>0.02120548584334834</v>
       </c>
-      <c r="BF5">
+      <c r="BJ5">
         <v>6.479691029845591</v>
       </c>
-      <c r="BG5">
+      <c r="BK5">
         <v>4.806139256967569</v>
       </c>
-      <c r="BH5">
+      <c r="BL5">
         <v>3.573683693093798</v>
       </c>
-      <c r="BI5">
+      <c r="BM5">
         <v>1.944482672150169</v>
       </c>
-      <c r="BJ5">
+      <c r="BN5">
         <v>4.780317312140151</v>
       </c>
-      <c r="BK5">
+      <c r="BO5">
         <v>3.567496891104223</v>
       </c>
-      <c r="BL5">
+      <c r="BP5">
         <v>1.845098040014257</v>
       </c>
-      <c r="BN5">
+      <c r="BR5">
         <v>1.146128035678238</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:70">
       <c r="A6" s="1">
         <v>1330</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>63779</v>
@@ -2198,10 +2234,10 @@
         <v>39512223</v>
       </c>
       <c r="N6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9989867627607394</v>
+        <v>0.999042632038618</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2213,16 +2249,16 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="T6">
-        <v>100.1591691399331</v>
+        <v>102.0984655217469</v>
       </c>
       <c r="U6">
         <v>20200508</v>
       </c>
       <c r="V6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="W6">
         <v>62512</v>
@@ -2237,108 +2273,114 @@
         <v>1342</v>
       </c>
       <c r="AG6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AI6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AJ6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AK6">
         <v>2585</v>
       </c>
       <c r="AM6">
+        <v>875272</v>
+      </c>
+      <c r="AP6">
+        <v>62512</v>
+      </c>
+      <c r="AQ6">
         <v>1898</v>
       </c>
-      <c r="AN6">
+      <c r="AR6">
         <v>30500</v>
       </c>
-      <c r="AO6">
+      <c r="AS6">
         <v>875272</v>
       </c>
-      <c r="AP6">
+      <c r="AT6">
         <v>875272</v>
       </c>
-      <c r="AQ6">
+      <c r="AU6">
         <v>32398</v>
       </c>
-      <c r="AR6">
+      <c r="AV6">
         <v>81</v>
       </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>116</v>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
       </c>
       <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE6">
         <v>6285.874879442002</v>
       </c>
-      <c r="BB6">
+      <c r="BF6">
         <v>0.001582092710906192</v>
       </c>
-      <c r="BC6">
+      <c r="BG6">
         <v>0.02056983733868884</v>
       </c>
-      <c r="BD6">
+      <c r="BH6">
         <v>7.14</v>
       </c>
-      <c r="BE6">
+      <c r="BI6">
         <v>0.02215193004959503</v>
       </c>
-      <c r="BF6">
+      <c r="BJ6">
         <v>7.596731464241672</v>
       </c>
-      <c r="BG6">
+      <c r="BK6">
         <v>5.942143035585056</v>
       </c>
-      <c r="BH6">
+      <c r="BL6">
         <v>4.804677705595455</v>
       </c>
-      <c r="BI6">
+      <c r="BM6">
         <v>3.417139409727326</v>
       </c>
-      <c r="BJ6">
+      <c r="BN6">
         <v>5.909962321653986</v>
       </c>
-      <c r="BK6">
+      <c r="BO6">
         <v>4.795963393880709</v>
       </c>
-      <c r="BL6">
+      <c r="BP6">
         <v>3.654561554741743</v>
       </c>
-      <c r="BM6">
+      <c r="BQ6">
         <v>3.127752515832973</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:70">
       <c r="A7" s="1">
         <v>1331</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>18827</v>
@@ -2371,10 +2413,10 @@
         <v>5758736</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9882373001636058</v>
+        <v>0.9877875676608101</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2386,16 +2428,16 @@
         <v>9</v>
       </c>
       <c r="S7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T7">
-        <v>56.0179113574218</v>
+        <v>56.97449957215511</v>
       </c>
       <c r="U7">
         <v>20200508</v>
       </c>
       <c r="V7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="W7">
         <v>18801</v>
@@ -2413,16 +2455,16 @@
         <v>2869</v>
       </c>
       <c r="AG7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AI7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AJ7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AK7">
         <v>961</v>
@@ -2430,91 +2472,94 @@
       <c r="AL7">
         <v>3557</v>
       </c>
-      <c r="AM7">
+      <c r="AP7">
+        <v>16532</v>
+      </c>
+      <c r="AQ7">
         <v>971</v>
       </c>
-      <c r="AN7">
+      <c r="AR7">
         <v>2218</v>
       </c>
-      <c r="AO7">
+      <c r="AS7">
         <v>94536</v>
       </c>
-      <c r="AP7">
+      <c r="AT7">
         <v>94536</v>
       </c>
-      <c r="AQ7">
+      <c r="AU7">
         <v>3189</v>
       </c>
-      <c r="AR7">
+      <c r="AV7">
         <v>40</v>
       </c>
-      <c r="AS7">
+      <c r="AW7">
         <v>571</v>
       </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
       <c r="AX7">
         <v>0</v>
       </c>
-      <c r="AZ7" t="s">
-        <v>116</v>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
       </c>
       <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE7">
         <v>2399.736652218322</v>
       </c>
-      <c r="BB7">
+      <c r="BF7">
         <v>0.003264778937600196</v>
       </c>
-      <c r="BC7">
+      <c r="BG7">
         <v>0.01315132348487585</v>
       </c>
-      <c r="BD7">
+      <c r="BH7">
         <v>19.89</v>
       </c>
-      <c r="BE7">
+      <c r="BI7">
         <v>0.01641610242247604</v>
       </c>
-      <c r="BF7">
+      <c r="BJ7">
         <v>6.760327169453462</v>
       </c>
-      <c r="BG7">
+      <c r="BK7">
         <v>4.975597222520748</v>
       </c>
-      <c r="BH7">
+      <c r="BL7">
         <v>4.274781122605907</v>
       </c>
-      <c r="BI7">
+      <c r="BM7">
         <v>2.982271233039568</v>
       </c>
-      <c r="BJ7">
+      <c r="BN7">
         <v>4.879296629751168</v>
       </c>
-      <c r="BK7">
+      <c r="BO7">
         <v>4.274180949419634</v>
       </c>
-      <c r="BL7">
+      <c r="BP7">
         <v>2.914343157119441</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:70">
       <c r="A8" s="1">
         <v>1332</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>32411</v>
@@ -2547,10 +2592,10 @@
         <v>3565287</v>
       </c>
       <c r="N8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9736610146961752</v>
+        <v>0.9732861168939926</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2562,16 +2607,16 @@
         <v>10.4</v>
       </c>
       <c r="S8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="T8">
-        <v>133.1881402695684</v>
+        <v>135.025608021436</v>
       </c>
       <c r="U8">
         <v>20200508</v>
       </c>
       <c r="V8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="W8">
         <v>32411</v>
@@ -2589,16 +2634,16 @@
         <v>5413</v>
       </c>
       <c r="AG8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AI8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AJ8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK8">
         <v>2874</v>
@@ -2606,91 +2651,94 @@
       <c r="AL8">
         <v>9389</v>
       </c>
-      <c r="AM8">
+      <c r="AP8">
+        <v>32411</v>
+      </c>
+      <c r="AQ8">
         <v>627</v>
       </c>
-      <c r="AN8">
+      <c r="AR8">
         <v>3740</v>
       </c>
-      <c r="AO8">
+      <c r="AS8">
         <v>120541</v>
       </c>
-      <c r="AP8">
+      <c r="AT8">
         <v>120541</v>
       </c>
-      <c r="AQ8">
+      <c r="AU8">
         <v>4367</v>
       </c>
-      <c r="AR8">
+      <c r="AV8">
         <v>77</v>
       </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
         <v>0</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>116</v>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
       </c>
       <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE8">
         <v>1888.19675881514</v>
       </c>
-      <c r="BB8">
+      <c r="BF8">
         <v>0.009090712753279049</v>
       </c>
-      <c r="BC8">
+      <c r="BG8">
         <v>0.02471890762230362</v>
       </c>
-      <c r="BD8">
+      <c r="BH8">
         <v>26.89</v>
       </c>
-      <c r="BE8">
+      <c r="BI8">
         <v>0.03380962037558267</v>
       </c>
-      <c r="BF8">
+      <c r="BJ8">
         <v>6.552094495618293</v>
       </c>
-      <c r="BG8">
+      <c r="BK8">
         <v>5.081134790024547</v>
       </c>
-      <c r="BH8">
+      <c r="BL8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BI8">
+      <c r="BM8">
         <v>3.458486763798207</v>
       </c>
-      <c r="BJ8">
+      <c r="BN8">
         <v>4.94512377012212</v>
       </c>
-      <c r="BK8">
+      <c r="BO8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BL8">
+      <c r="BP8">
         <v>3.122870922864435</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:70">
       <c r="A9" s="1">
         <v>1333</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>6111</v>
@@ -2717,10 +2765,10 @@
         <v>973764</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9806555118103385</v>
+        <v>0.9786870563131816</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2732,16 +2780,16 @@
         <v>8.1</v>
       </c>
       <c r="S9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="T9">
-        <v>113.2508159111833</v>
+        <v>114.1219349200909</v>
       </c>
       <c r="U9">
         <v>20200508</v>
       </c>
       <c r="V9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="W9">
         <v>6111</v>
@@ -2756,105 +2804,108 @@
         <v>2288</v>
       </c>
       <c r="AG9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AI9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AJ9" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AK9">
         <v>213</v>
       </c>
-      <c r="AM9">
+      <c r="AP9">
+        <v>6111</v>
+      </c>
+      <c r="AQ9">
         <v>172</v>
       </c>
-      <c r="AN9">
+      <c r="AR9">
         <v>766</v>
       </c>
-      <c r="AO9">
+      <c r="AS9">
         <v>28264</v>
       </c>
-      <c r="AP9">
+      <c r="AT9">
         <v>28264</v>
       </c>
-      <c r="AQ9">
+      <c r="AU9">
         <v>938</v>
       </c>
-      <c r="AR9">
+      <c r="AV9">
         <v>11</v>
       </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
       <c r="AW9">
         <v>0</v>
       </c>
       <c r="AX9">
         <v>0</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>116</v>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
       </c>
       <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE9">
         <v>986.7948114983175</v>
       </c>
-      <c r="BB9">
+      <c r="BF9">
         <v>0.006275647898258715</v>
       </c>
-      <c r="BC9">
+      <c r="BG9">
         <v>0.02274986547048361</v>
       </c>
-      <c r="BD9">
+      <c r="BH9">
         <v>21.62</v>
       </c>
-      <c r="BE9">
+      <c r="BI9">
         <v>0.02902551336874232</v>
       </c>
-      <c r="BF9">
+      <c r="BJ9">
         <v>5.98845371466423</v>
       </c>
-      <c r="BG9">
+      <c r="BK9">
         <v>4.451233624426789</v>
       </c>
-      <c r="BH9">
+      <c r="BL9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BI9">
+      <c r="BM9">
         <v>2.328379603438738</v>
       </c>
-      <c r="BJ9">
+      <c r="BN9">
         <v>4.345432547499147</v>
       </c>
-      <c r="BK9">
+      <c r="BO9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BL9">
+      <c r="BP9">
         <v>2.460897842756548</v>
       </c>
     </row>
-    <row r="10" spans="1:66">
+    <row r="10" spans="1:70">
       <c r="A10" s="1">
         <v>1334</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>5899</v>
@@ -2881,10 +2932,10 @@
         <v>705749</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9857328611195968</v>
+        <v>0.9846669055026429</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2896,16 +2947,16 @@
         <v>14.3</v>
       </c>
       <c r="S10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T10">
-        <v>117.2847987830297</v>
+        <v>118.2473375706282</v>
       </c>
       <c r="U10">
         <v>20200508</v>
       </c>
       <c r="V10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="W10">
         <v>5899</v>
@@ -2926,111 +2977,114 @@
         <v>825</v>
       </c>
       <c r="AG10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AI10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AJ10" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK10">
         <v>304</v>
       </c>
-      <c r="AM10">
+      <c r="AP10">
+        <v>5899</v>
+      </c>
+      <c r="AQ10">
         <v>245</v>
       </c>
-      <c r="AN10">
+      <c r="AR10">
         <v>1014</v>
       </c>
-      <c r="AO10">
+      <c r="AS10">
         <v>27115</v>
       </c>
-      <c r="AP10">
+      <c r="AT10">
         <v>27115</v>
       </c>
-      <c r="AQ10">
+      <c r="AU10">
         <v>1259</v>
       </c>
-      <c r="AR10">
+      <c r="AV10">
         <v>19</v>
       </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
       <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
         <v>0</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>116</v>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
       </c>
       <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE10">
         <v>840.0886857945416</v>
       </c>
-      <c r="BB10">
+      <c r="BF10">
         <v>0.008358495725817535</v>
       </c>
-      <c r="BC10">
+      <c r="BG10">
         <v>0.03006167915221984</v>
       </c>
-      <c r="BD10">
+      <c r="BH10">
         <v>21.76</v>
       </c>
-      <c r="BE10">
+      <c r="BI10">
         <v>0.03842017487803737</v>
       </c>
-      <c r="BF10">
+      <c r="BJ10">
         <v>5.848650271452624</v>
       </c>
-      <c r="BG10">
+      <c r="BK10">
         <v>4.433209608771474</v>
       </c>
-      <c r="BH10">
+      <c r="BL10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BI10">
+      <c r="BM10">
         <v>2.482873583608754</v>
       </c>
-      <c r="BJ10">
+      <c r="BN10">
         <v>4.326663506724679</v>
       </c>
-      <c r="BK10">
+      <c r="BO10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BL10">
+      <c r="BP10">
         <v>2.650307523131937</v>
       </c>
-      <c r="BM10">
+      <c r="BQ10">
         <v>2.113943352306837</v>
       </c>
-      <c r="BN10">
+      <c r="BR10">
         <v>1.959041392321094</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:70">
       <c r="A11" s="1">
         <v>1335</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>39199</v>
@@ -3060,10 +3114,10 @@
         <v>21477737</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9911300705483945</v>
+        <v>0.991508355069853</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3075,16 +3129,16 @@
         <v>13.5</v>
       </c>
       <c r="S11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T11">
-        <v>86.17940374919583</v>
+        <v>87.65327420512379</v>
       </c>
       <c r="U11">
         <v>20200508</v>
       </c>
       <c r="V11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="W11">
         <v>39199</v>
@@ -3099,16 +3153,16 @@
         <v>7157</v>
       </c>
       <c r="AG11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AI11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AJ11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AK11">
         <v>1738</v>
@@ -3116,88 +3170,91 @@
       <c r="AL11">
         <v>7157</v>
       </c>
-      <c r="AM11">
+      <c r="AP11">
+        <v>39199</v>
+      </c>
+      <c r="AQ11">
         <v>371</v>
       </c>
-      <c r="AN11">
+      <c r="AR11">
         <v>20020</v>
       </c>
-      <c r="AO11">
+      <c r="AS11">
         <v>514774</v>
       </c>
-      <c r="AP11">
+      <c r="AT11">
         <v>513341</v>
       </c>
-      <c r="AQ11">
+      <c r="AU11">
         <v>20391</v>
       </c>
-      <c r="AR11">
+      <c r="AV11">
         <v>71</v>
       </c>
-      <c r="AS11">
+      <c r="AW11">
         <v>167</v>
       </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
       <c r="AX11">
         <v>0</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>116</v>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
       </c>
       <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE11">
         <v>4634.40794492673</v>
       </c>
-      <c r="BB11">
+      <c r="BF11">
         <v>0.001825099171295374</v>
       </c>
-      <c r="BC11">
+      <c r="BG11">
         <v>0.02207597569520476</v>
       </c>
-      <c r="BD11">
+      <c r="BH11">
         <v>7.64</v>
       </c>
-      <c r="BE11">
+      <c r="BI11">
         <v>0.02390107486650013</v>
       </c>
-      <c r="BF11">
+      <c r="BJ11">
         <v>7.331988520035549</v>
       </c>
-      <c r="BG11">
+      <c r="BK11">
         <v>5.710405952284654</v>
       </c>
-      <c r="BH11">
+      <c r="BL11">
         <v>4.593274987938277</v>
       </c>
-      <c r="BI11">
+      <c r="BM11">
         <v>3.222456336679247</v>
       </c>
-      <c r="BJ11">
+      <c r="BN11">
         <v>5.675908427287614</v>
       </c>
-      <c r="BK11">
+      <c r="BO11">
         <v>4.593274987938277</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:70">
       <c r="A12" s="1">
         <v>1336</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>32181</v>
@@ -3227,10 +3284,10 @@
         <v>10617423</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9913494808376677</v>
+        <v>0.9917563768485802</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3242,16 +3299,16 @@
         <v>14</v>
       </c>
       <c r="S12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="T12">
-        <v>89.2233389507679</v>
+        <v>89.28620173153983</v>
       </c>
       <c r="U12">
         <v>20200508</v>
       </c>
       <c r="V12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="W12">
         <v>32106</v>
@@ -3266,16 +3323,16 @@
         <v>1399</v>
       </c>
       <c r="AG12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AH12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AI12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AJ12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AK12">
         <v>1377</v>
@@ -3284,87 +3341,93 @@
         <v>5935</v>
       </c>
       <c r="AM12">
+        <v>227477</v>
+      </c>
+      <c r="AP12">
+        <v>32106</v>
+      </c>
+      <c r="AQ12">
         <v>667</v>
       </c>
-      <c r="AN12">
+      <c r="AR12">
         <v>9597</v>
       </c>
-      <c r="AO12">
+      <c r="AS12">
         <v>227567</v>
       </c>
-      <c r="AP12">
+      <c r="AT12">
         <v>227567</v>
       </c>
-      <c r="AQ12">
+      <c r="AU12">
         <v>10264</v>
       </c>
-      <c r="AR12">
+      <c r="AV12">
         <v>41</v>
       </c>
-      <c r="AS12">
+      <c r="AW12">
         <v>100</v>
       </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
       <c r="AX12">
         <v>0</v>
       </c>
-      <c r="AZ12" t="s">
-        <v>116</v>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
       </c>
       <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE12">
         <v>3258.438736573084</v>
       </c>
-      <c r="BB12">
+      <c r="BF12">
         <v>0.003023897606792157</v>
       </c>
-      <c r="BC12">
+      <c r="BG12">
         <v>0.01840945773753198</v>
       </c>
-      <c r="BD12">
+      <c r="BH12">
         <v>14.11</v>
       </c>
-      <c r="BE12">
+      <c r="BI12">
         <v>0.02143335534432414</v>
       </c>
-      <c r="BF12">
+      <c r="BJ12">
         <v>7.026019120070406</v>
       </c>
-      <c r="BG12">
+      <c r="BK12">
         <v>5.357109284274045</v>
       </c>
-      <c r="BH12">
+      <c r="BL12">
         <v>4.507599535342071</v>
       </c>
-      <c r="BI12">
+      <c r="BM12">
         <v>3.146128035678238</v>
       </c>
-      <c r="BJ12">
+      <c r="BN12">
         <v>5.291060116338353</v>
       </c>
-      <c r="BK12">
+      <c r="BO12">
         <v>4.506586201357899</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:70">
       <c r="A13" s="1">
         <v>1337</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>629</v>
@@ -3397,10 +3460,10 @@
         <v>1415872</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9633248744260036</v>
+        <v>0.9622607514320161</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3412,16 +3475,16 @@
         <v>9.9</v>
       </c>
       <c r="S13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="T13">
-        <v>46.81135204275203</v>
+        <v>46.46804626328716</v>
       </c>
       <c r="U13">
         <v>20200508</v>
       </c>
       <c r="V13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="W13">
         <v>629</v>
@@ -3436,16 +3499,16 @@
         <v>565</v>
       </c>
       <c r="AG13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AI13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AJ13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK13">
         <v>17</v>
@@ -3453,33 +3516,24 @@
       <c r="AL13">
         <v>74</v>
       </c>
-      <c r="AM13">
+      <c r="AP13">
+        <v>602</v>
+      </c>
+      <c r="AQ13">
         <v>3</v>
       </c>
-      <c r="AN13">
+      <c r="AR13">
         <v>1074</v>
       </c>
-      <c r="AO13">
+      <c r="AS13">
         <v>36618</v>
       </c>
-      <c r="AP13">
+      <c r="AT13">
         <v>36618</v>
       </c>
-      <c r="AQ13">
+      <c r="AU13">
         <v>1077</v>
       </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
       <c r="AV13">
         <v>0</v>
       </c>
@@ -3489,52 +3543,64 @@
       <c r="AX13">
         <v>0</v>
       </c>
-      <c r="AZ13" t="s">
-        <v>116</v>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
       </c>
       <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE13">
         <v>1189.904197824346</v>
       </c>
-      <c r="BB13">
+      <c r="BF13">
         <v>0.0004442491976675858</v>
       </c>
-      <c r="BC13">
+      <c r="BG13">
         <v>0.02541825814762916</v>
       </c>
-      <c r="BD13">
+      <c r="BH13">
         <v>1.72</v>
       </c>
-      <c r="BE13">
+      <c r="BI13">
         <v>0.02586250734529675</v>
       </c>
-      <c r="BF13">
+      <c r="BJ13">
         <v>6.151023993321008</v>
       </c>
-      <c r="BG13">
+      <c r="BK13">
         <v>4.563694620340237</v>
       </c>
-      <c r="BH13">
+      <c r="BL13">
         <v>2.798650645445269</v>
       </c>
-      <c r="BI13">
+      <c r="BM13">
         <v>1.230448921378274</v>
       </c>
-      <c r="BJ13">
+      <c r="BN13">
         <v>4.556169779397686</v>
       </c>
-      <c r="BK13">
+      <c r="BO13">
         <v>2.798650645445269</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:70">
       <c r="A14" s="1">
         <v>1338</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>2178</v>
@@ -3567,10 +3633,10 @@
         <v>1787065</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9814840548843419</v>
+        <v>0.981767657463585</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3582,16 +3648,16 @@
         <v>11.5</v>
       </c>
       <c r="S14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="T14">
-        <v>37.22701123549763</v>
+        <v>38.07802056658779</v>
       </c>
       <c r="U14">
         <v>20200508</v>
       </c>
       <c r="V14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="W14">
         <v>2178</v>
@@ -3609,16 +3675,16 @@
         <v>1420</v>
       </c>
       <c r="AG14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH14" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AI14" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AJ14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AK14">
         <v>67</v>
@@ -3626,88 +3692,91 @@
       <c r="AL14">
         <v>206</v>
       </c>
-      <c r="AM14">
+      <c r="AP14">
+        <v>2007</v>
+      </c>
+      <c r="AQ14">
         <v>20</v>
       </c>
-      <c r="AN14">
+      <c r="AR14">
         <v>360</v>
       </c>
-      <c r="AO14">
+      <c r="AS14">
         <v>31270</v>
       </c>
-      <c r="AP14">
+      <c r="AT14">
         <v>31270</v>
       </c>
-      <c r="AQ14">
+      <c r="AU14">
         <v>380</v>
       </c>
-      <c r="AR14">
+      <c r="AV14">
         <v>1</v>
       </c>
-      <c r="AS14">
+      <c r="AW14">
         <v>1</v>
       </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
       <c r="AX14">
         <v>0</v>
       </c>
-      <c r="AZ14" t="s">
-        <v>116</v>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
       </c>
       <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE14">
         <v>1336.811505037266</v>
       </c>
-      <c r="BB14">
+      <c r="BF14">
         <v>0.001218758131349447</v>
       </c>
-      <c r="BC14">
+      <c r="BG14">
         <v>0.01627920640827278</v>
       </c>
-      <c r="BD14">
+      <c r="BH14">
         <v>6.97</v>
       </c>
-      <c r="BE14">
+      <c r="BI14">
         <v>0.01749796453962223</v>
       </c>
-      <c r="BF14">
+      <c r="BJ14">
         <v>6.252140349163694</v>
       </c>
-      <c r="BG14">
+      <c r="BK14">
         <v>4.495127881242933</v>
       </c>
-      <c r="BH14">
+      <c r="BL14">
         <v>3.338057875419756</v>
       </c>
-      <c r="BI14">
+      <c r="BM14">
         <v>1.826074802700826</v>
       </c>
-      <c r="BJ14">
+      <c r="BN14">
         <v>4.463773578899397</v>
       </c>
-      <c r="BK14">
+      <c r="BO14">
         <v>3.338057875419756</v>
       </c>
     </row>
-    <row r="15" spans="1:66">
+    <row r="15" spans="1:70">
       <c r="A15" s="1">
         <v>1339</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>73760</v>
@@ -3731,10 +3800,10 @@
         <v>12671821</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9871207547714308</v>
+        <v>0.9851361354236983</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3746,16 +3815,16 @@
         <v>10.9</v>
       </c>
       <c r="S15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="T15">
-        <v>139.1322458608324</v>
+        <v>140.5187411027168</v>
       </c>
       <c r="U15">
         <v>20200508</v>
       </c>
       <c r="V15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="W15">
         <v>73760</v>
@@ -3773,111 +3842,114 @@
         <v>727</v>
       </c>
       <c r="AG15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AH15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ15" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK15">
         <v>3241</v>
       </c>
-      <c r="AM15">
+      <c r="AP15">
+        <v>73760</v>
+      </c>
+      <c r="AQ15">
         <v>2887</v>
       </c>
-      <c r="AN15">
+      <c r="AR15">
         <v>17784</v>
       </c>
-      <c r="AO15">
+      <c r="AS15">
         <v>399714</v>
       </c>
-      <c r="AP15">
+      <c r="AT15">
         <v>399714</v>
       </c>
-      <c r="AQ15">
+      <c r="AU15">
         <v>20671</v>
       </c>
-      <c r="AR15">
+      <c r="AV15">
         <v>130</v>
       </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
       <c r="AW15">
         <v>0</v>
       </c>
       <c r="AX15">
         <v>0</v>
       </c>
-      <c r="AZ15" t="s">
-        <v>116</v>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
       </c>
       <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE15">
         <v>3559.750131680593</v>
       </c>
-      <c r="BB15">
+      <c r="BF15">
         <v>0.005820789293030575</v>
       </c>
-      <c r="BC15">
+      <c r="BG15">
         <v>0.02572274340049469</v>
       </c>
-      <c r="BD15">
+      <c r="BH15">
         <v>18.45</v>
       </c>
-      <c r="BE15">
+      <c r="BI15">
         <v>0.03154353269352526</v>
       </c>
-      <c r="BF15">
+      <c r="BJ15">
         <v>7.102839029518357</v>
       </c>
-      <c r="BG15">
+      <c r="BK15">
         <v>5.60174935970936</v>
       </c>
-      <c r="BH15">
+      <c r="BL15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BI15">
+      <c r="BM15">
         <v>3.51067903103221</v>
       </c>
-      <c r="BJ15">
+      <c r="BN15">
         <v>5.513156314927574</v>
       </c>
-      <c r="BK15">
+      <c r="BO15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BL15">
+      <c r="BP15">
         <v>3.676693609624866</v>
       </c>
-      <c r="BM15">
+      <c r="BQ15">
         <v>3.087071205906535</v>
       </c>
-      <c r="BN15">
+      <c r="BR15">
         <v>2.861534410859038</v>
       </c>
     </row>
-    <row r="16" spans="1:66">
+    <row r="16" spans="1:70">
       <c r="A16" s="1">
         <v>1340</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>23146</v>
@@ -3907,10 +3979,10 @@
         <v>6732219</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9895027531113635</v>
+        <v>0.9890792027392802</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3922,16 +3994,16 @@
         <v>11.6</v>
       </c>
       <c r="S16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="T16">
-        <v>71.16178734819091</v>
+        <v>71.99950580820529</v>
       </c>
       <c r="U16">
         <v>20200508</v>
       </c>
       <c r="V16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="W16">
         <v>23146</v>
@@ -3955,16 +4027,16 @@
         <v>219</v>
       </c>
       <c r="AG16" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH16" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AI16" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AJ16" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AK16">
         <v>1447</v>
@@ -3972,97 +4044,100 @@
       <c r="AL16">
         <v>4389</v>
       </c>
-      <c r="AM16">
+      <c r="AP16">
+        <v>23146</v>
+      </c>
+      <c r="AQ16">
         <v>643</v>
       </c>
-      <c r="AN16">
+      <c r="AR16">
         <v>4703</v>
       </c>
-      <c r="AO16">
+      <c r="AS16">
         <v>130128</v>
       </c>
-      <c r="AP16">
+      <c r="AT16">
         <v>130128</v>
       </c>
-      <c r="AQ16">
+      <c r="AU16">
         <v>5346</v>
       </c>
-      <c r="AR16">
+      <c r="AV16">
         <v>33</v>
       </c>
-      <c r="AS16">
+      <c r="AW16">
         <v>4389</v>
       </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
       <c r="AX16">
         <v>0</v>
       </c>
-      <c r="AZ16" t="s">
-        <v>116</v>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
       </c>
       <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE16">
         <v>2594.651999787255</v>
       </c>
-      <c r="BB16">
+      <c r="BF16">
         <v>0.003438093739968946</v>
       </c>
-      <c r="BC16">
+      <c r="BG16">
         <v>0.01589104573098409</v>
       </c>
-      <c r="BD16">
+      <c r="BH16">
         <v>17.79</v>
       </c>
-      <c r="BE16">
+      <c r="BI16">
         <v>0.01932913947095304</v>
       </c>
-      <c r="BF16">
+      <c r="BJ16">
         <v>6.828158235192161</v>
       </c>
-      <c r="BG16">
+      <c r="BK16">
         <v>5.114370754956073</v>
       </c>
-      <c r="BH16">
+      <c r="BL16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BI16">
+      <c r="BM16">
         <v>3.160468531119037</v>
       </c>
-      <c r="BJ16">
+      <c r="BN16">
         <v>5.029310712654574</v>
       </c>
-      <c r="BK16">
+      <c r="BO16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BL16">
+      <c r="BP16">
         <v>3.13956426617585</v>
       </c>
-      <c r="BM16">
+      <c r="BQ16">
         <v>2.682145076373832</v>
       </c>
-      <c r="BN16">
+      <c r="BR16">
         <v>2.340444114840118</v>
       </c>
     </row>
-    <row r="17" spans="1:66">
+    <row r="17" spans="1:70">
       <c r="A17" s="1">
         <v>1341</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>11457</v>
@@ -4089,10 +4164,10 @@
         <v>3155070</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9843074541621964</v>
+        <v>0.9837295871231226</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4104,16 +4179,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="T17">
-        <v>96.68827322557833</v>
+        <v>98.64727921008692</v>
       </c>
       <c r="U17">
         <v>20200508</v>
       </c>
       <c r="V17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="W17">
         <v>11457</v>
@@ -4134,111 +4209,114 @@
         <v>4685</v>
       </c>
       <c r="AG17" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH17" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AI17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AJ17" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK17">
         <v>243</v>
       </c>
-      <c r="AM17">
+      <c r="AP17">
+        <v>11457</v>
+      </c>
+      <c r="AQ17">
         <v>398</v>
       </c>
-      <c r="AN17">
+      <c r="AR17">
         <v>3436</v>
       </c>
-      <c r="AO17">
+      <c r="AS17">
         <v>70261</v>
       </c>
-      <c r="AP17">
+      <c r="AT17">
         <v>70261</v>
       </c>
-      <c r="AQ17">
+      <c r="AU17">
         <v>3834</v>
       </c>
-      <c r="AR17">
+      <c r="AV17">
         <v>12</v>
       </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
       <c r="AW17">
         <v>0</v>
       </c>
       <c r="AX17">
         <v>0</v>
       </c>
-      <c r="AZ17" t="s">
-        <v>116</v>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
       </c>
       <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE17">
         <v>1776.251671357412</v>
       </c>
-      <c r="BB17">
+      <c r="BF17">
         <v>0.003631298196236534</v>
       </c>
-      <c r="BC17">
+      <c r="BG17">
         <v>0.01863793830247823</v>
       </c>
-      <c r="BD17">
+      <c r="BH17">
         <v>16.31</v>
       </c>
-      <c r="BE17">
+      <c r="BI17">
         <v>0.02226923649871477</v>
       </c>
-      <c r="BF17">
+      <c r="BJ17">
         <v>6.499008999166996</v>
       </c>
-      <c r="BG17">
+      <c r="BK17">
         <v>4.846714326659982</v>
       </c>
-      <c r="BH17">
+      <c r="BL17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BI17">
+      <c r="BM17">
         <v>2.385606273598312</v>
       </c>
-      <c r="BJ17">
+      <c r="BN17">
         <v>4.769406868913598</v>
       </c>
-      <c r="BK17">
+      <c r="BO17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BL17">
+      <c r="BP17">
         <v>2.60959440922522</v>
       </c>
-      <c r="BM17">
+      <c r="BQ17">
         <v>2.214843848047698</v>
       </c>
-      <c r="BN17">
+      <c r="BR17">
         <v>2.037426497940624</v>
       </c>
     </row>
-    <row r="18" spans="1:66">
+    <row r="18" spans="1:70">
       <c r="A18" s="1">
         <v>1342</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <v>6667</v>
@@ -4271,10 +4349,10 @@
         <v>2913314</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9724194975161156</v>
+        <v>0.9711299091704759</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4286,16 +4364,16 @@
         <v>10.9</v>
       </c>
       <c r="S18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T18">
-        <v>61.54811370833372</v>
+        <v>62.52976454943666</v>
       </c>
       <c r="U18">
         <v>20200508</v>
       </c>
       <c r="V18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="W18">
         <v>6501</v>
@@ -4316,16 +4394,16 @@
         <v>332</v>
       </c>
       <c r="AG18" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AH18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AI18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AJ18" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AK18">
         <v>152</v>
@@ -4333,88 +4411,91 @@
       <c r="AL18">
         <v>608</v>
       </c>
-      <c r="AM18">
+      <c r="AP18">
+        <v>6144</v>
+      </c>
+      <c r="AQ18">
         <v>357</v>
       </c>
-      <c r="AN18">
+      <c r="AR18">
         <v>2529</v>
       </c>
-      <c r="AO18">
+      <c r="AS18">
         <v>47708</v>
       </c>
-      <c r="AP18">
+      <c r="AT18">
         <v>47708</v>
       </c>
-      <c r="AQ18">
+      <c r="AU18">
         <v>2886</v>
       </c>
-      <c r="AR18">
+      <c r="AV18">
         <v>5</v>
       </c>
-      <c r="AS18">
+      <c r="AW18">
         <v>21</v>
       </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
       <c r="AX18">
         <v>0</v>
       </c>
-      <c r="AZ18" t="s">
-        <v>116</v>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
       </c>
       <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE18">
         <v>1706.843285131942</v>
       </c>
-      <c r="BB18">
+      <c r="BF18">
         <v>0.002231479339336577</v>
       </c>
-      <c r="BC18">
+      <c r="BG18">
         <v>0.01414437304046182</v>
       </c>
-      <c r="BD18">
+      <c r="BH18">
         <v>13.63</v>
       </c>
-      <c r="BE18">
+      <c r="BI18">
         <v>0.0163758523797984</v>
       </c>
-      <c r="BF18">
+      <c r="BJ18">
         <v>6.464387295859416</v>
       </c>
-      <c r="BG18">
+      <c r="BK18">
         <v>4.678591210581774</v>
       </c>
-      <c r="BH18">
+      <c r="BL18">
         <v>3.823930455125564</v>
       </c>
-      <c r="BI18">
+      <c r="BM18">
         <v>2.225309281725863</v>
       </c>
-      <c r="BJ18">
+      <c r="BN18">
         <v>4.614970997662866</v>
       </c>
-      <c r="BK18">
+      <c r="BO18">
         <v>3.81298016603948</v>
       </c>
     </row>
-    <row r="19" spans="1:66">
+    <row r="19" spans="1:70">
       <c r="A19" s="1">
         <v>1343</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>6288</v>
@@ -4447,10 +4528,10 @@
         <v>4467673</v>
       </c>
       <c r="N19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O19">
-        <v>0.993289017464963</v>
+        <v>0.9935702166429441</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4462,16 +4543,16 @@
         <v>14.6</v>
       </c>
       <c r="S19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="T19">
-        <v>91.47876566827026</v>
+        <v>93.51535477594699</v>
       </c>
       <c r="U19">
         <v>20200508</v>
       </c>
       <c r="V19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="W19">
         <v>6129</v>
@@ -4495,16 +4576,16 @@
         <v>2177</v>
       </c>
       <c r="AG19" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AH19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AI19" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AJ19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AK19">
         <v>294</v>
@@ -4512,94 +4593,97 @@
       <c r="AL19">
         <v>1684</v>
       </c>
-      <c r="AM19">
+      <c r="AP19">
+        <v>6119</v>
+      </c>
+      <c r="AQ19">
         <v>195</v>
       </c>
-      <c r="AN19">
+      <c r="AR19">
         <v>2600</v>
       </c>
-      <c r="AO19">
+      <c r="AS19">
         <v>81401</v>
       </c>
-      <c r="AP19">
+      <c r="AT19">
         <v>81401</v>
       </c>
-      <c r="AQ19">
+      <c r="AU19">
         <v>2795</v>
       </c>
-      <c r="AR19">
+      <c r="AV19">
         <v>11</v>
       </c>
-      <c r="AS19">
+      <c r="AW19">
         <v>68</v>
       </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
       <c r="AX19">
         <v>0</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>116</v>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
       </c>
       <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE19">
         <v>2113.687062930556</v>
       </c>
-      <c r="BB19">
+      <c r="BF19">
         <v>0.001371855102197497</v>
       </c>
-      <c r="BC19">
+      <c r="BG19">
         <v>0.01684814443671236</v>
       </c>
-      <c r="BD19">
+      <c r="BH19">
         <v>7.53</v>
       </c>
-      <c r="BE19">
+      <c r="BI19">
         <v>0.01821999953890985</v>
       </c>
-      <c r="BF19">
+      <c r="BJ19">
         <v>6.650081378523105</v>
       </c>
-      <c r="BG19">
+      <c r="BK19">
         <v>4.910629740169475</v>
       </c>
-      <c r="BH19">
+      <c r="BL19">
         <v>3.798512533031352</v>
       </c>
-      <c r="BI19">
+      <c r="BM19">
         <v>2.474216264076255</v>
       </c>
-      <c r="BJ19">
+      <c r="BN19">
         <v>4.876633455524433</v>
       </c>
-      <c r="BK19">
+      <c r="BO19">
         <v>3.78738962135211</v>
       </c>
-      <c r="BL19">
+      <c r="BP19">
         <v>2.551449997972875</v>
       </c>
-      <c r="BM19">
+      <c r="BQ19">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="20" spans="1:66">
+    <row r="20" spans="1:70">
       <c r="A20" s="1">
         <v>1344</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D20">
         <v>30855</v>
@@ -4626,10 +4710,10 @@
         <v>4648794</v>
       </c>
       <c r="N20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9776545552130242</v>
+        <v>0.9785465828327037</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4641,16 +4725,16 @@
         <v>19.8</v>
       </c>
       <c r="S20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="T20">
-        <v>129.1667015217672</v>
+        <v>131.4104074687207</v>
       </c>
       <c r="U20">
         <v>20200508</v>
       </c>
       <c r="V20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="W20">
         <v>30855</v>
@@ -4668,108 +4752,111 @@
         <v>20316</v>
       </c>
       <c r="AG20" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AI20" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AJ20" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK20">
         <v>2227</v>
       </c>
-      <c r="AM20">
+      <c r="AP20">
+        <v>30855</v>
+      </c>
+      <c r="AQ20">
         <v>203</v>
       </c>
-      <c r="AN20">
+      <c r="AR20">
         <v>1446</v>
       </c>
-      <c r="AO20">
+      <c r="AS20">
         <v>202416</v>
       </c>
-      <c r="AP20">
+      <c r="AT20">
         <v>202416</v>
       </c>
-      <c r="AQ20">
+      <c r="AU20">
         <v>1649</v>
       </c>
-      <c r="AR20">
+      <c r="AV20">
         <v>19</v>
       </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
       <c r="AW20">
         <v>0</v>
       </c>
       <c r="AX20">
         <v>0</v>
       </c>
-      <c r="AZ20" t="s">
-        <v>116</v>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
       </c>
       <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE20">
         <v>2156.106212597144</v>
       </c>
-      <c r="BB20">
+      <c r="BF20">
         <v>0.006637205262268021</v>
       </c>
-      <c r="BC20">
+      <c r="BG20">
         <v>0.03690441004699283</v>
       </c>
-      <c r="BD20">
+      <c r="BH20">
         <v>15.24</v>
       </c>
-      <c r="BE20">
+      <c r="BI20">
         <v>0.04354161530926085</v>
       </c>
-      <c r="BF20">
+      <c r="BJ20">
         <v>6.667340301905727</v>
       </c>
-      <c r="BG20">
+      <c r="BK20">
         <v>5.306244838390451</v>
       </c>
-      <c r="BH20">
+      <c r="BL20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BI20">
+      <c r="BM20">
         <v>3.347720217034038</v>
       </c>
-      <c r="BJ20">
+      <c r="BN20">
         <v>5.234418569003362</v>
       </c>
-      <c r="BK20">
+      <c r="BO20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BL20">
+      <c r="BP20">
         <v>3.133219456732494</v>
       </c>
-      <c r="BN20">
+      <c r="BR20">
         <v>2.267171728403014</v>
       </c>
     </row>
-    <row r="21" spans="1:66">
+    <row r="21" spans="1:70">
       <c r="A21" s="1">
         <v>1345</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D21">
         <v>1374</v>
@@ -4802,10 +4889,10 @@
         <v>1344212</v>
       </c>
       <c r="N21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9972317376450358</v>
+        <v>0.9972925967173163</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4817,16 +4904,16 @@
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="T21">
-        <v>57.5179604791108</v>
+        <v>59.85987238659487</v>
       </c>
       <c r="U21">
         <v>20200508</v>
       </c>
       <c r="V21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="W21">
         <v>1374</v>
@@ -4850,16 +4937,16 @@
         <v>836</v>
       </c>
       <c r="AG21" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH21" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AI21" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AJ21" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AK21">
         <v>63</v>
@@ -4867,97 +4954,100 @@
       <c r="AL21">
         <v>194</v>
       </c>
-      <c r="AM21">
-        <v>44</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>23466</v>
-      </c>
       <c r="AP21">
-        <v>23466</v>
+        <v>1264</v>
       </c>
       <c r="AQ21">
         <v>44</v>
       </c>
       <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>23466</v>
+      </c>
+      <c r="AT21">
+        <v>23466</v>
+      </c>
+      <c r="AU21">
+        <v>44</v>
+      </c>
+      <c r="AV21">
         <v>1</v>
       </c>
-      <c r="AS21">
+      <c r="AW21">
         <v>2</v>
       </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
       <c r="AX21">
         <v>0</v>
       </c>
-      <c r="AZ21" t="s">
-        <v>116</v>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
       </c>
       <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE21">
         <v>1159.401569776408</v>
       </c>
-      <c r="BB21">
+      <c r="BF21">
         <v>0.001022160194969246</v>
       </c>
-      <c r="BC21">
+      <c r="BG21">
         <v>0.0164349075889815</v>
       </c>
-      <c r="BD21">
+      <c r="BH21">
         <v>5.86</v>
       </c>
-      <c r="BE21">
+      <c r="BI21">
         <v>0.01745706778395074</v>
       </c>
-      <c r="BF21">
+      <c r="BJ21">
         <v>6.128467768099815</v>
       </c>
-      <c r="BG21">
+      <c r="BK21">
         <v>4.370439066335774</v>
       </c>
-      <c r="BH21">
+      <c r="BL21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BI21">
+      <c r="BM21">
         <v>1.799340549453582</v>
       </c>
-      <c r="BJ21">
+      <c r="BN21">
         <v>4.344235034551639</v>
       </c>
-      <c r="BK21">
+      <c r="BO21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BL21">
+      <c r="BP21">
         <v>1.643452676486187</v>
       </c>
-      <c r="BM21">
+      <c r="BQ21">
         <v>1.361727836017593</v>
       </c>
-      <c r="BN21">
+      <c r="BR21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:66">
+    <row r="22" spans="1:70">
       <c r="A22" s="1">
         <v>1346</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D22">
         <v>30485</v>
@@ -4990,10 +5080,10 @@
         <v>6045680</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9932796242132901</v>
+        <v>0.9922672189783553</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5005,16 +5095,16 @@
         <v>7.8</v>
       </c>
       <c r="S22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="T22">
-        <v>92.12121123635559</v>
+        <v>93.97496155810212</v>
       </c>
       <c r="U22">
         <v>20200508</v>
       </c>
       <c r="V22" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="W22">
         <v>30485</v>
@@ -5035,16 +5125,16 @@
         <v>2041</v>
       </c>
       <c r="AG22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AH22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AI22" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AJ22" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AK22">
         <v>1643</v>
@@ -5052,94 +5142,97 @@
       <c r="AL22">
         <v>5811</v>
       </c>
-      <c r="AM22">
+      <c r="AP22">
+        <v>30485</v>
+      </c>
+      <c r="AQ22">
         <v>1111</v>
       </c>
-      <c r="AN22">
+      <c r="AR22">
         <v>2476</v>
       </c>
-      <c r="AO22">
+      <c r="AS22">
         <v>152187</v>
       </c>
-      <c r="AP22">
+      <c r="AT22">
         <v>152187</v>
       </c>
-      <c r="AQ22">
+      <c r="AU22">
         <v>3587</v>
       </c>
-      <c r="AR22">
+      <c r="AV22">
         <v>63</v>
       </c>
-      <c r="AS22">
+      <c r="AW22">
         <v>148</v>
       </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
       <c r="AX22">
         <v>0</v>
       </c>
-      <c r="AZ22" t="s">
-        <v>116</v>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
       </c>
       <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE22">
         <v>2458.796453552022</v>
       </c>
-      <c r="BB22">
+      <c r="BF22">
         <v>0.005042443529925501</v>
       </c>
-      <c r="BC22">
+      <c r="BG22">
         <v>0.02013040716677032</v>
       </c>
-      <c r="BD22">
+      <c r="BH22">
         <v>20.03</v>
       </c>
-      <c r="BE22">
+      <c r="BI22">
         <v>0.02517285069669582</v>
       </c>
-      <c r="BF22">
+      <c r="BJ22">
         <v>6.781445156088222</v>
       </c>
-      <c r="BG22">
+      <c r="BK22">
         <v>5.182377556052198</v>
       </c>
-      <c r="BH22">
+      <c r="BL22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BI22">
+      <c r="BM22">
         <v>3.193124598354462</v>
       </c>
-      <c r="BJ22">
+      <c r="BN22">
         <v>5.085297715303415</v>
       </c>
-      <c r="BK22">
+      <c r="BO22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BL22">
+      <c r="BP22">
         <v>3.223755453657241</v>
       </c>
-      <c r="BM22">
+      <c r="BQ22">
         <v>2.756636108245848</v>
       </c>
     </row>
-    <row r="23" spans="1:66">
+    <row r="23" spans="1:70">
       <c r="A23" s="1">
         <v>1347</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>75333</v>
@@ -5169,10 +5262,10 @@
         <v>6892503</v>
       </c>
       <c r="N23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9736250949090968</v>
+        <v>0.9730819570455972</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5184,16 +5277,16 @@
         <v>10</v>
       </c>
       <c r="S23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="T23">
-        <v>145.0104102682211</v>
+        <v>144.2012468888599</v>
       </c>
       <c r="U23">
         <v>20200508</v>
       </c>
       <c r="V23" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="W23">
         <v>75333</v>
@@ -5211,16 +5304,16 @@
         <v>826</v>
       </c>
       <c r="AG23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AH23" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AI23" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AJ23" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AK23">
         <v>4702</v>
@@ -5228,94 +5321,97 @@
       <c r="AL23">
         <v>7434</v>
       </c>
-      <c r="AM23">
+      <c r="AP23">
+        <v>75333</v>
+      </c>
+      <c r="AQ23">
         <v>1612</v>
       </c>
-      <c r="AN23">
+      <c r="AR23">
         <v>12779</v>
       </c>
-      <c r="AO23">
+      <c r="AS23">
         <v>366023</v>
       </c>
-      <c r="AP23">
+      <c r="AT23">
         <v>366023</v>
       </c>
-      <c r="AQ23">
+      <c r="AU23">
         <v>14391</v>
       </c>
-      <c r="AR23">
+      <c r="AV23">
         <v>150</v>
       </c>
-      <c r="AS23">
+      <c r="AW23">
         <v>197</v>
       </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
       <c r="AX23">
         <v>0</v>
       </c>
-      <c r="AZ23" t="s">
-        <v>116</v>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
       </c>
       <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE23">
         <v>2625.357689915795</v>
       </c>
-      <c r="BB23">
+      <c r="BF23">
         <v>0.01092970144517891</v>
       </c>
-      <c r="BC23">
+      <c r="BG23">
         <v>0.04217480935445368</v>
       </c>
-      <c r="BD23">
+      <c r="BH23">
         <v>20.58</v>
       </c>
-      <c r="BE23">
+      <c r="BI23">
         <v>0.05310451079963258</v>
       </c>
-      <c r="BF23">
+      <c r="BJ23">
         <v>6.838376963806924</v>
       </c>
-      <c r="BG23">
+      <c r="BK23">
         <v>5.563508376266657</v>
       </c>
-      <c r="BH23">
+      <c r="BL23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BI23">
+      <c r="BM23">
         <v>3.672282624788921</v>
       </c>
-      <c r="BJ23">
+      <c r="BN23">
         <v>5.463430091902802</v>
       </c>
-      <c r="BK23">
+      <c r="BO23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BL23">
+      <c r="BP23">
         <v>3.524915147539867</v>
       </c>
-      <c r="BM23">
+      <c r="BQ23">
         <v>2.916980047320382</v>
       </c>
     </row>
-    <row r="24" spans="1:66">
+    <row r="24" spans="1:70">
       <c r="A24" s="1">
         <v>1348</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>46386</v>
@@ -5342,10 +5438,10 @@
         <v>9986857</v>
       </c>
       <c r="N24" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9843184365216643</v>
+        <v>0.985512665962331</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5357,22 +5453,22 @@
         <v>11</v>
       </c>
       <c r="S24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="T24">
-        <v>103.8026843098617</v>
+        <v>106.3530484857253</v>
       </c>
       <c r="U24">
         <v>20200508</v>
       </c>
       <c r="V24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="W24">
-        <v>46326</v>
+        <v>52349</v>
       </c>
       <c r="X24">
-        <v>213927</v>
+        <v>248142</v>
       </c>
       <c r="Z24">
         <v>1637</v>
@@ -5387,49 +5483,49 @@
         <v>15659</v>
       </c>
       <c r="AG24" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH24" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AI24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AJ24" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK24">
-        <v>4393</v>
+        <v>4987</v>
       </c>
       <c r="AM24">
-        <v>680</v>
+        <v>307801</v>
       </c>
       <c r="AN24">
-        <v>12511</v>
+        <v>59659</v>
       </c>
       <c r="AO24">
-        <v>260253</v>
+        <v>248142</v>
       </c>
       <c r="AP24">
-        <v>260253</v>
+        <v>49871</v>
       </c>
       <c r="AQ24">
-        <v>13191</v>
+        <v>618</v>
       </c>
       <c r="AR24">
-        <v>50</v>
+        <v>11958</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>300491</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>300491</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>12576</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -5437,61 +5533,73 @@
       <c r="AX24">
         <v>0</v>
       </c>
-      <c r="AZ24" t="s">
-        <v>116</v>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
       </c>
       <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE24">
         <v>3160.19888614625</v>
       </c>
-      <c r="BB24">
-        <v>0.004638696638992628</v>
-      </c>
-      <c r="BC24">
-        <v>0.02142085342765997</v>
-      </c>
-      <c r="BD24">
-        <v>17.8</v>
-      </c>
-      <c r="BE24">
+      <c r="BF24">
+        <v>0.005241789283655508</v>
+      </c>
+      <c r="BG24">
+        <v>0.02484685622313406</v>
+      </c>
+      <c r="BH24">
+        <v>17.42</v>
+      </c>
+      <c r="BI24">
         <v>0.0260595500666526</v>
       </c>
-      <c r="BF24">
+      <c r="BJ24">
         <v>6.999428831336674</v>
       </c>
-      <c r="BG24">
+      <c r="BK24">
         <v>5.415395744430167</v>
       </c>
-      <c r="BH24">
+      <c r="BL24">
         <v>4.666386923654211</v>
       </c>
-      <c r="BI24">
+      <c r="BM24">
         <v>3.643353961976863</v>
       </c>
-      <c r="BJ24">
-        <v>5.33026560089227</v>
-      </c>
-      <c r="BK24">
-        <v>4.665824802838091</v>
-      </c>
-      <c r="BL24">
+      <c r="BN24">
+        <v>5.3947002782766</v>
+      </c>
+      <c r="BO24">
+        <v>4.718908389956982</v>
+      </c>
+      <c r="BP24">
         <v>3.214048679411941</v>
       </c>
-      <c r="BM24">
+      <c r="BQ24">
         <v>2.860338006570994</v>
       </c>
-      <c r="BN24">
+      <c r="BR24">
         <v>2.755874855672491</v>
       </c>
     </row>
-    <row r="25" spans="1:66">
+    <row r="25" spans="1:70">
       <c r="A25" s="1">
         <v>1349</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D25">
         <v>10088</v>
@@ -5524,10 +5632,10 @@
         <v>5639632</v>
       </c>
       <c r="N25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O25">
-        <v>0.990895294908518</v>
+        <v>0.9898435984865296</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5539,16 +5647,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="T25">
-        <v>89.74997356855827</v>
+        <v>93.85590707112166</v>
       </c>
       <c r="U25">
         <v>20200508</v>
       </c>
       <c r="V25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="W25">
         <v>10088</v>
@@ -5572,16 +5680,16 @@
         <v>5163</v>
       </c>
       <c r="AG25" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AH25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AI25" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AJ25" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AK25">
         <v>534</v>
@@ -5589,94 +5697,97 @@
       <c r="AL25">
         <v>1549</v>
       </c>
-      <c r="AM25">
+      <c r="AP25">
+        <v>10088</v>
+      </c>
+      <c r="AQ25">
         <v>723</v>
       </c>
-      <c r="AN25">
+      <c r="AR25">
         <v>3126</v>
       </c>
-      <c r="AO25">
+      <c r="AS25">
         <v>101270</v>
       </c>
-      <c r="AP25">
+      <c r="AT25">
         <v>101270</v>
       </c>
-      <c r="AQ25">
+      <c r="AU25">
         <v>3849</v>
       </c>
-      <c r="AR25">
+      <c r="AV25">
         <v>26</v>
       </c>
-      <c r="AS25">
+      <c r="AW25">
         <v>90</v>
       </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
       <c r="AX25">
         <v>0</v>
       </c>
-      <c r="AZ25" t="s">
-        <v>116</v>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
       </c>
       <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE25">
         <v>2374.790938166979</v>
       </c>
-      <c r="BB25">
+      <c r="BF25">
         <v>0.001788769196287985</v>
       </c>
-      <c r="BC25">
+      <c r="BG25">
         <v>0.01616807621490196</v>
       </c>
-      <c r="BD25">
+      <c r="BH25">
         <v>9.960000000000001</v>
       </c>
-      <c r="BE25">
+      <c r="BI25">
         <v>0.01795684541118995</v>
       </c>
-      <c r="BF25">
+      <c r="BJ25">
         <v>6.751250766113916</v>
       </c>
-      <c r="BG25">
+      <c r="BK25">
         <v>5.005480809979401</v>
       </c>
-      <c r="BH25">
+      <c r="BL25">
         <v>4.003805073565025</v>
       </c>
-      <c r="BI25">
+      <c r="BM25">
         <v>2.727541257028556</v>
       </c>
-      <c r="BJ25">
+      <c r="BN25">
         <v>4.95990911385232</v>
       </c>
-      <c r="BK25">
+      <c r="BO25">
         <v>4.003805073565025</v>
       </c>
-      <c r="BL25">
+      <c r="BP25">
         <v>2.674861140737812</v>
       </c>
-      <c r="BM25">
+      <c r="BQ25">
         <v>2.296665190261531</v>
       </c>
     </row>
-    <row r="26" spans="1:66">
+    <row r="26" spans="1:70">
       <c r="A26" s="1">
         <v>1350</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <v>9090</v>
@@ -5709,10 +5820,10 @@
         <v>2976149</v>
       </c>
       <c r="N26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9978622709428334</v>
+        <v>0.9978486559920501</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5724,16 +5835,16 @@
         <v>19</v>
       </c>
       <c r="S26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="T26">
-        <v>101.0912624108253</v>
+        <v>102.8267059565874</v>
       </c>
       <c r="U26">
         <v>20200508</v>
       </c>
       <c r="V26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="W26">
         <v>9090</v>
@@ -5757,16 +5868,16 @@
         <v>4421</v>
       </c>
       <c r="AG26" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AH26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AI26" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AJ26" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AK26">
         <v>409</v>
@@ -5774,97 +5885,100 @@
       <c r="AL26">
         <v>1478</v>
       </c>
-      <c r="AM26">
-        <v>404</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>81191</v>
-      </c>
       <c r="AP26">
-        <v>81191</v>
+        <v>9090</v>
       </c>
       <c r="AQ26">
         <v>404</v>
       </c>
       <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>81191</v>
+      </c>
+      <c r="AT26">
+        <v>81191</v>
+      </c>
+      <c r="AU26">
+        <v>404</v>
+      </c>
+      <c r="AV26">
         <v>13</v>
       </c>
-      <c r="AS26">
+      <c r="AW26">
         <v>36</v>
       </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
       <c r="AX26">
         <v>0</v>
       </c>
-      <c r="AZ26" t="s">
-        <v>116</v>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
       </c>
       <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE26">
         <v>1725.151877371961</v>
       </c>
-      <c r="BB26">
+      <c r="BF26">
         <v>0.003054282564481819</v>
       </c>
-      <c r="BC26">
+      <c r="BG26">
         <v>0.02422627361734913</v>
       </c>
-      <c r="BD26">
+      <c r="BH26">
         <v>11.2</v>
       </c>
-      <c r="BE26">
+      <c r="BI26">
         <v>0.02728055618183095</v>
       </c>
-      <c r="BF26">
+      <c r="BJ26">
         <v>6.473654670240083</v>
       </c>
-      <c r="BG26">
+      <c r="BK26">
         <v>4.909507890485442</v>
       </c>
-      <c r="BH26">
+      <c r="BL26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BI26">
+      <c r="BM26">
         <v>2.611723308007342</v>
       </c>
-      <c r="BJ26">
+      <c r="BN26">
         <v>4.857941288179487</v>
       </c>
-      <c r="BK26">
+      <c r="BO26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BL26">
+      <c r="BP26">
         <v>2.800717078282385</v>
       </c>
-      <c r="BM26">
+      <c r="BQ26">
         <v>2.089905111439398</v>
       </c>
-      <c r="BN26">
+      <c r="BR26">
         <v>1.763427993562937</v>
       </c>
     </row>
-    <row r="27" spans="1:66">
+    <row r="27" spans="1:70">
       <c r="A27" s="1">
         <v>1351</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <v>9733</v>
@@ -5888,10 +6002,10 @@
         <v>6137428</v>
       </c>
       <c r="N27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9912917610563617</v>
+        <v>0.9917559599894076</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5903,16 +6017,16 @@
         <v>11.9</v>
       </c>
       <c r="S27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="T27">
-        <v>54.79650222223759</v>
+        <v>56.12726848796172</v>
       </c>
       <c r="U27">
         <v>20200508</v>
       </c>
       <c r="V27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="W27">
         <v>9489</v>
@@ -5927,108 +6041,120 @@
         <v>143</v>
       </c>
       <c r="AG27" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AI27" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AJ27" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK27">
         <v>449</v>
       </c>
       <c r="AM27">
+        <v>113490</v>
+      </c>
+      <c r="AN27">
+        <v>11307</v>
+      </c>
+      <c r="AO27">
+        <v>101966</v>
+      </c>
+      <c r="AP27">
+        <v>9489</v>
+      </c>
+      <c r="AQ27">
         <v>148</v>
       </c>
-      <c r="AN27">
+      <c r="AR27">
         <v>4951</v>
       </c>
-      <c r="AO27">
+      <c r="AS27">
         <v>108721</v>
       </c>
-      <c r="AP27">
+      <c r="AT27">
         <v>108721</v>
       </c>
-      <c r="AQ27">
+      <c r="AU27">
         <v>5099</v>
       </c>
-      <c r="AR27">
+      <c r="AV27">
         <v>31</v>
       </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
       <c r="AW27">
         <v>0</v>
       </c>
       <c r="AX27">
         <v>0</v>
       </c>
-      <c r="AZ27" t="s">
-        <v>116</v>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
       </c>
       <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE27">
         <v>2477.383296948617</v>
       </c>
-      <c r="BB27">
+      <c r="BF27">
         <v>0.001546087383835705</v>
       </c>
-      <c r="BC27">
+      <c r="BG27">
         <v>0.01616833631286591</v>
       </c>
-      <c r="BD27">
+      <c r="BH27">
         <v>8.73</v>
       </c>
-      <c r="BE27">
+      <c r="BI27">
         <v>0.01771442369670162</v>
       </c>
-      <c r="BF27">
+      <c r="BJ27">
         <v>6.787986410322698</v>
       </c>
-      <c r="BG27">
+      <c r="BK27">
         <v>5.036313438320507</v>
       </c>
-      <c r="BH27">
+      <c r="BL27">
         <v>3.988246723375378</v>
       </c>
-      <c r="BI27">
+      <c r="BM27">
         <v>2.683947130751512</v>
       </c>
-      <c r="BJ27">
+      <c r="BN27">
         <v>4.996651744557233</v>
       </c>
-      <c r="BK27">
+      <c r="BO27">
         <v>3.977220446635385</v>
       </c>
-      <c r="BL27">
+      <c r="BP27">
         <v>2.920123326290724</v>
       </c>
-      <c r="BN27">
+      <c r="BR27">
         <v>2.155336037465062</v>
       </c>
     </row>
-    <row r="28" spans="1:66">
+    <row r="28" spans="1:70">
       <c r="A28" s="1">
         <v>1352</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>458</v>
@@ -6061,10 +6187,10 @@
         <v>1068778</v>
       </c>
       <c r="N28" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9529163452471159</v>
+        <v>0.9505697284698613</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6076,16 +6202,16 @@
         <v>10.3</v>
       </c>
       <c r="S28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="T28">
-        <v>62.32769822850587</v>
+        <v>64.77794955163456</v>
       </c>
       <c r="U28">
         <v>20200508</v>
       </c>
       <c r="V28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="W28">
         <v>458</v>
@@ -6103,16 +6229,16 @@
         <v>420</v>
       </c>
       <c r="AG28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI28" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ28" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK28">
         <v>16</v>
@@ -6120,33 +6246,24 @@
       <c r="AL28">
         <v>62</v>
       </c>
-      <c r="AM28">
+      <c r="AP28">
+        <v>458</v>
+      </c>
+      <c r="AQ28">
         <v>2</v>
       </c>
-      <c r="AN28">
+      <c r="AR28">
         <v>696</v>
       </c>
-      <c r="AO28">
+      <c r="AS28">
         <v>20945</v>
       </c>
-      <c r="AP28">
+      <c r="AT28">
         <v>20945</v>
       </c>
-      <c r="AQ28">
+      <c r="AU28">
         <v>698</v>
       </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
       <c r="AV28">
         <v>0</v>
       </c>
@@ -6156,55 +6273,67 @@
       <c r="AX28">
         <v>0</v>
       </c>
-      <c r="AZ28" t="s">
-        <v>116</v>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
       </c>
       <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE28">
         <v>1033.817198541406</v>
       </c>
-      <c r="BB28">
+      <c r="BF28">
         <v>0.0004285267847953457</v>
       </c>
-      <c r="BC28">
+      <c r="BG28">
         <v>0.01916862061157696</v>
       </c>
-      <c r="BD28">
+      <c r="BH28">
         <v>2.19</v>
       </c>
-      <c r="BE28">
+      <c r="BI28">
         <v>0.01959714739637231</v>
       </c>
-      <c r="BF28">
+      <c r="BJ28">
         <v>6.028887505594666</v>
       </c>
-      <c r="BG28">
+      <c r="BK28">
         <v>4.321080364697238</v>
       </c>
-      <c r="BH28">
+      <c r="BL28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BI28">
+      <c r="BM28">
         <v>1.204119982655925</v>
       </c>
-      <c r="BJ28">
+      <c r="BN28">
         <v>4.311478367438068</v>
       </c>
-      <c r="BK28">
+      <c r="BO28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BL28">
+      <c r="BP28">
         <v>0.7781512503836436</v>
       </c>
     </row>
-    <row r="29" spans="1:66">
+    <row r="29" spans="1:70">
       <c r="A29" s="1">
         <v>1353</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>7818</v>
@@ -6228,10 +6357,10 @@
         <v>1934408</v>
       </c>
       <c r="N29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9837659193988697</v>
+        <v>0.9820566780872245</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6243,16 +6372,16 @@
         <v>11</v>
       </c>
       <c r="S29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="T29">
-        <v>102.1322916378305</v>
+        <v>103.2668897030016</v>
       </c>
       <c r="U29">
         <v>20200508</v>
       </c>
       <c r="V29" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="W29">
         <v>7190</v>
@@ -6261,102 +6390,105 @@
         <v>33222</v>
       </c>
       <c r="AG29" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AH29" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AI29" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AJ29" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AK29">
         <v>90</v>
       </c>
-      <c r="AM29">
+      <c r="AP29">
+        <v>7190</v>
+      </c>
+      <c r="AQ29">
         <v>419</v>
       </c>
-      <c r="AN29">
+      <c r="AR29">
         <v>2235</v>
       </c>
-      <c r="AO29">
+      <c r="AS29">
         <v>40412</v>
       </c>
-      <c r="AP29">
+      <c r="AT29">
         <v>40412</v>
       </c>
-      <c r="AQ29">
+      <c r="AU29">
         <v>2654</v>
       </c>
-      <c r="AR29">
+      <c r="AV29">
         <v>4</v>
       </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
       <c r="AW29">
         <v>0</v>
       </c>
       <c r="AX29">
         <v>0</v>
       </c>
-      <c r="AZ29" t="s">
-        <v>116</v>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
       </c>
       <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE29">
         <v>1390.829968040666</v>
       </c>
-      <c r="BB29">
+      <c r="BF29">
         <v>0.003716899433831953</v>
       </c>
-      <c r="BC29">
+      <c r="BG29">
         <v>0.01717424659120517</v>
       </c>
-      <c r="BD29">
+      <c r="BH29">
         <v>17.79</v>
       </c>
-      <c r="BE29">
+      <c r="BI29">
         <v>0.02089114602503712</v>
       </c>
-      <c r="BF29">
+      <c r="BJ29">
         <v>6.286548079602651</v>
       </c>
-      <c r="BG29">
+      <c r="BK29">
         <v>4.606510344317186</v>
       </c>
-      <c r="BH29">
+      <c r="BL29">
         <v>3.893095666096228</v>
       </c>
-      <c r="BI29">
+      <c r="BM29">
         <v>1.954242509439325</v>
       </c>
-      <c r="BJ29">
+      <c r="BN29">
         <v>4.521425773895577</v>
       </c>
-      <c r="BK29">
+      <c r="BO29">
         <v>3.856728890382882</v>
       </c>
     </row>
-    <row r="30" spans="1:66">
+    <row r="30" spans="1:70">
       <c r="A30" s="1">
         <v>1354</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>5920</v>
@@ -6383,10 +6515,10 @@
         <v>3080156</v>
       </c>
       <c r="N30" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O30">
-        <v>0.994368604957158</v>
+        <v>0.9946701562846039</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6398,16 +6530,16 @@
         <v>13.1</v>
       </c>
       <c r="S30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="T30">
-        <v>88.55526679047672</v>
+        <v>91.29831732260644</v>
       </c>
       <c r="U30">
         <v>20200508</v>
       </c>
       <c r="V30" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="W30">
         <v>5884</v>
@@ -6419,102 +6551,108 @@
         <v>205</v>
       </c>
       <c r="AG30" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AH30" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AI30" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AJ30" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AK30">
         <v>293</v>
       </c>
       <c r="AM30">
+        <v>65544</v>
+      </c>
+      <c r="AP30">
+        <v>5884</v>
+      </c>
+      <c r="AQ30">
         <v>118</v>
       </c>
-      <c r="AN30">
+      <c r="AR30">
         <v>1869</v>
       </c>
-      <c r="AO30">
+      <c r="AS30">
         <v>53344</v>
       </c>
-      <c r="AP30">
+      <c r="AT30">
         <v>53344</v>
       </c>
-      <c r="AQ30">
+      <c r="AU30">
         <v>1987</v>
       </c>
-      <c r="AR30">
+      <c r="AV30">
         <v>7</v>
       </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
       <c r="AW30">
         <v>0</v>
       </c>
       <c r="AX30">
         <v>0</v>
       </c>
-      <c r="AZ30" t="s">
-        <v>116</v>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
       </c>
       <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE30">
         <v>1755.037321540485</v>
       </c>
-      <c r="BB30">
+      <c r="BF30">
         <v>0.001910292855296939</v>
       </c>
-      <c r="BC30">
+      <c r="BG30">
         <v>0.01540831048817008</v>
       </c>
-      <c r="BD30">
+      <c r="BH30">
         <v>11.03</v>
       </c>
-      <c r="BE30">
+      <c r="BI30">
         <v>0.01731860334346702</v>
       </c>
-      <c r="BF30">
+      <c r="BJ30">
         <v>6.488572712676902</v>
       </c>
-      <c r="BG30">
+      <c r="BK30">
         <v>4.727085578147912</v>
       </c>
-      <c r="BH30">
+      <c r="BL30">
         <v>3.77232170672292</v>
       </c>
-      <c r="BI30">
+      <c r="BM30">
         <v>2.468347330412157</v>
       </c>
-      <c r="BJ30">
+      <c r="BN30">
         <v>4.67632773388132</v>
       </c>
-      <c r="BK30">
+      <c r="BO30">
         <v>3.769672664055492</v>
       </c>
     </row>
-    <row r="31" spans="1:66">
+    <row r="31" spans="1:70">
       <c r="A31" s="1">
         <v>1355</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>2947</v>
@@ -6547,10 +6685,10 @@
         <v>1359711</v>
       </c>
       <c r="N31" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9925238701604046</v>
+        <v>0.9918535711705302</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6562,16 +6700,16 @@
         <v>6.6</v>
       </c>
       <c r="S31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="T31">
-        <v>100.9839882858451</v>
+        <v>102.4500267947299</v>
       </c>
       <c r="U31">
         <v>20200508</v>
       </c>
       <c r="V31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="W31">
         <v>2843</v>
@@ -6595,16 +6733,16 @@
         <v>1165</v>
       </c>
       <c r="AG31" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AI31" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AJ31" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AK31">
         <v>114</v>
@@ -6612,91 +6750,94 @@
       <c r="AL31">
         <v>308</v>
       </c>
-      <c r="AM31">
+      <c r="AP31">
+        <v>2843</v>
+      </c>
+      <c r="AQ31">
         <v>103</v>
       </c>
-      <c r="AN31">
+      <c r="AR31">
         <v>1763</v>
       </c>
-      <c r="AO31">
+      <c r="AS31">
         <v>31204</v>
       </c>
-      <c r="AP31">
+      <c r="AT31">
         <v>30672</v>
       </c>
-      <c r="AQ31">
+      <c r="AU31">
         <v>1866</v>
       </c>
-      <c r="AR31">
+      <c r="AV31">
         <v>3</v>
       </c>
-      <c r="AS31">
+      <c r="AW31">
         <v>1</v>
       </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
       <c r="AX31">
         <v>0</v>
       </c>
-      <c r="AZ31" t="s">
-        <v>116</v>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
       </c>
       <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE31">
         <v>1166.066464657997</v>
       </c>
-      <c r="BB31">
+      <c r="BF31">
         <v>0.002090885489637136</v>
       </c>
-      <c r="BC31">
+      <c r="BG31">
         <v>0.02046684920545616</v>
       </c>
-      <c r="BD31">
+      <c r="BH31">
         <v>9.27</v>
       </c>
-      <c r="BE31">
+      <c r="BI31">
         <v>0.02255773469509329</v>
       </c>
-      <c r="BF31">
+      <c r="BJ31">
         <v>6.133446610985868</v>
       </c>
-      <c r="BG31">
+      <c r="BK31">
         <v>4.486742095533987</v>
       </c>
-      <c r="BH31">
+      <c r="BL31">
         <v>3.469380135849925</v>
       </c>
-      <c r="BI31">
+      <c r="BM31">
         <v>2.08278537031645</v>
       </c>
-      <c r="BJ31">
+      <c r="BN31">
         <v>4.444497600790215</v>
       </c>
-      <c r="BK31">
+      <c r="BO31">
         <v>3.453776859690442</v>
       </c>
-      <c r="BL31">
+      <c r="BP31">
         <v>2.05307844348342</v>
       </c>
     </row>
-    <row r="32" spans="1:66">
+    <row r="32" spans="1:70">
       <c r="A32" s="1">
         <v>1356</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>135840</v>
@@ -6723,10 +6864,10 @@
         <v>8882190</v>
       </c>
       <c r="N32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9737299905787091</v>
+        <v>0.9739602934163588</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6738,16 +6879,16 @@
         <v>9.1</v>
       </c>
       <c r="S32" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="T32">
-        <v>166.1845452558043</v>
+        <v>170.544241502443</v>
       </c>
       <c r="U32">
         <v>20200508</v>
       </c>
       <c r="V32" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="W32">
         <v>135454</v>
@@ -6771,111 +6912,114 @@
         <v>15642</v>
       </c>
       <c r="AG32" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH32" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AI32" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AJ32" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK32">
         <v>8952</v>
       </c>
-      <c r="AM32">
+      <c r="AP32">
+        <v>135454</v>
+      </c>
+      <c r="AQ32">
         <v>1819</v>
       </c>
-      <c r="AN32">
+      <c r="AR32">
         <v>4282</v>
       </c>
-      <c r="AO32">
+      <c r="AS32">
         <v>299312</v>
       </c>
-      <c r="AP32">
+      <c r="AT32">
         <v>298759</v>
       </c>
-      <c r="AQ32">
+      <c r="AU32">
         <v>6101</v>
       </c>
-      <c r="AR32">
+      <c r="AV32">
         <v>151</v>
       </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
       <c r="AW32">
         <v>0</v>
       </c>
       <c r="AX32">
         <v>0</v>
       </c>
-      <c r="AZ32" t="s">
-        <v>116</v>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
       </c>
       <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE32">
         <v>2980.300320437523</v>
       </c>
-      <c r="BB32">
+      <c r="BF32">
         <v>0.01525006783237017</v>
       </c>
-      <c r="BC32">
+      <c r="BG32">
         <v>0.01838566839934746</v>
       </c>
-      <c r="BD32">
+      <c r="BH32">
         <v>45.34</v>
       </c>
-      <c r="BE32">
+      <c r="BI32">
         <v>0.03363573623171763</v>
       </c>
-      <c r="BF32">
+      <c r="BJ32">
         <v>6.948520058982782</v>
       </c>
-      <c r="BG32">
+      <c r="BK32">
         <v>5.475320997107535</v>
       </c>
-      <c r="BH32">
+      <c r="BL32">
         <v>5.133027672899877</v>
       </c>
-      <c r="BI32">
+      <c r="BM32">
         <v>3.952308009662125</v>
       </c>
-      <c r="BJ32">
+      <c r="BN32">
         <v>5.2129994819759</v>
       </c>
-      <c r="BK32">
+      <c r="BO32">
         <v>5.131791834413688</v>
       </c>
-      <c r="BL32">
+      <c r="BP32">
         <v>3.663229634532868</v>
       </c>
-      <c r="BM32">
+      <c r="BQ32">
         <v>3.158060793936605</v>
       </c>
-      <c r="BN32">
+      <c r="BR32">
         <v>3.037027879755775</v>
       </c>
     </row>
-    <row r="33" spans="1:66">
+    <row r="33" spans="1:70">
       <c r="A33" s="1">
         <v>1357</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D33">
         <v>4673</v>
@@ -6908,10 +7052,10 @@
         <v>2096829</v>
       </c>
       <c r="N33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9936539885055362</v>
+        <v>0.993520876276621</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6923,16 +7067,16 @@
         <v>18.2</v>
       </c>
       <c r="S33" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="T33">
-        <v>166.9785116831082</v>
+        <v>169.0764531377485</v>
       </c>
       <c r="U33">
         <v>20200508</v>
       </c>
       <c r="V33" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="W33">
         <v>4493</v>
@@ -6950,16 +7094,16 @@
         <v>1125</v>
       </c>
       <c r="AG33" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH33" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AI33" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AJ33" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AK33">
         <v>172</v>
@@ -6967,91 +7111,94 @@
       <c r="AL33">
         <v>760</v>
       </c>
-      <c r="AM33">
+      <c r="AP33">
+        <v>4493</v>
+      </c>
+      <c r="AQ33">
         <v>202</v>
       </c>
-      <c r="AN33">
+      <c r="AR33">
         <v>3146</v>
       </c>
-      <c r="AO33">
+      <c r="AS33">
         <v>89032</v>
       </c>
-      <c r="AP33">
+      <c r="AT33">
         <v>89032</v>
       </c>
-      <c r="AQ33">
+      <c r="AU33">
         <v>3348</v>
       </c>
-      <c r="AR33">
+      <c r="AV33">
         <v>3</v>
       </c>
-      <c r="AS33">
+      <c r="AW33">
         <v>73</v>
       </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
       <c r="AX33">
         <v>0</v>
       </c>
-      <c r="AZ33" t="s">
-        <v>116</v>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
       </c>
       <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE33">
         <v>1448.043162340129</v>
       </c>
-      <c r="BB33">
+      <c r="BF33">
         <v>0.002142759376181844</v>
       </c>
-      <c r="BC33">
+      <c r="BG33">
         <v>0.04031754616137034</v>
       </c>
-      <c r="BD33">
+      <c r="BH33">
         <v>5.05</v>
       </c>
-      <c r="BE33">
+      <c r="BI33">
         <v>0.04246030553755218</v>
       </c>
-      <c r="BF33">
+      <c r="BJ33">
         <v>6.321563014449838</v>
       </c>
-      <c r="BG33">
+      <c r="BK33">
         <v>4.949546129404536</v>
       </c>
-      <c r="BH33">
+      <c r="BL33">
         <v>3.669595781024313</v>
       </c>
-      <c r="BI33">
+      <c r="BM33">
         <v>2.257678574869185</v>
       </c>
-      <c r="BJ33">
+      <c r="BN33">
         <v>4.927057106314735</v>
       </c>
-      <c r="BK33">
+      <c r="BO33">
         <v>3.652536418593026</v>
       </c>
-      <c r="BL33">
+      <c r="BP33">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="34" spans="1:66">
+    <row r="34" spans="1:70">
       <c r="A34" s="1">
         <v>1358</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D34">
         <v>330407</v>
@@ -7084,10 +7231,10 @@
         <v>19453561</v>
       </c>
       <c r="N34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9793009284553048</v>
+        <v>0.9798069645759681</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7099,16 +7246,16 @@
         <v>11.9</v>
       </c>
       <c r="S34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T34">
-        <v>168.4150546551692</v>
+        <v>173.4322275239563</v>
       </c>
       <c r="U34">
         <v>20200508</v>
       </c>
       <c r="V34" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="W34">
         <v>330407</v>
@@ -7132,16 +7279,16 @@
         <v>56378</v>
       </c>
       <c r="AG34" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH34" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI34" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ34" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK34">
         <v>21045</v>
@@ -7149,97 +7296,100 @@
       <c r="AL34">
         <v>82730</v>
       </c>
-      <c r="AM34">
+      <c r="AP34">
+        <v>330407</v>
+      </c>
+      <c r="AQ34">
         <v>2758</v>
       </c>
-      <c r="AN34">
+      <c r="AR34">
         <v>28869</v>
       </c>
-      <c r="AO34">
+      <c r="AS34">
         <v>1121543</v>
       </c>
-      <c r="AP34">
+      <c r="AT34">
         <v>1121543</v>
       </c>
-      <c r="AQ34">
+      <c r="AU34">
         <v>31627</v>
       </c>
-      <c r="AR34">
+      <c r="AV34">
         <v>217</v>
       </c>
-      <c r="AS34">
+      <c r="AW34">
         <v>533</v>
       </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>0</v>
-      </c>
-      <c r="AW34">
-        <v>0</v>
-      </c>
       <c r="AX34">
         <v>0</v>
       </c>
-      <c r="AZ34" t="s">
-        <v>116</v>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
       </c>
       <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE34">
         <v>4410.619117538942</v>
       </c>
-      <c r="BB34">
+      <c r="BF34">
         <v>0.01698439684127754</v>
       </c>
-      <c r="BC34">
+      <c r="BG34">
         <v>0.04066792707001047</v>
       </c>
-      <c r="BD34">
+      <c r="BH34">
         <v>29.46</v>
       </c>
-      <c r="BE34">
+      <c r="BI34">
         <v>0.05765232391128802</v>
       </c>
-      <c r="BF34">
+      <c r="BJ34">
         <v>7.288999111116478</v>
       </c>
-      <c r="BG34">
+      <c r="BK34">
         <v>6.049815929104652</v>
       </c>
-      <c r="BH34">
+      <c r="BL34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BI34">
+      <c r="BM34">
         <v>4.419013480435807</v>
       </c>
-      <c r="BJ34">
+      <c r="BN34">
         <v>5.898251147179793</v>
       </c>
-      <c r="BK34">
+      <c r="BO34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BL34">
+      <c r="BP34">
         <v>3.913601949729157</v>
       </c>
-      <c r="BM34">
+      <c r="BQ34">
         <v>3.448860845607441</v>
       </c>
-      <c r="BN34">
+      <c r="BR34">
         <v>3.36078268987328</v>
       </c>
     </row>
-    <row r="35" spans="1:66">
+    <row r="35" spans="1:70">
       <c r="A35" s="1">
         <v>1359</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D35">
         <v>14006</v>
@@ -7263,10 +7413,10 @@
         <v>10488084</v>
       </c>
       <c r="N35" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O35">
-        <v>0.997550981298067</v>
+        <v>0.9973060469525937</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7278,16 +7428,16 @@
         <v>14.1</v>
       </c>
       <c r="S35" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T35">
-        <v>76.80890177715415</v>
+        <v>79.14793160138703</v>
       </c>
       <c r="U35">
         <v>20200508</v>
       </c>
       <c r="V35" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="W35">
         <v>13868</v>
@@ -7299,105 +7449,108 @@
         <v>515</v>
       </c>
       <c r="AG35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH35" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AI35" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AJ35" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK35">
         <v>527</v>
       </c>
-      <c r="AM35">
+      <c r="AP35">
+        <v>13868</v>
+      </c>
+      <c r="AQ35">
         <v>471</v>
       </c>
-      <c r="AN35">
+      <c r="AR35">
         <v>6814</v>
       </c>
-      <c r="AO35">
+      <c r="AS35">
         <v>178613</v>
       </c>
-      <c r="AP35">
+      <c r="AT35">
         <v>178613</v>
       </c>
-      <c r="AQ35">
+      <c r="AU35">
         <v>7285</v>
       </c>
-      <c r="AR35">
+      <c r="AV35">
         <v>20</v>
       </c>
-      <c r="AS35">
-        <v>0</v>
-      </c>
-      <c r="AT35">
-        <v>0</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-      <c r="AV35">
-        <v>0</v>
-      </c>
       <c r="AW35">
         <v>0</v>
       </c>
       <c r="AX35">
         <v>0</v>
       </c>
-      <c r="AZ35" t="s">
-        <v>116</v>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
       </c>
       <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE35">
         <v>3238.531148530148</v>
       </c>
-      <c r="BB35">
+      <c r="BF35">
         <v>0.001322262483786362</v>
       </c>
-      <c r="BC35">
+      <c r="BG35">
         <v>0.01570782613869225</v>
       </c>
-      <c r="BD35">
+      <c r="BH35">
         <v>7.76</v>
       </c>
-      <c r="BE35">
+      <c r="BI35">
         <v>0.01703008862247862</v>
       </c>
-      <c r="BF35">
+      <c r="BJ35">
         <v>7.02069615699919</v>
       </c>
-      <c r="BG35">
+      <c r="BK35">
         <v>5.251913064982536</v>
       </c>
-      <c r="BH35">
+      <c r="BL35">
         <v>4.146314122011972</v>
       </c>
-      <c r="BI35">
+      <c r="BM35">
         <v>2.724275869600789</v>
       </c>
-      <c r="BJ35">
+      <c r="BN35">
         <v>5.216812242656875</v>
       </c>
-      <c r="BK35">
+      <c r="BO35">
         <v>4.142013832984359</v>
       </c>
-      <c r="BL35">
+      <c r="BP35">
         <v>2.711807229041191</v>
       </c>
     </row>
-    <row r="36" spans="1:66">
+    <row r="36" spans="1:70">
       <c r="A36" s="1">
         <v>1360</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D36">
         <v>1425</v>
@@ -7430,10 +7583,10 @@
         <v>762062</v>
       </c>
       <c r="N36" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9901750025648772</v>
+        <v>0.9891789477494035</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7445,16 +7598,16 @@
         <v>11.1</v>
       </c>
       <c r="S36" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="T36">
-        <v>164.5572942279932</v>
+        <v>162.7215015431649</v>
       </c>
       <c r="U36">
         <v>20200508</v>
       </c>
       <c r="V36" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="W36">
         <v>1425</v>
@@ -7472,16 +7625,16 @@
         <v>714</v>
       </c>
       <c r="AG36" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH36" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AI36" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AJ36" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK36">
         <v>33</v>
@@ -7489,91 +7642,94 @@
       <c r="AL36">
         <v>104</v>
       </c>
-      <c r="AM36">
+      <c r="AP36">
+        <v>1425</v>
+      </c>
+      <c r="AQ36">
         <v>54</v>
       </c>
-      <c r="AN36">
+      <c r="AR36">
         <v>1580</v>
       </c>
-      <c r="AO36">
+      <c r="AS36">
         <v>42501</v>
       </c>
-      <c r="AP36">
+      <c r="AT36">
         <v>42501</v>
       </c>
-      <c r="AQ36">
+      <c r="AU36">
         <v>1634</v>
       </c>
-      <c r="AR36">
+      <c r="AV36">
         <v>2</v>
       </c>
-      <c r="AS36">
+      <c r="AW36">
         <v>2</v>
       </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
       <c r="AX36">
         <v>0</v>
       </c>
-      <c r="AZ36" t="s">
-        <v>116</v>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
       </c>
       <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE36">
         <v>872.9616257316241</v>
       </c>
-      <c r="BB36">
+      <c r="BF36">
         <v>0.001869926593899184</v>
       </c>
-      <c r="BC36">
+      <c r="BG36">
         <v>0.05390112615508974</v>
       </c>
-      <c r="BD36">
+      <c r="BH36">
         <v>3.35</v>
       </c>
-      <c r="BE36">
+      <c r="BI36">
         <v>0.05577105274898893</v>
       </c>
-      <c r="BF36">
+      <c r="BJ36">
         <v>5.88199030619854</v>
       </c>
-      <c r="BG36">
+      <c r="BK36">
         <v>4.628399148623785</v>
       </c>
-      <c r="BH36">
+      <c r="BL36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BI36">
+      <c r="BM36">
         <v>1.518513939877888</v>
       </c>
-      <c r="BJ36">
+      <c r="BN36">
         <v>4.613588145185502</v>
       </c>
-      <c r="BK36">
+      <c r="BO36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BL36">
+      <c r="BP36">
         <v>1.518513939877888</v>
       </c>
     </row>
-    <row r="37" spans="1:66">
+    <row r="37" spans="1:70">
       <c r="A37" s="1">
         <v>1361</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D37">
         <v>23016</v>
@@ -7603,10 +7759,10 @@
         <v>11689100</v>
       </c>
       <c r="N37" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9890771811123032</v>
+        <v>0.9887029791326553</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7618,16 +7774,16 @@
         <v>12.4</v>
       </c>
       <c r="S37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="T37">
-        <v>62.95974263609615</v>
+        <v>64.19673863069333</v>
       </c>
       <c r="U37">
         <v>20200508</v>
       </c>
       <c r="V37" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="W37">
         <v>23016</v>
@@ -7651,16 +7807,16 @@
         <v>274</v>
       </c>
       <c r="AG37" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH37" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AI37" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AJ37" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AK37">
         <v>1306</v>
@@ -7668,97 +7824,100 @@
       <c r="AL37">
         <v>4218</v>
       </c>
-      <c r="AM37">
+      <c r="AP37">
+        <v>21969</v>
+      </c>
+      <c r="AQ37">
         <v>885</v>
       </c>
-      <c r="AN37">
+      <c r="AR37">
         <v>7372</v>
       </c>
-      <c r="AO37">
+      <c r="AS37">
         <v>184316</v>
       </c>
-      <c r="AP37">
+      <c r="AT37">
         <v>184316</v>
       </c>
-      <c r="AQ37">
+      <c r="AU37">
         <v>8257</v>
       </c>
-      <c r="AR37">
+      <c r="AV37">
         <v>35</v>
       </c>
-      <c r="AS37">
+      <c r="AW37">
         <v>78</v>
       </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <v>0</v>
-      </c>
-      <c r="AW37">
-        <v>0</v>
-      </c>
       <c r="AX37">
         <v>0</v>
       </c>
-      <c r="AZ37" t="s">
-        <v>116</v>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
       </c>
       <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE37">
         <v>3418.932581961803</v>
       </c>
-      <c r="BB37">
+      <c r="BF37">
         <v>0.001969013867620262</v>
       </c>
-      <c r="BC37">
+      <c r="BG37">
         <v>0.01379918043305301</v>
       </c>
-      <c r="BD37">
+      <c r="BH37">
         <v>12.49</v>
       </c>
-      <c r="BE37">
+      <c r="BI37">
         <v>0.01576819430067328</v>
       </c>
-      <c r="BF37">
+      <c r="BJ37">
         <v>7.067781074029195</v>
       </c>
-      <c r="BG37">
+      <c r="BK37">
         <v>5.265563036847407</v>
       </c>
-      <c r="BH37">
+      <c r="BL37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BI37">
+      <c r="BM37">
         <v>3.115943176939055</v>
       </c>
-      <c r="BJ37">
+      <c r="BN37">
         <v>5.207634367388962</v>
       </c>
-      <c r="BK37">
+      <c r="BO37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BL37">
+      <c r="BP37">
         <v>3.02530586526477</v>
       </c>
-      <c r="BM37">
+      <c r="BQ37">
         <v>2.594392550375427</v>
       </c>
-      <c r="BN37">
+      <c r="BR37">
         <v>2.437750562820388</v>
       </c>
     </row>
-    <row r="38" spans="1:66">
+    <row r="38" spans="1:70">
       <c r="A38" s="1">
         <v>1362</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <v>4424</v>
@@ -7791,10 +7950,10 @@
         <v>3956971</v>
       </c>
       <c r="N38" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9934250819759625</v>
+        <v>0.9937768178071372</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7806,16 +7965,16 @@
         <v>13.1</v>
       </c>
       <c r="S38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="T38">
-        <v>92.68996161533292</v>
+        <v>93.72642615151607</v>
       </c>
       <c r="U38">
         <v>20200508</v>
       </c>
       <c r="V38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="W38">
         <v>4424</v>
@@ -7836,16 +7995,16 @@
         <v>3064</v>
       </c>
       <c r="AG38" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH38" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI38" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ38" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK38">
         <v>266</v>
@@ -7854,93 +8013,102 @@
         <v>805</v>
       </c>
       <c r="AM38">
+        <v>89857</v>
+      </c>
+      <c r="AN38">
+        <v>4779</v>
+      </c>
+      <c r="AO38">
+        <v>85078</v>
+      </c>
+      <c r="AQ38">
         <v>94</v>
       </c>
-      <c r="AN38">
+      <c r="AR38">
         <v>2876</v>
       </c>
-      <c r="AO38">
+      <c r="AS38">
         <v>89857</v>
       </c>
-      <c r="AP38">
+      <c r="AT38">
         <v>89857</v>
       </c>
-      <c r="AQ38">
+      <c r="AU38">
         <v>2970</v>
       </c>
-      <c r="AR38">
+      <c r="AV38">
         <v>6</v>
       </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
       <c r="AW38">
         <v>0</v>
       </c>
       <c r="AX38">
         <v>0</v>
       </c>
-      <c r="AZ38" t="s">
-        <v>116</v>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
       </c>
       <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE38">
         <v>1989.213663737508</v>
       </c>
-      <c r="BB38">
+      <c r="BF38">
         <v>0.001118026894814241</v>
       </c>
-      <c r="BC38">
+      <c r="BG38">
         <v>0.0215905044540382</v>
       </c>
-      <c r="BD38">
+      <c r="BH38">
         <v>4.92</v>
       </c>
-      <c r="BE38">
+      <c r="BI38">
         <v>0.02270853134885244</v>
       </c>
-      <c r="BF38">
+      <c r="BJ38">
         <v>6.597362867403726</v>
       </c>
-      <c r="BG38">
+      <c r="BK38">
         <v>4.953551914978187</v>
       </c>
-      <c r="BH38">
+      <c r="BL38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BI38">
+      <c r="BM38">
         <v>2.424881636631067</v>
       </c>
-      <c r="BJ38">
+      <c r="BN38">
         <v>4.931625656984171</v>
       </c>
-      <c r="BK38">
+      <c r="BO38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BL38">
+      <c r="BP38">
         <v>2.357934847000454</v>
       </c>
-      <c r="BM38">
+      <c r="BQ38">
         <v>1.982271233039568</v>
       </c>
     </row>
-    <row r="39" spans="1:66">
+    <row r="39" spans="1:70">
       <c r="A39" s="1">
         <v>1363</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D39">
         <v>3068</v>
@@ -7973,10 +8141,10 @@
         <v>4217737</v>
       </c>
       <c r="N39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9945118635223885</v>
+        <v>0.9946857838955718</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7988,16 +8156,16 @@
         <v>10.6</v>
       </c>
       <c r="S39" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="T39">
-        <v>50.42830485346379</v>
+        <v>51.12310290936029</v>
       </c>
       <c r="U39">
         <v>20200508</v>
       </c>
       <c r="V39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="W39">
         <v>3068</v>
@@ -8021,16 +8189,16 @@
         <v>1125</v>
       </c>
       <c r="AG39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH39" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AI39" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AJ39" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK39">
         <v>124</v>
@@ -8038,97 +8206,100 @@
       <c r="AL39">
         <v>659</v>
       </c>
-      <c r="AM39">
+      <c r="AP39">
+        <v>3032</v>
+      </c>
+      <c r="AQ39">
         <v>79</v>
       </c>
-      <c r="AN39">
+      <c r="AR39">
         <v>2156</v>
       </c>
-      <c r="AO39">
+      <c r="AS39">
         <v>72693</v>
       </c>
-      <c r="AP39">
+      <c r="AT39">
         <v>72693</v>
       </c>
-      <c r="AQ39">
+      <c r="AU39">
         <v>2235</v>
       </c>
-      <c r="AR39">
+      <c r="AV39">
         <v>3</v>
       </c>
-      <c r="AS39">
+      <c r="AW39">
         <v>14</v>
       </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
       <c r="AX39">
         <v>0</v>
       </c>
-      <c r="AZ39" t="s">
-        <v>116</v>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
       </c>
       <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE39">
         <v>2053.712978972475</v>
       </c>
-      <c r="BB39">
+      <c r="BF39">
         <v>0.0007274042928707978</v>
       </c>
-      <c r="BC39">
+      <c r="BG39">
         <v>0.01650766750036809</v>
       </c>
-      <c r="BD39">
+      <c r="BH39">
         <v>4.22</v>
       </c>
-      <c r="BE39">
+      <c r="BI39">
         <v>0.01723507179323889</v>
       </c>
-      <c r="BF39">
+      <c r="BJ39">
         <v>6.625079495505463</v>
       </c>
-      <c r="BG39">
+      <c r="BK39">
         <v>4.861492592320653</v>
       </c>
-      <c r="BH39">
+      <c r="BL39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BI39">
+      <c r="BM39">
         <v>2.093421685162235</v>
       </c>
-      <c r="BJ39">
+      <c r="BN39">
         <v>4.842765208181786</v>
       </c>
-      <c r="BK39">
+      <c r="BO39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BL39">
+      <c r="BP39">
         <v>2.201397124320451</v>
       </c>
-      <c r="BM39">
+      <c r="BQ39">
         <v>1.623249290397901</v>
       </c>
-      <c r="BN39">
+      <c r="BR39">
         <v>1.255272505103306</v>
       </c>
     </row>
-    <row r="40" spans="1:66">
+    <row r="40" spans="1:70">
       <c r="A40" s="1">
         <v>1364</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D40">
         <v>57371</v>
@@ -8152,10 +8323,10 @@
         <v>12801989</v>
       </c>
       <c r="N40" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O40">
-        <v>0.979498446466621</v>
+        <v>0.979422127096867</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8167,16 +8338,16 @@
         <v>11.4</v>
       </c>
       <c r="S40" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="T40">
-        <v>55.06791125254009</v>
+        <v>55.7214401431692</v>
       </c>
       <c r="U40">
         <v>20200508</v>
       </c>
       <c r="V40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="W40">
         <v>54238</v>
@@ -8191,108 +8362,108 @@
         <v>517</v>
       </c>
       <c r="AG40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI40" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ40" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK40">
         <v>3616</v>
       </c>
-      <c r="AM40">
+      <c r="AQ40">
         <v>1323</v>
       </c>
-      <c r="AN40">
+      <c r="AR40">
         <v>6448</v>
       </c>
-      <c r="AO40">
+      <c r="AS40">
         <v>270559</v>
       </c>
-      <c r="AP40">
+      <c r="AT40">
         <v>270559</v>
       </c>
-      <c r="AQ40">
+      <c r="AU40">
         <v>7771</v>
       </c>
-      <c r="AR40">
+      <c r="AV40">
         <v>200</v>
       </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
       <c r="AW40">
         <v>0</v>
       </c>
       <c r="AX40">
         <v>0</v>
       </c>
-      <c r="AZ40" t="s">
-        <v>116</v>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
       </c>
       <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE40">
         <v>3577.986724402426</v>
       </c>
-      <c r="BB40">
+      <c r="BF40">
         <v>0.004236685408806397</v>
       </c>
-      <c r="BC40">
+      <c r="BG40">
         <v>0.01689745241930765</v>
       </c>
-      <c r="BD40">
+      <c r="BH40">
         <v>20.05</v>
       </c>
-      <c r="BE40">
+      <c r="BI40">
         <v>0.02113413782811405</v>
       </c>
-      <c r="BF40">
+      <c r="BJ40">
         <v>7.107277449696098</v>
       </c>
-      <c r="BG40">
+      <c r="BK40">
         <v>5.432261985081858</v>
       </c>
-      <c r="BH40">
+      <c r="BL40">
         <v>4.758692419878901</v>
       </c>
-      <c r="BI40">
+      <c r="BM40">
         <v>3.569958818096594</v>
       </c>
-      <c r="BJ40">
+      <c r="BN40">
         <v>5.335098681905209</v>
       </c>
-      <c r="BK40">
+      <c r="BO40">
         <v>4.73430366675543</v>
       </c>
-      <c r="BL40">
+      <c r="BP40">
         <v>3.369586890736344</v>
       </c>
-      <c r="BN40">
+      <c r="BR40">
         <v>2.713490543093942</v>
       </c>
     </row>
-    <row r="41" spans="1:66">
+    <row r="41" spans="1:70">
       <c r="A41" s="1">
         <v>1365</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D41">
         <v>10779</v>
@@ -8325,10 +8496,10 @@
         <v>1059361</v>
       </c>
       <c r="N41" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9668833330442788</v>
+        <v>0.9657926167783195</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8340,16 +8511,16 @@
         <v>10.1</v>
       </c>
       <c r="S41" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="T41">
-        <v>265.4171279305548</v>
+        <v>266.6628028150053</v>
       </c>
       <c r="U41">
         <v>20200508</v>
       </c>
       <c r="V41" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="W41">
         <v>10779</v>
@@ -8373,16 +8544,16 @@
         <v>730</v>
       </c>
       <c r="AG41" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH41" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AI41" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AJ41" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AK41">
         <v>399</v>
@@ -8390,97 +8561,100 @@
       <c r="AL41">
         <v>1187</v>
       </c>
-      <c r="AM41">
+      <c r="AP41">
+        <v>10779</v>
+      </c>
+      <c r="AQ41">
         <v>249</v>
       </c>
-      <c r="AN41">
+      <c r="AR41">
         <v>2699</v>
       </c>
-      <c r="AO41">
+      <c r="AS41">
         <v>85266</v>
       </c>
-      <c r="AP41">
+      <c r="AT41">
         <v>85266</v>
       </c>
-      <c r="AQ41">
+      <c r="AU41">
         <v>2948</v>
       </c>
-      <c r="AR41">
+      <c r="AV41">
         <v>11</v>
       </c>
-      <c r="AS41">
+      <c r="AW41">
         <v>34</v>
       </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
       <c r="AX41">
         <v>0</v>
       </c>
-      <c r="AZ41" t="s">
-        <v>116</v>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
       </c>
       <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE41">
         <v>1029.25264148313</v>
       </c>
-      <c r="BB41">
+      <c r="BF41">
         <v>0.01017500172273663</v>
       </c>
-      <c r="BC41">
+      <c r="BG41">
         <v>0.07031314160139933</v>
       </c>
-      <c r="BD41">
+      <c r="BH41">
         <v>12.64</v>
       </c>
-      <c r="BE41">
+      <c r="BI41">
         <v>0.08048814332413597</v>
       </c>
-      <c r="BF41">
+      <c r="BJ41">
         <v>6.025043980496346</v>
       </c>
-      <c r="BG41">
+      <c r="BK41">
         <v>4.930775889831263</v>
       </c>
-      <c r="BH41">
+      <c r="BL41">
         <v>4.032578471924312</v>
       </c>
-      <c r="BI41">
+      <c r="BM41">
         <v>2.600972895686748</v>
       </c>
-      <c r="BJ41">
+      <c r="BN41">
         <v>4.872080483205862</v>
       </c>
-      <c r="BK41">
+      <c r="BO41">
         <v>4.032578471924312</v>
       </c>
-      <c r="BL41">
+      <c r="BP41">
         <v>2.494154594018443</v>
       </c>
-      <c r="BM41">
+      <c r="BQ41">
         <v>1.851258348719075</v>
       </c>
-      <c r="BN41">
+      <c r="BR41">
         <v>1.716003343634799</v>
       </c>
     </row>
-    <row r="42" spans="1:66">
+    <row r="42" spans="1:70">
       <c r="A42" s="1">
         <v>1366</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>7367</v>
@@ -8513,10 +8687,10 @@
         <v>5148714</v>
       </c>
       <c r="N42" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9938860635946761</v>
+        <v>0.992165636380125</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8528,16 +8702,16 @@
         <v>14</v>
       </c>
       <c r="S42" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="T42">
-        <v>75.9650710016145</v>
+        <v>76.53315393432467</v>
       </c>
       <c r="U42">
         <v>20200508</v>
       </c>
       <c r="V42" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="W42">
         <v>7142</v>
@@ -8552,16 +8726,16 @@
         <v>3816</v>
       </c>
       <c r="AG42" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH42" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AI42" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AJ42" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK42">
         <v>316</v>
@@ -8569,88 +8743,88 @@
       <c r="AL42">
         <v>1152</v>
       </c>
-      <c r="AM42">
+      <c r="AQ42">
         <v>206</v>
       </c>
-      <c r="AN42">
+      <c r="AR42">
         <v>-4246</v>
       </c>
-      <c r="AO42">
+      <c r="AS42">
         <v>73442</v>
       </c>
-      <c r="AP42">
+      <c r="AT42">
         <v>73442</v>
       </c>
-      <c r="AQ42">
+      <c r="AU42">
         <v>-4040</v>
       </c>
-      <c r="AR42">
+      <c r="AV42">
         <v>11</v>
       </c>
-      <c r="AS42">
-        <v>0</v>
-      </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AV42">
-        <v>0</v>
-      </c>
       <c r="AW42">
         <v>0</v>
       </c>
       <c r="AX42">
         <v>0</v>
       </c>
-      <c r="AZ42" t="s">
-        <v>116</v>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
       </c>
       <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE42">
         <v>2269.077786238277</v>
       </c>
-      <c r="BB42">
+      <c r="BF42">
         <v>0.001387142498107294</v>
       </c>
-      <c r="BC42">
+      <c r="BG42">
         <v>0.01287700190766083</v>
       </c>
-      <c r="BD42">
+      <c r="BH42">
         <v>9.720000000000001</v>
       </c>
-      <c r="BE42">
+      <c r="BI42">
         <v>0.01426414440576812</v>
       </c>
-      <c r="BF42">
+      <c r="BJ42">
         <v>6.711698768371901</v>
       </c>
-      <c r="BG42">
+      <c r="BK42">
         <v>4.865944495223916</v>
       </c>
-      <c r="BH42">
+      <c r="BL42">
         <v>3.867290669854884</v>
       </c>
-      <c r="BI42">
+      <c r="BM42">
         <v>2.505149978319906</v>
       </c>
-      <c r="BJ42">
+      <c r="BN42">
         <v>4.821513528404773</v>
       </c>
-      <c r="BK42">
+      <c r="BO42">
         <v>3.853819845856763</v>
       </c>
     </row>
-    <row r="43" spans="1:66">
+    <row r="43" spans="1:70">
       <c r="A43" s="1">
         <v>1367</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D43">
         <v>3145</v>
@@ -8683,10 +8857,10 @@
         <v>884659</v>
       </c>
       <c r="N43" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9819720089583696</v>
+        <v>0.9818744124900807</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8698,16 +8872,16 @@
         <v>10.7</v>
       </c>
       <c r="S43" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="T43">
-        <v>84.15526111760886</v>
+        <v>87.4885733660257</v>
       </c>
       <c r="U43">
         <v>20200508</v>
       </c>
       <c r="V43" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="W43">
         <v>3144</v>
@@ -8725,16 +8899,16 @@
         <v>2069</v>
       </c>
       <c r="AG43" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH43" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AI43" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AJ43" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AK43">
         <v>31</v>
@@ -8742,91 +8916,94 @@
       <c r="AL43">
         <v>247</v>
       </c>
-      <c r="AM43">
+      <c r="AP43">
+        <v>3144</v>
+      </c>
+      <c r="AQ43">
         <v>239</v>
       </c>
-      <c r="AN43">
+      <c r="AR43">
         <v>940</v>
       </c>
-      <c r="AO43">
+      <c r="AS43">
         <v>21293</v>
       </c>
-      <c r="AP43">
+      <c r="AT43">
         <v>21293</v>
       </c>
-      <c r="AQ43">
+      <c r="AU43">
         <v>1179</v>
       </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
         <v>11</v>
       </c>
-      <c r="AT43">
-        <v>0</v>
-      </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
       <c r="AX43">
         <v>0</v>
       </c>
-      <c r="AZ43" t="s">
-        <v>116</v>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
       </c>
       <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE43">
         <v>940.5631291944204</v>
       </c>
-      <c r="BB43">
+      <c r="BF43">
         <v>0.003553911733221501</v>
       </c>
-      <c r="BC43">
+      <c r="BG43">
         <v>0.02051524937857412</v>
       </c>
-      <c r="BD43">
+      <c r="BH43">
         <v>14.77</v>
       </c>
-      <c r="BE43">
+      <c r="BI43">
         <v>0.02406916111179562</v>
       </c>
-      <c r="BF43">
+      <c r="BJ43">
         <v>5.94677590012512</v>
       </c>
-      <c r="BG43">
+      <c r="BK43">
         <v>4.328236854094916</v>
       </c>
-      <c r="BH43">
+      <c r="BL43">
         <v>3.497620649781288</v>
       </c>
-      <c r="BI43">
+      <c r="BM43">
         <v>1.491361693834273</v>
       </c>
-      <c r="BJ43">
+      <c r="BN43">
         <v>4.258852700642303</v>
       </c>
-      <c r="BK43">
+      <c r="BO43">
         <v>3.49748253736737</v>
       </c>
-      <c r="BL43">
+      <c r="BP43">
         <v>1.880813592280791</v>
       </c>
     </row>
-    <row r="44" spans="1:66">
+    <row r="44" spans="1:70">
       <c r="A44" s="1">
         <v>1368</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <v>14441</v>
@@ -8859,10 +9036,10 @@
         <v>6829174</v>
       </c>
       <c r="N44" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9966574390188033</v>
+        <v>0.9969107270086153</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -8874,16 +9051,16 @@
         <v>11.7</v>
       </c>
       <c r="S44" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="T44">
-        <v>117.3390084459877</v>
+        <v>117.6745662856599</v>
       </c>
       <c r="U44">
         <v>20200508</v>
       </c>
       <c r="V44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="W44">
         <v>14441</v>
@@ -8898,16 +9075,16 @@
         <v>7011</v>
       </c>
       <c r="AG44" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH44" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI44" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ44" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK44">
         <v>241</v>
@@ -8915,88 +9092,91 @@
       <c r="AL44">
         <v>1299</v>
       </c>
-      <c r="AM44">
+      <c r="AP44">
+        <v>14441</v>
+      </c>
+      <c r="AQ44">
         <v>345</v>
       </c>
-      <c r="AN44">
+      <c r="AR44">
         <v>6905</v>
       </c>
-      <c r="AO44">
+      <c r="AS44">
         <v>243578</v>
       </c>
-      <c r="AP44">
+      <c r="AT44">
         <v>243578</v>
       </c>
-      <c r="AQ44">
+      <c r="AU44">
         <v>7250</v>
       </c>
-      <c r="AR44">
+      <c r="AV44">
         <v>4</v>
       </c>
-      <c r="AS44">
+      <c r="AW44">
         <v>33</v>
       </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
-      <c r="AV44">
-        <v>0</v>
-      </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
       <c r="AX44">
         <v>0</v>
       </c>
-      <c r="AZ44" t="s">
-        <v>116</v>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
       </c>
       <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE44">
         <v>2613.26883423807</v>
       </c>
-      <c r="BB44">
+      <c r="BF44">
         <v>0.002114604196642229</v>
       </c>
-      <c r="BC44">
+      <c r="BG44">
         <v>0.03355266683789284</v>
       </c>
-      <c r="BD44">
+      <c r="BH44">
         <v>5.93</v>
       </c>
-      <c r="BE44">
+      <c r="BI44">
         <v>0.03566727103453507</v>
       </c>
-      <c r="BF44">
+      <c r="BJ44">
         <v>6.834368178215133</v>
       </c>
-      <c r="BG44">
+      <c r="BK44">
         <v>5.386638060192078</v>
       </c>
-      <c r="BH44">
+      <c r="BL44">
         <v>4.159597267987408</v>
       </c>
-      <c r="BI44">
+      <c r="BM44">
         <v>2.383815365980431</v>
       </c>
-      <c r="BJ44">
+      <c r="BN44">
         <v>5.360095222748518</v>
       </c>
-      <c r="BK44">
+      <c r="BO44">
         <v>4.159597267987408</v>
       </c>
     </row>
-    <row r="45" spans="1:66">
+    <row r="45" spans="1:70">
       <c r="A45" s="1">
         <v>1369</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D45">
         <v>37246</v>
@@ -9023,10 +9203,10 @@
         <v>28995881</v>
       </c>
       <c r="N45" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9981323588615729</v>
+        <v>0.9982893390317151</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9038,16 +9218,16 @@
         <v>13.4</v>
       </c>
       <c r="S45" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="T45">
-        <v>57.78387227306862</v>
+        <v>58.42931411124265</v>
       </c>
       <c r="U45">
         <v>20200508</v>
       </c>
       <c r="V45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="W45">
         <v>36609</v>
@@ -9062,105 +9242,108 @@
         <v>19197</v>
       </c>
       <c r="AG45" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH45" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AI45" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AJ45" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK45">
         <v>1004</v>
       </c>
-      <c r="AM45">
+      <c r="AP45">
+        <v>36609</v>
+      </c>
+      <c r="AQ45">
         <v>1219</v>
       </c>
-      <c r="AN45">
+      <c r="AR45">
         <v>20737</v>
       </c>
-      <c r="AO45">
+      <c r="AS45">
         <v>477118</v>
       </c>
-      <c r="AP45">
+      <c r="AT45">
         <v>477118</v>
       </c>
-      <c r="AQ45">
+      <c r="AU45">
         <v>21956</v>
       </c>
-      <c r="AR45">
+      <c r="AV45">
         <v>31</v>
       </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
-      <c r="AT45">
-        <v>0</v>
-      </c>
-      <c r="AU45">
-        <v>0</v>
-      </c>
-      <c r="AV45">
-        <v>0</v>
-      </c>
       <c r="AW45">
         <v>0</v>
       </c>
       <c r="AX45">
         <v>0</v>
       </c>
-      <c r="AZ45" t="s">
-        <v>116</v>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
       </c>
       <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE45">
         <v>5384.782354004663</v>
       </c>
-      <c r="BB45">
+      <c r="BF45">
         <v>0.001262558637207816</v>
       </c>
-      <c r="BC45">
+      <c r="BG45">
         <v>0.01519212332261951</v>
       </c>
-      <c r="BD45">
+      <c r="BH45">
         <v>7.67</v>
       </c>
-      <c r="BE45">
+      <c r="BI45">
         <v>0.01645468195982733</v>
       </c>
-      <c r="BF45">
+      <c r="BJ45">
         <v>7.462336308725756</v>
       </c>
-      <c r="BG45">
+      <c r="BK45">
         <v>5.678625801285844</v>
       </c>
-      <c r="BH45">
+      <c r="BL45">
         <v>4.571079638931142</v>
       </c>
-      <c r="BI45">
+      <c r="BM45">
         <v>3.010723865391773</v>
       </c>
-      <c r="BJ45">
+      <c r="BN45">
         <v>5.643954785870446</v>
       </c>
-      <c r="BK45">
+      <c r="BO45">
         <v>4.563587865991245</v>
       </c>
-      <c r="BL45">
+      <c r="BP45">
         <v>3.239049093140192</v>
       </c>
     </row>
-    <row r="46" spans="1:66">
+    <row r="46" spans="1:70">
       <c r="A46" s="1">
         <v>1370</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D46">
         <v>5919</v>
@@ -9193,10 +9376,10 @@
         <v>3205958</v>
       </c>
       <c r="N46" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9969092795240717</v>
+        <v>0.9965969390590335</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9208,16 +9391,16 @@
         <v>7.8</v>
       </c>
       <c r="S46" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="T46">
-        <v>103.5011574841242</v>
+        <v>103.3685604585715</v>
       </c>
       <c r="U46">
         <v>20200508</v>
       </c>
       <c r="V46" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="W46">
         <v>5919</v>
@@ -9241,16 +9424,16 @@
         <v>2769</v>
       </c>
       <c r="AG46" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH46" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AI46" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AJ46" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK46">
         <v>61</v>
@@ -9258,91 +9441,94 @@
       <c r="AL46">
         <v>488</v>
       </c>
-      <c r="AM46">
+      <c r="AP46">
+        <v>5919</v>
+      </c>
+      <c r="AQ46">
         <v>195</v>
       </c>
-      <c r="AN46">
+      <c r="AR46">
         <v>3950</v>
       </c>
-      <c r="AO46">
+      <c r="AS46">
         <v>138688</v>
       </c>
-      <c r="AP46">
+      <c r="AT46">
         <v>138688</v>
       </c>
-      <c r="AQ46">
+      <c r="AU46">
         <v>4145</v>
       </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
         <v>12</v>
       </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
       <c r="AX46">
         <v>0</v>
       </c>
-      <c r="AZ46" t="s">
-        <v>116</v>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
       </c>
       <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE46">
         <v>1790.518919196332</v>
       </c>
-      <c r="BB46">
+      <c r="BF46">
         <v>0.001846250013256568</v>
       </c>
-      <c r="BC46">
+      <c r="BG46">
         <v>0.04141320628654524</v>
       </c>
-      <c r="BD46">
+      <c r="BH46">
         <v>4.27</v>
       </c>
-      <c r="BE46">
+      <c r="BI46">
         <v>0.0432594562998018</v>
       </c>
-      <c r="BF46">
+      <c r="BJ46">
         <v>6.505957828533497</v>
       </c>
-      <c r="BG46">
+      <c r="BK46">
         <v>5.142038885303705</v>
       </c>
-      <c r="BH46">
+      <c r="BL46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BI46">
+      <c r="BM46">
         <v>1.785329835010767</v>
       </c>
-      <c r="BJ46">
+      <c r="BN46">
         <v>5.123096684214545</v>
       </c>
-      <c r="BK46">
+      <c r="BO46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BL46">
+      <c r="BP46">
         <v>2.334453751150931</v>
       </c>
     </row>
-    <row r="47" spans="1:66">
+    <row r="47" spans="1:70">
       <c r="A47" s="1">
         <v>1371</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D47">
         <v>919</v>
@@ -9369,10 +9555,10 @@
         <v>623989</v>
       </c>
       <c r="N47" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9641904615455158</v>
+        <v>0.9627266691485769</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9384,16 +9570,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S47" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="T47">
-        <v>85.37425297605083</v>
+        <v>89.05231819799172</v>
       </c>
       <c r="U47">
         <v>20200508</v>
       </c>
       <c r="V47" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="W47">
         <v>918</v>
@@ -9408,47 +9594,38 @@
         <v>737</v>
       </c>
       <c r="AG47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH47" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI47" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ47" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK47">
         <v>53</v>
       </c>
-      <c r="AM47">
+      <c r="AP47">
+        <v>919</v>
+      </c>
+      <c r="AQ47">
         <v>2</v>
       </c>
-      <c r="AN47">
+      <c r="AR47">
         <v>532</v>
       </c>
-      <c r="AO47">
+      <c r="AS47">
         <v>18140</v>
       </c>
-      <c r="AP47">
+      <c r="AT47">
         <v>18140</v>
       </c>
-      <c r="AQ47">
+      <c r="AU47">
         <v>534</v>
       </c>
-      <c r="AR47">
-        <v>0</v>
-      </c>
-      <c r="AS47">
-        <v>0</v>
-      </c>
-      <c r="AT47">
-        <v>0</v>
-      </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
       <c r="AV47">
         <v>0</v>
       </c>
@@ -9458,55 +9635,67 @@
       <c r="AX47">
         <v>0</v>
       </c>
-      <c r="AZ47" t="s">
-        <v>116</v>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
       </c>
       <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE47">
         <v>789.9297437114266</v>
       </c>
-      <c r="BB47">
+      <c r="BF47">
         <v>0.001471179780412796</v>
       </c>
-      <c r="BC47">
+      <c r="BG47">
         <v>0.02759984551009713</v>
       </c>
-      <c r="BD47">
+      <c r="BH47">
         <v>5.06</v>
       </c>
-      <c r="BE47">
+      <c r="BI47">
         <v>0.03046207545325318</v>
       </c>
-      <c r="BF47">
+      <c r="BJ47">
         <v>5.795176933782731</v>
       </c>
-      <c r="BG47">
+      <c r="BK47">
         <v>4.2789364233011</v>
       </c>
-      <c r="BH47">
+      <c r="BL47">
         <v>2.963315511386111</v>
       </c>
-      <c r="BI47">
+      <c r="BM47">
         <v>1.724275869600789</v>
       </c>
-      <c r="BJ47">
+      <c r="BN47">
         <v>4.236083584895046</v>
       </c>
-      <c r="BK47">
+      <c r="BO47">
         <v>2.962842681201242</v>
       </c>
-      <c r="BL47">
+      <c r="BP47">
         <v>1.176091259055681</v>
       </c>
     </row>
-    <row r="48" spans="1:66">
+    <row r="48" spans="1:70">
       <c r="A48" s="1">
         <v>1372</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D48">
         <v>22342</v>
@@ -9539,10 +9728,10 @@
         <v>8535519</v>
       </c>
       <c r="N48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9981582413922573</v>
+        <v>0.9973496123039084</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9554,16 +9743,16 @@
         <v>10.1</v>
       </c>
       <c r="S48" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="T48">
-        <v>71.92976581815665</v>
+        <v>73.2697306179066</v>
       </c>
       <c r="U48">
         <v>20200508</v>
       </c>
       <c r="V48" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="W48">
         <v>22342</v>
@@ -9590,16 +9779,16 @@
         <v>2997</v>
       </c>
       <c r="AG48" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH48" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AI48" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AJ48" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AK48">
         <v>812</v>
@@ -9608,96 +9797,102 @@
         <v>4622</v>
       </c>
       <c r="AM48">
+        <v>143220</v>
+      </c>
+      <c r="AP48">
+        <v>21274</v>
+      </c>
+      <c r="AQ48">
         <v>772</v>
       </c>
-      <c r="AN48">
+      <c r="AR48">
         <v>6021</v>
       </c>
-      <c r="AO48">
+      <c r="AS48">
         <v>130494</v>
       </c>
-      <c r="AP48">
+      <c r="AT48">
         <v>129945</v>
       </c>
-      <c r="AQ48">
+      <c r="AU48">
         <v>6793</v>
       </c>
-      <c r="AR48">
+      <c r="AV48">
         <v>43</v>
       </c>
-      <c r="AS48">
+      <c r="AW48">
         <v>184</v>
       </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
       <c r="AX48">
         <v>0</v>
       </c>
-      <c r="AZ48" t="s">
-        <v>116</v>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
       </c>
       <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE48">
         <v>2921.561055326416</v>
       </c>
-      <c r="BB48">
+      <c r="BF48">
         <v>0.002617532688990558</v>
       </c>
-      <c r="BC48">
+      <c r="BG48">
         <v>0.01260649762480758</v>
       </c>
-      <c r="BD48">
+      <c r="BH48">
         <v>17.19</v>
       </c>
-      <c r="BE48">
+      <c r="BI48">
         <v>0.01522403031379814</v>
       </c>
-      <c r="BF48">
+      <c r="BJ48">
         <v>6.931229933415991</v>
       </c>
-      <c r="BG48">
+      <c r="BK48">
         <v>5.113759573454686</v>
       </c>
-      <c r="BH48">
+      <c r="BL48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BI48">
+      <c r="BM48">
         <v>2.909556029241176</v>
       </c>
-      <c r="BJ48">
+      <c r="BN48">
         <v>5.031824379743782</v>
       </c>
-      <c r="BK48">
+      <c r="BO48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BL48">
+      <c r="BP48">
         <v>3.210853365314893</v>
       </c>
-      <c r="BM48">
+      <c r="BQ48">
         <v>2.577491799837226</v>
       </c>
-      <c r="BN48">
+      <c r="BR48">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="49" spans="1:66">
+    <row r="49" spans="1:70">
       <c r="A49" s="1">
         <v>1373</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D49">
         <v>16388</v>
@@ -9721,10 +9916,10 @@
         <v>7614893</v>
       </c>
       <c r="N49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9933735903262308</v>
+        <v>0.9935377400439318</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9736,16 +9931,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S49" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="T49">
-        <v>69.61616722710592</v>
+        <v>69.78401295083523</v>
       </c>
       <c r="U49">
         <v>20200508</v>
       </c>
       <c r="V49" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="W49">
         <v>17758</v>
@@ -9760,108 +9955,120 @@
         <v>122</v>
       </c>
       <c r="AG49" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH49" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI49" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ49" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK49">
         <v>891</v>
       </c>
       <c r="AM49">
+        <v>261758</v>
+      </c>
+      <c r="AN49">
+        <v>17459</v>
+      </c>
+      <c r="AO49">
+        <v>244299</v>
+      </c>
+      <c r="AP49">
+        <v>17758</v>
+      </c>
+      <c r="AQ49">
         <v>205</v>
       </c>
-      <c r="AN49">
+      <c r="AR49">
         <v>6101</v>
       </c>
-      <c r="AO49">
+      <c r="AS49">
         <v>261758</v>
       </c>
-      <c r="AP49">
+      <c r="AT49">
         <v>261758</v>
       </c>
-      <c r="AQ49">
+      <c r="AU49">
         <v>6306</v>
       </c>
-      <c r="AR49">
+      <c r="AV49">
         <v>21</v>
       </c>
-      <c r="AS49">
-        <v>0</v>
-      </c>
-      <c r="AT49">
-        <v>0</v>
-      </c>
-      <c r="AU49">
-        <v>0</v>
-      </c>
-      <c r="AV49">
-        <v>0</v>
-      </c>
       <c r="AW49">
         <v>0</v>
       </c>
       <c r="AX49">
         <v>0</v>
       </c>
-      <c r="AZ49" t="s">
-        <v>116</v>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
       </c>
       <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE49">
         <v>2759.50955787437</v>
       </c>
-      <c r="BB49">
+      <c r="BF49">
         <v>0.002332009130003534</v>
       </c>
-      <c r="BC49">
+      <c r="BG49">
         <v>0.03204247256002152</v>
       </c>
-      <c r="BD49">
+      <c r="BH49">
         <v>6.78</v>
       </c>
-      <c r="BE49">
+      <c r="BI49">
         <v>0.0302932687301056</v>
       </c>
-      <c r="BF49">
+      <c r="BJ49">
         <v>6.881663805264177</v>
       </c>
-      <c r="BG49">
+      <c r="BK49">
         <v>5.363009942738859</v>
       </c>
-      <c r="BH49">
+      <c r="BL49">
         <v>4.214525955281105</v>
       </c>
-      <c r="BI49">
+      <c r="BM49">
         <v>2.956648579205203</v>
       </c>
-      <c r="BJ49">
+      <c r="BN49">
         <v>5.38738982633873</v>
       </c>
-      <c r="BK49">
+      <c r="BO49">
         <v>4.249394051652351</v>
       </c>
-      <c r="BL49">
+      <c r="BP49">
         <v>2.594392550375427</v>
       </c>
-      <c r="BM49">
+      <c r="BQ49">
         <v>2.086359830674748</v>
       </c>
     </row>
-    <row r="50" spans="1:66">
+    <row r="50" spans="1:70">
       <c r="A50" s="1">
         <v>1374</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D50">
         <v>1323</v>
@@ -9888,10 +10095,10 @@
         <v>1792147</v>
       </c>
       <c r="N50" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9928003642581614</v>
+        <v>0.9931715549732494</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -9903,16 +10110,16 @@
         <v>16.5</v>
       </c>
       <c r="S50" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="T50">
-        <v>84.68581586192369</v>
+        <v>85.10469698769145</v>
       </c>
       <c r="U50">
         <v>20200508</v>
       </c>
       <c r="V50" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="W50">
         <v>1310</v>
@@ -9933,47 +10140,38 @@
         <v>761</v>
       </c>
       <c r="AG50" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH50" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AI50" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AJ50" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AK50">
         <v>51</v>
       </c>
-      <c r="AM50">
+      <c r="AP50">
+        <v>1310</v>
+      </c>
+      <c r="AQ50">
         <v>23</v>
       </c>
-      <c r="AN50">
+      <c r="AR50">
         <v>1892</v>
       </c>
-      <c r="AO50">
+      <c r="AS50">
         <v>59436</v>
       </c>
-      <c r="AP50">
+      <c r="AT50">
         <v>59436</v>
       </c>
-      <c r="AQ50">
+      <c r="AU50">
         <v>1915</v>
       </c>
-      <c r="AR50">
-        <v>0</v>
-      </c>
-      <c r="AS50">
-        <v>0</v>
-      </c>
-      <c r="AT50">
-        <v>0</v>
-      </c>
-      <c r="AU50">
-        <v>0</v>
-      </c>
       <c r="AV50">
         <v>0</v>
       </c>
@@ -9983,61 +10181,73 @@
       <c r="AX50">
         <v>0</v>
       </c>
-      <c r="AZ50" t="s">
-        <v>116</v>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
       </c>
       <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE50">
         <v>1338.71094714281</v>
       </c>
-      <c r="BB50">
+      <c r="BF50">
         <v>0.0007309668235920379</v>
       </c>
-      <c r="BC50">
+      <c r="BG50">
         <v>0.0324337233497029</v>
       </c>
-      <c r="BD50">
+      <c r="BH50">
         <v>2.2</v>
       </c>
-      <c r="BE50">
+      <c r="BI50">
         <v>0.03316469017329494</v>
       </c>
-      <c r="BF50">
+      <c r="BJ50">
         <v>6.253373629584194</v>
       </c>
-      <c r="BG50">
+      <c r="BK50">
         <v>4.774049574030081</v>
       </c>
-      <c r="BH50">
+      <c r="BL50">
         <v>3.121559844187501</v>
       </c>
-      <c r="BI50">
+      <c r="BM50">
         <v>1.716003343634799</v>
       </c>
-      <c r="BJ50">
+      <c r="BN50">
         <v>4.76437043756676</v>
       </c>
-      <c r="BK50">
+      <c r="BO50">
         <v>3.117271295655764</v>
       </c>
-      <c r="BL50">
+      <c r="BP50">
         <v>1.812913356642855</v>
       </c>
-      <c r="BM50">
+      <c r="BQ50">
         <v>1.278753600952829</v>
       </c>
-      <c r="BN50">
+      <c r="BR50">
         <v>1.041392685158225</v>
       </c>
     </row>
-    <row r="51" spans="1:66">
+    <row r="51" spans="1:70">
       <c r="A51" s="1">
         <v>1375</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D51">
         <v>9590</v>
@@ -10070,10 +10280,10 @@
         <v>5822434</v>
       </c>
       <c r="N51" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9989194054111807</v>
+        <v>0.9986546463747965</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10085,16 +10295,16 @@
         <v>8.9</v>
       </c>
       <c r="S51" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="T51">
-        <v>90.08831446086577</v>
+        <v>93.83371789509629</v>
       </c>
       <c r="U51">
         <v>20200508</v>
       </c>
       <c r="V51" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="W51">
         <v>9590</v>
@@ -10121,16 +10331,16 @@
         <v>4694</v>
       </c>
       <c r="AG51" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH51" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI51" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ51" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK51">
         <v>384</v>
@@ -10138,94 +10348,97 @@
       <c r="AL51">
         <v>1767</v>
       </c>
-      <c r="AM51">
+      <c r="AP51">
+        <v>9590</v>
+      </c>
+      <c r="AQ51">
         <v>375</v>
       </c>
-      <c r="AN51">
+      <c r="AR51">
         <v>4230</v>
       </c>
-      <c r="AO51">
+      <c r="AS51">
         <v>107059</v>
       </c>
-      <c r="AP51">
+      <c r="AT51">
         <v>106855</v>
       </c>
-      <c r="AQ51">
+      <c r="AU51">
         <v>4605</v>
       </c>
-      <c r="AR51">
+      <c r="AV51">
         <v>10</v>
       </c>
-      <c r="AS51">
+      <c r="AW51">
         <v>35</v>
       </c>
-      <c r="AT51">
-        <v>0</v>
-      </c>
-      <c r="AU51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
       <c r="AX51">
         <v>0</v>
       </c>
-      <c r="AZ51" t="s">
-        <v>116</v>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
       </c>
       <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE51">
         <v>2412.972026360853</v>
       </c>
-      <c r="BB51">
+      <c r="BF51">
         <v>0.001647077493707958</v>
       </c>
-      <c r="BC51">
+      <c r="BG51">
         <v>0.01670521297450516</v>
       </c>
-      <c r="BD51">
+      <c r="BH51">
         <v>8.970000000000001</v>
       </c>
-      <c r="BE51">
+      <c r="BI51">
         <v>0.01835229046821312</v>
       </c>
-      <c r="BF51">
+      <c r="BJ51">
         <v>6.765104574304484</v>
       </c>
-      <c r="BG51">
+      <c r="BK51">
         <v>5.028794848648937</v>
       </c>
-      <c r="BH51">
+      <c r="BL51">
         <v>3.981818607170664</v>
       </c>
-      <c r="BI51">
+      <c r="BM51">
         <v>2.584331224367531</v>
       </c>
-      <c r="BJ51">
+      <c r="BN51">
         <v>4.987956591127648</v>
       </c>
-      <c r="BK51">
+      <c r="BO51">
         <v>3.981818607170664</v>
       </c>
-      <c r="BL51">
+      <c r="BP51">
         <v>2.741939077729199</v>
       </c>
-      <c r="BM51">
+      <c r="BQ51">
         <v>2.041392685158225</v>
       </c>
     </row>
-    <row r="52" spans="1:66">
+    <row r="52" spans="1:70">
       <c r="A52" s="1">
         <v>1376</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D52">
         <v>644</v>
@@ -10258,10 +10471,10 @@
         <v>578759</v>
       </c>
       <c r="N52" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9892477223674615</v>
+        <v>0.9895698059795357</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10273,16 +10486,16 @@
         <v>11.2</v>
       </c>
       <c r="S52" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="T52">
-        <v>69.19945399811641</v>
+        <v>70.79910428027461</v>
       </c>
       <c r="U52">
         <v>20200508</v>
       </c>
       <c r="V52" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="W52">
         <v>635</v>
@@ -10300,16 +10513,16 @@
         <v>428</v>
       </c>
       <c r="AG52" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH52" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AI52" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AJ52" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AK52">
         <v>7</v>
@@ -10318,16 +10531,10 @@
         <v>60</v>
       </c>
       <c r="AM52">
-        <v>4</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>12038</v>
+        <v>12968</v>
       </c>
       <c r="AP52">
-        <v>12038</v>
+        <v>483</v>
       </c>
       <c r="AQ52">
         <v>4</v>
@@ -10336,60 +10543,72 @@
         <v>0</v>
       </c>
       <c r="AS52">
+        <v>12038</v>
+      </c>
+      <c r="AT52">
+        <v>12038</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
         <v>1</v>
       </c>
-      <c r="AT52">
-        <v>0</v>
-      </c>
-      <c r="AU52">
-        <v>0</v>
-      </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
-      <c r="AW52">
-        <v>0</v>
-      </c>
       <c r="AX52">
         <v>0</v>
       </c>
-      <c r="AZ52" t="s">
-        <v>116</v>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
       </c>
       <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE52">
         <v>760.7621178791699</v>
       </c>
-      <c r="BB52">
+      <c r="BF52">
         <v>0.001097175162718852</v>
       </c>
-      <c r="BC52">
+      <c r="BG52">
         <v>0.01970250138658751</v>
       </c>
-      <c r="BD52">
+      <c r="BH52">
         <v>5.27</v>
       </c>
-      <c r="BE52">
+      <c r="BI52">
         <v>0.02079967654930636</v>
       </c>
-      <c r="BF52">
+      <c r="BJ52">
         <v>5.762497757580992</v>
       </c>
-      <c r="BG52">
+      <c r="BK52">
         <v>4.080554338988772</v>
       </c>
-      <c r="BH52">
+      <c r="BL52">
         <v>2.808885867359812</v>
       </c>
-      <c r="BI52">
+      <c r="BM52">
         <v>0.8450980400142568</v>
       </c>
-      <c r="BJ52">
+      <c r="BN52">
         <v>4.057019124322766</v>
       </c>
-      <c r="BK52">
+      <c r="BO52">
         <v>2.802773725291976</v>
       </c>
-      <c r="BL52">
+      <c r="BP52">
         <v>0.9542425094393249</v>
       </c>
     </row>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.998303585830739</v>
+        <v>0.9975731098800085</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>84.36372153111347</v>
+        <v>86.07569321496598</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9541148427892502</v>
+        <v>0.9455143394072807</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>133.6060488836877</v>
+        <v>137.1198888782183</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9898360551492718</v>
+        <v>0.9838353786128133</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>60.87580005952693</v>
+        <v>63.34196747775734</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9879494475936377</v>
+        <v>0.982752976086571</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>81.30072230520268</v>
+        <v>84.86988416521005</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.999042632038618</v>
+        <v>0.9990824074013243</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>102.0984655217469</v>
+        <v>105.01341877562</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9877875676608101</v>
+        <v>0.987098804428695</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>56.97449957215511</v>
+        <v>58.25153915615239</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9732861168939926</v>
+        <v>0.9729954926155326</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>135.025608021436</v>
+        <v>138.3409504772534</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9786870563131816</v>
+        <v>0.976069970028561</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>114.1219349200909</v>
+        <v>116.9541931797706</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9846669055026429</v>
+        <v>0.9831199231614841</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>118.2473375706282</v>
+        <v>120.7761362219793</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.991508355069853</v>
+        <v>0.9911463068770791</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>87.65327420512379</v>
+        <v>90.01221342994108</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9917563768485802</v>
+        <v>0.9924640453543585</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>89.28620173153983</v>
+        <v>89.47535951249743</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9622607514320161</v>
+        <v>0.9587814173599303</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>46.46804626328716</v>
+        <v>46.37088405142529</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.981767657463585</v>
+        <v>0.9820578354659555</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>38.07802056658779</v>
+        <v>39.32912797857367</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3803,7 +3803,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9851361354236983</v>
+        <v>0.9821203773358872</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3818,7 +3818,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>140.5187411027168</v>
+        <v>142.5950780408149</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3982,7 +3982,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9890792027392802</v>
+        <v>0.9886060116390831</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3997,7 +3997,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>71.99950580820529</v>
+        <v>73.33153471413229</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4167,7 +4167,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9837295871231226</v>
+        <v>0.9831915581343066</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4182,7 +4182,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>98.64727921008692</v>
+        <v>101.7662013432947</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4352,7 +4352,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9711299091704759</v>
+        <v>0.9696173016943473</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4367,7 +4367,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>62.52976454943666</v>
+        <v>63.80282761283719</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4531,7 +4531,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9935702166429441</v>
+        <v>0.993910599505297</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4546,7 +4546,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>93.51535477594699</v>
+        <v>96.08911659303551</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4713,7 +4713,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9785465828327037</v>
+        <v>0.9795494895600583</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4728,7 +4728,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>131.4104074687207</v>
+        <v>135.6462365323499</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4892,7 +4892,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9972925967173163</v>
+        <v>0.9974403536256745</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4907,7 +4907,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>59.85987238659487</v>
+        <v>63.13054572158494</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5083,7 +5083,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9922672189783553</v>
+        <v>0.9906331212903045</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5098,7 +5098,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>93.97496155810212</v>
+        <v>96.52548800347998</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5265,7 +5265,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9730819570455972</v>
+        <v>0.9723470948492673</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5280,7 +5280,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>144.2012468888599</v>
+        <v>143.297205364858</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5441,7 +5441,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.985512665962331</v>
+        <v>0.986464291260768</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5456,7 +5456,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>106.3530484857253</v>
+        <v>110.1536625496885</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5635,7 +5635,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9898435984865296</v>
+        <v>0.9881017795830417</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5650,7 +5650,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>93.85590707112166</v>
+        <v>100.0175386644285</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5659,10 +5659,10 @@
         <v>197</v>
       </c>
       <c r="W25">
-        <v>10088</v>
+        <v>13040</v>
       </c>
       <c r="X25">
-        <v>91182</v>
+        <v>101408</v>
       </c>
       <c r="Z25">
         <v>473</v>
@@ -5697,23 +5697,26 @@
       <c r="AL25">
         <v>1549</v>
       </c>
+      <c r="AM25">
+        <v>114448</v>
+      </c>
       <c r="AP25">
         <v>10088</v>
       </c>
       <c r="AQ25">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="AR25">
-        <v>3126</v>
+        <v>4164</v>
       </c>
       <c r="AS25">
-        <v>101270</v>
+        <v>114448</v>
       </c>
       <c r="AT25">
-        <v>101270</v>
+        <v>114448</v>
       </c>
       <c r="AU25">
-        <v>3849</v>
+        <v>4876</v>
       </c>
       <c r="AV25">
         <v>26</v>
@@ -5743,13 +5746,13 @@
         <v>2374.790938166979</v>
       </c>
       <c r="BF25">
-        <v>0.001788769196287985</v>
+        <v>0.002312207605035222</v>
       </c>
       <c r="BG25">
-        <v>0.01616807621490196</v>
+        <v>0.01798131509289968</v>
       </c>
       <c r="BH25">
-        <v>9.960000000000001</v>
+        <v>11.39</v>
       </c>
       <c r="BI25">
         <v>0.01795684541118995</v>
@@ -5767,10 +5770,10 @@
         <v>2.727541257028556</v>
       </c>
       <c r="BN25">
-        <v>4.95990911385232</v>
+        <v>5.006072217510207</v>
       </c>
       <c r="BO25">
-        <v>4.003805073565025</v>
+        <v>4.115277591395901</v>
       </c>
       <c r="BP25">
         <v>2.674861140737812</v>
@@ -5823,7 +5826,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9978486559920501</v>
+        <v>0.9979050889532045</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5838,7 +5841,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>102.8267059565874</v>
+        <v>103.818944413942</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6005,7 +6008,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9917559599894076</v>
+        <v>0.9924517984854614</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6020,7 +6023,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>56.12726848796172</v>
+        <v>58.11425570644567</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6190,7 +6193,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9505697284698613</v>
+        <v>0.9454747234554973</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6205,7 +6208,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>64.77794955163456</v>
+        <v>68.06969571337402</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6360,7 +6363,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9820566780872245</v>
+        <v>0.9795451340608489</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6375,7 +6378,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>103.2668897030016</v>
+        <v>105.1112414556032</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6518,7 +6521,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9946701562846039</v>
+        <v>0.9947576023885454</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6533,7 +6536,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>91.29831732260644</v>
+        <v>95.56850155907786</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6688,7 +6691,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9918535711705302</v>
+        <v>0.9906604975635477</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6703,7 +6706,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>102.4500267947299</v>
+        <v>104.5913462711758</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6867,7 +6870,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9739602934163588</v>
+        <v>0.9743838297793449</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6882,7 +6885,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>170.544241502443</v>
+        <v>176.5833613759684</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7055,7 +7058,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.993520876276621</v>
+        <v>0.9932500070014864</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7070,7 +7073,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>169.0764531377485</v>
+        <v>172.343179436336</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7234,7 +7237,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9798069645759681</v>
+        <v>0.980534569394367</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7249,7 +7252,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>173.4322275239563</v>
+        <v>181.2012451998298</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7416,7 +7419,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9973060469525937</v>
+        <v>0.9961296639687935</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7431,7 +7434,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>79.14793160138703</v>
+        <v>83.00165980805463</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7586,7 +7589,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9891789477494035</v>
+        <v>0.987895757388314</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7601,7 +7604,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>162.7215015431649</v>
+        <v>160.7392385286907</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7762,7 +7765,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9887029791326553</v>
+        <v>0.9882349166703632</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7777,7 +7780,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>64.19673863069333</v>
+        <v>66.02101062610809</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7953,7 +7956,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9937768178071372</v>
+        <v>0.9943798757798813</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7968,7 +7971,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>93.72642615151607</v>
+        <v>94.85404742105707</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8144,7 +8147,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9946857838955718</v>
+        <v>0.994843977762105</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8159,7 +8162,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>51.12310290936029</v>
+        <v>52.08327841997649</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8326,7 +8329,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.979422127096867</v>
+        <v>0.9794604425179032</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8341,7 +8344,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>55.7214401431692</v>
+        <v>56.74010315724075</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8499,7 +8502,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9657926167783195</v>
+        <v>0.9642207143647346</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8514,7 +8517,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>266.6628028150053</v>
+        <v>267.6007854002962</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8690,7 +8693,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.992165636380125</v>
+        <v>0.9869356060414135</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8705,7 +8708,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>76.53315393432467</v>
+        <v>76.48622808432545</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8860,7 +8863,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9818744124900807</v>
+        <v>0.9820951156608864</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8875,7 +8878,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>87.4885733660257</v>
+        <v>91.94346817903323</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9039,7 +9042,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9969107270086153</v>
+        <v>0.9972864981328731</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9054,7 +9057,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>117.6745662856599</v>
+        <v>121.149273776778</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9206,7 +9209,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9982893390317151</v>
+        <v>0.9984186045334185</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9221,7 +9224,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>58.42931411124265</v>
+        <v>59.69610280053479</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9379,7 +9382,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9965969390590335</v>
+        <v>0.9959842684583263</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9394,7 +9397,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>103.3685604585715</v>
+        <v>103.5534045350238</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9558,7 +9561,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9627266691485769</v>
+        <v>0.9606049091243907</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9573,7 +9576,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>89.05231819799172</v>
+        <v>94.71135251772272</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9731,7 +9734,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9973496123039084</v>
+        <v>0.9958443347059055</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9746,7 +9749,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>73.2697306179066</v>
+        <v>76.87487363663818</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9919,7 +9922,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9935377400439318</v>
+        <v>0.9935679690687317</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9934,7 +9937,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>69.78401295083523</v>
+        <v>70.53810650414941</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10098,7 +10101,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9931715549732494</v>
+        <v>0.99370832568556</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10113,7 +10116,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>85.10469698769145</v>
+        <v>86.59018546821194</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10283,7 +10286,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9986546463747965</v>
+        <v>0.998089928561483</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10298,7 +10301,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>93.83371789509629</v>
+        <v>99.1912888045651</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10474,7 +10477,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9895698059795357</v>
+        <v>0.990441364509016</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10489,7 +10492,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>70.79910428027461</v>
+        <v>72.97918039490466</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9975731098800085</v>
+        <v>0.9968998061399676</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>86.07569321496598</v>
+        <v>87.03640841007635</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9455143394072807</v>
+        <v>0.9429552042308251</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>137.1198888782183</v>
+        <v>139.2499003010997</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9838353786128133</v>
+        <v>0.9804107862118947</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>63.34196747775734</v>
+        <v>65.08885029542849</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.982752976086571</v>
+        <v>0.9807553440815306</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>84.86988416521005</v>
+        <v>87.62956901342159</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9990824074013243</v>
+        <v>0.9991125476565873</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>105.01341877562</v>
+        <v>107.0163467996014</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.987098804428695</v>
+        <v>0.9866394859427369</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>58.25153915615239</v>
+        <v>59.11906514277302</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9729954926155326</v>
+        <v>0.9728764640577435</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>138.3409504772534</v>
+        <v>140.4808661933054</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.976069970028561</v>
+        <v>0.9746152423155178</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>116.9541931797706</v>
+        <v>119.1736281404007</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9831199231614841</v>
+        <v>0.9820017079271253</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>120.7761362219793</v>
+        <v>122.5524428087271</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9911463068770791</v>
+        <v>0.9902984386136668</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>90.01221342994108</v>
+        <v>91.56310179655733</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9924640453543585</v>
+        <v>0.9929134591885715</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>89.47535951249743</v>
+        <v>89.69326569445492</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9587814173599303</v>
+        <v>0.9561664018269852</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>46.37088405142529</v>
+        <v>46.45021149708376</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9820578354659555</v>
+        <v>0.9824367484863543</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>39.32912797857367</v>
+        <v>40.01954730706154</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3691,6 +3691,9 @@
       </c>
       <c r="AL14">
         <v>206</v>
+      </c>
+      <c r="AM14">
+        <v>31099</v>
       </c>
       <c r="AP14">
         <v>2007</v>
@@ -3803,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9821203773358872</v>
+        <v>0.9801229244802577</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3818,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>142.5950780408149</v>
+        <v>143.7873596110756</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3982,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9886060116390831</v>
+        <v>0.988443047379958</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3997,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>73.33153471413229</v>
+        <v>74.27196209914484</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4167,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9831915581343066</v>
+        <v>0.9824512590904796</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4182,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>101.7662013432947</v>
+        <v>103.5223139191944</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4352,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9696173016943473</v>
+        <v>0.9691965018548234</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4367,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>63.80282761283719</v>
+        <v>64.76518609537835</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4531,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.993910599505297</v>
+        <v>0.9939141599766075</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4546,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>96.08911659303551</v>
+        <v>97.1470031800345</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4713,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9795494895600583</v>
+        <v>0.980095576027411</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4728,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>135.6462365323499</v>
+        <v>138.5703847667279</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4892,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9974403536256745</v>
+        <v>0.9973653074470411</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4907,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>63.13054572158494</v>
+        <v>65.08199428672049</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5083,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9906331212903045</v>
+        <v>0.9893454694346442</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5098,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>96.52548800347998</v>
+        <v>97.97856282209507</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5265,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9723470948492673</v>
+        <v>0.9718015246758814</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5280,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>143.297205364858</v>
+        <v>142.5307449074174</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5441,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.986464291260768</v>
+        <v>0.9869916856571916</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5456,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>110.1536625496885</v>
+        <v>112.2202681736812</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5635,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9881017795830417</v>
+        <v>0.9863958451638354</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5650,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>100.0175386644285</v>
+        <v>103.490382905861</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5826,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9979050889532045</v>
+        <v>0.9978765868107422</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5841,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>103.818944413942</v>
+        <v>105.5900128917838</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6008,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9924517984854614</v>
+        <v>0.9929050861153071</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6023,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>58.11425570644567</v>
+        <v>59.30308903397712</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6193,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9454747234554973</v>
+        <v>0.9416318920153308</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6208,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>68.06969571337402</v>
+        <v>70.41996077049632</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6363,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9795451340608489</v>
+        <v>0.9776731417125825</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6378,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>105.1112414556032</v>
+        <v>106.05162167085</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6521,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9947576023885454</v>
+        <v>0.9947225222245548</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6536,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>95.56850155907786</v>
+        <v>98.43056563439943</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6691,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9906604975635477</v>
+        <v>0.9896398773936272</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6706,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>104.5913462711758</v>
+        <v>105.9524558809479</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6870,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9743838297793449</v>
+        <v>0.9746933405388782</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6885,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>176.5833613759684</v>
+        <v>179.9884687763813</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7058,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9932500070014864</v>
+        <v>0.9929433014904802</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7073,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>172.343179436336</v>
+        <v>174.0981547181645</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7237,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.980534569394367</v>
+        <v>0.9809874882807623</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7252,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>181.2012451998298</v>
+        <v>186.1624116690346</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7419,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9961296639687935</v>
+        <v>0.9958158507988136</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7434,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>83.00165980805463</v>
+        <v>85.32466344390076</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7589,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.987895757388314</v>
+        <v>0.9868668528705041</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7604,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>160.7392385286907</v>
+        <v>159.5229600228983</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7765,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9882349166703632</v>
+        <v>0.9879776732928136</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7780,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>66.02101062610809</v>
+        <v>67.14186570870184</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7956,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9943798757798813</v>
+        <v>0.9946126755331952</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7971,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>94.85404742105707</v>
+        <v>95.39910472399082</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8147,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.994843977762105</v>
+        <v>0.9932817793405389</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8162,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>52.08327841997649</v>
+        <v>52.91184834047316</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8329,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9794604425179032</v>
+        <v>0.9794781498662869</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8344,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>56.74010315724075</v>
+        <v>57.3808046400971</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8502,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9642207143647346</v>
+        <v>0.9634051383805079</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8517,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>267.6007854002962</v>
+        <v>268.9742326020544</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8693,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9869356060414135</v>
+        <v>0.983385254292288</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8708,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>76.48622808432545</v>
+        <v>76.96443033987157</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8863,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9820951156608864</v>
+        <v>0.9821123060774561</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8878,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>91.94346817903323</v>
+        <v>94.43278685904248</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9042,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9972864981328731</v>
+        <v>0.9974848745715726</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9057,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>121.149273776778</v>
+        <v>123.4266871102571</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9209,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9984186045334185</v>
+        <v>0.9984266159835161</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9224,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>59.69610280053479</v>
+        <v>60.61174448516837</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9382,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9959842684583263</v>
+        <v>0.995726583298878</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9397,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>103.5534045350238</v>
+        <v>103.8921751834702</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9561,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9606049091243907</v>
+        <v>0.9596823795456941</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9576,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>94.71135251772272</v>
+        <v>98.28167821931785</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9734,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9958443347059055</v>
+        <v>0.9946033734057</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9749,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>76.87487363663818</v>
+        <v>78.95754581101176</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9922,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9935679690687317</v>
+        <v>0.9935439208882196</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9937,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>70.53810650414941</v>
+        <v>71.46049435306158</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -9971,9 +9974,6 @@
       </c>
       <c r="AK49">
         <v>891</v>
-      </c>
-      <c r="AM49">
-        <v>261758</v>
       </c>
       <c r="AN49">
         <v>17459</v>
@@ -10101,7 +10101,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.99370832568556</v>
+        <v>0.9940355424670781</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10116,7 +10116,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>86.59018546821194</v>
+        <v>87.8242314274034</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10286,7 +10286,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.998089928561483</v>
+        <v>0.9974694512041243</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10301,7 +10301,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>99.1912888045651</v>
+        <v>102.3436703527856</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10477,7 +10477,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.990441364509016</v>
+        <v>0.9910063175344715</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10492,7 +10492,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>72.97918039490466</v>
+        <v>74.02859091968128</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1485,7 +1485,7 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" s="1">
-        <v>1326</v>
+        <v>1275</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9968998061399676</v>
+        <v>0.9964981158602969</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>87.03640841007635</v>
+        <v>89.88029700798202</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="1">
-        <v>1327</v>
+        <v>1276</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9429552042308251</v>
+        <v>0.9404106588206864</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>139.2499003010997</v>
+        <v>144.7751868828219</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="1">
-        <v>1328</v>
+        <v>1277</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9804107862118947</v>
+        <v>0.9753217568895381</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>65.08885029542849</v>
+        <v>68.32715286200091</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="1">
-        <v>1329</v>
+        <v>1278</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9807553440815306</v>
+        <v>0.9796946025889361</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>87.62956901342159</v>
+        <v>93.08462719571239</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6" s="1">
-        <v>1330</v>
+        <v>1279</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9991125476565873</v>
+        <v>0.9989992139688193</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>107.0163467996014</v>
+        <v>111.2491700052699</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="7" spans="1:70">
       <c r="A7" s="1">
-        <v>1331</v>
+        <v>1280</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9866394859427369</v>
+        <v>0.9862439281840567</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>59.11906514277302</v>
+        <v>61.13160254859948</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="8" spans="1:70">
       <c r="A8" s="1">
-        <v>1332</v>
+        <v>1281</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9728764640577435</v>
+        <v>0.9724969169132128</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>140.4808661933054</v>
+        <v>145.2201442784595</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="9" spans="1:70">
       <c r="A9" s="1">
-        <v>1333</v>
+        <v>1282</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9746152423155178</v>
+        <v>0.9732413124670548</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>119.1736281404007</v>
+        <v>123.3537771738222</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="1">
-        <v>1334</v>
+        <v>1283</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9820017079271253</v>
+        <v>0.9808293100633118</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>122.5524428087271</v>
+        <v>127.5312897557103</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="11" spans="1:70">
       <c r="A11" s="1">
-        <v>1335</v>
+        <v>1284</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9902984386136668</v>
+        <v>0.9884943138110692</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>91.56310179655733</v>
+        <v>94.92887834543737</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="12" spans="1:70">
       <c r="A12" s="1">
-        <v>1336</v>
+        <v>1285</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9929134591885715</v>
+        <v>0.9932760854767921</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>89.69326569445492</v>
+        <v>91.72495309062066</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="13" spans="1:70">
       <c r="A13" s="1">
-        <v>1337</v>
+        <v>1286</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9561664018269852</v>
+        <v>0.9531917171518894</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>46.45021149708376</v>
+        <v>47.5770800307447</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14" s="1">
-        <v>1338</v>
+        <v>1287</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9824367484863543</v>
+        <v>0.9813290720547524</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>40.01954730706154</v>
+        <v>41.76905206970152</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="1">
-        <v>1339</v>
+        <v>1288</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9801229244802577</v>
+        <v>0.9782280174806069</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>143.7873596110756</v>
+        <v>147.9979273012812</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16" s="1">
-        <v>1340</v>
+        <v>1289</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.988443047379958</v>
+        <v>0.9882209298139889</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>74.27196209914484</v>
+        <v>76.87968011341721</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="1">
-        <v>1341</v>
+        <v>1290</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9824512590904796</v>
+        <v>0.9817740655187277</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>103.5223139191944</v>
+        <v>107.3807279974096</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="18" spans="1:70">
       <c r="A18" s="1">
-        <v>1342</v>
+        <v>1291</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9691965018548234</v>
+        <v>0.9693022685470134</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>64.76518609537835</v>
+        <v>67.04038312970997</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19" s="1">
-        <v>1343</v>
+        <v>1292</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9939141599766075</v>
+        <v>0.994033892984831</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>97.1470031800345</v>
+        <v>99.81637732502833</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="1">
-        <v>1344</v>
+        <v>1293</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.980095576027411</v>
+        <v>0.9806084747139736</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>138.5703847667279</v>
+        <v>144.2008301381451</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="1">
-        <v>1345</v>
+        <v>1294</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9973653074470411</v>
+        <v>0.9972478204745335</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>65.08199428672049</v>
+        <v>68.29961119842562</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="1">
-        <v>1346</v>
+        <v>1295</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9893454694346442</v>
+        <v>0.9880521347512269</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>97.97856282209507</v>
+        <v>101.6022221138543</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23" s="1">
-        <v>1347</v>
+        <v>1296</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9718015246758814</v>
+        <v>0.9711887770124806</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>142.5307449074174</v>
+        <v>144.5948225319345</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24" s="1">
-        <v>1348</v>
+        <v>1297</v>
       </c>
       <c r="B24" t="s">
         <v>91</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9869916856571916</v>
+        <v>0.987427912864283</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>112.2202681736812</v>
+        <v>116.2389018464816</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25" s="1">
-        <v>1349</v>
+        <v>1298</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9863958451638354</v>
+        <v>0.9848318503957399</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>103.490382905861</v>
+        <v>109.438759443461</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26" s="1">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9978765868107422</v>
+        <v>0.9978268755563343</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>105.5900128917838</v>
+        <v>109.2763686959924</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="27" spans="1:70">
       <c r="A27" s="1">
-        <v>1351</v>
+        <v>1300</v>
       </c>
       <c r="B27" t="s">
         <v>94</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9929050861153071</v>
+        <v>0.9933005756217247</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>59.30308903397712</v>
+        <v>61.58803509580587</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="28" spans="1:70">
       <c r="A28" s="1">
-        <v>1352</v>
+        <v>1301</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9416318920153308</v>
+        <v>0.9365443352122083</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>70.41996077049632</v>
+        <v>74.37574772363828</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="29" spans="1:70">
       <c r="A29" s="1">
-        <v>1353</v>
+        <v>1302</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9776731417125825</v>
+        <v>0.9761640224407684</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>106.05162167085</v>
+        <v>109.1081178915063</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="30" spans="1:70">
       <c r="A30" s="1">
-        <v>1354</v>
+        <v>1303</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9947225222245548</v>
+        <v>0.9945095792506483</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>98.43056563439943</v>
+        <v>103.1978623305883</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="31" spans="1:70">
       <c r="A31" s="1">
-        <v>1355</v>
+        <v>1304</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9896398773936272</v>
+        <v>0.9887237713622852</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>105.9524558809479</v>
+        <v>109.0795648402461</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="32" spans="1:70">
       <c r="A32" s="1">
-        <v>1356</v>
+        <v>1305</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9746933405388782</v>
+        <v>0.9749251727976543</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>179.9884687763813</v>
+        <v>186.6275512713611</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="33" spans="1:70">
       <c r="A33" s="1">
-        <v>1357</v>
+        <v>1306</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9929433014904802</v>
+        <v>0.9926045187099231</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>174.0981547181645</v>
+        <v>179.3224088092821</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="34" spans="1:70">
       <c r="A34" s="1">
-        <v>1358</v>
+        <v>1307</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9809874882807623</v>
+        <v>0.9813663982224948</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>186.1624116690346</v>
+        <v>195.1521722784536</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="35" spans="1:70">
       <c r="A35" s="1">
-        <v>1359</v>
+        <v>1308</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9958158507988136</v>
+        <v>0.9956199519814769</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>85.32466344390076</v>
+        <v>89.5037238448764</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="36" spans="1:70">
       <c r="A36" s="1">
-        <v>1360</v>
+        <v>1309</v>
       </c>
       <c r="B36" t="s">
         <v>103</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9868668528705041</v>
+        <v>0.9860103854396464</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>159.5229600228983</v>
+        <v>161.5663904653285</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="37" spans="1:70">
       <c r="A37" s="1">
-        <v>1361</v>
+        <v>1310</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9879776732928136</v>
+        <v>0.9878236051030832</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>67.14186570870184</v>
+        <v>69.75141565222799</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="38" spans="1:70">
       <c r="A38" s="1">
-        <v>1362</v>
+        <v>1311</v>
       </c>
       <c r="B38" t="s">
         <v>105</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9946126755331952</v>
+        <v>0.9941744372575017</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>95.39910472399082</v>
+        <v>97.99259477699505</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8108,7 +8108,7 @@
     </row>
     <row r="39" spans="1:70">
       <c r="A39" s="1">
-        <v>1363</v>
+        <v>1312</v>
       </c>
       <c r="B39" t="s">
         <v>106</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9932817793405389</v>
+        <v>0.9914374116288832</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>52.91184834047316</v>
+        <v>55.03416910733054</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="40" spans="1:70">
       <c r="A40" s="1">
-        <v>1364</v>
+        <v>1313</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9794781498662869</v>
+        <v>0.9794228067618672</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>57.3808046400971</v>
+        <v>59.21799979416866</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="41" spans="1:70">
       <c r="A41" s="1">
-        <v>1365</v>
+        <v>1314</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9634051383805079</v>
+        <v>0.9627243453324927</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>268.9742326020544</v>
+        <v>275.8791488286575</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="42" spans="1:70">
       <c r="A42" s="1">
-        <v>1366</v>
+        <v>1315</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.983385254292288</v>
+        <v>0.9800937286235433</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>76.96443033987157</v>
+        <v>79.21534400033833</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="43" spans="1:70">
       <c r="A43" s="1">
-        <v>1367</v>
+        <v>1316</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9821123060774561</v>
+        <v>0.982023542621612</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>94.43278685904248</v>
+        <v>98.93447836195331</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="44" spans="1:70">
       <c r="A44" s="1">
-        <v>1368</v>
+        <v>1317</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9974848745715726</v>
+        <v>0.9976263220428409</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>123.4266871102571</v>
+        <v>127.7696693270878</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="45" spans="1:70">
       <c r="A45" s="1">
-        <v>1369</v>
+        <v>1318</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9984266159835161</v>
+        <v>0.9977146376264937</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>60.61174448516837</v>
+        <v>62.86869744397116</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="46" spans="1:70">
       <c r="A46" s="1">
-        <v>1370</v>
+        <v>1319</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.995726583298878</v>
+        <v>0.9951604671159022</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>103.8921751834702</v>
+        <v>106.3472961050948</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="47" spans="1:70">
       <c r="A47" s="1">
-        <v>1371</v>
+        <v>1320</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9596823795456941</v>
+        <v>0.9594077558561288</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>98.28167821931785</v>
+        <v>103.5223152078269</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="48" spans="1:70">
       <c r="A48" s="1">
-        <v>1372</v>
+        <v>1321</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9946033734057</v>
+        <v>0.9932705905432011</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>78.95754581101176</v>
+        <v>82.44329171690822</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="49" spans="1:70">
       <c r="A49" s="1">
-        <v>1373</v>
+        <v>1322</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9935439208882196</v>
+        <v>0.993424571460377</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.46049435306158</v>
+        <v>73.01634272895149</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="50" spans="1:70">
       <c r="A50" s="1">
-        <v>1374</v>
+        <v>1323</v>
       </c>
       <c r="B50" t="s">
         <v>117</v>
@@ -10101,7 +10101,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9940355424670781</v>
+        <v>0.9944326353972376</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10116,7 +10116,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>87.8242314274034</v>
+        <v>91.6820832135913</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="51" spans="1:70">
       <c r="A51" s="1">
-        <v>1375</v>
+        <v>1324</v>
       </c>
       <c r="B51" t="s">
         <v>118</v>
@@ -10286,7 +10286,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9974694512041243</v>
+        <v>0.9969321113896761</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10301,7 +10301,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>102.3436703527856</v>
+        <v>107.5876543895955</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10435,7 +10435,7 @@
     </row>
     <row r="52" spans="1:70">
       <c r="A52" s="1">
-        <v>1376</v>
+        <v>1325</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
@@ -10477,7 +10477,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9910063175344715</v>
+        <v>0.9914718387693529</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10492,7 +10492,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>74.02859091968128</v>
+        <v>76.9908508582857</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1485,7 +1485,7 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" s="1">
-        <v>1275</v>
+        <v>1326</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9964981158602969</v>
+        <v>0.9961592479156857</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>89.88029700798202</v>
+        <v>90.04115460233564</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="1">
-        <v>1276</v>
+        <v>1327</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9404106588206864</v>
+        <v>0.9397239351714211</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>144.7751868828219</v>
+        <v>146.7049042308947</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="1">
-        <v>1277</v>
+        <v>1328</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9753217568895381</v>
+        <v>0.9664037842167511</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>68.32715286200091</v>
+        <v>70.32009170679116</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="1">
-        <v>1278</v>
+        <v>1329</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9796946025889361</v>
+        <v>0.9788525872380089</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>93.08462719571239</v>
+        <v>96.30563719740952</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6" s="1">
-        <v>1279</v>
+        <v>1330</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9989992139688193</v>
+        <v>0.9989866081681341</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>111.2491700052699</v>
+        <v>112.1891816464214</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="7" spans="1:70">
       <c r="A7" s="1">
-        <v>1280</v>
+        <v>1331</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9862439281840567</v>
+        <v>0.9861349829555971</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>61.13160254859948</v>
+        <v>61.09549432932703</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="8" spans="1:70">
       <c r="A8" s="1">
-        <v>1281</v>
+        <v>1332</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9724969169132128</v>
+        <v>0.9726576402200895</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>145.2201442784595</v>
+        <v>145.2057852438126</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="9" spans="1:70">
       <c r="A9" s="1">
-        <v>1282</v>
+        <v>1333</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9732413124670548</v>
+        <v>0.9724391266088579</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>123.3537771738222</v>
+        <v>123.9360634214795</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="1">
-        <v>1283</v>
+        <v>1334</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9808293100633118</v>
+        <v>0.9797940924902185</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>127.5312897557103</v>
+        <v>129.9528318899486</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="11" spans="1:70">
       <c r="A11" s="1">
-        <v>1284</v>
+        <v>1335</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9884943138110692</v>
+        <v>0.9849642522359273</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>94.92887834543737</v>
+        <v>95.03222452187312</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="12" spans="1:70">
       <c r="A12" s="1">
-        <v>1285</v>
+        <v>1336</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9932760854767921</v>
+        <v>0.993775093198015</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>91.72495309062066</v>
+        <v>90.54373781873208</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="13" spans="1:70">
       <c r="A13" s="1">
-        <v>1286</v>
+        <v>1337</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9531917171518894</v>
+        <v>0.9486710046525837</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>47.5770800307447</v>
+        <v>47.20874937362591</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14" s="1">
-        <v>1287</v>
+        <v>1338</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9813290720547524</v>
+        <v>0.9790864873161762</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>41.76905206970152</v>
+        <v>42.18795827493753</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="1">
-        <v>1288</v>
+        <v>1339</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9782280174806069</v>
+        <v>0.9764497301599224</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>147.9979273012812</v>
+        <v>147.1920176674367</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16" s="1">
-        <v>1289</v>
+        <v>1340</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9882209298139889</v>
+        <v>0.9880604987613879</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>76.87968011341721</v>
+        <v>77.2667658750067</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="1">
-        <v>1290</v>
+        <v>1341</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9817740655187277</v>
+        <v>0.9814176077767476</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>107.3807279974096</v>
+        <v>107.7364218614095</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="18" spans="1:70">
       <c r="A18" s="1">
-        <v>1291</v>
+        <v>1342</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9693022685470134</v>
+        <v>0.969875392798643</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>67.04038312970997</v>
+        <v>66.88309052915739</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19" s="1">
-        <v>1292</v>
+        <v>1343</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.994033892984831</v>
+        <v>0.9943127112898066</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>99.81637732502833</v>
+        <v>98.9967532613512</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="1">
-        <v>1293</v>
+        <v>1344</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9806084747139736</v>
+        <v>0.9811456191770703</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>144.2008301381451</v>
+        <v>147.7138304894793</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="1">
-        <v>1294</v>
+        <v>1345</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9972478204745335</v>
+        <v>0.9970121729984134</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>68.29961119842562</v>
+        <v>69.68714156262109</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="1">
-        <v>1295</v>
+        <v>1346</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9880521347512269</v>
+        <v>0.9866003494855357</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>101.6022221138543</v>
+        <v>101.4570166974397</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23" s="1">
-        <v>1296</v>
+        <v>1347</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9711887770124806</v>
+        <v>0.9708990652341133</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>144.5948225319345</v>
+        <v>140.9447682998858</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24" s="1">
-        <v>1297</v>
+        <v>1348</v>
       </c>
       <c r="B24" t="s">
         <v>91</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.987427912864283</v>
+        <v>0.9878939379814132</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>116.2389018464816</v>
+        <v>116.4300493378284</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25" s="1">
-        <v>1298</v>
+        <v>1349</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9848318503957399</v>
+        <v>0.983098586309864</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>109.438759443461</v>
+        <v>112.8172117498251</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26" s="1">
-        <v>1299</v>
+        <v>1350</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9978268755563343</v>
+        <v>0.9974095258352506</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>109.2763686959924</v>
+        <v>107.5099214479219</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="27" spans="1:70">
       <c r="A27" s="1">
-        <v>1300</v>
+        <v>1351</v>
       </c>
       <c r="B27" t="s">
         <v>94</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9933005756217247</v>
+        <v>0.9937324981036184</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>61.58803509580587</v>
+        <v>62.20957115090842</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="28" spans="1:70">
       <c r="A28" s="1">
-        <v>1301</v>
+        <v>1352</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9365443352122083</v>
+        <v>0.9294360189791309</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>74.37574772363828</v>
+        <v>76.41229236151167</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="29" spans="1:70">
       <c r="A29" s="1">
-        <v>1302</v>
+        <v>1353</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9761640224407684</v>
+        <v>0.9746093443552026</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>109.1081178915063</v>
+        <v>108.4823400732505</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="30" spans="1:70">
       <c r="A30" s="1">
-        <v>1303</v>
+        <v>1354</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9945095792506483</v>
+        <v>0.9937738217094277</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>103.1978623305883</v>
+        <v>104.503109855795</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="31" spans="1:70">
       <c r="A31" s="1">
-        <v>1304</v>
+        <v>1355</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9887237713622852</v>
+        <v>0.987791117227158</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>109.0795648402461</v>
+        <v>108.2614010763156</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="32" spans="1:70">
       <c r="A32" s="1">
-        <v>1305</v>
+        <v>1356</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9749251727976543</v>
+        <v>0.9754207310131512</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>186.6275512713611</v>
+        <v>187.2299378072</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="33" spans="1:70">
       <c r="A33" s="1">
-        <v>1306</v>
+        <v>1357</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9926045187099231</v>
+        <v>0.9922702244715028</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>179.3224088092821</v>
+        <v>178.0117911925355</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="34" spans="1:70">
       <c r="A34" s="1">
-        <v>1307</v>
+        <v>1358</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9813663982224948</v>
+        <v>0.9817962182323051</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>195.1521722784536</v>
+        <v>198.326251982529</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="35" spans="1:70">
       <c r="A35" s="1">
-        <v>1308</v>
+        <v>1359</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9956199519814769</v>
+        <v>0.9954994135222637</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>89.5037238448764</v>
+        <v>91.39499938336024</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="36" spans="1:70">
       <c r="A36" s="1">
-        <v>1309</v>
+        <v>1360</v>
       </c>
       <c r="B36" t="s">
         <v>103</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9860103854396464</v>
+        <v>0.985158553972416</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>161.5663904653285</v>
+        <v>157.46197925724</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="37" spans="1:70">
       <c r="A37" s="1">
-        <v>1310</v>
+        <v>1361</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9878236051030832</v>
+        <v>0.9880150425560127</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>69.75141565222799</v>
+        <v>70.37922709618562</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="38" spans="1:70">
       <c r="A38" s="1">
-        <v>1311</v>
+        <v>1362</v>
       </c>
       <c r="B38" t="s">
         <v>105</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9941744372575017</v>
+        <v>0.9926287857291358</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>97.99259477699505</v>
+        <v>97.10862630676617</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8108,7 +8108,7 @@
     </row>
     <row r="39" spans="1:70">
       <c r="A39" s="1">
-        <v>1312</v>
+        <v>1363</v>
       </c>
       <c r="B39" t="s">
         <v>106</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9914374116288832</v>
+        <v>0.9899194404485202</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>55.03416910733054</v>
+        <v>55.52976870713672</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="40" spans="1:70">
       <c r="A40" s="1">
-        <v>1313</v>
+        <v>1364</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9794228067618672</v>
+        <v>0.9796121127189775</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>59.21799979416866</v>
+        <v>59.08849198510289</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="41" spans="1:70">
       <c r="A41" s="1">
-        <v>1314</v>
+        <v>1365</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9627243453324927</v>
+        <v>0.9620642334428544</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>275.8791488286575</v>
+        <v>271.6472556412929</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="42" spans="1:70">
       <c r="A42" s="1">
-        <v>1315</v>
+        <v>1366</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9800937286235433</v>
+        <v>0.9753737900825339</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>79.21534400033833</v>
+        <v>79.21206590914773</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="43" spans="1:70">
       <c r="A43" s="1">
-        <v>1316</v>
+        <v>1367</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.982023542621612</v>
+        <v>0.9823547543134878</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>98.93447836195331</v>
+        <v>99.85418609385026</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="44" spans="1:70">
       <c r="A44" s="1">
-        <v>1317</v>
+        <v>1368</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9976263220428409</v>
+        <v>0.997722347219602</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>127.7696693270878</v>
+        <v>127.6015305112719</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="45" spans="1:70">
       <c r="A45" s="1">
-        <v>1318</v>
+        <v>1369</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9977146376264937</v>
+        <v>0.9963900620208475</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>62.86869744397116</v>
+        <v>63.16813984993416</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="46" spans="1:70">
       <c r="A46" s="1">
-        <v>1319</v>
+        <v>1370</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9951604671159022</v>
+        <v>0.9943048237540392</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>106.3472961050948</v>
+        <v>104.8064872560287</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="47" spans="1:70">
       <c r="A47" s="1">
-        <v>1320</v>
+        <v>1371</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9594077558561288</v>
+        <v>0.9584497863921442</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>103.5223152078269</v>
+        <v>105.6995652922421</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="48" spans="1:70">
       <c r="A48" s="1">
-        <v>1321</v>
+        <v>1372</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9932705905432011</v>
+        <v>0.9918401046346236</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>82.44329171690822</v>
+        <v>83.53371344839378</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="49" spans="1:70">
       <c r="A49" s="1">
-        <v>1322</v>
+        <v>1373</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.993424571460377</v>
+        <v>0.9933033041679152</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>73.01634272895149</v>
+        <v>71.00006162692861</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="50" spans="1:70">
       <c r="A50" s="1">
-        <v>1323</v>
+        <v>1374</v>
       </c>
       <c r="B50" t="s">
         <v>117</v>
@@ -10101,7 +10101,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9944326353972376</v>
+        <v>0.9947062182816711</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10116,7 +10116,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>91.6820832135913</v>
+        <v>91.98327489598616</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="51" spans="1:70">
       <c r="A51" s="1">
-        <v>1324</v>
+        <v>1375</v>
       </c>
       <c r="B51" t="s">
         <v>118</v>
@@ -10286,7 +10286,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9969321113896761</v>
+        <v>0.9963623702224854</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10301,7 +10301,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>107.5876543895955</v>
+        <v>109.5417916070343</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10435,7 +10435,7 @@
     </row>
     <row r="52" spans="1:70">
       <c r="A52" s="1">
-        <v>1325</v>
+        <v>1376</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
@@ -10477,7 +10477,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9914718387693529</v>
+        <v>0.9918399717290611</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10492,7 +10492,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>76.9908508582857</v>
+        <v>75.15676442362235</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1485,7 +1485,7 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" s="1">
-        <v>1326</v>
+        <v>1275</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9961592479156857</v>
+        <v>0.9961548173283249</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>90.04115460233564</v>
+        <v>91.53394787277495</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="1">
-        <v>1327</v>
+        <v>1276</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9397239351714211</v>
+        <v>0.9396936619575512</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>146.7049042308947</v>
+        <v>149.9804404139065</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="1">
-        <v>1328</v>
+        <v>1277</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9664037842167511</v>
+        <v>0.9585735101071652</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>70.32009170679116</v>
+        <v>72.4740470704175</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1900,7 +1900,7 @@
         <v>730</v>
       </c>
       <c r="AA4">
-        <v>1482</v>
+        <v>2350</v>
       </c>
       <c r="AB4">
         <v>295</v>
@@ -1927,7 +1927,7 @@
         <v>517</v>
       </c>
       <c r="AL4">
-        <v>1482</v>
+        <v>2350</v>
       </c>
       <c r="AM4">
         <v>101125</v>
@@ -1951,7 +1951,7 @@
         <v>67</v>
       </c>
       <c r="AW4">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="1">
-        <v>1329</v>
+        <v>1278</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9788525872380089</v>
+        <v>0.9782316520703097</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>96.30563719740952</v>
+        <v>99.37484707052971</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6" s="1">
-        <v>1330</v>
+        <v>1279</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9989866081681341</v>
+        <v>0.9987941687246119</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>112.1891816464214</v>
+        <v>114.621214595318</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="7" spans="1:70">
       <c r="A7" s="1">
-        <v>1331</v>
+        <v>1280</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9861349829555971</v>
+        <v>0.9860540186790731</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>61.09549432932703</v>
+        <v>62.20774888055355</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="8" spans="1:70">
       <c r="A8" s="1">
-        <v>1332</v>
+        <v>1281</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9726576402200895</v>
+        <v>0.9726436968450395</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>145.2057852438126</v>
+        <v>147.7700549584814</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="9" spans="1:70">
       <c r="A9" s="1">
-        <v>1333</v>
+        <v>1282</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9724391266088579</v>
+        <v>0.9719125100354388</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>123.9360634214795</v>
+        <v>126.6392305279023</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2816,7 +2816,7 @@
         <v>281</v>
       </c>
       <c r="AK9">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="AP9">
         <v>6111</v>
@@ -2837,7 +2837,7 @@
         <v>938</v>
       </c>
       <c r="AV9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW9">
         <v>0</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="1">
-        <v>1334</v>
+        <v>1283</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9797940924902185</v>
+        <v>0.978849421709537</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>129.9528318899486</v>
+        <v>133.2805559023537</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="11" spans="1:70">
       <c r="A11" s="1">
-        <v>1335</v>
+        <v>1284</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9849642522359273</v>
+        <v>0.9806884548028498</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>95.03222452187312</v>
+        <v>96.85147746037484</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="12" spans="1:70">
       <c r="A12" s="1">
-        <v>1336</v>
+        <v>1285</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.993775093198015</v>
+        <v>0.9941931544408225</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>90.54373781873208</v>
+        <v>91.58501914554807</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="13" spans="1:70">
       <c r="A13" s="1">
-        <v>1337</v>
+        <v>1286</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9486710046525837</v>
+        <v>0.9437349933161601</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>47.20874937362591</v>
+        <v>47.81581927580163</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14" s="1">
-        <v>1338</v>
+        <v>1287</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9790864873161762</v>
+        <v>0.9762479729976651</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>42.18795827493753</v>
+        <v>42.977139494608</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="1">
-        <v>1339</v>
+        <v>1288</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9764497301599224</v>
+        <v>0.9749763890778772</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>147.1920176674367</v>
+        <v>149.453713546894</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16" s="1">
-        <v>1340</v>
+        <v>1289</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9880604987613879</v>
+        <v>0.9879377796585311</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>77.2667658750067</v>
+        <v>78.84787775501175</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="1">
-        <v>1341</v>
+        <v>1290</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9814176077767476</v>
+        <v>0.9813897143857576</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>107.7364218614095</v>
+        <v>109.7394337303711</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="18" spans="1:70">
       <c r="A18" s="1">
-        <v>1342</v>
+        <v>1291</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.969875392798643</v>
+        <v>0.9704972644250689</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>66.88309052915739</v>
+        <v>68.07288019186623</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19" s="1">
-        <v>1343</v>
+        <v>1292</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9943127112898066</v>
+        <v>0.9944689672255347</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>98.9967532613512</v>
+        <v>100.4023862570682</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="1">
-        <v>1344</v>
+        <v>1293</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9811456191770703</v>
+        <v>0.981659257592705</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>147.7138304894793</v>
+        <v>151.7772520123101</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="1">
-        <v>1345</v>
+        <v>1294</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9970121729984134</v>
+        <v>0.996702555912258</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>69.68714156262109</v>
+        <v>71.53593001211121</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="1">
-        <v>1346</v>
+        <v>1295</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9866003494855357</v>
+        <v>0.9851929909913988</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>101.4570166974397</v>
+        <v>103.2403366612406</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23" s="1">
-        <v>1347</v>
+        <v>1296</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9708990652341133</v>
+        <v>0.9705834515204367</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>140.9447682998858</v>
+        <v>141.5574427157853</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24" s="1">
-        <v>1348</v>
+        <v>1297</v>
       </c>
       <c r="B24" t="s">
         <v>91</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9878939379814132</v>
+        <v>0.9882887715048982</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>116.4300493378284</v>
+        <v>118.4723961100509</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25" s="1">
-        <v>1349</v>
+        <v>1298</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.983098586309864</v>
+        <v>0.9817307467490208</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>112.8172117498251</v>
+        <v>116.3471431019844</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26" s="1">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9974095258352506</v>
+        <v>0.9971131485166618</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>107.5099214479219</v>
+        <v>109.3888784191183</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="27" spans="1:70">
       <c r="A27" s="1">
-        <v>1351</v>
+        <v>1300</v>
       </c>
       <c r="B27" t="s">
         <v>94</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9937324981036184</v>
+        <v>0.9940717914068239</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>62.20957115090842</v>
+        <v>63.4642306382282</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="28" spans="1:70">
       <c r="A28" s="1">
-        <v>1352</v>
+        <v>1301</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9294360189791309</v>
+        <v>0.9210771907078852</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>76.41229236151167</v>
+        <v>78.48934719960789</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="29" spans="1:70">
       <c r="A29" s="1">
-        <v>1353</v>
+        <v>1302</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9746093443552026</v>
+        <v>0.9731312257934863</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>108.4823400732505</v>
+        <v>110.2133837683125</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="30" spans="1:70">
       <c r="A30" s="1">
-        <v>1354</v>
+        <v>1303</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9937738217094277</v>
+        <v>0.9928326829811833</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>104.503109855795</v>
+        <v>107.0794355845264</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6569,7 +6569,7 @@
         <v>294</v>
       </c>
       <c r="AK30">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="AM30">
         <v>65544</v>
@@ -6593,7 +6593,7 @@
         <v>1987</v>
       </c>
       <c r="AV30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="31" spans="1:70">
       <c r="A31" s="1">
-        <v>1355</v>
+        <v>1304</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.987791117227158</v>
+        <v>0.9868490708601265</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>108.2614010763156</v>
+        <v>110.0345008057216</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="32" spans="1:70">
       <c r="A32" s="1">
-        <v>1356</v>
+        <v>1305</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9754207310131512</v>
+        <v>0.9758490774144092</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>187.2299378072</v>
+        <v>191.2847067363578</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="33" spans="1:70">
       <c r="A33" s="1">
-        <v>1357</v>
+        <v>1306</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9922702244715028</v>
+        <v>0.9921320852609766</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>178.0117911925355</v>
+        <v>180.3655798148936</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="34" spans="1:70">
       <c r="A34" s="1">
-        <v>1358</v>
+        <v>1307</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9817962182323051</v>
+        <v>0.9821488351939572</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>198.326251982529</v>
+        <v>203.17023778342</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="35" spans="1:70">
       <c r="A35" s="1">
-        <v>1359</v>
+        <v>1308</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9954994135222637</v>
+        <v>0.9952795482136761</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>91.39499938336024</v>
+        <v>93.80962655871849</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="36" spans="1:70">
       <c r="A36" s="1">
-        <v>1360</v>
+        <v>1309</v>
       </c>
       <c r="B36" t="s">
         <v>103</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.985158553972416</v>
+        <v>0.9844215367003923</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>157.46197925724</v>
+        <v>158.0238058924984</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="37" spans="1:70">
       <c r="A37" s="1">
-        <v>1361</v>
+        <v>1310</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9880150425560127</v>
+        <v>0.9883347597064077</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>70.37922709618562</v>
+        <v>71.97855804974382</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="38" spans="1:70">
       <c r="A38" s="1">
-        <v>1362</v>
+        <v>1311</v>
       </c>
       <c r="B38" t="s">
         <v>105</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9926287857291358</v>
+        <v>0.9900390545618953</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>97.10862630676617</v>
+        <v>98.27391121152233</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8108,7 +8108,7 @@
     </row>
     <row r="39" spans="1:70">
       <c r="A39" s="1">
-        <v>1363</v>
+        <v>1312</v>
       </c>
       <c r="B39" t="s">
         <v>106</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9899194404485202</v>
+        <v>0.9886104819709842</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>55.52976870713672</v>
+        <v>56.7613242684394</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="40" spans="1:70">
       <c r="A40" s="1">
-        <v>1364</v>
+        <v>1313</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9796121127189775</v>
+        <v>0.9798306541168111</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>59.08849198510289</v>
+        <v>60.08776123620963</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="41" spans="1:70">
       <c r="A41" s="1">
-        <v>1365</v>
+        <v>1314</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9620642334428544</v>
+        <v>0.9615473858506286</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>271.6472556412929</v>
+        <v>274.329813760173</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="42" spans="1:70">
       <c r="A42" s="1">
-        <v>1366</v>
+        <v>1315</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9753737900825339</v>
+        <v>0.97057640889811</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>79.21206590914773</v>
+        <v>80.69518614907113</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="43" spans="1:70">
       <c r="A43" s="1">
-        <v>1367</v>
+        <v>1316</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9823547543134878</v>
+        <v>0.9825784888827817</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>99.85418609385026</v>
+        <v>101.9816028587354</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="44" spans="1:70">
       <c r="A44" s="1">
-        <v>1368</v>
+        <v>1317</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.997722347219602</v>
+        <v>0.9978709122358577</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>127.6015305112719</v>
+        <v>129.6309653746785</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="45" spans="1:70">
       <c r="A45" s="1">
-        <v>1369</v>
+        <v>1318</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9963900620208475</v>
+        <v>0.9944280946049716</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>63.16813984993416</v>
+        <v>64.36408866906658</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="46" spans="1:70">
       <c r="A46" s="1">
-        <v>1370</v>
+        <v>1319</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9943048237540392</v>
+        <v>0.9933386403683274</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>104.8064872560287</v>
+        <v>105.6502142038924</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="47" spans="1:70">
       <c r="A47" s="1">
-        <v>1371</v>
+        <v>1320</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9584497863921442</v>
+        <v>0.9577699286930086</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>105.6995652922421</v>
+        <v>108.5934239042338</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="48" spans="1:70">
       <c r="A48" s="1">
-        <v>1372</v>
+        <v>1321</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9918401046346236</v>
+        <v>0.9905480469442071</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>83.53371344839378</v>
+        <v>85.63677801517683</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="49" spans="1:70">
       <c r="A49" s="1">
-        <v>1373</v>
+        <v>1322</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9933033041679152</v>
+        <v>0.993000411042239</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.00006162692861</v>
+        <v>71.61429497600437</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -9949,10 +9949,10 @@
         <v>221</v>
       </c>
       <c r="W49">
-        <v>17758</v>
+        <v>18124</v>
       </c>
       <c r="X49">
-        <v>244000</v>
+        <v>221418</v>
       </c>
       <c r="Z49">
         <v>393</v>
@@ -9975,29 +9975,23 @@
       <c r="AK49">
         <v>891</v>
       </c>
-      <c r="AN49">
-        <v>17459</v>
-      </c>
-      <c r="AO49">
-        <v>244299</v>
-      </c>
       <c r="AP49">
-        <v>17758</v>
+        <v>17519</v>
       </c>
       <c r="AQ49">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AR49">
-        <v>6101</v>
+        <v>4965</v>
       </c>
       <c r="AS49">
-        <v>261758</v>
+        <v>239542</v>
       </c>
       <c r="AT49">
-        <v>261758</v>
+        <v>239542</v>
       </c>
       <c r="AU49">
-        <v>6306</v>
+        <v>5175</v>
       </c>
       <c r="AV49">
         <v>21</v>
@@ -10027,13 +10021,13 @@
         <v>2759.50955787437</v>
       </c>
       <c r="BF49">
-        <v>0.002332009130003534</v>
+        <v>0.002380072838843566</v>
       </c>
       <c r="BG49">
-        <v>0.03204247256002152</v>
+        <v>0.0290769679889133</v>
       </c>
       <c r="BH49">
-        <v>6.78</v>
+        <v>7.57</v>
       </c>
       <c r="BI49">
         <v>0.0302932687301056</v>
@@ -10051,10 +10045,10 @@
         <v>2.956648579205203</v>
       </c>
       <c r="BN49">
-        <v>5.38738982633873</v>
+        <v>5.345212923601941</v>
       </c>
       <c r="BO49">
-        <v>4.249394051652351</v>
+        <v>4.258254053507148</v>
       </c>
       <c r="BP49">
         <v>2.594392550375427</v>
@@ -10065,7 +10059,7 @@
     </row>
     <row r="50" spans="1:70">
       <c r="A50" s="1">
-        <v>1374</v>
+        <v>1323</v>
       </c>
       <c r="B50" t="s">
         <v>117</v>
@@ -10101,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9947062182816711</v>
+        <v>0.9949874688666737</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10116,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>91.98327489598616</v>
+        <v>92.96456470501974</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10244,7 +10238,7 @@
     </row>
     <row r="51" spans="1:70">
       <c r="A51" s="1">
-        <v>1375</v>
+        <v>1324</v>
       </c>
       <c r="B51" t="s">
         <v>118</v>
@@ -10286,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9963623702224854</v>
+        <v>0.9958508341621574</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10301,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>109.5417916070343</v>
+        <v>112.3991414945011</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10435,7 +10429,7 @@
     </row>
     <row r="52" spans="1:70">
       <c r="A52" s="1">
-        <v>1376</v>
+        <v>1325</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
@@ -10477,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9918399717290611</v>
+        <v>0.9921087492341135</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10492,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>75.15676442362235</v>
+        <v>74.64535882271714</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1485,7 +1485,7 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" s="1">
-        <v>1275</v>
+        <v>1326</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9961548173283249</v>
+        <v>0.995740029819967</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>91.53394787277495</v>
+        <v>93.63576722716572</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="1">
-        <v>1276</v>
+        <v>1327</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9396936619575512</v>
+        <v>0.941579943071723</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>149.9804404139065</v>
+        <v>158.8042906917459</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="1">
-        <v>1277</v>
+        <v>1328</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9585735101071652</v>
+        <v>0.9441045369039668</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>72.4740470704175</v>
+        <v>77.28268517144416</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="1">
-        <v>1278</v>
+        <v>1329</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9782316520703097</v>
+        <v>0.9758290430435747</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>99.37484707052971</v>
+        <v>106.9951767558049</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6" s="1">
-        <v>1279</v>
+        <v>1330</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9987941687246119</v>
+        <v>0.9973553542211694</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>114.621214595318</v>
+        <v>119.4972301309272</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="7" spans="1:70">
       <c r="A7" s="1">
-        <v>1280</v>
+        <v>1331</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9860540186790731</v>
+        <v>0.9862008954329935</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>62.20774888055355</v>
+        <v>63.39803093524244</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="8" spans="1:70">
       <c r="A8" s="1">
-        <v>1281</v>
+        <v>1332</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9726436968450395</v>
+        <v>0.9726273871673385</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>147.7700549584814</v>
+        <v>148.7513674427119</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="9" spans="1:70">
       <c r="A9" s="1">
-        <v>1282</v>
+        <v>1333</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9719125100354388</v>
+        <v>0.9706811862205743</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>126.6392305279023</v>
+        <v>129.0832742431774</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="1">
-        <v>1283</v>
+        <v>1334</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.978849421709537</v>
+        <v>0.9765817195148566</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>133.2805559023537</v>
+        <v>140.1539389883827</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="11" spans="1:70">
       <c r="A11" s="1">
-        <v>1284</v>
+        <v>1335</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9806884548028498</v>
+        <v>0.9607522077623787</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>96.85147746037484</v>
+        <v>99.18328655735544</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="12" spans="1:70">
       <c r="A12" s="1">
-        <v>1285</v>
+        <v>1336</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9941931544408225</v>
+        <v>0.9940822406090747</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>91.58501914554807</v>
+        <v>92.40718439791485</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="13" spans="1:70">
       <c r="A13" s="1">
-        <v>1286</v>
+        <v>1337</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9437349933161601</v>
+        <v>0.9326524842233436</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>47.81581927580163</v>
+        <v>48.59268965463461</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14" s="1">
-        <v>1287</v>
+        <v>1338</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9762479729976651</v>
+        <v>0.9595963222916397</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>42.977139494608</v>
+        <v>45.46032725857822</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="1">
-        <v>1288</v>
+        <v>1339</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9749763890778772</v>
+        <v>0.9718002033413174</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>149.453713546894</v>
+        <v>151.2859703081176</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16" s="1">
-        <v>1289</v>
+        <v>1340</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9879377796585311</v>
+        <v>0.9875914125992487</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>78.84787775501175</v>
+        <v>81.08191263332981</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="1">
-        <v>1290</v>
+        <v>1341</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9813897143857576</v>
+        <v>0.9814184807587094</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>109.7394337303711</v>
+        <v>112.5846422331287</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="18" spans="1:70">
       <c r="A18" s="1">
-        <v>1291</v>
+        <v>1342</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9704972644250689</v>
+        <v>0.9735394097187717</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>68.07288019186623</v>
+        <v>69.53434428832985</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19" s="1">
-        <v>1292</v>
+        <v>1343</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9944689672255347</v>
+        <v>0.9950381933825593</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>100.4023862570682</v>
+        <v>100.9351511180232</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="1">
-        <v>1293</v>
+        <v>1344</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.981659257592705</v>
+        <v>0.9817132357612998</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>151.7772520123101</v>
+        <v>158.9364260580127</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="1">
-        <v>1294</v>
+        <v>1345</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.996702555912258</v>
+        <v>0.9961676975669754</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>71.53593001211121</v>
+        <v>74.81600639285085</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="1">
-        <v>1295</v>
+        <v>1346</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9851929909913988</v>
+        <v>0.981830465517076</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>103.2403366612406</v>
+        <v>104.6609366406851</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23" s="1">
-        <v>1296</v>
+        <v>1347</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9705834515204367</v>
+        <v>0.9699933543129484</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>141.5574427157853</v>
+        <v>139.3761503069926</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24" s="1">
-        <v>1297</v>
+        <v>1348</v>
       </c>
       <c r="B24" t="s">
         <v>91</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9882887715048982</v>
+        <v>0.9891974571985235</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>118.4723961100509</v>
+        <v>120.5064115436082</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25" s="1">
-        <v>1298</v>
+        <v>1349</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9817307467490208</v>
+        <v>0.9783491147904497</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>116.3471431019844</v>
+        <v>122.5853459065865</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26" s="1">
-        <v>1299</v>
+        <v>1350</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9971131485166618</v>
+        <v>0.9972373089624437</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>109.3888784191183</v>
+        <v>110.5718127122548</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="27" spans="1:70">
       <c r="A27" s="1">
-        <v>1300</v>
+        <v>1351</v>
       </c>
       <c r="B27" t="s">
         <v>94</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9940717914068239</v>
+        <v>0.9943986658036882</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>63.4642306382282</v>
+        <v>65.38742598918874</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="28" spans="1:70">
       <c r="A28" s="1">
-        <v>1301</v>
+        <v>1352</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9210771907078852</v>
+        <v>0.9001407125845154</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>78.48934719960789</v>
+        <v>83.09864703466461</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="29" spans="1:70">
       <c r="A29" s="1">
-        <v>1302</v>
+        <v>1353</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9731312257934863</v>
+        <v>0.9698825173018983</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>110.2133837683125</v>
+        <v>111.0130361881314</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="30" spans="1:70">
       <c r="A30" s="1">
-        <v>1303</v>
+        <v>1354</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9928326829811833</v>
+        <v>0.9879034061308822</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>107.0794355845264</v>
+        <v>109.3332820062451</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="31" spans="1:70">
       <c r="A31" s="1">
-        <v>1304</v>
+        <v>1355</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9868490708601265</v>
+        <v>0.9843574390058857</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.0345008057216</v>
+        <v>109.9762157245014</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="32" spans="1:70">
       <c r="A32" s="1">
-        <v>1305</v>
+        <v>1356</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9758490774144092</v>
+        <v>0.976893670579473</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>191.2847067363578</v>
+        <v>194.4092026618191</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="33" spans="1:70">
       <c r="A33" s="1">
-        <v>1306</v>
+        <v>1357</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9921320852609766</v>
+        <v>0.9922561243179082</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>180.3655798148936</v>
+        <v>182.188092954467</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="34" spans="1:70">
       <c r="A34" s="1">
-        <v>1307</v>
+        <v>1358</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9821488351939572</v>
+        <v>0.9828143702079262</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>203.17023778342</v>
+        <v>211.1610001569674</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="35" spans="1:70">
       <c r="A35" s="1">
-        <v>1308</v>
+        <v>1359</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9952795482136761</v>
+        <v>0.9954424455418243</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>93.80962655871849</v>
+        <v>98.21018333517218</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="36" spans="1:70">
       <c r="A36" s="1">
-        <v>1309</v>
+        <v>1360</v>
       </c>
       <c r="B36" t="s">
         <v>103</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9844215367003923</v>
+        <v>0.9827500548209438</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>158.0238058924984</v>
+        <v>155.9905721117894</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="37" spans="1:70">
       <c r="A37" s="1">
-        <v>1310</v>
+        <v>1361</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9883347597064077</v>
+        <v>0.9895401846871976</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>71.97855804974382</v>
+        <v>74.57300784209592</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="38" spans="1:70">
       <c r="A38" s="1">
-        <v>1311</v>
+        <v>1362</v>
       </c>
       <c r="B38" t="s">
         <v>105</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9900390545618953</v>
+        <v>0.9820133945569195</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>98.27391121152233</v>
+        <v>99.43776601559178</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8108,7 +8108,7 @@
     </row>
     <row r="39" spans="1:70">
       <c r="A39" s="1">
-        <v>1312</v>
+        <v>1363</v>
       </c>
       <c r="B39" t="s">
         <v>106</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9886104819709842</v>
+        <v>0.9832285793269088</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>56.7613242684394</v>
+        <v>58.54209492811339</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="40" spans="1:70">
       <c r="A40" s="1">
-        <v>1313</v>
+        <v>1364</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9798306541168111</v>
+        <v>0.9806215183799796</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>60.08776123620963</v>
+        <v>61.22938109954558</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="41" spans="1:70">
       <c r="A41" s="1">
-        <v>1314</v>
+        <v>1365</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9615473858506286</v>
+        <v>0.9607602063664423</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>274.329813760173</v>
+        <v>272.4296520743738</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="42" spans="1:70">
       <c r="A42" s="1">
-        <v>1315</v>
+        <v>1366</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.97057640889811</v>
+        <v>0.9590539510032109</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>80.69518614907113</v>
+        <v>82.51981547947499</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="43" spans="1:70">
       <c r="A43" s="1">
-        <v>1316</v>
+        <v>1367</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9825784888827817</v>
+        <v>0.9827965643772899</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>101.9816028587354</v>
+        <v>103.7031124239913</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="44" spans="1:70">
       <c r="A44" s="1">
-        <v>1317</v>
+        <v>1368</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9978709122358577</v>
+        <v>0.997582898574171</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>129.6309653746785</v>
+        <v>131.7269506837322</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="45" spans="1:70">
       <c r="A45" s="1">
-        <v>1318</v>
+        <v>1369</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9944280946049716</v>
+        <v>0.9845773366767685</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>64.36408866906658</v>
+        <v>67.1087876683481</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="46" spans="1:70">
       <c r="A46" s="1">
-        <v>1319</v>
+        <v>1370</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9933386403683274</v>
+        <v>0.9911367684333515</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>105.6502142038924</v>
+        <v>106.1553195449286</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="47" spans="1:70">
       <c r="A47" s="1">
-        <v>1320</v>
+        <v>1371</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9577699286930086</v>
+        <v>0.9559963198829728</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>108.5934239042338</v>
+        <v>112.1998750967703</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="48" spans="1:70">
       <c r="A48" s="1">
-        <v>1321</v>
+        <v>1372</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9905480469442071</v>
+        <v>0.9875342187195757</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>85.63677801517683</v>
+        <v>88.98754082944932</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="49" spans="1:70">
       <c r="A49" s="1">
-        <v>1322</v>
+        <v>1373</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.993000411042239</v>
+        <v>0.9919751296966465</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.61429497600437</v>
+        <v>71.13296840090064</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="50" spans="1:70">
       <c r="A50" s="1">
-        <v>1323</v>
+        <v>1374</v>
       </c>
       <c r="B50" t="s">
         <v>117</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9949874688666737</v>
+        <v>0.9954696619986333</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>92.96456470501974</v>
+        <v>96.00187002978161</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10238,7 +10238,7 @@
     </row>
     <row r="51" spans="1:70">
       <c r="A51" s="1">
-        <v>1324</v>
+        <v>1375</v>
       </c>
       <c r="B51" t="s">
         <v>118</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9958508341621574</v>
+        <v>0.9952249640912556</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>112.3991414945011</v>
+        <v>116.6500361045993</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10304,7 +10304,7 @@
         <v>223</v>
       </c>
       <c r="W51">
-        <v>9590</v>
+        <v>11030</v>
       </c>
       <c r="X51">
         <v>97265</v>
@@ -10349,19 +10349,19 @@
         <v>9590</v>
       </c>
       <c r="AQ51">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="AR51">
         <v>4230</v>
       </c>
       <c r="AS51">
-        <v>107059</v>
+        <v>108499</v>
       </c>
       <c r="AT51">
-        <v>106855</v>
+        <v>108295</v>
       </c>
       <c r="AU51">
-        <v>4605</v>
+        <v>4639</v>
       </c>
       <c r="AV51">
         <v>10</v>
@@ -10391,13 +10391,13 @@
         <v>2412.972026360853</v>
       </c>
       <c r="BF51">
-        <v>0.001647077493707958</v>
+        <v>0.001894396741981103</v>
       </c>
       <c r="BG51">
         <v>0.01670521297450516</v>
       </c>
       <c r="BH51">
-        <v>8.970000000000001</v>
+        <v>10.19</v>
       </c>
       <c r="BI51">
         <v>0.01835229046821312</v>
@@ -10418,7 +10418,7 @@
         <v>4.987956591127648</v>
       </c>
       <c r="BO51">
-        <v>3.981818607170664</v>
+        <v>4.042575512440191</v>
       </c>
       <c r="BP51">
         <v>2.741939077729199</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="52" spans="1:70">
       <c r="A52" s="1">
-        <v>1325</v>
+        <v>1376</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9921087492341135</v>
+        <v>0.9910505315039742</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>74.64535882271714</v>
+        <v>69.67687104084791</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.995740029819967</v>
+        <v>0.9957198271608096</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>93.63576722716572</v>
+        <v>94.17460279771319</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.941579943071723</v>
+        <v>0.9416234988714823</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>158.8042906917459</v>
+        <v>161.1657703452206</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9441045369039668</v>
+        <v>0.9416302945395029</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>77.28268517144416</v>
+        <v>78.55829070613936</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9758290430435747</v>
+        <v>0.9756548854389184</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>106.9951767558049</v>
+        <v>108.5926591479994</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9973553542211694</v>
+        <v>0.997120343810341</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>119.4972301309272</v>
+        <v>120.7833787394953</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9862008954329935</v>
+        <v>0.9863294319419419</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>63.39803093524244</v>
+        <v>63.79255926185238</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9726273871673385</v>
+        <v>0.9726897996040695</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>148.7513674427119</v>
+        <v>149.4742936333717</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9706811862205743</v>
+        <v>0.9706709313977862</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>129.0832742431774</v>
+        <v>129.9258101497012</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9765817195148566</v>
+        <v>0.9761982589502315</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>140.1539389883827</v>
+        <v>141.9920359275459</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9607522077623787</v>
+        <v>0.9530347456377598</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>99.18328655735544</v>
+        <v>100.1498378133831</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9940822406090747</v>
+        <v>0.9937616129639405</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>92.40718439791485</v>
+        <v>92.84273643376157</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9326524842233436</v>
+        <v>0.9300139538671437</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>48.59268965463461</v>
+        <v>48.88559337870696</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9595963222916397</v>
+        <v>0.955787719135243</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>45.46032725857822</v>
+        <v>46.1118479530081</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9718002033413174</v>
+        <v>0.9713652571769928</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>151.2859703081176</v>
+        <v>152.0348998866004</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9875914125992487</v>
+        <v>0.9876202924226223</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>81.08191263332981</v>
+        <v>81.72690307282025</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9814184807587094</v>
+        <v>0.9816351699256938</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>112.5846422331287</v>
+        <v>113.4816611171951</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9735394097187717</v>
+        <v>0.9742755994189101</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>69.53434428832985</v>
+        <v>69.83999931161209</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9950381933825593</v>
+        <v>0.9951545601548393</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>100.9351511180232</v>
+        <v>101.2593066800259</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9817132357612998</v>
+        <v>0.9815359208210908</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>158.9364260580127</v>
+        <v>160.696125944513</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961676975669754</v>
+        <v>0.9961596677415651</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>74.81600639285085</v>
+        <v>75.72586349048588</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.981830465517076</v>
+        <v>0.981219406551598</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>104.6609366406851</v>
+        <v>105.1050221677826</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699933543129484</v>
+        <v>0.9699677964863325</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>139.3761503069926</v>
+        <v>139.1897250023065</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9891974571985235</v>
+        <v>0.9893681970356822</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>120.5064115436082</v>
+        <v>121.194751817897</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9783491147904497</v>
+        <v>0.977925651293481</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>122.5853459065865</v>
+        <v>124.1973757105089</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9972373089624437</v>
+        <v>0.9972422438048169</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>110.5718127122548</v>
+        <v>111.0521247818871</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9943986658036882</v>
+        <v>0.9944472628837248</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>65.38742598918874</v>
+        <v>65.98092882083337</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9001407125845154</v>
+        <v>0.8967777620169708</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>83.09864703466461</v>
+        <v>84.17645689572129</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9698825173018983</v>
+        <v>0.9694261386201961</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>111.0130361881314</v>
+        <v>111.4854150870444</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9879034061308822</v>
+        <v>0.9847275418180482</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>109.3332820062451</v>
+        <v>110.0057905766505</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9843574390058857</v>
+        <v>0.9839897744625096</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>109.9762157245014</v>
+        <v>110.1488611984069</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.976893670579473</v>
+        <v>0.9771132679453696</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>194.4092026618191</v>
+        <v>195.4535306316348</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9922561243179082</v>
+        <v>0.9924192072619952</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>182.188092954467</v>
+        <v>182.8660712423795</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9828143702079262</v>
+        <v>0.9829101395792523</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>211.1610001569674</v>
+        <v>213.1638993972039</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9954424455418243</v>
+        <v>0.9954472460953818</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>98.21018333517218</v>
+        <v>99.35332339457683</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9827500548209438</v>
+        <v>0.9825626360691235</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.9905721117894</v>
+        <v>155.850640773675</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9895401846871976</v>
+        <v>0.989851328560729</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>74.57300784209592</v>
+        <v>75.34586114020411</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9820133945569195</v>
+        <v>0.980680862664613</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>99.43776601559178</v>
+        <v>99.95347346409407</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9832285793269088</v>
+        <v>0.9819839033228608</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>58.54209492811339</v>
+        <v>58.80905854162359</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9806215183799796</v>
+        <v>0.9808295682878002</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>61.22938109954558</v>
+        <v>61.63851543369563</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9607602063664423</v>
+        <v>0.9606083202823771</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.4296520743738</v>
+        <v>272.0322499623119</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9590539510032109</v>
+        <v>0.9565630378578218</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>82.51981547947499</v>
+        <v>83.30351980944859</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9827965643772899</v>
+        <v>0.982928876275593</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>103.7031124239913</v>
+        <v>104.1999412898535</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.997582898574171</v>
+        <v>0.9976060551129439</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>131.7269506837322</v>
+        <v>132.15006838771</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9845773366767685</v>
+        <v>0.9825995399012343</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>67.1087876683481</v>
+        <v>67.81674199588305</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9911367684333515</v>
+        <v>0.9907034510668119</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>106.1553195449286</v>
+        <v>106.5263591538828</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9559963198829728</v>
+        <v>0.9557433275994791</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>112.1998750967703</v>
+        <v>113.1631974467264</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9875342187195757</v>
+        <v>0.9870241357807481</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>88.98754082944932</v>
+        <v>89.84020946377839</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9919751296966465</v>
+        <v>0.9917621528725704</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.13296840090064</v>
+        <v>71.33042516336089</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9954696619986333</v>
+        <v>0.995474823497535</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>96.00187002978161</v>
+        <v>96.63930757293203</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9952249640912556</v>
+        <v>0.9952608707182313</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>116.6500361045993</v>
+        <v>117.6855627367446</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9910505315039742</v>
+        <v>0.9906757886210448</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>69.67687104084791</v>
+        <v>69.04980477918069</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9957198271608096</v>
+        <v>0.9954001567166957</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>94.17460279771319</v>
+        <v>94.71991846558717</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9416234988714823</v>
+        <v>0.9417392480903568</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>161.1657703452206</v>
+        <v>163.2524536877891</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9416302945395029</v>
+        <v>0.9413086918707582</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>78.55829070613936</v>
+        <v>79.68477293346291</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9756548854389184</v>
+        <v>0.9757665229879547</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>108.5926591479994</v>
+        <v>110.3246783357752</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.997120343810341</v>
+        <v>0.9966890829716477</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>120.7833787394953</v>
+        <v>122.11368281125</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9863294319419419</v>
+        <v>0.9864604060205282</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>63.79255926185238</v>
+        <v>64.19381716109002</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9726897996040695</v>
+        <v>0.9727611750089475</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>149.4742936333717</v>
+        <v>150.1709488305583</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9706709313977862</v>
+        <v>0.9707877257782075</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>129.9258101497012</v>
+        <v>130.9321265079889</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9761982589502315</v>
+        <v>0.9758581986636506</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>141.9920359275459</v>
+        <v>143.858926577926</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9530347456377598</v>
+        <v>0.9466337135603662</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>100.1498378133831</v>
+        <v>101.0860830380125</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9937616129639405</v>
+        <v>0.99331877808559</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>92.84273643376157</v>
+        <v>93.30255981177964</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9300139538671437</v>
+        <v>0.9279188895989782</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>48.88559337870696</v>
+        <v>49.22284282389062</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.955787719135243</v>
+        <v>0.949543289721372</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>46.1118479530081</v>
+        <v>46.67134605681911</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9713652571769928</v>
+        <v>0.9709795985615247</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>152.0348998866004</v>
+        <v>152.7857022620528</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9876202924226223</v>
+        <v>0.9876452206436327</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>81.72690307282025</v>
+        <v>82.33092817050836</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9816351699256938</v>
+        <v>0.9818478264188067</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>113.4816611171951</v>
+        <v>114.3528641506059</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9742755994189101</v>
+        <v>0.9750590101599209</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>69.83999931161209</v>
+        <v>70.3456345923866</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9951545601548393</v>
+        <v>0.9952404773153002</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>101.2593066800259</v>
+        <v>101.526012677945</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9815359208210908</v>
+        <v>0.9813431349193354</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>160.696125944513</v>
+        <v>162.347075534734</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961596677415651</v>
+        <v>0.9961451177803007</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>75.72586349048588</v>
+        <v>76.49843098779637</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.981219406551598</v>
+        <v>0.9806667658441854</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>105.1050221677826</v>
+        <v>105.5709594234881</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699677964863325</v>
+        <v>0.9699498859027046</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>139.1897250023065</v>
+        <v>138.9743964563413</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9893681970356822</v>
+        <v>0.98953390150868</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>121.194751817897</v>
+        <v>121.8377520193182</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.977925651293481</v>
+        <v>0.9774935986562296</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>124.1973757105089</v>
+        <v>125.6990183337441</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9972422438048169</v>
+        <v>0.9971972257243984</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>111.0521247818871</v>
+        <v>111.4977920682466</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9944472628837248</v>
+        <v>0.9945410718165952</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>65.98092882083337</v>
+        <v>66.56425733270714</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.8967777620169708</v>
+        <v>0.8917213962368463</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>84.17645689572129</v>
+        <v>85.65139850319936</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9694261386201961</v>
+        <v>0.9689972802444564</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>111.4854150870444</v>
+        <v>111.9383922040388</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9847275418180482</v>
+        <v>0.9812741054444809</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>110.0057905766505</v>
+        <v>110.6916430468829</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9839897744625096</v>
+        <v>0.9835991083225429</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.1488611984069</v>
+        <v>110.3569891576775</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9771132679453696</v>
+        <v>0.9773284556005654</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>195.4535306316348</v>
+        <v>196.4075972157387</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9924192072619952</v>
+        <v>0.9925880210243566</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>182.8660712423795</v>
+        <v>183.6864779629288</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9829101395792523</v>
+        <v>0.9829914886087839</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>213.1638993972039</v>
+        <v>215.0426884806945</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9954472460953818</v>
+        <v>0.9954586569911784</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>99.35332339457683</v>
+        <v>100.4478372737531</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9825626360691235</v>
+        <v>0.9824528909492148</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.850640773675</v>
+        <v>155.7931179909313</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.989851328560729</v>
+        <v>0.9901564540605174</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>75.34586114020411</v>
+        <v>76.13303529818994</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.980680862664613</v>
+        <v>0.9797367909552788</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>99.95347346409407</v>
+        <v>100.3403705352501</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9819839033228608</v>
+        <v>0.9810753123126865</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>58.80905854162359</v>
+        <v>59.39977522198097</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9808295682878002</v>
+        <v>0.9810518201876081</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>61.63851543369563</v>
+        <v>62.03230364652886</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9606083202823771</v>
+        <v>0.9605411393782608</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.0322499623119</v>
+        <v>272.1240283200504</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9565630378578218</v>
+        <v>0.954384547574187</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>83.30351980944859</v>
+        <v>84.12532974365871</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.982928876275593</v>
+        <v>0.9830303875038932</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>104.1999412898535</v>
+        <v>104.6215810281145</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9976060551129439</v>
+        <v>0.9973416467417296</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>132.15006838771</v>
+        <v>132.8147186829338</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9825995399012343</v>
+        <v>0.98043472167763</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>67.81674199588305</v>
+        <v>68.55185301506704</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9907034510668119</v>
+        <v>0.990295476270359</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>106.5263591538828</v>
+        <v>106.930356697913</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9557433275994791</v>
+        <v>0.9555013782313001</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>113.1631974467264</v>
+        <v>114.11937113534</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9870241357807481</v>
+        <v>0.9865156705748195</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>89.84020946377839</v>
+        <v>90.63391587379246</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9917621528725704</v>
+        <v>0.9915376228251069</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.33042516336089</v>
+        <v>71.55327080199922</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.995474823497535</v>
+        <v>0.9954806969412565</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>96.63930757293203</v>
+        <v>97.30450460852467</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9952608707182313</v>
+        <v>0.9952813171096441</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>117.6855627367446</v>
+        <v>118.6295022169655</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9906757886210448</v>
+        <v>0.9902405044135393</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>69.04980477918069</v>
+        <v>68.40903271258352</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9954001567166957</v>
+        <v>0.9951274554753663</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>94.71991846558717</v>
+        <v>95.38991533783302</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9417392480903568</v>
+        <v>0.9414450915301406</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>163.2524536877891</v>
+        <v>165.4753021244592</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9413086918707582</v>
+        <v>0.9402691270818925</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>79.68477293346291</v>
+        <v>80.92136166450859</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9757665229879547</v>
+        <v>0.9760152358550779</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>110.3246783357752</v>
+        <v>112.093772889973</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9966890829716477</v>
+        <v>0.9961283795409929</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>122.11368281125</v>
+        <v>123.4807129425085</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9864604060205282</v>
+        <v>0.9865938687172502</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>64.19381716109002</v>
+        <v>64.57529455378697</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9727611750089475</v>
+        <v>0.9728600925255301</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>150.1709488305583</v>
+        <v>151.2338358259437</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9707877257782075</v>
+        <v>0.9709535678861576</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>130.9321265079889</v>
+        <v>131.8339321756688</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9758581986636506</v>
+        <v>0.9755467058101871</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>143.858926577926</v>
+        <v>145.7099223288697</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9466337135603662</v>
+        <v>0.9410812040998566</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>101.0860830380125</v>
+        <v>101.9992869111996</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.99331877808559</v>
+        <v>0.9928403289043036</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>93.30255981177964</v>
+        <v>93.7362014033298</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9279188895989782</v>
+        <v>0.9257497994610369</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>49.22284282389062</v>
+        <v>49.5282993327644</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.949543289721372</v>
+        <v>0.9420582479612726</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>46.67134605681911</v>
+        <v>47.29996555164615</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9709795985615247</v>
+        <v>0.9706393986158683</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>152.7857022620528</v>
+        <v>153.5671367850836</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9876452206436327</v>
+        <v>0.9876818307072559</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>82.33092817050836</v>
+        <v>82.92012439098721</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9818478264188067</v>
+        <v>0.9820180860095685</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>114.3528641506059</v>
+        <v>115.1525658330134</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9750590101599209</v>
+        <v>0.9758077224820415</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>70.3456345923866</v>
+        <v>70.7491487418893</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9952404773153002</v>
+        <v>0.9953503848366745</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>101.526012677945</v>
+        <v>101.875946631753</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9813431349193354</v>
+        <v>0.9810975171200934</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>162.347075534734</v>
+        <v>164.2024514712648</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961451177803007</v>
+        <v>0.9961379418703277</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>76.49843098779637</v>
+        <v>77.24208771910924</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9806667658441854</v>
+        <v>0.9801260903390334</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>105.5709594234881</v>
+        <v>106.0052573233865</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699498859027046</v>
+        <v>0.9699422700961134</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>138.9743964563413</v>
+        <v>138.724780336103</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.98953390150868</v>
+        <v>0.9897004388694125</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>121.8377520193182</v>
+        <v>122.4663000094797</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9774935986562296</v>
+        <v>0.9771263520606412</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>125.6990183337441</v>
+        <v>127.1773759405598</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9971972257243984</v>
+        <v>0.9971035284493027</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>111.4977920682466</v>
+        <v>112.310663487516</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9945410718165952</v>
+        <v>0.9946564982670065</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>66.56425733270714</v>
+        <v>67.12778261922567</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.8917213962368463</v>
+        <v>0.885833134391502</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>85.65139850319936</v>
+        <v>87.12263498222728</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9689972802444564</v>
+        <v>0.9685887533138084</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>111.9383922040388</v>
+        <v>112.3926819613373</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9812741054444809</v>
+        <v>0.9781001745142938</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>110.6916430468829</v>
+        <v>111.3616420620307</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9835991083225429</v>
+        <v>0.983214645059369</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.3569891576775</v>
+        <v>110.4477105447814</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9773284556005654</v>
+        <v>0.9775453059998497</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>196.4075972157387</v>
+        <v>197.3017236848637</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9925880210243566</v>
+        <v>0.9927566750505901</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>183.6864779629288</v>
+        <v>184.571418156548</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9829914886087839</v>
+        <v>0.9830630834293749</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>215.0426884806945</v>
+        <v>216.8325560188327</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9954586569911784</v>
+        <v>0.9954645992719088</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>100.4478372737531</v>
+        <v>101.5787615845238</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9824528909492148</v>
+        <v>0.9823830232663033</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.7931179909313</v>
+        <v>155.6479176710384</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7643,7 +7643,7 @@
         <v>289</v>
       </c>
       <c r="AK36">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AL36">
         <v>104</v>
@@ -7667,7 +7667,7 @@
         <v>1634</v>
       </c>
       <c r="AV36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW36">
         <v>2</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9901564540605174</v>
+        <v>0.9904542148114484</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>76.13303529818994</v>
+        <v>76.8994451051626</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9797367909552788</v>
+        <v>0.9783815311973336</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>100.3403705352501</v>
+        <v>100.9665105930494</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9810753123126865</v>
+        <v>0.9803697006367478</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>59.39977522198097</v>
+        <v>59.94718709525391</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9810518201876081</v>
+        <v>0.9812900400923872</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>62.03230364652886</v>
+        <v>62.42156439549169</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9605411393782608</v>
+        <v>0.9605043411464765</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.1240283200504</v>
+        <v>272.2859411395426</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.954384547574187</v>
+        <v>0.9519847866596394</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>84.12532974365871</v>
+        <v>85.01175359322185</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9830303875038932</v>
+        <v>0.9831261304605595</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>104.6215810281145</v>
+        <v>104.9815502086946</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9973416467417296</v>
+        <v>0.9969957168266903</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>132.8147186829338</v>
+        <v>133.523637548023</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.98043472167763</v>
+        <v>0.9782340141281455</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>68.55185301506704</v>
+        <v>69.32968014255297</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.990295476270359</v>
+        <v>0.9899318295874598</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>106.930356697913</v>
+        <v>107.4035728868903</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9555013782313001</v>
+        <v>0.9553347967790973</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>114.11937113534</v>
+        <v>115.0143436923893</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9865156705748195</v>
+        <v>0.9860503868435372</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>90.63391587379246</v>
+        <v>91.3796084851132</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9915376228251069</v>
+        <v>0.9912774273123103</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.55327080199922</v>
+        <v>71.86108283347251</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9954806969412565</v>
+        <v>0.9954951344753984</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>97.30450460852467</v>
+        <v>97.93990998511605</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9952813171096441</v>
+        <v>0.9953563106497784</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>118.6295022169655</v>
+        <v>119.5982502019774</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9902405044135393</v>
+        <v>0.9897116610598259</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>68.40903271258352</v>
+        <v>68.04232247815044</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9951274554753663</v>
+        <v>0.994884373384166</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>95.38991533783302</v>
+        <v>96.05983411413852</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9414450915301406</v>
+        <v>0.9407473654303722</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>165.4753021244592</v>
+        <v>167.6615477220649</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9402691270818925</v>
+        <v>0.9386489718740828</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>80.92136166450859</v>
+        <v>82.20944675426496</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9760152358550779</v>
+        <v>0.9764666091786822</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>112.093772889973</v>
+        <v>113.7431684573348</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9961283795409929</v>
+        <v>0.9954726385697403</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>123.4807129425085</v>
+        <v>124.83639307223</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9865938687172502</v>
+        <v>0.9867524708440334</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>64.57529455378697</v>
+        <v>64.92806283963564</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9728600925255301</v>
+        <v>0.9729661724012366</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>151.2338358259437</v>
+        <v>152.3733292586625</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9709535678861576</v>
+        <v>0.9710980366125203</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>131.8339321756688</v>
+        <v>132.5981378803251</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9755467058101871</v>
+        <v>0.9752679805962717</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>145.7099223288697</v>
+        <v>147.6462391541324</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9410812040998566</v>
+        <v>0.9362003826527623</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>101.9992869111996</v>
+        <v>102.9030737489509</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9928403289043036</v>
+        <v>0.9921023319101399</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>93.7362014033298</v>
+        <v>94.23386064223418</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9257497994610369</v>
+        <v>0.9238179251179061</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>49.5282993327644</v>
+        <v>49.85083877491077</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9420582479612726</v>
+        <v>0.9351366755800166</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>47.29996555164615</v>
+        <v>47.92823179799315</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9706393986158683</v>
+        <v>0.9703543950816667</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>153.5671367850836</v>
+        <v>154.3892656928896</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9876818307072559</v>
+        <v>0.987727693617521</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>82.92012439098721</v>
+        <v>83.46590412145079</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9820180860095685</v>
+        <v>0.9822349809123041</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>115.1525658330134</v>
+        <v>115.950846367839</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9758077224820415</v>
+        <v>0.976580456709005</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>70.7491487418893</v>
+        <v>71.25952686536746</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9953503848366745</v>
+        <v>0.9954616076428157</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>101.875946631753</v>
+        <v>102.2330343242585</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9810975171200934</v>
+        <v>0.9804909569979268</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>164.2024514712648</v>
+        <v>166.233555742985</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961379418703277</v>
+        <v>0.996150808916713</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>77.24208771910924</v>
+        <v>78.0160525021325</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9801260903390334</v>
+        <v>0.9796137560441343</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>106.0052573233865</v>
+        <v>106.413253815424</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699422700961134</v>
+        <v>0.9699342589729372</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>138.724780336103</v>
+        <v>138.5028021452587</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9897004388694125</v>
+        <v>0.9898634334847772</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>122.4663000094797</v>
+        <v>123.0907748109154</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9771263520606412</v>
+        <v>0.9768034855001109</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>127.1773759405598</v>
+        <v>128.6228771254288</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9971035284493027</v>
+        <v>0.996976154901229</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>112.310663487516</v>
+        <v>112.7830709880841</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9946564982670065</v>
+        <v>0.9948031611614336</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>67.12778261922567</v>
+        <v>67.83623006537279</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.885833134391502</v>
+        <v>0.8793989573049724</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>87.12263498222728</v>
+        <v>88.61752994212627</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9685887533138084</v>
+        <v>0.9682003303503535</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>112.3926819613373</v>
+        <v>112.8270706967574</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9781001745142938</v>
+        <v>0.9750434669880294</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>111.3616420620307</v>
+        <v>112.0740762661458</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.983214645059369</v>
+        <v>0.9828339898705646</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.4477105447814</v>
+        <v>110.4899696991857</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9775453059998497</v>
+        <v>0.9777602308598601</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>197.3017236848637</v>
+        <v>198.1621341460101</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9927566750505901</v>
+        <v>0.9929077157055572</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>184.571418156548</v>
+        <v>185.5040234922256</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9830630834293749</v>
+        <v>0.9831217123334767</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>216.8325560188327</v>
+        <v>218.5605380939121</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9954645992719088</v>
+        <v>0.995491925904017</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>101.5787615845238</v>
+        <v>102.813579347537</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9823830232663033</v>
+        <v>0.9823561153386473</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.6479176710384</v>
+        <v>155.5034745420696</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9904542148114484</v>
+        <v>0.9907465305078794</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>76.8994451051626</v>
+        <v>77.57250158150059</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9783815311973336</v>
+        <v>0.9771965433524774</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>100.9665105930494</v>
+        <v>101.5638560312642</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9803697006367478</v>
+        <v>0.9795515852097105</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>59.94718709525391</v>
+        <v>60.52352387272002</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9812900400923872</v>
+        <v>0.9815385304137981</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>62.42156439549169</v>
+        <v>62.81533514776505</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9605043411464765</v>
+        <v>0.9604894165961488</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.2859411395426</v>
+        <v>272.3550170316458</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9519847866596394</v>
+        <v>0.9498375469775131</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>85.01175359322185</v>
+        <v>85.92049177612809</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9831261304605595</v>
+        <v>0.9832391236758771</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>104.9815502086946</v>
+        <v>105.3079767733041</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9969957168266903</v>
+        <v>0.9963686412834046</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>133.523637548023</v>
+        <v>134.3882116606191</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9782340141281455</v>
+        <v>0.9753617758816953</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>69.32968014255297</v>
+        <v>70.1527438051032</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9899318295874598</v>
+        <v>0.9896596155564568</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>107.4035728868903</v>
+        <v>107.8189698305288</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9553347967790973</v>
+        <v>0.9552114339128437</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>115.0143436923893</v>
+        <v>115.8171795990345</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9860503868435372</v>
+        <v>0.9855795980809866</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>91.3796084851132</v>
+        <v>92.13278750668327</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9912774273123103</v>
+        <v>0.9909721917913014</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.86108283347251</v>
+        <v>72.18915292408275</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9954951344753984</v>
+        <v>0.9954155301519351</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>97.93990998511605</v>
+        <v>98.52096708946287</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9953563106497784</v>
+        <v>0.9954573883701567</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>119.5982502019774</v>
+        <v>120.5849193040783</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9897116610598259</v>
+        <v>0.9892329241071771</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>68.04232247815044</v>
+        <v>67.64486215384534</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.994884373384166</v>
+        <v>0.9945911075294884</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>96.05983411413852</v>
+        <v>96.70106408393364</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9407473654303722</v>
+        <v>0.9397052334591612</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>167.6615477220649</v>
+        <v>169.7257201351667</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9386489718740828</v>
+        <v>0.9375713913359345</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>82.20944675426496</v>
+        <v>83.46925064771825</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9764666091786822</v>
+        <v>0.9766799604289512</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>113.7431684573348</v>
+        <v>115.4411921697019</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9954726385697403</v>
+        <v>0.9947139519764974</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>124.83639307223</v>
+        <v>126.1738401897074</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9867524708440334</v>
+        <v>0.986932559247276</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>64.92806283963564</v>
+        <v>65.28645622324551</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9729661724012366</v>
+        <v>0.9730824996637747</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>152.3733292586625</v>
+        <v>153.5781437632421</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9710980366125203</v>
+        <v>0.9714024450501758</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>132.5981378803251</v>
+        <v>133.5108209385863</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9752679805962717</v>
+        <v>0.9750034733798865</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>147.6462391541324</v>
+        <v>149.4425380091588</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9362003826527623</v>
+        <v>0.9306678412704403</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>102.9030737489509</v>
+        <v>103.8643438551805</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9921023319101399</v>
+        <v>0.9909888532209334</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>94.23386064223418</v>
+        <v>94.8470646935409</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9238179251179061</v>
+        <v>0.921746959688671</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>49.85083877491077</v>
+        <v>50.18310814514164</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9351366755800166</v>
+        <v>0.929224285277539</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>47.92823179799315</v>
+        <v>48.67070210100204</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9703543950816667</v>
+        <v>0.9700294746385144</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>154.3892656928896</v>
+        <v>155.0165826342908</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.987727693617521</v>
+        <v>0.9877967806669382</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>83.46590412145079</v>
+        <v>83.99235193371948</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9822349809123041</v>
+        <v>0.9825890399240248</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>115.950846367839</v>
+        <v>116.8063952794131</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.976580456709005</v>
+        <v>0.9773213998379636</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>71.25952686536746</v>
+        <v>71.67063949821939</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9954616076428157</v>
+        <v>0.9955775907844647</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>102.2330343242585</v>
+        <v>102.646247177947</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9804909569979268</v>
+        <v>0.9797674097632958</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>166.233555742985</v>
+        <v>168.2629528103421</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.996150808916713</v>
+        <v>0.9961675371280504</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>78.0160525021325</v>
+        <v>78.90049827163527</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9796137560441343</v>
+        <v>0.9791657221100044</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>106.413253815424</v>
+        <v>106.8524502688002</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699342589729372</v>
+        <v>0.9699722915257695</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>138.5028021452587</v>
+        <v>138.2746331491849</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9898634334847772</v>
+        <v>0.9900250712222494</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>123.0907748109154</v>
+        <v>123.7676267310611</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9768034855001109</v>
+        <v>0.9765612333149974</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>128.6228771254288</v>
+        <v>130.0599832033564</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.996976154901229</v>
+        <v>0.9967385535228569</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>112.7830709880841</v>
+        <v>113.2789262674969</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9948031611614336</v>
+        <v>0.9944859359815144</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>67.83623006537279</v>
+        <v>68.54313602785608</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.8793989573049724</v>
+        <v>0.871536988499733</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>88.61752994212627</v>
+        <v>90.07759417897675</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9682003303503535</v>
+        <v>0.9678424758885789</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>112.8270706967574</v>
+        <v>113.2245829687336</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9750434669880294</v>
+        <v>0.9721955835909454</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>112.0740762661458</v>
+        <v>112.6549241004174</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9828339898705646</v>
+        <v>0.9824600723733744</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.4899696991857</v>
+        <v>110.505588795769</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9777602308598601</v>
+        <v>0.9779749389025187</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>198.1621341460101</v>
+        <v>198.9946009630672</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9929077157055572</v>
+        <v>0.9930919128778217</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>185.5040234922256</v>
+        <v>186.4536702848387</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9831217123334767</v>
+        <v>0.9831635094658294</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>218.5605380939121</v>
+        <v>220.2894206819113</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.995491925904017</v>
+        <v>0.9955337819191807</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>102.813579347537</v>
+        <v>104.1123512961636</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9823561153386473</v>
+        <v>0.9823773192270724</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.5034745420696</v>
+        <v>155.3443544462682</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9907465305078794</v>
+        <v>0.9910162727700477</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>77.57250158150059</v>
+        <v>78.1291107382692</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9771965433524774</v>
+        <v>0.9760804920431845</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>101.5638560312642</v>
+        <v>102.1791041921809</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9795515852097105</v>
+        <v>0.9783911766031371</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>60.52352387272002</v>
+        <v>61.16616681759078</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9815385304137981</v>
+        <v>0.9818052016500154</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>62.81533514776505</v>
+        <v>63.21836195152581</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9604894165961488</v>
+        <v>0.9605330035063685</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.3550170316458</v>
+        <v>272.5163400256145</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9498375469775131</v>
+        <v>0.9476761699113871</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>85.92049177612809</v>
+        <v>86.88599608409194</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9832391236758771</v>
+        <v>0.9833745281748452</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>105.3079767733041</v>
+        <v>105.6177092156837</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9963686412834046</v>
+        <v>0.9955654317024795</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>134.3882116606191</v>
+        <v>135.3380867394337</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9753617758816953</v>
+        <v>0.9726548555728419</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>70.1527438051032</v>
+        <v>71.018927400016</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9896596155564568</v>
+        <v>0.9894306657924353</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>107.8189698305288</v>
+        <v>108.1929177808334</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9552114339128437</v>
+        <v>0.9549711855754948</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>115.8171795990345</v>
+        <v>116.6087886909576</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9855795980809866</v>
+        <v>0.9851368598030947</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>92.13278750668327</v>
+        <v>92.91232109336212</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9909721917913014</v>
+        <v>0.9905827094340524</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>72.18915292408275</v>
+        <v>72.60021050894515</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9954155301519351</v>
+        <v>0.9952350334804854</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>98.52096708946287</v>
+        <v>99.21909259465536</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9954573883701567</v>
+        <v>0.9955759332985226</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>120.5849193040783</v>
+        <v>121.5904953122649</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9892329241071771</v>
+        <v>0.9886998536773148</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>67.64486215384534</v>
+        <v>67.45133406548312</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9945911075294884</v>
+        <v>0.9935243920261494</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>96.70106408393364</v>
+        <v>98.17470595510896</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9397052334591612</v>
+        <v>0.9361768635628267</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>169.7257201351667</v>
+        <v>174.2685690808897</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9375713913359345</v>
+        <v>0.9361708707308869</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>83.46925064771825</v>
+        <v>86.04829749958881</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9766799604289512</v>
+        <v>0.9773900234780544</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>115.4411921697019</v>
+        <v>118.8095847152713</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9947139519764974</v>
+        <v>0.9939269813938847</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>126.1738401897074</v>
+        <v>128.9396749221467</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.986932559247276</v>
+        <v>0.9873097729674698</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>65.28645622324551</v>
+        <v>66.04845568284951</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9730824996637747</v>
+        <v>0.9733311696715156</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>153.5781437632421</v>
+        <v>155.8419060782666</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9714024450501758</v>
+        <v>0.9721928751084464</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>133.5108209385863</v>
+        <v>135.6004347123887</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9750034733798865</v>
+        <v>0.9745564019847749</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>149.4425380091588</v>
+        <v>152.9086044249587</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9306678412704403</v>
+        <v>0.9191904776036371</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>103.8643438551805</v>
+        <v>105.9634456734706</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9909888532209334</v>
+        <v>0.9883630908895406</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>94.8470646935409</v>
+        <v>96.18965056407814</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.921746959688671</v>
+        <v>0.9166238813684249</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>50.18310814514164</v>
+        <v>50.91946846064685</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.929224285277539</v>
+        <v>0.9157756224368541</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>48.67070210100204</v>
+        <v>50.32468268807332</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3665,6 +3665,9 @@
       <c r="X14">
         <v>29092</v>
       </c>
+      <c r="Z14">
+        <v>16</v>
+      </c>
       <c r="AA14">
         <v>206</v>
       </c>
@@ -3769,6 +3772,9 @@
       </c>
       <c r="BO14">
         <v>3.338057875419756</v>
+      </c>
+      <c r="BP14">
+        <v>1.204119982655925</v>
       </c>
     </row>
     <row r="15" spans="1:70">
@@ -3806,7 +3812,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9700294746385144</v>
+        <v>0.9697358620299407</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3827,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>155.0165826342908</v>
+        <v>156.8253620395129</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3991,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9877967806669382</v>
+        <v>0.9880341511431082</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4006,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>83.99235193371948</v>
+        <v>85.00839701136543</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4176,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9825890399240248</v>
+        <v>0.9832460873432377</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4191,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>116.8063952794131</v>
+        <v>118.4560562448557</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4361,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9773213998379636</v>
+        <v>0.9786653285114526</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4376,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>71.67063949821939</v>
+        <v>72.70670737944353</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4540,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9955775907844647</v>
+        <v>0.9957847882877507</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4555,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>102.646247177947</v>
+        <v>103.4967399940037</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4722,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9797674097632958</v>
+        <v>0.9782950072386051</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4737,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>168.2629528103421</v>
+        <v>172.0803057901433</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4901,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961675371280504</v>
+        <v>0.9962287307527654</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4916,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>78.90049827163527</v>
+        <v>80.77037847557109</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5092,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9791657221100044</v>
+        <v>0.9784302746141533</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5107,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>106.8524502688002</v>
+        <v>107.7977346562518</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5274,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699722915257695</v>
+        <v>0.9701162617424498</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5289,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>138.2746331491849</v>
+        <v>137.8946218557485</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5450,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9900250712222494</v>
+        <v>0.9903345914829137</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5465,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>123.7676267310611</v>
+        <v>125.2405944808737</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5644,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9765612333149974</v>
+        <v>0.9759828200164505</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5659,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>130.0599832033564</v>
+        <v>132.7459581180184</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5835,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9967385535228569</v>
+        <v>0.9958628189834389</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5850,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>113.2789262674969</v>
+        <v>114.1919302545381</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6017,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9944859359815144</v>
+        <v>0.9937338175491741</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6032,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>68.54313602785608</v>
+        <v>69.94608921475356</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6202,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.871536988499733</v>
+        <v>0.8585150119639298</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6217,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>90.07759417897675</v>
+        <v>92.95008471689559</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6372,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9678424758885789</v>
+        <v>0.9673586767728313</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6387,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>113.2245829687336</v>
+        <v>113.9306751696236</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6530,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9721955835909454</v>
+        <v>0.9654131823438346</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6545,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>112.6549241004174</v>
+        <v>114.1034741084527</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6700,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9824600723733744</v>
+        <v>0.9818002127733064</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6715,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.505588795769</v>
+        <v>110.5833634336191</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6879,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9779749389025187</v>
+        <v>0.9783958446401024</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6894,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>198.9946009630672</v>
+        <v>200.6113987985461</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7067,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9930919128778217</v>
+        <v>0.9935218086459738</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7082,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>186.4536702848387</v>
+        <v>188.4811660382126</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7246,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9831635094658294</v>
+        <v>0.9831961298843104</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7261,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>220.2894206819113</v>
+        <v>223.6751000190547</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7428,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9955337819191807</v>
+        <v>0.9955380783741424</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7443,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>104.1123512961636</v>
+        <v>106.7793023914318</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7598,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9823773192270724</v>
+        <v>0.9827125303642829</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7613,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.3443544462682</v>
+        <v>155.3381895812948</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7774,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9910162727700477</v>
+        <v>0.9914680365073114</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7789,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>78.1291107382692</v>
+        <v>79.59071935797388</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7965,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9760804920431845</v>
+        <v>0.9733281617988324</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7980,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>102.1791041921809</v>
+        <v>103.4925515117816</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8156,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9783911766031371</v>
+        <v>0.9756884385104717</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8171,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>61.16616681759078</v>
+        <v>62.24476653694646</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8338,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9818052016500154</v>
+        <v>0.98235550281654</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8353,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>63.21836195152581</v>
+        <v>64.03300422979618</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8511,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9605330035063685</v>
+        <v>0.9606565382571656</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8526,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.5163400256145</v>
+        <v>272.5451346064727</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8702,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9476761699113871</v>
+        <v>0.9435821501891605</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8717,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>86.88599608409194</v>
+        <v>88.83652926384158</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8872,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9833745281748452</v>
+        <v>0.9837230976483761</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8887,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>105.6177092156837</v>
+        <v>106.1859718054404</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9051,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9955654317024795</v>
+        <v>0.9934098531772768</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9066,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>135.3380867394337</v>
+        <v>137.4856846939339</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9074,6 +9080,9 @@
       <c r="X44">
         <v>229137</v>
       </c>
+      <c r="Z44">
+        <v>550</v>
+      </c>
       <c r="AA44">
         <v>1299</v>
       </c>
@@ -9172,6 +9181,9 @@
       </c>
       <c r="BO44">
         <v>4.159597267987408</v>
+      </c>
+      <c r="BP44">
+        <v>2.740362689494244</v>
       </c>
     </row>
     <row r="45" spans="1:70">
@@ -9212,7 +9224,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9726548555728419</v>
+        <v>0.9681173426001934</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9239,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>71.018927400016</v>
+        <v>72.78061940959552</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9397,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9894306657924353</v>
+        <v>0.9889736871792413</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9412,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>108.1929177808334</v>
+        <v>109.3880179848796</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9576,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9549711855754948</v>
+        <v>0.954508516571893</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9591,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>116.6087886909576</v>
+        <v>118.1521451909547</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9749,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9851368598030947</v>
+        <v>0.9844356332004109</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9764,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>92.91232109336212</v>
+        <v>94.45924752104092</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9937,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9905827094340524</v>
+        <v>0.9898049227263758</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9952,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>72.60021050894515</v>
+        <v>73.60517311938658</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10107,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9952350334804854</v>
+        <v>0.9945687617373485</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10122,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>99.21909259465536</v>
+        <v>100.4757234993169</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10292,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9955759332985226</v>
+        <v>0.9958632140115138</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10307,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>121.5904953122649</v>
+        <v>123.4803989138697</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10483,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9886998536773148</v>
+        <v>0.9877702110924216</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10498,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>67.45133406548312</v>
+        <v>66.94827420868552</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9935243920261494</v>
+        <v>0.9927455029659484</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>98.17470595510896</v>
+        <v>99.66115267588404</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9361768635628267</v>
+        <v>0.9338238020704843</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>174.2685690808897</v>
+        <v>178.0361754685443</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9361708707308869</v>
+        <v>0.9366678757057526</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>86.04829749958881</v>
+        <v>88.60281927795035</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9773900234780544</v>
+        <v>0.9783848621869</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>118.8095847152713</v>
+        <v>121.7129182980097</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9939269813938847</v>
+        <v>0.992774262377454</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>128.9396749221467</v>
+        <v>131.8759369858908</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9873097729674698</v>
+        <v>0.9876759368617964</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>66.04845568284951</v>
+        <v>66.77927660976165</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9733311696715156</v>
+        <v>0.9736128837283224</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>155.8419060782666</v>
+        <v>157.8656733240961</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9721928751084464</v>
+        <v>0.9730778625801721</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>135.6004347123887</v>
+        <v>137.9662604789494</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9745564019847749</v>
+        <v>0.9741923025448</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>152.9086044249587</v>
+        <v>156.1334924765559</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2990,9 +2990,6 @@
       </c>
       <c r="AK10">
         <v>304</v>
-      </c>
-      <c r="AP10">
-        <v>5899</v>
       </c>
       <c r="AQ10">
         <v>245</v>
@@ -3117,7 +3114,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9191904776036371</v>
+        <v>0.9101256202664183</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3129,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>105.9634456734706</v>
+        <v>108.2069016418624</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3284,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9883630908895406</v>
+        <v>0.9861237359807216</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3299,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>96.18965056407814</v>
+        <v>97.64849703857134</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3460,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9166238813684249</v>
+        <v>0.9117276894326415</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3475,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>50.91946846064685</v>
+        <v>51.63567813950102</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3515,9 +3512,6 @@
       </c>
       <c r="AL13">
         <v>74</v>
-      </c>
-      <c r="AP13">
-        <v>602</v>
       </c>
       <c r="AQ13">
         <v>3</v>
@@ -3636,7 +3630,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9157756224368541</v>
+        <v>0.9040906439567675</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3645,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>50.32468268807332</v>
+        <v>52.08462202560825</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3812,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9697358620299407</v>
+        <v>0.9695497045061849</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3827,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>156.8253620395129</v>
+        <v>158.5796464872496</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3991,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9880341511431082</v>
+        <v>0.9883980702810212</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4006,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>85.00839701136543</v>
+        <v>85.99441386363362</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4052,9 +4046,6 @@
       </c>
       <c r="AL16">
         <v>4389</v>
-      </c>
-      <c r="AP16">
-        <v>23146</v>
       </c>
       <c r="AQ16">
         <v>643</v>
@@ -4176,7 +4167,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9832460873432377</v>
+        <v>0.98394630726391</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4191,7 +4182,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>118.4560562448557</v>
+        <v>119.9477986925515</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4361,7 +4352,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9786653285114526</v>
+        <v>0.9798563136222673</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4376,7 +4367,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>72.70670737944353</v>
+        <v>73.66771215417664</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4419,9 +4410,6 @@
       </c>
       <c r="AL18">
         <v>608</v>
-      </c>
-      <c r="AP18">
-        <v>6144</v>
       </c>
       <c r="AQ18">
         <v>357</v>
@@ -4540,7 +4528,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9957847882877507</v>
+        <v>0.9959332449173438</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4555,7 +4543,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>103.4967399940037</v>
+        <v>103.9901757998439</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4722,7 +4710,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9782950072386051</v>
+        <v>0.9767474507350151</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4737,7 +4725,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>172.0803057901433</v>
+        <v>175.6612468446718</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4774,9 +4762,6 @@
       </c>
       <c r="AK20">
         <v>2227</v>
-      </c>
-      <c r="AP20">
-        <v>30855</v>
       </c>
       <c r="AQ20">
         <v>203</v>
@@ -4901,7 +4886,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9962287307527654</v>
+        <v>0.9961814089814592</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4916,7 +4901,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>80.77037847557109</v>
+        <v>82.61144952957281</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5092,7 +5077,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9784302746141533</v>
+        <v>0.9777401337865309</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5107,7 +5092,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>107.7977346562518</v>
+        <v>108.6702819708001</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5274,7 +5259,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9701162617424498</v>
+        <v>0.9703076796657443</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5289,7 +5274,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>137.8946218557485</v>
+        <v>137.4448798337261</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5450,7 +5435,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9903345914829137</v>
+        <v>0.9906242418143998</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5465,7 +5450,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>125.2405944808737</v>
+        <v>126.6572572169543</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5644,7 +5629,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9759828200164505</v>
+        <v>0.9754953006911161</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5659,7 +5644,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>132.7459581180184</v>
+        <v>135.5448276159194</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5835,7 +5820,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9958628189834389</v>
+        <v>0.995453239745992</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5850,7 +5835,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>114.1919302545381</v>
+        <v>115.0420910906508</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6017,7 +6002,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9937338175491741</v>
+        <v>0.9932591612262739</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6032,7 +6017,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>69.94608921475356</v>
+        <v>71.31539161477009</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6202,7 +6187,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.8585150119639298</v>
+        <v>0.8499227352141761</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6217,7 +6202,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>92.95008471689559</v>
+        <v>95.63447375438844</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6372,7 +6357,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9673586767728313</v>
+        <v>0.9668964957961899</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6387,7 +6372,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>113.9306751696236</v>
+        <v>114.5882582111606</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6530,7 +6515,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9654131823438346</v>
+        <v>0.9596909001084118</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6545,7 +6530,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>114.1034741084527</v>
+        <v>115.6205699919866</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6700,7 +6685,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9818002127733064</v>
+        <v>0.9811860956323643</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6715,7 +6700,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.5833634336191</v>
+        <v>110.4778329431883</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6879,7 +6864,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9783958446401024</v>
+        <v>0.9787981708394786</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6894,7 +6879,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>200.6113987985461</v>
+        <v>202.1772945869944</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7067,7 +7052,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9935218086459738</v>
+        <v>0.9939501778131263</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7082,7 +7067,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>188.4811660382126</v>
+        <v>190.6723883903028</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7246,7 +7231,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9831961298843104</v>
+        <v>0.9831737306618504</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7261,7 +7246,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>223.6751000190547</v>
+        <v>226.8927263580671</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7428,7 +7413,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9955380783741424</v>
+        <v>0.9956389975107665</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7443,7 +7428,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>106.7793023914318</v>
+        <v>109.2894851038506</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7598,7 +7583,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9827125303642829</v>
+        <v>0.9831094829999871</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7613,7 +7598,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.3381895812948</v>
+        <v>155.2769174580242</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7774,7 +7759,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9914680365073114</v>
+        <v>0.9918534533990506</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7789,7 +7774,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>79.59071935797388</v>
+        <v>81.10410162265691</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7965,7 +7950,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9733281617988324</v>
+        <v>0.9715054308421136</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7980,7 +7965,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>103.4925515117816</v>
+        <v>104.3346454488333</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8156,7 +8141,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9756884385104717</v>
+        <v>0.9735536445707849</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8171,7 +8156,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>62.24476653694646</v>
+        <v>63.46788568445146</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8338,7 +8323,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.98235550281654</v>
+        <v>0.9828943314677659</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8353,7 +8338,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>64.03300422979618</v>
+        <v>64.77781464144599</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8511,7 +8496,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9606565382571656</v>
+        <v>0.9607431072800734</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8526,7 +8511,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.5451346064727</v>
+        <v>271.7061375750659</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8702,7 +8687,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9435821501891605</v>
+        <v>0.9413252878432203</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8717,7 +8702,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>88.83652926384158</v>
+        <v>90.87541173207632</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8872,7 +8857,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9837230976483761</v>
+        <v>0.9839977058924619</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8887,7 +8872,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>106.1859718054404</v>
+        <v>106.4742373371124</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9051,7 +9036,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9934098531772768</v>
+        <v>0.9917506970598344</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9066,7 +9051,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>137.4856846939339</v>
+        <v>139.6031146818594</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9224,7 +9209,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9681173426001934</v>
+        <v>0.9652857079017381</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9239,7 +9224,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>72.78061940959552</v>
+        <v>74.65409280834012</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9397,7 +9382,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9889736871792413</v>
+        <v>0.988869040360624</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9412,7 +9397,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>109.3880179848796</v>
+        <v>110.6638639462895</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9576,7 +9561,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.954508516571893</v>
+        <v>0.9540768748873626</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9591,7 +9576,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>118.1521451909547</v>
+        <v>119.442742423732</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9749,7 +9734,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9844356332004109</v>
+        <v>0.9838640818694706</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9764,7 +9749,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>94.45924752104092</v>
+        <v>95.84259985291321</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9937,7 +9922,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9898049227263758</v>
+        <v>0.9887925634513003</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9952,7 +9937,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>73.60517311938658</v>
+        <v>74.60624439012902</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10107,7 +10092,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9945687617373485</v>
+        <v>0.9931039873146109</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10122,7 +10107,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>100.4757234993169</v>
+        <v>101.7644214956402</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10292,7 +10277,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9958632140115138</v>
+        <v>0.9961559126149816</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10307,7 +10292,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>123.4803989138697</v>
+        <v>125.0286670346898</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10483,7 +10468,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9877702110924216</v>
+        <v>0.9869899406722377</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10498,7 +10483,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>66.94827420868552</v>
+        <v>66.31089221343848</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="304">
   <si>
     <t>Province_State</t>
   </si>
@@ -139,6 +139,12 @@
     <t>positiveCasesViral</t>
   </si>
   <si>
+    <t>deathConfirmed</t>
+  </si>
+  <si>
+    <t>deathProbable</t>
+  </si>
+  <si>
     <t>positiveIncrease</t>
   </si>
   <si>
@@ -769,6 +775,9 @@
     <t>5/7/2020 06:09</t>
   </si>
   <si>
+    <t>5/8/2020 03:00</t>
+  </si>
+  <si>
     <t>5/7/2020 16:13</t>
   </si>
   <si>
@@ -838,6 +847,9 @@
     <t>2020-05-07T06:09:00Z</t>
   </si>
   <si>
+    <t>2020-05-08T03:00:00Z</t>
+  </si>
+  <si>
     <t>2020-05-07T16:13:00Z</t>
   </si>
   <si>
@@ -905,6 +917,9 @@
   </si>
   <si>
     <t>05/07 02:09</t>
+  </si>
+  <si>
+    <t>05/07 23:00</t>
   </si>
   <si>
     <t>05/07 12:13</t>
@@ -1268,13 +1283,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR52"/>
+  <dimension ref="A1:BT52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:72">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,16 +1497,22 @@
       <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:72">
       <c r="A2" s="1">
         <v>1326</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>9385</v>
@@ -1521,10 +1542,10 @@
         <v>4903185</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9927455029659484</v>
+        <v>0.9922872011537465</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1536,16 +1557,16 @@
         <v>15.6</v>
       </c>
       <c r="S2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="T2">
-        <v>99.66115267588404</v>
+        <v>101.0334799665265</v>
       </c>
       <c r="U2">
         <v>20200508</v>
       </c>
       <c r="V2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W2">
         <v>9221</v>
@@ -1563,16 +1584,16 @@
         <v>266</v>
       </c>
       <c r="AG2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK2">
         <v>375</v>
@@ -1583,33 +1604,27 @@
       <c r="AP2">
         <v>9221</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>323</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>4618</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>120114</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>120114</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>4941</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <v>26</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
         <v>29</v>
       </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
       <c r="AZ2">
         <v>0</v>
       </c>
@@ -1619,52 +1634,58 @@
       <c r="BB2">
         <v>0</v>
       </c>
-      <c r="BD2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE2">
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG2">
         <v>2214.313663418081</v>
       </c>
-      <c r="BF2">
+      <c r="BH2">
         <v>0.001880614335375883</v>
       </c>
-      <c r="BG2">
+      <c r="BI2">
         <v>0.02261652374935883</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>7.68</v>
       </c>
-      <c r="BI2">
+      <c r="BK2">
         <v>0.02449713808473472</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>6.690478279736778</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>5.079593629954077</v>
       </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>3.972434276957365</v>
       </c>
-      <c r="BM2">
+      <c r="BO2">
         <v>2.583198773968623</v>
       </c>
-      <c r="BN2">
+      <c r="BP2">
         <v>5.044904132647613</v>
       </c>
-      <c r="BO2">
+      <c r="BQ2">
         <v>3.964778022022376</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:72">
       <c r="A3" s="1">
         <v>1327</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>377</v>
@@ -1691,10 +1712,10 @@
         <v>731545</v>
       </c>
       <c r="N3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9338238020704843</v>
+        <v>0.933262781916067</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1706,16 +1727,16 @@
         <v>12.6</v>
       </c>
       <c r="S3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T3">
-        <v>178.0361754685443</v>
+        <v>182.6729459712783</v>
       </c>
       <c r="U3">
         <v>20200508</v>
       </c>
       <c r="V3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W3">
         <v>377</v>
@@ -1730,16 +1751,16 @@
         <v>305</v>
       </c>
       <c r="AG3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK3">
         <v>10</v>
@@ -1747,27 +1768,21 @@
       <c r="AM3">
         <v>25473</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>3</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>1129</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>25473</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>25473</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>1132</v>
       </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
       <c r="AX3">
         <v>0</v>
       </c>
@@ -1783,55 +1798,61 @@
       <c r="BB3">
         <v>0</v>
       </c>
-      <c r="BD3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE3">
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG3">
         <v>855.3040395087586</v>
       </c>
-      <c r="BF3">
+      <c r="BH3">
         <v>0.0005153476546213836</v>
       </c>
-      <c r="BG3">
+      <c r="BI3">
         <v>0.03430547676492902</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>1.48</v>
       </c>
-      <c r="BI3">
+      <c r="BK3">
         <v>0.0348208244195504</v>
       </c>
-      <c r="BJ3">
+      <c r="BL3">
         <v>5.864241046319956</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>4.406080095600492</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BM3">
+      <c r="BO3">
         <v>1</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>4.399604505689688</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>1.204119982655925</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:72">
       <c r="A4" s="1">
         <v>1328</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>10526</v>
@@ -1864,10 +1885,10 @@
         <v>7278717</v>
       </c>
       <c r="N4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9366678757057526</v>
+        <v>0.9381703963503741</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1879,16 +1900,16 @@
         <v>13.2</v>
       </c>
       <c r="S4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T4">
-        <v>88.60281927795035</v>
+        <v>91.05192705826343</v>
       </c>
       <c r="U4">
         <v>20200508</v>
       </c>
       <c r="V4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W4">
         <v>10526</v>
@@ -1912,16 +1933,16 @@
         <v>1747</v>
       </c>
       <c r="AG4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK4">
         <v>517</v>
@@ -1932,33 +1953,27 @@
       <c r="AM4">
         <v>101125</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>581</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>4110</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>101125</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>101125</v>
       </c>
-      <c r="AU4">
+      <c r="AW4">
         <v>4691</v>
       </c>
-      <c r="AV4">
+      <c r="AX4">
         <v>67</v>
       </c>
-      <c r="AW4">
+      <c r="AY4">
         <v>58</v>
       </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
       <c r="AZ4">
         <v>0</v>
       </c>
@@ -1968,61 +1983,67 @@
       <c r="BB4">
         <v>0</v>
       </c>
-      <c r="BD4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE4">
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG4">
         <v>2697.909746451871</v>
       </c>
-      <c r="BF4">
+      <c r="BH4">
         <v>0.001446133982128993</v>
       </c>
-      <c r="BG4">
+      <c r="BI4">
         <v>0.01244711121479239</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4">
         <v>10.41</v>
       </c>
-      <c r="BI4">
+      <c r="BK4">
         <v>0.01647364501188877</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>6.862054834130968</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>5.078844537332663</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>2.713490543093942</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>4.95712340411303</v>
       </c>
-      <c r="BO4">
+      <c r="BQ4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>2.863322860120456</v>
       </c>
-      <c r="BQ4">
+      <c r="BS4">
         <v>2.469822015978163</v>
       </c>
-      <c r="BR4">
+      <c r="BT4">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:72">
       <c r="A5" s="1">
         <v>1329</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>3747</v>
@@ -2055,10 +2076,10 @@
         <v>3017804</v>
       </c>
       <c r="N5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9783848621869</v>
+        <v>0.9798125813504194</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2070,16 +2091,16 @@
         <v>15.4</v>
       </c>
       <c r="S5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="T5">
-        <v>121.7129182980097</v>
+        <v>124.3718735806534</v>
       </c>
       <c r="U5">
         <v>20200508</v>
       </c>
       <c r="V5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W5">
         <v>3694</v>
@@ -2103,16 +2124,16 @@
         <v>2159</v>
       </c>
       <c r="AG5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AI5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AJ5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AK5">
         <v>88</v>
@@ -2123,33 +2144,27 @@
       <c r="AP5">
         <v>3694</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>83</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>3916</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>63994</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>63994</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>3999</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>1</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
         <v>4</v>
       </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
       <c r="AZ5">
         <v>0</v>
       </c>
@@ -2159,58 +2174,64 @@
       <c r="BB5">
         <v>0</v>
       </c>
-      <c r="BD5" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE5">
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG5">
         <v>1737.182776796961</v>
       </c>
-      <c r="BF5">
+      <c r="BH5">
         <v>0.001224068892479432</v>
       </c>
-      <c r="BG5">
+      <c r="BI5">
         <v>0.01998141695086891</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>5.77</v>
       </c>
-      <c r="BI5">
+      <c r="BK5">
         <v>0.02120548584334834</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>6.479691029845591</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>4.806139256967569</v>
       </c>
-      <c r="BL5">
+      <c r="BN5">
         <v>3.573683693093798</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>1.944482672150169</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>4.780317312140151</v>
       </c>
-      <c r="BO5">
+      <c r="BQ5">
         <v>3.567496891104223</v>
       </c>
-      <c r="BP5">
+      <c r="BR5">
         <v>1.845098040014257</v>
       </c>
-      <c r="BR5">
+      <c r="BT5">
         <v>1.146128035678238</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:72">
       <c r="A6" s="1">
         <v>1330</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>63779</v>
@@ -2234,10 +2255,10 @@
         <v>39512223</v>
       </c>
       <c r="N6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O6">
-        <v>0.992774262377454</v>
+        <v>0.9908372875699147</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2249,16 +2270,16 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T6">
-        <v>131.8759369858908</v>
+        <v>134.8330729825287</v>
       </c>
       <c r="U6">
         <v>20200508</v>
       </c>
       <c r="V6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="W6">
         <v>62512</v>
@@ -2273,16 +2294,16 @@
         <v>1342</v>
       </c>
       <c r="AG6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AI6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AJ6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK6">
         <v>2585</v>
@@ -2293,30 +2314,24 @@
       <c r="AP6">
         <v>62512</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>1898</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>30500</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>875272</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>875272</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>32398</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>81</v>
       </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
       <c r="AY6">
         <v>0</v>
       </c>
@@ -2329,58 +2344,64 @@
       <c r="BB6">
         <v>0</v>
       </c>
-      <c r="BD6" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE6">
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG6">
         <v>6285.874879442002</v>
       </c>
-      <c r="BF6">
+      <c r="BH6">
         <v>0.001582092710906192</v>
       </c>
-      <c r="BG6">
+      <c r="BI6">
         <v>0.02056983733868884</v>
       </c>
-      <c r="BH6">
+      <c r="BJ6">
         <v>7.14</v>
       </c>
-      <c r="BI6">
+      <c r="BK6">
         <v>0.02215193004959503</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>7.596731464241672</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>5.942143035585056</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>4.804677705595455</v>
       </c>
-      <c r="BM6">
+      <c r="BO6">
         <v>3.417139409727326</v>
       </c>
-      <c r="BN6">
+      <c r="BP6">
         <v>5.909962321653986</v>
       </c>
-      <c r="BO6">
+      <c r="BQ6">
         <v>4.795963393880709</v>
       </c>
-      <c r="BP6">
+      <c r="BR6">
         <v>3.654561554741743</v>
       </c>
-      <c r="BQ6">
+      <c r="BS6">
         <v>3.127752515832973</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:72">
       <c r="A7" s="1">
         <v>1331</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D7">
         <v>18827</v>
@@ -2413,10 +2434,10 @@
         <v>5758736</v>
       </c>
       <c r="N7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9876759368617964</v>
+        <v>0.9881010610181354</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2428,16 +2449,16 @@
         <v>9</v>
       </c>
       <c r="S7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T7">
-        <v>66.77927660976165</v>
+        <v>67.46687011070509</v>
       </c>
       <c r="U7">
         <v>20200508</v>
       </c>
       <c r="V7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="W7">
         <v>18801</v>
@@ -2455,16 +2476,16 @@
         <v>2869</v>
       </c>
       <c r="AG7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AI7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AJ7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AK7">
         <v>961</v>
@@ -2475,33 +2496,27 @@
       <c r="AP7">
         <v>16532</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>971</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>2218</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>94536</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>94536</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>3189</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>40</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>571</v>
       </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
       <c r="AZ7">
         <v>0</v>
       </c>
@@ -2511,55 +2526,61 @@
       <c r="BB7">
         <v>0</v>
       </c>
-      <c r="BD7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE7">
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG7">
         <v>2399.736652218322</v>
       </c>
-      <c r="BF7">
+      <c r="BH7">
         <v>0.003264778937600196</v>
       </c>
-      <c r="BG7">
+      <c r="BI7">
         <v>0.01315132348487585</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>19.89</v>
       </c>
-      <c r="BI7">
+      <c r="BK7">
         <v>0.01641610242247604</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>6.760327169453462</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>4.975597222520748</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>4.274781122605907</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>2.982271233039568</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>4.879296629751168</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>4.274180949419634</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>2.914343157119441</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:72">
       <c r="A8" s="1">
         <v>1332</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>32411</v>
@@ -2592,10 +2613,10 @@
         <v>3565287</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9736128837283224</v>
+        <v>0.9739486379134754</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2607,16 +2628,16 @@
         <v>10.4</v>
       </c>
       <c r="S8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="T8">
-        <v>157.8656733240961</v>
+        <v>160.0676624740611</v>
       </c>
       <c r="U8">
         <v>20200508</v>
       </c>
       <c r="V8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W8">
         <v>32411</v>
@@ -2634,16 +2655,16 @@
         <v>5413</v>
       </c>
       <c r="AG8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AI8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AJ8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AK8">
         <v>2874</v>
@@ -2655,29 +2676,26 @@
         <v>32411</v>
       </c>
       <c r="AQ8">
+        <v>2436</v>
+      </c>
+      <c r="AS8">
         <v>627</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>3740</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>120541</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>120541</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>4367</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>77</v>
       </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
       <c r="AY8">
         <v>0</v>
       </c>
@@ -2690,55 +2708,61 @@
       <c r="BB8">
         <v>0</v>
       </c>
-      <c r="BD8" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE8">
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG8">
         <v>1888.19675881514</v>
       </c>
-      <c r="BF8">
+      <c r="BH8">
         <v>0.009090712753279049</v>
       </c>
-      <c r="BG8">
+      <c r="BI8">
         <v>0.02471890762230362</v>
       </c>
-      <c r="BH8">
+      <c r="BJ8">
         <v>26.89</v>
       </c>
-      <c r="BI8">
+      <c r="BK8">
         <v>0.03380962037558267</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>6.552094495618293</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>5.081134790024547</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BM8">
+      <c r="BO8">
         <v>3.458486763798207</v>
       </c>
-      <c r="BN8">
+      <c r="BP8">
         <v>4.94512377012212</v>
       </c>
-      <c r="BO8">
+      <c r="BQ8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BP8">
+      <c r="BR8">
         <v>3.122870922864435</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:72">
       <c r="A9" s="1">
         <v>1333</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>6111</v>
@@ -2765,10 +2789,10 @@
         <v>973764</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9730778625801721</v>
+        <v>0.9739915017301423</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2780,16 +2804,16 @@
         <v>8.1</v>
       </c>
       <c r="S9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T9">
-        <v>137.9662604789494</v>
+        <v>140.1165544042933</v>
       </c>
       <c r="U9">
         <v>20200508</v>
       </c>
       <c r="V9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="W9">
         <v>6111</v>
@@ -2804,16 +2828,16 @@
         <v>2288</v>
       </c>
       <c r="AG9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AI9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AJ9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AK9">
         <v>297</v>
@@ -2822,29 +2846,29 @@
         <v>6111</v>
       </c>
       <c r="AQ9">
+        <v>264</v>
+      </c>
+      <c r="AR9">
+        <v>33</v>
+      </c>
+      <c r="AS9">
         <v>172</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>766</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>28264</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>28264</v>
       </c>
-      <c r="AU9">
+      <c r="AW9">
         <v>938</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>12</v>
       </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
       <c r="AY9">
         <v>0</v>
       </c>
@@ -2857,55 +2881,61 @@
       <c r="BB9">
         <v>0</v>
       </c>
-      <c r="BD9" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE9">
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG9">
         <v>986.7948114983175</v>
       </c>
-      <c r="BF9">
+      <c r="BH9">
         <v>0.006275647898258715</v>
       </c>
-      <c r="BG9">
+      <c r="BI9">
         <v>0.02274986547048361</v>
       </c>
-      <c r="BH9">
+      <c r="BJ9">
         <v>21.62</v>
       </c>
-      <c r="BI9">
+      <c r="BK9">
         <v>0.02902551336874232</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>5.98845371466423</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>4.451233624426789</v>
       </c>
-      <c r="BL9">
+      <c r="BN9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BM9">
+      <c r="BO9">
         <v>2.328379603438738</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>4.345432547499147</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BP9">
+      <c r="BR9">
         <v>2.460897842756548</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:72">
       <c r="A10" s="1">
         <v>1334</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>5899</v>
@@ -2932,10 +2962,10 @@
         <v>705749</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9741923025448</v>
+        <v>0.9740213132839652</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2947,16 +2977,16 @@
         <v>14.3</v>
       </c>
       <c r="S10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="T10">
-        <v>156.1334924765559</v>
+        <v>159.6509280123492</v>
       </c>
       <c r="U10">
         <v>20200508</v>
       </c>
       <c r="V10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="W10">
         <v>5899</v>
@@ -2977,44 +3007,38 @@
         <v>825</v>
       </c>
       <c r="AG10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AI10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AJ10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AK10">
         <v>304</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>245</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>1014</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>27115</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>27115</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>1259</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>19</v>
       </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
       <c r="AY10">
         <v>0</v>
       </c>
@@ -3027,61 +3051,67 @@
       <c r="BB10">
         <v>0</v>
       </c>
-      <c r="BD10" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE10">
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG10">
         <v>840.0886857945416</v>
       </c>
-      <c r="BF10">
+      <c r="BH10">
         <v>0.008358495725817535</v>
       </c>
-      <c r="BG10">
+      <c r="BI10">
         <v>0.03006167915221984</v>
       </c>
-      <c r="BH10">
+      <c r="BJ10">
         <v>21.76</v>
       </c>
-      <c r="BI10">
+      <c r="BK10">
         <v>0.03842017487803737</v>
       </c>
-      <c r="BJ10">
+      <c r="BL10">
         <v>5.848650271452624</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>4.433209608771474</v>
       </c>
-      <c r="BL10">
+      <c r="BN10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BM10">
+      <c r="BO10">
         <v>2.482873583608754</v>
       </c>
-      <c r="BN10">
+      <c r="BP10">
         <v>4.326663506724679</v>
       </c>
-      <c r="BO10">
+      <c r="BQ10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BP10">
+      <c r="BR10">
         <v>2.650307523131937</v>
       </c>
-      <c r="BQ10">
+      <c r="BS10">
         <v>2.113943352306837</v>
       </c>
-      <c r="BR10">
+      <c r="BT10">
         <v>1.959041392321094</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:72">
       <c r="A11" s="1">
         <v>1335</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>39199</v>
@@ -3111,10 +3141,10 @@
         <v>21477737</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9101256202664183</v>
+        <v>0.9056189234688359</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3126,16 +3156,16 @@
         <v>13.5</v>
       </c>
       <c r="S11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T11">
-        <v>108.2069016418624</v>
+        <v>110.3784750757618</v>
       </c>
       <c r="U11">
         <v>20200508</v>
       </c>
       <c r="V11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="W11">
         <v>39199</v>
@@ -3150,16 +3180,16 @@
         <v>7157</v>
       </c>
       <c r="AG11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AI11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AJ11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AK11">
         <v>1738</v>
@@ -3170,33 +3200,27 @@
       <c r="AP11">
         <v>39199</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>371</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>20020</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>514774</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>513341</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>20391</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>71</v>
       </c>
-      <c r="AW11">
+      <c r="AY11">
         <v>167</v>
       </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
       <c r="AZ11">
         <v>0</v>
       </c>
@@ -3206,52 +3230,58 @@
       <c r="BB11">
         <v>0</v>
       </c>
-      <c r="BD11" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE11">
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG11">
         <v>4634.40794492673</v>
       </c>
-      <c r="BF11">
+      <c r="BH11">
         <v>0.001825099171295374</v>
       </c>
-      <c r="BG11">
+      <c r="BI11">
         <v>0.02207597569520476</v>
       </c>
-      <c r="BH11">
+      <c r="BJ11">
         <v>7.64</v>
       </c>
-      <c r="BI11">
+      <c r="BK11">
         <v>0.02390107486650013</v>
       </c>
-      <c r="BJ11">
+      <c r="BL11">
         <v>7.331988520035549</v>
       </c>
-      <c r="BK11">
+      <c r="BM11">
         <v>5.710405952284654</v>
       </c>
-      <c r="BL11">
+      <c r="BN11">
         <v>4.593274987938277</v>
       </c>
-      <c r="BM11">
+      <c r="BO11">
         <v>3.222456336679247</v>
       </c>
-      <c r="BN11">
+      <c r="BP11">
         <v>5.675908427287614</v>
       </c>
-      <c r="BO11">
+      <c r="BQ11">
         <v>4.593274987938277</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:72">
       <c r="A12" s="1">
         <v>1336</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D12">
         <v>32181</v>
@@ -3281,10 +3311,10 @@
         <v>10617423</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9861237359807216</v>
+        <v>0.9835638086872778</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3296,16 +3326,16 @@
         <v>14</v>
       </c>
       <c r="S12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="T12">
-        <v>97.64849703857134</v>
+        <v>99.13399804110374</v>
       </c>
       <c r="U12">
         <v>20200508</v>
       </c>
       <c r="V12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="W12">
         <v>32106</v>
@@ -3320,16 +3350,16 @@
         <v>1399</v>
       </c>
       <c r="AG12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AI12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AJ12" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AK12">
         <v>1377</v>
@@ -3343,33 +3373,27 @@
       <c r="AP12">
         <v>32106</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>667</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <v>9597</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <v>227567</v>
       </c>
-      <c r="AT12">
+      <c r="AV12">
         <v>227567</v>
       </c>
-      <c r="AU12">
+      <c r="AW12">
         <v>10264</v>
       </c>
-      <c r="AV12">
+      <c r="AX12">
         <v>41</v>
       </c>
-      <c r="AW12">
+      <c r="AY12">
         <v>100</v>
       </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
       <c r="AZ12">
         <v>0</v>
       </c>
@@ -3379,52 +3403,58 @@
       <c r="BB12">
         <v>0</v>
       </c>
-      <c r="BD12" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE12">
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG12">
         <v>3258.438736573084</v>
       </c>
-      <c r="BF12">
+      <c r="BH12">
         <v>0.003023897606792157</v>
       </c>
-      <c r="BG12">
+      <c r="BI12">
         <v>0.01840945773753198</v>
       </c>
-      <c r="BH12">
+      <c r="BJ12">
         <v>14.11</v>
       </c>
-      <c r="BI12">
+      <c r="BK12">
         <v>0.02143335534432414</v>
       </c>
-      <c r="BJ12">
+      <c r="BL12">
         <v>7.026019120070406</v>
       </c>
-      <c r="BK12">
+      <c r="BM12">
         <v>5.357109284274045</v>
       </c>
-      <c r="BL12">
+      <c r="BN12">
         <v>4.507599535342071</v>
       </c>
-      <c r="BM12">
+      <c r="BO12">
         <v>3.146128035678238</v>
       </c>
-      <c r="BN12">
+      <c r="BP12">
         <v>5.291060116338353</v>
       </c>
-      <c r="BO12">
+      <c r="BQ12">
         <v>4.506586201357899</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:72">
       <c r="A13" s="1">
         <v>1337</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D13">
         <v>629</v>
@@ -3457,10 +3487,10 @@
         <v>1415872</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O13">
-        <v>0.9117276894326415</v>
+        <v>0.906180945709481</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3472,16 +3502,16 @@
         <v>9.9</v>
       </c>
       <c r="S13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T13">
-        <v>51.63567813950102</v>
+        <v>52.28370602076458</v>
       </c>
       <c r="U13">
         <v>20200508</v>
       </c>
       <c r="V13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="W13">
         <v>629</v>
@@ -3496,16 +3526,16 @@
         <v>565</v>
       </c>
       <c r="AG13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AI13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AJ13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AK13">
         <v>17</v>
@@ -3513,27 +3543,21 @@
       <c r="AL13">
         <v>74</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>3</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>1074</v>
       </c>
-      <c r="AS13">
+      <c r="AU13">
         <v>36618</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>36618</v>
       </c>
-      <c r="AU13">
+      <c r="AW13">
         <v>1077</v>
       </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
       <c r="AX13">
         <v>0</v>
       </c>
@@ -3549,52 +3573,58 @@
       <c r="BB13">
         <v>0</v>
       </c>
-      <c r="BD13" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE13">
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG13">
         <v>1189.904197824346</v>
       </c>
-      <c r="BF13">
+      <c r="BH13">
         <v>0.0004442491976675858</v>
       </c>
-      <c r="BG13">
+      <c r="BI13">
         <v>0.02541825814762916</v>
       </c>
-      <c r="BH13">
+      <c r="BJ13">
         <v>1.72</v>
       </c>
-      <c r="BI13">
+      <c r="BK13">
         <v>0.02586250734529675</v>
       </c>
-      <c r="BJ13">
+      <c r="BL13">
         <v>6.151023993321008</v>
       </c>
-      <c r="BK13">
+      <c r="BM13">
         <v>4.563694620340237</v>
       </c>
-      <c r="BL13">
+      <c r="BN13">
         <v>2.798650645445269</v>
       </c>
-      <c r="BM13">
+      <c r="BO13">
         <v>1.230448921378274</v>
       </c>
-      <c r="BN13">
+      <c r="BP13">
         <v>4.556169779397686</v>
       </c>
-      <c r="BO13">
+      <c r="BQ13">
         <v>2.798650645445269</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:72">
       <c r="A14" s="1">
         <v>1338</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D14">
         <v>2178</v>
@@ -3627,10 +3657,10 @@
         <v>1787065</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O14">
-        <v>0.9040906439567675</v>
+        <v>0.8931292271614554</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3642,16 +3672,16 @@
         <v>11.5</v>
       </c>
       <c r="S14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T14">
-        <v>52.08462202560825</v>
+        <v>53.84517071626215</v>
       </c>
       <c r="U14">
         <v>20200508</v>
       </c>
       <c r="V14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="W14">
         <v>2178</v>
@@ -3672,16 +3702,16 @@
         <v>1420</v>
       </c>
       <c r="AG14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AJ14" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK14">
         <v>67</v>
@@ -3695,33 +3725,27 @@
       <c r="AP14">
         <v>2007</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>20</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>360</v>
       </c>
-      <c r="AS14">
+      <c r="AU14">
         <v>31270</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>31270</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>380</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>1</v>
       </c>
-      <c r="AW14">
+      <c r="AY14">
         <v>1</v>
       </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
       <c r="AZ14">
         <v>0</v>
       </c>
@@ -3731,55 +3755,61 @@
       <c r="BB14">
         <v>0</v>
       </c>
-      <c r="BD14" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE14">
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG14">
         <v>1336.811505037266</v>
       </c>
-      <c r="BF14">
+      <c r="BH14">
         <v>0.001218758131349447</v>
       </c>
-      <c r="BG14">
+      <c r="BI14">
         <v>0.01627920640827278</v>
       </c>
-      <c r="BH14">
+      <c r="BJ14">
         <v>6.97</v>
       </c>
-      <c r="BI14">
+      <c r="BK14">
         <v>0.01749796453962223</v>
       </c>
-      <c r="BJ14">
+      <c r="BL14">
         <v>6.252140349163694</v>
       </c>
-      <c r="BK14">
+      <c r="BM14">
         <v>4.495127881242933</v>
       </c>
-      <c r="BL14">
+      <c r="BN14">
         <v>3.338057875419756</v>
       </c>
-      <c r="BM14">
+      <c r="BO14">
         <v>1.826074802700826</v>
       </c>
-      <c r="BN14">
+      <c r="BP14">
         <v>4.463773578899397</v>
       </c>
-      <c r="BO14">
+      <c r="BQ14">
         <v>3.338057875419756</v>
       </c>
-      <c r="BP14">
+      <c r="BR14">
         <v>1.204119982655925</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:72">
       <c r="A15" s="1">
         <v>1339</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D15">
         <v>73760</v>
@@ -3803,10 +3833,10 @@
         <v>12671821</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9695497045061849</v>
+        <v>0.9696514597260955</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3818,16 +3848,16 @@
         <v>10.9</v>
       </c>
       <c r="S15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="T15">
-        <v>158.5796464872496</v>
+        <v>160.270455827901</v>
       </c>
       <c r="U15">
         <v>20200508</v>
       </c>
       <c r="V15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W15">
         <v>73760</v>
@@ -3845,16 +3875,16 @@
         <v>727</v>
       </c>
       <c r="AG15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK15">
         <v>3241</v>
@@ -3862,30 +3892,24 @@
       <c r="AP15">
         <v>73760</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>2887</v>
       </c>
-      <c r="AR15">
+      <c r="AT15">
         <v>17784</v>
       </c>
-      <c r="AS15">
+      <c r="AU15">
         <v>399714</v>
       </c>
-      <c r="AT15">
+      <c r="AV15">
         <v>399714</v>
       </c>
-      <c r="AU15">
+      <c r="AW15">
         <v>20671</v>
       </c>
-      <c r="AV15">
+      <c r="AX15">
         <v>130</v>
       </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
       <c r="AY15">
         <v>0</v>
       </c>
@@ -3898,61 +3922,67 @@
       <c r="BB15">
         <v>0</v>
       </c>
-      <c r="BD15" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE15">
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG15">
         <v>3559.750131680593</v>
       </c>
-      <c r="BF15">
+      <c r="BH15">
         <v>0.005820789293030575</v>
       </c>
-      <c r="BG15">
+      <c r="BI15">
         <v>0.02572274340049469</v>
       </c>
-      <c r="BH15">
+      <c r="BJ15">
         <v>18.45</v>
       </c>
-      <c r="BI15">
+      <c r="BK15">
         <v>0.03154353269352526</v>
       </c>
-      <c r="BJ15">
+      <c r="BL15">
         <v>7.102839029518357</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>5.60174935970936</v>
       </c>
-      <c r="BL15">
+      <c r="BN15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BM15">
+      <c r="BO15">
         <v>3.51067903103221</v>
       </c>
-      <c r="BN15">
+      <c r="BP15">
         <v>5.513156314927574</v>
       </c>
-      <c r="BO15">
+      <c r="BQ15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BP15">
+      <c r="BR15">
         <v>3.676693609624866</v>
       </c>
-      <c r="BQ15">
+      <c r="BS15">
         <v>3.087071205906535</v>
       </c>
-      <c r="BR15">
+      <c r="BT15">
         <v>2.861534410859038</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:72">
       <c r="A16" s="1">
         <v>1340</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D16">
         <v>23146</v>
@@ -3982,10 +4012,10 @@
         <v>6732219</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9883980702810212</v>
+        <v>0.9886825699764904</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3997,16 +4027,16 @@
         <v>11.6</v>
       </c>
       <c r="S16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="T16">
-        <v>85.99441386363362</v>
+        <v>86.78979158513341</v>
       </c>
       <c r="U16">
         <v>20200508</v>
       </c>
       <c r="V16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="W16">
         <v>23146</v>
@@ -4030,16 +4060,16 @@
         <v>219</v>
       </c>
       <c r="AG16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AI16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AJ16" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AK16">
         <v>1447</v>
@@ -4047,33 +4077,27 @@
       <c r="AL16">
         <v>4389</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <v>643</v>
       </c>
-      <c r="AR16">
+      <c r="AT16">
         <v>4703</v>
       </c>
-      <c r="AS16">
+      <c r="AU16">
         <v>130128</v>
       </c>
-      <c r="AT16">
+      <c r="AV16">
         <v>130128</v>
       </c>
-      <c r="AU16">
+      <c r="AW16">
         <v>5346</v>
       </c>
-      <c r="AV16">
+      <c r="AX16">
         <v>33</v>
       </c>
-      <c r="AW16">
+      <c r="AY16">
         <v>4389</v>
       </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
       <c r="AZ16">
         <v>0</v>
       </c>
@@ -4083,61 +4107,67 @@
       <c r="BB16">
         <v>0</v>
       </c>
-      <c r="BD16" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE16">
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG16">
         <v>2594.651999787255</v>
       </c>
-      <c r="BF16">
+      <c r="BH16">
         <v>0.003438093739968946</v>
       </c>
-      <c r="BG16">
+      <c r="BI16">
         <v>0.01589104573098409</v>
       </c>
-      <c r="BH16">
+      <c r="BJ16">
         <v>17.79</v>
       </c>
-      <c r="BI16">
+      <c r="BK16">
         <v>0.01932913947095304</v>
       </c>
-      <c r="BJ16">
+      <c r="BL16">
         <v>6.828158235192161</v>
       </c>
-      <c r="BK16">
+      <c r="BM16">
         <v>5.114370754956073</v>
       </c>
-      <c r="BL16">
+      <c r="BN16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BM16">
+      <c r="BO16">
         <v>3.160468531119037</v>
       </c>
-      <c r="BN16">
+      <c r="BP16">
         <v>5.029310712654574</v>
       </c>
-      <c r="BO16">
+      <c r="BQ16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BP16">
+      <c r="BR16">
         <v>3.13956426617585</v>
       </c>
-      <c r="BQ16">
+      <c r="BS16">
         <v>2.682145076373832</v>
       </c>
-      <c r="BR16">
+      <c r="BT16">
         <v>2.340444114840118</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:72">
       <c r="A17" s="1">
         <v>1341</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>11457</v>
@@ -4164,10 +4194,10 @@
         <v>3155070</v>
       </c>
       <c r="N17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O17">
-        <v>0.98394630726391</v>
+        <v>0.9846122116569519</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4179,16 +4209,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="T17">
-        <v>119.9477986925515</v>
+        <v>121.3082049694173</v>
       </c>
       <c r="U17">
         <v>20200508</v>
       </c>
       <c r="V17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="W17">
         <v>11457</v>
@@ -4209,16 +4239,16 @@
         <v>4685</v>
       </c>
       <c r="AG17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AI17" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AJ17" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AK17">
         <v>243</v>
@@ -4226,30 +4256,24 @@
       <c r="AP17">
         <v>11457</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <v>398</v>
       </c>
-      <c r="AR17">
+      <c r="AT17">
         <v>3436</v>
       </c>
-      <c r="AS17">
+      <c r="AU17">
         <v>70261</v>
       </c>
-      <c r="AT17">
+      <c r="AV17">
         <v>70261</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>3834</v>
       </c>
-      <c r="AV17">
+      <c r="AX17">
         <v>12</v>
       </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
       <c r="AY17">
         <v>0</v>
       </c>
@@ -4262,61 +4286,67 @@
       <c r="BB17">
         <v>0</v>
       </c>
-      <c r="BD17" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE17">
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG17">
         <v>1776.251671357412</v>
       </c>
-      <c r="BF17">
+      <c r="BH17">
         <v>0.003631298196236534</v>
       </c>
-      <c r="BG17">
+      <c r="BI17">
         <v>0.01863793830247823</v>
       </c>
-      <c r="BH17">
+      <c r="BJ17">
         <v>16.31</v>
       </c>
-      <c r="BI17">
+      <c r="BK17">
         <v>0.02226923649871477</v>
       </c>
-      <c r="BJ17">
+      <c r="BL17">
         <v>6.499008999166996</v>
       </c>
-      <c r="BK17">
+      <c r="BM17">
         <v>4.846714326659982</v>
       </c>
-      <c r="BL17">
+      <c r="BN17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BM17">
+      <c r="BO17">
         <v>2.385606273598312</v>
       </c>
-      <c r="BN17">
+      <c r="BP17">
         <v>4.769406868913598</v>
       </c>
-      <c r="BO17">
+      <c r="BQ17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BP17">
+      <c r="BR17">
         <v>2.60959440922522</v>
       </c>
-      <c r="BQ17">
+      <c r="BS17">
         <v>2.214843848047698</v>
       </c>
-      <c r="BR17">
+      <c r="BT17">
         <v>2.037426497940624</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:72">
       <c r="A18" s="1">
         <v>1342</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D18">
         <v>6667</v>
@@ -4349,10 +4379,10 @@
         <v>2913314</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9798563136222673</v>
+        <v>0.9808425917695228</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4364,16 +4394,16 @@
         <v>10.9</v>
       </c>
       <c r="S18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T18">
-        <v>73.66771215417664</v>
+        <v>74.71889108123231</v>
       </c>
       <c r="U18">
         <v>20200508</v>
       </c>
       <c r="V18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="W18">
         <v>6501</v>
@@ -4394,16 +4424,16 @@
         <v>332</v>
       </c>
       <c r="AG18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI18" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AJ18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK18">
         <v>152</v>
@@ -4411,33 +4441,27 @@
       <c r="AL18">
         <v>608</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <v>357</v>
       </c>
-      <c r="AR18">
+      <c r="AT18">
         <v>2529</v>
       </c>
-      <c r="AS18">
+      <c r="AU18">
         <v>47708</v>
       </c>
-      <c r="AT18">
+      <c r="AV18">
         <v>47708</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>2886</v>
       </c>
-      <c r="AV18">
+      <c r="AX18">
         <v>5</v>
       </c>
-      <c r="AW18">
+      <c r="AY18">
         <v>21</v>
       </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
       <c r="AZ18">
         <v>0</v>
       </c>
@@ -4447,52 +4471,58 @@
       <c r="BB18">
         <v>0</v>
       </c>
-      <c r="BD18" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE18">
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG18">
         <v>1706.843285131942</v>
       </c>
-      <c r="BF18">
+      <c r="BH18">
         <v>0.002231479339336577</v>
       </c>
-      <c r="BG18">
+      <c r="BI18">
         <v>0.01414437304046182</v>
       </c>
-      <c r="BH18">
+      <c r="BJ18">
         <v>13.63</v>
       </c>
-      <c r="BI18">
+      <c r="BK18">
         <v>0.0163758523797984</v>
       </c>
-      <c r="BJ18">
+      <c r="BL18">
         <v>6.464387295859416</v>
       </c>
-      <c r="BK18">
+      <c r="BM18">
         <v>4.678591210581774</v>
       </c>
-      <c r="BL18">
+      <c r="BN18">
         <v>3.823930455125564</v>
       </c>
-      <c r="BM18">
+      <c r="BO18">
         <v>2.225309281725863</v>
       </c>
-      <c r="BN18">
+      <c r="BP18">
         <v>4.614970997662866</v>
       </c>
-      <c r="BO18">
+      <c r="BQ18">
         <v>3.81298016603948</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:72">
       <c r="A19" s="1">
         <v>1343</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D19">
         <v>6288</v>
@@ -4525,10 +4555,10 @@
         <v>4467673</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9959332449173438</v>
+        <v>0.9961860968780483</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4540,16 +4570,16 @@
         <v>14.6</v>
       </c>
       <c r="S19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T19">
-        <v>103.9901757998439</v>
+        <v>105.2270893000515</v>
       </c>
       <c r="U19">
         <v>20200508</v>
       </c>
       <c r="V19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="W19">
         <v>6129</v>
@@ -4573,16 +4603,16 @@
         <v>2177</v>
       </c>
       <c r="AG19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AI19" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AJ19" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK19">
         <v>294</v>
@@ -4593,33 +4623,27 @@
       <c r="AP19">
         <v>6119</v>
       </c>
-      <c r="AQ19">
+      <c r="AS19">
         <v>195</v>
       </c>
-      <c r="AR19">
+      <c r="AT19">
         <v>2600</v>
       </c>
-      <c r="AS19">
+      <c r="AU19">
         <v>81401</v>
       </c>
-      <c r="AT19">
+      <c r="AV19">
         <v>81401</v>
       </c>
-      <c r="AU19">
+      <c r="AW19">
         <v>2795</v>
       </c>
-      <c r="AV19">
+      <c r="AX19">
         <v>11</v>
       </c>
-      <c r="AW19">
+      <c r="AY19">
         <v>68</v>
       </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
       <c r="AZ19">
         <v>0</v>
       </c>
@@ -4629,58 +4653,64 @@
       <c r="BB19">
         <v>0</v>
       </c>
-      <c r="BD19" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE19">
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG19">
         <v>2113.687062930556</v>
       </c>
-      <c r="BF19">
+      <c r="BH19">
         <v>0.001371855102197497</v>
       </c>
-      <c r="BG19">
+      <c r="BI19">
         <v>0.01684814443671236</v>
       </c>
-      <c r="BH19">
+      <c r="BJ19">
         <v>7.53</v>
       </c>
-      <c r="BI19">
+      <c r="BK19">
         <v>0.01821999953890985</v>
       </c>
-      <c r="BJ19">
+      <c r="BL19">
         <v>6.650081378523105</v>
       </c>
-      <c r="BK19">
+      <c r="BM19">
         <v>4.910629740169475</v>
       </c>
-      <c r="BL19">
+      <c r="BN19">
         <v>3.798512533031352</v>
       </c>
-      <c r="BM19">
+      <c r="BO19">
         <v>2.474216264076255</v>
       </c>
-      <c r="BN19">
+      <c r="BP19">
         <v>4.876633455524433</v>
       </c>
-      <c r="BO19">
+      <c r="BQ19">
         <v>3.78738962135211</v>
       </c>
-      <c r="BP19">
+      <c r="BR19">
         <v>2.551449997972875</v>
       </c>
-      <c r="BQ19">
+      <c r="BS19">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:72">
       <c r="A20" s="1">
         <v>1344</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D20">
         <v>30855</v>
@@ -4707,10 +4737,10 @@
         <v>4648794</v>
       </c>
       <c r="N20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9767474507350151</v>
+        <v>0.9746119727912953</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4722,16 +4752,16 @@
         <v>19.8</v>
       </c>
       <c r="S20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T20">
-        <v>175.6612468446718</v>
+        <v>179.828874902338</v>
       </c>
       <c r="U20">
         <v>20200508</v>
       </c>
       <c r="V20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="W20">
         <v>30855</v>
@@ -4749,44 +4779,41 @@
         <v>20316</v>
       </c>
       <c r="AG20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI20" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AK20">
         <v>2227</v>
       </c>
       <c r="AQ20">
+        <v>1991</v>
+      </c>
+      <c r="AS20">
         <v>203</v>
       </c>
-      <c r="AR20">
+      <c r="AT20">
         <v>1446</v>
       </c>
-      <c r="AS20">
+      <c r="AU20">
         <v>202416</v>
       </c>
-      <c r="AT20">
+      <c r="AV20">
         <v>202416</v>
       </c>
-      <c r="AU20">
+      <c r="AW20">
         <v>1649</v>
       </c>
-      <c r="AV20">
+      <c r="AX20">
         <v>19</v>
       </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
       <c r="AY20">
         <v>0</v>
       </c>
@@ -4799,58 +4826,64 @@
       <c r="BB20">
         <v>0</v>
       </c>
-      <c r="BD20" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE20">
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG20">
         <v>2156.106212597144</v>
       </c>
-      <c r="BF20">
+      <c r="BH20">
         <v>0.006637205262268021</v>
       </c>
-      <c r="BG20">
+      <c r="BI20">
         <v>0.03690441004699283</v>
       </c>
-      <c r="BH20">
+      <c r="BJ20">
         <v>15.24</v>
       </c>
-      <c r="BI20">
+      <c r="BK20">
         <v>0.04354161530926085</v>
       </c>
-      <c r="BJ20">
+      <c r="BL20">
         <v>6.667340301905727</v>
       </c>
-      <c r="BK20">
+      <c r="BM20">
         <v>5.306244838390451</v>
       </c>
-      <c r="BL20">
+      <c r="BN20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BM20">
+      <c r="BO20">
         <v>3.347720217034038</v>
       </c>
-      <c r="BN20">
+      <c r="BP20">
         <v>5.234418569003362</v>
       </c>
-      <c r="BO20">
+      <c r="BQ20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BP20">
+      <c r="BR20">
         <v>3.133219456732494</v>
       </c>
-      <c r="BR20">
+      <c r="BT20">
         <v>2.267171728403014</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:72">
       <c r="A21" s="1">
         <v>1345</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D21">
         <v>1374</v>
@@ -4883,10 +4916,10 @@
         <v>1344212</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9961814089814592</v>
+        <v>0.9960299519408827</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4898,16 +4931,16 @@
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="T21">
-        <v>82.61144952957281</v>
+        <v>84.32112736661877</v>
       </c>
       <c r="U21">
         <v>20200508</v>
       </c>
       <c r="V21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="W21">
         <v>1374</v>
@@ -4931,16 +4964,16 @@
         <v>836</v>
       </c>
       <c r="AG21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AI21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AJ21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AK21">
         <v>63</v>
@@ -4951,33 +4984,27 @@
       <c r="AP21">
         <v>1264</v>
       </c>
-      <c r="AQ21">
+      <c r="AS21">
         <v>44</v>
       </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
         <v>23466</v>
       </c>
-      <c r="AT21">
+      <c r="AV21">
         <v>23466</v>
       </c>
-      <c r="AU21">
+      <c r="AW21">
         <v>44</v>
       </c>
-      <c r="AV21">
+      <c r="AX21">
         <v>1</v>
       </c>
-      <c r="AW21">
+      <c r="AY21">
         <v>2</v>
       </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
       <c r="AZ21">
         <v>0</v>
       </c>
@@ -4987,61 +5014,67 @@
       <c r="BB21">
         <v>0</v>
       </c>
-      <c r="BD21" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE21">
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG21">
         <v>1159.401569776408</v>
       </c>
-      <c r="BF21">
+      <c r="BH21">
         <v>0.001022160194969246</v>
       </c>
-      <c r="BG21">
+      <c r="BI21">
         <v>0.0164349075889815</v>
       </c>
-      <c r="BH21">
+      <c r="BJ21">
         <v>5.86</v>
       </c>
-      <c r="BI21">
+      <c r="BK21">
         <v>0.01745706778395074</v>
       </c>
-      <c r="BJ21">
+      <c r="BL21">
         <v>6.128467768099815</v>
       </c>
-      <c r="BK21">
+      <c r="BM21">
         <v>4.370439066335774</v>
       </c>
-      <c r="BL21">
+      <c r="BN21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BM21">
+      <c r="BO21">
         <v>1.799340549453582</v>
       </c>
-      <c r="BN21">
+      <c r="BP21">
         <v>4.344235034551639</v>
       </c>
-      <c r="BO21">
+      <c r="BQ21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BP21">
+      <c r="BR21">
         <v>1.643452676486187</v>
       </c>
-      <c r="BQ21">
+      <c r="BS21">
         <v>1.361727836017593</v>
       </c>
-      <c r="BR21">
+      <c r="BT21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:72">
       <c r="A22" s="1">
         <v>1346</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D22">
         <v>30485</v>
@@ -5074,10 +5107,10 @@
         <v>6045680</v>
       </c>
       <c r="N22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9777401337865309</v>
+        <v>0.9772082451651545</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5089,16 +5122,16 @@
         <v>7.8</v>
       </c>
       <c r="S22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="T22">
-        <v>108.6702819708001</v>
+        <v>109.4780018931502</v>
       </c>
       <c r="U22">
         <v>20200508</v>
       </c>
       <c r="V22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="W22">
         <v>30485</v>
@@ -5119,16 +5152,16 @@
         <v>2041</v>
       </c>
       <c r="AG22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AJ22" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK22">
         <v>1643</v>
@@ -5140,32 +5173,32 @@
         <v>30485</v>
       </c>
       <c r="AQ22">
+        <v>1561</v>
+      </c>
+      <c r="AR22">
+        <v>82</v>
+      </c>
+      <c r="AS22">
         <v>1111</v>
       </c>
-      <c r="AR22">
+      <c r="AT22">
         <v>2476</v>
       </c>
-      <c r="AS22">
+      <c r="AU22">
         <v>152187</v>
       </c>
-      <c r="AT22">
+      <c r="AV22">
         <v>152187</v>
       </c>
-      <c r="AU22">
+      <c r="AW22">
         <v>3587</v>
       </c>
-      <c r="AV22">
+      <c r="AX22">
         <v>63</v>
       </c>
-      <c r="AW22">
+      <c r="AY22">
         <v>148</v>
       </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
       <c r="AZ22">
         <v>0</v>
       </c>
@@ -5175,58 +5208,64 @@
       <c r="BB22">
         <v>0</v>
       </c>
-      <c r="BD22" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE22">
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG22">
         <v>2458.796453552022</v>
       </c>
-      <c r="BF22">
+      <c r="BH22">
         <v>0.005042443529925501</v>
       </c>
-      <c r="BG22">
+      <c r="BI22">
         <v>0.02013040716677032</v>
       </c>
-      <c r="BH22">
+      <c r="BJ22">
         <v>20.03</v>
       </c>
-      <c r="BI22">
+      <c r="BK22">
         <v>0.02517285069669582</v>
       </c>
-      <c r="BJ22">
+      <c r="BL22">
         <v>6.781445156088222</v>
       </c>
-      <c r="BK22">
+      <c r="BM22">
         <v>5.182377556052198</v>
       </c>
-      <c r="BL22">
+      <c r="BN22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BM22">
+      <c r="BO22">
         <v>3.193124598354462</v>
       </c>
-      <c r="BN22">
+      <c r="BP22">
         <v>5.085297715303415</v>
       </c>
-      <c r="BO22">
+      <c r="BQ22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BP22">
+      <c r="BR22">
         <v>3.223755453657241</v>
       </c>
-      <c r="BQ22">
+      <c r="BS22">
         <v>2.756636108245848</v>
       </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:72">
       <c r="A23" s="1">
         <v>1347</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D23">
         <v>75333</v>
@@ -5256,10 +5295,10 @@
         <v>6892503</v>
       </c>
       <c r="N23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9703076796657443</v>
+        <v>0.9705570418864128</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5271,16 +5310,16 @@
         <v>10</v>
       </c>
       <c r="S23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="T23">
-        <v>137.4448798337261</v>
+        <v>136.9853523861968</v>
       </c>
       <c r="U23">
         <v>20200508</v>
       </c>
       <c r="V23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W23">
         <v>75333</v>
@@ -5298,16 +5337,16 @@
         <v>826</v>
       </c>
       <c r="AG23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AJ23" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK23">
         <v>4702</v>
@@ -5318,33 +5357,27 @@
       <c r="AP23">
         <v>75333</v>
       </c>
-      <c r="AQ23">
+      <c r="AS23">
         <v>1612</v>
       </c>
-      <c r="AR23">
+      <c r="AT23">
         <v>12779</v>
       </c>
-      <c r="AS23">
+      <c r="AU23">
         <v>366023</v>
       </c>
-      <c r="AT23">
+      <c r="AV23">
         <v>366023</v>
       </c>
-      <c r="AU23">
+      <c r="AW23">
         <v>14391</v>
       </c>
-      <c r="AV23">
+      <c r="AX23">
         <v>150</v>
       </c>
-      <c r="AW23">
+      <c r="AY23">
         <v>197</v>
       </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
       <c r="AZ23">
         <v>0</v>
       </c>
@@ -5354,58 +5387,64 @@
       <c r="BB23">
         <v>0</v>
       </c>
-      <c r="BD23" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE23">
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG23">
         <v>2625.357689915795</v>
       </c>
-      <c r="BF23">
+      <c r="BH23">
         <v>0.01092970144517891</v>
       </c>
-      <c r="BG23">
+      <c r="BI23">
         <v>0.04217480935445368</v>
       </c>
-      <c r="BH23">
+      <c r="BJ23">
         <v>20.58</v>
       </c>
-      <c r="BI23">
+      <c r="BK23">
         <v>0.05310451079963258</v>
       </c>
-      <c r="BJ23">
+      <c r="BL23">
         <v>6.838376963806924</v>
       </c>
-      <c r="BK23">
+      <c r="BM23">
         <v>5.563508376266657</v>
       </c>
-      <c r="BL23">
+      <c r="BN23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BM23">
+      <c r="BO23">
         <v>3.672282624788921</v>
       </c>
-      <c r="BN23">
+      <c r="BP23">
         <v>5.463430091902802</v>
       </c>
-      <c r="BO23">
+      <c r="BQ23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BP23">
+      <c r="BR23">
         <v>3.524915147539867</v>
       </c>
-      <c r="BQ23">
+      <c r="BS23">
         <v>2.916980047320382</v>
       </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:72">
       <c r="A24" s="1">
         <v>1348</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D24">
         <v>46386</v>
@@ -5432,10 +5471,10 @@
         <v>9986857</v>
       </c>
       <c r="N24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9906242418143998</v>
+        <v>0.9908815847260236</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5447,16 +5486,16 @@
         <v>11</v>
       </c>
       <c r="S24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T24">
-        <v>126.6572572169543</v>
+        <v>128.0399878954894</v>
       </c>
       <c r="U24">
         <v>20200508</v>
       </c>
       <c r="V24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="W24">
         <v>52349</v>
@@ -5477,16 +5516,16 @@
         <v>15659</v>
       </c>
       <c r="AG24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AI24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AJ24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AK24">
         <v>4987</v>
@@ -5504,29 +5543,29 @@
         <v>49871</v>
       </c>
       <c r="AQ24">
+        <v>4809</v>
+      </c>
+      <c r="AR24">
+        <v>215</v>
+      </c>
+      <c r="AS24">
         <v>618</v>
       </c>
-      <c r="AR24">
+      <c r="AT24">
         <v>11958</v>
       </c>
-      <c r="AS24">
+      <c r="AU24">
         <v>300491</v>
       </c>
-      <c r="AT24">
+      <c r="AV24">
         <v>300491</v>
       </c>
-      <c r="AU24">
+      <c r="AW24">
         <v>12576</v>
       </c>
-      <c r="AV24">
+      <c r="AX24">
         <v>62</v>
       </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
       <c r="AY24">
         <v>0</v>
       </c>
@@ -5539,61 +5578,67 @@
       <c r="BB24">
         <v>0</v>
       </c>
-      <c r="BD24" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE24">
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG24">
         <v>3160.19888614625</v>
       </c>
-      <c r="BF24">
+      <c r="BH24">
         <v>0.005241789283655508</v>
       </c>
-      <c r="BG24">
+      <c r="BI24">
         <v>0.02484685622313406</v>
       </c>
-      <c r="BH24">
+      <c r="BJ24">
         <v>17.42</v>
       </c>
-      <c r="BI24">
+      <c r="BK24">
         <v>0.0260595500666526</v>
       </c>
-      <c r="BJ24">
+      <c r="BL24">
         <v>6.999428831336674</v>
       </c>
-      <c r="BK24">
+      <c r="BM24">
         <v>5.415395744430167</v>
       </c>
-      <c r="BL24">
+      <c r="BN24">
         <v>4.666386923654211</v>
       </c>
-      <c r="BM24">
+      <c r="BO24">
         <v>3.643353961976863</v>
       </c>
-      <c r="BN24">
+      <c r="BP24">
         <v>5.3947002782766</v>
       </c>
-      <c r="BO24">
+      <c r="BQ24">
         <v>4.718908389956982</v>
       </c>
-      <c r="BP24">
+      <c r="BR24">
         <v>3.214048679411941</v>
       </c>
-      <c r="BQ24">
+      <c r="BS24">
         <v>2.860338006570994</v>
       </c>
-      <c r="BR24">
+      <c r="BT24">
         <v>2.755874855672491</v>
       </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:72">
       <c r="A25" s="1">
         <v>1349</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D25">
         <v>10088</v>
@@ -5626,10 +5671,10 @@
         <v>5639632</v>
       </c>
       <c r="N25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9754953006911161</v>
+        <v>0.9753128287414995</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5641,16 +5686,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="T25">
-        <v>135.5448276159194</v>
+        <v>137.8979280604234</v>
       </c>
       <c r="U25">
         <v>20200508</v>
       </c>
       <c r="V25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="W25">
         <v>13040</v>
@@ -5674,16 +5719,16 @@
         <v>5163</v>
       </c>
       <c r="AG25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AI25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AJ25" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK25">
         <v>534</v>
@@ -5697,33 +5742,27 @@
       <c r="AP25">
         <v>10088</v>
       </c>
-      <c r="AQ25">
+      <c r="AS25">
         <v>712</v>
       </c>
-      <c r="AR25">
+      <c r="AT25">
         <v>4164</v>
       </c>
-      <c r="AS25">
+      <c r="AU25">
         <v>114448</v>
       </c>
-      <c r="AT25">
+      <c r="AV25">
         <v>114448</v>
       </c>
-      <c r="AU25">
+      <c r="AW25">
         <v>4876</v>
       </c>
-      <c r="AV25">
+      <c r="AX25">
         <v>26</v>
       </c>
-      <c r="AW25">
+      <c r="AY25">
         <v>90</v>
       </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
       <c r="AZ25">
         <v>0</v>
       </c>
@@ -5733,58 +5772,64 @@
       <c r="BB25">
         <v>0</v>
       </c>
-      <c r="BD25" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE25">
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG25">
         <v>2374.790938166979</v>
       </c>
-      <c r="BF25">
+      <c r="BH25">
         <v>0.002312207605035222</v>
       </c>
-      <c r="BG25">
+      <c r="BI25">
         <v>0.01798131509289968</v>
       </c>
-      <c r="BH25">
+      <c r="BJ25">
         <v>11.39</v>
       </c>
-      <c r="BI25">
+      <c r="BK25">
         <v>0.01795684541118995</v>
       </c>
-      <c r="BJ25">
+      <c r="BL25">
         <v>6.751250766113916</v>
       </c>
-      <c r="BK25">
+      <c r="BM25">
         <v>5.005480809979401</v>
       </c>
-      <c r="BL25">
+      <c r="BN25">
         <v>4.003805073565025</v>
       </c>
-      <c r="BM25">
+      <c r="BO25">
         <v>2.727541257028556</v>
       </c>
-      <c r="BN25">
+      <c r="BP25">
         <v>5.006072217510207</v>
       </c>
-      <c r="BO25">
+      <c r="BQ25">
         <v>4.115277591395901</v>
       </c>
-      <c r="BP25">
+      <c r="BR25">
         <v>2.674861140737812</v>
       </c>
-      <c r="BQ25">
+      <c r="BS25">
         <v>2.296665190261531</v>
       </c>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:72">
       <c r="A26" s="1">
         <v>1350</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D26">
         <v>9090</v>
@@ -5817,10 +5862,10 @@
         <v>2976149</v>
       </c>
       <c r="N26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O26">
-        <v>0.995453239745992</v>
+        <v>0.9949666543211282</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5832,16 +5877,16 @@
         <v>19</v>
       </c>
       <c r="S26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T26">
-        <v>115.0420910906508</v>
+        <v>115.866442656183</v>
       </c>
       <c r="U26">
         <v>20200508</v>
       </c>
       <c r="V26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W26">
         <v>9090</v>
@@ -5865,16 +5910,16 @@
         <v>4421</v>
       </c>
       <c r="AG26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI26" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AJ26" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK26">
         <v>409</v>
@@ -5885,33 +5930,27 @@
       <c r="AP26">
         <v>9090</v>
       </c>
-      <c r="AQ26">
+      <c r="AS26">
         <v>404</v>
       </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
         <v>81191</v>
       </c>
-      <c r="AT26">
+      <c r="AV26">
         <v>81191</v>
       </c>
-      <c r="AU26">
+      <c r="AW26">
         <v>404</v>
       </c>
-      <c r="AV26">
+      <c r="AX26">
         <v>13</v>
       </c>
-      <c r="AW26">
+      <c r="AY26">
         <v>36</v>
       </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
       <c r="AZ26">
         <v>0</v>
       </c>
@@ -5921,61 +5960,67 @@
       <c r="BB26">
         <v>0</v>
       </c>
-      <c r="BD26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE26">
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG26">
         <v>1725.151877371961</v>
       </c>
-      <c r="BF26">
+      <c r="BH26">
         <v>0.003054282564481819</v>
       </c>
-      <c r="BG26">
+      <c r="BI26">
         <v>0.02422627361734913</v>
       </c>
-      <c r="BH26">
+      <c r="BJ26">
         <v>11.2</v>
       </c>
-      <c r="BI26">
+      <c r="BK26">
         <v>0.02728055618183095</v>
       </c>
-      <c r="BJ26">
+      <c r="BL26">
         <v>6.473654670240083</v>
       </c>
-      <c r="BK26">
+      <c r="BM26">
         <v>4.909507890485442</v>
       </c>
-      <c r="BL26">
+      <c r="BN26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BM26">
+      <c r="BO26">
         <v>2.611723308007342</v>
       </c>
-      <c r="BN26">
+      <c r="BP26">
         <v>4.857941288179487</v>
       </c>
-      <c r="BO26">
+      <c r="BQ26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BP26">
+      <c r="BR26">
         <v>2.800717078282385</v>
       </c>
-      <c r="BQ26">
+      <c r="BS26">
         <v>2.089905111439398</v>
       </c>
-      <c r="BR26">
+      <c r="BT26">
         <v>1.763427993562937</v>
       </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:72">
       <c r="A27" s="1">
         <v>1351</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27">
         <v>9733</v>
@@ -5999,10 +6044,10 @@
         <v>6137428</v>
       </c>
       <c r="N27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9932591612262739</v>
+        <v>0.9923869888905024</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6014,16 +6059,16 @@
         <v>11.9</v>
       </c>
       <c r="S27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T27">
-        <v>71.31539161477009</v>
+        <v>72.67811269419943</v>
       </c>
       <c r="U27">
         <v>20200508</v>
       </c>
       <c r="V27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W27">
         <v>9489</v>
@@ -6038,16 +6083,16 @@
         <v>143</v>
       </c>
       <c r="AG27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AI27" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AJ27" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AK27">
         <v>449</v>
@@ -6064,30 +6109,24 @@
       <c r="AP27">
         <v>9489</v>
       </c>
-      <c r="AQ27">
+      <c r="AS27">
         <v>148</v>
       </c>
-      <c r="AR27">
+      <c r="AT27">
         <v>4951</v>
       </c>
-      <c r="AS27">
+      <c r="AU27">
         <v>108721</v>
       </c>
-      <c r="AT27">
+      <c r="AV27">
         <v>108721</v>
       </c>
-      <c r="AU27">
+      <c r="AW27">
         <v>5099</v>
       </c>
-      <c r="AV27">
+      <c r="AX27">
         <v>31</v>
       </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
       <c r="AY27">
         <v>0</v>
       </c>
@@ -6100,58 +6139,64 @@
       <c r="BB27">
         <v>0</v>
       </c>
-      <c r="BD27" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE27">
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG27">
         <v>2477.383296948617</v>
       </c>
-      <c r="BF27">
+      <c r="BH27">
         <v>0.001546087383835705</v>
       </c>
-      <c r="BG27">
+      <c r="BI27">
         <v>0.01616833631286591</v>
       </c>
-      <c r="BH27">
+      <c r="BJ27">
         <v>8.73</v>
       </c>
-      <c r="BI27">
+      <c r="BK27">
         <v>0.01771442369670162</v>
       </c>
-      <c r="BJ27">
+      <c r="BL27">
         <v>6.787986410322698</v>
       </c>
-      <c r="BK27">
+      <c r="BM27">
         <v>5.036313438320507</v>
       </c>
-      <c r="BL27">
+      <c r="BN27">
         <v>3.988246723375378</v>
       </c>
-      <c r="BM27">
+      <c r="BO27">
         <v>2.683947130751512</v>
       </c>
-      <c r="BN27">
+      <c r="BP27">
         <v>4.996651744557233</v>
       </c>
-      <c r="BO27">
+      <c r="BQ27">
         <v>3.977220446635385</v>
       </c>
-      <c r="BP27">
+      <c r="BR27">
         <v>2.920123326290724</v>
       </c>
-      <c r="BR27">
+      <c r="BT27">
         <v>2.155336037465062</v>
       </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:72">
       <c r="A28" s="1">
         <v>1352</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D28">
         <v>458</v>
@@ -6184,10 +6229,10 @@
         <v>1068778</v>
       </c>
       <c r="N28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8499227352141761</v>
+        <v>0.8424293067504275</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6199,16 +6244,16 @@
         <v>10.3</v>
       </c>
       <c r="S28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="T28">
-        <v>95.63447375438844</v>
+        <v>98.29562765942451</v>
       </c>
       <c r="U28">
         <v>20200508</v>
       </c>
       <c r="V28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W28">
         <v>458</v>
@@ -6226,16 +6271,16 @@
         <v>420</v>
       </c>
       <c r="AG28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI28" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK28">
         <v>16</v>
@@ -6246,27 +6291,21 @@
       <c r="AP28">
         <v>458</v>
       </c>
-      <c r="AQ28">
+      <c r="AS28">
         <v>2</v>
       </c>
-      <c r="AR28">
+      <c r="AT28">
         <v>696</v>
       </c>
-      <c r="AS28">
+      <c r="AU28">
         <v>20945</v>
       </c>
-      <c r="AT28">
+      <c r="AV28">
         <v>20945</v>
       </c>
-      <c r="AU28">
+      <c r="AW28">
         <v>698</v>
       </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
       <c r="AX28">
         <v>0</v>
       </c>
@@ -6282,55 +6321,61 @@
       <c r="BB28">
         <v>0</v>
       </c>
-      <c r="BD28" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE28">
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG28">
         <v>1033.817198541406</v>
       </c>
-      <c r="BF28">
+      <c r="BH28">
         <v>0.0004285267847953457</v>
       </c>
-      <c r="BG28">
+      <c r="BI28">
         <v>0.01916862061157696</v>
       </c>
-      <c r="BH28">
+      <c r="BJ28">
         <v>2.19</v>
       </c>
-      <c r="BI28">
+      <c r="BK28">
         <v>0.01959714739637231</v>
       </c>
-      <c r="BJ28">
+      <c r="BL28">
         <v>6.028887505594666</v>
       </c>
-      <c r="BK28">
+      <c r="BM28">
         <v>4.321080364697238</v>
       </c>
-      <c r="BL28">
+      <c r="BN28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BM28">
+      <c r="BO28">
         <v>1.204119982655925</v>
       </c>
-      <c r="BN28">
+      <c r="BP28">
         <v>4.311478367438068</v>
       </c>
-      <c r="BO28">
+      <c r="BQ28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BP28">
+      <c r="BR28">
         <v>0.7781512503836436</v>
       </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:72">
       <c r="A29" s="1">
         <v>1353</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D29">
         <v>7818</v>
@@ -6354,10 +6399,10 @@
         <v>1934408</v>
       </c>
       <c r="N29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9668964957961899</v>
+        <v>0.9666090622709761</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6369,16 +6414,16 @@
         <v>11</v>
       </c>
       <c r="S29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T29">
-        <v>114.5882582111606</v>
+        <v>115.0657715047524</v>
       </c>
       <c r="U29">
         <v>20200508</v>
       </c>
       <c r="V29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="W29">
         <v>7190</v>
@@ -6387,16 +6432,16 @@
         <v>33222</v>
       </c>
       <c r="AG29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AH29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AI29" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AJ29" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK29">
         <v>90</v>
@@ -6404,30 +6449,24 @@
       <c r="AP29">
         <v>7190</v>
       </c>
-      <c r="AQ29">
+      <c r="AS29">
         <v>419</v>
       </c>
-      <c r="AR29">
+      <c r="AT29">
         <v>2235</v>
       </c>
-      <c r="AS29">
+      <c r="AU29">
         <v>40412</v>
       </c>
-      <c r="AT29">
+      <c r="AV29">
         <v>40412</v>
       </c>
-      <c r="AU29">
+      <c r="AW29">
         <v>2654</v>
       </c>
-      <c r="AV29">
+      <c r="AX29">
         <v>4</v>
       </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
       <c r="AY29">
         <v>0</v>
       </c>
@@ -6440,52 +6479,58 @@
       <c r="BB29">
         <v>0</v>
       </c>
-      <c r="BD29" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE29">
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG29">
         <v>1390.829968040666</v>
       </c>
-      <c r="BF29">
+      <c r="BH29">
         <v>0.003716899433831953</v>
       </c>
-      <c r="BG29">
+      <c r="BI29">
         <v>0.01717424659120517</v>
       </c>
-      <c r="BH29">
+      <c r="BJ29">
         <v>17.79</v>
       </c>
-      <c r="BI29">
+      <c r="BK29">
         <v>0.02089114602503712</v>
       </c>
-      <c r="BJ29">
+      <c r="BL29">
         <v>6.286548079602651</v>
       </c>
-      <c r="BK29">
+      <c r="BM29">
         <v>4.606510344317186</v>
       </c>
-      <c r="BL29">
+      <c r="BN29">
         <v>3.893095666096228</v>
       </c>
-      <c r="BM29">
+      <c r="BO29">
         <v>1.954242509439325</v>
       </c>
-      <c r="BN29">
+      <c r="BP29">
         <v>4.521425773895577</v>
       </c>
-      <c r="BO29">
+      <c r="BQ29">
         <v>3.856728890382882</v>
       </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:72">
       <c r="A30" s="1">
         <v>1354</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30">
         <v>5920</v>
@@ -6512,10 +6557,10 @@
         <v>3080156</v>
       </c>
       <c r="N30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9596909001084118</v>
+        <v>0.9557004810623834</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6527,16 +6572,16 @@
         <v>13.1</v>
       </c>
       <c r="S30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="T30">
-        <v>115.6205699919866</v>
+        <v>117.107572878222</v>
       </c>
       <c r="U30">
         <v>20200508</v>
       </c>
       <c r="V30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="W30">
         <v>5884</v>
@@ -6548,16 +6593,16 @@
         <v>205</v>
       </c>
       <c r="AG30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AH30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AI30" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AJ30" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AK30">
         <v>328</v>
@@ -6568,30 +6613,24 @@
       <c r="AP30">
         <v>5884</v>
       </c>
-      <c r="AQ30">
+      <c r="AS30">
         <v>118</v>
       </c>
-      <c r="AR30">
+      <c r="AT30">
         <v>1869</v>
       </c>
-      <c r="AS30">
+      <c r="AU30">
         <v>53344</v>
       </c>
-      <c r="AT30">
+      <c r="AV30">
         <v>53344</v>
       </c>
-      <c r="AU30">
+      <c r="AW30">
         <v>1987</v>
       </c>
-      <c r="AV30">
+      <c r="AX30">
         <v>8</v>
       </c>
-      <c r="AW30">
-        <v>0</v>
-      </c>
-      <c r="AX30">
-        <v>0</v>
-      </c>
       <c r="AY30">
         <v>0</v>
       </c>
@@ -6604,52 +6643,58 @@
       <c r="BB30">
         <v>0</v>
       </c>
-      <c r="BD30" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE30">
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG30">
         <v>1755.037321540485</v>
       </c>
-      <c r="BF30">
+      <c r="BH30">
         <v>0.001910292855296939</v>
       </c>
-      <c r="BG30">
+      <c r="BI30">
         <v>0.01540831048817008</v>
       </c>
-      <c r="BH30">
+      <c r="BJ30">
         <v>11.03</v>
       </c>
-      <c r="BI30">
+      <c r="BK30">
         <v>0.01731860334346702</v>
       </c>
-      <c r="BJ30">
+      <c r="BL30">
         <v>6.488572712676902</v>
       </c>
-      <c r="BK30">
+      <c r="BM30">
         <v>4.727085578147912</v>
       </c>
-      <c r="BL30">
+      <c r="BN30">
         <v>3.77232170672292</v>
       </c>
-      <c r="BM30">
+      <c r="BO30">
         <v>2.468347330412157</v>
       </c>
-      <c r="BN30">
+      <c r="BP30">
         <v>4.67632773388132</v>
       </c>
-      <c r="BO30">
+      <c r="BQ30">
         <v>3.769672664055492</v>
       </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:72">
       <c r="A31" s="1">
         <v>1355</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D31">
         <v>2947</v>
@@ -6682,10 +6727,10 @@
         <v>1359711</v>
       </c>
       <c r="N31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9811860956323643</v>
+        <v>0.9806099856501166</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6697,16 +6742,16 @@
         <v>6.6</v>
       </c>
       <c r="S31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T31">
-        <v>110.4778329431883</v>
+        <v>110.4633726876769</v>
       </c>
       <c r="U31">
         <v>20200508</v>
       </c>
       <c r="V31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W31">
         <v>2843</v>
@@ -6730,16 +6775,16 @@
         <v>1165</v>
       </c>
       <c r="AG31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AI31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AJ31" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AK31">
         <v>114</v>
@@ -6750,33 +6795,27 @@
       <c r="AP31">
         <v>2843</v>
       </c>
-      <c r="AQ31">
+      <c r="AS31">
         <v>103</v>
       </c>
-      <c r="AR31">
+      <c r="AT31">
         <v>1763</v>
       </c>
-      <c r="AS31">
+      <c r="AU31">
         <v>31204</v>
       </c>
-      <c r="AT31">
+      <c r="AV31">
         <v>30672</v>
       </c>
-      <c r="AU31">
+      <c r="AW31">
         <v>1866</v>
       </c>
-      <c r="AV31">
+      <c r="AX31">
         <v>3</v>
       </c>
-      <c r="AW31">
+      <c r="AY31">
         <v>1</v>
       </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
       <c r="AZ31">
         <v>0</v>
       </c>
@@ -6786,55 +6825,61 @@
       <c r="BB31">
         <v>0</v>
       </c>
-      <c r="BD31" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE31">
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG31">
         <v>1166.066464657997</v>
       </c>
-      <c r="BF31">
+      <c r="BH31">
         <v>0.002090885489637136</v>
       </c>
-      <c r="BG31">
+      <c r="BI31">
         <v>0.02046684920545616</v>
       </c>
-      <c r="BH31">
+      <c r="BJ31">
         <v>9.27</v>
       </c>
-      <c r="BI31">
+      <c r="BK31">
         <v>0.02255773469509329</v>
       </c>
-      <c r="BJ31">
+      <c r="BL31">
         <v>6.133446610985868</v>
       </c>
-      <c r="BK31">
+      <c r="BM31">
         <v>4.486742095533987</v>
       </c>
-      <c r="BL31">
+      <c r="BN31">
         <v>3.469380135849925</v>
       </c>
-      <c r="BM31">
+      <c r="BO31">
         <v>2.08278537031645</v>
       </c>
-      <c r="BN31">
+      <c r="BP31">
         <v>4.444497600790215</v>
       </c>
-      <c r="BO31">
+      <c r="BQ31">
         <v>3.453776859690442</v>
       </c>
-      <c r="BP31">
+      <c r="BR31">
         <v>2.05307844348342</v>
       </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:72">
       <c r="A32" s="1">
         <v>1356</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D32">
         <v>135840</v>
@@ -6861,10 +6906,10 @@
         <v>8882190</v>
       </c>
       <c r="N32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9787981708394786</v>
+        <v>0.9791758599007379</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6876,16 +6921,16 @@
         <v>9.1</v>
       </c>
       <c r="S32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T32">
-        <v>202.1772945869944</v>
+        <v>203.3886130156428</v>
       </c>
       <c r="U32">
         <v>20200508</v>
       </c>
       <c r="V32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="W32">
         <v>135454</v>
@@ -6909,16 +6954,16 @@
         <v>15642</v>
       </c>
       <c r="AG32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH32" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI32" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ32" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AK32">
         <v>8952</v>
@@ -6926,30 +6971,24 @@
       <c r="AP32">
         <v>135454</v>
       </c>
-      <c r="AQ32">
+      <c r="AS32">
         <v>1819</v>
       </c>
-      <c r="AR32">
+      <c r="AT32">
         <v>4282</v>
       </c>
-      <c r="AS32">
+      <c r="AU32">
         <v>299312</v>
       </c>
-      <c r="AT32">
+      <c r="AV32">
         <v>298759</v>
       </c>
-      <c r="AU32">
+      <c r="AW32">
         <v>6101</v>
       </c>
-      <c r="AV32">
+      <c r="AX32">
         <v>151</v>
       </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
       <c r="AY32">
         <v>0</v>
       </c>
@@ -6962,61 +7001,67 @@
       <c r="BB32">
         <v>0</v>
       </c>
-      <c r="BD32" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE32">
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG32">
         <v>2980.300320437523</v>
       </c>
-      <c r="BF32">
+      <c r="BH32">
         <v>0.01525006783237017</v>
       </c>
-      <c r="BG32">
+      <c r="BI32">
         <v>0.01838566839934746</v>
       </c>
-      <c r="BH32">
+      <c r="BJ32">
         <v>45.34</v>
       </c>
-      <c r="BI32">
+      <c r="BK32">
         <v>0.03363573623171763</v>
       </c>
-      <c r="BJ32">
+      <c r="BL32">
         <v>6.948520058982782</v>
       </c>
-      <c r="BK32">
+      <c r="BM32">
         <v>5.475320997107535</v>
       </c>
-      <c r="BL32">
+      <c r="BN32">
         <v>5.133027672899877</v>
       </c>
-      <c r="BM32">
+      <c r="BO32">
         <v>3.952308009662125</v>
       </c>
-      <c r="BN32">
+      <c r="BP32">
         <v>5.2129994819759</v>
       </c>
-      <c r="BO32">
+      <c r="BQ32">
         <v>5.131791834413688</v>
       </c>
-      <c r="BP32">
+      <c r="BR32">
         <v>3.663229634532868</v>
       </c>
-      <c r="BQ32">
+      <c r="BS32">
         <v>3.158060793936605</v>
       </c>
-      <c r="BR32">
+      <c r="BT32">
         <v>3.037027879755775</v>
       </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:72">
       <c r="A33" s="1">
         <v>1357</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D33">
         <v>4673</v>
@@ -7049,10 +7094,10 @@
         <v>2096829</v>
       </c>
       <c r="N33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9939501778131263</v>
+        <v>0.9943512412707249</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7064,16 +7109,16 @@
         <v>18.2</v>
       </c>
       <c r="S33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T33">
-        <v>190.6723883903028</v>
+        <v>192.6566644840833</v>
       </c>
       <c r="U33">
         <v>20200508</v>
       </c>
       <c r="V33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W33">
         <v>4493</v>
@@ -7091,16 +7136,16 @@
         <v>1125</v>
       </c>
       <c r="AG33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AI33" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AJ33" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AK33">
         <v>172</v>
@@ -7111,33 +7156,27 @@
       <c r="AP33">
         <v>4493</v>
       </c>
-      <c r="AQ33">
+      <c r="AS33">
         <v>202</v>
       </c>
-      <c r="AR33">
+      <c r="AT33">
         <v>3146</v>
       </c>
-      <c r="AS33">
+      <c r="AU33">
         <v>89032</v>
       </c>
-      <c r="AT33">
+      <c r="AV33">
         <v>89032</v>
       </c>
-      <c r="AU33">
+      <c r="AW33">
         <v>3348</v>
       </c>
-      <c r="AV33">
+      <c r="AX33">
         <v>3</v>
       </c>
-      <c r="AW33">
+      <c r="AY33">
         <v>73</v>
       </c>
-      <c r="AX33">
-        <v>0</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
       <c r="AZ33">
         <v>0</v>
       </c>
@@ -7147,55 +7186,61 @@
       <c r="BB33">
         <v>0</v>
       </c>
-      <c r="BD33" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE33">
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG33">
         <v>1448.043162340129</v>
       </c>
-      <c r="BF33">
+      <c r="BH33">
         <v>0.002142759376181844</v>
       </c>
-      <c r="BG33">
+      <c r="BI33">
         <v>0.04031754616137034</v>
       </c>
-      <c r="BH33">
+      <c r="BJ33">
         <v>5.05</v>
       </c>
-      <c r="BI33">
+      <c r="BK33">
         <v>0.04246030553755218</v>
       </c>
-      <c r="BJ33">
+      <c r="BL33">
         <v>6.321563014449838</v>
       </c>
-      <c r="BK33">
+      <c r="BM33">
         <v>4.949546129404536</v>
       </c>
-      <c r="BL33">
+      <c r="BN33">
         <v>3.669595781024313</v>
       </c>
-      <c r="BM33">
+      <c r="BO33">
         <v>2.257678574869185</v>
       </c>
-      <c r="BN33">
+      <c r="BP33">
         <v>4.927057106314735</v>
       </c>
-      <c r="BO33">
+      <c r="BQ33">
         <v>3.652536418593026</v>
       </c>
-      <c r="BP33">
+      <c r="BR33">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:72">
       <c r="A34" s="1">
         <v>1358</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>330407</v>
@@ -7228,10 +7273,10 @@
         <v>19453561</v>
       </c>
       <c r="N34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9831737306618504</v>
+        <v>0.9830939223304581</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7243,16 +7288,16 @@
         <v>11.9</v>
       </c>
       <c r="S34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T34">
-        <v>226.8927263580671</v>
+        <v>229.8814239069285</v>
       </c>
       <c r="U34">
         <v>20200508</v>
       </c>
       <c r="V34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="W34">
         <v>330407</v>
@@ -7276,16 +7321,16 @@
         <v>56378</v>
       </c>
       <c r="AG34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI34" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ34" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK34">
         <v>21045</v>
@@ -7296,33 +7341,27 @@
       <c r="AP34">
         <v>330407</v>
       </c>
-      <c r="AQ34">
+      <c r="AS34">
         <v>2758</v>
       </c>
-      <c r="AR34">
+      <c r="AT34">
         <v>28869</v>
       </c>
-      <c r="AS34">
+      <c r="AU34">
         <v>1121543</v>
       </c>
-      <c r="AT34">
+      <c r="AV34">
         <v>1121543</v>
       </c>
-      <c r="AU34">
+      <c r="AW34">
         <v>31627</v>
       </c>
-      <c r="AV34">
+      <c r="AX34">
         <v>217</v>
       </c>
-      <c r="AW34">
+      <c r="AY34">
         <v>533</v>
       </c>
-      <c r="AX34">
-        <v>0</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
       <c r="AZ34">
         <v>0</v>
       </c>
@@ -7332,61 +7371,67 @@
       <c r="BB34">
         <v>0</v>
       </c>
-      <c r="BD34" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE34">
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG34">
         <v>4410.619117538942</v>
       </c>
-      <c r="BF34">
+      <c r="BH34">
         <v>0.01698439684127754</v>
       </c>
-      <c r="BG34">
+      <c r="BI34">
         <v>0.04066792707001047</v>
       </c>
-      <c r="BH34">
+      <c r="BJ34">
         <v>29.46</v>
       </c>
-      <c r="BI34">
+      <c r="BK34">
         <v>0.05765232391128802</v>
       </c>
-      <c r="BJ34">
+      <c r="BL34">
         <v>7.288999111116478</v>
       </c>
-      <c r="BK34">
+      <c r="BM34">
         <v>6.049815929104652</v>
       </c>
-      <c r="BL34">
+      <c r="BN34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BM34">
+      <c r="BO34">
         <v>4.419013480435807</v>
       </c>
-      <c r="BN34">
+      <c r="BP34">
         <v>5.898251147179793</v>
       </c>
-      <c r="BO34">
+      <c r="BQ34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BP34">
+      <c r="BR34">
         <v>3.913601949729157</v>
       </c>
-      <c r="BQ34">
+      <c r="BS34">
         <v>3.448860845607441</v>
       </c>
-      <c r="BR34">
+      <c r="BT34">
         <v>3.36078268987328</v>
       </c>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:72">
       <c r="A35" s="1">
         <v>1359</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D35">
         <v>14006</v>
@@ -7410,10 +7455,10 @@
         <v>10488084</v>
       </c>
       <c r="N35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9956389975107665</v>
+        <v>0.9957824073753844</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7425,16 +7470,16 @@
         <v>14.1</v>
       </c>
       <c r="S35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="T35">
-        <v>109.2894851038506</v>
+        <v>111.7149773455508</v>
       </c>
       <c r="U35">
         <v>20200508</v>
       </c>
       <c r="V35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="W35">
         <v>13868</v>
@@ -7446,16 +7491,16 @@
         <v>515</v>
       </c>
       <c r="AG35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AI35" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AJ35" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AK35">
         <v>527</v>
@@ -7463,30 +7508,24 @@
       <c r="AP35">
         <v>13868</v>
       </c>
-      <c r="AQ35">
+      <c r="AS35">
         <v>471</v>
       </c>
-      <c r="AR35">
+      <c r="AT35">
         <v>6814</v>
       </c>
-      <c r="AS35">
+      <c r="AU35">
         <v>178613</v>
       </c>
-      <c r="AT35">
+      <c r="AV35">
         <v>178613</v>
       </c>
-      <c r="AU35">
+      <c r="AW35">
         <v>7285</v>
       </c>
-      <c r="AV35">
+      <c r="AX35">
         <v>20</v>
       </c>
-      <c r="AW35">
-        <v>0</v>
-      </c>
-      <c r="AX35">
-        <v>0</v>
-      </c>
       <c r="AY35">
         <v>0</v>
       </c>
@@ -7499,55 +7538,61 @@
       <c r="BB35">
         <v>0</v>
       </c>
-      <c r="BD35" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE35">
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG35">
         <v>3238.531148530148</v>
       </c>
-      <c r="BF35">
+      <c r="BH35">
         <v>0.001322262483786362</v>
       </c>
-      <c r="BG35">
+      <c r="BI35">
         <v>0.01570782613869225</v>
       </c>
-      <c r="BH35">
+      <c r="BJ35">
         <v>7.76</v>
       </c>
-      <c r="BI35">
+      <c r="BK35">
         <v>0.01703008862247862</v>
       </c>
-      <c r="BJ35">
+      <c r="BL35">
         <v>7.02069615699919</v>
       </c>
-      <c r="BK35">
+      <c r="BM35">
         <v>5.251913064982536</v>
       </c>
-      <c r="BL35">
+      <c r="BN35">
         <v>4.146314122011972</v>
       </c>
-      <c r="BM35">
+      <c r="BO35">
         <v>2.724275869600789</v>
       </c>
-      <c r="BN35">
+      <c r="BP35">
         <v>5.216812242656875</v>
       </c>
-      <c r="BO35">
+      <c r="BQ35">
         <v>4.142013832984359</v>
       </c>
-      <c r="BP35">
+      <c r="BR35">
         <v>2.711807229041191</v>
       </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:72">
       <c r="A36" s="1">
         <v>1360</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D36">
         <v>1425</v>
@@ -7580,10 +7625,10 @@
         <v>762062</v>
       </c>
       <c r="N36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9831094829999871</v>
+        <v>0.9836351191667688</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7595,16 +7640,16 @@
         <v>11.1</v>
       </c>
       <c r="S36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T36">
-        <v>155.2769174580242</v>
+        <v>155.1008748399868</v>
       </c>
       <c r="U36">
         <v>20200508</v>
       </c>
       <c r="V36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="W36">
         <v>1425</v>
@@ -7622,16 +7667,16 @@
         <v>714</v>
       </c>
       <c r="AG36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI36" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ36" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AK36">
         <v>24</v>
@@ -7643,32 +7688,29 @@
         <v>1425</v>
       </c>
       <c r="AQ36">
+        <v>24</v>
+      </c>
+      <c r="AS36">
         <v>54</v>
       </c>
-      <c r="AR36">
+      <c r="AT36">
         <v>1580</v>
       </c>
-      <c r="AS36">
+      <c r="AU36">
         <v>42501</v>
       </c>
-      <c r="AT36">
+      <c r="AV36">
         <v>42501</v>
       </c>
-      <c r="AU36">
+      <c r="AW36">
         <v>1634</v>
       </c>
-      <c r="AV36">
+      <c r="AX36">
         <v>1</v>
       </c>
-      <c r="AW36">
+      <c r="AY36">
         <v>2</v>
       </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
       <c r="AZ36">
         <v>0</v>
       </c>
@@ -7678,55 +7720,61 @@
       <c r="BB36">
         <v>0</v>
       </c>
-      <c r="BD36" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE36">
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG36">
         <v>872.9616257316241</v>
       </c>
-      <c r="BF36">
+      <c r="BH36">
         <v>0.001869926593899184</v>
       </c>
-      <c r="BG36">
+      <c r="BI36">
         <v>0.05390112615508974</v>
       </c>
-      <c r="BH36">
+      <c r="BJ36">
         <v>3.35</v>
       </c>
-      <c r="BI36">
+      <c r="BK36">
         <v>0.05577105274898893</v>
       </c>
-      <c r="BJ36">
+      <c r="BL36">
         <v>5.88199030619854</v>
       </c>
-      <c r="BK36">
+      <c r="BM36">
         <v>4.628399148623785</v>
       </c>
-      <c r="BL36">
+      <c r="BN36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BM36">
+      <c r="BO36">
         <v>1.518513939877888</v>
       </c>
-      <c r="BN36">
+      <c r="BP36">
         <v>4.613588145185502</v>
       </c>
-      <c r="BO36">
+      <c r="BQ36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BP36">
+      <c r="BR36">
         <v>1.518513939877888</v>
       </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:72">
       <c r="A37" s="1">
         <v>1361</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37">
         <v>23016</v>
@@ -7756,10 +7804,10 @@
         <v>11689100</v>
       </c>
       <c r="N37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9918534533990506</v>
+        <v>0.9921543638993761</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7771,16 +7819,16 @@
         <v>12.4</v>
       </c>
       <c r="S37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T37">
-        <v>81.10410162265691</v>
+        <v>82.57395931222324</v>
       </c>
       <c r="U37">
         <v>20200508</v>
       </c>
       <c r="V37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="W37">
         <v>23016</v>
@@ -7804,16 +7852,16 @@
         <v>274</v>
       </c>
       <c r="AG37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH37" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AI37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AJ37" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK37">
         <v>1306</v>
@@ -7825,32 +7873,32 @@
         <v>21969</v>
       </c>
       <c r="AQ37">
+        <v>1185</v>
+      </c>
+      <c r="AR37">
+        <v>121</v>
+      </c>
+      <c r="AS37">
         <v>885</v>
       </c>
-      <c r="AR37">
+      <c r="AT37">
         <v>7372</v>
       </c>
-      <c r="AS37">
+      <c r="AU37">
         <v>184316</v>
       </c>
-      <c r="AT37">
+      <c r="AV37">
         <v>184316</v>
       </c>
-      <c r="AU37">
+      <c r="AW37">
         <v>8257</v>
       </c>
-      <c r="AV37">
+      <c r="AX37">
         <v>35</v>
       </c>
-      <c r="AW37">
+      <c r="AY37">
         <v>78</v>
       </c>
-      <c r="AX37">
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
       <c r="AZ37">
         <v>0</v>
       </c>
@@ -7860,61 +7908,67 @@
       <c r="BB37">
         <v>0</v>
       </c>
-      <c r="BD37" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE37">
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG37">
         <v>3418.932581961803</v>
       </c>
-      <c r="BF37">
+      <c r="BH37">
         <v>0.001969013867620262</v>
       </c>
-      <c r="BG37">
+      <c r="BI37">
         <v>0.01379918043305301</v>
       </c>
-      <c r="BH37">
+      <c r="BJ37">
         <v>12.49</v>
       </c>
-      <c r="BI37">
+      <c r="BK37">
         <v>0.01576819430067328</v>
       </c>
-      <c r="BJ37">
+      <c r="BL37">
         <v>7.067781074029195</v>
       </c>
-      <c r="BK37">
+      <c r="BM37">
         <v>5.265563036847407</v>
       </c>
-      <c r="BL37">
+      <c r="BN37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BM37">
+      <c r="BO37">
         <v>3.115943176939055</v>
       </c>
-      <c r="BN37">
+      <c r="BP37">
         <v>5.207634367388962</v>
       </c>
-      <c r="BO37">
+      <c r="BQ37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BP37">
+      <c r="BR37">
         <v>3.02530586526477</v>
       </c>
-      <c r="BQ37">
+      <c r="BS37">
         <v>2.594392550375427</v>
       </c>
-      <c r="BR37">
+      <c r="BT37">
         <v>2.437750562820388</v>
       </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:72">
       <c r="A38" s="1">
         <v>1362</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38">
         <v>4424</v>
@@ -7947,10 +8001,10 @@
         <v>3956971</v>
       </c>
       <c r="N38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9715054308421136</v>
+        <v>0.9683601527625411</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7962,16 +8016,16 @@
         <v>13.1</v>
       </c>
       <c r="S38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="T38">
-        <v>104.3346454488333</v>
+        <v>105.7851231683996</v>
       </c>
       <c r="U38">
         <v>20200508</v>
       </c>
       <c r="V38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="W38">
         <v>4424</v>
@@ -7992,16 +8046,16 @@
         <v>3064</v>
       </c>
       <c r="AG38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH38" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI38" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ38" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK38">
         <v>266</v>
@@ -8018,30 +8072,24 @@
       <c r="AO38">
         <v>85078</v>
       </c>
-      <c r="AQ38">
+      <c r="AS38">
         <v>94</v>
       </c>
-      <c r="AR38">
+      <c r="AT38">
         <v>2876</v>
       </c>
-      <c r="AS38">
+      <c r="AU38">
         <v>89857</v>
       </c>
-      <c r="AT38">
+      <c r="AV38">
         <v>89857</v>
       </c>
-      <c r="AU38">
+      <c r="AW38">
         <v>2970</v>
       </c>
-      <c r="AV38">
+      <c r="AX38">
         <v>6</v>
       </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
       <c r="AY38">
         <v>0</v>
       </c>
@@ -8054,58 +8102,64 @@
       <c r="BB38">
         <v>0</v>
       </c>
-      <c r="BD38" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE38">
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG38">
         <v>1989.213663737508</v>
       </c>
-      <c r="BF38">
+      <c r="BH38">
         <v>0.001118026894814241</v>
       </c>
-      <c r="BG38">
+      <c r="BI38">
         <v>0.0215905044540382</v>
       </c>
-      <c r="BH38">
+      <c r="BJ38">
         <v>4.92</v>
       </c>
-      <c r="BI38">
+      <c r="BK38">
         <v>0.02270853134885244</v>
       </c>
-      <c r="BJ38">
+      <c r="BL38">
         <v>6.597362867403726</v>
       </c>
-      <c r="BK38">
+      <c r="BM38">
         <v>4.953551914978187</v>
       </c>
-      <c r="BL38">
+      <c r="BN38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BM38">
+      <c r="BO38">
         <v>2.424881636631067</v>
       </c>
-      <c r="BN38">
+      <c r="BP38">
         <v>4.931625656984171</v>
       </c>
-      <c r="BO38">
+      <c r="BQ38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BP38">
+      <c r="BR38">
         <v>2.357934847000454</v>
       </c>
-      <c r="BQ38">
+      <c r="BS38">
         <v>1.982271233039568</v>
       </c>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:72">
       <c r="A39" s="1">
         <v>1363</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39">
         <v>3068</v>
@@ -8138,10 +8192,10 @@
         <v>4217737</v>
       </c>
       <c r="N39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9735536445707849</v>
+        <v>0.9726222284193844</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8153,16 +8207,16 @@
         <v>10.6</v>
       </c>
       <c r="S39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T39">
-        <v>63.46788568445146</v>
+        <v>64.63137399165271</v>
       </c>
       <c r="U39">
         <v>20200508</v>
       </c>
       <c r="V39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="W39">
         <v>3068</v>
@@ -8186,16 +8240,16 @@
         <v>1125</v>
       </c>
       <c r="AG39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AI39" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AJ39" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AK39">
         <v>124</v>
@@ -8206,33 +8260,27 @@
       <c r="AP39">
         <v>3032</v>
       </c>
-      <c r="AQ39">
+      <c r="AS39">
         <v>79</v>
       </c>
-      <c r="AR39">
+      <c r="AT39">
         <v>2156</v>
       </c>
-      <c r="AS39">
+      <c r="AU39">
         <v>72693</v>
       </c>
-      <c r="AT39">
+      <c r="AV39">
         <v>72693</v>
       </c>
-      <c r="AU39">
+      <c r="AW39">
         <v>2235</v>
       </c>
-      <c r="AV39">
+      <c r="AX39">
         <v>3</v>
       </c>
-      <c r="AW39">
+      <c r="AY39">
         <v>14</v>
       </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
       <c r="AZ39">
         <v>0</v>
       </c>
@@ -8242,61 +8290,67 @@
       <c r="BB39">
         <v>0</v>
       </c>
-      <c r="BD39" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE39">
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG39">
         <v>2053.712978972475</v>
       </c>
-      <c r="BF39">
+      <c r="BH39">
         <v>0.0007274042928707978</v>
       </c>
-      <c r="BG39">
+      <c r="BI39">
         <v>0.01650766750036809</v>
       </c>
-      <c r="BH39">
+      <c r="BJ39">
         <v>4.22</v>
       </c>
-      <c r="BI39">
+      <c r="BK39">
         <v>0.01723507179323889</v>
       </c>
-      <c r="BJ39">
+      <c r="BL39">
         <v>6.625079495505463</v>
       </c>
-      <c r="BK39">
+      <c r="BM39">
         <v>4.861492592320653</v>
       </c>
-      <c r="BL39">
+      <c r="BN39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BM39">
+      <c r="BO39">
         <v>2.093421685162235</v>
       </c>
-      <c r="BN39">
+      <c r="BP39">
         <v>4.842765208181786</v>
       </c>
-      <c r="BO39">
+      <c r="BQ39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BP39">
+      <c r="BR39">
         <v>2.201397124320451</v>
       </c>
-      <c r="BQ39">
+      <c r="BS39">
         <v>1.623249290397901</v>
       </c>
-      <c r="BR39">
+      <c r="BT39">
         <v>1.255272505103306</v>
       </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:72">
       <c r="A40" s="1">
         <v>1364</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40">
         <v>57371</v>
@@ -8320,10 +8374,10 @@
         <v>12801989</v>
       </c>
       <c r="N40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9828943314677659</v>
+        <v>0.9834423988064853</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8335,16 +8389,16 @@
         <v>11.4</v>
       </c>
       <c r="S40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T40">
-        <v>64.77781464144599</v>
+        <v>65.57657771043858</v>
       </c>
       <c r="U40">
         <v>20200508</v>
       </c>
       <c r="V40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="W40">
         <v>54238</v>
@@ -8359,44 +8413,38 @@
         <v>517</v>
       </c>
       <c r="AG40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH40" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI40" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ40" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK40">
         <v>3616</v>
       </c>
-      <c r="AQ40">
+      <c r="AS40">
         <v>1323</v>
       </c>
-      <c r="AR40">
+      <c r="AT40">
         <v>6448</v>
       </c>
-      <c r="AS40">
+      <c r="AU40">
         <v>270559</v>
       </c>
-      <c r="AT40">
+      <c r="AV40">
         <v>270559</v>
       </c>
-      <c r="AU40">
+      <c r="AW40">
         <v>7771</v>
       </c>
-      <c r="AV40">
+      <c r="AX40">
         <v>200</v>
       </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
       <c r="AY40">
         <v>0</v>
       </c>
@@ -8409,58 +8457,64 @@
       <c r="BB40">
         <v>0</v>
       </c>
-      <c r="BD40" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE40">
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG40">
         <v>3577.986724402426</v>
       </c>
-      <c r="BF40">
+      <c r="BH40">
         <v>0.004236685408806397</v>
       </c>
-      <c r="BG40">
+      <c r="BI40">
         <v>0.01689745241930765</v>
       </c>
-      <c r="BH40">
+      <c r="BJ40">
         <v>20.05</v>
       </c>
-      <c r="BI40">
+      <c r="BK40">
         <v>0.02113413782811405</v>
       </c>
-      <c r="BJ40">
+      <c r="BL40">
         <v>7.107277449696098</v>
       </c>
-      <c r="BK40">
+      <c r="BM40">
         <v>5.432261985081858</v>
       </c>
-      <c r="BL40">
+      <c r="BN40">
         <v>4.758692419878901</v>
       </c>
-      <c r="BM40">
+      <c r="BO40">
         <v>3.569958818096594</v>
       </c>
-      <c r="BN40">
+      <c r="BP40">
         <v>5.335098681905209</v>
       </c>
-      <c r="BO40">
+      <c r="BQ40">
         <v>4.73430366675543</v>
       </c>
-      <c r="BP40">
+      <c r="BR40">
         <v>3.369586890736344</v>
       </c>
-      <c r="BR40">
+      <c r="BT40">
         <v>2.713490543093942</v>
       </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:72">
       <c r="A41" s="1">
         <v>1365</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41">
         <v>10779</v>
@@ -8493,10 +8547,10 @@
         <v>1059361</v>
       </c>
       <c r="N41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9607431072800734</v>
+        <v>0.9610498560826908</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8508,22 +8562,22 @@
         <v>10.1</v>
       </c>
       <c r="S41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T41">
-        <v>271.7061375750659</v>
+        <v>264.5003283000372</v>
       </c>
       <c r="U41">
         <v>20200508</v>
       </c>
       <c r="V41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="W41">
-        <v>10779</v>
+        <v>11141</v>
       </c>
       <c r="X41">
-        <v>74487</v>
+        <v>64338</v>
       </c>
       <c r="Z41">
         <v>312</v>
@@ -8541,16 +8595,16 @@
         <v>730</v>
       </c>
       <c r="AG41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH41" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AI41" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AJ41" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="AK41">
         <v>399</v>
@@ -8558,36 +8612,39 @@
       <c r="AL41">
         <v>1187</v>
       </c>
+      <c r="AM41">
+        <v>93190</v>
+      </c>
+      <c r="AN41">
+        <v>13103</v>
+      </c>
+      <c r="AO41">
+        <v>80087</v>
+      </c>
       <c r="AP41">
-        <v>10779</v>
-      </c>
-      <c r="AQ41">
-        <v>249</v>
-      </c>
-      <c r="AR41">
-        <v>2699</v>
+        <v>11141</v>
       </c>
       <c r="AS41">
-        <v>85266</v>
+        <v>231</v>
       </c>
       <c r="AT41">
-        <v>85266</v>
+        <v>1691</v>
       </c>
       <c r="AU41">
-        <v>2948</v>
+        <v>75479</v>
       </c>
       <c r="AV41">
+        <v>75479</v>
+      </c>
+      <c r="AW41">
+        <v>1922</v>
+      </c>
+      <c r="AX41">
         <v>11</v>
       </c>
-      <c r="AW41">
+      <c r="AY41">
         <v>34</v>
       </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
       <c r="AZ41">
         <v>0</v>
       </c>
@@ -8597,61 +8654,67 @@
       <c r="BB41">
         <v>0</v>
       </c>
-      <c r="BD41" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE41">
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG41">
         <v>1029.25264148313</v>
       </c>
-      <c r="BF41">
-        <v>0.01017500172273663</v>
-      </c>
-      <c r="BG41">
-        <v>0.07031314160139933</v>
-      </c>
       <c r="BH41">
-        <v>12.64</v>
+        <v>0.01051671715307624</v>
       </c>
       <c r="BI41">
+        <v>0.06073283800328689</v>
+      </c>
+      <c r="BJ41">
+        <v>14.76</v>
+      </c>
+      <c r="BK41">
         <v>0.08048814332413597</v>
       </c>
-      <c r="BJ41">
+      <c r="BL41">
         <v>6.025043980496346</v>
       </c>
-      <c r="BK41">
+      <c r="BM41">
         <v>4.930775889831263</v>
       </c>
-      <c r="BL41">
+      <c r="BN41">
         <v>4.032578471924312</v>
       </c>
-      <c r="BM41">
+      <c r="BO41">
         <v>2.600972895686748</v>
       </c>
-      <c r="BN41">
-        <v>4.872080483205862</v>
-      </c>
-      <c r="BO41">
-        <v>4.032578471924312</v>
-      </c>
       <c r="BP41">
+        <v>4.808467556372229</v>
+      </c>
+      <c r="BQ41">
+        <v>4.046924174230035</v>
+      </c>
+      <c r="BR41">
         <v>2.494154594018443</v>
       </c>
-      <c r="BQ41">
+      <c r="BS41">
         <v>1.851258348719075</v>
       </c>
-      <c r="BR41">
+      <c r="BT41">
         <v>1.716003343634799</v>
       </c>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:72">
       <c r="A42" s="1">
         <v>1366</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42">
         <v>7367</v>
@@ -8684,10 +8747,10 @@
         <v>5148714</v>
       </c>
       <c r="N42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9413252878432203</v>
+        <v>0.9415121332220663</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8699,16 +8762,16 @@
         <v>14</v>
       </c>
       <c r="S42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T42">
-        <v>90.87541173207632</v>
+        <v>92.79199838793093</v>
       </c>
       <c r="U42">
         <v>20200508</v>
       </c>
       <c r="V42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="W42">
         <v>7142</v>
@@ -8723,16 +8786,16 @@
         <v>3816</v>
       </c>
       <c r="AG42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH42" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AI42" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AJ42" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AK42">
         <v>316</v>
@@ -8740,30 +8803,24 @@
       <c r="AL42">
         <v>1152</v>
       </c>
-      <c r="AQ42">
+      <c r="AS42">
         <v>206</v>
       </c>
-      <c r="AR42">
+      <c r="AT42">
         <v>-4246</v>
       </c>
-      <c r="AS42">
+      <c r="AU42">
         <v>73442</v>
       </c>
-      <c r="AT42">
+      <c r="AV42">
         <v>73442</v>
       </c>
-      <c r="AU42">
+      <c r="AW42">
         <v>-4040</v>
       </c>
-      <c r="AV42">
+      <c r="AX42">
         <v>11</v>
       </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
       <c r="AY42">
         <v>0</v>
       </c>
@@ -8776,52 +8833,58 @@
       <c r="BB42">
         <v>0</v>
       </c>
-      <c r="BD42" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE42">
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG42">
         <v>2269.077786238277</v>
       </c>
-      <c r="BF42">
+      <c r="BH42">
         <v>0.001387142498107294</v>
       </c>
-      <c r="BG42">
+      <c r="BI42">
         <v>0.01287700190766083</v>
       </c>
-      <c r="BH42">
+      <c r="BJ42">
         <v>9.720000000000001</v>
       </c>
-      <c r="BI42">
+      <c r="BK42">
         <v>0.01426414440576812</v>
       </c>
-      <c r="BJ42">
+      <c r="BL42">
         <v>6.711698768371901</v>
       </c>
-      <c r="BK42">
+      <c r="BM42">
         <v>4.865944495223916</v>
       </c>
-      <c r="BL42">
+      <c r="BN42">
         <v>3.867290669854884</v>
       </c>
-      <c r="BM42">
+      <c r="BO42">
         <v>2.505149978319906</v>
       </c>
-      <c r="BN42">
+      <c r="BP42">
         <v>4.821513528404773</v>
       </c>
-      <c r="BO42">
+      <c r="BQ42">
         <v>3.853819845856763</v>
       </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:72">
       <c r="A43" s="1">
         <v>1367</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43">
         <v>3145</v>
@@ -8854,10 +8917,10 @@
         <v>884659</v>
       </c>
       <c r="N43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9839977058924619</v>
+        <v>0.9843066746230184</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8869,16 +8932,16 @@
         <v>10.7</v>
       </c>
       <c r="S43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T43">
-        <v>106.4742373371124</v>
+        <v>106.6841859275612</v>
       </c>
       <c r="U43">
         <v>20200508</v>
       </c>
       <c r="V43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="W43">
         <v>3144</v>
@@ -8896,16 +8959,16 @@
         <v>2069</v>
       </c>
       <c r="AG43" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AI43" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AJ43" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AK43">
         <v>31</v>
@@ -8916,33 +8979,27 @@
       <c r="AP43">
         <v>3144</v>
       </c>
-      <c r="AQ43">
+      <c r="AS43">
         <v>239</v>
       </c>
-      <c r="AR43">
+      <c r="AT43">
         <v>940</v>
       </c>
-      <c r="AS43">
+      <c r="AU43">
         <v>21293</v>
       </c>
-      <c r="AT43">
+      <c r="AV43">
         <v>21293</v>
       </c>
-      <c r="AU43">
+      <c r="AW43">
         <v>1179</v>
       </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
         <v>11</v>
       </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
       <c r="AZ43">
         <v>0</v>
       </c>
@@ -8952,55 +9009,61 @@
       <c r="BB43">
         <v>0</v>
       </c>
-      <c r="BD43" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE43">
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG43">
         <v>940.5631291944204</v>
       </c>
-      <c r="BF43">
+      <c r="BH43">
         <v>0.003553911733221501</v>
       </c>
-      <c r="BG43">
+      <c r="BI43">
         <v>0.02051524937857412</v>
       </c>
-      <c r="BH43">
+      <c r="BJ43">
         <v>14.77</v>
       </c>
-      <c r="BI43">
+      <c r="BK43">
         <v>0.02406916111179562</v>
       </c>
-      <c r="BJ43">
+      <c r="BL43">
         <v>5.94677590012512</v>
       </c>
-      <c r="BK43">
+      <c r="BM43">
         <v>4.328236854094916</v>
       </c>
-      <c r="BL43">
+      <c r="BN43">
         <v>3.497620649781288</v>
       </c>
-      <c r="BM43">
+      <c r="BO43">
         <v>1.491361693834273</v>
       </c>
-      <c r="BN43">
+      <c r="BP43">
         <v>4.258852700642303</v>
       </c>
-      <c r="BO43">
+      <c r="BQ43">
         <v>3.49748253736737</v>
       </c>
-      <c r="BP43">
+      <c r="BR43">
         <v>1.880813592280791</v>
       </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:72">
       <c r="A44" s="1">
         <v>1368</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D44">
         <v>14441</v>
@@ -9033,10 +9096,10 @@
         <v>6829174</v>
       </c>
       <c r="N44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9917506970598344</v>
+        <v>0.9898794814507718</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9048,16 +9111,16 @@
         <v>11.7</v>
       </c>
       <c r="S44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T44">
-        <v>139.6031146818594</v>
+        <v>141.8160395730485</v>
       </c>
       <c r="U44">
         <v>20200508</v>
       </c>
       <c r="V44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="W44">
         <v>14441</v>
@@ -9075,16 +9138,16 @@
         <v>7011</v>
       </c>
       <c r="AG44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI44" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ44" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK44">
         <v>241</v>
@@ -9095,33 +9158,27 @@
       <c r="AP44">
         <v>14441</v>
       </c>
-      <c r="AQ44">
+      <c r="AS44">
         <v>345</v>
       </c>
-      <c r="AR44">
+      <c r="AT44">
         <v>6905</v>
       </c>
-      <c r="AS44">
+      <c r="AU44">
         <v>243578</v>
       </c>
-      <c r="AT44">
+      <c r="AV44">
         <v>243578</v>
       </c>
-      <c r="AU44">
+      <c r="AW44">
         <v>7250</v>
       </c>
-      <c r="AV44">
+      <c r="AX44">
         <v>4</v>
       </c>
-      <c r="AW44">
+      <c r="AY44">
         <v>33</v>
       </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
       <c r="AZ44">
         <v>0</v>
       </c>
@@ -9131,55 +9188,61 @@
       <c r="BB44">
         <v>0</v>
       </c>
-      <c r="BD44" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE44">
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG44">
         <v>2613.26883423807</v>
       </c>
-      <c r="BF44">
+      <c r="BH44">
         <v>0.002114604196642229</v>
       </c>
-      <c r="BG44">
+      <c r="BI44">
         <v>0.03355266683789284</v>
       </c>
-      <c r="BH44">
+      <c r="BJ44">
         <v>5.93</v>
       </c>
-      <c r="BI44">
+      <c r="BK44">
         <v>0.03566727103453507</v>
       </c>
-      <c r="BJ44">
+      <c r="BL44">
         <v>6.834368178215133</v>
       </c>
-      <c r="BK44">
+      <c r="BM44">
         <v>5.386638060192078</v>
       </c>
-      <c r="BL44">
+      <c r="BN44">
         <v>4.159597267987408</v>
       </c>
-      <c r="BM44">
+      <c r="BO44">
         <v>2.383815365980431</v>
       </c>
-      <c r="BN44">
+      <c r="BP44">
         <v>5.360095222748518</v>
       </c>
-      <c r="BO44">
+      <c r="BQ44">
         <v>4.159597267987408</v>
       </c>
-      <c r="BP44">
+      <c r="BR44">
         <v>2.740362689494244</v>
       </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:72">
       <c r="A45" s="1">
         <v>1369</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D45">
         <v>37246</v>
@@ -9206,10 +9269,10 @@
         <v>28995881</v>
       </c>
       <c r="N45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9652857079017381</v>
+        <v>0.9611300912103541</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9221,16 +9284,16 @@
         <v>13.4</v>
       </c>
       <c r="S45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T45">
-        <v>74.65409280834012</v>
+        <v>76.53502902179812</v>
       </c>
       <c r="U45">
         <v>20200508</v>
       </c>
       <c r="V45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="W45">
         <v>36609</v>
@@ -9245,16 +9308,16 @@
         <v>19197</v>
       </c>
       <c r="AG45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH45" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI45" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ45" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AK45">
         <v>1004</v>
@@ -9262,30 +9325,24 @@
       <c r="AP45">
         <v>36609</v>
       </c>
-      <c r="AQ45">
+      <c r="AS45">
         <v>1219</v>
       </c>
-      <c r="AR45">
+      <c r="AT45">
         <v>20737</v>
       </c>
-      <c r="AS45">
+      <c r="AU45">
         <v>477118</v>
       </c>
-      <c r="AT45">
+      <c r="AV45">
         <v>477118</v>
       </c>
-      <c r="AU45">
+      <c r="AW45">
         <v>21956</v>
       </c>
-      <c r="AV45">
+      <c r="AX45">
         <v>31</v>
       </c>
-      <c r="AW45">
-        <v>0</v>
-      </c>
-      <c r="AX45">
-        <v>0</v>
-      </c>
       <c r="AY45">
         <v>0</v>
       </c>
@@ -9298,55 +9355,61 @@
       <c r="BB45">
         <v>0</v>
       </c>
-      <c r="BD45" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE45">
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG45">
         <v>5384.782354004663</v>
       </c>
-      <c r="BF45">
+      <c r="BH45">
         <v>0.001262558637207816</v>
       </c>
-      <c r="BG45">
+      <c r="BI45">
         <v>0.01519212332261951</v>
       </c>
-      <c r="BH45">
+      <c r="BJ45">
         <v>7.67</v>
       </c>
-      <c r="BI45">
+      <c r="BK45">
         <v>0.01645468195982733</v>
       </c>
-      <c r="BJ45">
+      <c r="BL45">
         <v>7.462336308725756</v>
       </c>
-      <c r="BK45">
+      <c r="BM45">
         <v>5.678625801285844</v>
       </c>
-      <c r="BL45">
+      <c r="BN45">
         <v>4.571079638931142</v>
       </c>
-      <c r="BM45">
+      <c r="BO45">
         <v>3.010723865391773</v>
       </c>
-      <c r="BN45">
+      <c r="BP45">
         <v>5.643954785870446</v>
       </c>
-      <c r="BO45">
+      <c r="BQ45">
         <v>4.563587865991245</v>
       </c>
-      <c r="BP45">
+      <c r="BR45">
         <v>3.239049093140192</v>
       </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:72">
       <c r="A46" s="1">
         <v>1370</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D46">
         <v>5919</v>
@@ -9379,10 +9442,10 @@
         <v>3205958</v>
       </c>
       <c r="N46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O46">
-        <v>0.988869040360624</v>
+        <v>0.9888467577126705</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9394,16 +9457,16 @@
         <v>7.8</v>
       </c>
       <c r="S46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T46">
-        <v>110.6638639462895</v>
+        <v>111.94472934076</v>
       </c>
       <c r="U46">
         <v>20200508</v>
       </c>
       <c r="V46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="W46">
         <v>5919</v>
@@ -9427,16 +9490,16 @@
         <v>2769</v>
       </c>
       <c r="AG46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AI46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AJ46" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AK46">
         <v>61</v>
@@ -9447,33 +9510,27 @@
       <c r="AP46">
         <v>5919</v>
       </c>
-      <c r="AQ46">
+      <c r="AS46">
         <v>195</v>
       </c>
-      <c r="AR46">
+      <c r="AT46">
         <v>3950</v>
       </c>
-      <c r="AS46">
+      <c r="AU46">
         <v>138688</v>
       </c>
-      <c r="AT46">
+      <c r="AV46">
         <v>138688</v>
       </c>
-      <c r="AU46">
+      <c r="AW46">
         <v>4145</v>
       </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
         <v>12</v>
       </c>
-      <c r="AX46">
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
       <c r="AZ46">
         <v>0</v>
       </c>
@@ -9483,55 +9540,61 @@
       <c r="BB46">
         <v>0</v>
       </c>
-      <c r="BD46" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE46">
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG46">
         <v>1790.518919196332</v>
       </c>
-      <c r="BF46">
+      <c r="BH46">
         <v>0.001846250013256568</v>
       </c>
-      <c r="BG46">
+      <c r="BI46">
         <v>0.04141320628654524</v>
       </c>
-      <c r="BH46">
+      <c r="BJ46">
         <v>4.27</v>
       </c>
-      <c r="BI46">
+      <c r="BK46">
         <v>0.0432594562998018</v>
       </c>
-      <c r="BJ46">
+      <c r="BL46">
         <v>6.505957828533497</v>
       </c>
-      <c r="BK46">
+      <c r="BM46">
         <v>5.142038885303705</v>
       </c>
-      <c r="BL46">
+      <c r="BN46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BM46">
+      <c r="BO46">
         <v>1.785329835010767</v>
       </c>
-      <c r="BN46">
+      <c r="BP46">
         <v>5.123096684214545</v>
       </c>
-      <c r="BO46">
+      <c r="BQ46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BP46">
+      <c r="BR46">
         <v>2.334453751150931</v>
       </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:72">
       <c r="A47" s="1">
         <v>1371</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D47">
         <v>919</v>
@@ -9558,10 +9621,10 @@
         <v>623989</v>
       </c>
       <c r="N47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9540768748873626</v>
+        <v>0.9538295887435732</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9573,16 +9636,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="T47">
-        <v>119.442742423732</v>
+        <v>120.5062817841942</v>
       </c>
       <c r="U47">
         <v>20200508</v>
       </c>
       <c r="V47" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="W47">
         <v>918</v>
@@ -9597,16 +9660,16 @@
         <v>737</v>
       </c>
       <c r="AG47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH47" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI47" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ47" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK47">
         <v>53</v>
@@ -9614,27 +9677,21 @@
       <c r="AP47">
         <v>919</v>
       </c>
-      <c r="AQ47">
+      <c r="AS47">
         <v>2</v>
       </c>
-      <c r="AR47">
+      <c r="AT47">
         <v>532</v>
       </c>
-      <c r="AS47">
+      <c r="AU47">
         <v>18140</v>
       </c>
-      <c r="AT47">
+      <c r="AV47">
         <v>18140</v>
       </c>
-      <c r="AU47">
+      <c r="AW47">
         <v>534</v>
       </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
-      <c r="AW47">
-        <v>0</v>
-      </c>
       <c r="AX47">
         <v>0</v>
       </c>
@@ -9650,55 +9707,61 @@
       <c r="BB47">
         <v>0</v>
       </c>
-      <c r="BD47" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE47">
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG47">
         <v>789.9297437114266</v>
       </c>
-      <c r="BF47">
+      <c r="BH47">
         <v>0.001471179780412796</v>
       </c>
-      <c r="BG47">
+      <c r="BI47">
         <v>0.02759984551009713</v>
       </c>
-      <c r="BH47">
+      <c r="BJ47">
         <v>5.06</v>
       </c>
-      <c r="BI47">
+      <c r="BK47">
         <v>0.03046207545325318</v>
       </c>
-      <c r="BJ47">
+      <c r="BL47">
         <v>5.795176933782731</v>
       </c>
-      <c r="BK47">
+      <c r="BM47">
         <v>4.2789364233011</v>
       </c>
-      <c r="BL47">
+      <c r="BN47">
         <v>2.963315511386111</v>
       </c>
-      <c r="BM47">
+      <c r="BO47">
         <v>1.724275869600789</v>
       </c>
-      <c r="BN47">
+      <c r="BP47">
         <v>4.236083584895046</v>
       </c>
-      <c r="BO47">
+      <c r="BQ47">
         <v>2.962842681201242</v>
       </c>
-      <c r="BP47">
+      <c r="BR47">
         <v>1.176091259055681</v>
       </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:72">
       <c r="A48" s="1">
         <v>1372</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D48">
         <v>22342</v>
@@ -9731,10 +9794,10 @@
         <v>8535519</v>
       </c>
       <c r="N48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9838640818694706</v>
+        <v>0.983397256830179</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9746,16 +9809,16 @@
         <v>10.1</v>
       </c>
       <c r="S48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="T48">
-        <v>95.84259985291321</v>
+        <v>97.12535493563043</v>
       </c>
       <c r="U48">
         <v>20200508</v>
       </c>
       <c r="V48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="W48">
         <v>22342</v>
@@ -9782,16 +9845,16 @@
         <v>2997</v>
       </c>
       <c r="AG48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH48" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AI48" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AJ48" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK48">
         <v>812</v>
@@ -9806,32 +9869,32 @@
         <v>21274</v>
       </c>
       <c r="AQ48">
+        <v>787</v>
+      </c>
+      <c r="AR48">
+        <v>25</v>
+      </c>
+      <c r="AS48">
         <v>772</v>
       </c>
-      <c r="AR48">
+      <c r="AT48">
         <v>6021</v>
       </c>
-      <c r="AS48">
+      <c r="AU48">
         <v>130494</v>
       </c>
-      <c r="AT48">
+      <c r="AV48">
         <v>129945</v>
       </c>
-      <c r="AU48">
+      <c r="AW48">
         <v>6793</v>
       </c>
-      <c r="AV48">
+      <c r="AX48">
         <v>43</v>
       </c>
-      <c r="AW48">
+      <c r="AY48">
         <v>184</v>
       </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
       <c r="AZ48">
         <v>0</v>
       </c>
@@ -9841,61 +9904,67 @@
       <c r="BB48">
         <v>0</v>
       </c>
-      <c r="BD48" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE48">
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG48">
         <v>2921.561055326416</v>
       </c>
-      <c r="BF48">
+      <c r="BH48">
         <v>0.002617532688990558</v>
       </c>
-      <c r="BG48">
+      <c r="BI48">
         <v>0.01260649762480758</v>
       </c>
-      <c r="BH48">
+      <c r="BJ48">
         <v>17.19</v>
       </c>
-      <c r="BI48">
+      <c r="BK48">
         <v>0.01522403031379814</v>
       </c>
-      <c r="BJ48">
+      <c r="BL48">
         <v>6.931229933415991</v>
       </c>
-      <c r="BK48">
+      <c r="BM48">
         <v>5.113759573454686</v>
       </c>
-      <c r="BL48">
+      <c r="BN48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BM48">
+      <c r="BO48">
         <v>2.909556029241176</v>
       </c>
-      <c r="BN48">
+      <c r="BP48">
         <v>5.031824379743782</v>
       </c>
-      <c r="BO48">
+      <c r="BQ48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BP48">
+      <c r="BR48">
         <v>3.210853365314893</v>
       </c>
-      <c r="BQ48">
+      <c r="BS48">
         <v>2.577491799837226</v>
       </c>
-      <c r="BR48">
+      <c r="BT48">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:72">
       <c r="A49" s="1">
         <v>1373</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D49">
         <v>16388</v>
@@ -9919,10 +9988,10 @@
         <v>7614893</v>
       </c>
       <c r="N49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9887925634513003</v>
+        <v>0.9878779188486753</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9934,16 +10003,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="T49">
-        <v>74.60624439012902</v>
+        <v>75.69651592704992</v>
       </c>
       <c r="U49">
         <v>20200508</v>
       </c>
       <c r="V49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="W49">
         <v>18124</v>
@@ -9958,16 +10027,16 @@
         <v>122</v>
       </c>
       <c r="AG49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI49" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ49" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK49">
         <v>891</v>
@@ -9975,30 +10044,24 @@
       <c r="AP49">
         <v>17519</v>
       </c>
-      <c r="AQ49">
+      <c r="AS49">
         <v>210</v>
       </c>
-      <c r="AR49">
+      <c r="AT49">
         <v>4965</v>
       </c>
-      <c r="AS49">
+      <c r="AU49">
         <v>239542</v>
       </c>
-      <c r="AT49">
+      <c r="AV49">
         <v>239542</v>
       </c>
-      <c r="AU49">
+      <c r="AW49">
         <v>5175</v>
       </c>
-      <c r="AV49">
+      <c r="AX49">
         <v>21</v>
       </c>
-      <c r="AW49">
-        <v>0</v>
-      </c>
-      <c r="AX49">
-        <v>0</v>
-      </c>
       <c r="AY49">
         <v>0</v>
       </c>
@@ -10011,58 +10074,64 @@
       <c r="BB49">
         <v>0</v>
       </c>
-      <c r="BD49" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE49">
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG49">
         <v>2759.50955787437</v>
       </c>
-      <c r="BF49">
+      <c r="BH49">
         <v>0.002380072838843566</v>
       </c>
-      <c r="BG49">
+      <c r="BI49">
         <v>0.0290769679889133</v>
       </c>
-      <c r="BH49">
+      <c r="BJ49">
         <v>7.57</v>
       </c>
-      <c r="BI49">
+      <c r="BK49">
         <v>0.0302932687301056</v>
       </c>
-      <c r="BJ49">
+      <c r="BL49">
         <v>6.881663805264177</v>
       </c>
-      <c r="BK49">
+      <c r="BM49">
         <v>5.363009942738859</v>
       </c>
-      <c r="BL49">
+      <c r="BN49">
         <v>4.214525955281105</v>
       </c>
-      <c r="BM49">
+      <c r="BO49">
         <v>2.956648579205203</v>
       </c>
-      <c r="BN49">
+      <c r="BP49">
         <v>5.345212923601941</v>
       </c>
-      <c r="BO49">
+      <c r="BQ49">
         <v>4.258254053507148</v>
       </c>
-      <c r="BP49">
+      <c r="BR49">
         <v>2.594392550375427</v>
       </c>
-      <c r="BQ49">
+      <c r="BS49">
         <v>2.086359830674748</v>
       </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:72">
       <c r="A50" s="1">
         <v>1374</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D50">
         <v>1323</v>
@@ -10089,10 +10158,10 @@
         <v>1792147</v>
       </c>
       <c r="N50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9931039873146109</v>
+        <v>0.9902098587462624</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10104,16 +10173,16 @@
         <v>16.5</v>
       </c>
       <c r="S50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="T50">
-        <v>101.7644214956402</v>
+        <v>102.9978034920374</v>
       </c>
       <c r="U50">
         <v>20200508</v>
       </c>
       <c r="V50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W50">
         <v>1310</v>
@@ -10134,16 +10203,16 @@
         <v>761</v>
       </c>
       <c r="AG50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH50" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AJ50" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK50">
         <v>51</v>
@@ -10151,27 +10220,21 @@
       <c r="AP50">
         <v>1310</v>
       </c>
-      <c r="AQ50">
+      <c r="AS50">
         <v>23</v>
       </c>
-      <c r="AR50">
+      <c r="AT50">
         <v>1892</v>
       </c>
-      <c r="AS50">
+      <c r="AU50">
         <v>59436</v>
       </c>
-      <c r="AT50">
+      <c r="AV50">
         <v>59436</v>
       </c>
-      <c r="AU50">
+      <c r="AW50">
         <v>1915</v>
       </c>
-      <c r="AV50">
-        <v>0</v>
-      </c>
-      <c r="AW50">
-        <v>0</v>
-      </c>
       <c r="AX50">
         <v>0</v>
       </c>
@@ -10187,61 +10250,67 @@
       <c r="BB50">
         <v>0</v>
       </c>
-      <c r="BD50" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE50">
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG50">
         <v>1338.71094714281</v>
       </c>
-      <c r="BF50">
+      <c r="BH50">
         <v>0.0007309668235920379</v>
       </c>
-      <c r="BG50">
+      <c r="BI50">
         <v>0.0324337233497029</v>
       </c>
-      <c r="BH50">
+      <c r="BJ50">
         <v>2.2</v>
       </c>
-      <c r="BI50">
+      <c r="BK50">
         <v>0.03316469017329494</v>
       </c>
-      <c r="BJ50">
+      <c r="BL50">
         <v>6.253373629584194</v>
       </c>
-      <c r="BK50">
+      <c r="BM50">
         <v>4.774049574030081</v>
       </c>
-      <c r="BL50">
+      <c r="BN50">
         <v>3.121559844187501</v>
       </c>
-      <c r="BM50">
+      <c r="BO50">
         <v>1.716003343634799</v>
       </c>
-      <c r="BN50">
+      <c r="BP50">
         <v>4.76437043756676</v>
       </c>
-      <c r="BO50">
+      <c r="BQ50">
         <v>3.117271295655764</v>
       </c>
-      <c r="BP50">
+      <c r="BR50">
         <v>1.812913356642855</v>
       </c>
-      <c r="BQ50">
+      <c r="BS50">
         <v>1.278753600952829</v>
       </c>
-      <c r="BR50">
+      <c r="BT50">
         <v>1.041392685158225</v>
       </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:72">
       <c r="A51" s="1">
         <v>1375</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D51">
         <v>9590</v>
@@ -10274,10 +10343,10 @@
         <v>5822434</v>
       </c>
       <c r="N51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9961559126149816</v>
+        <v>0.9964283963526165</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10289,16 +10358,16 @@
         <v>8.9</v>
       </c>
       <c r="S51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T51">
-        <v>125.0286670346898</v>
+        <v>126.5350632607231</v>
       </c>
       <c r="U51">
         <v>20200508</v>
       </c>
       <c r="V51" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="W51">
         <v>11030</v>
@@ -10325,16 +10394,16 @@
         <v>4694</v>
       </c>
       <c r="AG51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH51" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI51" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ51" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK51">
         <v>384</v>
@@ -10345,33 +10414,27 @@
       <c r="AP51">
         <v>9590</v>
       </c>
-      <c r="AQ51">
+      <c r="AS51">
         <v>409</v>
       </c>
-      <c r="AR51">
+      <c r="AT51">
         <v>4230</v>
       </c>
-      <c r="AS51">
+      <c r="AU51">
         <v>108499</v>
       </c>
-      <c r="AT51">
+      <c r="AV51">
         <v>108295</v>
       </c>
-      <c r="AU51">
+      <c r="AW51">
         <v>4639</v>
       </c>
-      <c r="AV51">
+      <c r="AX51">
         <v>10</v>
       </c>
-      <c r="AW51">
+      <c r="AY51">
         <v>35</v>
       </c>
-      <c r="AX51">
-        <v>0</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
       <c r="AZ51">
         <v>0</v>
       </c>
@@ -10381,58 +10444,64 @@
       <c r="BB51">
         <v>0</v>
       </c>
-      <c r="BD51" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE51">
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG51">
         <v>2412.972026360853</v>
       </c>
-      <c r="BF51">
+      <c r="BH51">
         <v>0.001894396741981103</v>
       </c>
-      <c r="BG51">
+      <c r="BI51">
         <v>0.01670521297450516</v>
       </c>
-      <c r="BH51">
+      <c r="BJ51">
         <v>10.19</v>
       </c>
-      <c r="BI51">
+      <c r="BK51">
         <v>0.01835229046821312</v>
       </c>
-      <c r="BJ51">
+      <c r="BL51">
         <v>6.765104574304484</v>
       </c>
-      <c r="BK51">
+      <c r="BM51">
         <v>5.028794848648937</v>
       </c>
-      <c r="BL51">
+      <c r="BN51">
         <v>3.981818607170664</v>
       </c>
-      <c r="BM51">
+      <c r="BO51">
         <v>2.584331224367531</v>
       </c>
-      <c r="BN51">
+      <c r="BP51">
         <v>4.987956591127648</v>
       </c>
-      <c r="BO51">
+      <c r="BQ51">
         <v>4.042575512440191</v>
       </c>
-      <c r="BP51">
+      <c r="BR51">
         <v>2.741939077729199</v>
       </c>
-      <c r="BQ51">
+      <c r="BS51">
         <v>2.041392685158225</v>
       </c>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:72">
       <c r="A52" s="1">
         <v>1376</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D52">
         <v>644</v>
@@ -10465,10 +10534,10 @@
         <v>578759</v>
       </c>
       <c r="N52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9869899406722377</v>
+        <v>0.986217641794508</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10480,16 +10549,16 @@
         <v>11.2</v>
       </c>
       <c r="S52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T52">
-        <v>66.31089221343848</v>
+        <v>66.20380153368451</v>
       </c>
       <c r="U52">
         <v>20200508</v>
       </c>
       <c r="V52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="W52">
         <v>635</v>
@@ -10507,16 +10576,16 @@
         <v>428</v>
       </c>
       <c r="AG52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH52" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AI52" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AJ52" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AK52">
         <v>7</v>
@@ -10530,33 +10599,27 @@
       <c r="AP52">
         <v>483</v>
       </c>
-      <c r="AQ52">
+      <c r="AS52">
         <v>4</v>
       </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AS52">
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
         <v>12038</v>
       </c>
-      <c r="AT52">
+      <c r="AV52">
         <v>12038</v>
       </c>
-      <c r="AU52">
+      <c r="AW52">
         <v>4</v>
       </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
-      <c r="AW52">
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
         <v>1</v>
       </c>
-      <c r="AX52">
-        <v>0</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
       <c r="AZ52">
         <v>0</v>
       </c>
@@ -10566,43 +10629,49 @@
       <c r="BB52">
         <v>0</v>
       </c>
-      <c r="BD52" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE52">
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG52">
         <v>760.7621178791699</v>
       </c>
-      <c r="BF52">
+      <c r="BH52">
         <v>0.001097175162718852</v>
       </c>
-      <c r="BG52">
+      <c r="BI52">
         <v>0.01970250138658751</v>
       </c>
-      <c r="BH52">
+      <c r="BJ52">
         <v>5.27</v>
       </c>
-      <c r="BI52">
+      <c r="BK52">
         <v>0.02079967654930636</v>
       </c>
-      <c r="BJ52">
+      <c r="BL52">
         <v>5.762497757580992</v>
       </c>
-      <c r="BK52">
+      <c r="BM52">
         <v>4.080554338988772</v>
       </c>
-      <c r="BL52">
+      <c r="BN52">
         <v>2.808885867359812</v>
       </c>
-      <c r="BM52">
+      <c r="BO52">
         <v>0.8450980400142568</v>
       </c>
-      <c r="BN52">
+      <c r="BP52">
         <v>4.057019124322766</v>
       </c>
-      <c r="BO52">
+      <c r="BQ52">
         <v>2.802773725291976</v>
       </c>
-      <c r="BP52">
+      <c r="BR52">
         <v>0.9542425094393249</v>
       </c>
     </row>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9922872011537465</v>
+        <v>0.9917040674105678</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>101.0334799665265</v>
+        <v>101.625583951117</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.933262781916067</v>
+        <v>0.9327422760051993</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>182.6729459712783</v>
+        <v>184.9003901554574</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9381703963503741</v>
+        <v>0.9390743308442895</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>91.05192705826343</v>
+        <v>92.24068411316235</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9798125813504194</v>
+        <v>0.9803778552233229</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>124.3718735806534</v>
+        <v>125.7469670719102</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9908372875699147</v>
+        <v>0.9897700851250645</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>134.8330729825287</v>
+        <v>136.2656439385718</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9881010610181354</v>
+        <v>0.9883300849733784</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>67.46687011070509</v>
+        <v>67.80326068979319</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9739486379134754</v>
+        <v>0.9741288719531872</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>160.0676624740611</v>
+        <v>161.1298493786164</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9739915017301423</v>
+        <v>0.9744164343776871</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>140.1165544042933</v>
+        <v>141.0331050482089</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9740213132839652</v>
+        <v>0.9739897910823604</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>159.6509280123492</v>
+        <v>161.4376817608613</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9056189234688359</v>
+        <v>0.904188466794269</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>110.3784750757618</v>
+        <v>111.4522175747452</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9835638086872778</v>
+        <v>0.9822389039349619</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>99.13399804110374</v>
+        <v>99.900395381236</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.906180945709481</v>
+        <v>0.9031429617739292</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>52.28370602076458</v>
+        <v>52.66350688888208</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8931292271614554</v>
+        <v>0.8883444798700428</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>53.84517071626215</v>
+        <v>54.77478668265677</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9696514597260955</v>
+        <v>0.9697590169887428</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>160.270455827901</v>
+        <v>161.1633582489813</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9886825699764904</v>
+        <v>0.9888452428764321</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>86.78979158513341</v>
+        <v>87.15485528580224</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9846122116569519</v>
+        <v>0.9849934681315242</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>121.3082049694173</v>
+        <v>122.0661438768435</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9808425917695228</v>
+        <v>0.9811995694859632</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>74.71889108123231</v>
+        <v>75.18906377143112</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9961860968780483</v>
+        <v>0.9962913547511227</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>105.2270893000515</v>
+        <v>105.547883491073</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9746119727912953</v>
+        <v>0.9733320302551723</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>179.828874902338</v>
+        <v>181.8842364652052</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9960299519408827</v>
+        <v>0.9959486522681328</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>84.32112736661877</v>
+        <v>85.2111303036357</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9772082451651545</v>
+        <v>0.9770293191273032</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>109.4780018931502</v>
+        <v>109.8906760647614</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9705570418864128</v>
+        <v>0.9707086982207874</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.9853523861968</v>
+        <v>136.7804643551931</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9908815847260236</v>
+        <v>0.9909960680000928</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>128.0399878954894</v>
+        <v>128.7841805466591</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9753128287414995</v>
+        <v>0.9753301515325077</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>137.8979280604234</v>
+        <v>139.0214369835307</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9949666543211282</v>
+        <v>0.9947401157358365</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>115.866442656183</v>
+        <v>116.2053949383516</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9923869888905024</v>
+        <v>0.9916871457350003</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>72.67811269419943</v>
+        <v>73.4060718355382</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8424293067504275</v>
+        <v>0.8382136981608586</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>98.29562765942451</v>
+        <v>99.58828243284833</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9666090622709761</v>
+        <v>0.9665736504500924</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>115.0657715047524</v>
+        <v>115.2981153139099</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9557004810623834</v>
+        <v>0.9545527594147224</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>117.107572878222</v>
+        <v>117.8816951008215</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9806099856501166</v>
+        <v>0.9803480044580227</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.4633726876769</v>
+        <v>110.4119221717863</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9791758599007379</v>
+        <v>0.979354576379587</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>203.3886130156428</v>
+        <v>203.9631489091815</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9943512412707249</v>
+        <v>0.9945365462009536</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>192.6566644840833</v>
+        <v>193.5832827279112</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9830939223304581</v>
+        <v>0.983031859093339</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>229.8814239069285</v>
+        <v>231.3344297698374</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957824073753844</v>
+        <v>0.9958396123944544</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>111.7149773455508</v>
+        <v>112.9532342676121</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9836351191667688</v>
+        <v>0.9840269835226226</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.1008748399868</v>
+        <v>155.1174280755132</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9921543638993761</v>
+        <v>0.9922509412996796</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>82.57395931222324</v>
+        <v>83.21142996158585</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9683601527625411</v>
+        <v>0.9667732954776798</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>105.7851231683996</v>
+        <v>106.5065782879501</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9726222284193844</v>
+        <v>0.9721006217219484</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>64.63137399165271</v>
+        <v>65.22533610398789</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9834423988064853</v>
+        <v>0.9837148841052705</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>65.57657771043858</v>
+        <v>65.98998933933456</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9610498560826908</v>
+        <v>0.9612244814489317</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>264.5003283000372</v>
+        <v>257.6804996349465</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9415121332220663</v>
+        <v>0.9417821428050551</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>92.79199838793093</v>
+        <v>93.75861752589293</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9843066746230184</v>
+        <v>0.9845179368770223</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>106.6841859275612</v>
+        <v>106.7873043901217</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9099,7 +9099,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9898794814507718</v>
+        <v>0.9887442017423408</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9114,7 +9114,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>141.8160395730485</v>
+        <v>143.0555718771016</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9272,7 +9272,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9611300912103541</v>
+        <v>0.9587018351617113</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9287,7 +9287,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>76.53502902179812</v>
+        <v>77.48647609636956</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9445,7 +9445,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9888467577126705</v>
+        <v>0.988839283255307</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9460,7 +9460,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>111.94472934076</v>
+        <v>112.5003326308167</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9624,7 +9624,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9538295887435732</v>
+        <v>0.9536329769061294</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9639,7 +9639,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>120.5062817841942</v>
+        <v>121.0085372758898</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9797,7 +9797,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.983397256830179</v>
+        <v>0.9832156842529307</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9812,7 +9812,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>97.12535493563043</v>
+        <v>97.77358547881433</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9991,7 +9991,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9878779188486753</v>
+        <v>0.9874731370616806</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10006,7 +10006,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>75.69651592704992</v>
+        <v>76.22802869010624</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10161,7 +10161,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9902098587462624</v>
+        <v>0.9881265291066196</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10176,7 +10176,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>102.9978034920374</v>
+        <v>103.6598088496494</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10346,7 +10346,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9964283963526165</v>
+        <v>0.9965552551568633</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10361,7 +10361,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>126.5350632607231</v>
+        <v>127.3114373474932</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10537,7 +10537,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.986217641794508</v>
+        <v>0.9859329050459731</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10552,7 +10552,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.20380153368451</v>
+        <v>66.24204717811676</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9917040674105678</v>
+        <v>0.9911491193615847</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>101.625583951117</v>
+        <v>102.4290369269157</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9327422760051993</v>
+        <v>0.9318510918355718</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>184.9003901554574</v>
+        <v>187.4667364336968</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9390743308442895</v>
+        <v>0.9399914227647393</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>92.24068411316235</v>
+        <v>93.44690615018715</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9803778552233229</v>
+        <v>0.9808831245847981</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>125.7469670719102</v>
+        <v>126.958511374544</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9897700851250645</v>
+        <v>0.9887705815478895</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>136.2656439385718</v>
+        <v>137.6853914852636</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9883300849733784</v>
+        <v>0.9885679984700241</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>67.80326068979319</v>
+        <v>68.14994675897407</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9741288719531872</v>
+        <v>0.9743142653953044</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>161.1298493786164</v>
+        <v>162.2633964819977</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9744164343776871</v>
+        <v>0.9748504458806888</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>141.0331050482089</v>
+        <v>141.9748847681763</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9739897910823604</v>
+        <v>0.9740051811766015</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>161.4376817608613</v>
+        <v>163.5046423703626</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.904188466794269</v>
+        <v>0.9028190223913258</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>111.4522175747452</v>
+        <v>112.5933841739964</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9822389039349619</v>
+        <v>0.9805277416258338</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>99.900395381236</v>
+        <v>100.7294244201831</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.9031429617739292</v>
+        <v>0.9001898672137933</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>52.66350688888208</v>
+        <v>53.05462659088585</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8883444798700428</v>
+        <v>0.8839001212884222</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>54.77478668265677</v>
+        <v>55.74542171694245</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9697590169887428</v>
+        <v>0.9699223448383156</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>161.1633582489813</v>
+        <v>162.0707405213191</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9888452428764321</v>
+        <v>0.9890412495126663</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>87.15485528580224</v>
+        <v>87.52226080866463</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9849934681315242</v>
+        <v>0.9854388343055017</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>122.0661438768435</v>
+        <v>122.8614533219275</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9811995694859632</v>
+        <v>0.9814326210920743</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>75.18906377143112</v>
+        <v>75.80728530974223</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9962913547511227</v>
+        <v>0.9963639248692077</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>105.547883491073</v>
+        <v>105.9127208107678</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9733320302551723</v>
+        <v>0.9716423874960286</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>181.8842364652052</v>
+        <v>184.0680124240246</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9959486522681328</v>
+        <v>0.9958396166886138</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>85.2111303036357</v>
+        <v>86.12499503154405</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9770293191273032</v>
+        <v>0.9768857401975164</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>109.8906760647614</v>
+        <v>110.2987200897606</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9707086982207874</v>
+        <v>0.9708710956975264</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.7804643551931</v>
+        <v>136.6253650143953</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9909960680000928</v>
+        <v>0.9910977904996594</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>128.7841805466591</v>
+        <v>129.5560718620892</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9753301515325077</v>
+        <v>0.9754308523220658</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>139.0214369835307</v>
+        <v>140.2346499532906</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9947401157358365</v>
+        <v>0.9943981562098905</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>116.2053949383516</v>
+        <v>116.5726983055777</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9916871457350003</v>
+        <v>0.9909245528064095</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>73.4060718355382</v>
+        <v>74.0327896322509</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8382136981608586</v>
+        <v>0.8317867359148078</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>99.58828243284833</v>
+        <v>100.9576420456311</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9665736504500924</v>
+        <v>0.9665607594961119</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>115.2981153139099</v>
+        <v>115.5512378556366</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9545527594147224</v>
+        <v>0.9532455096619601</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>117.8816951008215</v>
+        <v>118.6548642433871</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9803480044580227</v>
+        <v>0.9800984171393919</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.4119221717863</v>
+        <v>110.3596084806462</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.979354576379587</v>
+        <v>0.979525942757651</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>203.9631489091815</v>
+        <v>204.5466158219489</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9945365462009536</v>
+        <v>0.9947033971079234</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>193.5832827279112</v>
+        <v>194.524073957935</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.983031859093339</v>
+        <v>0.9829522737893104</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>231.3344297698374</v>
+        <v>232.8002334727269</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958396123944544</v>
+        <v>0.9958356429320963</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>112.9532342676121</v>
+        <v>114.2291826016448</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9840269835226226</v>
+        <v>0.9844528885391468</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.1174280755132</v>
+        <v>155.1872089837346</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9922509412996796</v>
+        <v>0.9922719631244443</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>83.21142996158585</v>
+        <v>84.01681970436216</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9667732954776798</v>
+        <v>0.9653080375959909</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>106.5065782879501</v>
+        <v>107.2755188367393</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9721006217219484</v>
+        <v>0.9717028455023975</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>65.22533610398789</v>
+        <v>65.81433679048301</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9837148841052705</v>
+        <v>0.983984330366122</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>65.98998933933456</v>
+        <v>66.43463839743374</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9612244814489317</v>
+        <v>0.9614267828768353</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>257.6804996349465</v>
+        <v>251.2215341058515</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9417821428050551</v>
+        <v>0.9421723612264415</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>93.75861752589293</v>
+        <v>94.75672849860264</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9845179368770223</v>
+        <v>0.9847344318545681</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>106.7873043901217</v>
+        <v>106.9074908756879</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9099,7 +9099,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9887442017423408</v>
+        <v>0.9874943922728492</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9114,7 +9114,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>143.0555718771016</v>
+        <v>144.3439964689888</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9272,7 +9272,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9587018351617113</v>
+        <v>0.9566895191412895</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9287,7 +9287,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>77.48647609636956</v>
+        <v>78.51259779783763</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9445,7 +9445,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.988839283255307</v>
+        <v>0.9887244092016712</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9460,7 +9460,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>112.5003326308167</v>
+        <v>113.1027576792</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9624,7 +9624,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9536329769061294</v>
+        <v>0.9534601787249605</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9639,7 +9639,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>121.0085372758898</v>
+        <v>121.5477747693698</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9797,7 +9797,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9832156842529307</v>
+        <v>0.9831258939517691</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9812,7 +9812,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>97.77358547881433</v>
+        <v>98.43921507831824</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9991,7 +9991,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9874731370616806</v>
+        <v>0.9870908735917924</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10006,7 +10006,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>76.22802869010624</v>
+        <v>76.81583291556932</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10161,7 +10161,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9881265291066196</v>
+        <v>0.9855884729787662</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10176,7 +10176,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>103.6598088496494</v>
+        <v>104.366795069467</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10346,7 +10346,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9965552551568633</v>
+        <v>0.9966606073264537</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10361,7 +10361,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>127.3114373474932</v>
+        <v>128.1042972610378</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10537,7 +10537,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9859329050459731</v>
+        <v>0.9857867807359013</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10552,7 +10552,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.24204717811676</v>
+        <v>66.33332001625243</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9911491193615847</v>
+        <v>0.9899771436845602</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>102.4290369269157</v>
+        <v>104.0829197262878</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9318510918355718</v>
+        <v>0.927702960580108</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>187.4667364336968</v>
+        <v>192.1971779877346</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9399914227647393</v>
+        <v>0.9428292312273081</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>93.44690615018715</v>
+        <v>95.83480380403755</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9808831245847981</v>
+        <v>0.9815944787819587</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>126.958511374544</v>
+        <v>129.3781481741924</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9887705815478895</v>
+        <v>0.9872704134309851</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>137.6853914852636</v>
+        <v>140.5517496512687</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9885679984700241</v>
+        <v>0.9890239994479416</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>68.14994675897407</v>
+        <v>68.92142378441244</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9743142653953044</v>
+        <v>0.9746739845176776</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>162.2633964819977</v>
+        <v>163.9769797546873</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9748504458806888</v>
+        <v>0.9756853186626909</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>141.9748847681763</v>
+        <v>143.82126015033</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9740051811766015</v>
+        <v>0.974128776200851</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>163.5046423703626</v>
+        <v>167.8094722489082</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9028190223913258</v>
+        <v>0.9003400112075572</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>112.5933841739964</v>
+        <v>115.0934151022195</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9805277416258338</v>
+        <v>0.9775104021100526</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>100.7294244201831</v>
+        <v>102.3846328928452</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.9001898672137933</v>
+        <v>0.8940961060015254</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>53.05462659088585</v>
+        <v>53.89608321054679</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8839001212884222</v>
+        <v>0.8765222283817578</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>55.74542171694245</v>
+        <v>57.83226167917824</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9699223448383156</v>
+        <v>0.9703444853011537</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>162.0707405213191</v>
+        <v>163.9445250415658</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9890412495126663</v>
+        <v>0.9894864772238342</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>87.52226080866463</v>
+        <v>88.22870119691633</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9854388343055017</v>
+        <v>0.9863172488669257</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>122.8614533219275</v>
+        <v>124.4481648634334</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9814326210920743</v>
+        <v>0.9818585849521698</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>75.80728530974223</v>
+        <v>76.76835029072831</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9963639248692077</v>
+        <v>0.9964279056195373</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>105.9127208107678</v>
+        <v>106.5181533384733</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9716423874960286</v>
+        <v>0.9682416182025682</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>184.0680124240246</v>
+        <v>188.3696263688772</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9958396166886138</v>
+        <v>0.9956006004548781</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>86.12499503154405</v>
+        <v>87.8047652864105</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9768857401975164</v>
+        <v>0.9767562523738416</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>110.2987200897606</v>
+        <v>111.1593721301451</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9708710956975264</v>
+        <v>0.9712317905531966</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.6253650143953</v>
+        <v>136.3279372125248</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9910977904996594</v>
+        <v>0.9912648008834865</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>129.5560718620892</v>
+        <v>131.2172590328491</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9754308523220658</v>
+        <v>0.9759783769021623</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>140.2346499532906</v>
+        <v>142.6997718762127</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9943981562098905</v>
+        <v>0.993693140584388</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>116.5726983055777</v>
+        <v>117.2026341860587</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9909245528064095</v>
+        <v>0.9897162864527025</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>74.0327896322509</v>
+        <v>75.58395236619117</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8317867359148078</v>
+        <v>0.8220401850213437</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>100.9576420456311</v>
+        <v>103.4649318095152</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9665607594961119</v>
+        <v>0.9667034174499261</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>115.5512378556366</v>
+        <v>116.1259220507614</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9532455096619601</v>
+        <v>0.9509129914248801</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>118.6548642433871</v>
+        <v>120.2095429848877</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9800984171393919</v>
+        <v>0.9797237839428586</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.3596084806462</v>
+        <v>110.2180972071856</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.979525942757651</v>
+        <v>0.9798440725906139</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>204.5466158219489</v>
+        <v>205.9633120918046</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9947033971079234</v>
+        <v>0.9950084530165824</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>194.524073957935</v>
+        <v>196.5705429897879</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9829522737893104</v>
+        <v>0.9827444390294897</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>232.8002334727269</v>
+        <v>235.6865557250867</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958356429320963</v>
+        <v>0.9958246244793977</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>114.2291826016448</v>
+        <v>116.7946970143547</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9844528885391468</v>
+        <v>0.9853398171990509</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.1872089837346</v>
+        <v>155.3677158878442</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9922719631244443</v>
+        <v>0.9921634092392677</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>84.01681970436216</v>
+        <v>85.71837852377158</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9653080375959909</v>
+        <v>0.9627788126744304</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>107.2755188367393</v>
+        <v>108.7582960500984</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9717028455023975</v>
+        <v>0.9706316348155636</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>65.81433679048301</v>
+        <v>66.98770590869762</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.983984330366122</v>
+        <v>0.9845031261606076</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>66.43463839743374</v>
+        <v>67.31477562284016</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9614267828768353</v>
+        <v>0.9617977261726017</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>251.2215341058515</v>
+        <v>239.0020037476774</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9421723612264415</v>
+        <v>0.94259651449198</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>94.75672849860264</v>
+        <v>96.77256402572809</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9847344318545681</v>
+        <v>0.9851404981755435</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>106.9074908756879</v>
+        <v>107.1481018865907</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9099,7 +9099,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9874943922728492</v>
+        <v>0.9856327137522938</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9114,7 +9114,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>144.3439964689888</v>
+        <v>146.7420551274697</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9272,7 +9272,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9566895191412895</v>
+        <v>0.9533887540851435</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9287,7 +9287,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>78.51259779783763</v>
+        <v>80.54981785858287</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9445,7 +9445,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9887244092016712</v>
+        <v>0.9886137002601231</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9460,7 +9460,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>113.1027576792</v>
+        <v>114.5316479173425</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9624,7 +9624,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9534601787249605</v>
+        <v>0.9530806555583542</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9639,7 +9639,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>121.5477747693698</v>
+        <v>122.5699727079772</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9797,7 +9797,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9831258939517691</v>
+        <v>0.9831281799814016</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9812,7 +9812,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>98.43921507831824</v>
+        <v>99.87053841304345</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9991,7 +9991,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9870908735917924</v>
+        <v>0.986555031500476</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10006,7 +10006,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>76.81583291556932</v>
+        <v>77.86792034269129</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10161,7 +10161,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9855884729787662</v>
+        <v>0.9800047852626813</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10176,7 +10176,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>104.366795069467</v>
+        <v>105.7574487361088</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10346,7 +10346,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9966606073264537</v>
+        <v>0.9967645786872725</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10361,7 +10361,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>128.1042972610378</v>
+        <v>129.6520777550178</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10537,7 +10537,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9857867807359013</v>
+        <v>0.985380590870593</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10552,7 +10552,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.33332001625243</v>
+        <v>66.37458446574175</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9899771436845602</v>
+        <v>0.9892011066523475</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>104.0829197262878</v>
+        <v>104.9046410491977</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.927702960580108</v>
+        <v>0.9250583133684827</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>192.1971779877346</v>
+        <v>194.3456463202258</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9428292312273081</v>
+        <v>0.9448511739538146</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>95.83480380403755</v>
+        <v>96.9343642429762</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9815944787819587</v>
+        <v>0.982069659922296</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>129.3781481741924</v>
+        <v>130.4983550918889</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9872704134309851</v>
+        <v>0.986677926857955</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>140.5517496512687</v>
+        <v>142.0582355118478</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9890239994479416</v>
+        <v>0.9892414699688475</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>68.92142378441244</v>
+        <v>69.3236659579988</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9746739845176776</v>
+        <v>0.9748709044393425</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>163.9769797546873</v>
+        <v>165.1841604194688</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9756853186626909</v>
+        <v>0.9760810295710897</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>143.82126015033</v>
+        <v>144.7629710193291</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.974128776200851</v>
+        <v>0.9742316547579265</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>167.8094722489082</v>
+        <v>170.0488658365212</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9003400112075572</v>
+        <v>0.8990700041939917</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>115.0934151022195</v>
+        <v>116.4737787422121</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9775104021100526</v>
+        <v>0.9761066431108177</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>102.3846328928452</v>
+        <v>103.2476591819089</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8940961060015254</v>
+        <v>0.8917682510584893</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>53.89608321054679</v>
+        <v>54.32312019042297</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8765222283817578</v>
+        <v>0.874231535753159</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>57.83226167917824</v>
+        <v>58.84576630917596</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9703444853011537</v>
+        <v>0.9705761992873673</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>163.9445250415658</v>
+        <v>164.8922045970973</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9894864772238342</v>
+        <v>0.9897036699422564</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>88.22870119691633</v>
+        <v>88.54984480124072</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9863172488669257</v>
+        <v>0.9867263973848891</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>124.4481648634334</v>
+        <v>125.154741413174</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9818585849521698</v>
+        <v>0.9818794367888106</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>76.76835029072831</v>
+        <v>77.44070623407158</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9964279056195373</v>
+        <v>0.9964716848195062</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>106.5181533384733</v>
+        <v>106.7423502084075</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9682416182025682</v>
+        <v>0.9667697699817749</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>188.3696263688772</v>
+        <v>190.4748223839783</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9956006004548781</v>
+        <v>0.9954690888462856</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>87.8047652864105</v>
+        <v>88.65819029552702</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9767562523738416</v>
+        <v>0.9767368191816618</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>111.1593721301451</v>
+        <v>111.6118450508128</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9712317905531966</v>
+        <v>0.9714240980775445</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.3279372125248</v>
+        <v>136.1944700212107</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9912648008834865</v>
+        <v>0.9913419484860377</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>131.2172590328491</v>
+        <v>132.0290197147672</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9759783769021623</v>
+        <v>0.9762960012639282</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>142.6997718762127</v>
+        <v>143.9180705521435</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.993693140584388</v>
+        <v>0.9935008597371073</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>117.2026341860587</v>
+        <v>117.5669630119486</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9897162864527025</v>
+        <v>0.9893285370879836</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>75.58395236619117</v>
+        <v>76.38477655273969</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8220401850213437</v>
+        <v>0.8188719319482457</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>103.4649318095152</v>
+        <v>104.795390538327</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9667034174499261</v>
+        <v>0.9668505458683174</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>116.1259220507614</v>
+        <v>116.4679510937164</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9509129914248801</v>
+        <v>0.9500810753172005</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>120.2095429848877</v>
+        <v>120.9860307284361</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9797237839428586</v>
+        <v>0.979555941669159</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.2180972071856</v>
+        <v>110.1426017332959</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9798440725906139</v>
+        <v>0.979990474127292</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>205.9633120918046</v>
+        <v>206.6011756251564</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9950084530165824</v>
+        <v>0.9951411583458183</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>196.5705429897879</v>
+        <v>197.661251647616</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9827444390294897</v>
+        <v>0.9826193631222732</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>235.6865557250867</v>
+        <v>237.0440082747486</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958246244793977</v>
+        <v>0.9958210782595049</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>116.7946970143547</v>
+        <v>118.0504160472716</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9853398171990509</v>
+        <v>0.9857675192109338</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.3677158878442</v>
+        <v>155.4886539799825</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9921634092392677</v>
+        <v>0.992061207225574</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>85.71837852377158</v>
+        <v>86.57715916737672</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9627788126744304</v>
+        <v>0.9620209295227357</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>108.7582960500984</v>
+        <v>109.3314170037033</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9706316348155636</v>
+        <v>0.9703010727083716</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>66.98770590869762</v>
+        <v>67.55668884416671</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9845031261606076</v>
+        <v>0.9847518637552953</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>67.31477562284016</v>
+        <v>67.71482384953251</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9617977261726017</v>
+        <v>0.9620565800304408</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>239.0020037476774</v>
+        <v>233.6463426182508</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.94259651449198</v>
+        <v>0.9431750762886785</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>96.77256402572809</v>
+        <v>97.81043575644387</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9851404981755435</v>
+        <v>0.9853061734895349</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.1481018865907</v>
+        <v>107.2454099842117</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -8975,9 +8975,6 @@
       </c>
       <c r="AL43">
         <v>247</v>
-      </c>
-      <c r="AP43">
-        <v>3144</v>
       </c>
       <c r="AS43">
         <v>239</v>
@@ -9099,7 +9096,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9856327137522938</v>
+        <v>0.9842339365205109</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9114,7 +9111,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>146.7420551274697</v>
+        <v>148.0936635751972</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9272,7 +9269,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9533887540851435</v>
+        <v>0.9525042916586497</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9287,7 +9284,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>80.54981785858287</v>
+        <v>81.57639646047086</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9445,7 +9442,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9886137002601231</v>
+        <v>0.9886539644358874</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9460,7 +9457,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>114.5316479173425</v>
+        <v>115.2562312642237</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9624,7 +9621,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9530806555583542</v>
+        <v>0.9528910485446179</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9639,7 +9636,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>122.5699727079772</v>
+        <v>123.0323020741494</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9797,7 +9794,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9831281799814016</v>
+        <v>0.983220509747871</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9812,7 +9809,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>99.87053841304345</v>
+        <v>100.5673000862932</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9991,7 +9988,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.986555031500476</v>
+        <v>0.9864207876271877</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10006,7 +10003,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>77.86792034269129</v>
+        <v>78.42288347952214</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10161,7 +10158,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9800047852626813</v>
+        <v>0.9779338496031906</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10176,7 +10173,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>105.7574487361088</v>
+        <v>106.3855351120344</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10346,7 +10343,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9967645786872725</v>
+        <v>0.9968174673022582</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10361,7 +10358,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>129.6520777550178</v>
+        <v>130.3432116361799</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10537,7 +10534,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.985380590870593</v>
+        <v>0.985207175252735</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10552,7 +10549,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.37458446574175</v>
+        <v>66.32654664518689</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9892011066523475</v>
+        <v>0.9875787590304222</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>104.9046410491977</v>
+        <v>106.6039645849147</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9250583133684827</v>
+        <v>0.9219566999032682</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>194.3456463202258</v>
+        <v>198.9757234931867</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9448511739538146</v>
+        <v>0.9485974352628849</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>96.9343642429762</v>
+        <v>99.21745352610422</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.982069659922296</v>
+        <v>0.9829544343407323</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>130.4983550918889</v>
+        <v>132.7127804185337</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.986677926857955</v>
+        <v>0.9851523740717348</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>142.0582355118478</v>
+        <v>145.1435355153431</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9892414699688475</v>
+        <v>0.9896425396376662</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>69.3236659579988</v>
+        <v>70.10234552740955</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9748709044393425</v>
+        <v>0.9752637976604682</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>165.1841604194688</v>
+        <v>167.3700861152649</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9760810295710897</v>
+        <v>0.9768535643613036</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>144.7629710193291</v>
+        <v>146.6096938082715</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9742316547579265</v>
+        <v>0.9745021317946267</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>170.0488658365212</v>
+        <v>174.8405671578477</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.8990700041939917</v>
+        <v>0.8989741326586994</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>116.4737787422121</v>
+        <v>119.1850027920302</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9761066431108177</v>
+        <v>0.9734245468315429</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>103.2476591819089</v>
+        <v>105.0441749435526</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8917682510584893</v>
+        <v>0.8883176951157697</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>54.32312019042297</v>
+        <v>55.14419109292119</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.874231535753159</v>
+        <v>0.8722344551349972</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>58.84576630917596</v>
+        <v>60.93465463282626</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9705761992873673</v>
+        <v>0.9710676262799151</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>164.8922045970973</v>
+        <v>166.7808176133288</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9897036699422564</v>
+        <v>0.9901515586189211</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>88.54984480124072</v>
+        <v>89.19428242244297</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9867263973848891</v>
+        <v>0.987481764274829</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>125.154741413174</v>
+        <v>126.4892217640078</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9818794367888106</v>
+        <v>0.9820624089331217</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>77.44070623407158</v>
+        <v>78.69538918380876</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9964716848195062</v>
+        <v>0.9963506057552564</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>106.7423502084075</v>
+        <v>107.3922222025388</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9667697699817749</v>
+        <v>0.9636692667547657</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>190.4748223839783</v>
+        <v>194.920565708739</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9954690888462856</v>
+        <v>0.9951196820090333</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>88.65819029552702</v>
+        <v>90.30136649226307</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9767368191816618</v>
+        <v>0.9768825448756142</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>111.6118450508128</v>
+        <v>112.6714313539541</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9714240980775445</v>
+        <v>0.9718353762114016</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.1944700212107</v>
+        <v>136.0133368649044</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9913419484860377</v>
+        <v>0.9914230261752129</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>132.0290197147672</v>
+        <v>133.735028727129</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9762960012639282</v>
+        <v>0.9769140671049169</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>143.9180705521435</v>
+        <v>146.1983722384601</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9935008597371073</v>
+        <v>0.9930031948765703</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>117.5669630119486</v>
+        <v>118.4425671141076</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9893285370879836</v>
+        <v>0.9879774816914173</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>76.38477655273969</v>
+        <v>78.02522097010431</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8188719319482457</v>
+        <v>0.8120950034218194</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>104.795390538327</v>
+        <v>107.4810957217555</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9668505458683174</v>
+        <v>0.9674184129321265</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>116.4679510937164</v>
+        <v>117.2882403969091</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9500810753172005</v>
+        <v>0.948480117826868</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>120.9860307284361</v>
+        <v>122.5453411676671</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.979555941669159</v>
+        <v>0.9792803765984706</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.1426017332959</v>
+        <v>109.9531785984429</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.979990474127292</v>
+        <v>0.9802527907021172</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>206.6011756251564</v>
+        <v>207.8168659508609</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9951411583458183</v>
+        <v>0.9953713433761084</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>197.661251647616</v>
+        <v>199.8047800461329</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9826193631222732</v>
+        <v>0.9823113940966542</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>237.0440082747486</v>
+        <v>239.662087428144</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958210782595049</v>
+        <v>0.9957617920317323</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>118.0504160472716</v>
+        <v>120.713356510988</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9857675192109338</v>
+        <v>0.9865773285241952</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.4886539799825</v>
+        <v>155.7330962855651</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.992061207225574</v>
+        <v>0.9918362428395006</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>86.57715916737672</v>
+        <v>88.28521790059533</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9620209295227357</v>
+        <v>0.9590483939778962</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>109.3314170037033</v>
+        <v>110.9332884469017</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9703010727083716</v>
+        <v>0.969736956051043</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>67.55668884416671</v>
+        <v>68.60424062671397</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9847518637552953</v>
+        <v>0.9852241215616854</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>67.71482384953251</v>
+        <v>68.57934140353399</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9620565800304408</v>
+        <v>0.9626428126269967</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>233.6463426182508</v>
+        <v>223.7097285080366</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9431750762886785</v>
+        <v>0.9442965052476394</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>97.81043575644387</v>
+        <v>99.87506614060453</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9853061734895349</v>
+        <v>0.9856490121724844</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.2454099842117</v>
+        <v>107.4302097562531</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9096,7 +9096,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9842339365205109</v>
+        <v>0.9818015006571416</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9111,7 +9111,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>148.0936635751972</v>
+        <v>150.8486835762982</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9269,7 +9269,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9525042916586497</v>
+        <v>0.9510296076196695</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9284,7 +9284,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>81.57639646047086</v>
+        <v>83.64287231209208</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9442,7 +9442,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9886539644358874</v>
+        <v>0.9890205449070745</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9457,7 +9457,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>115.2562312642237</v>
+        <v>116.7528257578034</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9621,7 +9621,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9528910485446179</v>
+        <v>0.9525307801278755</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9636,7 +9636,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>123.0323020741494</v>
+        <v>123.9259711518328</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9794,7 +9794,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.983220509747871</v>
+        <v>0.9835203368415177</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9809,7 +9809,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>100.5673000862932</v>
+        <v>102.0015249197398</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9988,7 +9988,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9864207876271877</v>
+        <v>0.9850460898969338</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10003,7 +10003,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>78.42288347952214</v>
+        <v>79.74399907751427</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10158,7 +10158,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9779338496031906</v>
+        <v>0.9742041661554754</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10173,7 +10173,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>106.3855351120344</v>
+        <v>107.8811646392131</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10343,7 +10343,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9968174673022582</v>
+        <v>0.996789014720075</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10358,7 +10358,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>130.3432116361799</v>
+        <v>131.8291119175672</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10534,7 +10534,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.985207175252735</v>
+        <v>0.9847563927251494</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10549,7 +10549,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.32654664518689</v>
+        <v>66.45738979709745</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9875787590304222</v>
+        <v>0.9857015360357073</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>106.6039645849147</v>
+        <v>108.3968644081816</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9219566999032682</v>
+        <v>0.9202042818377927</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>198.9757234931867</v>
+        <v>204.5080192237115</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9485974352628849</v>
+        <v>0.9522830661340638</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>99.21745352610422</v>
+        <v>101.4652057121239</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9829544343407323</v>
+        <v>0.9838583773896161</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>132.7127804185337</v>
+        <v>134.7963066067903</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9851523740717348</v>
+        <v>0.9839265498272507</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>145.1435355153431</v>
+        <v>148.276950475214</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9896425396376662</v>
+        <v>0.9899554202981244</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>70.10234552740955</v>
+        <v>70.89169378422488</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9752637976604682</v>
+        <v>0.9756724488843174</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>167.3700861152649</v>
+        <v>169.7487362450823</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9768535643613036</v>
+        <v>0.9776259570083247</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>146.6096938082715</v>
+        <v>148.4169633911467</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9745021317946267</v>
+        <v>0.9748471453510075</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>174.8405671578477</v>
+        <v>179.508295173781</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.8989741326586994</v>
+        <v>0.8997645486284778</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>119.1850027920302</v>
+        <v>122.077398848483</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9734245468315429</v>
+        <v>0.9709880836830311</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>105.0441749435526</v>
+        <v>106.8994542273957</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8883176951157697</v>
+        <v>0.886491058240266</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>55.14419109292119</v>
+        <v>56.03740404960753</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8722344551349972</v>
+        <v>0.8697637481986189</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>60.93465463282626</v>
+        <v>63.07712197129119</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9710676262799151</v>
+        <v>0.9716727301607381</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>166.7808176133288</v>
+        <v>168.856508602488</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9901515586189211</v>
+        <v>0.9905972557128281</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>89.19428242244297</v>
+        <v>89.86600964918378</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.987481764274829</v>
+        <v>0.9882467939779804</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>126.4892217640078</v>
+        <v>127.9664496166867</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9820624089331217</v>
+        <v>0.9819890453978254</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>78.69538918380876</v>
+        <v>79.99467419165127</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9963506057552564</v>
+        <v>0.9960739945224203</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>107.3922222025388</v>
+        <v>108.2061483304218</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9636692667547657</v>
+        <v>0.9605679404961928</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>194.920565708739</v>
+        <v>199.5658564346666</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9951196820090333</v>
+        <v>0.9948076225264972</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>90.30136649226307</v>
+        <v>92.01210647249476</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9768825448756142</v>
+        <v>0.9771929781806061</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>112.6714313539541</v>
+        <v>113.8879102644618</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9718353762114016</v>
+        <v>0.9722681645553396</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.0133368649044</v>
+        <v>135.9612729362645</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9914230261752129</v>
+        <v>0.9913713601982161</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>133.735028727129</v>
+        <v>135.6481564377209</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9769140671049169</v>
+        <v>0.9776515453720397</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>146.1983722384601</v>
+        <v>148.4699231030259</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9930031948765703</v>
+        <v>0.9921239843490097</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>118.4425671141076</v>
+        <v>119.512338310174</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9879774816914173</v>
+        <v>0.9862264279089782</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>78.02522097010431</v>
+        <v>79.72485251960633</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8120950034218194</v>
+        <v>0.8053603780506818</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>107.4810957217555</v>
+        <v>110.3446243916667</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9674184129321265</v>
+        <v>0.9680599001801671</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>117.2882403969091</v>
+        <v>118.1521449574703</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.948480117826868</v>
+        <v>0.9460684792007775</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>122.5453411676671</v>
+        <v>124.0851902757094</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9792803765984706</v>
+        <v>0.9790973449030431</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.9531785984429</v>
+        <v>109.8306322373161</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9802527907021172</v>
+        <v>0.9804794856087781</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>207.8168659508609</v>
+        <v>208.8270322765186</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9953713433761084</v>
+        <v>0.9955116770601203</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>199.8047800461329</v>
+        <v>201.9697715583894</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9823113940966542</v>
+        <v>0.9819353963243199</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>239.662087428144</v>
+        <v>242.2932995931761</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957617920317323</v>
+        <v>0.9957597815251058</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>120.713356510988</v>
+        <v>123.4569905341629</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9865773285241952</v>
+        <v>0.9872391692083569</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.7330962855651</v>
+        <v>156.045708365493</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9918362428395006</v>
+        <v>0.9914896173261101</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>88.28521790059533</v>
+        <v>90.09702607429604</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9590483939778962</v>
+        <v>0.9565774694856997</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>110.9332884469017</v>
+        <v>112.5929663516639</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.969736956051043</v>
+        <v>0.9692464640433425</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>68.60424062671397</v>
+        <v>69.83415616972302</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9852241215616854</v>
+        <v>0.9856551926577735</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>68.57934140353399</v>
+        <v>69.49699648378763</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9626428126269967</v>
+        <v>0.9632751462233006</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>223.7097285080366</v>
+        <v>214.7509871343954</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9442965052476394</v>
+        <v>0.9458965455770176</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>99.87506614060453</v>
+        <v>102.0507942400304</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9856490121724844</v>
+        <v>0.9860219478395439</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.4302097562531</v>
+        <v>107.6288235099472</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9096,7 +9096,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9818015006571416</v>
+        <v>0.9790180661126001</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9111,7 +9111,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>150.8486835762982</v>
+        <v>153.8585342879594</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9269,7 +9269,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9510296076196695</v>
+        <v>0.9485105427378435</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9284,7 +9284,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>83.64287231209208</v>
+        <v>85.74312012791044</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9442,7 +9442,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9890205449070745</v>
+        <v>0.989256435943983</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9457,7 +9457,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>116.7528257578034</v>
+        <v>118.3790019892255</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9621,7 +9621,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9525307801278755</v>
+        <v>0.952131360792319</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9636,7 +9636,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>123.9259711518328</v>
+        <v>124.6461624767668</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9794,7 +9794,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9835203368415177</v>
+        <v>0.9839659781790235</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9809,7 +9809,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>102.0015249197398</v>
+        <v>103.4648171307507</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9988,7 +9988,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9850460898969338</v>
+        <v>0.9838066867983839</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10003,7 +10003,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>79.74399907751427</v>
+        <v>81.20655801349766</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10158,7 +10158,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9742041661554754</v>
+        <v>0.9710000185085784</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10173,7 +10173,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>107.8811646392131</v>
+        <v>109.2714609896068</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10343,7 +10343,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.996789014720075</v>
+        <v>0.9966157410035832</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10358,7 +10358,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>131.8291119175672</v>
+        <v>133.4103410976611</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10534,7 +10534,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9847563927251494</v>
+        <v>0.9843311689744347</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10549,7 +10549,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.45738979709745</v>
+        <v>66.89029862470792</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9857015360357073</v>
+        <v>0.9846755358979438</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>108.3968644081816</v>
+        <v>109.3317360333046</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9202042818377927</v>
+        <v>0.9197895015561236</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>204.5080192237115</v>
+        <v>207.1881200221383</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9522830661340638</v>
+        <v>0.9541337270733433</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>101.4652057121239</v>
+        <v>102.5208769078519</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9838583773896161</v>
+        <v>0.9842980721887334</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>134.7963066067903</v>
+        <v>135.7998302638499</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9839265498272507</v>
+        <v>0.9835484651536792</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>148.276950475214</v>
+        <v>149.8593472661307</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9899554202981244</v>
+        <v>0.990082886868127</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>70.89169378422488</v>
+        <v>71.29799630710755</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9756724488843174</v>
+        <v>0.9758732931891934</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>169.7487362450823</v>
+        <v>170.7989973860036</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9776259570083247</v>
+        <v>0.9780223625156493</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>148.4169633911467</v>
+        <v>149.3568072368352</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2841,9 +2841,6 @@
       </c>
       <c r="AK9">
         <v>297</v>
-      </c>
-      <c r="AP9">
-        <v>6111</v>
       </c>
       <c r="AQ9">
         <v>264</v>
@@ -2965,7 +2962,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9748471453510075</v>
+        <v>0.9750523765660117</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2977,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>179.508295173781</v>
+        <v>181.8209228198876</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3141,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.8997645486284778</v>
+        <v>0.9008444065735961</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3156,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>122.077398848483</v>
+        <v>123.5222550873884</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3311,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9709880836830311</v>
+        <v>0.9696671112938976</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3326,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>106.8994542273957</v>
+        <v>107.8975742246836</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3487,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.886491058240266</v>
+        <v>0.8861614164981293</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3502,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>56.03740404960753</v>
+        <v>56.50993211149618</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3657,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8697637481986189</v>
+        <v>0.8694618374213889</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3672,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>63.07712197129119</v>
+        <v>64.12947020152329</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3833,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9716727301607381</v>
+        <v>0.9720092884749514</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3848,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>168.856508602488</v>
+        <v>169.976423055373</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4012,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9905972557128281</v>
+        <v>0.9908100580391148</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4027,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>89.86600964918378</v>
+        <v>90.22035300268111</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4194,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9882467939779804</v>
+        <v>0.9886068589680579</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4209,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>127.9664496166867</v>
+        <v>128.6042106876339</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4379,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9819890453978254</v>
+        <v>0.9819912023707622</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4394,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>79.99467419165127</v>
+        <v>80.61733149458865</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4555,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9960739945224203</v>
+        <v>0.9958092541864663</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4570,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>108.2061483304218</v>
+        <v>108.6787999645659</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4737,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9605679404961928</v>
+        <v>0.9598481520144263</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4752,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>199.5658564346666</v>
+        <v>201.6275184776867</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4916,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9948076225264972</v>
+        <v>0.9946507796143179</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4931,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>92.01210647249476</v>
+        <v>92.84242179143952</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5107,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9771929781806061</v>
+        <v>0.9774127055478352</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5122,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>113.8879102644618</v>
+        <v>114.5467294404333</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5295,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9722681645553396</v>
+        <v>0.9724950176897755</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5310,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>135.9612729362645</v>
+        <v>135.97903554958</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5471,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9913713601982161</v>
+        <v>0.9913149434050659</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5486,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>135.6481564377209</v>
+        <v>136.6764502795279</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5671,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9776515453720397</v>
+        <v>0.9780231183665592</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5686,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>148.4699231030259</v>
+        <v>149.6252817182319</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5862,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9921239843490097</v>
+        <v>0.9916519065963532</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5877,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>119.512338310174</v>
+        <v>120.0878384536077</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6044,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9862264279089782</v>
+        <v>0.9851538968946193</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6059,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>79.72485251960633</v>
+        <v>80.59892927416752</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6229,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8053603780506818</v>
+        <v>0.8039428646962827</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6244,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>110.3446243916667</v>
+        <v>111.7056308916347</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6399,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9680599001801671</v>
+        <v>0.9683692071202814</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6414,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>118.1521449574703</v>
+        <v>118.6417505842797</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6557,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9460684792007775</v>
+        <v>0.9448693706744661</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6572,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>124.0851902757094</v>
+        <v>124.8441064432403</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6727,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9790973449030431</v>
+        <v>0.9790350767118915</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6742,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.8306322373161</v>
+        <v>109.7523712046543</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6906,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9804794856087781</v>
+        <v>0.9805792608072198</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6921,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>208.8270322765186</v>
+        <v>209.2123578830217</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7094,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9955116770601203</v>
+        <v>0.9955601001243164</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7109,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>201.9697715583894</v>
+        <v>203.1253915844367</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7273,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9819353963243199</v>
+        <v>0.9817231971174708</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7288,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>242.2932995931761</v>
+        <v>243.6127754001549</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7455,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957597815251058</v>
+        <v>0.9957261486666579</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7470,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>123.4569905341629</v>
+        <v>124.8909631002008</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7625,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9872391692083569</v>
+        <v>0.9874752596307773</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7640,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>156.045708365493</v>
+        <v>156.2663704412037</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7804,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9914896173261101</v>
+        <v>0.9912414019017247</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7819,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>90.09702607429604</v>
+        <v>91.02855839527808</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8001,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9565774694856997</v>
+        <v>0.9553837319069653</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8016,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>112.5929663516639</v>
+        <v>113.4754645206093</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8192,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9692464640433425</v>
+        <v>0.9691329071935543</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8207,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>69.83415616972302</v>
+        <v>70.46461603794771</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8374,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9856551926577735</v>
+        <v>0.9858570087324443</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8389,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>69.49699648378763</v>
+        <v>69.95278865906516</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8547,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9632751462233006</v>
+        <v>0.9635829150682468</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8562,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>214.7509871343954</v>
+        <v>210.5243958686605</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8747,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9458965455770176</v>
+        <v>0.9469555465443406</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8762,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>102.0507942400304</v>
+        <v>103.1306567864656</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8917,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9860219478395439</v>
+        <v>0.9862331616390733</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8932,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.6288235099472</v>
+        <v>107.7758540784206</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9096,7 +9093,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9790180661126001</v>
+        <v>0.9775753940198222</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9111,7 +9108,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>153.8585342879594</v>
+        <v>155.4161746834389</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9269,7 +9266,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9485105427378435</v>
+        <v>0.9477360378143581</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9284,7 +9281,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>85.74312012791044</v>
+        <v>86.85239633351651</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9442,7 +9439,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.989256435943983</v>
+        <v>0.9893522669028043</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9457,7 +9454,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>118.3790019892255</v>
+        <v>119.2519501739487</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9621,7 +9618,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.952131360792319</v>
+        <v>0.9519705037462785</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9636,7 +9633,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>124.6461624767668</v>
+        <v>124.9819839911078</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9794,7 +9791,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9839659781790235</v>
+        <v>0.9842243304559627</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9809,7 +9806,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>103.4648171307507</v>
+        <v>104.1855058058009</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9988,7 +9985,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9838066867983839</v>
+        <v>0.9831938717868949</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10003,7 +10000,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>81.20655801349766</v>
+        <v>81.99277315382962</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10158,7 +10155,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9710000185085784</v>
+        <v>0.9696620427438069</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10173,7 +10170,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>109.2714609896068</v>
+        <v>109.9634735382478</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10343,7 +10340,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9966157410035832</v>
+        <v>0.9964619757759763</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10358,7 +10355,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>133.4103410976611</v>
+        <v>134.2104604018601</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10534,7 +10531,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9843311689744347</v>
+        <v>0.9841422431422036</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10549,7 +10546,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.89029862470792</v>
+        <v>67.05857050264908</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9846755358979438</v>
+        <v>0.9829339285226594</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>109.3317360333046</v>
+        <v>111.2094351783776</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9197895015561236</v>
+        <v>0.9184192643599954</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>207.1881200221383</v>
+        <v>212.6697341800737</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1767,6 +1767,9 @@
       </c>
       <c r="AM3">
         <v>25473</v>
+      </c>
+      <c r="AP3">
+        <v>377</v>
       </c>
       <c r="AS3">
         <v>3</v>
@@ -1888,7 +1891,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9541337270733433</v>
+        <v>0.9579977166995235</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1906,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>102.5208769078519</v>
+        <v>104.5539434018702</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2082,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9842980721887334</v>
+        <v>0.9851918007434819</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2097,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>135.7998302638499</v>
+        <v>137.9001160982307</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2261,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9835484651536792</v>
+        <v>0.9831707799915685</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2276,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>149.8593472661307</v>
+        <v>153.030222218049</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2440,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.990082886868127</v>
+        <v>0.9903223113205581</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2455,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>71.29799630710755</v>
+        <v>72.08298352389457</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2619,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9758732931891934</v>
+        <v>0.976267618986174</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2634,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>170.7989973860036</v>
+        <v>172.8690119933291</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2795,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9780223625156493</v>
+        <v>0.9787916160896557</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2810,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>149.3568072368352</v>
+        <v>151.0782555699774</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2962,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9750523765660117</v>
+        <v>0.9755198241629248</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2977,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>181.8209228198876</v>
+        <v>186.5232609050013</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3141,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9008444065735961</v>
+        <v>0.9036900232010304</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3156,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>123.5222550873884</v>
+        <v>126.4646563540664</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3311,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9696671112938976</v>
+        <v>0.967920668024699</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3326,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>107.8975742246836</v>
+        <v>109.8922359298351</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3487,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8861614164981293</v>
+        <v>0.8864261015845671</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3502,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>56.50993211149618</v>
+        <v>57.46407602658853</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3657,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8694618374213889</v>
+        <v>0.8710958668247584</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3672,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>64.12947020152329</v>
+        <v>66.23567238430003</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3833,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9720092884749514</v>
+        <v>0.9726962087629041</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3848,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>169.976423055373</v>
+        <v>172.1800022448656</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4012,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9908100580391148</v>
+        <v>0.9911972178684503</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4027,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>90.22035300268111</v>
+        <v>91.00198253945923</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4194,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9886068589680579</v>
+        <v>0.9892900380462214</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4209,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>128.6042106876339</v>
+        <v>130.0366227513471</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4379,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9819912023707622</v>
+        <v>0.9820089666737953</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4394,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>80.61733149458865</v>
+        <v>81.85950634192105</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4555,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9958092541864663</v>
+        <v>0.9947627092895367</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4570,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>108.6787999645659</v>
+        <v>109.4017290158455</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4737,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9598481520144263</v>
+        <v>0.9575170361077578</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4752,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>201.6275184776867</v>
+        <v>206.1051420860007</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4916,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9946507796143179</v>
+        <v>0.9944570858387913</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4931,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>92.84242179143952</v>
+        <v>94.49200090052227</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5107,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9774127055478352</v>
+        <v>0.9779480279004744</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5122,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>114.5467294404333</v>
+        <v>116.0055295548266</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5295,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9724950176897755</v>
+        <v>0.9729561395944393</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5310,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>135.97903554958</v>
+        <v>136.0971773562069</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5471,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9913149434050659</v>
+        <v>0.991204080641566</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5486,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>136.6764502795279</v>
+        <v>138.7785502917287</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5671,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9780231183665592</v>
+        <v>0.9789083405863999</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5686,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>149.6252817182319</v>
+        <v>151.9783838974696</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5862,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9916519065963532</v>
+        <v>0.9907861558728912</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5877,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>120.0878384536077</v>
+        <v>121.1945324466214</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6044,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9851538968946193</v>
+        <v>0.9831994364234963</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6059,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>80.59892927416752</v>
+        <v>82.33314609957209</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6229,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8039428646962827</v>
+        <v>0.8073365912867753</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6244,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>111.7056308916347</v>
+        <v>114.4600347045092</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6399,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9683692071202814</v>
+        <v>0.9689718898997279</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6414,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>118.6417505842797</v>
+        <v>119.4780493834068</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6557,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9448693706744661</v>
+        <v>0.9429902811578827</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6572,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>124.8441064432403</v>
+        <v>126.393897983228</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6727,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9790350767118915</v>
+        <v>0.9789710138323632</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6742,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.7523712046543</v>
+        <v>109.552941720077</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6906,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9805792608072198</v>
+        <v>0.9807577567226557</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6921,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>209.2123578830217</v>
+        <v>209.7521311107029</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7094,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9955601001243164</v>
+        <v>0.9956744301264026</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7109,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>203.1253915844367</v>
+        <v>205.586729396294</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7273,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9817231971174708</v>
+        <v>0.9812672140136475</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7288,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>243.6127754001549</v>
+        <v>246.0200383817607</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7455,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957261486666579</v>
+        <v>0.9957797596477935</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7470,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>124.8909631002008</v>
+        <v>127.6280524100088</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7625,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9874752596307773</v>
+        <v>0.9877713484685304</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7640,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>156.2663704412037</v>
+        <v>156.9190944085682</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7804,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9912414019017247</v>
+        <v>0.9908588351357179</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7819,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>91.02855839527808</v>
+        <v>92.91062016477112</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8001,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9553837319069653</v>
+        <v>0.9555166807262254</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8016,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>113.4754645206093</v>
+        <v>114.8941814649441</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8192,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9691329071935543</v>
+        <v>0.9689622362230914</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8207,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>70.46461603794771</v>
+        <v>71.68717955145753</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8374,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9858570087324443</v>
+        <v>0.9862266735453183</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8389,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>69.95278865906516</v>
+        <v>70.85370320695391</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8547,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9635829150682468</v>
+        <v>0.9641935973374268</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8562,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>210.5243958686605</v>
+        <v>202.6848727155622</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8747,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9469555465443406</v>
+        <v>0.9490789763141101</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8762,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>103.1306567864656</v>
+        <v>105.3969395360071</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8917,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9862331616390733</v>
+        <v>0.9866151604291752</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8932,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.7758540784206</v>
+        <v>108.0032009919077</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9093,7 +9096,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9775753940198222</v>
+        <v>0.975547557406434</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9108,7 +9111,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>155.4161746834389</v>
+        <v>158.5469369886858</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9266,7 +9269,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9477360378143581</v>
+        <v>0.947552072110911</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9281,7 +9284,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>86.85239633351651</v>
+        <v>89.19412962039972</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9439,7 +9442,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9893522669028043</v>
+        <v>0.9896089170460539</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9454,7 +9457,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>119.2519501739487</v>
+        <v>120.9977022102963</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9618,7 +9621,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9519705037462785</v>
+        <v>0.9515603745567816</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9633,7 +9636,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>124.9819839911078</v>
+        <v>125.8911142975777</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9791,7 +9794,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9842243304559627</v>
+        <v>0.9848016007609566</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9806,7 +9809,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>104.1855058058009</v>
+        <v>105.6511035191519</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9985,7 +9988,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9831938717868949</v>
+        <v>0.9820548582677501</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10000,7 +10003,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>81.99277315382962</v>
+        <v>83.79234458754952</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10155,7 +10158,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9696620427438069</v>
+        <v>0.9678696413864699</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10170,7 +10173,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>109.9634735382478</v>
+        <v>111.5237341997298</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10340,7 +10343,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9964619757759763</v>
+        <v>0.9961613380004337</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10355,7 +10358,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>134.2104604018601</v>
+        <v>135.6687329907895</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10531,7 +10534,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9841422431422036</v>
+        <v>0.9839848285795396</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10546,7 +10549,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.05857050264908</v>
+        <v>67.25693654193542</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9829339285226594</v>
+        <v>0.9823317780511056</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>111.2094351783776</v>
+        <v>112.0970996260279</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1574,6 +1574,9 @@
       <c r="X2">
         <v>110893</v>
       </c>
+      <c r="Z2">
+        <v>481</v>
+      </c>
       <c r="AA2">
         <v>1207</v>
       </c>
@@ -1675,6 +1678,9 @@
       </c>
       <c r="BQ2">
         <v>3.964778022022376</v>
+      </c>
+      <c r="BR2">
+        <v>2.682145076373832</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -1715,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9184192643599954</v>
+        <v>0.9173804334197236</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>212.6697341800737</v>
+        <v>215.3318490087498</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1891,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9579977166995235</v>
+        <v>0.9598632081145558</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1906,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>104.5539434018702</v>
+        <v>105.5345633236101</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2082,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9851918007434819</v>
+        <v>0.9856344747889499</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2097,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>137.9001160982307</v>
+        <v>139.0013107612058</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2261,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9831707799915685</v>
+        <v>0.9829135310220543</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2276,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>153.030222218049</v>
+        <v>154.6190192090321</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2440,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9903223113205581</v>
+        <v>0.9904193589308732</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2455,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>72.08298352389457</v>
+        <v>72.50229592026808</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2619,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.976267618986174</v>
+        <v>0.9764624664618735</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2634,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>172.8690119933291</v>
+        <v>173.9754894794027</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2675,8 +2681,8 @@
       <c r="AL8">
         <v>9389</v>
       </c>
-      <c r="AP8">
-        <v>32411</v>
+      <c r="AM8">
+        <v>123569</v>
       </c>
       <c r="AQ8">
         <v>2436</v>
@@ -2795,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9787916160896557</v>
+        <v>0.9791709977523809</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2810,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>151.0782555699774</v>
+        <v>152.0530925424271</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9755198241629248</v>
+        <v>0.9757851385013832</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>186.5232609050013</v>
+        <v>188.9987396653084</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9036900232010304</v>
+        <v>0.9056806482809173</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>126.4646563540664</v>
+        <v>127.8940862349322</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.967920668024699</v>
+        <v>0.9673928036710064</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>109.8922359298351</v>
+        <v>110.8757412821558</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3496,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8864261015845671</v>
+        <v>0.8869997991048317</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3511,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>57.46407602658853</v>
+        <v>57.91076573884317</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3666,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8710958668247584</v>
+        <v>0.8728098065379426</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3681,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>66.23567238430003</v>
+        <v>67.2712071869677</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3842,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9726962087629041</v>
+        <v>0.973043491835746</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3857,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>172.1800022448656</v>
+        <v>173.2520002845196</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4021,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9911972178684503</v>
+        <v>0.9913752863922061</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4036,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>91.00198253945923</v>
+        <v>91.3964712569974</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4203,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9892900380462214</v>
+        <v>0.9896100560830215</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4218,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>130.0366227513471</v>
+        <v>130.6773436556379</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4388,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9820089666737953</v>
+        <v>0.9820618146403685</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4403,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>81.85950634192105</v>
+        <v>82.47610817953525</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4564,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9947627092895367</v>
+        <v>0.9942154848934773</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4579,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>109.4017290158455</v>
+        <v>109.8517128383587</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4746,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9575170361077578</v>
+        <v>0.9565021488158852</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4761,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>206.1051420860007</v>
+        <v>208.4303875310337</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4925,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9944570858387913</v>
+        <v>0.9943474921411883</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4940,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>94.49200090052227</v>
+        <v>95.33235138484868</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5116,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9779480279004744</v>
+        <v>0.9782463985591207</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5131,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>116.0055295548266</v>
+        <v>116.7614577722154</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5304,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9729561395944393</v>
+        <v>0.9731869201233115</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5319,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.0971773562069</v>
+        <v>136.1443403441897</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5480,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.991204080641566</v>
+        <v>0.9911384292797182</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5495,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>138.7785502917287</v>
+        <v>139.8140329330828</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5680,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9789083405863999</v>
+        <v>0.9793376349088763</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5695,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>151.9783838974696</v>
+        <v>153.0911248510353</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5871,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9907861558728912</v>
+        <v>0.9900684768022604</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5886,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>121.1945324466214</v>
+        <v>121.8119575741952</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9831994364234963</v>
+        <v>0.9821394432011654</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6068,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>82.33314609957209</v>
+        <v>83.19363526599588</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6238,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8073365912867753</v>
+        <v>0.8104857100362421</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6253,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>114.4600347045092</v>
+        <v>115.8839516094588</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6408,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9689718898997279</v>
+        <v>0.9693734218991342</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6423,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>119.4780493834068</v>
+        <v>119.8999182149937</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6566,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9429902811578827</v>
+        <v>0.9427763816423789</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6581,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>126.393897983228</v>
+        <v>127.108749262356</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6736,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9789710138323632</v>
+        <v>0.9789635765691086</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6751,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.552941720077</v>
+        <v>109.4283149372465</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6915,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9807577567226557</v>
+        <v>0.9808311004593986</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6930,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>209.7521311107029</v>
+        <v>209.9530244942026</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7103,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9956744301264026</v>
+        <v>0.9957198732393396</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7118,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>205.586729396294</v>
+        <v>206.8517789707869</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7282,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9812672140136475</v>
+        <v>0.9810158981828868</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7297,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>246.0200383817607</v>
+        <v>247.1765753699808</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7464,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957797596477935</v>
+        <v>0.9958345802460273</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7479,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>127.6280524100088</v>
+        <v>129.0418432518819</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7634,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9877713484685304</v>
+        <v>0.9878907596780842</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7649,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>156.9190944085682</v>
+        <v>157.2614501175959</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7813,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9908588351357179</v>
+        <v>0.9907310756972336</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7828,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>92.91062016477112</v>
+        <v>93.82645387249795</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8010,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9555166807262254</v>
+        <v>0.9557682388340141</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8025,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>114.8941814649441</v>
+        <v>115.7580832087765</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8201,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9689622362230914</v>
+        <v>0.9691201791670938</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8216,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>71.68717955145753</v>
+        <v>72.28568225926092</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8383,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9862266735453183</v>
+        <v>0.9864026560560183</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8398,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>70.85370320695391</v>
+        <v>71.30383956506671</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8556,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9641935973374268</v>
+        <v>0.9645204056658364</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8571,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>202.6848727155622</v>
+        <v>199.1216771994427</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8756,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9490789763141101</v>
+        <v>0.9503005145766332</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8771,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>105.3969395360071</v>
+        <v>106.51888452331</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8926,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9866151604291752</v>
+        <v>0.986809988074721</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8941,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.0032009919077</v>
+        <v>108.1098898813356</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9096,7 +9102,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.975547557406434</v>
+        <v>0.9747624975961158</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9111,7 +9117,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>158.5469369886858</v>
+        <v>160.1110262124961</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9269,7 +9275,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.947552072110911</v>
+        <v>0.9480436568526369</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9284,7 +9290,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>89.19412962039972</v>
+        <v>90.35649953037105</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9442,7 +9448,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9896089170460539</v>
+        <v>0.9898432110703443</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9457,7 +9463,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>120.9977022102963</v>
+        <v>121.8586223446125</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9621,7 +9627,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9515603745567816</v>
+        <v>0.9513772746702988</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9636,7 +9642,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>125.8911142975777</v>
+        <v>126.3606626610347</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9794,7 +9800,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9848016007609566</v>
+        <v>0.9851060828728514</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9809,7 +9815,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>105.6511035191519</v>
+        <v>106.4067181545074</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9988,7 +9994,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9820548582677501</v>
+        <v>0.98157843680156</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10003,7 +10009,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>83.79234458754952</v>
+        <v>84.73793627494103</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10158,7 +10164,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9678696413864699</v>
+        <v>0.9673861711045126</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10173,7 +10179,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>111.5237341997298</v>
+        <v>112.377235135716</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10343,7 +10349,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9961613380004337</v>
+        <v>0.9959526255744556</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10358,7 +10364,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>135.6687329907895</v>
+        <v>136.3967771327629</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10534,7 +10540,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9839848285795396</v>
+        <v>0.9837877574416013</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10549,7 +10555,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.25693654193542</v>
+        <v>67.29715064201466</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9823317780511056</v>
+        <v>0.9820477690342322</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>112.0970996260279</v>
+        <v>112.9756179887833</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1721,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9173804334197236</v>
+        <v>0.916828292258153</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1736,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>215.3318490087498</v>
+        <v>218.2410348079311</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9598632081145558</v>
+        <v>0.9635621960619738</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>105.5345633236101</v>
+        <v>106.4478974773873</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2088,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9856344747889499</v>
+        <v>0.9866788776435739</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2103,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>139.0013107612058</v>
+        <v>139.9707874373681</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9829135310220543</v>
+        <v>0.9827456593965473</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2282,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>154.6190192090321</v>
+        <v>156.2121363262306</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2446,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9904193589308732</v>
+        <v>0.990589233160092</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2461,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>72.50229592026808</v>
+        <v>72.91653993826708</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2625,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9764624664618735</v>
+        <v>0.9768445093391237</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2640,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>173.9754894794027</v>
+        <v>175.1041030536662</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2801,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9791709977523809</v>
+        <v>0.9798654258860626</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2816,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>152.0530925424271</v>
+        <v>152.9485545116056</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2971,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9757851385013832</v>
+        <v>0.9763377949419051</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2986,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>188.9987396653084</v>
+        <v>191.5359295950973</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9056806482809173</v>
+        <v>0.9110071944273233</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3165,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>127.8940862349322</v>
+        <v>129.3141677622065</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3320,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9673928036710064</v>
+        <v>0.9672693780293491</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3335,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>110.8757412821558</v>
+        <v>111.8551271288417</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3496,7 +3496,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8869997991048317</v>
+        <v>0.8893098532278121</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3511,7 +3511,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>57.91076573884317</v>
+        <v>58.35504650774057</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3666,7 +3666,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8728098065379426</v>
+        <v>0.8785670126134868</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3681,7 +3681,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>67.2712071869677</v>
+        <v>68.30126913482619</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3842,7 +3842,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.973043491835746</v>
+        <v>0.9737456744540239</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3857,7 +3857,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>173.2520002845196</v>
+        <v>174.3418401473477</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4021,7 +4021,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9913752863922061</v>
+        <v>0.9917211484857182</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4036,7 +4036,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>91.3964712569974</v>
+        <v>91.79751443283595</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4203,7 +4203,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9896100560830215</v>
+        <v>0.9901893857364696</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4218,7 +4218,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>130.6773436556379</v>
+        <v>131.2789354916849</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4388,7 +4388,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9820618146403685</v>
+        <v>0.98228864261994</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4403,7 +4403,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>82.47610817953525</v>
+        <v>83.15030207980715</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4564,7 +4564,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9942154848934773</v>
+        <v>0.9934618385740891</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4579,7 +4579,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>109.8517128383587</v>
+        <v>110.345717450097</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4746,7 +4746,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9565021488158852</v>
+        <v>0.9550940539934156</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4761,7 +4761,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>208.4303875310337</v>
+        <v>210.8702739319087</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4925,7 +4925,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9943474921411883</v>
+        <v>0.993997142516223</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4940,7 +4940,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>95.33235138484868</v>
+        <v>96.18768353703851</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5116,7 +5116,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9782463985591207</v>
+        <v>0.9788055217414873</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5131,7 +5131,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>116.7614577722154</v>
+        <v>117.5815384927219</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5304,7 +5304,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9731869201233115</v>
+        <v>0.9736417350357514</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5319,7 +5319,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.1443403441897</v>
+        <v>136.2011888696737</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5480,7 +5480,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9911384292797182</v>
+        <v>0.991033877500644</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5495,7 +5495,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>139.8140329330828</v>
+        <v>140.8828566146071</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5680,7 +5680,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9793376349088763</v>
+        <v>0.9800671057058203</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5695,7 +5695,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>153.0911248510353</v>
+        <v>154.1706508020548</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5871,7 +5871,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9900684768022604</v>
+        <v>0.9888193185040112</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5886,7 +5886,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>121.8119575741952</v>
+        <v>122.4744923373617</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6053,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9821394432011654</v>
+        <v>0.9801075395558667</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6068,7 +6068,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>83.19363526599588</v>
+        <v>84.04202807389406</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6238,7 +6238,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8104857100362421</v>
+        <v>0.8195878892206189</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6253,7 +6253,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>115.8839516094588</v>
+        <v>117.2939961433221</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6408,7 +6408,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9693734218991342</v>
+        <v>0.9701802536110411</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6423,7 +6423,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>119.8999182149937</v>
+        <v>120.3523856256218</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6566,7 +6566,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9427763816423789</v>
+        <v>0.9436025856408063</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6581,7 +6581,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>127.108749262356</v>
+        <v>127.8114926794709</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6736,7 +6736,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9789635765691086</v>
+        <v>0.978984822833333</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6751,7 +6751,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.4283149372465</v>
+        <v>109.2784552811036</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6915,7 +6915,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9808311004593986</v>
+        <v>0.9809451388633182</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6930,7 +6930,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>209.9530244942026</v>
+        <v>210.1701424183689</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7103,7 +7103,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9957198732393396</v>
+        <v>0.9958503784585572</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7118,7 +7118,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>206.8517789707869</v>
+        <v>208.0628336941604</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7282,7 +7282,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9810158981828868</v>
+        <v>0.9804862244680527</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7297,7 +7297,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>247.1765753699808</v>
+        <v>248.3238666099947</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7464,7 +7464,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958345802460273</v>
+        <v>0.996032863737249</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7479,7 +7479,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>129.0418432518819</v>
+        <v>130.4791180692642</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7634,7 +7634,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9878907596780842</v>
+        <v>0.9880007111554796</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7649,7 +7649,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>157.2614501175959</v>
+        <v>157.6421059078353</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7813,7 +7813,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9907310756972336</v>
+        <v>0.9906151609052579</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7828,7 +7828,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>93.82645387249795</v>
+        <v>94.74127235427068</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8010,7 +8010,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9557682388340141</v>
+        <v>0.9565922617875903</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8025,7 +8025,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>115.7580832087765</v>
+        <v>116.6230655045403</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8201,7 +8201,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9691201791670938</v>
+        <v>0.9701506816691329</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8216,7 +8216,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>72.28568225926092</v>
+        <v>72.91035344868594</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8383,7 +8383,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9864026560560183</v>
+        <v>0.986737262204141</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8398,7 +8398,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>71.30383956506671</v>
+        <v>71.75739050890321</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8556,7 +8556,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9645204056658364</v>
+        <v>0.9651719821565659</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8571,7 +8571,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>199.1216771994427</v>
+        <v>195.7522905356195</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8756,7 +8756,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9503005145766332</v>
+        <v>0.9533471586058981</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8771,7 +8771,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>106.51888452331</v>
+        <v>107.6313824257269</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8926,7 +8926,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.986809988074721</v>
+        <v>0.9871571769848252</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8941,7 +8941,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.1098898813356</v>
+        <v>108.226989685128</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9102,7 +9102,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9747624975961158</v>
+        <v>0.9739088342450597</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9117,7 +9117,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>160.1110262124961</v>
+        <v>161.7074998255246</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9275,7 +9275,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9480436568526369</v>
+        <v>0.9496560996041479</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9290,7 +9290,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>90.35649953037105</v>
+        <v>91.51952602139384</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9448,7 +9448,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9898432110703443</v>
+        <v>0.9904580874559522</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9463,7 +9463,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>121.8586223446125</v>
+        <v>122.7064420348376</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9627,7 +9627,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9513772746702988</v>
+        <v>0.9512426655266469</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9642,7 +9642,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>126.3606626610347</v>
+        <v>126.8037238998341</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9800,7 +9800,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9851060828728514</v>
+        <v>0.9856699681607389</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9815,7 +9815,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>106.4067181545074</v>
+        <v>107.1522869239695</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9994,7 +9994,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.98157843680156</v>
+        <v>0.9811972189158158</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10009,7 +10009,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>84.73793627494103</v>
+        <v>85.69181308467797</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10164,7 +10164,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9673861711045126</v>
+        <v>0.9677739847469756</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10179,7 +10179,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>112.377235135716</v>
+        <v>113.1830038599995</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10349,7 +10349,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9959526255744556</v>
+        <v>0.9957738792760068</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10364,7 +10364,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>136.3967771327629</v>
+        <v>137.1502453844659</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10540,7 +10540,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9837877574416013</v>
+        <v>0.9836479069303654</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10555,7 +10555,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.29715064201466</v>
+        <v>67.3015454387013</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9820477690342322</v>
+        <v>0.9810239348023206</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>112.9756179887833</v>
+        <v>114.7287047773405</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1721,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.916828292258153</v>
+        <v>0.9156727948786029</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1736,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>218.2410348079311</v>
+        <v>224.6649750404401</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9635621960619738</v>
+        <v>0.9652045884089987</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>106.4478974773873</v>
+        <v>108.1836859159296</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2088,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9866788776435739</v>
+        <v>0.9868313796269387</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2103,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>139.9707874373681</v>
+        <v>142.0158376968431</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9827456593965473</v>
+        <v>0.9822244731217595</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2282,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>156.2121363262306</v>
+        <v>159.3796374581826</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2446,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.990589233160092</v>
+        <v>0.9904928140056239</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2461,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>72.91653993826708</v>
+        <v>73.75946039340593</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2625,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9768445093391237</v>
+        <v>0.977035428928456</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2640,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>175.1041030536662</v>
+        <v>177.6844217973481</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2801,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9798654258860626</v>
+        <v>0.9802658571735129</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2816,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>152.9485545116056</v>
+        <v>154.7759739780635</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2971,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9763377949419051</v>
+        <v>0.9766433767402425</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2986,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>191.5359295950973</v>
+        <v>196.4998168430019</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9110071944273233</v>
+        <v>0.9126874124377051</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3165,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>129.3141677622065</v>
+        <v>132.1567504403416</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3320,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9672693780293491</v>
+        <v>0.9661941536456541</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3335,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>111.8551271288417</v>
+        <v>113.9074856131877</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3349,6 +3349,9 @@
       <c r="X12">
         <v>195461</v>
       </c>
+      <c r="Z12">
+        <v>1227</v>
+      </c>
       <c r="AA12">
         <v>5935</v>
       </c>
@@ -3450,6 +3453,9 @@
       </c>
       <c r="BQ12">
         <v>4.506586201357899</v>
+      </c>
+      <c r="BR12">
+        <v>3.088844562727004</v>
       </c>
     </row>
     <row r="13" spans="1:72">
@@ -3496,7 +3502,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8893098532278121</v>
+        <v>0.8883890653737913</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3511,7 +3517,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>58.35504650774057</v>
+        <v>59.21799938346824</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3666,7 +3672,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8785670126134868</v>
+        <v>0.8805838304818788</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3681,7 +3687,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>68.30126913482619</v>
+        <v>70.35371674340952</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3842,7 +3848,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9737456744540239</v>
+        <v>0.9741936536838798</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3857,7 +3863,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>174.3418401473477</v>
+        <v>176.5862480066188</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4021,7 +4027,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9917211484857182</v>
+        <v>0.9917932685219614</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4036,7 +4042,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>91.79751443283595</v>
+        <v>92.67544759267646</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4203,7 +4209,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9901893857364696</v>
+        <v>0.9905108567054486</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4218,7 +4224,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>131.2789354916849</v>
+        <v>132.6030111284266</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4388,7 +4394,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.98228864261994</v>
+        <v>0.9819584466243872</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4403,7 +4409,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>83.15030207980715</v>
+        <v>84.42419490576276</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4564,7 +4570,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9934618385740891</v>
+        <v>0.9923664501510822</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4579,7 +4585,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>110.345717450097</v>
+        <v>111.3160415775529</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4746,7 +4752,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9550940539934156</v>
+        <v>0.9536687116231267</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4761,7 +4767,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>210.8702739319087</v>
+        <v>215.8024848695253</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4925,7 +4931,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.993997142516223</v>
+        <v>0.9938845173136304</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4940,7 +4946,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>96.18768353703851</v>
+        <v>97.93248538780873</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5116,7 +5122,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9788055217414873</v>
+        <v>0.9791907964467672</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5131,7 +5137,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>117.5815384927219</v>
+        <v>119.1421262719741</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5304,7 +5310,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9736417350357514</v>
+        <v>0.9738784375732076</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5319,7 +5325,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.2011888696737</v>
+        <v>136.2113349653757</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5480,7 +5486,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.991033877500644</v>
+        <v>0.9908820905611132</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5495,7 +5501,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>140.8828566146071</v>
+        <v>143.0591062077767</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5680,7 +5686,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9800671057058203</v>
+        <v>0.9806524254071292</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5695,7 +5701,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>154.1706508020548</v>
+        <v>156.3902775829828</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5871,7 +5877,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9888193185040112</v>
+        <v>0.9875513277766244</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5886,7 +5892,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>122.4744923373617</v>
+        <v>123.6613668583961</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6053,7 +6059,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9801075395558667</v>
+        <v>0.9767726403911362</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6068,7 +6074,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>84.04202807389406</v>
+        <v>85.78717838739263</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6238,7 +6244,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8195878892206189</v>
+        <v>0.8221373650000003</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6253,7 +6259,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>117.2939961433221</v>
+        <v>120.1131233286544</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6408,7 +6414,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9701802536110411</v>
+        <v>0.9708359786097692</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6423,7 +6429,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>120.3523856256218</v>
+        <v>121.2496545284262</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6566,7 +6572,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9436025856408063</v>
+        <v>0.9429364228649074</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6581,7 +6587,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>127.8114926794709</v>
+        <v>129.3747112070585</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6736,7 +6742,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.978984822833333</v>
+        <v>0.9791040298943022</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6751,7 +6757,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.2784552811036</v>
+        <v>109.0500084867874</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6915,7 +6921,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9809451388633182</v>
+        <v>0.9809742186743731</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6930,7 +6936,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>210.1701424183689</v>
+        <v>210.6261438421502</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7103,7 +7109,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9958503784585572</v>
+        <v>0.9957626987031646</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7118,7 +7124,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>208.0628336941604</v>
+        <v>210.5460257844088</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7282,7 +7288,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9804862244680527</v>
+        <v>0.9801716883942494</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7297,7 +7303,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>248.3238666099947</v>
+        <v>250.6248435356717</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7464,7 +7470,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.996032863737249</v>
+        <v>0.9959941591843479</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7479,7 +7485,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>130.4791180692642</v>
+        <v>133.3683088180352</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7634,7 +7640,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9880007111554796</v>
+        <v>0.9876136567426929</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7649,7 +7655,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>157.6421059078353</v>
+        <v>158.4390010125987</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7813,7 +7819,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9906151609052579</v>
+        <v>0.9902496382232818</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7828,7 +7834,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>94.74127235427068</v>
+        <v>96.58631281545433</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8010,7 +8016,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9565922617875903</v>
+        <v>0.9559312667264017</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8025,7 +8031,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>116.6230655045403</v>
+        <v>118.3619877328934</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8201,7 +8207,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9701506816691329</v>
+        <v>0.970180691849223</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8216,7 +8222,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>72.91035344868594</v>
+        <v>74.18745536081329</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8383,7 +8389,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.986737262204141</v>
+        <v>0.9868415489532678</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8398,7 +8404,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>71.75739050890321</v>
+        <v>72.6738793396883</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8556,7 +8562,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9651719821565659</v>
+        <v>0.9655339223354067</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8571,7 +8577,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>195.7522905356195</v>
+        <v>189.5502771290765</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8756,7 +8762,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9533471586058981</v>
+        <v>0.9543925412241833</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8771,7 +8777,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>107.6313824257269</v>
+        <v>109.8062138334217</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8926,7 +8932,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9871571769848252</v>
+        <v>0.9873926467580905</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8941,7 +8947,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.226989685128</v>
+        <v>108.5053210743456</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9102,7 +9108,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9739088342450597</v>
+        <v>0.972569154728224</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9117,7 +9123,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>161.7074998255246</v>
+        <v>165.0938489129883</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9275,7 +9281,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9496560996041479</v>
+        <v>0.9499262899096957</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9290,7 +9296,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>91.51952602139384</v>
+        <v>93.8547160122084</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9448,7 +9454,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9904580874559522</v>
+        <v>0.9906248067444375</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9463,7 +9469,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>122.7064420348376</v>
+        <v>124.3432579411023</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9627,7 +9633,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9512426655266469</v>
+        <v>0.9510247849462709</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9642,7 +9648,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>126.8037238998341</v>
+        <v>127.6519205663788</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9800,7 +9806,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9856699681607389</v>
+        <v>0.9860470669624752</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9815,7 +9821,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>107.1522869239695</v>
+        <v>108.6887444570747</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9994,7 +10000,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9811972189158158</v>
+        <v>0.9807136588818982</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10009,7 +10015,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>85.69181308467797</v>
+        <v>87.61109863592839</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10164,7 +10170,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9677739847469756</v>
+        <v>0.9659556222203279</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10179,7 +10185,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>113.1830038599995</v>
+        <v>115.0654864023806</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10349,7 +10355,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9957738792760068</v>
+        <v>0.9953188524371267</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10364,7 +10370,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>137.1502453844659</v>
+        <v>138.756913896743</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10540,7 +10546,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9836479069303654</v>
+        <v>0.9828896848477257</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10555,7 +10561,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.3015454387013</v>
+        <v>67.94844361285621</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9810239348023206</v>
+        <v>0.9806389352996986</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>114.7287047773405</v>
+        <v>115.6300787158916</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1721,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9156727948786029</v>
+        <v>0.9156022309576749</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1736,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>224.6649750404401</v>
+        <v>228.1631917865879</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9652045884089987</v>
+        <v>0.9668029316308807</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>108.1836859159296</v>
+        <v>109.0978092130147</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2088,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9868313796269387</v>
+        <v>0.9871778223448647</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2103,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>142.0158376968431</v>
+        <v>142.9712695247469</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9822244731217595</v>
+        <v>0.9822639442551481</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2282,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>159.3796374581826</v>
+        <v>160.9753348381935</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2446,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9904928140056239</v>
+        <v>0.9904111751505498</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2461,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>73.75946039340593</v>
+        <v>74.1947063496511</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2625,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.977035428928456</v>
+        <v>0.9772199054586124</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2640,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>177.6844217973481</v>
+        <v>178.9124641586682</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2801,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9802658571735129</v>
+        <v>0.9806182145422323</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2816,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>154.7759739780635</v>
+        <v>155.6866826824244</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2971,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9766433767402425</v>
+        <v>0.9769347607741592</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2986,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>196.4998168430019</v>
+        <v>199.0255262726093</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9126874124377051</v>
+        <v>0.9150388260562963</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3165,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>132.1567504403416</v>
+        <v>133.5847343846077</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3320,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9661941536456541</v>
+        <v>0.9658701461379462</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3335,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>113.9074856131877</v>
+        <v>114.9997358717665</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3502,7 +3502,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8883890653737913</v>
+        <v>0.887759533467315</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3517,7 +3517,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>59.21799938346824</v>
+        <v>59.66959877803423</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3672,7 +3672,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8805838304818788</v>
+        <v>0.8845086420941861</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3687,7 +3687,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>70.35371674340952</v>
+        <v>71.3859996924605</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3848,7 +3848,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9741936536838798</v>
+        <v>0.9745928116382309</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3863,7 +3863,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>176.5862480066188</v>
+        <v>177.7286838441873</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4027,7 +4027,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9917932685219614</v>
+        <v>0.9918804269885909</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4042,7 +4042,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>92.67544759267646</v>
+        <v>93.14486911402065</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4209,7 +4209,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9905108567054486</v>
+        <v>0.9907916930571764</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4224,7 +4224,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>132.6030111284266</v>
+        <v>133.2253031804527</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4394,7 +4394,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9819584466243872</v>
+        <v>0.9819056081765527</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4409,7 +4409,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>84.42419490576276</v>
+        <v>85.02508180729215</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4570,7 +4570,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9923664501510822</v>
+        <v>0.9914444096702969</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4585,7 +4585,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>111.3160415775529</v>
+        <v>111.8207601593695</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4752,7 +4752,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9536687116231267</v>
+        <v>0.9535925878957743</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4767,7 +4767,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>215.8024848695253</v>
+        <v>218.0319788422502</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4931,7 +4931,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9938845173136304</v>
+        <v>0.9937732172756395</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4946,7 +4946,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>97.93248538780873</v>
+        <v>98.82217590964973</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5122,7 +5122,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9791907964467672</v>
+        <v>0.9795581737553603</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5137,7 +5137,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>119.1421262719741</v>
+        <v>120.0160313979858</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5310,7 +5310,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9738784375732076</v>
+        <v>0.9741054128858426</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5325,7 +5325,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.2113349653757</v>
+        <v>136.3615457351263</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5486,7 +5486,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9908820905611132</v>
+        <v>0.9907935336843154</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5501,7 +5501,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>143.0591062077767</v>
+        <v>144.0159226170045</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5686,7 +5686,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9806524254071292</v>
+        <v>0.9811275870724521</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5701,7 +5701,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>156.3902775829828</v>
+        <v>157.5350577769351</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5877,7 +5877,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9875513277766244</v>
+        <v>0.9866526614877759</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5892,7 +5892,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>123.6613668583961</v>
+        <v>124.3611733629757</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6059,7 +6059,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9767726403911362</v>
+        <v>0.9744245846835585</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6074,7 +6074,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>85.78717838739263</v>
+        <v>86.62092770504415</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6244,7 +6244,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8221373650000003</v>
+        <v>0.8246460399440625</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6259,7 +6259,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>120.1131233286544</v>
+        <v>121.4744931139895</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6414,7 +6414,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9708359786097692</v>
+        <v>0.9713601954106619</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6429,7 +6429,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>121.2496545284262</v>
+        <v>121.7099058302209</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6572,7 +6572,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9429364228649074</v>
+        <v>0.9434595024390762</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6587,7 +6587,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>129.3747112070585</v>
+        <v>130.2053653275822</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6742,7 +6742,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9791040298943022</v>
+        <v>0.9792172603779823</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6757,7 +6757,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.0500084867874</v>
+        <v>109.0136297021337</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6921,7 +6921,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9809742186743731</v>
+        <v>0.9809908819762727</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6936,7 +6936,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>210.6261438421502</v>
+        <v>210.7526660533225</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7109,7 +7109,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9957626987031646</v>
+        <v>0.9957561746384911</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7124,7 +7124,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>210.5460257844088</v>
+        <v>211.8225154952896</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7288,7 +7288,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9801716883942494</v>
+        <v>0.9798607274111423</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7303,7 +7303,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>250.6248435356717</v>
+        <v>251.7805194057853</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7470,7 +7470,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9959941591843479</v>
+        <v>0.9960575213871812</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7485,7 +7485,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>133.3683088180352</v>
+        <v>134.8005877028288</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7640,7 +7640,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9876136567426929</v>
+        <v>0.9874173494316124</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7655,7 +7655,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>158.4390010125987</v>
+        <v>158.8526186317498</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7819,7 +7819,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9902496382232818</v>
+        <v>0.9900835171818947</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7834,7 +7834,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>96.58631281545433</v>
+        <v>97.52656132093875</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8016,7 +8016,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9559312667264017</v>
+        <v>0.9557739005955634</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8031,7 +8031,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>118.3619877328934</v>
+        <v>119.7114704622792</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8207,7 +8207,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.970180691849223</v>
+        <v>0.9708943228576112</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8222,7 +8222,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>74.18745536081329</v>
+        <v>74.85926790510982</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8389,7 +8389,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9868415489532678</v>
+        <v>0.9869621471369637</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8404,7 +8404,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>72.6738793396883</v>
+        <v>73.15309221574493</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8562,7 +8562,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9655339223354067</v>
+        <v>0.9658615010034164</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8577,7 +8577,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>189.5502771290765</v>
+        <v>186.572142744966</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8762,7 +8762,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9543925412241833</v>
+        <v>0.9558660498285934</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8777,7 +8777,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>109.8062138334217</v>
+        <v>110.866518923546</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8932,7 +8932,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9873926467580905</v>
+        <v>0.9876068775096296</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8947,7 +8947,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.5053210743456</v>
+        <v>108.7218736759303</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9108,7 +9108,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.972569154728224</v>
+        <v>0.9722023198161301</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9123,7 +9123,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>165.0938489129883</v>
+        <v>166.6940613004851</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9281,7 +9281,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9499262899096957</v>
+        <v>0.9508788175247189</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9296,7 +9296,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>93.8547160122084</v>
+        <v>95.04912953505374</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9454,7 +9454,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9906248067444375</v>
+        <v>0.9908681900772718</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9469,7 +9469,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>124.3432579411023</v>
+        <v>125.1673241587488</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9633,7 +9633,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9510247849462709</v>
+        <v>0.9508800708127472</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9648,7 +9648,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>127.6519205663788</v>
+        <v>128.0823954961519</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9806,7 +9806,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9860470669624752</v>
+        <v>0.9863771583055562</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9821,7 +9821,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>108.6887444570747</v>
+        <v>109.4892077139644</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -10000,7 +10000,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9807136588818982</v>
+        <v>0.9804640633580589</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10015,7 +10015,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>87.61109863592839</v>
+        <v>88.56849991994127</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10170,7 +10170,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9659556222203279</v>
+        <v>0.9653181424269615</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10185,7 +10185,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>115.0654864023806</v>
+        <v>115.9794076736322</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10355,7 +10355,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9953188524371267</v>
+        <v>0.9950698477170741</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10370,7 +10370,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>138.756913896743</v>
+        <v>139.5935167165375</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10546,7 +10546,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9828896848477257</v>
+        <v>0.9826129104392988</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10561,7 +10561,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.94844361285621</v>
+        <v>68.19672301858947</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9806389352996986</v>
+        <v>0.980472084775576</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>115.6300787158916</v>
+        <v>117.3634284267826</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1721,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9156022309576749</v>
+        <v>0.9120969320136629</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1736,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>228.1631917865879</v>
+        <v>234.5507356178452</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9668029316308807</v>
+        <v>0.96983529625663</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>109.0978092130147</v>
+        <v>110.8219506562479</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2088,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9871778223448647</v>
+        <v>0.987914569589004</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2103,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>142.9712695247469</v>
+        <v>145.1743846022589</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9822639442551481</v>
+        <v>0.9827798556234691</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2282,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>160.9753348381935</v>
+        <v>164.1397854652976</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2446,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9904111751505498</v>
+        <v>0.9902796270662991</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2461,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>74.1947063496511</v>
+        <v>75.13608033144484</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2625,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9772199054586124</v>
+        <v>0.9775698103638611</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2640,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>178.9124641586682</v>
+        <v>181.3564700852025</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2801,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9806182145422323</v>
+        <v>0.9813035801213941</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2816,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>155.6866826824244</v>
+        <v>157.6060468997431</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2971,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9769347607741592</v>
+        <v>0.9774984887777792</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2986,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>199.0255262726093</v>
+        <v>203.9207238280825</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9150388260562963</v>
+        <v>0.9201820324814972</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3165,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>133.5847343846077</v>
+        <v>136.3492089836981</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3320,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9658701461379462</v>
+        <v>0.9659386437494931</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3335,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>114.9997358717665</v>
+        <v>117.149505250866</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3502,7 +3502,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.887759533467315</v>
+        <v>0.8863796639613866</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3517,7 +3517,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>59.66959877803423</v>
+        <v>60.50056871426185</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3672,7 +3672,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8845086420941861</v>
+        <v>0.8909868331662607</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3687,7 +3687,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>71.3859996924605</v>
+        <v>73.38290118142878</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3848,7 +3848,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9745928116382309</v>
+        <v>0.975392998539544</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3863,7 +3863,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>177.7286838441873</v>
+        <v>180.008394639908</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4027,7 +4027,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9918804269885909</v>
+        <v>0.9920321245191984</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4042,7 +4042,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>93.14486911402065</v>
+        <v>94.0813717844639</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4209,7 +4209,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9907916930571764</v>
+        <v>0.99131839550359</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4224,7 +4224,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>133.2253031804527</v>
+        <v>134.3731309330622</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4394,7 +4394,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9819056081765527</v>
+        <v>0.9820357316683759</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4409,7 +4409,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>85.02508180729215</v>
+        <v>86.01423846612732</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4570,7 +4570,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9914444096702969</v>
+        <v>0.990144103902015</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4585,7 +4585,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>111.8207601593695</v>
+        <v>112.6463398193139</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4752,7 +4752,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9535925878957743</v>
+        <v>0.9528451698366885</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4767,7 +4767,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>218.0319788422502</v>
+        <v>222.8297685622906</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4931,7 +4931,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9937732172756395</v>
+        <v>0.9935816939771702</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4946,7 +4946,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>98.82217590964973</v>
+        <v>100.5339162108572</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5122,7 +5122,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9795581737553603</v>
+        <v>0.9802997215684631</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5137,7 +5137,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>120.0160313979858</v>
+        <v>121.8060443152208</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5310,7 +5310,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9741054128858426</v>
+        <v>0.9745499300508289</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5325,7 +5325,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.3615457351263</v>
+        <v>136.6520489385664</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5486,7 +5486,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9907935336843154</v>
+        <v>0.9905457364070334</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5501,7 +5501,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>144.0159226170045</v>
+        <v>146.2825844175285</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5686,7 +5686,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9811275870724521</v>
+        <v>0.9820971210273231</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5701,7 +5701,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>157.5350577769351</v>
+        <v>159.8206566434599</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5877,7 +5877,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9866526614877759</v>
+        <v>0.9853570873661839</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5892,7 +5892,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>124.3611733629757</v>
+        <v>125.5741267151177</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6059,7 +6059,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9744245846835585</v>
+        <v>0.9700643389040383</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6074,7 +6074,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>86.62092770504415</v>
+        <v>88.26565477777611</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6244,7 +6244,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8246460399440625</v>
+        <v>0.8329251538090379</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6259,7 +6259,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>121.4744931139895</v>
+        <v>124.2196551413114</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6414,7 +6414,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9713601954106619</v>
+        <v>0.9724039621624819</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6429,7 +6429,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>121.7099058302209</v>
+        <v>122.6090357316056</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6572,7 +6572,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9434595024390762</v>
+        <v>0.9449781536118026</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6587,7 +6587,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>130.2053653275822</v>
+        <v>131.9070200837729</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6742,7 +6742,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9792172603779823</v>
+        <v>0.9794320722143408</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6757,7 +6757,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.0136297021337</v>
+        <v>108.877869791698</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6921,7 +6921,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9809908819762727</v>
+        <v>0.9809737099782178</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6936,7 +6936,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>210.7526660533225</v>
+        <v>211.5916764359679</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7109,7 +7109,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9957561746384911</v>
+        <v>0.9957138861046249</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7124,7 +7124,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>211.8225154952896</v>
+        <v>214.3997526405398</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7288,7 +7288,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9798607274111423</v>
+        <v>0.9792101957477035</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7303,7 +7303,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>251.7805194057853</v>
+        <v>253.9492304979184</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7470,7 +7470,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9960575213871812</v>
+        <v>0.9962417492543387</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7485,7 +7485,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>134.8005877028288</v>
+        <v>137.6684131855711</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7640,7 +7640,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9874173494316124</v>
+        <v>0.986874217154983</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7655,7 +7655,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>158.8526186317498</v>
+        <v>159.7944088751277</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7819,7 +7819,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9900835171818947</v>
+        <v>0.9899711296660363</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7834,7 +7834,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>97.52656132093875</v>
+        <v>99.46774381851212</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8016,7 +8016,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9557739005955634</v>
+        <v>0.9545845858233986</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8031,7 +8031,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>119.7114704622792</v>
+        <v>122.0541006001186</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8207,7 +8207,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9708943228576112</v>
+        <v>0.9717736956218676</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8222,7 +8222,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>74.85926790510982</v>
+        <v>76.1363943740908</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8389,7 +8389,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9869621471369637</v>
+        <v>0.9871817830238339</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8404,7 +8404,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>73.15309221574493</v>
+        <v>74.08208034672376</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8562,7 +8562,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9658615010034164</v>
+        <v>0.9665261369728924</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8577,7 +8577,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>186.572142744966</v>
+        <v>181.1371852128542</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8762,7 +8762,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9558660498285934</v>
+        <v>0.959045309517345</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8777,7 +8777,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>110.866518923546</v>
+        <v>112.9401732829895</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8932,7 +8932,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9876068775096296</v>
+        <v>0.9880425113772594</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8947,7 +8947,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.7218736759303</v>
+        <v>109.0632504812176</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9108,7 +9108,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9722023198161301</v>
+        <v>0.9712211827764404</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9123,7 +9123,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>166.6940613004851</v>
+        <v>170.3524901331481</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9281,7 +9281,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9508788175247189</v>
+        <v>0.9536635119578765</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9296,7 +9296,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>95.04912953505374</v>
+        <v>97.42775893019659</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9454,7 +9454,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9908681900772718</v>
+        <v>0.9914671943086004</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9469,7 +9469,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>125.1673241587488</v>
+        <v>126.7271505147703</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9633,7 +9633,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9508800708127472</v>
+        <v>0.9507359770323862</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9648,7 +9648,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>128.0823954961519</v>
+        <v>128.9056109050909</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9806,7 +9806,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9863771583055562</v>
+        <v>0.9870385233333023</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9821,7 +9821,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>109.4892077139644</v>
+        <v>111.0709478226904</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -10000,7 +10000,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9804640633580589</v>
+        <v>0.9802007965427905</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10015,7 +10015,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>88.56849991994127</v>
+        <v>90.56248436752142</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10170,7 +10170,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9653181424269615</v>
+        <v>0.9646800083170983</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10185,7 +10185,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>115.9794076736322</v>
+        <v>117.8792218068142</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10355,7 +10355,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9950698477170741</v>
+        <v>0.9946599128083584</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10370,7 +10370,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>139.5935167165375</v>
+        <v>141.1522757135532</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10546,7 +10546,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9826129104392988</v>
+        <v>0.9824160656032178</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10561,7 +10561,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>68.19672301858947</v>
+        <v>68.55630676350569</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>118.9427914285306</v>
+        <v>119.7150712174427</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1724,7 +1724,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>241.3539613318085</v>
+        <v>244.7267426546152</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>112.4629461129364</v>
+        <v>113.1876385557369</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>147.2391955861591</v>
+        <v>148.2429928267908</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2261,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>167.2331253473959</v>
+        <v>168.7398689712352</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>76.03917700083944</v>
+        <v>76.51251516707656</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2613,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>184.0181337208128</v>
+        <v>185.3756753076513</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>159.4460787731417</v>
+        <v>160.3287158623181</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2953,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>208.757583695431</v>
+        <v>211.1047716589786</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3129,7 +3129,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>138.9864144354273</v>
+        <v>140.2703549180721</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3296,7 +3296,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>119.3893481581063</v>
+        <v>120.5238890147951</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3475,7 +3475,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>61.24826551843105</v>
+        <v>61.66344816241569</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>75.28722826696053</v>
+        <v>76.20804853666439</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3815,7 +3815,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>182.1801987818213</v>
+        <v>183.2786530864253</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +3991,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>94.96724821484139</v>
+        <v>95.41674552880424</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>135.363878663812</v>
+        <v>135.860522540009</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4352,7 +4352,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>86.8474818504497</v>
+        <v>87.21736274299784</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4525,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>113.568784678353</v>
+        <v>114.0883498221132</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4704,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>227.5092293660796</v>
+        <v>229.8293872768343</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4880,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>102.1754308448815</v>
+        <v>103.0094787812074</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5068,7 +5068,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>123.5997464299343</v>
+        <v>124.4994403407301</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5253,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>136.8580949235572</v>
+        <v>137.0522288605821</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5426,7 +5426,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>148.7643598489531</v>
+        <v>150.054582441949</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5623,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>161.9421845151237</v>
+        <v>162.9849377044636</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5811,7 +5811,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>126.8391371531083</v>
+        <v>127.5198729744232</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +5990,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>89.92354848914786</v>
+        <v>90.76602143061487</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6172,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>127.1587586371965</v>
+        <v>128.6577134330011</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6339,7 +6339,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>123.4474622424448</v>
+        <v>123.8521135795866</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6494,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>133.5635858716335</v>
+        <v>134.3790158724835</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6661,7 +6661,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.7210115841673</v>
+        <v>108.6164211142477</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>212.4250545324983</v>
+        <v>212.9058733820604</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7022,7 +7022,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>217.049079474405</v>
+        <v>218.5477079839631</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>255.9815571066327</v>
+        <v>256.9924271438076</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7377,7 +7377,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>140.4607920060628</v>
+        <v>141.864269809664</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7544,7 +7544,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>160.7276835635074</v>
+        <v>161.1223565486369</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7720,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>101.6380164788142</v>
+        <v>102.7158782315234</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7914,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>124.664907962285</v>
+        <v>125.9873430854108</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8102,7 +8102,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>77.37143042318932</v>
+        <v>77.97268504774831</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8281,7 +8281,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>75.02255925211483</v>
+        <v>75.48946917526912</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8451,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>176.7027322451902</v>
+        <v>174.6620363112956</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8648,7 +8648,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>114.9993076714413</v>
+        <v>116.0120749138994</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8815,7 +8815,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.346792084536</v>
+        <v>109.4931472135123</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8988,7 +8988,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>173.8187747343279</v>
+        <v>175.6226831880502</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9158,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>99.7326261585925</v>
+        <v>100.8912607458503</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9328,7 +9328,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>128.1405208591082</v>
+        <v>128.8194057208504</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9504,7 +9504,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>129.6952382299841</v>
+        <v>130.0515352734144</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9674,7 +9674,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>112.6640611980494</v>
+        <v>113.468763100807</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9865,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>92.52652295271932</v>
+        <v>93.4848714535989</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10032,7 +10032,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>119.7921683310588</v>
+        <v>120.7346125567177</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10214,7 +10214,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>142.6971549438433</v>
+        <v>143.5109280432206</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10402,7 +10402,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>69.26964451872574</v>
+        <v>69.65224392916841</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>119.7150712174427</v>
+        <v>120.4806956408369</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1724,7 +1724,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>244.7267426546152</v>
+        <v>248.3333759992864</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>113.1876385557369</v>
+        <v>114.0167508247568</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>148.2429928267908</v>
+        <v>149.1339802666047</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2261,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>168.7398689712352</v>
+        <v>170.3016269206787</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>76.51251516707656</v>
+        <v>76.97973063750496</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2613,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>185.3756753076513</v>
+        <v>186.77835935081</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>160.3287158623181</v>
+        <v>161.1953614108766</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2953,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>211.1047716589786</v>
+        <v>213.6187470243432</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3129,7 +3129,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>140.2703549180721</v>
+        <v>141.5284770536351</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3296,7 +3296,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>120.5238890147951</v>
+        <v>121.6913899135403</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3475,7 +3475,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>61.66344816241569</v>
+        <v>62.10032005005609</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>76.20804853666439</v>
+        <v>77.14018431203898</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3815,7 +3815,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>183.2786530864253</v>
+        <v>184.4200876376663</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +3991,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>95.41674552880424</v>
+        <v>95.87902218016313</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>135.860522540009</v>
+        <v>136.3465177559682</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4352,7 +4352,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>87.21736274299784</v>
+        <v>87.65072113473144</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4525,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>114.0883498221132</v>
+        <v>114.6172757954104</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4704,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>229.8293872768343</v>
+        <v>232.1734665268602</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4880,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>103.0094787812074</v>
+        <v>103.8342664823153</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5068,7 +5068,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>124.4994403407301</v>
+        <v>125.4287988059986</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5253,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>137.0522288605821</v>
+        <v>137.3048995916849</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5426,7 +5426,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>150.054582441949</v>
+        <v>151.3549992635367</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5623,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>162.9849377044636</v>
+        <v>162.4086628330139</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5811,7 +5811,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>127.5198729744232</v>
+        <v>128.1779098342986</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +5990,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>90.76602143061487</v>
+        <v>91.61149531209821</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6172,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>128.6577134330011</v>
+        <v>130.0761392705354</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6339,7 +6339,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>123.8521135795866</v>
+        <v>124.2768781693144</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6494,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>134.3790158724835</v>
+        <v>135.1843566897959</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6661,7 +6661,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.6164211142477</v>
+        <v>108.4973333504743</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>212.9058733820604</v>
+        <v>213.4581798002814</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7022,7 +7022,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>218.5477079839631</v>
+        <v>219.8612994066315</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>256.9924271438076</v>
+        <v>257.9964580476583</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7377,7 +7377,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>141.864269809664</v>
+        <v>143.2728434119445</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7544,7 +7544,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>161.1223565486369</v>
+        <v>161.5515012584144</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7720,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>102.7158782315234</v>
+        <v>103.7772092267339</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7914,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>125.9873430854108</v>
+        <v>127.3075900487639</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8102,7 +8102,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>77.97268504774831</v>
+        <v>78.56794126299522</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8281,7 +8281,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>75.48946917526912</v>
+        <v>75.95900196090589</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8451,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>174.6620363112956</v>
+        <v>172.7135827125415</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8648,7 +8648,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>116.0120749138994</v>
+        <v>116.9286208082195</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8815,7 +8815,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.4931472135123</v>
+        <v>109.6492642566054</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8988,7 +8988,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>175.6226831880502</v>
+        <v>177.4764027515088</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9158,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>100.8912607458503</v>
+        <v>102.0400225695295</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9328,7 +9328,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>128.8194057208504</v>
+        <v>129.4684682720966</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9504,7 +9504,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>130.0515352734144</v>
+        <v>130.4099929351155</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9674,7 +9674,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>113.468763100807</v>
+        <v>114.2651726559146</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9865,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>93.4848714535989</v>
+        <v>94.44449218737213</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10032,7 +10032,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>120.7346125567177</v>
+        <v>121.7439875631042</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10214,7 +10214,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>143.5109280432206</v>
+        <v>144.3399050890221</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10402,7 +10402,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>69.65224392916841</v>
+        <v>70.03578607970195</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>120.4806956408369</v>
+        <v>121.2253353936905</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1724,7 +1724,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>248.3333759992864</v>
+        <v>251.990667335365</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>114.0167508247568</v>
+        <v>114.845272558602</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>149.1339802666047</v>
+        <v>150.0819436144481</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2261,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>170.3016269206787</v>
+        <v>171.7911060011863</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>76.97973063750496</v>
+        <v>77.44396109129856</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2613,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>186.77835935081</v>
+        <v>188.0186810576184</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>161.1953614108766</v>
+        <v>162.0300009796429</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2953,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>213.6187470243432</v>
+        <v>216.2377152307671</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3129,7 +3129,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>141.5284770536351</v>
+        <v>142.7666535624423</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3296,7 +3296,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>121.6913899135403</v>
+        <v>122.8353064285421</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3475,7 +3475,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>62.10032005005609</v>
+        <v>62.5478110029503</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>77.14018431203898</v>
+        <v>78.05999571801799</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3815,7 +3815,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>184.4200876376663</v>
+        <v>185.5629607573415</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +3991,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>95.87902218016313</v>
+        <v>96.35055013192962</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>136.3465177559682</v>
+        <v>136.8107875790762</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4352,7 +4352,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>87.65072113473144</v>
+        <v>88.01972103913074</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4525,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>114.6172757954104</v>
+        <v>115.157951463665</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4704,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>232.1734665268602</v>
+        <v>234.2841230856976</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4880,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>103.8342664823153</v>
+        <v>104.6573825254316</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5068,7 +5068,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>125.4287988059986</v>
+        <v>126.3922162831521</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5253,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>137.3048995916849</v>
+        <v>137.4791799858354</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5426,7 +5426,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>151.3549992635367</v>
+        <v>152.6689534919311</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5623,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>162.4086628330139</v>
+        <v>161.8858706259091</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5811,7 +5811,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>128.1779098342986</v>
+        <v>128.8515478611438</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +5990,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>91.61149531209821</v>
+        <v>92.44607446617131</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6172,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>130.0761392705354</v>
+        <v>131.4284739282836</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6339,7 +6339,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>124.2768781693144</v>
+        <v>124.7258302917416</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6494,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>135.1843566897959</v>
+        <v>135.949674459453</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6661,7 +6661,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.4973333504743</v>
+        <v>108.4255763704127</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>213.4581798002814</v>
+        <v>213.8821945885824</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7022,7 +7022,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>219.8612994066315</v>
+        <v>221.1456685950992</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>257.9964580476583</v>
+        <v>259.0269718583288</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7377,7 +7377,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>143.2728434119445</v>
+        <v>144.6718573544873</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7544,7 +7544,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>161.5515012584144</v>
+        <v>162.0196438531952</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7720,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>103.7772092267339</v>
+        <v>104.8331367700414</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7914,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>127.3075900487639</v>
+        <v>128.6371538557154</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8102,7 +8102,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>78.56794126299522</v>
+        <v>79.15558117491844</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8281,7 +8281,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>75.95900196090589</v>
+        <v>76.42502995701055</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8451,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>172.7135827125415</v>
+        <v>170.7857824482135</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8648,7 +8648,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>116.9286208082195</v>
+        <v>117.9167624664745</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8815,7 +8815,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.6492642566054</v>
+        <v>109.8146884615566</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8988,7 +8988,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>177.4764027515088</v>
+        <v>179.3528638778351</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9158,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>102.0400225695295</v>
+        <v>103.207531670416</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9328,7 +9328,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>129.4684682720966</v>
+        <v>130.0863221287802</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9504,7 +9504,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>130.4099929351155</v>
+        <v>130.7655618469445</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9674,7 +9674,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>114.2651726559146</v>
+        <v>115.0577795043875</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9865,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>94.44449218737213</v>
+        <v>95.30883997852392</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10032,7 +10032,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>121.7439875631042</v>
+        <v>122.7281322906603</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10214,7 +10214,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>144.3399050890221</v>
+        <v>145.1783134862559</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10402,7 +10402,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>70.03578607970195</v>
+        <v>70.36946447800234</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>121.2253353936905</v>
+        <v>121.9573017905084</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1724,7 +1724,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>251.990667335365</v>
+        <v>255.6235763659935</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>114.845272558602</v>
+        <v>115.6268542761963</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>150.0819436144481</v>
+        <v>150.9105525894117</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2261,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>171.7911060011863</v>
+        <v>173.298967806876</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>77.44396109129856</v>
+        <v>77.90588663223048</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2613,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>188.0186810576184</v>
+        <v>189.1067276306492</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>162.0300009796429</v>
+        <v>162.8420133272972</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2953,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>216.2377152307671</v>
+        <v>218.8444590087583</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3129,7 +3129,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>142.7666535624423</v>
+        <v>143.9638577083801</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3296,7 +3296,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>122.8353064285421</v>
+        <v>123.9876024393369</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3475,7 +3475,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>62.5478110029503</v>
+        <v>63.05434323445711</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>78.05999571801799</v>
+        <v>78.95869601221493</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3815,7 +3815,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>185.5629607573415</v>
+        <v>186.7029324866503</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +3991,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>96.35055013192962</v>
+        <v>96.82481163123373</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>136.8107875790762</v>
+        <v>137.263113733892</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4352,7 +4352,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>88.01972103913074</v>
+        <v>88.32847515390181</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4525,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>115.157951463665</v>
+        <v>115.6216021330712</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4704,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>234.2841230856976</v>
+        <v>236.5482334624931</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4880,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>104.6573825254316</v>
+        <v>105.4694788145552</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5068,7 +5068,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>126.3922162831521</v>
+        <v>127.3653969984721</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5253,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>137.4791799858354</v>
+        <v>137.7567760792411</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5426,7 +5426,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>152.6689534919311</v>
+        <v>153.9599022825545</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5623,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>161.8858706259091</v>
+        <v>161.4146578823458</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5811,7 +5811,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>128.8515478611438</v>
+        <v>129.4405470932989</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +5990,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>92.44607446617131</v>
+        <v>93.23748282217943</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6172,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>131.4284739282836</v>
+        <v>132.7685425061437</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6339,7 +6339,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>124.7258302917416</v>
+        <v>125.1410400808635</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6494,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>135.949674459453</v>
+        <v>136.7311928743698</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6661,7 +6661,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.4255763704127</v>
+        <v>108.3070616844341</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>213.8821945885824</v>
+        <v>214.4423623463589</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7022,7 +7022,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>221.1456685950992</v>
+        <v>222.4349396920744</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>259.0269718583288</v>
+        <v>260.0242492363448</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7377,7 +7377,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>144.6718573544873</v>
+        <v>146.0508470696986</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7544,7 +7544,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>162.0196438531952</v>
+        <v>162.3879021375575</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7720,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>104.8331367700414</v>
+        <v>105.8833462487353</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7914,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>128.6371538557154</v>
+        <v>129.8432598128608</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8102,7 +8102,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>79.15558117491844</v>
+        <v>79.72032328573917</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8281,7 +8281,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>76.42502995701055</v>
+        <v>76.87570846851469</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8451,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>170.7857824482135</v>
+        <v>168.8790012091097</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8648,7 +8648,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>117.9167624664745</v>
+        <v>118.8924078465219</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8815,7 +8815,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.8146884615566</v>
+        <v>109.9740900775882</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8988,7 +8988,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>179.3528638778351</v>
+        <v>181.1805209885507</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9158,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>103.207531670416</v>
+        <v>104.2660661318198</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9328,7 +9328,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>130.0863221287802</v>
+        <v>130.6615645914801</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9504,7 +9504,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>130.7655618469445</v>
+        <v>131.1378912964449</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9674,7 +9674,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>115.0577795043875</v>
+        <v>115.824559719064</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9865,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>95.30883997852392</v>
+        <v>96.2541985102105</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10032,7 +10032,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>122.7281322906603</v>
+        <v>123.7074209618411</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10214,7 +10214,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>145.1783134862559</v>
+        <v>145.9825857480009</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10402,7 +10402,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>70.36946447800234</v>
+        <v>70.6560991459952</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>121.9573017905084</v>
+        <v>122.6700930133</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1597,6 +1597,9 @@
       </c>
       <c r="AO2">
         <v>9221</v>
+      </c>
+      <c r="AP2">
+        <v>375</v>
       </c>
       <c r="AR2">
         <v>323</v>
@@ -1724,7 +1727,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>255.6235763659935</v>
+        <v>259.121594516382</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1764,6 +1767,9 @@
       </c>
       <c r="AO3">
         <v>377</v>
+      </c>
+      <c r="AP3">
+        <v>10</v>
       </c>
       <c r="AR3">
         <v>3</v>
@@ -1897,7 +1903,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>115.6268542761963</v>
+        <v>116.3653359959469</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2091,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>150.9105525894117</v>
+        <v>151.8216493039663</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2267,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>173.298967806876</v>
+        <v>174.8217975928428</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2443,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>77.90588663223048</v>
+        <v>78.36103853821535</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2480,6 +2486,9 @@
       </c>
       <c r="AO7">
         <v>16532</v>
+      </c>
+      <c r="AP7">
+        <v>800</v>
       </c>
       <c r="AR7">
         <v>971</v>
@@ -2613,7 +2622,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>189.1067276306492</v>
+        <v>190.5036296412728</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>162.8420133272972</v>
+        <v>163.6666593101685</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2962,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>218.8444590087583</v>
+        <v>221.3214828503423</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -2992,6 +3001,9 @@
         <v>285</v>
       </c>
       <c r="AJ10">
+        <v>304</v>
+      </c>
+      <c r="AP10">
         <v>304</v>
       </c>
       <c r="AR10">
@@ -3129,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>143.9638577083801</v>
+        <v>145.1010238777683</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3169,6 +3181,9 @@
       </c>
       <c r="AO11">
         <v>39199</v>
+      </c>
+      <c r="AP11">
+        <v>1738</v>
       </c>
       <c r="AR11">
         <v>371</v>
@@ -3296,7 +3311,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>123.9876024393369</v>
+        <v>125.1173623036564</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3342,6 +3357,9 @@
       </c>
       <c r="AO12">
         <v>32106</v>
+      </c>
+      <c r="AP12">
+        <v>1377</v>
       </c>
       <c r="AR12">
         <v>667</v>
@@ -3475,7 +3493,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>63.05434323445711</v>
+        <v>63.52644438360797</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>78.95869601221493</v>
+        <v>79.80136529311974</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3691,6 +3709,9 @@
       </c>
       <c r="AO14">
         <v>2007</v>
+      </c>
+      <c r="AP14">
+        <v>67</v>
       </c>
       <c r="AR14">
         <v>20</v>
@@ -3815,7 +3836,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>186.7029324866503</v>
+        <v>187.8013442406574</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +4012,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>96.82481163123373</v>
+        <v>97.27400593626648</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4037,6 +4058,9 @@
       </c>
       <c r="AK16">
         <v>4389</v>
+      </c>
+      <c r="AP16">
+        <v>1328</v>
       </c>
       <c r="AR16">
         <v>643</v>
@@ -4170,7 +4194,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>137.263113733892</v>
+        <v>137.6634166337276</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4213,6 +4237,9 @@
       </c>
       <c r="AO17">
         <v>11457</v>
+      </c>
+      <c r="AP17">
+        <v>243</v>
       </c>
       <c r="AR17">
         <v>398</v>
@@ -4352,7 +4379,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>88.32847515390181</v>
+        <v>88.72743741591299</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4395,6 +4422,9 @@
       </c>
       <c r="AK18">
         <v>608</v>
+      </c>
+      <c r="AP18">
+        <v>152</v>
       </c>
       <c r="AR18">
         <v>357</v>
@@ -4525,7 +4555,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>115.6216021330712</v>
+        <v>116.0406985948764</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4574,6 +4604,9 @@
       </c>
       <c r="AO19">
         <v>6119</v>
+      </c>
+      <c r="AP19">
+        <v>294</v>
       </c>
       <c r="AR19">
         <v>195</v>
@@ -4704,7 +4737,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>236.5482334624931</v>
+        <v>238.7294471881944</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4913,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>105.4694788145552</v>
+        <v>106.2618183988882</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -4929,6 +4962,9 @@
       </c>
       <c r="AO21">
         <v>1264</v>
+      </c>
+      <c r="AP21">
+        <v>63</v>
       </c>
       <c r="AR21">
         <v>44</v>
@@ -5068,7 +5104,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>127.3653969984721</v>
+        <v>128.349951808457</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5289,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>137.7567760792411</v>
+        <v>138.0387217067984</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5296,6 +5332,9 @@
       </c>
       <c r="AO23">
         <v>75333</v>
+      </c>
+      <c r="AP23">
+        <v>4702</v>
       </c>
       <c r="AR23">
         <v>1612</v>
@@ -5426,7 +5465,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>153.9599022825545</v>
+        <v>155.2281104118077</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5662,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>161.4146578823458</v>
+        <v>161.0048181194323</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5675,6 +5714,9 @@
       </c>
       <c r="AO25">
         <v>13040</v>
+      </c>
+      <c r="AP25">
+        <v>534</v>
       </c>
       <c r="AR25">
         <v>712</v>
@@ -5811,7 +5853,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>129.4405470932989</v>
+        <v>129.9486410657357</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +6032,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>93.23748282217943</v>
+        <v>94.02344734923321</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6036,6 +6078,9 @@
       </c>
       <c r="AO27">
         <v>9489</v>
+      </c>
+      <c r="AP27">
+        <v>449</v>
       </c>
       <c r="AR27">
         <v>148</v>
@@ -6172,7 +6217,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>132.7685425061437</v>
+        <v>134.2017721876656</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6215,6 +6260,9 @@
       </c>
       <c r="AO28">
         <v>458</v>
+      </c>
+      <c r="AP28">
+        <v>16</v>
       </c>
       <c r="AR28">
         <v>2</v>
@@ -6339,7 +6387,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>125.1410400808635</v>
+        <v>125.5688995694306</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6542,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>136.7311928743698</v>
+        <v>137.4505332667819</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6531,6 +6579,9 @@
       </c>
       <c r="AO30">
         <v>5884</v>
+      </c>
+      <c r="AP30">
+        <v>293</v>
       </c>
       <c r="AR30">
         <v>118</v>
@@ -6661,7 +6712,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.3070616844341</v>
+        <v>108.2009817189926</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6710,6 +6761,9 @@
       </c>
       <c r="AO31">
         <v>2843</v>
+      </c>
+      <c r="AP31">
+        <v>114</v>
       </c>
       <c r="AR31">
         <v>103</v>
@@ -6837,7 +6891,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>214.4423623463589</v>
+        <v>214.971781756962</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -6883,6 +6937,9 @@
       </c>
       <c r="AO32">
         <v>135454</v>
+      </c>
+      <c r="AP32">
+        <v>8952</v>
       </c>
       <c r="AR32">
         <v>1819</v>
@@ -7022,7 +7079,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>222.4349396920744</v>
+        <v>223.7383565715448</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7065,6 +7122,9 @@
       </c>
       <c r="AO33">
         <v>4493</v>
+      </c>
+      <c r="AP33">
+        <v>172</v>
       </c>
       <c r="AR33">
         <v>202</v>
@@ -7198,7 +7258,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>260.0242492363448</v>
+        <v>260.9729037498275</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7247,6 +7307,9 @@
       </c>
       <c r="AO34">
         <v>330407</v>
+      </c>
+      <c r="AP34">
+        <v>21045</v>
       </c>
       <c r="AR34">
         <v>2758</v>
@@ -7377,7 +7440,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>146.0508470696986</v>
+        <v>147.3959699525604</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7411,6 +7474,9 @@
       </c>
       <c r="AO35">
         <v>13868</v>
+      </c>
+      <c r="AP35">
+        <v>527</v>
       </c>
       <c r="AR35">
         <v>471</v>
@@ -7544,7 +7610,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>162.3879021375575</v>
+        <v>162.8169004317826</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7786,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>105.8833462487353</v>
+        <v>106.901247687145</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7980,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>129.8432598128608</v>
+        <v>130.9319260705174</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -7966,6 +8032,12 @@
       </c>
       <c r="AN38">
         <v>85078</v>
+      </c>
+      <c r="AO38">
+        <v>4424</v>
+      </c>
+      <c r="AP38">
+        <v>266</v>
       </c>
       <c r="AR38">
         <v>94</v>
@@ -8102,7 +8174,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>79.72032328573917</v>
+        <v>80.25707009338684</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8151,6 +8223,9 @@
       </c>
       <c r="AO39">
         <v>3032</v>
+      </c>
+      <c r="AP39">
+        <v>124</v>
       </c>
       <c r="AR39">
         <v>79</v>
@@ -8281,7 +8356,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>76.87570846851469</v>
+        <v>77.31079570044164</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8526,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>168.8790012091097</v>
+        <v>167.16850977141</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8509,6 +8584,9 @@
       </c>
       <c r="AO41">
         <v>11141</v>
+      </c>
+      <c r="AP41">
+        <v>399</v>
       </c>
       <c r="AR41">
         <v>231</v>
@@ -8648,7 +8726,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>118.8924078465219</v>
+        <v>119.8468995090425</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8685,6 +8763,9 @@
       </c>
       <c r="AK42">
         <v>1152</v>
+      </c>
+      <c r="AP42">
+        <v>316</v>
       </c>
       <c r="AR42">
         <v>206</v>
@@ -8815,7 +8896,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.9740900775882</v>
+        <v>110.1108714974121</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8855,6 +8936,9 @@
       </c>
       <c r="AK43">
         <v>247</v>
+      </c>
+      <c r="AP43">
+        <v>31</v>
       </c>
       <c r="AR43">
         <v>239</v>
@@ -8988,7 +9072,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>181.1805209885507</v>
+        <v>182.9127328161089</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9242,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>104.2660661318198</v>
+        <v>105.3591527874322</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9195,6 +9279,9 @@
       </c>
       <c r="AO45">
         <v>36609</v>
+      </c>
+      <c r="AP45">
+        <v>453</v>
       </c>
       <c r="AR45">
         <v>1219</v>
@@ -9328,7 +9415,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>130.6615645914801</v>
+        <v>131.1967371445981</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9377,6 +9464,9 @@
       </c>
       <c r="AO46">
         <v>5919</v>
+      </c>
+      <c r="AP46">
+        <v>61</v>
       </c>
       <c r="AR46">
         <v>195</v>
@@ -9504,7 +9594,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>131.1378912964449</v>
+        <v>131.4718011921666</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9541,6 +9631,9 @@
       </c>
       <c r="AO47">
         <v>919</v>
+      </c>
+      <c r="AP47">
+        <v>53</v>
       </c>
       <c r="AR47">
         <v>2</v>
@@ -9674,7 +9767,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>115.824559719064</v>
+        <v>116.5795441468486</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9958,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>96.2541985102105</v>
+        <v>97.14719486235762</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -9902,6 +9995,9 @@
       </c>
       <c r="AO49">
         <v>17519</v>
+      </c>
+      <c r="AP49">
+        <v>891</v>
       </c>
       <c r="AR49">
         <v>210</v>
@@ -10032,7 +10128,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>123.7074209618411</v>
+        <v>124.6773578265378</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10075,6 +10171,9 @@
       </c>
       <c r="AO50">
         <v>1310</v>
+      </c>
+      <c r="AP50">
+        <v>51</v>
       </c>
       <c r="AR50">
         <v>23</v>
@@ -10214,7 +10313,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>145.9825857480009</v>
+        <v>146.7348904005264</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10266,6 +10365,9 @@
       </c>
       <c r="AO51">
         <v>9590</v>
+      </c>
+      <c r="AP51">
+        <v>384</v>
       </c>
       <c r="AR51">
         <v>409</v>
@@ -10402,7 +10504,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>70.6560991459952</v>
+        <v>71.01410984839016</v>
       </c>
       <c r="T52">
         <v>20200508</v>
@@ -10448,6 +10550,9 @@
       </c>
       <c r="AO52">
         <v>483</v>
+      </c>
+      <c r="AP52">
+        <v>7</v>
       </c>
       <c r="AR52">
         <v>4</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>122.6700930133</v>
+        <v>123.3668406169794</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1727,7 +1727,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>259.121594516382</v>
+        <v>262.7443736020625</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1903,7 +1903,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>116.3653359959469</v>
+        <v>117.0557943326539</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2091,7 +2091,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>151.8216493039663</v>
+        <v>152.7146059571199</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>174.8217975928428</v>
+        <v>176.3256706996357</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2443,7 +2443,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>78.36103853821535</v>
+        <v>78.79502716875852</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2622,7 +2622,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>190.5036296412728</v>
+        <v>191.832653149909</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2795,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>163.6666593101685</v>
+        <v>164.4515751184235</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2962,7 +2962,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>221.3214828503423</v>
+        <v>223.6555679749046</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3141,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>145.1010238777683</v>
+        <v>146.180920400907</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3311,7 +3311,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>125.1173623036564</v>
+        <v>126.2092179460387</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3493,7 +3493,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>63.52644438360797</v>
+        <v>64.05482114529981</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>79.80136529311974</v>
+        <v>80.62637056412026</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>187.8013442406574</v>
+        <v>188.9101651058711</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -4012,7 +4012,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>97.27400593626648</v>
+        <v>97.72012604980466</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4194,7 +4194,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>137.6634166337276</v>
+        <v>138.0368166140887</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4379,7 +4379,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>88.72743741591299</v>
+        <v>89.0660357490102</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4555,7 +4555,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>116.0406985948764</v>
+        <v>116.4622430378416</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4737,7 +4737,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>238.7294471881944</v>
+        <v>241.2327383974301</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4913,7 +4913,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>106.2618183988882</v>
+        <v>107.0198089282384</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5104,7 +5104,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>128.349951808457</v>
+        <v>129.3134059964786</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5289,7 +5289,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>138.0387217067984</v>
+        <v>138.3447747630468</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5465,7 +5465,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>155.2281104118077</v>
+        <v>156.4857395073682</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5662,7 +5662,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>161.0048181194323</v>
+        <v>160.5922815599273</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5853,7 +5853,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>129.9486410657357</v>
+        <v>130.3884661696494</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -6032,7 +6032,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>94.02344734923321</v>
+        <v>94.78966364685098</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6217,7 +6217,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>134.2017721876656</v>
+        <v>135.5738729421195</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6387,7 +6387,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>125.5688995694306</v>
+        <v>125.9823539132854</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6542,7 +6542,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>137.4505332667819</v>
+        <v>138.1328046227466</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6712,7 +6712,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.2009817189926</v>
+        <v>108.1249111327526</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6891,7 +6891,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>214.971781756962</v>
+        <v>215.3791692752018</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7079,7 +7079,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>223.7383565715448</v>
+        <v>224.9506081842585</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7258,7 +7258,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>260.9729037498275</v>
+        <v>261.9196765113785</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7440,7 +7440,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>147.3959699525604</v>
+        <v>148.6770841845654</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7610,7 +7610,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>162.8169004317826</v>
+        <v>163.2521278826332</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7786,7 +7786,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>106.901247687145</v>
+        <v>107.8968667487774</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7980,7 +7980,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>130.9319260705174</v>
+        <v>132.1242692173193</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8174,7 +8174,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>80.25707009338684</v>
+        <v>80.75987554198321</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8356,7 +8356,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>77.31079570044164</v>
+        <v>77.74136093899624</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8526,7 +8526,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>167.16850977141</v>
+        <v>165.5506512101408</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8726,7 +8726,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>119.8468995090425</v>
+        <v>120.7752627974302</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8896,7 +8896,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>110.1108714974121</v>
+        <v>110.2283813269849</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -9072,7 +9072,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>182.9127328161089</v>
+        <v>184.5931770685124</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9242,7 +9242,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>105.3591527874322</v>
+        <v>106.4267690519084</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9415,7 +9415,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>131.1967371445981</v>
+        <v>131.7124361622735</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9594,7 +9594,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>131.4718011921666</v>
+        <v>131.8421193287567</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9767,7 +9767,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>116.5795441468486</v>
+        <v>117.3115166713645</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9958,7 +9958,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>97.14719486235762</v>
+        <v>97.95391033842945</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10128,7 +10128,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>124.6773578265378</v>
+        <v>125.6266391410731</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10313,7 +10313,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>146.7348904005264</v>
+        <v>147.5230614384295</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10504,7 +10504,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>71.01410984839016</v>
+        <v>71.35003347897919</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>123.3668406169794</v>
+        <v>124.0201419377171</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1727,7 +1727,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>262.7443736020625</v>
+        <v>266.3466147116578</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1903,7 +1903,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>117.0557943326539</v>
+        <v>117.7462425963918</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2091,7 +2091,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>152.7146059571199</v>
+        <v>153.5080117833252</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>176.3256706996357</v>
+        <v>177.7911470128472</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2443,7 +2443,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>78.79502716875852</v>
+        <v>79.19836458257797</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2622,7 +2622,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>191.832653149909</v>
+        <v>193.1560907275067</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2795,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>164.4515751184235</v>
+        <v>165.1870804734889</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2962,7 +2962,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>223.6555679749046</v>
+        <v>225.9411179668892</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3141,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>146.180920400907</v>
+        <v>147.2039176971957</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3311,7 +3311,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>126.2092179460387</v>
+        <v>127.3180628143513</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3493,7 +3493,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>64.05482114529981</v>
+        <v>64.58465713655174</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>80.62637056412026</v>
+        <v>81.47543777329834</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>188.9101651058711</v>
+        <v>190.0419113259734</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -4012,7 +4012,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>97.72012604980466</v>
+        <v>98.1476910930493</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4194,7 +4194,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>138.0368166140887</v>
+        <v>138.4150790651939</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4379,7 +4379,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>89.0660357490102</v>
+        <v>89.45243160834853</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4555,7 +4555,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>116.4622430378416</v>
+        <v>116.9391812586145</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4601,6 +4601,9 @@
       </c>
       <c r="AK19">
         <v>1684</v>
+      </c>
+      <c r="AL19">
+        <v>81391</v>
       </c>
       <c r="AO19">
         <v>6119</v>
@@ -4737,7 +4740,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>241.2327383974301</v>
+        <v>243.6924058172683</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4913,7 +4916,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>107.0198089282384</v>
+        <v>107.7736454169104</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5104,7 +5107,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>129.3134059964786</v>
+        <v>130.244193174655</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5289,7 +5292,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>138.3447747630468</v>
+        <v>138.685185745397</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5465,7 +5468,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>156.4857395073682</v>
+        <v>157.7255966455242</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5662,7 +5665,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>160.5922815599273</v>
+        <v>160.2042865167999</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5853,7 +5856,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>130.3884661696494</v>
+        <v>130.9567085224499</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -6032,7 +6035,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>94.78966364685098</v>
+        <v>95.54021578026843</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6217,7 +6220,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>135.5738729421195</v>
+        <v>136.8943755016236</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6387,7 +6390,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>125.9823539132854</v>
+        <v>126.3932767243336</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6542,7 +6545,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>138.1328046227466</v>
+        <v>138.7484587118089</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6712,7 +6715,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.1249111327526</v>
+        <v>108.041972532358</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6891,7 +6894,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>215.3791692752018</v>
+        <v>215.7805360705114</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7079,7 +7082,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>224.9506081842585</v>
+        <v>226.2761841191861</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7258,7 +7261,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>261.9196765113785</v>
+        <v>262.8676638888398</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7440,7 +7443,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>148.6770841845654</v>
+        <v>149.9101320951475</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7610,7 +7613,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>163.2521278826332</v>
+        <v>163.6826271734508</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7786,7 +7789,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>107.8968667487774</v>
+        <v>108.8652749763045</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7980,7 +7983,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>132.1242692173193</v>
+        <v>133.2808620020788</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8174,7 +8177,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>80.75987554198321</v>
+        <v>81.27361283090401</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8356,7 +8359,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>77.74136093899624</v>
+        <v>78.16123712773386</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8526,7 +8529,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>165.5506512101408</v>
+        <v>164.0078759336576</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8726,7 +8729,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>120.7752627974302</v>
+        <v>121.6731425526576</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8896,7 +8899,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>110.2283813269849</v>
+        <v>110.3408092060438</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -9072,7 +9075,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>184.5931770685124</v>
+        <v>186.2321349678872</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9242,7 +9245,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>106.4267690519084</v>
+        <v>107.428714955683</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9415,7 +9418,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>131.7124361622735</v>
+        <v>132.2176833867846</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9594,7 +9597,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>131.8421193287567</v>
+        <v>132.1487152241631</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9767,7 +9770,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>117.3115166713645</v>
+        <v>118.0151058149246</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9958,7 +9961,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>97.95391033842945</v>
+        <v>98.68016319944435</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10128,7 +10131,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>125.6266391410731</v>
+        <v>126.5746166671259</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10313,7 +10316,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>147.5230614384295</v>
+        <v>148.3356140093458</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10504,7 +10507,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>71.35003347897919</v>
+        <v>71.67331333100223</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/DataUpdate/data/Testing_DataFrame.xlsx
+++ b/DataUpdate/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>124.0201419377171</v>
+        <v>125.3684225822804</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1594,6 +1594,9 @@
       </c>
       <c r="AK2">
         <v>1207</v>
+      </c>
+      <c r="AL2">
+        <v>120114</v>
       </c>
       <c r="AO2">
         <v>9221</v>
@@ -1727,7 +1730,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>266.3466147116578</v>
+        <v>273.5983286243015</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1903,7 +1906,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>117.7462425963918</v>
+        <v>119.0472661677606</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2091,7 +2094,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>153.5080117833252</v>
+        <v>155.0877419066472</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2267,7 +2270,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>177.7911470128472</v>
+        <v>180.5771093375511</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2443,7 +2446,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>79.19836458257797</v>
+        <v>80.03457685615899</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2486,9 +2489,6 @@
       </c>
       <c r="AO7">
         <v>16532</v>
-      </c>
-      <c r="AP7">
-        <v>800</v>
       </c>
       <c r="AR7">
         <v>971</v>
@@ -2622,7 +2622,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>193.1560907275067</v>
+        <v>195.6638999523996</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2795,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>165.1870804734889</v>
+        <v>166.6037732707028</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2962,7 +2962,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>225.9411179668892</v>
+        <v>230.4295111560016</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3001,9 +3001,6 @@
         <v>285</v>
       </c>
       <c r="AJ10">
-        <v>304</v>
-      </c>
-      <c r="AP10">
         <v>304</v>
       </c>
       <c r="AR10">
@@ -3141,7 +3138,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>147.2039176971957</v>
+        <v>149.1564774962816</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3311,7 +3308,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>127.3180628143513</v>
+        <v>129.5584629363222</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3357,9 +3354,6 @@
       </c>
       <c r="AO12">
         <v>32106</v>
-      </c>
-      <c r="AP12">
-        <v>1377</v>
       </c>
       <c r="AR12">
         <v>667</v>
@@ -3493,7 +3487,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>64.58465713655174</v>
+        <v>65.63714160589556</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3660,7 +3654,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>81.47543777329834</v>
+        <v>83.16996126179386</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3709,9 +3703,6 @@
       </c>
       <c r="AO14">
         <v>2007</v>
-      </c>
-      <c r="AP14">
-        <v>67</v>
       </c>
       <c r="AR14">
         <v>20</v>
@@ -3836,7 +3827,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>190.0419113259734</v>
+        <v>192.3317173634254</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -4012,7 +4003,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>98.1476910930493</v>
+        <v>99.04766023697486</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4194,7 +4185,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>138.4150790651939</v>
+        <v>139.194215130585</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4237,9 +4228,6 @@
       </c>
       <c r="AO17">
         <v>11457</v>
-      </c>
-      <c r="AP17">
-        <v>243</v>
       </c>
       <c r="AR17">
         <v>398</v>
@@ -4379,7 +4367,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>89.45243160834853</v>
+        <v>90.16806472652168</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4422,9 +4410,6 @@
       </c>
       <c r="AK18">
         <v>608</v>
-      </c>
-      <c r="AP18">
-        <v>152</v>
       </c>
       <c r="AR18">
         <v>357</v>
@@ -4555,7 +4540,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>116.9391812586145</v>
+        <v>117.9848312329534</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4740,7 +4725,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>243.6924058172683</v>
+        <v>248.394779389185</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4916,7 +4901,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>107.7736454169104</v>
+        <v>109.2894074576731</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5107,7 +5092,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>130.244193174655</v>
+        <v>132.0417116901243</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5292,7 +5277,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>138.685185745397</v>
+        <v>139.3734939602797</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5468,7 +5453,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>157.7255966455242</v>
+        <v>160.1698166690015</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5665,7 +5650,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>160.2042865167999</v>
+        <v>159.5416953902991</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5856,7 +5841,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>130.9567085224499</v>
+        <v>132.0431870895438</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -6035,7 +6020,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>95.54021578026843</v>
+        <v>97.04257459745961</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6081,9 +6066,6 @@
       </c>
       <c r="AO27">
         <v>9489</v>
-      </c>
-      <c r="AP27">
-        <v>449</v>
       </c>
       <c r="AR27">
         <v>148</v>
@@ -6220,7 +6202,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>136.8943755016236</v>
+        <v>139.4554648831668</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6263,9 +6245,6 @@
       </c>
       <c r="AO28">
         <v>458</v>
-      </c>
-      <c r="AP28">
-        <v>16</v>
       </c>
       <c r="AR28">
         <v>2</v>
@@ -6390,7 +6369,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>126.3932767243336</v>
+        <v>127.2098423626867</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6545,7 +6524,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>138.7484587118089</v>
+        <v>140.0554596572325</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6582,9 +6561,6 @@
       </c>
       <c r="AO30">
         <v>5884</v>
-      </c>
-      <c r="AP30">
-        <v>293</v>
       </c>
       <c r="AR30">
         <v>118</v>
@@ -6715,7 +6691,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.041972532358</v>
+        <v>107.8731395717321</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6764,9 +6740,6 @@
       </c>
       <c r="AO31">
         <v>2843</v>
-      </c>
-      <c r="AP31">
-        <v>114</v>
       </c>
       <c r="AR31">
         <v>103</v>
@@ -6894,7 +6867,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>215.7805360705114</v>
+        <v>216.7693676711858</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -6936,7 +6909,7 @@
         <v>292</v>
       </c>
       <c r="AJ32">
-        <v>8952</v>
+        <v>10602</v>
       </c>
       <c r="AO32">
         <v>135454</v>
@@ -6944,6 +6917,9 @@
       <c r="AP32">
         <v>8952</v>
       </c>
+      <c r="AQ32">
+        <v>1650</v>
+      </c>
       <c r="AR32">
         <v>1819</v>
       </c>
@@ -6960,7 +6936,7 @@
         <v>6101</v>
       </c>
       <c r="AW32">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -7082,7 +7058,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>226.2761841191861</v>
+        <v>228.8499314733519</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7125,9 +7101,6 @@
       </c>
       <c r="AO33">
         <v>4493</v>
-      </c>
-      <c r="AP33">
-        <v>172</v>
       </c>
       <c r="AR33">
         <v>202</v>
@@ -7261,7 +7234,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>262.8676638888398</v>
+        <v>264.7569510993247</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7310,9 +7283,6 @@
       </c>
       <c r="AO34">
         <v>330407</v>
-      </c>
-      <c r="AP34">
-        <v>21045</v>
       </c>
       <c r="AR34">
         <v>2758</v>
@@ -7443,7 +7413,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>149.9101320951475</v>
+        <v>152.3957372948298</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7613,7 +7583,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>163.6826271734508</v>
+        <v>164.5716809241197</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7789,7 +7759,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>108.8652749763045</v>
+        <v>110.7807218720928</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7983,7 +7953,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>133.2808620020788</v>
+        <v>135.5851875723779</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8038,9 +8008,6 @@
       </c>
       <c r="AO38">
         <v>4424</v>
-      </c>
-      <c r="AP38">
-        <v>266</v>
       </c>
       <c r="AR38">
         <v>94</v>
@@ -8177,7 +8144,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>81.27361283090401</v>
+        <v>82.28580692100579</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8226,9 +8193,6 @@
       </c>
       <c r="AO39">
         <v>3032</v>
-      </c>
-      <c r="AP39">
-        <v>124</v>
       </c>
       <c r="AR39">
         <v>79</v>
@@ -8359,7 +8323,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>78.16123712773386</v>
+        <v>78.99725222138407</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8529,7 +8493,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>164.0078759336576</v>
+        <v>161.2084525257867</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8587,9 +8551,6 @@
       </c>
       <c r="AO41">
         <v>11141</v>
-      </c>
-      <c r="AP41">
-        <v>399</v>
       </c>
       <c r="AR41">
         <v>231</v>
@@ -8729,7 +8690,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>121.6731425526576</v>
+        <v>123.4021627606188</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8899,7 +8860,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>110.3408092060438</v>
+        <v>110.5789288296432</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8939,9 +8900,6 @@
       </c>
       <c r="AK43">
         <v>247</v>
-      </c>
-      <c r="AP43">
-        <v>31</v>
       </c>
       <c r="AR43">
         <v>239</v>
@@ -9075,7 +9033,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>186.2321349678872</v>
+        <v>189.4840710901344</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9245,7 +9203,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>107.428714955683</v>
+        <v>109.3351977426088</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9418,7 +9376,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>132.2176833867846</v>
+        <v>133.1679232662828</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9467,9 +9425,6 @@
       </c>
       <c r="AO46">
         <v>5919</v>
-      </c>
-      <c r="AP46">
-        <v>61</v>
       </c>
       <c r="AR46">
         <v>195</v>
@@ -9597,7 +9552,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>132.1487152241631</v>
+        <v>132.7543992779084</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9770,7 +9725,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>118.0151058149246</v>
+        <v>119.3870071557051</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9961,7 +9916,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>98.68016319944435</v>
+        <v>99.91141630136751</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10131,7 +10086,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>126.5746166671259</v>
+        <v>128.5215166687449</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10316,7 +10271,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>148.3356140093458</v>
+        <v>150.0127747192289</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10507,7 +10462,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>71.67331333100223</v>
+        <v>72.27629679834631</v>
       </c>
       <c r="T52">
         <v>20200508</v>
@@ -10553,9 +10508,6 @@
       </c>
       <c r="AO52">
         <v>483</v>
-      </c>
-      <c r="AP52">
-        <v>7</v>
       </c>
       <c r="AR52">
         <v>4</v>
